--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,24 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['50', '62', '66']</t>
+  </si>
+  <si>
+    <t>['4', '21']</t>
+  </si>
+  <si>
+    <t>['9', '68']</t>
+  </si>
+  <si>
+    <t>['18', '48', '90+3']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -506,9 +524,6 @@
   </si>
   <si>
     <t>['33', '75']</t>
-  </si>
-  <si>
-    <t>['90+4']</t>
   </si>
   <si>
     <t>['89', '90+3']</t>
@@ -671,6 +686,18 @@
   </si>
   <si>
     <t>['27', '54']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['20', '90+7']</t>
+  </si>
+  <si>
+    <t>['40', '81']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1399,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1497,7 +1524,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1575,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1703,7 +1730,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1784,7 +1811,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1987,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2115,7 +2142,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2193,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -2399,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2554,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2733,7 +2760,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2811,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.6</v>
@@ -2939,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3020,7 +3047,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3145,7 +3172,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3351,7 +3378,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3429,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3557,7 +3584,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3635,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3763,7 +3790,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3844,7 +3871,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4047,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
         <v>2.4</v>
@@ -4175,7 +4202,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4256,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4459,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4587,7 +4614,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4665,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ18">
         <v>1.6</v>
@@ -4793,7 +4820,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4871,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5205,7 +5232,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5286,7 +5313,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5411,7 +5438,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5492,7 +5519,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5901,7 +5928,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6313,10 +6340,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6441,7 +6468,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6519,10 +6546,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -6647,7 +6674,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6725,10 +6752,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -6853,7 +6880,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6931,10 +6958,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7140,7 +7167,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7265,7 +7292,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7343,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -7471,7 +7498,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7758,7 +7785,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7883,7 +7910,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7961,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>1.6</v>
@@ -8089,7 +8116,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8170,7 +8197,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8295,7 +8322,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8501,7 +8528,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8707,7 +8734,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8913,7 +8940,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8991,7 +9018,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9119,7 +9146,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9200,7 +9227,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9325,7 +9352,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9406,7 +9433,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9531,7 +9558,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9612,7 +9639,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -9818,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10024,7 +10051,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10227,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10355,7 +10382,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10433,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>0.2</v>
@@ -10561,7 +10588,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10845,10 +10872,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -10973,7 +11000,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11051,7 +11078,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11257,10 +11284,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11463,10 +11490,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11669,7 +11696,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12003,7 +12030,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12084,7 +12111,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12290,7 +12317,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12415,7 +12442,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12493,10 +12520,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12905,7 +12932,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13033,7 +13060,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13239,7 +13266,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13317,10 +13344,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13526,7 +13553,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -13732,7 +13759,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13857,7 +13884,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14063,7 +14090,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14269,7 +14296,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14350,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14556,7 +14583,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -14681,7 +14708,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14759,7 +14786,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
         <v>2.4</v>
@@ -14965,7 +14992,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68">
         <v>1.25</v>
@@ -15377,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15583,10 +15610,10 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -15792,7 +15819,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -15917,7 +15944,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -15995,10 +16022,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16123,7 +16150,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16204,7 +16231,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16329,7 +16356,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16535,7 +16562,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16613,10 +16640,10 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16819,10 +16846,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -16947,7 +16974,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17025,10 +17052,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17231,7 +17258,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17359,7 +17386,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17565,7 +17592,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17852,7 +17879,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -17977,7 +18004,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18183,7 +18210,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18261,7 +18288,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18389,7 +18416,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18470,7 +18497,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ85">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18595,7 +18622,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18673,10 +18700,10 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ86">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -18882,7 +18909,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19085,10 +19112,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ88">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19213,7 +19240,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19291,7 +19318,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
         <v>2.4</v>
@@ -19419,7 +19446,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19497,7 +19524,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90">
         <v>1.6</v>
@@ -19625,7 +19652,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19706,7 +19733,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20037,7 +20064,7 @@
         <v>91</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20118,7 +20145,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20243,7 +20270,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20449,7 +20476,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20527,7 +20554,7 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -20861,7 +20888,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21067,7 +21094,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21273,7 +21300,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21479,7 +21506,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21636,6 +21663,2066 @@
       </c>
       <c r="BP100">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7326995</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>159</v>
+      </c>
+      <c r="P101" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q101">
+        <v>2.6</v>
+      </c>
+      <c r="R101">
+        <v>2.43</v>
+      </c>
+      <c r="S101">
+        <v>4.03</v>
+      </c>
+      <c r="T101">
+        <v>1.31</v>
+      </c>
+      <c r="U101">
+        <v>3.28</v>
+      </c>
+      <c r="V101">
+        <v>2.54</v>
+      </c>
+      <c r="W101">
+        <v>1.54</v>
+      </c>
+      <c r="X101">
+        <v>5.7</v>
+      </c>
+      <c r="Y101">
+        <v>1.12</v>
+      </c>
+      <c r="Z101">
+        <v>1.99</v>
+      </c>
+      <c r="AA101">
+        <v>3.58</v>
+      </c>
+      <c r="AB101">
+        <v>3.05</v>
+      </c>
+      <c r="AC101">
+        <v>1.04</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.18</v>
+      </c>
+      <c r="AF101">
+        <v>4.15</v>
+      </c>
+      <c r="AG101">
+        <v>1.57</v>
+      </c>
+      <c r="AH101">
+        <v>2.27</v>
+      </c>
+      <c r="AI101">
+        <v>1.59</v>
+      </c>
+      <c r="AJ101">
+        <v>2.27</v>
+      </c>
+      <c r="AK101">
+        <v>1.25</v>
+      </c>
+      <c r="AL101">
+        <v>1.27</v>
+      </c>
+      <c r="AM101">
+        <v>1.72</v>
+      </c>
+      <c r="AN101">
+        <v>1.25</v>
+      </c>
+      <c r="AO101">
+        <v>1.4</v>
+      </c>
+      <c r="AP101">
+        <v>1.2</v>
+      </c>
+      <c r="AQ101">
+        <v>1.33</v>
+      </c>
+      <c r="AR101">
+        <v>1.86</v>
+      </c>
+      <c r="AS101">
+        <v>1.35</v>
+      </c>
+      <c r="AT101">
+        <v>3.21</v>
+      </c>
+      <c r="AU101">
+        <v>7</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>6</v>
+      </c>
+      <c r="AY101">
+        <v>17</v>
+      </c>
+      <c r="AZ101">
+        <v>8</v>
+      </c>
+      <c r="BA101">
+        <v>9</v>
+      </c>
+      <c r="BB101">
+        <v>6</v>
+      </c>
+      <c r="BC101">
+        <v>15</v>
+      </c>
+      <c r="BD101">
+        <v>1.94</v>
+      </c>
+      <c r="BE101">
+        <v>9.4</v>
+      </c>
+      <c r="BF101">
+        <v>2.12</v>
+      </c>
+      <c r="BG101">
+        <v>1.1</v>
+      </c>
+      <c r="BH101">
+        <v>6.2</v>
+      </c>
+      <c r="BI101">
+        <v>1.29</v>
+      </c>
+      <c r="BJ101">
+        <v>3.14</v>
+      </c>
+      <c r="BK101">
+        <v>1.54</v>
+      </c>
+      <c r="BL101">
+        <v>2.32</v>
+      </c>
+      <c r="BM101">
+        <v>1.95</v>
+      </c>
+      <c r="BN101">
+        <v>1.85</v>
+      </c>
+      <c r="BO101">
+        <v>2.44</v>
+      </c>
+      <c r="BP101">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7326996</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>160</v>
+      </c>
+      <c r="P102" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q102">
+        <v>4.7</v>
+      </c>
+      <c r="R102">
+        <v>1.96</v>
+      </c>
+      <c r="S102">
+        <v>2.2</v>
+      </c>
+      <c r="T102">
+        <v>1.44</v>
+      </c>
+      <c r="U102">
+        <v>2.72</v>
+      </c>
+      <c r="V102">
+        <v>3.1</v>
+      </c>
+      <c r="W102">
+        <v>1.38</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.05</v>
+      </c>
+      <c r="Z102">
+        <v>4.55</v>
+      </c>
+      <c r="AA102">
+        <v>3.47</v>
+      </c>
+      <c r="AB102">
+        <v>1.67</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>3.15</v>
+      </c>
+      <c r="AE102">
+        <v>1.35</v>
+      </c>
+      <c r="AF102">
+        <v>3.15</v>
+      </c>
+      <c r="AG102">
+        <v>1.99</v>
+      </c>
+      <c r="AH102">
+        <v>1.74</v>
+      </c>
+      <c r="AI102">
+        <v>1.8</v>
+      </c>
+      <c r="AJ102">
+        <v>1.73</v>
+      </c>
+      <c r="AK102">
+        <v>1.9</v>
+      </c>
+      <c r="AL102">
+        <v>1.22</v>
+      </c>
+      <c r="AM102">
+        <v>1.17</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
+        <v>1.4</v>
+      </c>
+      <c r="AP102">
+        <v>1</v>
+      </c>
+      <c r="AQ102">
+        <v>1.33</v>
+      </c>
+      <c r="AR102">
+        <v>1.36</v>
+      </c>
+      <c r="AS102">
+        <v>1.52</v>
+      </c>
+      <c r="AT102">
+        <v>2.88</v>
+      </c>
+      <c r="AU102">
+        <v>4</v>
+      </c>
+      <c r="AV102">
+        <v>7</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>8</v>
+      </c>
+      <c r="AY102">
+        <v>7</v>
+      </c>
+      <c r="AZ102">
+        <v>15</v>
+      </c>
+      <c r="BA102">
+        <v>3</v>
+      </c>
+      <c r="BB102">
+        <v>6</v>
+      </c>
+      <c r="BC102">
+        <v>9</v>
+      </c>
+      <c r="BD102">
+        <v>2.97</v>
+      </c>
+      <c r="BE102">
+        <v>9.6</v>
+      </c>
+      <c r="BF102">
+        <v>1.53</v>
+      </c>
+      <c r="BG102">
+        <v>1.21</v>
+      </c>
+      <c r="BH102">
+        <v>3.74</v>
+      </c>
+      <c r="BI102">
+        <v>1.42</v>
+      </c>
+      <c r="BJ102">
+        <v>2.65</v>
+      </c>
+      <c r="BK102">
+        <v>1.74</v>
+      </c>
+      <c r="BL102">
+        <v>2.02</v>
+      </c>
+      <c r="BM102">
+        <v>2.19</v>
+      </c>
+      <c r="BN102">
+        <v>1.6</v>
+      </c>
+      <c r="BO102">
+        <v>2.88</v>
+      </c>
+      <c r="BP102">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7326997</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45415.125</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" t="s">
+        <v>76</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>161</v>
+      </c>
+      <c r="P103" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q103">
+        <v>2.49</v>
+      </c>
+      <c r="R103">
+        <v>2.22</v>
+      </c>
+      <c r="S103">
+        <v>5.15</v>
+      </c>
+      <c r="T103">
+        <v>1.44</v>
+      </c>
+      <c r="U103">
+        <v>2.85</v>
+      </c>
+      <c r="V103">
+        <v>3.2</v>
+      </c>
+      <c r="W103">
+        <v>1.37</v>
+      </c>
+      <c r="X103">
+        <v>7.9</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>1.72</v>
+      </c>
+      <c r="AA103">
+        <v>3.55</v>
+      </c>
+      <c r="AB103">
+        <v>4.15</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE103">
+        <v>1.32</v>
+      </c>
+      <c r="AF103">
+        <v>2.98</v>
+      </c>
+      <c r="AG103">
+        <v>1.95</v>
+      </c>
+      <c r="AH103">
+        <v>1.77</v>
+      </c>
+      <c r="AI103">
+        <v>1.95</v>
+      </c>
+      <c r="AJ103">
+        <v>1.8</v>
+      </c>
+      <c r="AK103">
+        <v>1.2</v>
+      </c>
+      <c r="AL103">
+        <v>1.29</v>
+      </c>
+      <c r="AM103">
+        <v>2.02</v>
+      </c>
+      <c r="AN103">
+        <v>2.5</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>2.6</v>
+      </c>
+      <c r="AQ103">
+        <v>0.86</v>
+      </c>
+      <c r="AR103">
+        <v>1.34</v>
+      </c>
+      <c r="AS103">
+        <v>1.46</v>
+      </c>
+      <c r="AT103">
+        <v>2.8</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>5</v>
+      </c>
+      <c r="AX103">
+        <v>7</v>
+      </c>
+      <c r="AY103">
+        <v>9</v>
+      </c>
+      <c r="AZ103">
+        <v>13</v>
+      </c>
+      <c r="BA103">
+        <v>8</v>
+      </c>
+      <c r="BB103">
+        <v>5</v>
+      </c>
+      <c r="BC103">
+        <v>13</v>
+      </c>
+      <c r="BD103">
+        <v>1.65</v>
+      </c>
+      <c r="BE103">
+        <v>9.6</v>
+      </c>
+      <c r="BF103">
+        <v>2.61</v>
+      </c>
+      <c r="BG103">
+        <v>1.14</v>
+      </c>
+      <c r="BH103">
+        <v>5.1</v>
+      </c>
+      <c r="BI103">
+        <v>1.27</v>
+      </c>
+      <c r="BJ103">
+        <v>3.28</v>
+      </c>
+      <c r="BK103">
+        <v>1.5</v>
+      </c>
+      <c r="BL103">
+        <v>2.41</v>
+      </c>
+      <c r="BM103">
+        <v>2</v>
+      </c>
+      <c r="BN103">
+        <v>1.8</v>
+      </c>
+      <c r="BO103">
+        <v>2.34</v>
+      </c>
+      <c r="BP103">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7326998</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45415.125</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>85</v>
+      </c>
+      <c r="H104" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>162</v>
+      </c>
+      <c r="P104" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q104">
+        <v>2.88</v>
+      </c>
+      <c r="R104">
+        <v>2.1</v>
+      </c>
+      <c r="S104">
+        <v>3.75</v>
+      </c>
+      <c r="T104">
+        <v>1.44</v>
+      </c>
+      <c r="U104">
+        <v>2.63</v>
+      </c>
+      <c r="V104">
+        <v>3.25</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>9</v>
+      </c>
+      <c r="Y104">
+        <v>1.07</v>
+      </c>
+      <c r="Z104">
+        <v>2.1</v>
+      </c>
+      <c r="AA104">
+        <v>3.13</v>
+      </c>
+      <c r="AB104">
+        <v>3.2</v>
+      </c>
+      <c r="AC104">
+        <v>1.06</v>
+      </c>
+      <c r="AD104">
+        <v>8.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.35</v>
+      </c>
+      <c r="AF104">
+        <v>3.1</v>
+      </c>
+      <c r="AG104">
+        <v>1.99</v>
+      </c>
+      <c r="AH104">
+        <v>1.74</v>
+      </c>
+      <c r="AI104">
+        <v>1.8</v>
+      </c>
+      <c r="AJ104">
+        <v>1.95</v>
+      </c>
+      <c r="AK104">
+        <v>1.35</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.65</v>
+      </c>
+      <c r="AN104">
+        <v>1.4</v>
+      </c>
+      <c r="AO104">
+        <v>1.5</v>
+      </c>
+      <c r="AP104">
+        <v>1.67</v>
+      </c>
+      <c r="AQ104">
+        <v>1.29</v>
+      </c>
+      <c r="AR104">
+        <v>1.29</v>
+      </c>
+      <c r="AS104">
+        <v>1.24</v>
+      </c>
+      <c r="AT104">
+        <v>2.53</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>5</v>
+      </c>
+      <c r="AW104">
+        <v>6</v>
+      </c>
+      <c r="AX104">
+        <v>8</v>
+      </c>
+      <c r="AY104">
+        <v>11</v>
+      </c>
+      <c r="AZ104">
+        <v>13</v>
+      </c>
+      <c r="BA104">
+        <v>7</v>
+      </c>
+      <c r="BB104">
+        <v>9</v>
+      </c>
+      <c r="BC104">
+        <v>16</v>
+      </c>
+      <c r="BD104">
+        <v>1.72</v>
+      </c>
+      <c r="BE104">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF104">
+        <v>2.47</v>
+      </c>
+      <c r="BG104">
+        <v>1.17</v>
+      </c>
+      <c r="BH104">
+        <v>4.2</v>
+      </c>
+      <c r="BI104">
+        <v>1.36</v>
+      </c>
+      <c r="BJ104">
+        <v>2.89</v>
+      </c>
+      <c r="BK104">
+        <v>1.65</v>
+      </c>
+      <c r="BL104">
+        <v>2.16</v>
+      </c>
+      <c r="BM104">
+        <v>2.04</v>
+      </c>
+      <c r="BN104">
+        <v>1.69</v>
+      </c>
+      <c r="BO104">
+        <v>2.64</v>
+      </c>
+      <c r="BP104">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7326999</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45415.125</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>163</v>
+      </c>
+      <c r="P105" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q105">
+        <v>3.28</v>
+      </c>
+      <c r="R105">
+        <v>2.08</v>
+      </c>
+      <c r="S105">
+        <v>3.83</v>
+      </c>
+      <c r="T105">
+        <v>1.5</v>
+      </c>
+      <c r="U105">
+        <v>2.65</v>
+      </c>
+      <c r="V105">
+        <v>3.46</v>
+      </c>
+      <c r="W105">
+        <v>1.33</v>
+      </c>
+      <c r="X105">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y105">
+        <v>1.05</v>
+      </c>
+      <c r="Z105">
+        <v>2.3</v>
+      </c>
+      <c r="AA105">
+        <v>3.18</v>
+      </c>
+      <c r="AB105">
+        <v>2.81</v>
+      </c>
+      <c r="AC105">
+        <v>1.08</v>
+      </c>
+      <c r="AD105">
+        <v>7.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.42</v>
+      </c>
+      <c r="AF105">
+        <v>2.8</v>
+      </c>
+      <c r="AG105">
+        <v>2.16</v>
+      </c>
+      <c r="AH105">
+        <v>1.63</v>
+      </c>
+      <c r="AI105">
+        <v>1.9</v>
+      </c>
+      <c r="AJ105">
+        <v>1.77</v>
+      </c>
+      <c r="AK105">
+        <v>1.38</v>
+      </c>
+      <c r="AL105">
+        <v>1.28</v>
+      </c>
+      <c r="AM105">
+        <v>1.55</v>
+      </c>
+      <c r="AN105">
+        <v>1.4</v>
+      </c>
+      <c r="AO105">
+        <v>2</v>
+      </c>
+      <c r="AP105">
+        <v>1.67</v>
+      </c>
+      <c r="AQ105">
+        <v>1.6</v>
+      </c>
+      <c r="AR105">
+        <v>1.34</v>
+      </c>
+      <c r="AS105">
+        <v>1.39</v>
+      </c>
+      <c r="AT105">
+        <v>2.73</v>
+      </c>
+      <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>2</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>3</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>5</v>
+      </c>
+      <c r="BA105">
+        <v>8</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>12</v>
+      </c>
+      <c r="BD105">
+        <v>1.96</v>
+      </c>
+      <c r="BE105">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF105">
+        <v>2.13</v>
+      </c>
+      <c r="BG105">
+        <v>1.26</v>
+      </c>
+      <c r="BH105">
+        <v>3.34</v>
+      </c>
+      <c r="BI105">
+        <v>1.5</v>
+      </c>
+      <c r="BJ105">
+        <v>2.41</v>
+      </c>
+      <c r="BK105">
+        <v>1.92</v>
+      </c>
+      <c r="BL105">
+        <v>1.88</v>
+      </c>
+      <c r="BM105">
+        <v>2.41</v>
+      </c>
+      <c r="BN105">
+        <v>1.5</v>
+      </c>
+      <c r="BO105">
+        <v>3.2</v>
+      </c>
+      <c r="BP105">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7327000</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45415.125</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s">
+        <v>89</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>101</v>
+      </c>
+      <c r="P106" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q106">
+        <v>2.4</v>
+      </c>
+      <c r="R106">
+        <v>2.2</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3</v>
+      </c>
+      <c r="V106">
+        <v>2.55</v>
+      </c>
+      <c r="W106">
+        <v>1.45</v>
+      </c>
+      <c r="X106">
+        <v>6.2</v>
+      </c>
+      <c r="Y106">
+        <v>1.1</v>
+      </c>
+      <c r="Z106">
+        <v>1.94</v>
+      </c>
+      <c r="AA106">
+        <v>3.55</v>
+      </c>
+      <c r="AB106">
+        <v>3.23</v>
+      </c>
+      <c r="AC106">
+        <v>1.05</v>
+      </c>
+      <c r="AD106">
+        <v>9.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.85</v>
+      </c>
+      <c r="AG106">
+        <v>1.67</v>
+      </c>
+      <c r="AH106">
+        <v>2.11</v>
+      </c>
+      <c r="AI106">
+        <v>1.62</v>
+      </c>
+      <c r="AJ106">
+        <v>2.1</v>
+      </c>
+      <c r="AK106">
+        <v>1.25</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>1.85</v>
+      </c>
+      <c r="AN106">
+        <v>2.2</v>
+      </c>
+      <c r="AO106">
+        <v>0.5</v>
+      </c>
+      <c r="AP106">
+        <v>2</v>
+      </c>
+      <c r="AQ106">
+        <v>0.6</v>
+      </c>
+      <c r="AR106">
+        <v>1.61</v>
+      </c>
+      <c r="AS106">
+        <v>1.03</v>
+      </c>
+      <c r="AT106">
+        <v>2.64</v>
+      </c>
+      <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>8</v>
+      </c>
+      <c r="AX106">
+        <v>7</v>
+      </c>
+      <c r="AY106">
+        <v>11</v>
+      </c>
+      <c r="AZ106">
+        <v>11</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>7</v>
+      </c>
+      <c r="BD106">
+        <v>1.68</v>
+      </c>
+      <c r="BE106">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF106">
+        <v>2.56</v>
+      </c>
+      <c r="BG106">
+        <v>1.2</v>
+      </c>
+      <c r="BH106">
+        <v>3.88</v>
+      </c>
+      <c r="BI106">
+        <v>1.4</v>
+      </c>
+      <c r="BJ106">
+        <v>2.72</v>
+      </c>
+      <c r="BK106">
+        <v>1.8</v>
+      </c>
+      <c r="BL106">
+        <v>2</v>
+      </c>
+      <c r="BM106">
+        <v>2.16</v>
+      </c>
+      <c r="BN106">
+        <v>1.62</v>
+      </c>
+      <c r="BO106">
+        <v>2.84</v>
+      </c>
+      <c r="BP106">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7327001</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45415.125</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>91</v>
+      </c>
+      <c r="P107" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q107">
+        <v>3.75</v>
+      </c>
+      <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>3</v>
+      </c>
+      <c r="T107">
+        <v>1.44</v>
+      </c>
+      <c r="U107">
+        <v>2.63</v>
+      </c>
+      <c r="V107">
+        <v>3.25</v>
+      </c>
+      <c r="W107">
+        <v>1.33</v>
+      </c>
+      <c r="X107">
+        <v>9</v>
+      </c>
+      <c r="Y107">
+        <v>1.07</v>
+      </c>
+      <c r="Z107">
+        <v>2.8</v>
+      </c>
+      <c r="AA107">
+        <v>3.27</v>
+      </c>
+      <c r="AB107">
+        <v>2.25</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>8</v>
+      </c>
+      <c r="AE107">
+        <v>1.35</v>
+      </c>
+      <c r="AF107">
+        <v>3.1</v>
+      </c>
+      <c r="AG107">
+        <v>1.99</v>
+      </c>
+      <c r="AH107">
+        <v>1.74</v>
+      </c>
+      <c r="AI107">
+        <v>1.8</v>
+      </c>
+      <c r="AJ107">
+        <v>1.95</v>
+      </c>
+      <c r="AK107">
+        <v>1.62</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.35</v>
+      </c>
+      <c r="AN107">
+        <v>1.4</v>
+      </c>
+      <c r="AO107">
+        <v>1.25</v>
+      </c>
+      <c r="AP107">
+        <v>1.17</v>
+      </c>
+      <c r="AQ107">
+        <v>1.6</v>
+      </c>
+      <c r="AR107">
+        <v>1.53</v>
+      </c>
+      <c r="AS107">
+        <v>1.16</v>
+      </c>
+      <c r="AT107">
+        <v>2.69</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>10</v>
+      </c>
+      <c r="AY107">
+        <v>10</v>
+      </c>
+      <c r="AZ107">
+        <v>15</v>
+      </c>
+      <c r="BA107">
+        <v>5</v>
+      </c>
+      <c r="BB107">
+        <v>4</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.89</v>
+      </c>
+      <c r="BE107">
+        <v>8.9</v>
+      </c>
+      <c r="BF107">
+        <v>2.21</v>
+      </c>
+      <c r="BG107">
+        <v>1.23</v>
+      </c>
+      <c r="BH107">
+        <v>3.56</v>
+      </c>
+      <c r="BI107">
+        <v>1.45</v>
+      </c>
+      <c r="BJ107">
+        <v>2.55</v>
+      </c>
+      <c r="BK107">
+        <v>1.8</v>
+      </c>
+      <c r="BL107">
+        <v>2</v>
+      </c>
+      <c r="BM107">
+        <v>2.29</v>
+      </c>
+      <c r="BN107">
+        <v>1.55</v>
+      </c>
+      <c r="BO107">
+        <v>3.04</v>
+      </c>
+      <c r="BP107">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7327003</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45415.16666666666</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>86</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>143</v>
+      </c>
+      <c r="P108" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q108">
+        <v>3.37</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>4.02</v>
+      </c>
+      <c r="T108">
+        <v>1.57</v>
+      </c>
+      <c r="U108">
+        <v>2.46</v>
+      </c>
+      <c r="V108">
+        <v>3.65</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y108">
+        <v>1.03</v>
+      </c>
+      <c r="Z108">
+        <v>2.31</v>
+      </c>
+      <c r="AA108">
+        <v>3.05</v>
+      </c>
+      <c r="AB108">
+        <v>2.91</v>
+      </c>
+      <c r="AC108">
+        <v>1.1</v>
+      </c>
+      <c r="AD108">
+        <v>6.5</v>
+      </c>
+      <c r="AE108">
+        <v>1.49</v>
+      </c>
+      <c r="AF108">
+        <v>2.46</v>
+      </c>
+      <c r="AG108">
+        <v>2.38</v>
+      </c>
+      <c r="AH108">
+        <v>1.53</v>
+      </c>
+      <c r="AI108">
+        <v>2.05</v>
+      </c>
+      <c r="AJ108">
+        <v>1.67</v>
+      </c>
+      <c r="AK108">
+        <v>1.35</v>
+      </c>
+      <c r="AL108">
+        <v>1.3</v>
+      </c>
+      <c r="AM108">
+        <v>1.53</v>
+      </c>
+      <c r="AN108">
+        <v>1.17</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>1.43</v>
+      </c>
+      <c r="AQ108">
+        <v>0.83</v>
+      </c>
+      <c r="AR108">
+        <v>1.38</v>
+      </c>
+      <c r="AS108">
+        <v>1.34</v>
+      </c>
+      <c r="AT108">
+        <v>2.72</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>9</v>
+      </c>
+      <c r="AZ108">
+        <v>5</v>
+      </c>
+      <c r="BA108">
+        <v>3</v>
+      </c>
+      <c r="BB108">
+        <v>6</v>
+      </c>
+      <c r="BC108">
+        <v>9</v>
+      </c>
+      <c r="BD108">
+        <v>1.82</v>
+      </c>
+      <c r="BE108">
+        <v>8.9</v>
+      </c>
+      <c r="BF108">
+        <v>2.32</v>
+      </c>
+      <c r="BG108">
+        <v>1.25</v>
+      </c>
+      <c r="BH108">
+        <v>3.42</v>
+      </c>
+      <c r="BI108">
+        <v>1.48</v>
+      </c>
+      <c r="BJ108">
+        <v>2.47</v>
+      </c>
+      <c r="BK108">
+        <v>1.88</v>
+      </c>
+      <c r="BL108">
+        <v>1.92</v>
+      </c>
+      <c r="BM108">
+        <v>2.36</v>
+      </c>
+      <c r="BN108">
+        <v>1.52</v>
+      </c>
+      <c r="BO108">
+        <v>3.18</v>
+      </c>
+      <c r="BP108">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7327002</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45415.16666666666</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s">
+        <v>87</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>164</v>
+      </c>
+      <c r="P109" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q109">
+        <v>3.16</v>
+      </c>
+      <c r="R109">
+        <v>2.21</v>
+      </c>
+      <c r="S109">
+        <v>3.62</v>
+      </c>
+      <c r="T109">
+        <v>1.42</v>
+      </c>
+      <c r="U109">
+        <v>2.95</v>
+      </c>
+      <c r="V109">
+        <v>3.06</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>7.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.07</v>
+      </c>
+      <c r="Z109">
+        <v>2.33</v>
+      </c>
+      <c r="AA109">
+        <v>3.37</v>
+      </c>
+      <c r="AB109">
+        <v>2.63</v>
+      </c>
+      <c r="AC109">
+        <v>1.02</v>
+      </c>
+      <c r="AD109">
+        <v>8.6</v>
+      </c>
+      <c r="AE109">
+        <v>1.29</v>
+      </c>
+      <c r="AF109">
+        <v>3.15</v>
+      </c>
+      <c r="AG109">
+        <v>2.01</v>
+      </c>
+      <c r="AH109">
+        <v>1.79</v>
+      </c>
+      <c r="AI109">
+        <v>1.78</v>
+      </c>
+      <c r="AJ109">
+        <v>1.97</v>
+      </c>
+      <c r="AK109">
+        <v>1.42</v>
+      </c>
+      <c r="AL109">
+        <v>1.32</v>
+      </c>
+      <c r="AM109">
+        <v>1.56</v>
+      </c>
+      <c r="AN109">
+        <v>0.8</v>
+      </c>
+      <c r="AO109">
+        <v>0.8</v>
+      </c>
+      <c r="AP109">
+        <v>1.17</v>
+      </c>
+      <c r="AQ109">
+        <v>0.67</v>
+      </c>
+      <c r="AR109">
+        <v>1.74</v>
+      </c>
+      <c r="AS109">
+        <v>1.38</v>
+      </c>
+      <c r="AT109">
+        <v>3.12</v>
+      </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>14</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>11</v>
+      </c>
+      <c r="BC109">
+        <v>18</v>
+      </c>
+      <c r="BD109">
+        <v>1.94</v>
+      </c>
+      <c r="BE109">
+        <v>9</v>
+      </c>
+      <c r="BF109">
+        <v>2.14</v>
+      </c>
+      <c r="BG109">
+        <v>1.2</v>
+      </c>
+      <c r="BH109">
+        <v>3.84</v>
+      </c>
+      <c r="BI109">
+        <v>1.41</v>
+      </c>
+      <c r="BJ109">
+        <v>2.69</v>
+      </c>
+      <c r="BK109">
+        <v>1.73</v>
+      </c>
+      <c r="BL109">
+        <v>2.04</v>
+      </c>
+      <c r="BM109">
+        <v>2.17</v>
+      </c>
+      <c r="BN109">
+        <v>1.61</v>
+      </c>
+      <c r="BO109">
+        <v>2.84</v>
+      </c>
+      <c r="BP109">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7327004</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45415.29166666666</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>82</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>91</v>
+      </c>
+      <c r="P110" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>1.88</v>
+      </c>
+      <c r="S110">
+        <v>2.52</v>
+      </c>
+      <c r="T110">
+        <v>1.48</v>
+      </c>
+      <c r="U110">
+        <v>2.5</v>
+      </c>
+      <c r="V110">
+        <v>3.25</v>
+      </c>
+      <c r="W110">
+        <v>1.34</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.05</v>
+      </c>
+      <c r="Z110">
+        <v>3.6</v>
+      </c>
+      <c r="AA110">
+        <v>3.2</v>
+      </c>
+      <c r="AB110">
+        <v>1.94</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>2.88</v>
+      </c>
+      <c r="AE110">
+        <v>1.42</v>
+      </c>
+      <c r="AF110">
+        <v>2.88</v>
+      </c>
+      <c r="AG110">
+        <v>2.07</v>
+      </c>
+      <c r="AH110">
+        <v>1.69</v>
+      </c>
+      <c r="AI110">
+        <v>1.91</v>
+      </c>
+      <c r="AJ110">
+        <v>1.87</v>
+      </c>
+      <c r="AK110">
+        <v>1.65</v>
+      </c>
+      <c r="AL110">
+        <v>1.32</v>
+      </c>
+      <c r="AM110">
+        <v>1.25</v>
+      </c>
+      <c r="AN110">
+        <v>1.4</v>
+      </c>
+      <c r="AO110">
+        <v>2.6</v>
+      </c>
+      <c r="AP110">
+        <v>1.17</v>
+      </c>
+      <c r="AQ110">
+        <v>2.67</v>
+      </c>
+      <c r="AR110">
+        <v>0.91</v>
+      </c>
+      <c r="AS110">
+        <v>1.41</v>
+      </c>
+      <c r="AT110">
+        <v>2.32</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>7</v>
+      </c>
+      <c r="AW110">
+        <v>6</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>10</v>
+      </c>
+      <c r="AZ110">
+        <v>7</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>11</v>
+      </c>
+      <c r="BD110">
+        <v>2.59</v>
+      </c>
+      <c r="BE110">
+        <v>9.5</v>
+      </c>
+      <c r="BF110">
+        <v>1.66</v>
+      </c>
+      <c r="BG110">
+        <v>1.28</v>
+      </c>
+      <c r="BH110">
+        <v>3.5</v>
+      </c>
+      <c r="BI110">
+        <v>1.5</v>
+      </c>
+      <c r="BJ110">
+        <v>2.5</v>
+      </c>
+      <c r="BK110">
+        <v>1.83</v>
+      </c>
+      <c r="BL110">
+        <v>1.9</v>
+      </c>
+      <c r="BM110">
+        <v>2.3</v>
+      </c>
+      <c r="BN110">
+        <v>1.57</v>
+      </c>
+      <c r="BO110">
+        <v>3</v>
+      </c>
+      <c r="BP110">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,27 @@
     <t>['18', '48', '90+3']</t>
   </si>
   <si>
+    <t>['15', '25', '55']</t>
+  </si>
+  <si>
+    <t>['35', '41', '90+9']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['23', '48']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['25', '46']</t>
+  </si>
+  <si>
+    <t>['42', '66']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -556,9 +577,6 @@
     <t>['57', '74']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -596,9 +614,6 @@
   </si>
   <si>
     <t>['34']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['54']</t>
@@ -698,6 +713,27 @@
   </si>
   <si>
     <t>['40', '81']</t>
+  </si>
+  <si>
+    <t>['51', '76']</t>
+  </si>
+  <si>
+    <t>['55', '66']</t>
+  </si>
+  <si>
+    <t>['22', '64', '75']</t>
+  </si>
+  <si>
+    <t>['26', '65']</t>
+  </si>
+  <si>
+    <t>['2', '18', '84']</t>
+  </si>
+  <si>
+    <t>['4', '90+2']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1524,7 +1560,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1605,7 +1641,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1730,7 +1766,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2014,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
         <v>0.6</v>
@@ -2142,7 +2178,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2223,7 +2259,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2554,7 +2590,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2632,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2760,7 +2796,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2841,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3044,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3172,7 +3208,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3250,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3378,7 +3414,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3584,7 +3620,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3665,7 +3701,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3790,7 +3826,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3868,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14">
         <v>1.6</v>
@@ -4077,7 +4113,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4202,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4614,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4695,7 +4731,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ18">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4820,7 +4856,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5104,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5232,7 +5268,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5310,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ21">
         <v>1.6</v>
@@ -5438,7 +5474,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5725,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5931,7 +5967,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6134,10 +6170,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6340,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6468,7 +6504,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6674,7 +6710,7 @@
         <v>91</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6880,7 +6916,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7164,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ30">
         <v>0.67</v>
@@ -7292,7 +7328,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7370,10 +7406,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7498,7 +7534,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7576,10 +7612,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ32">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7782,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -7910,7 +7946,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7991,7 +8027,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8116,7 +8152,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8194,10 +8230,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8322,7 +8358,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8400,10 +8436,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8528,7 +8564,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8606,10 +8642,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8734,7 +8770,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8815,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -8940,7 +8976,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9146,7 +9182,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9224,7 +9260,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>0.67</v>
@@ -9352,7 +9388,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9430,7 +9466,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>1.29</v>
@@ -9558,7 +9594,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9636,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ42">
         <v>0.83</v>
@@ -10048,7 +10084,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ44">
         <v>0.6</v>
@@ -10257,7 +10293,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10382,7 +10418,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10463,7 +10499,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10588,7 +10624,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10666,7 +10702,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -10875,7 +10911,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11000,7 +11036,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11081,7 +11117,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11696,10 +11732,10 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11905,7 +11941,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12030,7 +12066,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12108,7 +12144,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12314,7 +12350,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ55">
         <v>1.29</v>
@@ -12442,7 +12478,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12726,10 +12762,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13060,7 +13096,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13138,10 +13174,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13266,7 +13302,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13550,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ61">
         <v>0.83</v>
@@ -13756,7 +13792,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62">
         <v>1.6</v>
@@ -13884,7 +13920,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -13962,10 +13998,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14090,7 +14126,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14171,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14296,7 +14332,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14377,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="AQ65">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14580,7 +14616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>0.86</v>
@@ -14708,7 +14744,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14789,7 +14825,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15198,10 +15234,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15407,7 +15443,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -15816,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -15944,7 +15980,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16150,7 +16186,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16356,7 +16392,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16437,7 +16473,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16562,7 +16598,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16640,7 +16676,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -16974,7 +17010,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17386,7 +17422,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17464,10 +17500,10 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17592,7 +17628,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17670,10 +17706,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -17876,7 +17912,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ82">
         <v>1.33</v>
@@ -18004,7 +18040,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18085,7 +18121,7 @@
         <v>0</v>
       </c>
       <c r="AQ83">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18210,7 +18246,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18291,7 +18327,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18416,7 +18452,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18494,7 +18530,7 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85">
         <v>2.67</v>
@@ -18622,7 +18658,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18700,10 +18736,10 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -18906,7 +18942,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ87">
         <v>0.83</v>
@@ -19240,7 +19276,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19321,7 +19357,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19446,7 +19482,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19527,7 +19563,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -19652,7 +19688,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19730,7 +19766,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ91">
         <v>0.86</v>
@@ -19939,7 +19975,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ92">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20064,7 +20100,7 @@
         <v>91</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20142,7 +20178,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20270,7 +20306,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20351,7 +20387,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20476,7 +20512,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20557,7 +20593,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -20760,7 +20796,7 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ96">
         <v>1.25</v>
@@ -20888,7 +20924,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -20966,7 +21002,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21094,7 +21130,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21172,10 +21208,10 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21300,7 +21336,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21378,10 +21414,10 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21506,7 +21542,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21584,10 +21620,10 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -21793,7 +21829,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -21918,7 +21954,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22330,7 +22366,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22742,7 +22778,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -22948,7 +22984,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23232,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>0.83</v>
@@ -23360,7 +23396,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23566,7 +23602,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23723,6 +23759,2066 @@
       </c>
       <c r="BP110">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7327006</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45418.04166666666</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>165</v>
+      </c>
+      <c r="P111" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q111">
+        <v>2.17</v>
+      </c>
+      <c r="R111">
+        <v>2.32</v>
+      </c>
+      <c r="S111">
+        <v>6.66</v>
+      </c>
+      <c r="T111">
+        <v>1.43</v>
+      </c>
+      <c r="U111">
+        <v>2.93</v>
+      </c>
+      <c r="V111">
+        <v>3.14</v>
+      </c>
+      <c r="W111">
+        <v>1.39</v>
+      </c>
+      <c r="X111">
+        <v>9</v>
+      </c>
+      <c r="Y111">
+        <v>1.07</v>
+      </c>
+      <c r="Z111">
+        <v>1.59</v>
+      </c>
+      <c r="AA111">
+        <v>3.98</v>
+      </c>
+      <c r="AB111">
+        <v>5.75</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>7.7</v>
+      </c>
+      <c r="AE111">
+        <v>1.32</v>
+      </c>
+      <c r="AF111">
+        <v>3.12</v>
+      </c>
+      <c r="AG111">
+        <v>2.06</v>
+      </c>
+      <c r="AH111">
+        <v>1.76</v>
+      </c>
+      <c r="AI111">
+        <v>2.14</v>
+      </c>
+      <c r="AJ111">
+        <v>1.75</v>
+      </c>
+      <c r="AK111">
+        <v>1.14</v>
+      </c>
+      <c r="AL111">
+        <v>1.23</v>
+      </c>
+      <c r="AM111">
+        <v>2.15</v>
+      </c>
+      <c r="AN111">
+        <v>0.8</v>
+      </c>
+      <c r="AO111">
+        <v>1.4</v>
+      </c>
+      <c r="AP111">
+        <v>1.17</v>
+      </c>
+      <c r="AQ111">
+        <v>1.17</v>
+      </c>
+      <c r="AR111">
+        <v>1.88</v>
+      </c>
+      <c r="AS111">
+        <v>1.35</v>
+      </c>
+      <c r="AT111">
+        <v>3.23</v>
+      </c>
+      <c r="AU111">
+        <v>8</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>6</v>
+      </c>
+      <c r="AX111">
+        <v>6</v>
+      </c>
+      <c r="AY111">
+        <v>14</v>
+      </c>
+      <c r="AZ111">
+        <v>10</v>
+      </c>
+      <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>4</v>
+      </c>
+      <c r="BC111">
+        <v>10</v>
+      </c>
+      <c r="BD111">
+        <v>1.51</v>
+      </c>
+      <c r="BE111">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF111">
+        <v>3.05</v>
+      </c>
+      <c r="BG111">
+        <v>1.25</v>
+      </c>
+      <c r="BH111">
+        <v>3.6</v>
+      </c>
+      <c r="BI111">
+        <v>1.35</v>
+      </c>
+      <c r="BJ111">
+        <v>2.84</v>
+      </c>
+      <c r="BK111">
+        <v>1.64</v>
+      </c>
+      <c r="BL111">
+        <v>2.12</v>
+      </c>
+      <c r="BM111">
+        <v>2.08</v>
+      </c>
+      <c r="BN111">
+        <v>1.7</v>
+      </c>
+      <c r="BO111">
+        <v>2.72</v>
+      </c>
+      <c r="BP111">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7327005</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45418.04166666666</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s">
+        <v>72</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>166</v>
+      </c>
+      <c r="P112" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q112">
+        <v>3</v>
+      </c>
+      <c r="R112">
+        <v>1.95</v>
+      </c>
+      <c r="S112">
+        <v>3.6</v>
+      </c>
+      <c r="T112">
+        <v>1.42</v>
+      </c>
+      <c r="U112">
+        <v>2.62</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>1.33</v>
+      </c>
+      <c r="X112">
+        <v>7</v>
+      </c>
+      <c r="Y112">
+        <v>1.07</v>
+      </c>
+      <c r="Z112">
+        <v>2.4</v>
+      </c>
+      <c r="AA112">
+        <v>3.24</v>
+      </c>
+      <c r="AB112">
+        <v>3.05</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.36</v>
+      </c>
+      <c r="AF112">
+        <v>2.88</v>
+      </c>
+      <c r="AG112">
+        <v>2.23</v>
+      </c>
+      <c r="AH112">
+        <v>1.66</v>
+      </c>
+      <c r="AI112">
+        <v>1.83</v>
+      </c>
+      <c r="AJ112">
+        <v>1.83</v>
+      </c>
+      <c r="AK112">
+        <v>1.4</v>
+      </c>
+      <c r="AL112">
+        <v>1.35</v>
+      </c>
+      <c r="AM112">
+        <v>1.55</v>
+      </c>
+      <c r="AN112">
+        <v>0.83</v>
+      </c>
+      <c r="AO112">
+        <v>1.33</v>
+      </c>
+      <c r="AP112">
+        <v>1.14</v>
+      </c>
+      <c r="AQ112">
+        <v>1.14</v>
+      </c>
+      <c r="AR112">
+        <v>1.45</v>
+      </c>
+      <c r="AS112">
+        <v>1.29</v>
+      </c>
+      <c r="AT112">
+        <v>2.74</v>
+      </c>
+      <c r="AU112">
+        <v>8</v>
+      </c>
+      <c r="AV112">
+        <v>4</v>
+      </c>
+      <c r="AW112">
+        <v>6</v>
+      </c>
+      <c r="AX112">
+        <v>6</v>
+      </c>
+      <c r="AY112">
+        <v>14</v>
+      </c>
+      <c r="AZ112">
+        <v>10</v>
+      </c>
+      <c r="BA112">
+        <v>12</v>
+      </c>
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BC112">
+        <v>13</v>
+      </c>
+      <c r="BD112">
+        <v>1.85</v>
+      </c>
+      <c r="BE112">
+        <v>9.1</v>
+      </c>
+      <c r="BF112">
+        <v>2.26</v>
+      </c>
+      <c r="BG112">
+        <v>1.2</v>
+      </c>
+      <c r="BH112">
+        <v>3.88</v>
+      </c>
+      <c r="BI112">
+        <v>1.4</v>
+      </c>
+      <c r="BJ112">
+        <v>2.72</v>
+      </c>
+      <c r="BK112">
+        <v>1.72</v>
+      </c>
+      <c r="BL112">
+        <v>2.05</v>
+      </c>
+      <c r="BM112">
+        <v>2.16</v>
+      </c>
+      <c r="BN112">
+        <v>1.62</v>
+      </c>
+      <c r="BO112">
+        <v>2.84</v>
+      </c>
+      <c r="BP112">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7327007</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45418.04513888889</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" t="s">
+        <v>77</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>167</v>
+      </c>
+      <c r="P113" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q113">
+        <v>3.6</v>
+      </c>
+      <c r="R113">
+        <v>2.16</v>
+      </c>
+      <c r="S113">
+        <v>3.34</v>
+      </c>
+      <c r="T113">
+        <v>1.42</v>
+      </c>
+      <c r="U113">
+        <v>2.62</v>
+      </c>
+      <c r="V113">
+        <v>2.9</v>
+      </c>
+      <c r="W113">
+        <v>1.36</v>
+      </c>
+      <c r="X113">
+        <v>7</v>
+      </c>
+      <c r="Y113">
+        <v>1.07</v>
+      </c>
+      <c r="Z113">
+        <v>2.74</v>
+      </c>
+      <c r="AA113">
+        <v>3.32</v>
+      </c>
+      <c r="AB113">
+        <v>2.58</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>8</v>
+      </c>
+      <c r="AE113">
+        <v>1.36</v>
+      </c>
+      <c r="AF113">
+        <v>2.9</v>
+      </c>
+      <c r="AG113">
+        <v>2.12</v>
+      </c>
+      <c r="AH113">
+        <v>1.73</v>
+      </c>
+      <c r="AI113">
+        <v>1.87</v>
+      </c>
+      <c r="AJ113">
+        <v>1.98</v>
+      </c>
+      <c r="AK113">
+        <v>1.5</v>
+      </c>
+      <c r="AL113">
+        <v>1.35</v>
+      </c>
+      <c r="AM113">
+        <v>1.44</v>
+      </c>
+      <c r="AN113">
+        <v>2</v>
+      </c>
+      <c r="AO113">
+        <v>1.6</v>
+      </c>
+      <c r="AP113">
+        <v>2.17</v>
+      </c>
+      <c r="AQ113">
+        <v>1.33</v>
+      </c>
+      <c r="AR113">
+        <v>1.67</v>
+      </c>
+      <c r="AS113">
+        <v>1.25</v>
+      </c>
+      <c r="AT113">
+        <v>2.92</v>
+      </c>
+      <c r="AU113">
+        <v>9</v>
+      </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>6</v>
+      </c>
+      <c r="AY113">
+        <v>13</v>
+      </c>
+      <c r="AZ113">
+        <v>6</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>6</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>1.88</v>
+      </c>
+      <c r="BE113">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF113">
+        <v>2.21</v>
+      </c>
+      <c r="BG113">
+        <v>1.22</v>
+      </c>
+      <c r="BH113">
+        <v>3.8</v>
+      </c>
+      <c r="BI113">
+        <v>1.36</v>
+      </c>
+      <c r="BJ113">
+        <v>2.79</v>
+      </c>
+      <c r="BK113">
+        <v>1.64</v>
+      </c>
+      <c r="BL113">
+        <v>2.12</v>
+      </c>
+      <c r="BM113">
+        <v>2.09</v>
+      </c>
+      <c r="BN113">
+        <v>1.69</v>
+      </c>
+      <c r="BO113">
+        <v>2.72</v>
+      </c>
+      <c r="BP113">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7327010</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>100</v>
+      </c>
+      <c r="P114" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q114">
+        <v>4.17</v>
+      </c>
+      <c r="R114">
+        <v>2.11</v>
+      </c>
+      <c r="S114">
+        <v>3.08</v>
+      </c>
+      <c r="T114">
+        <v>1.5</v>
+      </c>
+      <c r="U114">
+        <v>2.66</v>
+      </c>
+      <c r="V114">
+        <v>3.2</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+      <c r="X114">
+        <v>8.9</v>
+      </c>
+      <c r="Y114">
+        <v>1.05</v>
+      </c>
+      <c r="Z114">
+        <v>3.15</v>
+      </c>
+      <c r="AA114">
+        <v>3.15</v>
+      </c>
+      <c r="AB114">
+        <v>2.25</v>
+      </c>
+      <c r="AC114">
+        <v>1.08</v>
+      </c>
+      <c r="AD114">
+        <v>7.5</v>
+      </c>
+      <c r="AE114">
+        <v>1.42</v>
+      </c>
+      <c r="AF114">
+        <v>2.8</v>
+      </c>
+      <c r="AG114">
+        <v>2.3</v>
+      </c>
+      <c r="AH114">
+        <v>1.58</v>
+      </c>
+      <c r="AI114">
+        <v>1.9</v>
+      </c>
+      <c r="AJ114">
+        <v>1.77</v>
+      </c>
+      <c r="AK114">
+        <v>1.55</v>
+      </c>
+      <c r="AL114">
+        <v>1.3</v>
+      </c>
+      <c r="AM114">
+        <v>1.28</v>
+      </c>
+      <c r="AN114">
+        <v>1.43</v>
+      </c>
+      <c r="AO114">
+        <v>1</v>
+      </c>
+      <c r="AP114">
+        <v>1.38</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.34</v>
+      </c>
+      <c r="AS114">
+        <v>1.32</v>
+      </c>
+      <c r="AT114">
+        <v>2.66</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>6</v>
+      </c>
+      <c r="AX114">
+        <v>7</v>
+      </c>
+      <c r="AY114">
+        <v>12</v>
+      </c>
+      <c r="AZ114">
+        <v>11</v>
+      </c>
+      <c r="BA114">
+        <v>6</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>12</v>
+      </c>
+      <c r="BD114">
+        <v>1.98</v>
+      </c>
+      <c r="BE114">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF114">
+        <v>2.11</v>
+      </c>
+      <c r="BG114">
+        <v>1.28</v>
+      </c>
+      <c r="BH114">
+        <v>3.2</v>
+      </c>
+      <c r="BI114">
+        <v>1.53</v>
+      </c>
+      <c r="BJ114">
+        <v>2.34</v>
+      </c>
+      <c r="BK114">
+        <v>1.93</v>
+      </c>
+      <c r="BL114">
+        <v>1.81</v>
+      </c>
+      <c r="BM114">
+        <v>2.49</v>
+      </c>
+      <c r="BN114">
+        <v>1.47</v>
+      </c>
+      <c r="BO114">
+        <v>3.42</v>
+      </c>
+      <c r="BP114">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7327009</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>83</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>91</v>
+      </c>
+      <c r="P115" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q115">
+        <v>4</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>2.7</v>
+      </c>
+      <c r="T115">
+        <v>1.38</v>
+      </c>
+      <c r="U115">
+        <v>2.8</v>
+      </c>
+      <c r="V115">
+        <v>2.8</v>
+      </c>
+      <c r="W115">
+        <v>1.38</v>
+      </c>
+      <c r="X115">
+        <v>6.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>3.35</v>
+      </c>
+      <c r="AA115">
+        <v>3.35</v>
+      </c>
+      <c r="AB115">
+        <v>2.1</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>8.5</v>
+      </c>
+      <c r="AE115">
+        <v>1.33</v>
+      </c>
+      <c r="AF115">
+        <v>3</v>
+      </c>
+      <c r="AG115">
+        <v>2.08</v>
+      </c>
+      <c r="AH115">
+        <v>1.7</v>
+      </c>
+      <c r="AI115">
+        <v>1.85</v>
+      </c>
+      <c r="AJ115">
+        <v>1.85</v>
+      </c>
+      <c r="AK115">
+        <v>1.7</v>
+      </c>
+      <c r="AL115">
+        <v>1.28</v>
+      </c>
+      <c r="AM115">
+        <v>1.28</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>2.4</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>2.5</v>
+      </c>
+      <c r="AR115">
+        <v>1.54</v>
+      </c>
+      <c r="AS115">
+        <v>1.31</v>
+      </c>
+      <c r="AT115">
+        <v>2.85</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>8</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>9</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>17</v>
+      </c>
+      <c r="BA115">
+        <v>1</v>
+      </c>
+      <c r="BB115">
+        <v>8</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>2.27</v>
+      </c>
+      <c r="BE115">
+        <v>8.9</v>
+      </c>
+      <c r="BF115">
+        <v>1.85</v>
+      </c>
+      <c r="BG115">
+        <v>1.23</v>
+      </c>
+      <c r="BH115">
+        <v>3.56</v>
+      </c>
+      <c r="BI115">
+        <v>1.45</v>
+      </c>
+      <c r="BJ115">
+        <v>2.55</v>
+      </c>
+      <c r="BK115">
+        <v>1.8</v>
+      </c>
+      <c r="BL115">
+        <v>1.95</v>
+      </c>
+      <c r="BM115">
+        <v>2.29</v>
+      </c>
+      <c r="BN115">
+        <v>1.55</v>
+      </c>
+      <c r="BO115">
+        <v>3.04</v>
+      </c>
+      <c r="BP115">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7327008</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>89</v>
+      </c>
+      <c r="H116" t="s">
+        <v>85</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>92</v>
+      </c>
+      <c r="P116" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q116">
+        <v>2.8</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>3.5</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3</v>
+      </c>
+      <c r="V116">
+        <v>2.5</v>
+      </c>
+      <c r="W116">
+        <v>1.48</v>
+      </c>
+      <c r="X116">
+        <v>5.95</v>
+      </c>
+      <c r="Y116">
+        <v>1.1</v>
+      </c>
+      <c r="Z116">
+        <v>2.3</v>
+      </c>
+      <c r="AA116">
+        <v>3.45</v>
+      </c>
+      <c r="AB116">
+        <v>2.88</v>
+      </c>
+      <c r="AC116">
+        <v>1.02</v>
+      </c>
+      <c r="AD116">
+        <v>10</v>
+      </c>
+      <c r="AE116">
+        <v>1.22</v>
+      </c>
+      <c r="AF116">
+        <v>3.8</v>
+      </c>
+      <c r="AG116">
+        <v>1.72</v>
+      </c>
+      <c r="AH116">
+        <v>2.07</v>
+      </c>
+      <c r="AI116">
+        <v>1.57</v>
+      </c>
+      <c r="AJ116">
+        <v>2.2</v>
+      </c>
+      <c r="AK116">
+        <v>1.33</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>1.53</v>
+      </c>
+      <c r="AN116">
+        <v>0.83</v>
+      </c>
+      <c r="AO116">
+        <v>1.6</v>
+      </c>
+      <c r="AP116">
+        <v>0.71</v>
+      </c>
+      <c r="AQ116">
+        <v>1.83</v>
+      </c>
+      <c r="AR116">
+        <v>1.19</v>
+      </c>
+      <c r="AS116">
+        <v>1.09</v>
+      </c>
+      <c r="AT116">
+        <v>2.28</v>
+      </c>
+      <c r="AU116">
+        <v>4</v>
+      </c>
+      <c r="AV116">
+        <v>7</v>
+      </c>
+      <c r="AW116">
+        <v>8</v>
+      </c>
+      <c r="AX116">
+        <v>4</v>
+      </c>
+      <c r="AY116">
+        <v>12</v>
+      </c>
+      <c r="AZ116">
+        <v>11</v>
+      </c>
+      <c r="BA116">
+        <v>3</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>5</v>
+      </c>
+      <c r="BD116">
+        <v>1.78</v>
+      </c>
+      <c r="BE116">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF116">
+        <v>2.39</v>
+      </c>
+      <c r="BG116">
+        <v>1.27</v>
+      </c>
+      <c r="BH116">
+        <v>3.28</v>
+      </c>
+      <c r="BI116">
+        <v>1.58</v>
+      </c>
+      <c r="BJ116">
+        <v>2.35</v>
+      </c>
+      <c r="BK116">
+        <v>1.94</v>
+      </c>
+      <c r="BL116">
+        <v>1.86</v>
+      </c>
+      <c r="BM116">
+        <v>2.46</v>
+      </c>
+      <c r="BN116">
+        <v>1.54</v>
+      </c>
+      <c r="BO116">
+        <v>3.34</v>
+      </c>
+      <c r="BP116">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7327011</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45418.125</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q117">
+        <v>2.05</v>
+      </c>
+      <c r="R117">
+        <v>2.25</v>
+      </c>
+      <c r="S117">
+        <v>7</v>
+      </c>
+      <c r="T117">
+        <v>1.4</v>
+      </c>
+      <c r="U117">
+        <v>2.75</v>
+      </c>
+      <c r="V117">
+        <v>3</v>
+      </c>
+      <c r="W117">
+        <v>1.36</v>
+      </c>
+      <c r="X117">
+        <v>8</v>
+      </c>
+      <c r="Y117">
+        <v>1.08</v>
+      </c>
+      <c r="Z117">
+        <v>1.42</v>
+      </c>
+      <c r="AA117">
+        <v>4.25</v>
+      </c>
+      <c r="AB117">
+        <v>7.5</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>7.95</v>
+      </c>
+      <c r="AE117">
+        <v>1.31</v>
+      </c>
+      <c r="AF117">
+        <v>3.15</v>
+      </c>
+      <c r="AG117">
+        <v>2</v>
+      </c>
+      <c r="AH117">
+        <v>1.77</v>
+      </c>
+      <c r="AI117">
+        <v>2.2</v>
+      </c>
+      <c r="AJ117">
+        <v>1.62</v>
+      </c>
+      <c r="AK117">
+        <v>1.12</v>
+      </c>
+      <c r="AL117">
+        <v>1.25</v>
+      </c>
+      <c r="AM117">
+        <v>2.73</v>
+      </c>
+      <c r="AN117">
+        <v>2.2</v>
+      </c>
+      <c r="AO117">
+        <v>1.8</v>
+      </c>
+      <c r="AP117">
+        <v>1.83</v>
+      </c>
+      <c r="AQ117">
+        <v>2</v>
+      </c>
+      <c r="AR117">
+        <v>2.41</v>
+      </c>
+      <c r="AS117">
+        <v>1.18</v>
+      </c>
+      <c r="AT117">
+        <v>3.59</v>
+      </c>
+      <c r="AU117">
+        <v>8</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>4</v>
+      </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>12</v>
+      </c>
+      <c r="AZ117">
+        <v>7</v>
+      </c>
+      <c r="BA117">
+        <v>7</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>7</v>
+      </c>
+      <c r="BD117">
+        <v>1.2</v>
+      </c>
+      <c r="BE117">
+        <v>11</v>
+      </c>
+      <c r="BF117">
+        <v>5.5</v>
+      </c>
+      <c r="BG117">
+        <v>1.25</v>
+      </c>
+      <c r="BH117">
+        <v>3.6</v>
+      </c>
+      <c r="BI117">
+        <v>1.36</v>
+      </c>
+      <c r="BJ117">
+        <v>2.79</v>
+      </c>
+      <c r="BK117">
+        <v>1.82</v>
+      </c>
+      <c r="BL117">
+        <v>1.98</v>
+      </c>
+      <c r="BM117">
+        <v>2.09</v>
+      </c>
+      <c r="BN117">
+        <v>1.73</v>
+      </c>
+      <c r="BO117">
+        <v>2.69</v>
+      </c>
+      <c r="BP117">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7327012</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45418.16666666666</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s">
+        <v>84</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>169</v>
+      </c>
+      <c r="P118" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q118">
+        <v>3.41</v>
+      </c>
+      <c r="R118">
+        <v>2.05</v>
+      </c>
+      <c r="S118">
+        <v>3.86</v>
+      </c>
+      <c r="T118">
+        <v>1.54</v>
+      </c>
+      <c r="U118">
+        <v>2.57</v>
+      </c>
+      <c r="V118">
+        <v>3.3</v>
+      </c>
+      <c r="W118">
+        <v>1.29</v>
+      </c>
+      <c r="X118">
+        <v>8.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.04</v>
+      </c>
+      <c r="Z118">
+        <v>2.6</v>
+      </c>
+      <c r="AA118">
+        <v>3</v>
+      </c>
+      <c r="AB118">
+        <v>2.85</v>
+      </c>
+      <c r="AC118">
+        <v>1.08</v>
+      </c>
+      <c r="AD118">
+        <v>6.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.42</v>
+      </c>
+      <c r="AF118">
+        <v>2.62</v>
+      </c>
+      <c r="AG118">
+        <v>2.4</v>
+      </c>
+      <c r="AH118">
+        <v>1.54</v>
+      </c>
+      <c r="AI118">
+        <v>2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.73</v>
+      </c>
+      <c r="AK118">
+        <v>1.42</v>
+      </c>
+      <c r="AL118">
+        <v>1.4</v>
+      </c>
+      <c r="AM118">
+        <v>1.53</v>
+      </c>
+      <c r="AN118">
+        <v>1.2</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+      <c r="AP118">
+        <v>1</v>
+      </c>
+      <c r="AQ118">
+        <v>1.29</v>
+      </c>
+      <c r="AR118">
+        <v>1.47</v>
+      </c>
+      <c r="AS118">
+        <v>1.31</v>
+      </c>
+      <c r="AT118">
+        <v>2.78</v>
+      </c>
+      <c r="AU118">
+        <v>4</v>
+      </c>
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>9</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
+        <v>13</v>
+      </c>
+      <c r="BA118">
+        <v>5</v>
+      </c>
+      <c r="BB118">
+        <v>4</v>
+      </c>
+      <c r="BC118">
+        <v>9</v>
+      </c>
+      <c r="BD118">
+        <v>1.75</v>
+      </c>
+      <c r="BE118">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF118">
+        <v>2.42</v>
+      </c>
+      <c r="BG118">
+        <v>1.2</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>1.36</v>
+      </c>
+      <c r="BJ118">
+        <v>2.79</v>
+      </c>
+      <c r="BK118">
+        <v>1.69</v>
+      </c>
+      <c r="BL118">
+        <v>2.14</v>
+      </c>
+      <c r="BM118">
+        <v>2.09</v>
+      </c>
+      <c r="BN118">
+        <v>1.73</v>
+      </c>
+      <c r="BO118">
+        <v>2.72</v>
+      </c>
+      <c r="BP118">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7327013</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45418.16666666666</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>170</v>
+      </c>
+      <c r="P119" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q119">
+        <v>2.6</v>
+      </c>
+      <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.37</v>
+      </c>
+      <c r="U119">
+        <v>2.9</v>
+      </c>
+      <c r="V119">
+        <v>2.82</v>
+      </c>
+      <c r="W119">
+        <v>1.46</v>
+      </c>
+      <c r="X119">
+        <v>7</v>
+      </c>
+      <c r="Y119">
+        <v>1.1</v>
+      </c>
+      <c r="Z119">
+        <v>1.9</v>
+      </c>
+      <c r="AA119">
+        <v>3.55</v>
+      </c>
+      <c r="AB119">
+        <v>3.7</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AE119">
+        <v>1.25</v>
+      </c>
+      <c r="AF119">
+        <v>3.55</v>
+      </c>
+      <c r="AG119">
+        <v>1.79</v>
+      </c>
+      <c r="AH119">
+        <v>1.97</v>
+      </c>
+      <c r="AI119">
+        <v>1.7</v>
+      </c>
+      <c r="AJ119">
+        <v>2.05</v>
+      </c>
+      <c r="AK119">
+        <v>1.25</v>
+      </c>
+      <c r="AL119">
+        <v>1.29</v>
+      </c>
+      <c r="AM119">
+        <v>1.85</v>
+      </c>
+      <c r="AN119">
+        <v>0.25</v>
+      </c>
+      <c r="AO119">
+        <v>0.2</v>
+      </c>
+      <c r="AP119">
+        <v>0.8</v>
+      </c>
+      <c r="AQ119">
+        <v>0.17</v>
+      </c>
+      <c r="AR119">
+        <v>1.34</v>
+      </c>
+      <c r="AS119">
+        <v>0.97</v>
+      </c>
+      <c r="AT119">
+        <v>2.31</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>13</v>
+      </c>
+      <c r="AZ119">
+        <v>11</v>
+      </c>
+      <c r="BA119">
+        <v>4</v>
+      </c>
+      <c r="BB119">
+        <v>7</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>1.6</v>
+      </c>
+      <c r="BE119">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF119">
+        <v>2.74</v>
+      </c>
+      <c r="BG119">
+        <v>1.22</v>
+      </c>
+      <c r="BH119">
+        <v>3.8</v>
+      </c>
+      <c r="BI119">
+        <v>1.31</v>
+      </c>
+      <c r="BJ119">
+        <v>3.04</v>
+      </c>
+      <c r="BK119">
+        <v>1.57</v>
+      </c>
+      <c r="BL119">
+        <v>2.25</v>
+      </c>
+      <c r="BM119">
+        <v>1.97</v>
+      </c>
+      <c r="BN119">
+        <v>1.78</v>
+      </c>
+      <c r="BO119">
+        <v>2.52</v>
+      </c>
+      <c r="BP119">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7327014</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45418.20833333334</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>87</v>
+      </c>
+      <c r="H120" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>171</v>
+      </c>
+      <c r="P120" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q120">
+        <v>2.5</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>3.75</v>
+      </c>
+      <c r="T120">
+        <v>1.3</v>
+      </c>
+      <c r="U120">
+        <v>3.2</v>
+      </c>
+      <c r="V120">
+        <v>2.4</v>
+      </c>
+      <c r="W120">
+        <v>1.5</v>
+      </c>
+      <c r="X120">
+        <v>5.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.11</v>
+      </c>
+      <c r="Z120">
+        <v>2</v>
+      </c>
+      <c r="AA120">
+        <v>3.7</v>
+      </c>
+      <c r="AB120">
+        <v>3.25</v>
+      </c>
+      <c r="AC120">
+        <v>1.01</v>
+      </c>
+      <c r="AD120">
+        <v>11</v>
+      </c>
+      <c r="AE120">
+        <v>1.22</v>
+      </c>
+      <c r="AF120">
+        <v>3.8</v>
+      </c>
+      <c r="AG120">
+        <v>1.64</v>
+      </c>
+      <c r="AH120">
+        <v>2.18</v>
+      </c>
+      <c r="AI120">
+        <v>1.57</v>
+      </c>
+      <c r="AJ120">
+        <v>2.25</v>
+      </c>
+      <c r="AK120">
+        <v>1.35</v>
+      </c>
+      <c r="AL120">
+        <v>1.25</v>
+      </c>
+      <c r="AM120">
+        <v>1.7</v>
+      </c>
+      <c r="AN120">
+        <v>2</v>
+      </c>
+      <c r="AO120">
+        <v>2</v>
+      </c>
+      <c r="AP120">
+        <v>2.17</v>
+      </c>
+      <c r="AQ120">
+        <v>1.67</v>
+      </c>
+      <c r="AR120">
+        <v>1.61</v>
+      </c>
+      <c r="AS120">
+        <v>1.52</v>
+      </c>
+      <c r="AT120">
+        <v>3.13</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>9</v>
+      </c>
+      <c r="AX120">
+        <v>7</v>
+      </c>
+      <c r="AY120">
+        <v>16</v>
+      </c>
+      <c r="AZ120">
+        <v>11</v>
+      </c>
+      <c r="BA120">
+        <v>8</v>
+      </c>
+      <c r="BB120">
+        <v>5</v>
+      </c>
+      <c r="BC120">
+        <v>13</v>
+      </c>
+      <c r="BD120">
+        <v>1.86</v>
+      </c>
+      <c r="BE120">
+        <v>9.5</v>
+      </c>
+      <c r="BF120">
+        <v>2.22</v>
+      </c>
+      <c r="BG120">
+        <v>1.17</v>
+      </c>
+      <c r="BH120">
+        <v>4.5</v>
+      </c>
+      <c r="BI120">
+        <v>1.26</v>
+      </c>
+      <c r="BJ120">
+        <v>3.34</v>
+      </c>
+      <c r="BK120">
+        <v>1.48</v>
+      </c>
+      <c r="BL120">
+        <v>2.47</v>
+      </c>
+      <c r="BM120">
+        <v>1.83</v>
+      </c>
+      <c r="BN120">
+        <v>1.91</v>
+      </c>
+      <c r="BO120">
+        <v>2.29</v>
+      </c>
+      <c r="BP120">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,18 @@
     <t>['42', '66']</t>
   </si>
   <si>
+    <t>['75', '87']</t>
+  </si>
+  <si>
+    <t>['21', '53']</t>
+  </si>
+  <si>
+    <t>['30', '43', '45+3']</t>
+  </si>
+  <si>
+    <t>['6', '32', '37']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -734,6 +746,21 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['4', '65', '69', '90+12']</t>
+  </si>
+  <si>
+    <t>['19', '49', '52']</t>
+  </si>
+  <si>
+    <t>['45+1', '58', '77']</t>
+  </si>
+  <si>
+    <t>['38', '44', '49', '90+3']</t>
+  </si>
+  <si>
+    <t>['2', '46', '58']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1462,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1560,7 +1587,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1638,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>1.29</v>
@@ -1766,7 +1793,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1844,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2053,7 +2080,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2178,7 +2205,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2465,7 +2492,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2590,7 +2617,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2668,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2796,7 +2823,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2874,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ9">
         <v>1.83</v>
@@ -3208,7 +3235,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3414,7 +3441,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3495,7 +3522,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3620,7 +3647,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3698,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
         <v>1.14</v>
@@ -3826,7 +3853,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3907,7 +3934,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4110,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4238,7 +4265,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4525,7 +4552,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4650,7 +4677,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4856,7 +4883,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4934,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5268,7 +5295,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5474,7 +5501,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5552,10 +5579,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5758,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -6173,7 +6200,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6504,7 +6531,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6582,10 +6609,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -6788,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -6916,7 +6943,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6994,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -7203,7 +7230,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7328,7 +7355,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7534,7 +7561,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7615,7 +7642,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ32">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7946,7 +7973,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8152,7 +8179,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8358,7 +8385,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8564,7 +8591,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8770,7 +8797,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8976,7 +9003,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9182,7 +9209,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9260,10 +9287,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9388,7 +9415,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9594,7 +9621,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9675,7 +9702,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -9878,10 +9905,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10087,7 +10114,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10290,7 +10317,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ45">
         <v>1.83</v>
@@ -10418,7 +10445,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10499,7 +10526,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10705,7 +10732,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -11036,7 +11063,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11114,7 +11141,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.67</v>
@@ -11320,7 +11347,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>0.86</v>
@@ -11529,7 +11556,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ51">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11938,7 +11965,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -12066,7 +12093,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12144,7 +12171,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12478,7 +12505,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13096,7 +13123,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13302,7 +13329,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13380,10 +13407,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13589,7 +13616,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ61">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -13795,7 +13822,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13920,7 +13947,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14126,7 +14153,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14204,7 +14231,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14332,7 +14359,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14744,7 +14771,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14822,10 +14849,10 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ67">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15028,10 +15055,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15237,7 +15264,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ69">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15440,7 +15467,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
         <v>1.29</v>
@@ -15649,7 +15676,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -15855,7 +15882,7 @@
         <v>1</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -15980,7 +16007,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16186,7 +16213,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16264,10 +16291,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16392,7 +16419,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16470,7 +16497,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16598,7 +16625,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -17010,7 +17037,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17091,7 +17118,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17294,7 +17321,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17422,7 +17449,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17628,7 +17655,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17709,7 +17736,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18040,7 +18067,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18246,7 +18273,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18452,7 +18479,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18530,10 +18557,10 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18658,7 +18685,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18945,7 +18972,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19148,7 +19175,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88">
         <v>1.6</v>
@@ -19276,7 +19303,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19354,10 +19381,10 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ89">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19482,7 +19509,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19560,7 +19587,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19688,7 +19715,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19972,10 +19999,10 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20100,7 +20127,7 @@
         <v>91</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20306,7 +20333,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20384,7 +20411,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ94">
         <v>1.83</v>
@@ -20512,7 +20539,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20590,7 +20617,7 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20799,7 +20826,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -20924,7 +20951,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21130,7 +21157,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21336,7 +21363,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21417,7 +21444,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21542,7 +21569,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21954,7 +21981,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22032,7 +22059,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ102">
         <v>1.33</v>
@@ -22366,7 +22393,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22444,7 +22471,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104">
         <v>1.29</v>
@@ -22653,7 +22680,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22778,7 +22805,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -22856,10 +22883,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ106">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -22984,7 +23011,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23271,7 +23298,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23396,7 +23423,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23474,10 +23501,10 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23602,7 +23629,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23680,10 +23707,10 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -23808,7 +23835,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24014,7 +24041,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24632,7 +24659,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24713,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="AQ115">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -24838,7 +24865,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25044,7 +25071,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25250,7 +25277,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25534,10 +25561,10 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ119">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25662,7 +25689,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25819,6 +25846,1654 @@
       </c>
       <c r="BP120">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7327016</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45423.08333333334</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>88</v>
+      </c>
+      <c r="H121" t="s">
+        <v>87</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121" t="s">
+        <v>172</v>
+      </c>
+      <c r="P121" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q121">
+        <v>4.03</v>
+      </c>
+      <c r="R121">
+        <v>2.11</v>
+      </c>
+      <c r="S121">
+        <v>3.09</v>
+      </c>
+      <c r="T121">
+        <v>1.49</v>
+      </c>
+      <c r="U121">
+        <v>2.69</v>
+      </c>
+      <c r="V121">
+        <v>3.42</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>1.05</v>
+      </c>
+      <c r="Z121">
+        <v>3</v>
+      </c>
+      <c r="AA121">
+        <v>3</v>
+      </c>
+      <c r="AB121">
+        <v>2.2</v>
+      </c>
+      <c r="AC121">
+        <v>1.06</v>
+      </c>
+      <c r="AD121">
+        <v>7.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.38</v>
+      </c>
+      <c r="AF121">
+        <v>2.8</v>
+      </c>
+      <c r="AG121">
+        <v>2.1</v>
+      </c>
+      <c r="AH121">
+        <v>1.65</v>
+      </c>
+      <c r="AI121">
+        <v>1.91</v>
+      </c>
+      <c r="AJ121">
+        <v>1.8</v>
+      </c>
+      <c r="AK121">
+        <v>1.62</v>
+      </c>
+      <c r="AL121">
+        <v>1.33</v>
+      </c>
+      <c r="AM121">
+        <v>1.38</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>0.67</v>
+      </c>
+      <c r="AP121">
+        <v>0.86</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>1.28</v>
+      </c>
+      <c r="AS121">
+        <v>1.41</v>
+      </c>
+      <c r="AT121">
+        <v>2.69</v>
+      </c>
+      <c r="AU121">
+        <v>10</v>
+      </c>
+      <c r="AV121">
+        <v>6</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>16</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>6</v>
+      </c>
+      <c r="BB121">
+        <v>1</v>
+      </c>
+      <c r="BC121">
+        <v>7</v>
+      </c>
+      <c r="BD121">
+        <v>2</v>
+      </c>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>2.05</v>
+      </c>
+      <c r="BG121">
+        <v>1.2</v>
+      </c>
+      <c r="BH121">
+        <v>4.2</v>
+      </c>
+      <c r="BI121">
+        <v>1.33</v>
+      </c>
+      <c r="BJ121">
+        <v>2.91</v>
+      </c>
+      <c r="BK121">
+        <v>1.67</v>
+      </c>
+      <c r="BL121">
+        <v>2.2</v>
+      </c>
+      <c r="BM121">
+        <v>2</v>
+      </c>
+      <c r="BN121">
+        <v>1.73</v>
+      </c>
+      <c r="BO121">
+        <v>2.65</v>
+      </c>
+      <c r="BP121">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7327018</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45423.08333333334</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122" t="s">
+        <v>173</v>
+      </c>
+      <c r="P122" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q122">
+        <v>3.64</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>3.42</v>
+      </c>
+      <c r="T122">
+        <v>1.56</v>
+      </c>
+      <c r="U122">
+        <v>2.34</v>
+      </c>
+      <c r="V122">
+        <v>3.48</v>
+      </c>
+      <c r="W122">
+        <v>1.28</v>
+      </c>
+      <c r="X122">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y122">
+        <v>1.04</v>
+      </c>
+      <c r="Z122">
+        <v>2.7</v>
+      </c>
+      <c r="AA122">
+        <v>2.8</v>
+      </c>
+      <c r="AB122">
+        <v>2.55</v>
+      </c>
+      <c r="AC122">
+        <v>1.07</v>
+      </c>
+      <c r="AD122">
+        <v>6.4</v>
+      </c>
+      <c r="AE122">
+        <v>1.5</v>
+      </c>
+      <c r="AF122">
+        <v>2.45</v>
+      </c>
+      <c r="AG122">
+        <v>2.4</v>
+      </c>
+      <c r="AH122">
+        <v>1.5</v>
+      </c>
+      <c r="AI122">
+        <v>2.04</v>
+      </c>
+      <c r="AJ122">
+        <v>1.73</v>
+      </c>
+      <c r="AK122">
+        <v>1.47</v>
+      </c>
+      <c r="AL122">
+        <v>1.38</v>
+      </c>
+      <c r="AM122">
+        <v>1.43</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>1.6</v>
+      </c>
+      <c r="AR122">
+        <v>1.47</v>
+      </c>
+      <c r="AS122">
+        <v>1.16</v>
+      </c>
+      <c r="AT122">
+        <v>2.63</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>7</v>
+      </c>
+      <c r="AW122">
+        <v>6</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>11</v>
+      </c>
+      <c r="BB122">
+        <v>1</v>
+      </c>
+      <c r="BC122">
+        <v>12</v>
+      </c>
+      <c r="BD122">
+        <v>1.83</v>
+      </c>
+      <c r="BE122">
+        <v>8</v>
+      </c>
+      <c r="BF122">
+        <v>2.2</v>
+      </c>
+      <c r="BG122">
+        <v>1.14</v>
+      </c>
+      <c r="BH122">
+        <v>5.1</v>
+      </c>
+      <c r="BI122">
+        <v>1.25</v>
+      </c>
+      <c r="BJ122">
+        <v>3.42</v>
+      </c>
+      <c r="BK122">
+        <v>1.6</v>
+      </c>
+      <c r="BL122">
+        <v>2.31</v>
+      </c>
+      <c r="BM122">
+        <v>1.9</v>
+      </c>
+      <c r="BN122">
+        <v>1.9</v>
+      </c>
+      <c r="BO122">
+        <v>2.44</v>
+      </c>
+      <c r="BP122">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7327017</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45423.08333333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="H123" t="s">
+        <v>74</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>91</v>
+      </c>
+      <c r="P123" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q123">
+        <v>2.41</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>4.5</v>
+      </c>
+      <c r="T123">
+        <v>1.37</v>
+      </c>
+      <c r="U123">
+        <v>2.95</v>
+      </c>
+      <c r="V123">
+        <v>2.71</v>
+      </c>
+      <c r="W123">
+        <v>1.43</v>
+      </c>
+      <c r="X123">
+        <v>6.75</v>
+      </c>
+      <c r="Y123">
+        <v>1.09</v>
+      </c>
+      <c r="Z123">
+        <v>1.87</v>
+      </c>
+      <c r="AA123">
+        <v>3.4</v>
+      </c>
+      <c r="AB123">
+        <v>3.5</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>9.6</v>
+      </c>
+      <c r="AE123">
+        <v>1.25</v>
+      </c>
+      <c r="AF123">
+        <v>3.42</v>
+      </c>
+      <c r="AG123">
+        <v>1.8</v>
+      </c>
+      <c r="AH123">
+        <v>1.91</v>
+      </c>
+      <c r="AI123">
+        <v>1.75</v>
+      </c>
+      <c r="AJ123">
+        <v>2.01</v>
+      </c>
+      <c r="AK123">
+        <v>1.22</v>
+      </c>
+      <c r="AL123">
+        <v>1.22</v>
+      </c>
+      <c r="AM123">
+        <v>1.93</v>
+      </c>
+      <c r="AN123">
+        <v>1.2</v>
+      </c>
+      <c r="AO123">
+        <v>0.17</v>
+      </c>
+      <c r="AP123">
+        <v>1</v>
+      </c>
+      <c r="AQ123">
+        <v>0.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.08</v>
+      </c>
+      <c r="AS123">
+        <v>1.07</v>
+      </c>
+      <c r="AT123">
+        <v>2.15</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>8</v>
+      </c>
+      <c r="AW123">
+        <v>8</v>
+      </c>
+      <c r="AX123">
+        <v>5</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>13</v>
+      </c>
+      <c r="BA123">
+        <v>8</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>13</v>
+      </c>
+      <c r="BD123">
+        <v>1.62</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>2.62</v>
+      </c>
+      <c r="BG123">
+        <v>1.18</v>
+      </c>
+      <c r="BH123">
+        <v>4.5</v>
+      </c>
+      <c r="BI123">
+        <v>1.3</v>
+      </c>
+      <c r="BJ123">
+        <v>3.08</v>
+      </c>
+      <c r="BK123">
+        <v>1.62</v>
+      </c>
+      <c r="BL123">
+        <v>2.25</v>
+      </c>
+      <c r="BM123">
+        <v>1.99</v>
+      </c>
+      <c r="BN123">
+        <v>1.83</v>
+      </c>
+      <c r="BO123">
+        <v>2.44</v>
+      </c>
+      <c r="BP123">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7327020</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45423.125</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>91</v>
+      </c>
+      <c r="P124" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q124">
+        <v>4.5</v>
+      </c>
+      <c r="R124">
+        <v>2.09</v>
+      </c>
+      <c r="S124">
+        <v>2.55</v>
+      </c>
+      <c r="T124">
+        <v>1.42</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>2.86</v>
+      </c>
+      <c r="W124">
+        <v>1.39</v>
+      </c>
+      <c r="X124">
+        <v>7.3</v>
+      </c>
+      <c r="Y124">
+        <v>1.07</v>
+      </c>
+      <c r="Z124">
+        <v>3.4</v>
+      </c>
+      <c r="AA124">
+        <v>3.2</v>
+      </c>
+      <c r="AB124">
+        <v>1.95</v>
+      </c>
+      <c r="AC124">
+        <v>1.03</v>
+      </c>
+      <c r="AD124">
+        <v>8.4</v>
+      </c>
+      <c r="AE124">
+        <v>1.28</v>
+      </c>
+      <c r="AF124">
+        <v>3.18</v>
+      </c>
+      <c r="AG124">
+        <v>1.95</v>
+      </c>
+      <c r="AH124">
+        <v>1.78</v>
+      </c>
+      <c r="AI124">
+        <v>1.81</v>
+      </c>
+      <c r="AJ124">
+        <v>1.93</v>
+      </c>
+      <c r="AK124">
+        <v>1.8</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.25</v>
+      </c>
+      <c r="AN124">
+        <v>0.8</v>
+      </c>
+      <c r="AO124">
+        <v>2.5</v>
+      </c>
+      <c r="AP124">
+        <v>0.83</v>
+      </c>
+      <c r="AQ124">
+        <v>2.29</v>
+      </c>
+      <c r="AR124">
+        <v>1.4</v>
+      </c>
+      <c r="AS124">
+        <v>1.45</v>
+      </c>
+      <c r="AT124">
+        <v>2.85</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>12</v>
+      </c>
+      <c r="AX124">
+        <v>7</v>
+      </c>
+      <c r="AY124">
+        <v>17</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>3</v>
+      </c>
+      <c r="BC124">
+        <v>9</v>
+      </c>
+      <c r="BD124">
+        <v>2.3</v>
+      </c>
+      <c r="BE124">
+        <v>8</v>
+      </c>
+      <c r="BF124">
+        <v>1.8</v>
+      </c>
+      <c r="BG124">
+        <v>1.2</v>
+      </c>
+      <c r="BH124">
+        <v>4</v>
+      </c>
+      <c r="BI124">
+        <v>1.31</v>
+      </c>
+      <c r="BJ124">
+        <v>3.04</v>
+      </c>
+      <c r="BK124">
+        <v>1.73</v>
+      </c>
+      <c r="BL124">
+        <v>2</v>
+      </c>
+      <c r="BM124">
+        <v>1.98</v>
+      </c>
+      <c r="BN124">
+        <v>1.83</v>
+      </c>
+      <c r="BO124">
+        <v>2.47</v>
+      </c>
+      <c r="BP124">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7327019</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45423.125</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s">
+        <v>89</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>174</v>
+      </c>
+      <c r="P125" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q125">
+        <v>2.25</v>
+      </c>
+      <c r="R125">
+        <v>2.43</v>
+      </c>
+      <c r="S125">
+        <v>4.2</v>
+      </c>
+      <c r="T125">
+        <v>1.26</v>
+      </c>
+      <c r="U125">
+        <v>3.64</v>
+      </c>
+      <c r="V125">
+        <v>2.24</v>
+      </c>
+      <c r="W125">
+        <v>1.61</v>
+      </c>
+      <c r="X125">
+        <v>5</v>
+      </c>
+      <c r="Y125">
+        <v>1.15</v>
+      </c>
+      <c r="Z125">
+        <v>1.7</v>
+      </c>
+      <c r="AA125">
+        <v>3.7</v>
+      </c>
+      <c r="AB125">
+        <v>3.75</v>
+      </c>
+      <c r="AC125">
+        <v>1.02</v>
+      </c>
+      <c r="AD125">
+        <v>10</v>
+      </c>
+      <c r="AE125">
+        <v>1.13</v>
+      </c>
+      <c r="AF125">
+        <v>4.8</v>
+      </c>
+      <c r="AG125">
+        <v>1.52</v>
+      </c>
+      <c r="AH125">
+        <v>2.36</v>
+      </c>
+      <c r="AI125">
+        <v>1.53</v>
+      </c>
+      <c r="AJ125">
+        <v>2.4</v>
+      </c>
+      <c r="AK125">
+        <v>1.23</v>
+      </c>
+      <c r="AL125">
+        <v>1.23</v>
+      </c>
+      <c r="AM125">
+        <v>2.06</v>
+      </c>
+      <c r="AN125">
+        <v>1.17</v>
+      </c>
+      <c r="AO125">
+        <v>0.6</v>
+      </c>
+      <c r="AP125">
+        <v>1.43</v>
+      </c>
+      <c r="AQ125">
+        <v>0.5</v>
+      </c>
+      <c r="AR125">
+        <v>1.77</v>
+      </c>
+      <c r="AS125">
+        <v>1.07</v>
+      </c>
+      <c r="AT125">
+        <v>2.84</v>
+      </c>
+      <c r="AU125">
+        <v>10</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>7</v>
+      </c>
+      <c r="AX125">
+        <v>14</v>
+      </c>
+      <c r="AY125">
+        <v>17</v>
+      </c>
+      <c r="AZ125">
+        <v>19</v>
+      </c>
+      <c r="BA125">
+        <v>4</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>8</v>
+      </c>
+      <c r="BD125">
+        <v>1.83</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>2.2</v>
+      </c>
+      <c r="BG125">
+        <v>1.19</v>
+      </c>
+      <c r="BH125">
+        <v>3.92</v>
+      </c>
+      <c r="BI125">
+        <v>1.4</v>
+      </c>
+      <c r="BJ125">
+        <v>2.72</v>
+      </c>
+      <c r="BK125">
+        <v>1.88</v>
+      </c>
+      <c r="BL125">
+        <v>1.92</v>
+      </c>
+      <c r="BM125">
+        <v>2.17</v>
+      </c>
+      <c r="BN125">
+        <v>1.68</v>
+      </c>
+      <c r="BO125">
+        <v>2.79</v>
+      </c>
+      <c r="BP125">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7327021</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45423.16666666666</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>91</v>
+      </c>
+      <c r="P126" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q126">
+        <v>3.3</v>
+      </c>
+      <c r="R126">
+        <v>1.93</v>
+      </c>
+      <c r="S126">
+        <v>3.7</v>
+      </c>
+      <c r="T126">
+        <v>1.53</v>
+      </c>
+      <c r="U126">
+        <v>2.41</v>
+      </c>
+      <c r="V126">
+        <v>3.34</v>
+      </c>
+      <c r="W126">
+        <v>1.3</v>
+      </c>
+      <c r="X126">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y126">
+        <v>1.04</v>
+      </c>
+      <c r="Z126">
+        <v>2.38</v>
+      </c>
+      <c r="AA126">
+        <v>2.9</v>
+      </c>
+      <c r="AB126">
+        <v>2.8</v>
+      </c>
+      <c r="AC126">
+        <v>1.06</v>
+      </c>
+      <c r="AD126">
+        <v>6.75</v>
+      </c>
+      <c r="AE126">
+        <v>1.41</v>
+      </c>
+      <c r="AF126">
+        <v>2.61</v>
+      </c>
+      <c r="AG126">
+        <v>2.38</v>
+      </c>
+      <c r="AH126">
+        <v>1.53</v>
+      </c>
+      <c r="AI126">
+        <v>1.97</v>
+      </c>
+      <c r="AJ126">
+        <v>1.78</v>
+      </c>
+      <c r="AK126">
+        <v>1.4</v>
+      </c>
+      <c r="AL126">
+        <v>1.3</v>
+      </c>
+      <c r="AM126">
+        <v>1.5</v>
+      </c>
+      <c r="AN126">
+        <v>1.17</v>
+      </c>
+      <c r="AO126">
+        <v>0.83</v>
+      </c>
+      <c r="AP126">
+        <v>1</v>
+      </c>
+      <c r="AQ126">
+        <v>1.14</v>
+      </c>
+      <c r="AR126">
+        <v>0.97</v>
+      </c>
+      <c r="AS126">
+        <v>1.27</v>
+      </c>
+      <c r="AT126">
+        <v>2.24</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>2</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>5</v>
+      </c>
+      <c r="AZ126">
+        <v>5</v>
+      </c>
+      <c r="BA126">
+        <v>7</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
+        <v>9</v>
+      </c>
+      <c r="BD126">
+        <v>2</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>2.05</v>
+      </c>
+      <c r="BG126">
+        <v>1.2</v>
+      </c>
+      <c r="BH126">
+        <v>3.86</v>
+      </c>
+      <c r="BI126">
+        <v>1.41</v>
+      </c>
+      <c r="BJ126">
+        <v>2.69</v>
+      </c>
+      <c r="BK126">
+        <v>1.74</v>
+      </c>
+      <c r="BL126">
+        <v>2.09</v>
+      </c>
+      <c r="BM126">
+        <v>2.15</v>
+      </c>
+      <c r="BN126">
+        <v>1.7</v>
+      </c>
+      <c r="BO126">
+        <v>2.84</v>
+      </c>
+      <c r="BP126">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7327022</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45423.16666666666</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s">
+        <v>82</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>119</v>
+      </c>
+      <c r="P127" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q127">
+        <v>4.08</v>
+      </c>
+      <c r="R127">
+        <v>2.14</v>
+      </c>
+      <c r="S127">
+        <v>3.01</v>
+      </c>
+      <c r="T127">
+        <v>1.48</v>
+      </c>
+      <c r="U127">
+        <v>2.55</v>
+      </c>
+      <c r="V127">
+        <v>3.14</v>
+      </c>
+      <c r="W127">
+        <v>1.33</v>
+      </c>
+      <c r="X127">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y127">
+        <v>1.06</v>
+      </c>
+      <c r="Z127">
+        <v>2.9</v>
+      </c>
+      <c r="AA127">
+        <v>3</v>
+      </c>
+      <c r="AB127">
+        <v>2.25</v>
+      </c>
+      <c r="AC127">
+        <v>1.04</v>
+      </c>
+      <c r="AD127">
+        <v>7.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.35</v>
+      </c>
+      <c r="AF127">
+        <v>2.84</v>
+      </c>
+      <c r="AG127">
+        <v>2.15</v>
+      </c>
+      <c r="AH127">
+        <v>1.62</v>
+      </c>
+      <c r="AI127">
+        <v>1.87</v>
+      </c>
+      <c r="AJ127">
+        <v>1.89</v>
+      </c>
+      <c r="AK127">
+        <v>1.62</v>
+      </c>
+      <c r="AL127">
+        <v>1.34</v>
+      </c>
+      <c r="AM127">
+        <v>1.34</v>
+      </c>
+      <c r="AN127">
+        <v>2</v>
+      </c>
+      <c r="AO127">
+        <v>2.67</v>
+      </c>
+      <c r="AP127">
+        <v>1.71</v>
+      </c>
+      <c r="AQ127">
+        <v>2.71</v>
+      </c>
+      <c r="AR127">
+        <v>1.56</v>
+      </c>
+      <c r="AS127">
+        <v>1.36</v>
+      </c>
+      <c r="AT127">
+        <v>2.92</v>
+      </c>
+      <c r="AU127">
+        <v>7</v>
+      </c>
+      <c r="AV127">
+        <v>2</v>
+      </c>
+      <c r="AW127">
+        <v>6</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>8</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>2.1</v>
+      </c>
+      <c r="BE127">
+        <v>8</v>
+      </c>
+      <c r="BF127">
+        <v>1.95</v>
+      </c>
+      <c r="BG127">
+        <v>1.18</v>
+      </c>
+      <c r="BH127">
+        <v>4.33</v>
+      </c>
+      <c r="BI127">
+        <v>1.27</v>
+      </c>
+      <c r="BJ127">
+        <v>3.28</v>
+      </c>
+      <c r="BK127">
+        <v>1.53</v>
+      </c>
+      <c r="BL127">
+        <v>2.47</v>
+      </c>
+      <c r="BM127">
+        <v>1.85</v>
+      </c>
+      <c r="BN127">
+        <v>1.96</v>
+      </c>
+      <c r="BO127">
+        <v>2.28</v>
+      </c>
+      <c r="BP127">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7327023</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45423.20833333334</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>85</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>175</v>
+      </c>
+      <c r="P128" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q128">
+        <v>3.28</v>
+      </c>
+      <c r="R128">
+        <v>2.02</v>
+      </c>
+      <c r="S128">
+        <v>3.42</v>
+      </c>
+      <c r="T128">
+        <v>1.46</v>
+      </c>
+      <c r="U128">
+        <v>2.61</v>
+      </c>
+      <c r="V128">
+        <v>3</v>
+      </c>
+      <c r="W128">
+        <v>1.36</v>
+      </c>
+      <c r="X128">
+        <v>7.9</v>
+      </c>
+      <c r="Y128">
+        <v>1.06</v>
+      </c>
+      <c r="Z128">
+        <v>2.6</v>
+      </c>
+      <c r="AA128">
+        <v>3</v>
+      </c>
+      <c r="AB128">
+        <v>2.5</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>7.8</v>
+      </c>
+      <c r="AE128">
+        <v>1.32</v>
+      </c>
+      <c r="AF128">
+        <v>2.98</v>
+      </c>
+      <c r="AG128">
+        <v>2.1</v>
+      </c>
+      <c r="AH128">
+        <v>1.65</v>
+      </c>
+      <c r="AI128">
+        <v>1.82</v>
+      </c>
+      <c r="AJ128">
+        <v>1.92</v>
+      </c>
+      <c r="AK128">
+        <v>1.42</v>
+      </c>
+      <c r="AL128">
+        <v>1.3</v>
+      </c>
+      <c r="AM128">
+        <v>1.48</v>
+      </c>
+      <c r="AN128">
+        <v>1.67</v>
+      </c>
+      <c r="AO128">
+        <v>1.6</v>
+      </c>
+      <c r="AP128">
+        <v>1.57</v>
+      </c>
+      <c r="AQ128">
+        <v>1.5</v>
+      </c>
+      <c r="AR128">
+        <v>1.29</v>
+      </c>
+      <c r="AS128">
+        <v>1.27</v>
+      </c>
+      <c r="AT128">
+        <v>2.56</v>
+      </c>
+      <c r="AU128">
+        <v>2</v>
+      </c>
+      <c r="AV128">
+        <v>0</v>
+      </c>
+      <c r="AW128">
+        <v>2</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>4</v>
+      </c>
+      <c r="AZ128">
+        <v>3</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>2.05</v>
+      </c>
+      <c r="BE128">
+        <v>8</v>
+      </c>
+      <c r="BF128">
+        <v>2</v>
+      </c>
+      <c r="BG128">
+        <v>1.25</v>
+      </c>
+      <c r="BH128">
+        <v>3.75</v>
+      </c>
+      <c r="BI128">
+        <v>1.36</v>
+      </c>
+      <c r="BJ128">
+        <v>2.79</v>
+      </c>
+      <c r="BK128">
+        <v>1.73</v>
+      </c>
+      <c r="BL128">
+        <v>2</v>
+      </c>
+      <c r="BM128">
+        <v>2.12</v>
+      </c>
+      <c r="BN128">
+        <v>1.72</v>
+      </c>
+      <c r="BO128">
+        <v>2.76</v>
+      </c>
+      <c r="BP128">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -26609,19 +26609,19 @@
         <v>5</v>
       </c>
       <c r="AV124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW124">
+        <v>7</v>
+      </c>
+      <c r="AX124">
+        <v>4</v>
+      </c>
+      <c r="AY124">
         <v>12</v>
       </c>
-      <c r="AX124">
-        <v>7</v>
-      </c>
-      <c r="AY124">
-        <v>17</v>
-      </c>
       <c r="AZ124">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -26815,19 +26815,19 @@
         <v>10</v>
       </c>
       <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
         <v>5</v>
       </c>
-      <c r="AW125">
-        <v>7</v>
-      </c>
       <c r="AX125">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY125">
+        <v>15</v>
+      </c>
+      <c r="AZ125">
         <v>17</v>
-      </c>
-      <c r="AZ125">
-        <v>19</v>
       </c>
       <c r="BA125">
         <v>4</v>
@@ -27018,22 +27018,22 @@
         <v>2.24</v>
       </c>
       <c r="AU126">
+        <v>0</v>
+      </c>
+      <c r="AV126">
+        <v>5</v>
+      </c>
+      <c r="AW126">
+        <v>5</v>
+      </c>
+      <c r="AX126">
         <v>3</v>
-      </c>
-      <c r="AV126">
-        <v>3</v>
-      </c>
-      <c r="AW126">
-        <v>2</v>
-      </c>
-      <c r="AX126">
-        <v>2</v>
       </c>
       <c r="AY126">
         <v>5</v>
       </c>
       <c r="AZ126">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA126">
         <v>7</v>
@@ -27227,28 +27227,28 @@
         <v>7</v>
       </c>
       <c r="AV127">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW127">
+        <v>7</v>
+      </c>
+      <c r="AX127">
+        <v>7</v>
+      </c>
+      <c r="AY127">
+        <v>14</v>
+      </c>
+      <c r="AZ127">
+        <v>13</v>
+      </c>
+      <c r="BA127">
         <v>6</v>
-      </c>
-      <c r="AX127">
-        <v>6</v>
-      </c>
-      <c r="AY127">
-        <v>13</v>
-      </c>
-      <c r="AZ127">
-        <v>8</v>
-      </c>
-      <c r="BA127">
-        <v>5</v>
       </c>
       <c r="BB127">
         <v>4</v>
       </c>
       <c r="BC127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD127">
         <v>2.1</v>
@@ -27430,31 +27430,31 @@
         <v>2.56</v>
       </c>
       <c r="AU128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV128">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW128">
         <v>2</v>
       </c>
       <c r="AX128">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ128">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BA128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB128">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD128">
         <v>2.05</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,9 @@
     <t>['6', '32', '37']</t>
   </si>
   <si>
+    <t>['5', '8', '50']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -761,6 +764,9 @@
   </si>
   <si>
     <t>['2', '46', '58']</t>
+  </si>
+  <si>
+    <t>['69', '81', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,7 +1593,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1793,7 +1799,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2205,7 +2211,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2617,7 +2623,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2823,7 +2829,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3235,7 +3241,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3441,7 +3447,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3647,7 +3653,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3853,7 +3859,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4265,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4677,7 +4683,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4755,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4883,7 +4889,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5295,7 +5301,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5376,7 +5382,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5501,7 +5507,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6531,7 +6537,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6943,7 +6949,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7024,7 +7030,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7355,7 +7361,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7561,7 +7567,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7973,7 +7979,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8179,7 +8185,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8385,7 +8391,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8591,7 +8597,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8797,7 +8803,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9003,7 +9009,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9081,7 +9087,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9209,7 +9215,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9415,7 +9421,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9621,7 +9627,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10445,7 +10451,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10935,7 +10941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
         <v>1.14</v>
@@ -11063,7 +11069,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -12093,7 +12099,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12174,7 +12180,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12505,7 +12511,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13123,7 +13129,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13329,7 +13335,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13947,7 +13953,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14153,7 +14159,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14359,7 +14365,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14771,7 +14777,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16007,7 +16013,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16213,7 +16219,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16419,7 +16425,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16625,7 +16631,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16909,7 +16915,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>1.29</v>
@@ -17037,7 +17043,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17449,7 +17455,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17655,7 +17661,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18067,7 +18073,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18273,7 +18279,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18479,7 +18485,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18685,7 +18691,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19178,7 +19184,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19303,7 +19309,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19509,7 +19515,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19715,7 +19721,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20127,7 +20133,7 @@
         <v>91</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20333,7 +20339,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20539,7 +20545,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20951,7 +20957,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21157,7 +21163,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21363,7 +21369,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21569,7 +21575,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21981,7 +21987,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22265,7 +22271,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103">
         <v>0.86</v>
@@ -22393,7 +22399,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22805,7 +22811,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23011,7 +23017,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23092,7 +23098,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ107">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23423,7 +23429,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23629,7 +23635,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23835,7 +23841,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24041,7 +24047,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24659,7 +24665,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24865,7 +24871,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25071,7 +25077,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25277,7 +25283,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25689,7 +25695,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25895,7 +25901,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26101,7 +26107,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26307,7 +26313,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26925,7 +26931,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27131,7 +27137,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27337,7 +27343,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27494,6 +27500,212 @@
       </c>
       <c r="BP128">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7327024</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45424.04513888889</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>79</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>6</v>
+      </c>
+      <c r="O129" t="s">
+        <v>176</v>
+      </c>
+      <c r="P129" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q129">
+        <v>2.62</v>
+      </c>
+      <c r="R129">
+        <v>1.99</v>
+      </c>
+      <c r="S129">
+        <v>4.75</v>
+      </c>
+      <c r="T129">
+        <v>1.51</v>
+      </c>
+      <c r="U129">
+        <v>2.46</v>
+      </c>
+      <c r="V129">
+        <v>3.42</v>
+      </c>
+      <c r="W129">
+        <v>1.29</v>
+      </c>
+      <c r="X129">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y129">
+        <v>1.04</v>
+      </c>
+      <c r="Z129">
+        <v>1.9</v>
+      </c>
+      <c r="AA129">
+        <v>3.2</v>
+      </c>
+      <c r="AB129">
+        <v>4.25</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>6.9</v>
+      </c>
+      <c r="AE129">
+        <v>1.42</v>
+      </c>
+      <c r="AF129">
+        <v>2.57</v>
+      </c>
+      <c r="AG129">
+        <v>2.38</v>
+      </c>
+      <c r="AH129">
+        <v>1.54</v>
+      </c>
+      <c r="AI129">
+        <v>2.08</v>
+      </c>
+      <c r="AJ129">
+        <v>1.7</v>
+      </c>
+      <c r="AK129">
+        <v>1.22</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.8</v>
+      </c>
+      <c r="AN129">
+        <v>2.6</v>
+      </c>
+      <c r="AO129">
+        <v>1.6</v>
+      </c>
+      <c r="AP129">
+        <v>2.33</v>
+      </c>
+      <c r="AQ129">
+        <v>1.5</v>
+      </c>
+      <c r="AR129">
+        <v>1.3</v>
+      </c>
+      <c r="AS129">
+        <v>1.24</v>
+      </c>
+      <c r="AT129">
+        <v>2.54</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>7</v>
+      </c>
+      <c r="AW129">
+        <v>4</v>
+      </c>
+      <c r="AX129">
+        <v>7</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>14</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>8</v>
+      </c>
+      <c r="BD129">
+        <v>1.62</v>
+      </c>
+      <c r="BE129">
+        <v>8</v>
+      </c>
+      <c r="BF129">
+        <v>2.75</v>
+      </c>
+      <c r="BG129">
+        <v>1.25</v>
+      </c>
+      <c r="BH129">
+        <v>3.75</v>
+      </c>
+      <c r="BI129">
+        <v>1.36</v>
+      </c>
+      <c r="BJ129">
+        <v>2.79</v>
+      </c>
+      <c r="BK129">
+        <v>1.8</v>
+      </c>
+      <c r="BL129">
+        <v>2</v>
+      </c>
+      <c r="BM129">
+        <v>2.02</v>
+      </c>
+      <c r="BN129">
+        <v>1.8</v>
+      </c>
+      <c r="BO129">
+        <v>2.72</v>
+      </c>
+      <c r="BP129">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,27 @@
     <t>['5', '8', '50']</t>
   </si>
   <si>
+    <t>['33', '66', '71']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['77', '90+1']</t>
+  </si>
+  <si>
+    <t>['70', '90+3']</t>
+  </si>
+  <si>
+    <t>['51', '53', '82']</t>
+  </si>
+  <si>
+    <t>['26', '37', '44', '47', '75']</t>
+  </si>
+  <si>
+    <t>['42', '55', '77']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -664,9 +685,6 @@
     <t>['8']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['45', '89']</t>
   </si>
   <si>
@@ -767,6 +785,12 @@
   </si>
   <si>
     <t>['69', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['5', '15', '84']</t>
+  </si>
+  <si>
+    <t>['13', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1593,7 +1617,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1671,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1799,7 +1823,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2211,7 +2235,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2289,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -2495,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2623,7 +2647,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2704,7 +2728,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2829,7 +2853,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2910,7 +2934,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ9">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3113,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3241,7 +3265,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3319,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3447,7 +3471,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3528,7 +3552,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3653,7 +3677,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3734,7 +3758,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3859,7 +3883,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3937,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4143,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>2.29</v>
@@ -4271,7 +4295,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4352,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4555,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4683,7 +4707,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4764,7 +4788,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4889,7 +4913,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5301,7 +5325,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5379,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5507,7 +5531,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5791,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5997,10 +6021,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6203,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>0.57</v>
@@ -6412,7 +6436,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6537,7 +6561,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6824,7 +6848,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -6949,7 +6973,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7233,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7361,7 +7385,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7442,7 +7466,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7567,7 +7591,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7645,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2.29</v>
@@ -7851,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -7979,7 +8003,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8057,10 +8081,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8185,7 +8209,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8266,7 +8290,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8391,7 +8415,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8469,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8597,7 +8621,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8675,7 +8699,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8803,7 +8827,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8884,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9009,7 +9033,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9090,7 +9114,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9215,7 +9239,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9421,7 +9445,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9499,10 +9523,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9627,7 +9651,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9705,10 +9729,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -9911,7 +9935,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10117,7 +10141,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10326,7 +10350,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10451,7 +10475,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10529,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
         <v>0.57</v>
@@ -10735,10 +10759,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ47">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -10944,7 +10968,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11069,7 +11093,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11147,10 +11171,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11356,7 +11380,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11559,7 +11583,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ51">
         <v>2.71</v>
@@ -11768,7 +11792,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12099,7 +12123,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12386,7 +12410,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12511,7 +12535,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12589,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -12795,10 +12819,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13004,7 +13028,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13129,7 +13153,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13207,7 +13231,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13335,7 +13359,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13619,10 +13643,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -13825,7 +13849,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -13953,7 +13977,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14031,10 +14055,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14159,7 +14183,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14237,10 +14261,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14365,7 +14389,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14446,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14649,10 +14673,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -14777,7 +14801,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15061,10 +15085,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15267,7 +15291,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ69">
         <v>0.57</v>
@@ -15476,7 +15500,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -15682,7 +15706,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -15885,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16013,7 +16037,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16094,7 +16118,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16219,7 +16243,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16297,7 +16321,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>0.5</v>
@@ -16425,7 +16449,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16631,7 +16655,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16918,7 +16942,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17043,7 +17067,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17121,7 +17145,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ78">
         <v>2.71</v>
@@ -17330,7 +17354,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17455,7 +17479,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17533,10 +17557,10 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17661,7 +17685,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17945,7 +17969,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.33</v>
@@ -18073,7 +18097,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18279,7 +18303,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18357,10 +18381,10 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18485,7 +18509,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18691,7 +18715,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18772,7 +18796,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -18975,10 +18999,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19309,7 +19333,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19515,7 +19539,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19593,10 +19617,10 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -19721,7 +19745,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19799,10 +19823,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20133,7 +20157,7 @@
         <v>91</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20211,10 +20235,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20339,7 +20363,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20417,10 +20441,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20545,7 +20569,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20626,7 +20650,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -20829,10 +20853,10 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -20957,7 +20981,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21035,10 +21059,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21163,7 +21187,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21241,7 +21265,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ98">
         <v>2</v>
@@ -21369,7 +21393,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21447,7 +21471,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
         <v>0.57</v>
@@ -21575,7 +21599,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21656,7 +21680,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -21862,7 +21886,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -21987,7 +22011,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22065,7 +22089,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ102">
         <v>1.33</v>
@@ -22274,7 +22298,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22399,7 +22423,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22480,7 +22504,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ104">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22683,7 +22707,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -22811,7 +22835,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23017,7 +23041,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23095,7 +23119,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23304,7 +23328,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23429,7 +23453,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23635,7 +23659,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23713,7 +23737,7 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
         <v>2.71</v>
@@ -23841,7 +23865,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -23919,7 +23943,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ111">
         <v>1.17</v>
@@ -24047,7 +24071,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24125,10 +24149,10 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24334,7 +24358,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -24540,7 +24564,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24665,7 +24689,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24871,7 +24895,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -24949,10 +24973,10 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25077,7 +25101,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25155,7 +25179,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ117">
         <v>2</v>
@@ -25283,7 +25307,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25361,10 +25385,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -25695,7 +25719,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25773,10 +25797,10 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -25901,7 +25925,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -25979,7 +26003,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26107,7 +26131,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26188,7 +26212,7 @@
         <v>0</v>
       </c>
       <c r="AQ122">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26313,7 +26337,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26931,7 +26955,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27009,10 +27033,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ126">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27137,7 +27161,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27343,7 +27367,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27549,7 +27573,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27706,6 +27730,2066 @@
       </c>
       <c r="BP129">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7327032</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F130">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>169</v>
+      </c>
+      <c r="P130" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q130">
+        <v>2.2</v>
+      </c>
+      <c r="R130">
+        <v>2.1</v>
+      </c>
+      <c r="S130">
+        <v>5.25</v>
+      </c>
+      <c r="T130">
+        <v>1.44</v>
+      </c>
+      <c r="U130">
+        <v>2.6</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>7.9</v>
+      </c>
+      <c r="Y130">
+        <v>1.06</v>
+      </c>
+      <c r="Z130">
+        <v>1.62</v>
+      </c>
+      <c r="AA130">
+        <v>3.75</v>
+      </c>
+      <c r="AB130">
+        <v>5.5</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE130">
+        <v>1.36</v>
+      </c>
+      <c r="AF130">
+        <v>3.22</v>
+      </c>
+      <c r="AG130">
+        <v>1.95</v>
+      </c>
+      <c r="AH130">
+        <v>1.75</v>
+      </c>
+      <c r="AI130">
+        <v>2.05</v>
+      </c>
+      <c r="AJ130">
+        <v>1.67</v>
+      </c>
+      <c r="AK130">
+        <v>1.14</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>2.2</v>
+      </c>
+      <c r="AN130">
+        <v>1.83</v>
+      </c>
+      <c r="AO130">
+        <v>1.29</v>
+      </c>
+      <c r="AP130">
+        <v>1.57</v>
+      </c>
+      <c r="AQ130">
+        <v>1.5</v>
+      </c>
+      <c r="AR130">
+        <v>2.36</v>
+      </c>
+      <c r="AS130">
+        <v>1.35</v>
+      </c>
+      <c r="AT130">
+        <v>3.71</v>
+      </c>
+      <c r="AU130">
+        <v>3</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>9</v>
+      </c>
+      <c r="BA130">
+        <v>10</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>13</v>
+      </c>
+      <c r="BD130">
+        <v>1.25</v>
+      </c>
+      <c r="BE130">
+        <v>10</v>
+      </c>
+      <c r="BF130">
+        <v>4.5</v>
+      </c>
+      <c r="BG130">
+        <v>1.22</v>
+      </c>
+      <c r="BH130">
+        <v>3.8</v>
+      </c>
+      <c r="BI130">
+        <v>1.35</v>
+      </c>
+      <c r="BJ130">
+        <v>2.84</v>
+      </c>
+      <c r="BK130">
+        <v>1.68</v>
+      </c>
+      <c r="BL130">
+        <v>2.17</v>
+      </c>
+      <c r="BM130">
+        <v>2.08</v>
+      </c>
+      <c r="BN130">
+        <v>1.74</v>
+      </c>
+      <c r="BO130">
+        <v>2.69</v>
+      </c>
+      <c r="BP130">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7327030</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131" t="s">
+        <v>85</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131" t="s">
+        <v>177</v>
+      </c>
+      <c r="P131" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q131">
+        <v>3.18</v>
+      </c>
+      <c r="R131">
+        <v>2.13</v>
+      </c>
+      <c r="S131">
+        <v>3.82</v>
+      </c>
+      <c r="T131">
+        <v>1.47</v>
+      </c>
+      <c r="U131">
+        <v>2.75</v>
+      </c>
+      <c r="V131">
+        <v>3.34</v>
+      </c>
+      <c r="W131">
+        <v>1.34</v>
+      </c>
+      <c r="X131">
+        <v>7.2</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.4</v>
+      </c>
+      <c r="AA131">
+        <v>3.2</v>
+      </c>
+      <c r="AB131">
+        <v>3</v>
+      </c>
+      <c r="AC131">
+        <v>1.08</v>
+      </c>
+      <c r="AD131">
+        <v>7.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.39</v>
+      </c>
+      <c r="AF131">
+        <v>3.08</v>
+      </c>
+      <c r="AG131">
+        <v>2.15</v>
+      </c>
+      <c r="AH131">
+        <v>1.62</v>
+      </c>
+      <c r="AI131">
+        <v>1.85</v>
+      </c>
+      <c r="AJ131">
+        <v>1.83</v>
+      </c>
+      <c r="AK131">
+        <v>1.35</v>
+      </c>
+      <c r="AL131">
+        <v>1.35</v>
+      </c>
+      <c r="AM131">
+        <v>1.5</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
+        <v>1.83</v>
+      </c>
+      <c r="AP131">
+        <v>1.25</v>
+      </c>
+      <c r="AQ131">
+        <v>1.57</v>
+      </c>
+      <c r="AR131">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS131">
+        <v>1.14</v>
+      </c>
+      <c r="AT131">
+        <v>2.08</v>
+      </c>
+      <c r="AU131">
+        <v>5</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>4</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>9</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>3</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>6</v>
+      </c>
+      <c r="BD131">
+        <v>2</v>
+      </c>
+      <c r="BE131">
+        <v>8</v>
+      </c>
+      <c r="BF131">
+        <v>2.05</v>
+      </c>
+      <c r="BG131">
+        <v>1.23</v>
+      </c>
+      <c r="BH131">
+        <v>3.56</v>
+      </c>
+      <c r="BI131">
+        <v>1.51</v>
+      </c>
+      <c r="BJ131">
+        <v>2.51</v>
+      </c>
+      <c r="BK131">
+        <v>1.8</v>
+      </c>
+      <c r="BL131">
+        <v>2</v>
+      </c>
+      <c r="BM131">
+        <v>2.27</v>
+      </c>
+      <c r="BN131">
+        <v>1.61</v>
+      </c>
+      <c r="BO131">
+        <v>3.08</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7327025</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>89</v>
+      </c>
+      <c r="H132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>178</v>
+      </c>
+      <c r="P132" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q132">
+        <v>2.8</v>
+      </c>
+      <c r="R132">
+        <v>2.2</v>
+      </c>
+      <c r="S132">
+        <v>3.5</v>
+      </c>
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>2.5</v>
+      </c>
+      <c r="W132">
+        <v>1.48</v>
+      </c>
+      <c r="X132">
+        <v>5.75</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
+        <v>2.3</v>
+      </c>
+      <c r="AA132">
+        <v>3.4</v>
+      </c>
+      <c r="AB132">
+        <v>3</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>10</v>
+      </c>
+      <c r="AE132">
+        <v>1.22</v>
+      </c>
+      <c r="AF132">
+        <v>3.8</v>
+      </c>
+      <c r="AG132">
+        <v>1.62</v>
+      </c>
+      <c r="AH132">
+        <v>2.15</v>
+      </c>
+      <c r="AI132">
+        <v>1.57</v>
+      </c>
+      <c r="AJ132">
+        <v>2.25</v>
+      </c>
+      <c r="AK132">
+        <v>1.38</v>
+      </c>
+      <c r="AL132">
+        <v>1.27</v>
+      </c>
+      <c r="AM132">
+        <v>1.55</v>
+      </c>
+      <c r="AN132">
+        <v>0.71</v>
+      </c>
+      <c r="AO132">
+        <v>1.14</v>
+      </c>
+      <c r="AP132">
+        <v>1</v>
+      </c>
+      <c r="AQ132">
+        <v>1</v>
+      </c>
+      <c r="AR132">
+        <v>1.26</v>
+      </c>
+      <c r="AS132">
+        <v>1.31</v>
+      </c>
+      <c r="AT132">
+        <v>2.57</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>6</v>
+      </c>
+      <c r="AX132">
+        <v>2</v>
+      </c>
+      <c r="AY132">
+        <v>12</v>
+      </c>
+      <c r="AZ132">
+        <v>7</v>
+      </c>
+      <c r="BA132">
+        <v>9</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>13</v>
+      </c>
+      <c r="BD132">
+        <v>1.8</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>2.38</v>
+      </c>
+      <c r="BG132">
+        <v>1.22</v>
+      </c>
+      <c r="BH132">
+        <v>3.8</v>
+      </c>
+      <c r="BI132">
+        <v>1.34</v>
+      </c>
+      <c r="BJ132">
+        <v>2.88</v>
+      </c>
+      <c r="BK132">
+        <v>1.73</v>
+      </c>
+      <c r="BL132">
+        <v>2</v>
+      </c>
+      <c r="BM132">
+        <v>2.04</v>
+      </c>
+      <c r="BN132">
+        <v>1.76</v>
+      </c>
+      <c r="BO132">
+        <v>2.65</v>
+      </c>
+      <c r="BP132">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7327026</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q133">
+        <v>2.59</v>
+      </c>
+      <c r="R133">
+        <v>2.24</v>
+      </c>
+      <c r="S133">
+        <v>4.69</v>
+      </c>
+      <c r="T133">
+        <v>1.42</v>
+      </c>
+      <c r="U133">
+        <v>2.95</v>
+      </c>
+      <c r="V133">
+        <v>3.08</v>
+      </c>
+      <c r="W133">
+        <v>1.39</v>
+      </c>
+      <c r="X133">
+        <v>6.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.08</v>
+      </c>
+      <c r="Z133">
+        <v>1.95</v>
+      </c>
+      <c r="AA133">
+        <v>3.3</v>
+      </c>
+      <c r="AB133">
+        <v>3.8</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>8.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.34</v>
+      </c>
+      <c r="AF133">
+        <v>3.39</v>
+      </c>
+      <c r="AG133">
+        <v>2.05</v>
+      </c>
+      <c r="AH133">
+        <v>1.8</v>
+      </c>
+      <c r="AI133">
+        <v>1.8</v>
+      </c>
+      <c r="AJ133">
+        <v>1.85</v>
+      </c>
+      <c r="AK133">
+        <v>1.25</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.8</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>0.86</v>
+      </c>
+      <c r="AP133">
+        <v>1.29</v>
+      </c>
+      <c r="AQ133">
+        <v>0.75</v>
+      </c>
+      <c r="AR133">
+        <v>1.46</v>
+      </c>
+      <c r="AS133">
+        <v>1.48</v>
+      </c>
+      <c r="AT133">
+        <v>2.94</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
+        <v>7</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>13</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>1.67</v>
+      </c>
+      <c r="BE133">
+        <v>8.5</v>
+      </c>
+      <c r="BF133">
+        <v>2.5</v>
+      </c>
+      <c r="BG133">
+        <v>1.15</v>
+      </c>
+      <c r="BH133">
+        <v>4.75</v>
+      </c>
+      <c r="BI133">
+        <v>1.25</v>
+      </c>
+      <c r="BJ133">
+        <v>3.42</v>
+      </c>
+      <c r="BK133">
+        <v>1.51</v>
+      </c>
+      <c r="BL133">
+        <v>2.51</v>
+      </c>
+      <c r="BM133">
+        <v>1.95</v>
+      </c>
+      <c r="BN133">
+        <v>1.85</v>
+      </c>
+      <c r="BO133">
+        <v>2.23</v>
+      </c>
+      <c r="BP133">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7327027</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>79</v>
+      </c>
+      <c r="H134" t="s">
+        <v>86</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>91</v>
+      </c>
+      <c r="P134" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q134">
+        <v>3.34</v>
+      </c>
+      <c r="R134">
+        <v>2.09</v>
+      </c>
+      <c r="S134">
+        <v>3.73</v>
+      </c>
+      <c r="T134">
+        <v>1.5</v>
+      </c>
+      <c r="U134">
+        <v>2.67</v>
+      </c>
+      <c r="V134">
+        <v>3.3</v>
+      </c>
+      <c r="W134">
+        <v>1.28</v>
+      </c>
+      <c r="X134">
+        <v>9</v>
+      </c>
+      <c r="Y134">
+        <v>1.04</v>
+      </c>
+      <c r="Z134">
+        <v>2.45</v>
+      </c>
+      <c r="AA134">
+        <v>3.1</v>
+      </c>
+      <c r="AB134">
+        <v>3</v>
+      </c>
+      <c r="AC134">
+        <v>1.08</v>
+      </c>
+      <c r="AD134">
+        <v>6.55</v>
+      </c>
+      <c r="AE134">
+        <v>1.42</v>
+      </c>
+      <c r="AF134">
+        <v>2.94</v>
+      </c>
+      <c r="AG134">
+        <v>2.2</v>
+      </c>
+      <c r="AH134">
+        <v>1.6</v>
+      </c>
+      <c r="AI134">
+        <v>1.98</v>
+      </c>
+      <c r="AJ134">
+        <v>1.85</v>
+      </c>
+      <c r="AK134">
+        <v>1.43</v>
+      </c>
+      <c r="AL134">
+        <v>1.38</v>
+      </c>
+      <c r="AM134">
+        <v>1.53</v>
+      </c>
+      <c r="AN134">
+        <v>1.14</v>
+      </c>
+      <c r="AO134">
+        <v>1.14</v>
+      </c>
+      <c r="AP134">
+        <v>1.13</v>
+      </c>
+      <c r="AQ134">
+        <v>1.13</v>
+      </c>
+      <c r="AR134">
+        <v>1.54</v>
+      </c>
+      <c r="AS134">
+        <v>1.25</v>
+      </c>
+      <c r="AT134">
+        <v>2.79</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>0</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
+      <c r="AZ134">
+        <v>3</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>6</v>
+      </c>
+      <c r="BD134">
+        <v>1.83</v>
+      </c>
+      <c r="BE134">
+        <v>8</v>
+      </c>
+      <c r="BF134">
+        <v>2.2</v>
+      </c>
+      <c r="BG134">
+        <v>1.2</v>
+      </c>
+      <c r="BH134">
+        <v>3.88</v>
+      </c>
+      <c r="BI134">
+        <v>1.4</v>
+      </c>
+      <c r="BJ134">
+        <v>2.72</v>
+      </c>
+      <c r="BK134">
+        <v>1.8</v>
+      </c>
+      <c r="BL134">
+        <v>2</v>
+      </c>
+      <c r="BM134">
+        <v>2.11</v>
+      </c>
+      <c r="BN134">
+        <v>1.71</v>
+      </c>
+      <c r="BO134">
+        <v>2.84</v>
+      </c>
+      <c r="BP134">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7327028</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" t="s">
+        <v>77</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>180</v>
+      </c>
+      <c r="P135" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q135">
+        <v>3.15</v>
+      </c>
+      <c r="R135">
+        <v>2.12</v>
+      </c>
+      <c r="S135">
+        <v>3.9</v>
+      </c>
+      <c r="T135">
+        <v>1.48</v>
+      </c>
+      <c r="U135">
+        <v>2.72</v>
+      </c>
+      <c r="V135">
+        <v>3.39</v>
+      </c>
+      <c r="W135">
+        <v>1.34</v>
+      </c>
+      <c r="X135">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>2.38</v>
+      </c>
+      <c r="AA135">
+        <v>3.25</v>
+      </c>
+      <c r="AB135">
+        <v>3</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>7.4</v>
+      </c>
+      <c r="AE135">
+        <v>1.4</v>
+      </c>
+      <c r="AF135">
+        <v>3.03</v>
+      </c>
+      <c r="AG135">
+        <v>2.15</v>
+      </c>
+      <c r="AH135">
+        <v>1.62</v>
+      </c>
+      <c r="AI135">
+        <v>1.92</v>
+      </c>
+      <c r="AJ135">
+        <v>1.82</v>
+      </c>
+      <c r="AK135">
+        <v>1.38</v>
+      </c>
+      <c r="AL135">
+        <v>1.35</v>
+      </c>
+      <c r="AM135">
+        <v>1.58</v>
+      </c>
+      <c r="AN135">
+        <v>1.67</v>
+      </c>
+      <c r="AO135">
+        <v>1.33</v>
+      </c>
+      <c r="AP135">
+        <v>1.86</v>
+      </c>
+      <c r="AQ135">
+        <v>1.14</v>
+      </c>
+      <c r="AR135">
+        <v>1.31</v>
+      </c>
+      <c r="AS135">
+        <v>1.22</v>
+      </c>
+      <c r="AT135">
+        <v>2.53</v>
+      </c>
+      <c r="AU135">
+        <v>9</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>7</v>
+      </c>
+      <c r="AY135">
+        <v>14</v>
+      </c>
+      <c r="AZ135">
+        <v>10</v>
+      </c>
+      <c r="BA135">
+        <v>8</v>
+      </c>
+      <c r="BB135">
+        <v>4</v>
+      </c>
+      <c r="BC135">
+        <v>12</v>
+      </c>
+      <c r="BD135">
+        <v>1.8</v>
+      </c>
+      <c r="BE135">
+        <v>8</v>
+      </c>
+      <c r="BF135">
+        <v>2.3</v>
+      </c>
+      <c r="BG135">
+        <v>1.23</v>
+      </c>
+      <c r="BH135">
+        <v>3.56</v>
+      </c>
+      <c r="BI135">
+        <v>1.49</v>
+      </c>
+      <c r="BJ135">
+        <v>2.57</v>
+      </c>
+      <c r="BK135">
+        <v>1.92</v>
+      </c>
+      <c r="BL135">
+        <v>1.88</v>
+      </c>
+      <c r="BM135">
+        <v>2.18</v>
+      </c>
+      <c r="BN135">
+        <v>1.68</v>
+      </c>
+      <c r="BO135">
+        <v>3.04</v>
+      </c>
+      <c r="BP135">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7327029</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>88</v>
+      </c>
+      <c r="H136" t="s">
+        <v>80</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>181</v>
+      </c>
+      <c r="P136" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q136">
+        <v>3.2</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>3.2</v>
+      </c>
+      <c r="T136">
+        <v>1.39</v>
+      </c>
+      <c r="U136">
+        <v>2.8</v>
+      </c>
+      <c r="V136">
+        <v>2.7</v>
+      </c>
+      <c r="W136">
+        <v>1.41</v>
+      </c>
+      <c r="X136">
+        <v>6.45</v>
+      </c>
+      <c r="Y136">
+        <v>1.09</v>
+      </c>
+      <c r="Z136">
+        <v>2.55</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>2.63</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>9</v>
+      </c>
+      <c r="AE136">
+        <v>1.28</v>
+      </c>
+      <c r="AF136">
+        <v>3.6</v>
+      </c>
+      <c r="AG136">
+        <v>1.83</v>
+      </c>
+      <c r="AH136">
+        <v>2.03</v>
+      </c>
+      <c r="AI136">
+        <v>1.66</v>
+      </c>
+      <c r="AJ136">
+        <v>2.15</v>
+      </c>
+      <c r="AK136">
+        <v>1.42</v>
+      </c>
+      <c r="AL136">
+        <v>1.3</v>
+      </c>
+      <c r="AM136">
+        <v>1.45</v>
+      </c>
+      <c r="AN136">
+        <v>0.86</v>
+      </c>
+      <c r="AO136">
+        <v>1.67</v>
+      </c>
+      <c r="AP136">
+        <v>1.13</v>
+      </c>
+      <c r="AQ136">
+        <v>1.43</v>
+      </c>
+      <c r="AR136">
+        <v>1.4</v>
+      </c>
+      <c r="AS136">
+        <v>1.53</v>
+      </c>
+      <c r="AT136">
+        <v>2.93</v>
+      </c>
+      <c r="AU136">
+        <v>11</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>3</v>
+      </c>
+      <c r="AX136">
+        <v>5</v>
+      </c>
+      <c r="AY136">
+        <v>14</v>
+      </c>
+      <c r="AZ136">
+        <v>11</v>
+      </c>
+      <c r="BA136">
+        <v>6</v>
+      </c>
+      <c r="BB136">
+        <v>9</v>
+      </c>
+      <c r="BC136">
+        <v>15</v>
+      </c>
+      <c r="BD136">
+        <v>1.73</v>
+      </c>
+      <c r="BE136">
+        <v>8.5</v>
+      </c>
+      <c r="BF136">
+        <v>2.38</v>
+      </c>
+      <c r="BG136">
+        <v>1.17</v>
+      </c>
+      <c r="BH136">
+        <v>4.5</v>
+      </c>
+      <c r="BI136">
+        <v>1.26</v>
+      </c>
+      <c r="BJ136">
+        <v>3.34</v>
+      </c>
+      <c r="BK136">
+        <v>1.53</v>
+      </c>
+      <c r="BL136">
+        <v>2.46</v>
+      </c>
+      <c r="BM136">
+        <v>2</v>
+      </c>
+      <c r="BN136">
+        <v>1.8</v>
+      </c>
+      <c r="BO136">
+        <v>2.19</v>
+      </c>
+      <c r="BP136">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7327033</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>74</v>
+      </c>
+      <c r="H137" t="s">
+        <v>81</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>7</v>
+      </c>
+      <c r="O137" t="s">
+        <v>182</v>
+      </c>
+      <c r="P137" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q137">
+        <v>4.65</v>
+      </c>
+      <c r="R137">
+        <v>2.42</v>
+      </c>
+      <c r="S137">
+        <v>2.4</v>
+      </c>
+      <c r="T137">
+        <v>1.34</v>
+      </c>
+      <c r="U137">
+        <v>3.33</v>
+      </c>
+      <c r="V137">
+        <v>2.64</v>
+      </c>
+      <c r="W137">
+        <v>1.5</v>
+      </c>
+      <c r="X137">
+        <v>5.95</v>
+      </c>
+      <c r="Y137">
+        <v>1.1</v>
+      </c>
+      <c r="Z137">
+        <v>4.2</v>
+      </c>
+      <c r="AA137">
+        <v>3.75</v>
+      </c>
+      <c r="AB137">
+        <v>1.8</v>
+      </c>
+      <c r="AC137">
+        <v>1.04</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.22</v>
+      </c>
+      <c r="AF137">
+        <v>4</v>
+      </c>
+      <c r="AG137">
+        <v>1.7</v>
+      </c>
+      <c r="AH137">
+        <v>2</v>
+      </c>
+      <c r="AI137">
+        <v>1.66</v>
+      </c>
+      <c r="AJ137">
+        <v>2.15</v>
+      </c>
+      <c r="AK137">
+        <v>1.87</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>1.2</v>
+      </c>
+      <c r="AN137">
+        <v>1.17</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>1.43</v>
+      </c>
+      <c r="AQ137">
+        <v>0.86</v>
+      </c>
+      <c r="AR137">
+        <v>1.52</v>
+      </c>
+      <c r="AS137">
+        <v>1.33</v>
+      </c>
+      <c r="AT137">
+        <v>2.85</v>
+      </c>
+      <c r="AU137">
+        <v>9</v>
+      </c>
+      <c r="AV137">
+        <v>9</v>
+      </c>
+      <c r="AW137">
+        <v>2</v>
+      </c>
+      <c r="AX137">
+        <v>10</v>
+      </c>
+      <c r="AY137">
+        <v>11</v>
+      </c>
+      <c r="AZ137">
+        <v>19</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>7</v>
+      </c>
+      <c r="BC137">
+        <v>11</v>
+      </c>
+      <c r="BD137">
+        <v>2.2</v>
+      </c>
+      <c r="BE137">
+        <v>8</v>
+      </c>
+      <c r="BF137">
+        <v>1.83</v>
+      </c>
+      <c r="BG137">
+        <v>1.22</v>
+      </c>
+      <c r="BH137">
+        <v>3.8</v>
+      </c>
+      <c r="BI137">
+        <v>1.38</v>
+      </c>
+      <c r="BJ137">
+        <v>2.8</v>
+      </c>
+      <c r="BK137">
+        <v>1.63</v>
+      </c>
+      <c r="BL137">
+        <v>2.26</v>
+      </c>
+      <c r="BM137">
+        <v>1.99</v>
+      </c>
+      <c r="BN137">
+        <v>1.82</v>
+      </c>
+      <c r="BO137">
+        <v>2.48</v>
+      </c>
+      <c r="BP137">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7327031</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45427.29166666666</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>82</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>140</v>
+      </c>
+      <c r="P138" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q138">
+        <v>2.33</v>
+      </c>
+      <c r="R138">
+        <v>2.11</v>
+      </c>
+      <c r="S138">
+        <v>6.9</v>
+      </c>
+      <c r="T138">
+        <v>1.54</v>
+      </c>
+      <c r="U138">
+        <v>2.53</v>
+      </c>
+      <c r="V138">
+        <v>3.48</v>
+      </c>
+      <c r="W138">
+        <v>1.28</v>
+      </c>
+      <c r="X138">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y138">
+        <v>1.04</v>
+      </c>
+      <c r="Z138">
+        <v>1.67</v>
+      </c>
+      <c r="AA138">
+        <v>3.3</v>
+      </c>
+      <c r="AB138">
+        <v>6</v>
+      </c>
+      <c r="AC138">
+        <v>1.06</v>
+      </c>
+      <c r="AD138">
+        <v>6.65</v>
+      </c>
+      <c r="AE138">
+        <v>1.44</v>
+      </c>
+      <c r="AF138">
+        <v>2.5</v>
+      </c>
+      <c r="AG138">
+        <v>2.4</v>
+      </c>
+      <c r="AH138">
+        <v>1.5</v>
+      </c>
+      <c r="AI138">
+        <v>2.36</v>
+      </c>
+      <c r="AJ138">
+        <v>1.55</v>
+      </c>
+      <c r="AK138">
+        <v>1.13</v>
+      </c>
+      <c r="AL138">
+        <v>1.3</v>
+      </c>
+      <c r="AM138">
+        <v>2.22</v>
+      </c>
+      <c r="AN138">
+        <v>1.17</v>
+      </c>
+      <c r="AO138">
+        <v>1.6</v>
+      </c>
+      <c r="AP138">
+        <v>1.43</v>
+      </c>
+      <c r="AQ138">
+        <v>1.33</v>
+      </c>
+      <c r="AR138">
+        <v>1.89</v>
+      </c>
+      <c r="AS138">
+        <v>1.18</v>
+      </c>
+      <c r="AT138">
+        <v>3.07</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>9</v>
+      </c>
+      <c r="AY138">
+        <v>10</v>
+      </c>
+      <c r="AZ138">
+        <v>14</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>12</v>
+      </c>
+      <c r="BD138">
+        <v>1.44</v>
+      </c>
+      <c r="BE138">
+        <v>9</v>
+      </c>
+      <c r="BF138">
+        <v>3.2</v>
+      </c>
+      <c r="BG138">
+        <v>1.2</v>
+      </c>
+      <c r="BH138">
+        <v>4</v>
+      </c>
+      <c r="BI138">
+        <v>1.32</v>
+      </c>
+      <c r="BJ138">
+        <v>2.98</v>
+      </c>
+      <c r="BK138">
+        <v>1.61</v>
+      </c>
+      <c r="BL138">
+        <v>2.27</v>
+      </c>
+      <c r="BM138">
+        <v>1.99</v>
+      </c>
+      <c r="BN138">
+        <v>1.82</v>
+      </c>
+      <c r="BO138">
+        <v>2.49</v>
+      </c>
+      <c r="BP138">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7327034</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45427.3125</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>87</v>
+      </c>
+      <c r="H139" t="s">
+        <v>83</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>183</v>
+      </c>
+      <c r="P139" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q139">
+        <v>2.15</v>
+      </c>
+      <c r="R139">
+        <v>2.25</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>1.37</v>
+      </c>
+      <c r="U139">
+        <v>2.85</v>
+      </c>
+      <c r="V139">
+        <v>2.75</v>
+      </c>
+      <c r="W139">
+        <v>1.4</v>
+      </c>
+      <c r="X139">
+        <v>6.95</v>
+      </c>
+      <c r="Y139">
+        <v>1.07</v>
+      </c>
+      <c r="Z139">
+        <v>1.62</v>
+      </c>
+      <c r="AA139">
+        <v>3.8</v>
+      </c>
+      <c r="AB139">
+        <v>5.5</v>
+      </c>
+      <c r="AC139">
+        <v>1.05</v>
+      </c>
+      <c r="AD139">
+        <v>9.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.28</v>
+      </c>
+      <c r="AF139">
+        <v>3.5</v>
+      </c>
+      <c r="AG139">
+        <v>1.98</v>
+      </c>
+      <c r="AH139">
+        <v>1.88</v>
+      </c>
+      <c r="AI139">
+        <v>1.9</v>
+      </c>
+      <c r="AJ139">
+        <v>1.83</v>
+      </c>
+      <c r="AK139">
+        <v>1.1</v>
+      </c>
+      <c r="AL139">
+        <v>1.18</v>
+      </c>
+      <c r="AM139">
+        <v>2.3</v>
+      </c>
+      <c r="AN139">
+        <v>2.17</v>
+      </c>
+      <c r="AO139">
+        <v>1.29</v>
+      </c>
+      <c r="AP139">
+        <v>2.29</v>
+      </c>
+      <c r="AQ139">
+        <v>1.13</v>
+      </c>
+      <c r="AR139">
+        <v>1.71</v>
+      </c>
+      <c r="AS139">
+        <v>1.29</v>
+      </c>
+      <c r="AT139">
+        <v>3</v>
+      </c>
+      <c r="AU139">
+        <v>10</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>4</v>
+      </c>
+      <c r="AX139">
+        <v>6</v>
+      </c>
+      <c r="AY139">
+        <v>14</v>
+      </c>
+      <c r="AZ139">
+        <v>8</v>
+      </c>
+      <c r="BA139">
+        <v>9</v>
+      </c>
+      <c r="BB139">
+        <v>6</v>
+      </c>
+      <c r="BC139">
+        <v>15</v>
+      </c>
+      <c r="BD139">
+        <v>1.44</v>
+      </c>
+      <c r="BE139">
+        <v>9</v>
+      </c>
+      <c r="BF139">
+        <v>3.1</v>
+      </c>
+      <c r="BG139">
+        <v>1.18</v>
+      </c>
+      <c r="BH139">
+        <v>4.33</v>
+      </c>
+      <c r="BI139">
+        <v>1.27</v>
+      </c>
+      <c r="BJ139">
+        <v>3.28</v>
+      </c>
+      <c r="BK139">
+        <v>1.52</v>
+      </c>
+      <c r="BL139">
+        <v>2.48</v>
+      </c>
+      <c r="BM139">
+        <v>2</v>
+      </c>
+      <c r="BN139">
+        <v>1.8</v>
+      </c>
+      <c r="BO139">
+        <v>2.18</v>
+      </c>
+      <c r="BP139">
+        <v>1.67</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -792,6 +792,9 @@
   <si>
     <t>['13', '45+3']</t>
   </si>
+  <si>
+    <t>['9', '29', '90+7']</t>
+  </si>
 </sst>
 </file>
 
@@ -1152,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2107,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -4788,7 +4791,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -6433,7 +6436,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -7463,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ31">
         <v>1.57</v>
@@ -8084,7 +8087,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -11789,7 +11792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12822,7 +12825,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -14264,7 +14267,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -16733,7 +16736,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -18793,7 +18796,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19620,7 +19623,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -23325,7 +23328,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ108">
         <v>1.13</v>
@@ -24358,7 +24361,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ113">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -24561,7 +24564,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ114">
         <v>0.86</v>
@@ -28890,7 +28893,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ135">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29790,6 +29793,212 @@
       </c>
       <c r="BP139">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7327035</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45430.16666666666</v>
+      </c>
+      <c r="F140">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>77</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>3</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>91</v>
+      </c>
+      <c r="P140" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q140">
+        <v>3.75</v>
+      </c>
+      <c r="R140">
+        <v>1.91</v>
+      </c>
+      <c r="S140">
+        <v>3.4</v>
+      </c>
+      <c r="T140">
+        <v>1.57</v>
+      </c>
+      <c r="U140">
+        <v>2.25</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.25</v>
+      </c>
+      <c r="X140">
+        <v>13</v>
+      </c>
+      <c r="Y140">
+        <v>1.04</v>
+      </c>
+      <c r="Z140">
+        <v>2.63</v>
+      </c>
+      <c r="AA140">
+        <v>2.96</v>
+      </c>
+      <c r="AB140">
+        <v>2.41</v>
+      </c>
+      <c r="AC140">
+        <v>1.11</v>
+      </c>
+      <c r="AD140">
+        <v>6.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.5</v>
+      </c>
+      <c r="AF140">
+        <v>2.37</v>
+      </c>
+      <c r="AG140">
+        <v>2.55</v>
+      </c>
+      <c r="AH140">
+        <v>1.45</v>
+      </c>
+      <c r="AI140">
+        <v>2.1</v>
+      </c>
+      <c r="AJ140">
+        <v>1.67</v>
+      </c>
+      <c r="AK140">
+        <v>1.5</v>
+      </c>
+      <c r="AL140">
+        <v>1.33</v>
+      </c>
+      <c r="AM140">
+        <v>1.38</v>
+      </c>
+      <c r="AN140">
+        <v>1.38</v>
+      </c>
+      <c r="AO140">
+        <v>1.14</v>
+      </c>
+      <c r="AP140">
+        <v>1.22</v>
+      </c>
+      <c r="AQ140">
+        <v>1.38</v>
+      </c>
+      <c r="AR140">
+        <v>1.37</v>
+      </c>
+      <c r="AS140">
+        <v>1.22</v>
+      </c>
+      <c r="AT140">
+        <v>2.59</v>
+      </c>
+      <c r="AU140">
+        <v>2</v>
+      </c>
+      <c r="AV140">
+        <v>7</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>3</v>
+      </c>
+      <c r="BB140">
+        <v>4</v>
+      </c>
+      <c r="BC140">
+        <v>7</v>
+      </c>
+      <c r="BD140">
+        <v>2.05</v>
+      </c>
+      <c r="BE140">
+        <v>8</v>
+      </c>
+      <c r="BF140">
+        <v>2</v>
+      </c>
+      <c r="BG140">
+        <v>1.28</v>
+      </c>
+      <c r="BH140">
+        <v>3.4</v>
+      </c>
+      <c r="BI140">
+        <v>1.52</v>
+      </c>
+      <c r="BJ140">
+        <v>2.45</v>
+      </c>
+      <c r="BK140">
+        <v>1.85</v>
+      </c>
+      <c r="BL140">
+        <v>1.95</v>
+      </c>
+      <c r="BM140">
+        <v>2.35</v>
+      </c>
+      <c r="BN140">
+        <v>1.55</v>
+      </c>
+      <c r="BO140">
+        <v>3.1</v>
+      </c>
+      <c r="BP140">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -795,6 +795,9 @@
   <si>
     <t>['9', '29', '90+7']</t>
   </si>
+  <si>
+    <t>['6', '50']</t>
+  </si>
 </sst>
 </file>
 
@@ -1155,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2316,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -4582,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -5821,7 +5824,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -8084,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>1.38</v>
@@ -8499,7 +8502,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -11586,7 +11589,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
         <v>2.71</v>
@@ -13237,7 +13240,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -16533,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -18384,7 +18387,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -21271,7 +21274,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -23122,7 +23125,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -25185,7 +25188,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -29302,7 +29305,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ137">
         <v>0.86</v>
@@ -29938,19 +29941,19 @@
         <v>2</v>
       </c>
       <c r="AV140">
+        <v>10</v>
+      </c>
+      <c r="AW140">
+        <v>8</v>
+      </c>
+      <c r="AX140">
         <v>7</v>
       </c>
-      <c r="AW140">
-        <v>6</v>
-      </c>
-      <c r="AX140">
-        <v>4</v>
-      </c>
       <c r="AY140">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ140">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA140">
         <v>3</v>
@@ -29999,6 +30002,212 @@
       </c>
       <c r="BP140">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7327036</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45430.29166666666</v>
+      </c>
+      <c r="F141">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>91</v>
+      </c>
+      <c r="P141" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q141">
+        <v>3.75</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>3</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3.25</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>9</v>
+      </c>
+      <c r="Y141">
+        <v>1.07</v>
+      </c>
+      <c r="Z141">
+        <v>2.83</v>
+      </c>
+      <c r="AA141">
+        <v>3.25</v>
+      </c>
+      <c r="AB141">
+        <v>2.12</v>
+      </c>
+      <c r="AC141">
+        <v>1.06</v>
+      </c>
+      <c r="AD141">
+        <v>8.5</v>
+      </c>
+      <c r="AE141">
+        <v>1.33</v>
+      </c>
+      <c r="AF141">
+        <v>3.2</v>
+      </c>
+      <c r="AG141">
+        <v>2.01</v>
+      </c>
+      <c r="AH141">
+        <v>1.71</v>
+      </c>
+      <c r="AI141">
+        <v>1.91</v>
+      </c>
+      <c r="AJ141">
+        <v>1.91</v>
+      </c>
+      <c r="AK141">
+        <v>1.63</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.33</v>
+      </c>
+      <c r="AN141">
+        <v>1.43</v>
+      </c>
+      <c r="AO141">
+        <v>2</v>
+      </c>
+      <c r="AP141">
+        <v>1.25</v>
+      </c>
+      <c r="AQ141">
+        <v>2.14</v>
+      </c>
+      <c r="AR141">
+        <v>1.53</v>
+      </c>
+      <c r="AS141">
+        <v>1.16</v>
+      </c>
+      <c r="AT141">
+        <v>2.69</v>
+      </c>
+      <c r="AU141">
+        <v>3</v>
+      </c>
+      <c r="AV141">
+        <v>8</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>14</v>
+      </c>
+      <c r="AY141">
+        <v>7</v>
+      </c>
+      <c r="AZ141">
+        <v>22</v>
+      </c>
+      <c r="BA141">
+        <v>1</v>
+      </c>
+      <c r="BB141">
+        <v>6</v>
+      </c>
+      <c r="BC141">
+        <v>7</v>
+      </c>
+      <c r="BD141">
+        <v>1.91</v>
+      </c>
+      <c r="BE141">
+        <v>8</v>
+      </c>
+      <c r="BF141">
+        <v>2.1</v>
+      </c>
+      <c r="BG141">
+        <v>1.25</v>
+      </c>
+      <c r="BH141">
+        <v>3.6</v>
+      </c>
+      <c r="BI141">
+        <v>1.47</v>
+      </c>
+      <c r="BJ141">
+        <v>2.55</v>
+      </c>
+      <c r="BK141">
+        <v>1.8</v>
+      </c>
+      <c r="BL141">
+        <v>1.95</v>
+      </c>
+      <c r="BM141">
+        <v>2.25</v>
+      </c>
+      <c r="BN141">
+        <v>1.6</v>
+      </c>
+      <c r="BO141">
+        <v>2.95</v>
+      </c>
+      <c r="BP141">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,24 @@
     <t>['42', '55', '77']</t>
   </si>
   <si>
+    <t>['11', '29', '60', '80', '90+3']</t>
+  </si>
+  <si>
+    <t>['28', '70', '81']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['20', '90+1']</t>
+  </si>
+  <si>
+    <t>['35', '59']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -715,9 +733,6 @@
     <t>['67', '85', '90+3']</t>
   </si>
   <si>
-    <t>['55']</t>
-  </si>
-  <si>
     <t>['39', '49', '62']</t>
   </si>
   <si>
@@ -797,6 +812,15 @@
   </si>
   <si>
     <t>['6', '50']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['9', '12', '25', '55', '69']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1623,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1829,7 +1853,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1910,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2116,7 +2140,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2241,7 +2265,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2322,7 +2346,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2525,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.13</v>
@@ -2653,7 +2677,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2731,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ8">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2859,7 +2883,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3143,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.13</v>
@@ -3271,7 +3295,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3352,7 +3376,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3477,7 +3501,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3683,7 +3707,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3889,7 +3913,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4301,7 +4325,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4588,7 +4612,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4713,7 +4737,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4791,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ18">
         <v>1.38</v>
@@ -4919,7 +4943,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4997,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
+        <v>1.5</v>
+      </c>
+      <c r="AQ19">
         <v>1.57</v>
-      </c>
-      <c r="AQ19">
-        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5203,10 +5227,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5331,7 +5355,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5412,7 +5436,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5537,7 +5561,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6027,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6567,7 +6591,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6645,10 +6669,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -6979,7 +7003,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7060,7 +7084,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7391,7 +7415,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7597,7 +7621,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7884,7 +7908,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8009,7 +8033,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8215,7 +8239,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8293,7 +8317,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8421,7 +8445,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8499,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>2.14</v>
@@ -8627,7 +8651,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8708,7 +8732,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8833,7 +8857,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8914,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9039,7 +9063,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9117,10 +9141,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9245,7 +9269,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9323,7 +9347,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9451,7 +9475,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9657,7 +9681,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10150,7 +10174,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10481,7 +10505,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10559,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.57</v>
@@ -10971,7 +10995,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11099,7 +11123,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11180,7 +11204,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11592,7 +11616,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -12004,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12129,7 +12153,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12207,10 +12231,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12413,7 +12437,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12541,7 +12565,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12619,10 +12643,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12825,7 +12849,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13034,7 +13058,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13159,7 +13183,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13365,7 +13389,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13443,7 +13467,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13983,7 +14007,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14064,7 +14088,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14189,7 +14213,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14395,7 +14419,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14807,7 +14831,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15503,7 +15527,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15915,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16043,7 +16067,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16249,7 +16273,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16330,7 +16354,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16455,7 +16479,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16742,7 +16766,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16945,7 +16969,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -17073,7 +17097,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17151,10 +17175,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17360,7 +17384,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17485,7 +17509,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17691,7 +17715,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17769,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
         <v>0.57</v>
@@ -17978,7 +18002,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18103,7 +18127,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18184,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18309,7 +18333,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18515,7 +18539,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18593,10 +18617,10 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ85">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18721,7 +18745,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19214,7 +19238,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19339,7 +19363,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19417,7 +19441,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>2.29</v>
@@ -19545,7 +19569,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19751,7 +19775,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20163,7 +20187,7 @@
         <v>91</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20369,7 +20393,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20575,7 +20599,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20656,7 +20680,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ95">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -20987,7 +21011,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21068,7 +21092,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ97">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21193,7 +21217,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21399,7 +21423,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21477,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>0.57</v>
@@ -21605,7 +21629,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21683,7 +21707,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -22017,7 +22041,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22098,7 +22122,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22301,7 +22325,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ103">
         <v>0.75</v>
@@ -22429,7 +22453,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22507,7 +22531,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>1.13</v>
@@ -22713,7 +22737,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -22841,7 +22865,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -22922,7 +22946,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ106">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23047,7 +23071,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23128,7 +23152,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23459,7 +23483,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23665,7 +23689,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23746,7 +23770,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -23871,7 +23895,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -23952,7 +23976,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ111">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24077,7 +24101,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24361,7 +24385,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ113">
         <v>1.38</v>
@@ -24570,7 +24594,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ114">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24695,7 +24719,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24901,7 +24925,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25107,7 +25131,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25313,7 +25337,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25391,7 +25415,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.5</v>
@@ -25597,7 +25621,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ119">
         <v>0.57</v>
@@ -25725,7 +25749,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25806,7 +25830,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -25931,7 +25955,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26137,7 +26161,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26343,7 +26367,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26627,7 +26651,7 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ124">
         <v>2.29</v>
@@ -26836,7 +26860,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -26961,7 +26985,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27167,7 +27191,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27248,7 +27272,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ127">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27373,7 +27397,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27451,7 +27475,7 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -27579,7 +27603,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27657,10 +27681,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27785,7 +27809,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28481,7 +28505,7 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -28893,7 +28917,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
         <v>1.38</v>
@@ -29021,7 +29045,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29102,7 +29126,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ136">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29227,7 +29251,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29308,7 +29332,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29845,7 +29869,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29941,19 +29965,19 @@
         <v>2</v>
       </c>
       <c r="AV140">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AW140">
+        <v>5</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>7</v>
+      </c>
+      <c r="AZ140">
         <v>8</v>
-      </c>
-      <c r="AX140">
-        <v>7</v>
-      </c>
-      <c r="AY140">
-        <v>10</v>
-      </c>
-      <c r="AZ140">
-        <v>17</v>
       </c>
       <c r="BA140">
         <v>3</v>
@@ -30051,7 +30075,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30147,28 +30171,28 @@
         <v>3</v>
       </c>
       <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>5</v>
+      </c>
+      <c r="AX141">
+        <v>5</v>
+      </c>
+      <c r="AY141">
         <v>8</v>
       </c>
-      <c r="AW141">
-        <v>4</v>
-      </c>
-      <c r="AX141">
-        <v>14</v>
-      </c>
-      <c r="AY141">
+      <c r="AZ141">
+        <v>11</v>
+      </c>
+      <c r="BA141">
+        <v>2</v>
+      </c>
+      <c r="BB141">
         <v>7</v>
       </c>
-      <c r="AZ141">
-        <v>22</v>
-      </c>
-      <c r="BA141">
-        <v>1</v>
-      </c>
-      <c r="BB141">
-        <v>6</v>
-      </c>
       <c r="BC141">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD141">
         <v>1.91</v>
@@ -30208,6 +30232,1654 @@
       </c>
       <c r="BP141">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7327037</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45431.08333333334</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s">
+        <v>79</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>5</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142" t="s">
+        <v>184</v>
+      </c>
+      <c r="P142" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q142">
+        <v>2.6</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>4.75</v>
+      </c>
+      <c r="T142">
+        <v>1.5</v>
+      </c>
+      <c r="U142">
+        <v>2.5</v>
+      </c>
+      <c r="V142">
+        <v>3.4</v>
+      </c>
+      <c r="W142">
+        <v>1.3</v>
+      </c>
+      <c r="X142">
+        <v>10</v>
+      </c>
+      <c r="Y142">
+        <v>1.06</v>
+      </c>
+      <c r="Z142">
+        <v>1.9</v>
+      </c>
+      <c r="AA142">
+        <v>3.2</v>
+      </c>
+      <c r="AB142">
+        <v>4.4</v>
+      </c>
+      <c r="AC142">
+        <v>1.07</v>
+      </c>
+      <c r="AD142">
+        <v>7</v>
+      </c>
+      <c r="AE142">
+        <v>1.42</v>
+      </c>
+      <c r="AF142">
+        <v>2.62</v>
+      </c>
+      <c r="AG142">
+        <v>2.28</v>
+      </c>
+      <c r="AH142">
+        <v>1.58</v>
+      </c>
+      <c r="AI142">
+        <v>2</v>
+      </c>
+      <c r="AJ142">
+        <v>1.75</v>
+      </c>
+      <c r="AK142">
+        <v>1.22</v>
+      </c>
+      <c r="AL142">
+        <v>1.33</v>
+      </c>
+      <c r="AM142">
+        <v>1.91</v>
+      </c>
+      <c r="AN142">
+        <v>1.86</v>
+      </c>
+      <c r="AO142">
+        <v>1.5</v>
+      </c>
+      <c r="AP142">
+        <v>2</v>
+      </c>
+      <c r="AQ142">
+        <v>1.29</v>
+      </c>
+      <c r="AR142">
+        <v>1.39</v>
+      </c>
+      <c r="AS142">
+        <v>1.33</v>
+      </c>
+      <c r="AT142">
+        <v>2.72</v>
+      </c>
+      <c r="AU142">
+        <v>3</v>
+      </c>
+      <c r="AV142">
+        <v>2</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>5</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>1</v>
+      </c>
+      <c r="BC142">
+        <v>6</v>
+      </c>
+      <c r="BD142">
+        <v>1.5</v>
+      </c>
+      <c r="BE142">
+        <v>8.5</v>
+      </c>
+      <c r="BF142">
+        <v>3.1</v>
+      </c>
+      <c r="BG142">
+        <v>1.21</v>
+      </c>
+      <c r="BH142">
+        <v>3.74</v>
+      </c>
+      <c r="BI142">
+        <v>1.41</v>
+      </c>
+      <c r="BJ142">
+        <v>2.69</v>
+      </c>
+      <c r="BK142">
+        <v>2</v>
+      </c>
+      <c r="BL142">
+        <v>1.8</v>
+      </c>
+      <c r="BM142">
+        <v>2.14</v>
+      </c>
+      <c r="BN142">
+        <v>1.71</v>
+      </c>
+      <c r="BO142">
+        <v>2.88</v>
+      </c>
+      <c r="BP142">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7327038</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45431.08333333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" t="s">
+        <v>87</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>101</v>
+      </c>
+      <c r="P143" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q143">
+        <v>4.36</v>
+      </c>
+      <c r="R143">
+        <v>2.28</v>
+      </c>
+      <c r="S143">
+        <v>2.66</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>2.94</v>
+      </c>
+      <c r="W143">
+        <v>1.42</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>3.6</v>
+      </c>
+      <c r="AA143">
+        <v>3.5</v>
+      </c>
+      <c r="AB143">
+        <v>1.98</v>
+      </c>
+      <c r="AC143">
+        <v>1.03</v>
+      </c>
+      <c r="AD143">
+        <v>9</v>
+      </c>
+      <c r="AE143">
+        <v>1.27</v>
+      </c>
+      <c r="AF143">
+        <v>3.28</v>
+      </c>
+      <c r="AG143">
+        <v>1.9</v>
+      </c>
+      <c r="AH143">
+        <v>1.85</v>
+      </c>
+      <c r="AI143">
+        <v>1.75</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>1.83</v>
+      </c>
+      <c r="AL143">
+        <v>1.31</v>
+      </c>
+      <c r="AM143">
+        <v>1.3</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1</v>
+      </c>
+      <c r="AQ143">
+        <v>1</v>
+      </c>
+      <c r="AR143">
+        <v>1.16</v>
+      </c>
+      <c r="AS143">
+        <v>1.37</v>
+      </c>
+      <c r="AT143">
+        <v>2.53</v>
+      </c>
+      <c r="AU143">
+        <v>0</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>7</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>7</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>2</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>6</v>
+      </c>
+      <c r="BD143">
+        <v>2.2</v>
+      </c>
+      <c r="BE143">
+        <v>8</v>
+      </c>
+      <c r="BF143">
+        <v>1.91</v>
+      </c>
+      <c r="BG143">
+        <v>1.18</v>
+      </c>
+      <c r="BH143">
+        <v>4.33</v>
+      </c>
+      <c r="BI143">
+        <v>1.27</v>
+      </c>
+      <c r="BJ143">
+        <v>3.28</v>
+      </c>
+      <c r="BK143">
+        <v>1.54</v>
+      </c>
+      <c r="BL143">
+        <v>2.42</v>
+      </c>
+      <c r="BM143">
+        <v>1.86</v>
+      </c>
+      <c r="BN143">
+        <v>1.94</v>
+      </c>
+      <c r="BO143">
+        <v>2.29</v>
+      </c>
+      <c r="BP143">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7327039</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45431.08333333334</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>83</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144">
+        <v>3</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>5</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144" t="s">
+        <v>91</v>
+      </c>
+      <c r="P144" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q144">
+        <v>6.5</v>
+      </c>
+      <c r="R144">
+        <v>2.43</v>
+      </c>
+      <c r="S144">
+        <v>2.08</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.75</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>7</v>
+      </c>
+      <c r="Y144">
+        <v>1.1</v>
+      </c>
+      <c r="Z144">
+        <v>6.5</v>
+      </c>
+      <c r="AA144">
+        <v>3.9</v>
+      </c>
+      <c r="AB144">
+        <v>1.52</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>9.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.25</v>
+      </c>
+      <c r="AF144">
+        <v>3.6</v>
+      </c>
+      <c r="AG144">
+        <v>1.83</v>
+      </c>
+      <c r="AH144">
+        <v>1.93</v>
+      </c>
+      <c r="AI144">
+        <v>1.95</v>
+      </c>
+      <c r="AJ144">
+        <v>1.8</v>
+      </c>
+      <c r="AK144">
+        <v>2.45</v>
+      </c>
+      <c r="AL144">
+        <v>1.18</v>
+      </c>
+      <c r="AM144">
+        <v>1.09</v>
+      </c>
+      <c r="AN144">
+        <v>0</v>
+      </c>
+      <c r="AO144">
+        <v>1.33</v>
+      </c>
+      <c r="AP144">
+        <v>0</v>
+      </c>
+      <c r="AQ144">
+        <v>1.57</v>
+      </c>
+      <c r="AR144">
+        <v>1.45</v>
+      </c>
+      <c r="AS144">
+        <v>1.61</v>
+      </c>
+      <c r="AT144">
+        <v>3.06</v>
+      </c>
+      <c r="AU144">
+        <v>2</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>3</v>
+      </c>
+      <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>5</v>
+      </c>
+      <c r="AZ144">
+        <v>8</v>
+      </c>
+      <c r="BA144">
+        <v>2</v>
+      </c>
+      <c r="BB144">
+        <v>2</v>
+      </c>
+      <c r="BC144">
+        <v>4</v>
+      </c>
+      <c r="BD144">
+        <v>4.33</v>
+      </c>
+      <c r="BE144">
+        <v>10</v>
+      </c>
+      <c r="BF144">
+        <v>1.29</v>
+      </c>
+      <c r="BG144">
+        <v>1.15</v>
+      </c>
+      <c r="BH144">
+        <v>4.75</v>
+      </c>
+      <c r="BI144">
+        <v>1.22</v>
+      </c>
+      <c r="BJ144">
+        <v>3.65</v>
+      </c>
+      <c r="BK144">
+        <v>1.42</v>
+      </c>
+      <c r="BL144">
+        <v>2.65</v>
+      </c>
+      <c r="BM144">
+        <v>2</v>
+      </c>
+      <c r="BN144">
+        <v>1.8</v>
+      </c>
+      <c r="BO144">
+        <v>2.18</v>
+      </c>
+      <c r="BP144">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7327042</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45431.125</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>86</v>
+      </c>
+      <c r="H145" t="s">
+        <v>81</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>185</v>
+      </c>
+      <c r="P145" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q145">
+        <v>3.5</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>3</v>
+      </c>
+      <c r="T145">
+        <v>1.36</v>
+      </c>
+      <c r="U145">
+        <v>3</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>2.9</v>
+      </c>
+      <c r="AA145">
+        <v>3.4</v>
+      </c>
+      <c r="AB145">
+        <v>2.35</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>9</v>
+      </c>
+      <c r="AE145">
+        <v>1.28</v>
+      </c>
+      <c r="AF145">
+        <v>3.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.85</v>
+      </c>
+      <c r="AH145">
+        <v>1.9</v>
+      </c>
+      <c r="AI145">
+        <v>1.7</v>
+      </c>
+      <c r="AJ145">
+        <v>2.05</v>
+      </c>
+      <c r="AK145">
+        <v>1.57</v>
+      </c>
+      <c r="AL145">
+        <v>1.25</v>
+      </c>
+      <c r="AM145">
+        <v>1.4</v>
+      </c>
+      <c r="AN145">
+        <v>2.17</v>
+      </c>
+      <c r="AO145">
+        <v>0.86</v>
+      </c>
+      <c r="AP145">
+        <v>2.29</v>
+      </c>
+      <c r="AQ145">
+        <v>0.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.71</v>
+      </c>
+      <c r="AS145">
+        <v>1.47</v>
+      </c>
+      <c r="AT145">
+        <v>3.18</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>7</v>
+      </c>
+      <c r="AW145">
+        <v>1</v>
+      </c>
+      <c r="AX145">
+        <v>5</v>
+      </c>
+      <c r="AY145">
+        <v>5</v>
+      </c>
+      <c r="AZ145">
+        <v>12</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>7</v>
+      </c>
+      <c r="BC145">
+        <v>10</v>
+      </c>
+      <c r="BD145">
+        <v>1.8</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2.38</v>
+      </c>
+      <c r="BG145">
+        <v>1.22</v>
+      </c>
+      <c r="BH145">
+        <v>3.8</v>
+      </c>
+      <c r="BI145">
+        <v>1.31</v>
+      </c>
+      <c r="BJ145">
+        <v>3.04</v>
+      </c>
+      <c r="BK145">
+        <v>1.63</v>
+      </c>
+      <c r="BL145">
+        <v>2.25</v>
+      </c>
+      <c r="BM145">
+        <v>2</v>
+      </c>
+      <c r="BN145">
+        <v>1.81</v>
+      </c>
+      <c r="BO145">
+        <v>2.51</v>
+      </c>
+      <c r="BP145">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7327040</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45431.125</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>84</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>186</v>
+      </c>
+      <c r="P146" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>2.05</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146">
+        <v>1.44</v>
+      </c>
+      <c r="U146">
+        <v>2.63</v>
+      </c>
+      <c r="V146">
+        <v>3.25</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>10</v>
+      </c>
+      <c r="Y146">
+        <v>1.06</v>
+      </c>
+      <c r="Z146">
+        <v>3.3</v>
+      </c>
+      <c r="AA146">
+        <v>3.25</v>
+      </c>
+      <c r="AB146">
+        <v>2.2</v>
+      </c>
+      <c r="AC146">
+        <v>1.06</v>
+      </c>
+      <c r="AD146">
+        <v>8.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.36</v>
+      </c>
+      <c r="AF146">
+        <v>2.95</v>
+      </c>
+      <c r="AG146">
+        <v>2.16</v>
+      </c>
+      <c r="AH146">
+        <v>1.66</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.66</v>
+      </c>
+      <c r="AL146">
+        <v>1.28</v>
+      </c>
+      <c r="AM146">
+        <v>1.3</v>
+      </c>
+      <c r="AN146">
+        <v>2.33</v>
+      </c>
+      <c r="AO146">
+        <v>2.71</v>
+      </c>
+      <c r="AP146">
+        <v>2.43</v>
+      </c>
+      <c r="AQ146">
+        <v>2.38</v>
+      </c>
+      <c r="AR146">
+        <v>1.3</v>
+      </c>
+      <c r="AS146">
+        <v>1.4</v>
+      </c>
+      <c r="AT146">
+        <v>2.7</v>
+      </c>
+      <c r="AU146">
+        <v>2</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>1</v>
+      </c>
+      <c r="AX146">
+        <v>6</v>
+      </c>
+      <c r="AY146">
+        <v>3</v>
+      </c>
+      <c r="AZ146">
+        <v>10</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>8</v>
+      </c>
+      <c r="BC146">
+        <v>14</v>
+      </c>
+      <c r="BD146">
+        <v>2.2</v>
+      </c>
+      <c r="BE146">
+        <v>8</v>
+      </c>
+      <c r="BF146">
+        <v>1.83</v>
+      </c>
+      <c r="BG146">
+        <v>1.17</v>
+      </c>
+      <c r="BH146">
+        <v>4.5</v>
+      </c>
+      <c r="BI146">
+        <v>1.25</v>
+      </c>
+      <c r="BJ146">
+        <v>3.42</v>
+      </c>
+      <c r="BK146">
+        <v>1.53</v>
+      </c>
+      <c r="BL146">
+        <v>2.45</v>
+      </c>
+      <c r="BM146">
+        <v>1.98</v>
+      </c>
+      <c r="BN146">
+        <v>1.82</v>
+      </c>
+      <c r="BO146">
+        <v>2.27</v>
+      </c>
+      <c r="BP146">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7327041</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45431.125</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>85</v>
+      </c>
+      <c r="H147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>187</v>
+      </c>
+      <c r="P147" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q147">
+        <v>3.1</v>
+      </c>
+      <c r="R147">
+        <v>2.3</v>
+      </c>
+      <c r="S147">
+        <v>3.1</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.25</v>
+      </c>
+      <c r="V147">
+        <v>2.5</v>
+      </c>
+      <c r="W147">
+        <v>1.5</v>
+      </c>
+      <c r="X147">
+        <v>6.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.11</v>
+      </c>
+      <c r="Z147">
+        <v>2.5</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>2.7</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>11</v>
+      </c>
+      <c r="AE147">
+        <v>1.22</v>
+      </c>
+      <c r="AF147">
+        <v>4.45</v>
+      </c>
+      <c r="AG147">
+        <v>1.65</v>
+      </c>
+      <c r="AH147">
+        <v>2.17</v>
+      </c>
+      <c r="AI147">
+        <v>1.57</v>
+      </c>
+      <c r="AJ147">
+        <v>2.25</v>
+      </c>
+      <c r="AK147">
+        <v>1.49</v>
+      </c>
+      <c r="AL147">
+        <v>1.33</v>
+      </c>
+      <c r="AM147">
+        <v>1.52</v>
+      </c>
+      <c r="AN147">
+        <v>1.57</v>
+      </c>
+      <c r="AO147">
+        <v>1.43</v>
+      </c>
+      <c r="AP147">
+        <v>1.5</v>
+      </c>
+      <c r="AQ147">
+        <v>1.38</v>
+      </c>
+      <c r="AR147">
+        <v>1.24</v>
+      </c>
+      <c r="AS147">
+        <v>1.52</v>
+      </c>
+      <c r="AT147">
+        <v>2.76</v>
+      </c>
+      <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
+        <v>3</v>
+      </c>
+      <c r="AW147">
+        <v>3</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>8</v>
+      </c>
+      <c r="AZ147">
+        <v>7</v>
+      </c>
+      <c r="BA147">
+        <v>2</v>
+      </c>
+      <c r="BB147">
+        <v>2</v>
+      </c>
+      <c r="BC147">
+        <v>4</v>
+      </c>
+      <c r="BD147">
+        <v>1.8</v>
+      </c>
+      <c r="BE147">
+        <v>8.5</v>
+      </c>
+      <c r="BF147">
+        <v>2.3</v>
+      </c>
+      <c r="BG147">
+        <v>1.15</v>
+      </c>
+      <c r="BH147">
+        <v>4.75</v>
+      </c>
+      <c r="BI147">
+        <v>1.24</v>
+      </c>
+      <c r="BJ147">
+        <v>3.48</v>
+      </c>
+      <c r="BK147">
+        <v>1.51</v>
+      </c>
+      <c r="BL147">
+        <v>2.54</v>
+      </c>
+      <c r="BM147">
+        <v>2</v>
+      </c>
+      <c r="BN147">
+        <v>1.8</v>
+      </c>
+      <c r="BO147">
+        <v>2.22</v>
+      </c>
+      <c r="BP147">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7327043</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45431.16666666666</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s">
+        <v>89</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>188</v>
+      </c>
+      <c r="P148" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q148">
+        <v>2.5</v>
+      </c>
+      <c r="R148">
+        <v>2.25</v>
+      </c>
+      <c r="S148">
+        <v>4.33</v>
+      </c>
+      <c r="T148">
+        <v>1.36</v>
+      </c>
+      <c r="U148">
+        <v>3</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>7</v>
+      </c>
+      <c r="Y148">
+        <v>1.1</v>
+      </c>
+      <c r="Z148">
+        <v>1.85</v>
+      </c>
+      <c r="AA148">
+        <v>3.75</v>
+      </c>
+      <c r="AB148">
+        <v>3.9</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.22</v>
+      </c>
+      <c r="AF148">
+        <v>3.66</v>
+      </c>
+      <c r="AG148">
+        <v>1.76</v>
+      </c>
+      <c r="AH148">
+        <v>2</v>
+      </c>
+      <c r="AI148">
+        <v>1.7</v>
+      </c>
+      <c r="AJ148">
+        <v>2.05</v>
+      </c>
+      <c r="AK148">
+        <v>1.25</v>
+      </c>
+      <c r="AL148">
+        <v>1.27</v>
+      </c>
+      <c r="AM148">
+        <v>1.9</v>
+      </c>
+      <c r="AN148">
+        <v>1.29</v>
+      </c>
+      <c r="AO148">
+        <v>0.5</v>
+      </c>
+      <c r="AP148">
+        <v>1.5</v>
+      </c>
+      <c r="AQ148">
+        <v>0.43</v>
+      </c>
+      <c r="AR148">
+        <v>1.41</v>
+      </c>
+      <c r="AS148">
+        <v>1.2</v>
+      </c>
+      <c r="AT148">
+        <v>2.61</v>
+      </c>
+      <c r="AU148">
+        <v>5</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>4</v>
+      </c>
+      <c r="AY148">
+        <v>7</v>
+      </c>
+      <c r="AZ148">
+        <v>9</v>
+      </c>
+      <c r="BA148">
+        <v>3</v>
+      </c>
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
+        <v>5</v>
+      </c>
+      <c r="BD148">
+        <v>1.67</v>
+      </c>
+      <c r="BE148">
+        <v>8</v>
+      </c>
+      <c r="BF148">
+        <v>2.5</v>
+      </c>
+      <c r="BG148">
+        <v>1.28</v>
+      </c>
+      <c r="BH148">
+        <v>3.5</v>
+      </c>
+      <c r="BI148">
+        <v>1.36</v>
+      </c>
+      <c r="BJ148">
+        <v>2.79</v>
+      </c>
+      <c r="BK148">
+        <v>1.72</v>
+      </c>
+      <c r="BL148">
+        <v>2.11</v>
+      </c>
+      <c r="BM148">
+        <v>2.12</v>
+      </c>
+      <c r="BN148">
+        <v>1.71</v>
+      </c>
+      <c r="BO148">
+        <v>2.76</v>
+      </c>
+      <c r="BP148">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7327044</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45431.16666666666</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>88</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>189</v>
+      </c>
+      <c r="P149" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q149">
+        <v>3.25</v>
+      </c>
+      <c r="R149">
+        <v>2.1</v>
+      </c>
+      <c r="S149">
+        <v>3.4</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3</v>
+      </c>
+      <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>9</v>
+      </c>
+      <c r="Y149">
+        <v>1.07</v>
+      </c>
+      <c r="Z149">
+        <v>2.7</v>
+      </c>
+      <c r="AA149">
+        <v>3.1</v>
+      </c>
+      <c r="AB149">
+        <v>2.7</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>8.1</v>
+      </c>
+      <c r="AE149">
+        <v>1.3</v>
+      </c>
+      <c r="AF149">
+        <v>3.1</v>
+      </c>
+      <c r="AG149">
+        <v>2.02</v>
+      </c>
+      <c r="AH149">
+        <v>1.75</v>
+      </c>
+      <c r="AI149">
+        <v>1.75</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>1.47</v>
+      </c>
+      <c r="AL149">
+        <v>1.34</v>
+      </c>
+      <c r="AM149">
+        <v>1.47</v>
+      </c>
+      <c r="AN149">
+        <v>0.83</v>
+      </c>
+      <c r="AO149">
+        <v>1.17</v>
+      </c>
+      <c r="AP149">
+        <v>1.14</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>1.4</v>
+      </c>
+      <c r="AS149">
+        <v>1.33</v>
+      </c>
+      <c r="AT149">
+        <v>2.73</v>
+      </c>
+      <c r="AU149">
+        <v>3</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>1</v>
+      </c>
+      <c r="AY149">
+        <v>7</v>
+      </c>
+      <c r="AZ149">
+        <v>5</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>9</v>
+      </c>
+      <c r="BC149">
+        <v>12</v>
+      </c>
+      <c r="BD149">
+        <v>1.8</v>
+      </c>
+      <c r="BE149">
+        <v>8.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.3</v>
+      </c>
+      <c r="BG149">
+        <v>1.18</v>
+      </c>
+      <c r="BH149">
+        <v>4.33</v>
+      </c>
+      <c r="BI149">
+        <v>1.28</v>
+      </c>
+      <c r="BJ149">
+        <v>3.2</v>
+      </c>
+      <c r="BK149">
+        <v>1.59</v>
+      </c>
+      <c r="BL149">
+        <v>2.35</v>
+      </c>
+      <c r="BM149">
+        <v>2</v>
+      </c>
+      <c r="BN149">
+        <v>1.8</v>
+      </c>
+      <c r="BO149">
+        <v>2.4</v>
+      </c>
+      <c r="BP149">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -29965,19 +29965,19 @@
         <v>2</v>
       </c>
       <c r="AV140">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AW140">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ140">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BA140">
         <v>3</v>
@@ -30171,19 +30171,19 @@
         <v>3</v>
       </c>
       <c r="AV141">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX141">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AY141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ141">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="BA141">
         <v>2</v>
@@ -30383,13 +30383,13 @@
         <v>5</v>
       </c>
       <c r="AX142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY142">
         <v>8</v>
       </c>
       <c r="AZ142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA142">
         <v>5</v>
@@ -30580,31 +30580,31 @@
         <v>2.53</v>
       </c>
       <c r="AU143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW143">
         <v>7</v>
       </c>
       <c r="AX143">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ143">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC143">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD143">
         <v>2.2</v>
@@ -31404,31 +31404,31 @@
         <v>2.76</v>
       </c>
       <c r="AU147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW147">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX147">
+        <v>10</v>
+      </c>
+      <c r="AY147">
+        <v>12</v>
+      </c>
+      <c r="AZ147">
+        <v>14</v>
+      </c>
+      <c r="BA147">
         <v>4</v>
       </c>
-      <c r="AY147">
-        <v>8</v>
-      </c>
-      <c r="AZ147">
-        <v>7</v>
-      </c>
-      <c r="BA147">
-        <v>2</v>
-      </c>
       <c r="BB147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC147">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD147">
         <v>1.8</v>
@@ -31613,28 +31613,28 @@
         <v>5</v>
       </c>
       <c r="AV148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW148">
         <v>2</v>
       </c>
       <c r="AX148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY148">
         <v>7</v>
       </c>
       <c r="AZ148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA148">
         <v>3</v>
       </c>
       <c r="BB148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC148">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD148">
         <v>1.67</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -30374,22 +30374,22 @@
         <v>2.72</v>
       </c>
       <c r="AU142">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV142">
         <v>2</v>
       </c>
       <c r="AW142">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX142">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY142">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA142">
         <v>5</v>
@@ -30580,22 +30580,22 @@
         <v>2.53</v>
       </c>
       <c r="AU143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV143">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX143">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AY143">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ143">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA143">
         <v>3</v>
@@ -30789,19 +30789,19 @@
         <v>2</v>
       </c>
       <c r="AV144">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW144">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX144">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY144">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ144">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BA144">
         <v>2</v>
@@ -30992,22 +30992,22 @@
         <v>3.18</v>
       </c>
       <c r="AU145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV145">
         <v>7</v>
       </c>
       <c r="AW145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX145">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AY145">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ145">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA145">
         <v>3</v>
@@ -31198,22 +31198,22 @@
         <v>2.7</v>
       </c>
       <c r="AU146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV146">
         <v>4</v>
       </c>
       <c r="AW146">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX146">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY146">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AZ146">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA146">
         <v>6</v>
@@ -31407,19 +31407,19 @@
         <v>6</v>
       </c>
       <c r="AV147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW147">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX147">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY147">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ147">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA147">
         <v>4</v>
@@ -31610,22 +31610,22 @@
         <v>2.61</v>
       </c>
       <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
         <v>5</v>
       </c>
-      <c r="AV148">
-        <v>6</v>
-      </c>
       <c r="AW148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY148">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ148">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -31816,22 +31816,22 @@
         <v>2.73</v>
       </c>
       <c r="AU149">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX149">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ149">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA149">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,12 @@
     <t>['35', '59']</t>
   </si>
   <si>
+    <t>['45+5', '82', '86']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -718,9 +724,6 @@
     <t>['11', '86']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['30', '47']</t>
   </si>
   <si>
@@ -821,6 +824,15 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['40', '55', '87']</t>
+  </si>
+  <si>
+    <t>['1', '29']</t>
+  </si>
+  <si>
+    <t>['37', '85']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1659,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1728,7 +1740,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1853,7 +1865,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1931,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
         <v>2.38</v>
@@ -2265,7 +2277,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2677,7 +2689,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2883,7 +2895,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3295,7 +3307,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3501,7 +3513,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3582,7 +3594,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3707,7 +3719,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3785,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3913,7 +3925,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3994,7 +4006,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4325,7 +4337,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4406,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4737,7 +4749,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4943,7 +4955,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5355,7 +5367,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5561,7 +5573,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5639,10 +5651,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -5845,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>2.14</v>
@@ -6054,7 +6066,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6466,7 +6478,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6591,7 +6603,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6875,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28">
         <v>1.13</v>
@@ -7003,7 +7015,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7287,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7415,7 +7427,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7621,7 +7633,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7699,7 +7711,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ32">
         <v>2.29</v>
@@ -8033,7 +8045,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8239,7 +8251,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8445,7 +8457,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8651,7 +8663,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8857,7 +8869,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9063,7 +9075,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9269,7 +9281,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9475,7 +9487,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9681,7 +9693,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9965,10 +9977,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10377,7 +10389,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
         <v>1.57</v>
@@ -10505,7 +10517,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10792,7 +10804,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -11123,7 +11135,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11410,7 +11422,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11822,7 +11834,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12025,7 +12037,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12153,7 +12165,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12565,7 +12577,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13183,7 +13195,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13261,7 +13273,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59">
         <v>2.14</v>
@@ -13389,7 +13401,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13673,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -13882,7 +13894,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14007,7 +14019,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14213,7 +14225,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14291,7 +14303,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.38</v>
@@ -14419,7 +14431,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14706,7 +14718,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -14831,7 +14843,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14909,7 +14921,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>2.29</v>
@@ -15118,7 +15130,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15530,7 +15542,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -16067,7 +16079,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16148,7 +16160,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16273,7 +16285,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16351,7 +16363,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>0.43</v>
@@ -16479,7 +16491,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16557,7 +16569,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
         <v>2.14</v>
@@ -17097,7 +17109,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17509,7 +17521,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17715,7 +17727,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17999,7 +18011,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ82">
         <v>1.57</v>
@@ -18127,7 +18139,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18333,7 +18345,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18414,7 +18426,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18539,7 +18551,7 @@
         <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18745,7 +18757,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19235,7 +19247,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
         <v>1.29</v>
@@ -19363,7 +19375,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19569,7 +19581,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19775,7 +19787,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19853,10 +19865,10 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20059,7 +20071,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>2.29</v>
@@ -20393,7 +20405,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20471,7 +20483,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1.57</v>
@@ -20599,7 +20611,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20886,7 +20898,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21011,7 +21023,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21217,7 +21229,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21423,7 +21435,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21629,7 +21641,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21710,7 +21722,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22041,7 +22053,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22119,7 +22131,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>1.57</v>
@@ -22328,7 +22340,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ103">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22453,7 +22465,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22740,7 +22752,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22865,7 +22877,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23071,7 +23083,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23483,7 +23495,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23561,7 +23573,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23689,7 +23701,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23895,7 +23907,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24101,7 +24113,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24719,7 +24731,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24925,7 +24937,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25003,7 +25015,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ116">
         <v>1.57</v>
@@ -25131,7 +25143,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25337,7 +25349,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25418,7 +25430,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -25749,7 +25761,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25955,7 +25967,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26033,7 +26045,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26161,7 +26173,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26242,7 +26254,7 @@
         <v>0</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26367,7 +26379,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26445,7 +26457,7 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
         <v>0.57</v>
@@ -26857,7 +26869,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ125">
         <v>0.43</v>
@@ -26985,7 +26997,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27191,7 +27203,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27397,7 +27409,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27478,7 +27490,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27603,7 +27615,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27809,7 +27821,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27890,7 +27902,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -28299,7 +28311,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28508,7 +28520,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -29045,7 +29057,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29123,7 +29135,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
         <v>1.38</v>
@@ -29251,7 +29263,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29538,7 +29550,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ138">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -29869,7 +29881,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30075,7 +30087,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30487,7 +30499,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30565,7 +30577,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30693,7 +30705,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31517,7 +31529,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31880,6 +31892,830 @@
       </c>
       <c r="BP149">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7327045</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45437.08333333334</v>
+      </c>
+      <c r="F150">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>89</v>
+      </c>
+      <c r="H150" t="s">
+        <v>84</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>91</v>
+      </c>
+      <c r="P150" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q150">
+        <v>3.91</v>
+      </c>
+      <c r="R150">
+        <v>2.3</v>
+      </c>
+      <c r="S150">
+        <v>2.82</v>
+      </c>
+      <c r="T150">
+        <v>1.37</v>
+      </c>
+      <c r="U150">
+        <v>3.17</v>
+      </c>
+      <c r="V150">
+        <v>2.81</v>
+      </c>
+      <c r="W150">
+        <v>1.45</v>
+      </c>
+      <c r="X150">
+        <v>6.45</v>
+      </c>
+      <c r="Y150">
+        <v>1.1</v>
+      </c>
+      <c r="Z150">
+        <v>3.4</v>
+      </c>
+      <c r="AA150">
+        <v>3.5</v>
+      </c>
+      <c r="AB150">
+        <v>2.03</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>9.6</v>
+      </c>
+      <c r="AE150">
+        <v>1.23</v>
+      </c>
+      <c r="AF150">
+        <v>3.58</v>
+      </c>
+      <c r="AG150">
+        <v>1.74</v>
+      </c>
+      <c r="AH150">
+        <v>2</v>
+      </c>
+      <c r="AI150">
+        <v>1.66</v>
+      </c>
+      <c r="AJ150">
+        <v>2.14</v>
+      </c>
+      <c r="AK150">
+        <v>1.6</v>
+      </c>
+      <c r="AL150">
+        <v>1.3</v>
+      </c>
+      <c r="AM150">
+        <v>1.3</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
+        <v>1.5</v>
+      </c>
+      <c r="AP150">
+        <v>0.89</v>
+      </c>
+      <c r="AQ150">
+        <v>1.67</v>
+      </c>
+      <c r="AR150">
+        <v>1.3</v>
+      </c>
+      <c r="AS150">
+        <v>1.34</v>
+      </c>
+      <c r="AT150">
+        <v>2.64</v>
+      </c>
+      <c r="AU150">
+        <v>0</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>3</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>3</v>
+      </c>
+      <c r="AZ150">
+        <v>6</v>
+      </c>
+      <c r="BA150">
+        <v>1</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>1</v>
+      </c>
+      <c r="BD150">
+        <v>1.91</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>2.1</v>
+      </c>
+      <c r="BG150">
+        <v>1.22</v>
+      </c>
+      <c r="BH150">
+        <v>3.8</v>
+      </c>
+      <c r="BI150">
+        <v>1.36</v>
+      </c>
+      <c r="BJ150">
+        <v>2.9</v>
+      </c>
+      <c r="BK150">
+        <v>1.8</v>
+      </c>
+      <c r="BL150">
+        <v>2</v>
+      </c>
+      <c r="BM150">
+        <v>2.1</v>
+      </c>
+      <c r="BN150">
+        <v>1.65</v>
+      </c>
+      <c r="BO150">
+        <v>2.75</v>
+      </c>
+      <c r="BP150">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7327046</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45437.08333333334</v>
+      </c>
+      <c r="F151">
+        <v>16</v>
+      </c>
+      <c r="G151" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s">
+        <v>76</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>3</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>190</v>
+      </c>
+      <c r="P151" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q151">
+        <v>3.21</v>
+      </c>
+      <c r="R151">
+        <v>2.21</v>
+      </c>
+      <c r="S151">
+        <v>3.57</v>
+      </c>
+      <c r="T151">
+        <v>1.42</v>
+      </c>
+      <c r="U151">
+        <v>2.94</v>
+      </c>
+      <c r="V151">
+        <v>3.06</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>7.3</v>
+      </c>
+      <c r="Y151">
+        <v>1.07</v>
+      </c>
+      <c r="Z151">
+        <v>2.63</v>
+      </c>
+      <c r="AA151">
+        <v>3.2</v>
+      </c>
+      <c r="AB151">
+        <v>2.63</v>
+      </c>
+      <c r="AC151">
+        <v>1.06</v>
+      </c>
+      <c r="AD151">
+        <v>8.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.33</v>
+      </c>
+      <c r="AF151">
+        <v>3.3</v>
+      </c>
+      <c r="AG151">
+        <v>1.85</v>
+      </c>
+      <c r="AH151">
+        <v>1.87</v>
+      </c>
+      <c r="AI151">
+        <v>1.7</v>
+      </c>
+      <c r="AJ151">
+        <v>2</v>
+      </c>
+      <c r="AK151">
+        <v>1.38</v>
+      </c>
+      <c r="AL151">
+        <v>1.32</v>
+      </c>
+      <c r="AM151">
+        <v>1.48</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
+        <v>0.75</v>
+      </c>
+      <c r="AP151">
+        <v>1.25</v>
+      </c>
+      <c r="AQ151">
+        <v>0.67</v>
+      </c>
+      <c r="AR151">
+        <v>1.18</v>
+      </c>
+      <c r="AS151">
+        <v>1.49</v>
+      </c>
+      <c r="AT151">
+        <v>2.67</v>
+      </c>
+      <c r="AU151">
+        <v>3</v>
+      </c>
+      <c r="AV151">
+        <v>0</v>
+      </c>
+      <c r="AW151">
+        <v>0</v>
+      </c>
+      <c r="AX151">
+        <v>5</v>
+      </c>
+      <c r="AY151">
+        <v>3</v>
+      </c>
+      <c r="AZ151">
+        <v>5</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>7</v>
+      </c>
+      <c r="BD151">
+        <v>1.91</v>
+      </c>
+      <c r="BE151">
+        <v>8.5</v>
+      </c>
+      <c r="BF151">
+        <v>2.1</v>
+      </c>
+      <c r="BG151">
+        <v>1.13</v>
+      </c>
+      <c r="BH151">
+        <v>5</v>
+      </c>
+      <c r="BI151">
+        <v>1.25</v>
+      </c>
+      <c r="BJ151">
+        <v>3.6</v>
+      </c>
+      <c r="BK151">
+        <v>1.4</v>
+      </c>
+      <c r="BL151">
+        <v>2.75</v>
+      </c>
+      <c r="BM151">
+        <v>1.95</v>
+      </c>
+      <c r="BN151">
+        <v>1.85</v>
+      </c>
+      <c r="BO151">
+        <v>2.13</v>
+      </c>
+      <c r="BP151">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7327049</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45437.16666666666</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>191</v>
+      </c>
+      <c r="P152" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q152">
+        <v>3.42</v>
+      </c>
+      <c r="R152">
+        <v>1.97</v>
+      </c>
+      <c r="S152">
+        <v>4.06</v>
+      </c>
+      <c r="T152">
+        <v>1.6</v>
+      </c>
+      <c r="U152">
+        <v>2.4</v>
+      </c>
+      <c r="V152">
+        <v>3.65</v>
+      </c>
+      <c r="W152">
+        <v>1.25</v>
+      </c>
+      <c r="X152">
+        <v>10.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.03</v>
+      </c>
+      <c r="Z152">
+        <v>2.34</v>
+      </c>
+      <c r="AA152">
+        <v>2.86</v>
+      </c>
+      <c r="AB152">
+        <v>3.1</v>
+      </c>
+      <c r="AC152">
+        <v>1.1</v>
+      </c>
+      <c r="AD152">
+        <v>6.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.48</v>
+      </c>
+      <c r="AF152">
+        <v>2.45</v>
+      </c>
+      <c r="AG152">
+        <v>2.55</v>
+      </c>
+      <c r="AH152">
+        <v>1.45</v>
+      </c>
+      <c r="AI152">
+        <v>2</v>
+      </c>
+      <c r="AJ152">
+        <v>1.7</v>
+      </c>
+      <c r="AK152">
+        <v>1.35</v>
+      </c>
+      <c r="AL152">
+        <v>1.35</v>
+      </c>
+      <c r="AM152">
+        <v>1.48</v>
+      </c>
+      <c r="AN152">
+        <v>1.13</v>
+      </c>
+      <c r="AO152">
+        <v>1.33</v>
+      </c>
+      <c r="AP152">
+        <v>1</v>
+      </c>
+      <c r="AQ152">
+        <v>1.57</v>
+      </c>
+      <c r="AR152">
+        <v>1.47</v>
+      </c>
+      <c r="AS152">
+        <v>1.25</v>
+      </c>
+      <c r="AT152">
+        <v>2.72</v>
+      </c>
+      <c r="AU152">
+        <v>2</v>
+      </c>
+      <c r="AV152">
+        <v>2</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>1</v>
+      </c>
+      <c r="AY152">
+        <v>8</v>
+      </c>
+      <c r="AZ152">
+        <v>3</v>
+      </c>
+      <c r="BA152">
+        <v>6</v>
+      </c>
+      <c r="BB152">
+        <v>5</v>
+      </c>
+      <c r="BC152">
+        <v>11</v>
+      </c>
+      <c r="BD152">
+        <v>1.73</v>
+      </c>
+      <c r="BE152">
+        <v>8</v>
+      </c>
+      <c r="BF152">
+        <v>2.4</v>
+      </c>
+      <c r="BG152">
+        <v>1.19</v>
+      </c>
+      <c r="BH152">
+        <v>3.95</v>
+      </c>
+      <c r="BI152">
+        <v>1.39</v>
+      </c>
+      <c r="BJ152">
+        <v>2.76</v>
+      </c>
+      <c r="BK152">
+        <v>1.75</v>
+      </c>
+      <c r="BL152">
+        <v>1.95</v>
+      </c>
+      <c r="BM152">
+        <v>2.12</v>
+      </c>
+      <c r="BN152">
+        <v>1.64</v>
+      </c>
+      <c r="BO152">
+        <v>2.78</v>
+      </c>
+      <c r="BP152">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7327047</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45437.16666666666</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>81</v>
+      </c>
+      <c r="H153" t="s">
+        <v>78</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>131</v>
+      </c>
+      <c r="P153" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q153">
+        <v>2.87</v>
+      </c>
+      <c r="R153">
+        <v>2.27</v>
+      </c>
+      <c r="S153">
+        <v>3.91</v>
+      </c>
+      <c r="T153">
+        <v>1.39</v>
+      </c>
+      <c r="U153">
+        <v>3.09</v>
+      </c>
+      <c r="V153">
+        <v>2.92</v>
+      </c>
+      <c r="W153">
+        <v>1.43</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>2.06</v>
+      </c>
+      <c r="AA153">
+        <v>3.26</v>
+      </c>
+      <c r="AB153">
+        <v>3.26</v>
+      </c>
+      <c r="AC153">
+        <v>1.02</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.29</v>
+      </c>
+      <c r="AF153">
+        <v>3.4</v>
+      </c>
+      <c r="AG153">
+        <v>1.87</v>
+      </c>
+      <c r="AH153">
+        <v>1.84</v>
+      </c>
+      <c r="AI153">
+        <v>1.67</v>
+      </c>
+      <c r="AJ153">
+        <v>2.05</v>
+      </c>
+      <c r="AK153">
+        <v>1.38</v>
+      </c>
+      <c r="AL153">
+        <v>1.33</v>
+      </c>
+      <c r="AM153">
+        <v>1.62</v>
+      </c>
+      <c r="AN153">
+        <v>1.43</v>
+      </c>
+      <c r="AO153">
+        <v>1.5</v>
+      </c>
+      <c r="AP153">
+        <v>1.38</v>
+      </c>
+      <c r="AQ153">
+        <v>1.43</v>
+      </c>
+      <c r="AR153">
+        <v>1.8</v>
+      </c>
+      <c r="AS153">
+        <v>1.37</v>
+      </c>
+      <c r="AT153">
+        <v>3.17</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>8</v>
+      </c>
+      <c r="AW153">
+        <v>2</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>5</v>
+      </c>
+      <c r="AZ153">
+        <v>14</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>6</v>
+      </c>
+      <c r="BD153">
+        <v>2.05</v>
+      </c>
+      <c r="BE153">
+        <v>8</v>
+      </c>
+      <c r="BF153">
+        <v>2</v>
+      </c>
+      <c r="BG153">
+        <v>1.22</v>
+      </c>
+      <c r="BH153">
+        <v>3.8</v>
+      </c>
+      <c r="BI153">
+        <v>1.31</v>
+      </c>
+      <c r="BJ153">
+        <v>3.04</v>
+      </c>
+      <c r="BK153">
+        <v>1.7</v>
+      </c>
+      <c r="BL153">
+        <v>2.05</v>
+      </c>
+      <c r="BM153">
+        <v>1.97</v>
+      </c>
+      <c r="BN153">
+        <v>1.78</v>
+      </c>
+      <c r="BO153">
+        <v>2.52</v>
+      </c>
+      <c r="BP153">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -674,9 +677,6 @@
   </si>
   <si>
     <t>['34']</t>
-  </si>
-  <si>
-    <t>['54']</t>
   </si>
   <si>
     <t>['75', '86']</t>
@@ -1194,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1659,7 +1659,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1865,7 +1865,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2277,7 +2277,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2564,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2895,7 +2895,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ9">
         <v>1.57</v>
@@ -3182,7 +3182,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3513,7 +3513,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3719,7 +3719,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3925,7 +3925,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.43</v>
@@ -4209,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ15">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4337,7 +4337,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4749,7 +4749,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4955,7 +4955,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5033,10 +5033,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
+        <v>1.33</v>
+      </c>
+      <c r="AQ19">
         <v>1.5</v>
-      </c>
-      <c r="AQ19">
-        <v>1.57</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5367,7 +5367,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5445,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6603,7 +6603,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6681,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>2.38</v>
@@ -6890,7 +6890,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7015,7 +7015,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7093,10 +7093,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7427,7 +7427,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7633,7 +7633,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7714,7 +7714,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7917,10 +7917,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8045,7 +8045,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8251,7 +8251,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8457,7 +8457,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8663,7 +8663,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8869,7 +8869,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9075,7 +9075,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9281,7 +9281,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9487,7 +9487,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9568,7 +9568,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ41">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9693,7 +9693,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9774,7 +9774,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10183,7 +10183,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>0.43</v>
@@ -10517,7 +10517,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10801,7 +10801,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.57</v>
@@ -11135,7 +11135,7 @@
         <v>125</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11213,7 +11213,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11419,7 +11419,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -12246,7 +12246,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12452,7 +12452,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12658,7 +12658,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -13479,7 +13479,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13688,7 +13688,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -14097,7 +14097,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63">
         <v>1.38</v>
@@ -14225,7 +14225,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14924,7 +14924,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15127,7 +15127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ68">
         <v>1.57</v>
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.57</v>
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15748,7 +15748,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -16778,7 +16778,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ76">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16984,7 +16984,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17393,7 +17393,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -18014,7 +18014,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ82">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -19041,10 +19041,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19250,7 +19250,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19453,10 +19453,10 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19659,7 +19659,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
         <v>1.38</v>
@@ -20074,7 +20074,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20277,10 +20277,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20689,7 +20689,7 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -21307,7 +21307,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>2.14</v>
@@ -22053,7 +22053,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22134,7 +22134,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22543,10 +22543,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22955,7 +22955,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ106">
         <v>0.43</v>
@@ -23164,7 +23164,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23370,7 +23370,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ108">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23495,7 +23495,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23779,7 +23779,7 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ110">
         <v>2.38</v>
@@ -23985,7 +23985,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="AQ115">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25839,7 +25839,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>1.38</v>
@@ -26666,7 +26666,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ124">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -27075,10 +27075,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ126">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27281,7 +27281,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ127">
         <v>2.38</v>
@@ -27487,7 +27487,7 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
         <v>1.43</v>
@@ -27696,7 +27696,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28105,7 +28105,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131">
         <v>1.57</v>
@@ -28726,7 +28726,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29547,7 +29547,7 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
         <v>1.57</v>
@@ -29753,10 +29753,10 @@
         <v>1.29</v>
       </c>
       <c r="AP139">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30374,7 +30374,7 @@
         <v>2</v>
       </c>
       <c r="AQ142">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30786,7 +30786,7 @@
         <v>0</v>
       </c>
       <c r="AQ144">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -31401,7 +31401,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
         <v>1.38</v>
@@ -32034,31 +32034,31 @@
         <v>2.64</v>
       </c>
       <c r="AU150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV150">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW150">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX150">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY150">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AZ150">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BA150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BD150">
         <v>1.91</v>
@@ -32240,31 +32240,31 @@
         <v>2.67</v>
       </c>
       <c r="AU151">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW151">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY151">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AZ151">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA151">
         <v>2</v>
       </c>
       <c r="BB151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD151">
         <v>1.91</v>
@@ -32449,19 +32449,19 @@
         <v>2</v>
       </c>
       <c r="AV152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
         <v>6</v>
       </c>
-      <c r="AX152">
-        <v>1</v>
-      </c>
       <c r="AY152">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ152">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA152">
         <v>6</v>
@@ -32652,31 +32652,31 @@
         <v>3.17</v>
       </c>
       <c r="AU153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV153">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX153">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY153">
+        <v>9</v>
+      </c>
+      <c r="AZ153">
+        <v>19</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
         <v>5</v>
       </c>
-      <c r="AZ153">
-        <v>14</v>
-      </c>
-      <c r="BA153">
-        <v>2</v>
-      </c>
-      <c r="BB153">
-        <v>4</v>
-      </c>
       <c r="BC153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD153">
         <v>2.05</v>
@@ -32716,6 +32716,1036 @@
       </c>
       <c r="BP153">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7327050</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45438.08333333334</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>82</v>
+      </c>
+      <c r="H154" t="s">
+        <v>79</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>91</v>
+      </c>
+      <c r="P154" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q154">
+        <v>2.25</v>
+      </c>
+      <c r="R154">
+        <v>2.2</v>
+      </c>
+      <c r="S154">
+        <v>6</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
+        <v>3.25</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>9</v>
+      </c>
+      <c r="Y154">
+        <v>1.07</v>
+      </c>
+      <c r="Z154">
+        <v>1.57</v>
+      </c>
+      <c r="AA154">
+        <v>3.8</v>
+      </c>
+      <c r="AB154">
+        <v>5.5</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>8.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.3</v>
+      </c>
+      <c r="AF154">
+        <v>3.2</v>
+      </c>
+      <c r="AG154">
+        <v>2</v>
+      </c>
+      <c r="AH154">
+        <v>1.73</v>
+      </c>
+      <c r="AI154">
+        <v>2.05</v>
+      </c>
+      <c r="AJ154">
+        <v>1.7</v>
+      </c>
+      <c r="AK154">
+        <v>1.07</v>
+      </c>
+      <c r="AL154">
+        <v>1.25</v>
+      </c>
+      <c r="AM154">
+        <v>2.3</v>
+      </c>
+      <c r="AN154">
+        <v>1.43</v>
+      </c>
+      <c r="AO154">
+        <v>1.29</v>
+      </c>
+      <c r="AP154">
+        <v>1.25</v>
+      </c>
+      <c r="AQ154">
+        <v>1.5</v>
+      </c>
+      <c r="AR154">
+        <v>1.8</v>
+      </c>
+      <c r="AS154">
+        <v>1.29</v>
+      </c>
+      <c r="AT154">
+        <v>3.09</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>3</v>
+      </c>
+      <c r="AW154">
+        <v>12</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>16</v>
+      </c>
+      <c r="AZ154">
+        <v>8</v>
+      </c>
+      <c r="BA154">
+        <v>9</v>
+      </c>
+      <c r="BB154">
+        <v>2</v>
+      </c>
+      <c r="BC154">
+        <v>11</v>
+      </c>
+      <c r="BD154">
+        <v>1.4</v>
+      </c>
+      <c r="BE154">
+        <v>9</v>
+      </c>
+      <c r="BF154">
+        <v>3.4</v>
+      </c>
+      <c r="BG154">
+        <v>1.22</v>
+      </c>
+      <c r="BH154">
+        <v>3.8</v>
+      </c>
+      <c r="BI154">
+        <v>1.34</v>
+      </c>
+      <c r="BJ154">
+        <v>2.88</v>
+      </c>
+      <c r="BK154">
+        <v>1.73</v>
+      </c>
+      <c r="BL154">
+        <v>2</v>
+      </c>
+      <c r="BM154">
+        <v>2.04</v>
+      </c>
+      <c r="BN154">
+        <v>1.73</v>
+      </c>
+      <c r="BO154">
+        <v>2.65</v>
+      </c>
+      <c r="BP154">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7327053</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45438.125</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>169</v>
+      </c>
+      <c r="P155" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q155">
+        <v>4.5</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>2.6</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.63</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>9</v>
+      </c>
+      <c r="Y155">
+        <v>1.07</v>
+      </c>
+      <c r="Z155">
+        <v>3.75</v>
+      </c>
+      <c r="AA155">
+        <v>3.3</v>
+      </c>
+      <c r="AB155">
+        <v>1.95</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.33</v>
+      </c>
+      <c r="AF155">
+        <v>3.2</v>
+      </c>
+      <c r="AG155">
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <v>1.73</v>
+      </c>
+      <c r="AI155">
+        <v>1.91</v>
+      </c>
+      <c r="AJ155">
+        <v>1.91</v>
+      </c>
+      <c r="AK155">
+        <v>1.85</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.2</v>
+      </c>
+      <c r="AN155">
+        <v>1.71</v>
+      </c>
+      <c r="AO155">
+        <v>1.57</v>
+      </c>
+      <c r="AP155">
+        <v>1.63</v>
+      </c>
+      <c r="AQ155">
+        <v>1.5</v>
+      </c>
+      <c r="AR155">
+        <v>1.58</v>
+      </c>
+      <c r="AS155">
+        <v>1.7</v>
+      </c>
+      <c r="AT155">
+        <v>3.28</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>5</v>
+      </c>
+      <c r="AW155">
+        <v>10</v>
+      </c>
+      <c r="AX155">
+        <v>9</v>
+      </c>
+      <c r="AY155">
+        <v>14</v>
+      </c>
+      <c r="AZ155">
+        <v>14</v>
+      </c>
+      <c r="BA155">
+        <v>8</v>
+      </c>
+      <c r="BB155">
+        <v>11</v>
+      </c>
+      <c r="BC155">
+        <v>19</v>
+      </c>
+      <c r="BD155">
+        <v>3</v>
+      </c>
+      <c r="BE155">
+        <v>8.5</v>
+      </c>
+      <c r="BF155">
+        <v>1.5</v>
+      </c>
+      <c r="BG155">
+        <v>1.22</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>1.36</v>
+      </c>
+      <c r="BJ155">
+        <v>2.79</v>
+      </c>
+      <c r="BK155">
+        <v>1.65</v>
+      </c>
+      <c r="BL155">
+        <v>2.11</v>
+      </c>
+      <c r="BM155">
+        <v>2.05</v>
+      </c>
+      <c r="BN155">
+        <v>1.7</v>
+      </c>
+      <c r="BO155">
+        <v>2.72</v>
+      </c>
+      <c r="BP155">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7327052</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45438.125</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>71</v>
+      </c>
+      <c r="H156" t="s">
+        <v>83</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>102</v>
+      </c>
+      <c r="P156" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q156">
+        <v>2.75</v>
+      </c>
+      <c r="R156">
+        <v>2.05</v>
+      </c>
+      <c r="S156">
+        <v>4.5</v>
+      </c>
+      <c r="T156">
+        <v>1.5</v>
+      </c>
+      <c r="U156">
+        <v>2.5</v>
+      </c>
+      <c r="V156">
+        <v>3.4</v>
+      </c>
+      <c r="W156">
+        <v>1.3</v>
+      </c>
+      <c r="X156">
+        <v>10</v>
+      </c>
+      <c r="Y156">
+        <v>1.06</v>
+      </c>
+      <c r="Z156">
+        <v>1.91</v>
+      </c>
+      <c r="AA156">
+        <v>3.25</v>
+      </c>
+      <c r="AB156">
+        <v>4</v>
+      </c>
+      <c r="AC156">
+        <v>1.07</v>
+      </c>
+      <c r="AD156">
+        <v>6.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.35</v>
+      </c>
+      <c r="AF156">
+        <v>2.9</v>
+      </c>
+      <c r="AG156">
+        <v>2.2</v>
+      </c>
+      <c r="AH156">
+        <v>1.6</v>
+      </c>
+      <c r="AI156">
+        <v>1.95</v>
+      </c>
+      <c r="AJ156">
+        <v>1.8</v>
+      </c>
+      <c r="AK156">
+        <v>1.25</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.78</v>
+      </c>
+      <c r="AN156">
+        <v>1.25</v>
+      </c>
+      <c r="AO156">
+        <v>1.13</v>
+      </c>
+      <c r="AP156">
+        <v>1.22</v>
+      </c>
+      <c r="AQ156">
+        <v>1.11</v>
+      </c>
+      <c r="AR156">
+        <v>0.96</v>
+      </c>
+      <c r="AS156">
+        <v>1.25</v>
+      </c>
+      <c r="AT156">
+        <v>2.21</v>
+      </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
+      <c r="AV156">
+        <v>5</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>8</v>
+      </c>
+      <c r="AY156">
+        <v>11</v>
+      </c>
+      <c r="AZ156">
+        <v>13</v>
+      </c>
+      <c r="BA156">
+        <v>4</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>6</v>
+      </c>
+      <c r="BD156">
+        <v>1.8</v>
+      </c>
+      <c r="BE156">
+        <v>8</v>
+      </c>
+      <c r="BF156">
+        <v>2.25</v>
+      </c>
+      <c r="BG156">
+        <v>1.16</v>
+      </c>
+      <c r="BH156">
+        <v>4.8</v>
+      </c>
+      <c r="BI156">
+        <v>1.28</v>
+      </c>
+      <c r="BJ156">
+        <v>3.2</v>
+      </c>
+      <c r="BK156">
+        <v>1.51</v>
+      </c>
+      <c r="BL156">
+        <v>2.39</v>
+      </c>
+      <c r="BM156">
+        <v>1.98</v>
+      </c>
+      <c r="BN156">
+        <v>1.82</v>
+      </c>
+      <c r="BO156">
+        <v>2.39</v>
+      </c>
+      <c r="BP156">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7327051</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45438.125</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>85</v>
+      </c>
+      <c r="H157" t="s">
+        <v>86</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>91</v>
+      </c>
+      <c r="P157" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q157">
+        <v>3.1</v>
+      </c>
+      <c r="R157">
+        <v>2.05</v>
+      </c>
+      <c r="S157">
+        <v>3.6</v>
+      </c>
+      <c r="T157">
+        <v>1.44</v>
+      </c>
+      <c r="U157">
+        <v>2.63</v>
+      </c>
+      <c r="V157">
+        <v>3.25</v>
+      </c>
+      <c r="W157">
+        <v>1.33</v>
+      </c>
+      <c r="X157">
+        <v>9</v>
+      </c>
+      <c r="Y157">
+        <v>1.07</v>
+      </c>
+      <c r="Z157">
+        <v>2.4</v>
+      </c>
+      <c r="AA157">
+        <v>3</v>
+      </c>
+      <c r="AB157">
+        <v>3</v>
+      </c>
+      <c r="AC157">
+        <v>1.08</v>
+      </c>
+      <c r="AD157">
+        <v>7.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.36</v>
+      </c>
+      <c r="AF157">
+        <v>3</v>
+      </c>
+      <c r="AG157">
+        <v>2.1</v>
+      </c>
+      <c r="AH157">
+        <v>1.67</v>
+      </c>
+      <c r="AI157">
+        <v>1.8</v>
+      </c>
+      <c r="AJ157">
+        <v>1.95</v>
+      </c>
+      <c r="AK157">
+        <v>1.38</v>
+      </c>
+      <c r="AL157">
+        <v>1.28</v>
+      </c>
+      <c r="AM157">
+        <v>1.55</v>
+      </c>
+      <c r="AN157">
+        <v>1.5</v>
+      </c>
+      <c r="AO157">
+        <v>1.13</v>
+      </c>
+      <c r="AP157">
+        <v>1.33</v>
+      </c>
+      <c r="AQ157">
+        <v>1.33</v>
+      </c>
+      <c r="AR157">
+        <v>1.29</v>
+      </c>
+      <c r="AS157">
+        <v>1.17</v>
+      </c>
+      <c r="AT157">
+        <v>2.46</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>6</v>
+      </c>
+      <c r="AW157">
+        <v>8</v>
+      </c>
+      <c r="AX157">
+        <v>8</v>
+      </c>
+      <c r="AY157">
+        <v>13</v>
+      </c>
+      <c r="AZ157">
+        <v>14</v>
+      </c>
+      <c r="BA157">
+        <v>4</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>1.8</v>
+      </c>
+      <c r="BE157">
+        <v>8</v>
+      </c>
+      <c r="BF157">
+        <v>2.38</v>
+      </c>
+      <c r="BG157">
+        <v>1.21</v>
+      </c>
+      <c r="BH157">
+        <v>3.74</v>
+      </c>
+      <c r="BI157">
+        <v>1.42</v>
+      </c>
+      <c r="BJ157">
+        <v>2.65</v>
+      </c>
+      <c r="BK157">
+        <v>1.8</v>
+      </c>
+      <c r="BL157">
+        <v>2</v>
+      </c>
+      <c r="BM157">
+        <v>2.19</v>
+      </c>
+      <c r="BN157">
+        <v>1.6</v>
+      </c>
+      <c r="BO157">
+        <v>2.88</v>
+      </c>
+      <c r="BP157">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7327054</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45438.16666666666</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>87</v>
+      </c>
+      <c r="H158" t="s">
+        <v>75</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>192</v>
+      </c>
+      <c r="P158" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q158">
+        <v>3.2</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>3.6</v>
+      </c>
+      <c r="T158">
+        <v>1.44</v>
+      </c>
+      <c r="U158">
+        <v>2.63</v>
+      </c>
+      <c r="V158">
+        <v>3.25</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>10</v>
+      </c>
+      <c r="Y158">
+        <v>1.06</v>
+      </c>
+      <c r="Z158">
+        <v>2.38</v>
+      </c>
+      <c r="AA158">
+        <v>3.2</v>
+      </c>
+      <c r="AB158">
+        <v>2.88</v>
+      </c>
+      <c r="AC158">
+        <v>1.08</v>
+      </c>
+      <c r="AD158">
+        <v>7.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.36</v>
+      </c>
+      <c r="AF158">
+        <v>3</v>
+      </c>
+      <c r="AG158">
+        <v>2.1</v>
+      </c>
+      <c r="AH158">
+        <v>1.67</v>
+      </c>
+      <c r="AI158">
+        <v>1.8</v>
+      </c>
+      <c r="AJ158">
+        <v>1.95</v>
+      </c>
+      <c r="AK158">
+        <v>1.4</v>
+      </c>
+      <c r="AL158">
+        <v>1.28</v>
+      </c>
+      <c r="AM158">
+        <v>1.53</v>
+      </c>
+      <c r="AN158">
+        <v>2.29</v>
+      </c>
+      <c r="AO158">
+        <v>2.29</v>
+      </c>
+      <c r="AP158">
+        <v>2</v>
+      </c>
+      <c r="AQ158">
+        <v>2.38</v>
+      </c>
+      <c r="AR158">
+        <v>1.74</v>
+      </c>
+      <c r="AS158">
+        <v>1.36</v>
+      </c>
+      <c r="AT158">
+        <v>3.1</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>3</v>
+      </c>
+      <c r="AX158">
+        <v>5</v>
+      </c>
+      <c r="AY158">
+        <v>7</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>5</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>10</v>
+      </c>
+      <c r="BD158">
+        <v>1.95</v>
+      </c>
+      <c r="BE158">
+        <v>8</v>
+      </c>
+      <c r="BF158">
+        <v>2.1</v>
+      </c>
+      <c r="BG158">
+        <v>1.19</v>
+      </c>
+      <c r="BH158">
+        <v>3.92</v>
+      </c>
+      <c r="BI158">
+        <v>1.4</v>
+      </c>
+      <c r="BJ158">
+        <v>2.72</v>
+      </c>
+      <c r="BK158">
+        <v>1.9</v>
+      </c>
+      <c r="BL158">
+        <v>1.9</v>
+      </c>
+      <c r="BM158">
+        <v>2.14</v>
+      </c>
+      <c r="BN158">
+        <v>1.63</v>
+      </c>
+      <c r="BO158">
+        <v>2.79</v>
+      </c>
+      <c r="BP158">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['11', '43', '65', '90+6']</t>
   </si>
   <si>
     <t>['19', '47', '62']</t>
@@ -1194,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1659,7 +1662,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1865,7 +1868,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2277,7 +2280,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2689,7 +2692,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2895,7 +2898,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3307,7 +3310,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3513,7 +3516,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3591,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.57</v>
@@ -3719,7 +3722,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3925,7 +3928,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4006,7 +4009,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4337,7 +4340,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4749,7 +4752,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4955,7 +4958,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5367,7 +5370,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5573,7 +5576,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5654,7 +5657,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6603,7 +6606,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7015,7 +7018,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7427,7 +7430,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7633,7 +7636,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8045,7 +8048,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8251,7 +8254,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8457,7 +8460,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8663,7 +8666,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8869,7 +8872,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9075,7 +9078,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9281,7 +9284,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9487,7 +9490,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9693,7 +9696,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9980,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10517,7 +10520,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -12165,7 +12168,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12577,7 +12580,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13067,7 +13070,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.75</v>
@@ -13195,7 +13198,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13401,7 +13404,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13894,7 +13897,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14019,7 +14022,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14225,7 +14228,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14431,7 +14434,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14843,7 +14846,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15745,7 +15748,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -16079,7 +16082,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16157,7 +16160,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>0.67</v>
@@ -16285,7 +16288,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16491,7 +16494,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -17109,7 +17112,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17521,7 +17524,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17727,7 +17730,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18139,7 +18142,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18345,7 +18348,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18757,7 +18760,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19375,7 +19378,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19581,7 +19584,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19787,7 +19790,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20405,7 +20408,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20611,7 +20614,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21023,7 +21026,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21229,7 +21232,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21435,7 +21438,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21641,7 +21644,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21925,7 +21928,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22053,7 +22056,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22465,7 +22468,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22752,7 +22755,7 @@
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22877,7 +22880,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23083,7 +23086,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23495,7 +23498,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23701,7 +23704,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23907,7 +23910,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24113,7 +24116,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24731,7 +24734,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24937,7 +24940,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25143,7 +25146,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25349,7 +25352,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25761,7 +25764,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25967,7 +25970,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26173,7 +26176,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26379,7 +26382,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26997,7 +27000,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27203,7 +27206,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27409,7 +27412,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27490,7 +27493,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27615,7 +27618,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27821,7 +27824,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29057,7 +29060,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29263,7 +29266,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29881,7 +29884,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30087,7 +30090,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30499,7 +30502,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30705,7 +30708,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31529,7 +31532,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31941,7 +31944,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32147,7 +32150,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32353,7 +32356,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32559,7 +32562,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32640,7 +32643,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ153">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -32971,7 +32974,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33177,7 +33180,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33746,6 +33749,212 @@
       </c>
       <c r="BP158">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7326976</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45441.29166666666</v>
+      </c>
+      <c r="F159">
+        <v>9</v>
+      </c>
+      <c r="G159" t="s">
+        <v>80</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>193</v>
+      </c>
+      <c r="P159" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q159">
+        <v>2.8</v>
+      </c>
+      <c r="R159">
+        <v>2.15</v>
+      </c>
+      <c r="S159">
+        <v>3.35</v>
+      </c>
+      <c r="T159">
+        <v>1.33</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.45</v>
+      </c>
+      <c r="W159">
+        <v>1.48</v>
+      </c>
+      <c r="X159">
+        <v>5.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.11</v>
+      </c>
+      <c r="Z159">
+        <v>2.34</v>
+      </c>
+      <c r="AA159">
+        <v>3.65</v>
+      </c>
+      <c r="AB159">
+        <v>3.05</v>
+      </c>
+      <c r="AC159">
+        <v>1.04</v>
+      </c>
+      <c r="AD159">
+        <v>10</v>
+      </c>
+      <c r="AE159">
+        <v>1.23</v>
+      </c>
+      <c r="AF159">
+        <v>4.37</v>
+      </c>
+      <c r="AG159">
+        <v>1.62</v>
+      </c>
+      <c r="AH159">
+        <v>2.23</v>
+      </c>
+      <c r="AI159">
+        <v>1.55</v>
+      </c>
+      <c r="AJ159">
+        <v>2.25</v>
+      </c>
+      <c r="AK159">
+        <v>1.38</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.6</v>
+      </c>
+      <c r="AN159">
+        <v>1.2</v>
+      </c>
+      <c r="AO159">
+        <v>1.43</v>
+      </c>
+      <c r="AP159">
+        <v>1.5</v>
+      </c>
+      <c r="AQ159">
+        <v>1.25</v>
+      </c>
+      <c r="AR159">
+        <v>1.88</v>
+      </c>
+      <c r="AS159">
+        <v>1.49</v>
+      </c>
+      <c r="AT159">
+        <v>3.37</v>
+      </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
+      <c r="AV159">
+        <v>8</v>
+      </c>
+      <c r="AW159">
+        <v>9</v>
+      </c>
+      <c r="AX159">
+        <v>7</v>
+      </c>
+      <c r="AY159">
+        <v>16</v>
+      </c>
+      <c r="AZ159">
+        <v>15</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>3</v>
+      </c>
+      <c r="BC159">
+        <v>4</v>
+      </c>
+      <c r="BD159">
+        <v>1.85</v>
+      </c>
+      <c r="BE159">
+        <v>8.5</v>
+      </c>
+      <c r="BF159">
+        <v>2.15</v>
+      </c>
+      <c r="BG159">
+        <v>1.13</v>
+      </c>
+      <c r="BH159">
+        <v>5</v>
+      </c>
+      <c r="BI159">
+        <v>1.25</v>
+      </c>
+      <c r="BJ159">
+        <v>3.6</v>
+      </c>
+      <c r="BK159">
+        <v>1.42</v>
+      </c>
+      <c r="BL159">
+        <v>2.62</v>
+      </c>
+      <c r="BM159">
+        <v>1.7</v>
+      </c>
+      <c r="BN159">
+        <v>2.13</v>
+      </c>
+      <c r="BO159">
+        <v>2.08</v>
+      </c>
+      <c r="BP159">
+        <v>1.74</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -837,6 +837,9 @@
   <si>
     <t>['37', '85']</t>
   </si>
+  <si>
+    <t>['11']</t>
+  </si>
 </sst>
 </file>
 
@@ -1197,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2358,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2979,7 +2982,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4624,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
         <v>0.43</v>
@@ -7511,7 +7514,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ31">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -8126,7 +8129,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34">
         <v>1.38</v>
@@ -10395,7 +10398,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -11628,7 +11631,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ51">
         <v>2.38</v>
@@ -17605,7 +17608,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -18426,7 +18429,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84">
         <v>1.67</v>
@@ -20489,7 +20492,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -23164,7 +23167,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -25021,7 +25024,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ116">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -28111,7 +28114,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ131">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
         <v>0.9399999999999999</v>
@@ -29344,7 +29347,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137">
         <v>0.75</v>
@@ -30168,7 +30171,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ141">
         <v>2.14</v>
@@ -33955,6 +33958,212 @@
       </c>
       <c r="BP159">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7327055</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45443.29166666666</v>
+      </c>
+      <c r="F160">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>85</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>91</v>
+      </c>
+      <c r="P160" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q160">
+        <v>3.55</v>
+      </c>
+      <c r="R160">
+        <v>2.26</v>
+      </c>
+      <c r="S160">
+        <v>3.13</v>
+      </c>
+      <c r="T160">
+        <v>1.39</v>
+      </c>
+      <c r="U160">
+        <v>3.08</v>
+      </c>
+      <c r="V160">
+        <v>2.91</v>
+      </c>
+      <c r="W160">
+        <v>1.43</v>
+      </c>
+      <c r="X160">
+        <v>6.9</v>
+      </c>
+      <c r="Y160">
+        <v>1.08</v>
+      </c>
+      <c r="Z160">
+        <v>2.9</v>
+      </c>
+      <c r="AA160">
+        <v>3.3</v>
+      </c>
+      <c r="AB160">
+        <v>2.4</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>10</v>
+      </c>
+      <c r="AE160">
+        <v>1.29</v>
+      </c>
+      <c r="AF160">
+        <v>3.4</v>
+      </c>
+      <c r="AG160">
+        <v>1.87</v>
+      </c>
+      <c r="AH160">
+        <v>1.89</v>
+      </c>
+      <c r="AI160">
+        <v>1.7</v>
+      </c>
+      <c r="AJ160">
+        <v>2.08</v>
+      </c>
+      <c r="AK160">
+        <v>1.56</v>
+      </c>
+      <c r="AL160">
+        <v>1.33</v>
+      </c>
+      <c r="AM160">
+        <v>1.41</v>
+      </c>
+      <c r="AN160">
+        <v>1.25</v>
+      </c>
+      <c r="AO160">
+        <v>1.57</v>
+      </c>
+      <c r="AP160">
+        <v>1.11</v>
+      </c>
+      <c r="AQ160">
+        <v>1.75</v>
+      </c>
+      <c r="AR160">
+        <v>1.45</v>
+      </c>
+      <c r="AS160">
+        <v>1.19</v>
+      </c>
+      <c r="AT160">
+        <v>2.64</v>
+      </c>
+      <c r="AU160">
+        <v>5</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>3</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>8</v>
+      </c>
+      <c r="AZ160">
+        <v>10</v>
+      </c>
+      <c r="BA160">
+        <v>8</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>12</v>
+      </c>
+      <c r="BD160">
+        <v>1.95</v>
+      </c>
+      <c r="BE160">
+        <v>8</v>
+      </c>
+      <c r="BF160">
+        <v>2.1</v>
+      </c>
+      <c r="BG160">
+        <v>1.25</v>
+      </c>
+      <c r="BH160">
+        <v>3.75</v>
+      </c>
+      <c r="BI160">
+        <v>1.45</v>
+      </c>
+      <c r="BJ160">
+        <v>2.6</v>
+      </c>
+      <c r="BK160">
+        <v>1.8</v>
+      </c>
+      <c r="BL160">
+        <v>2</v>
+      </c>
+      <c r="BM160">
+        <v>2.2</v>
+      </c>
+      <c r="BN160">
+        <v>1.62</v>
+      </c>
+      <c r="BO160">
+        <v>2.9</v>
+      </c>
+      <c r="BP160">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,18 @@
     <t>['11', '43', '65', '90+6']</t>
   </si>
   <si>
+    <t>['38', '60']</t>
+  </si>
+  <si>
+    <t>['57', '74', '84']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -760,9 +772,6 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['20', '90+7']</t>
   </si>
   <si>
@@ -839,6 +848,15 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['10', '90+4']</t>
+  </si>
+  <si>
+    <t>['24', '45', '52']</t>
+  </si>
+  <si>
+    <t>['29', '65']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1665,7 +1683,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1871,7 +1889,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1952,7 +1970,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2283,7 +2301,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2364,7 +2382,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2567,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2695,7 +2713,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2773,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0.75</v>
@@ -2901,7 +2919,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3313,7 +3331,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3394,7 +3412,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3519,7 +3537,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3725,7 +3743,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3806,7 +3824,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3931,7 +3949,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4343,7 +4361,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4421,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4755,7 +4773,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4833,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4961,7 +4979,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5248,7 +5266,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5373,7 +5391,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5451,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5579,7 +5597,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6069,7 +6087,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6275,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0.57</v>
@@ -6609,7 +6627,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6690,7 +6708,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -7021,7 +7039,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7433,7 +7451,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7639,7 +7657,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8051,7 +8069,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8132,7 +8150,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ34">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8257,7 +8275,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8338,7 +8356,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8463,7 +8481,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8669,7 +8687,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8750,7 +8768,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8875,7 +8893,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8953,10 +8971,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ38">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9081,7 +9099,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9159,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
         <v>0.75</v>
@@ -9287,7 +9305,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9365,7 +9383,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9493,7 +9511,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9699,7 +9717,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9777,10 +9795,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10523,7 +10541,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10601,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46">
         <v>0.57</v>
@@ -10807,7 +10825,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47">
         <v>1.57</v>
@@ -11013,10 +11031,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11222,7 +11240,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ49">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11634,7 +11652,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ51">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -12046,7 +12064,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12171,7 +12189,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12249,7 +12267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12583,7 +12601,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12661,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ56">
         <v>1.5</v>
@@ -12870,7 +12888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13201,7 +13219,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13407,7 +13425,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13694,7 +13712,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -14025,7 +14043,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14106,7 +14124,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14231,7 +14249,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14312,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14437,7 +14455,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14515,10 +14533,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14721,7 +14739,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.67</v>
@@ -14849,7 +14867,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15339,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ69">
         <v>0.57</v>
@@ -15754,7 +15772,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -16085,7 +16103,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16291,7 +16309,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16497,7 +16515,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16987,7 +17005,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ77">
         <v>1.11</v>
@@ -17115,7 +17133,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17193,10 +17211,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ78">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17527,7 +17545,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17733,7 +17751,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18145,7 +18163,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18223,10 +18241,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18351,7 +18369,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18635,10 +18653,10 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18763,7 +18781,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18844,7 +18862,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19047,10 +19065,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19381,7 +19399,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19587,7 +19605,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19668,7 +19686,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -19793,7 +19811,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20411,7 +20429,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20617,7 +20635,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20698,7 +20716,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21029,7 +21047,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21107,7 +21125,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97">
         <v>0.75</v>
@@ -21235,7 +21253,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21313,7 +21331,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ98">
         <v>2.14</v>
@@ -21441,7 +21459,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21647,7 +21665,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21934,7 +21952,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -22059,7 +22077,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22343,7 +22361,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ103">
         <v>0.67</v>
@@ -22471,7 +22489,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22755,7 +22773,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ105">
         <v>1.25</v>
@@ -22883,7 +22901,7 @@
         <v>101</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="Q106">
         <v>2.4</v>
@@ -23089,7 +23107,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23376,7 +23394,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ108">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23501,7 +23519,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23707,7 +23725,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23788,7 +23806,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ110">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -23913,7 +23931,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -23994,7 +24012,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24119,7 +24137,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24200,7 +24218,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24406,7 +24424,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ113">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -24737,7 +24755,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24815,7 +24833,7 @@
         <v>2.4</v>
       </c>
       <c r="AP115">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ115">
         <v>2.38</v>
@@ -24943,7 +24961,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25149,7 +25167,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25227,7 +25245,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117">
         <v>2.14</v>
@@ -25355,7 +25373,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25639,7 +25657,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>0.57</v>
@@ -25767,7 +25785,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25845,10 +25863,10 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -25973,7 +25991,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26179,7 +26197,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26257,7 +26275,7 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ122">
         <v>1.57</v>
@@ -26385,7 +26403,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26669,7 +26687,7 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>2.38</v>
@@ -27003,7 +27021,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27084,7 +27102,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27209,7 +27227,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27290,7 +27308,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ127">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27415,7 +27433,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27621,7 +27639,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27699,7 +27717,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -27827,7 +27845,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27905,7 +27923,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ130">
         <v>1.67</v>
@@ -28320,7 +28338,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -28732,7 +28750,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -28935,10 +28953,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ135">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29063,7 +29081,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29144,7 +29162,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29269,7 +29287,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29759,7 +29777,7 @@
         <v>1.29</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ139">
         <v>1.11</v>
@@ -29887,7 +29905,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29968,7 +29986,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ140">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30093,7 +30111,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30377,7 +30395,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ142">
         <v>1.5</v>
@@ -30505,7 +30523,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30711,7 +30729,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30789,7 +30807,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AQ144">
         <v>1.5</v>
@@ -31201,10 +31219,10 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ146">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -31410,7 +31428,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -31535,7 +31553,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31819,10 +31837,10 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -31947,7 +31965,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32153,7 +32171,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32359,7 +32377,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32565,7 +32583,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32977,7 +32995,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33183,7 +33201,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33470,7 +33488,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ157">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33673,7 +33691,7 @@
         <v>2.29</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ158">
         <v>2.38</v>
@@ -34007,7 +34025,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34164,6 +34182,1242 @@
       </c>
       <c r="BP160">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7327056</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45444.08333333334</v>
+      </c>
+      <c r="F161">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>70</v>
+      </c>
+      <c r="H161" t="s">
+        <v>72</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>194</v>
+      </c>
+      <c r="P161" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q161">
+        <v>1.87</v>
+      </c>
+      <c r="R161">
+        <v>2.58</v>
+      </c>
+      <c r="S161">
+        <v>8.01</v>
+      </c>
+      <c r="T161">
+        <v>1.35</v>
+      </c>
+      <c r="U161">
+        <v>3.33</v>
+      </c>
+      <c r="V161">
+        <v>2.68</v>
+      </c>
+      <c r="W161">
+        <v>1.49</v>
+      </c>
+      <c r="X161">
+        <v>5.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.11</v>
+      </c>
+      <c r="Z161">
+        <v>1.37</v>
+      </c>
+      <c r="AA161">
+        <v>4.95</v>
+      </c>
+      <c r="AB161">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC161">
+        <v>1.02</v>
+      </c>
+      <c r="AD161">
+        <v>10</v>
+      </c>
+      <c r="AE161">
+        <v>1.22</v>
+      </c>
+      <c r="AF161">
+        <v>3.8</v>
+      </c>
+      <c r="AG161">
+        <v>1.68</v>
+      </c>
+      <c r="AH161">
+        <v>2.15</v>
+      </c>
+      <c r="AI161">
+        <v>2</v>
+      </c>
+      <c r="AJ161">
+        <v>1.73</v>
+      </c>
+      <c r="AK161">
+        <v>1.08</v>
+      </c>
+      <c r="AL161">
+        <v>1.17</v>
+      </c>
+      <c r="AM161">
+        <v>3.1</v>
+      </c>
+      <c r="AN161">
+        <v>1.57</v>
+      </c>
+      <c r="AO161">
+        <v>1</v>
+      </c>
+      <c r="AP161">
+        <v>1.75</v>
+      </c>
+      <c r="AQ161">
+        <v>0.89</v>
+      </c>
+      <c r="AR161">
+        <v>2.23</v>
+      </c>
+      <c r="AS161">
+        <v>1.28</v>
+      </c>
+      <c r="AT161">
+        <v>3.51</v>
+      </c>
+      <c r="AU161">
+        <v>5</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>7</v>
+      </c>
+      <c r="AX161">
+        <v>4</v>
+      </c>
+      <c r="AY161">
+        <v>12</v>
+      </c>
+      <c r="AZ161">
+        <v>7</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>7</v>
+      </c>
+      <c r="BD161">
+        <v>1.2</v>
+      </c>
+      <c r="BE161">
+        <v>11</v>
+      </c>
+      <c r="BF161">
+        <v>5.5</v>
+      </c>
+      <c r="BG161">
+        <v>1.18</v>
+      </c>
+      <c r="BH161">
+        <v>4.33</v>
+      </c>
+      <c r="BI161">
+        <v>1.36</v>
+      </c>
+      <c r="BJ161">
+        <v>2.95</v>
+      </c>
+      <c r="BK161">
+        <v>1.62</v>
+      </c>
+      <c r="BL161">
+        <v>2.2</v>
+      </c>
+      <c r="BM161">
+        <v>2</v>
+      </c>
+      <c r="BN161">
+        <v>1.73</v>
+      </c>
+      <c r="BO161">
+        <v>2.55</v>
+      </c>
+      <c r="BP161">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7327057</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45444.125</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>84</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>5</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+      <c r="P162" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q162">
+        <v>2.63</v>
+      </c>
+      <c r="R162">
+        <v>2.3</v>
+      </c>
+      <c r="S162">
+        <v>3.75</v>
+      </c>
+      <c r="T162">
+        <v>1.32</v>
+      </c>
+      <c r="U162">
+        <v>3.22</v>
+      </c>
+      <c r="V162">
+        <v>2.46</v>
+      </c>
+      <c r="W162">
+        <v>1.51</v>
+      </c>
+      <c r="X162">
+        <v>5.85</v>
+      </c>
+      <c r="Y162">
+        <v>1.11</v>
+      </c>
+      <c r="Z162">
+        <v>2.14</v>
+      </c>
+      <c r="AA162">
+        <v>3.7</v>
+      </c>
+      <c r="AB162">
+        <v>3.15</v>
+      </c>
+      <c r="AC162">
+        <v>1.04</v>
+      </c>
+      <c r="AD162">
+        <v>10</v>
+      </c>
+      <c r="AE162">
+        <v>1.19</v>
+      </c>
+      <c r="AF162">
+        <v>4</v>
+      </c>
+      <c r="AG162">
+        <v>1.66</v>
+      </c>
+      <c r="AH162">
+        <v>2.15</v>
+      </c>
+      <c r="AI162">
+        <v>1.57</v>
+      </c>
+      <c r="AJ162">
+        <v>2.25</v>
+      </c>
+      <c r="AK162">
+        <v>1.33</v>
+      </c>
+      <c r="AL162">
+        <v>1.28</v>
+      </c>
+      <c r="AM162">
+        <v>1.76</v>
+      </c>
+      <c r="AN162">
+        <v>2.43</v>
+      </c>
+      <c r="AO162">
+        <v>1.38</v>
+      </c>
+      <c r="AP162">
+        <v>2.5</v>
+      </c>
+      <c r="AQ162">
+        <v>1.22</v>
+      </c>
+      <c r="AR162">
+        <v>1.26</v>
+      </c>
+      <c r="AS162">
+        <v>1.55</v>
+      </c>
+      <c r="AT162">
+        <v>2.81</v>
+      </c>
+      <c r="AU162">
+        <v>8</v>
+      </c>
+      <c r="AV162">
+        <v>7</v>
+      </c>
+      <c r="AW162">
+        <v>6</v>
+      </c>
+      <c r="AX162">
+        <v>9</v>
+      </c>
+      <c r="AY162">
+        <v>14</v>
+      </c>
+      <c r="AZ162">
+        <v>16</v>
+      </c>
+      <c r="BA162">
+        <v>4</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>8</v>
+      </c>
+      <c r="BD162">
+        <v>1.67</v>
+      </c>
+      <c r="BE162">
+        <v>8.5</v>
+      </c>
+      <c r="BF162">
+        <v>2.5</v>
+      </c>
+      <c r="BG162">
+        <v>1.14</v>
+      </c>
+      <c r="BH162">
+        <v>5.6</v>
+      </c>
+      <c r="BI162">
+        <v>1.3</v>
+      </c>
+      <c r="BJ162">
+        <v>3.3</v>
+      </c>
+      <c r="BK162">
+        <v>1.52</v>
+      </c>
+      <c r="BL162">
+        <v>2.45</v>
+      </c>
+      <c r="BM162">
+        <v>1.9</v>
+      </c>
+      <c r="BN162">
+        <v>1.9</v>
+      </c>
+      <c r="BO162">
+        <v>2.3</v>
+      </c>
+      <c r="BP162">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7327058</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45444.125</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>75</v>
+      </c>
+      <c r="H163" t="s">
+        <v>88</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>196</v>
+      </c>
+      <c r="P163" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q163">
+        <v>2.34</v>
+      </c>
+      <c r="R163">
+        <v>2.08</v>
+      </c>
+      <c r="S163">
+        <v>5.4</v>
+      </c>
+      <c r="T163">
+        <v>1.48</v>
+      </c>
+      <c r="U163">
+        <v>2.73</v>
+      </c>
+      <c r="V163">
+        <v>3.37</v>
+      </c>
+      <c r="W163">
+        <v>1.34</v>
+      </c>
+      <c r="X163">
+        <v>8.4</v>
+      </c>
+      <c r="Y163">
+        <v>1.05</v>
+      </c>
+      <c r="Z163">
+        <v>1.71</v>
+      </c>
+      <c r="AA163">
+        <v>3.7</v>
+      </c>
+      <c r="AB163">
+        <v>5</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>8</v>
+      </c>
+      <c r="AE163">
+        <v>1.36</v>
+      </c>
+      <c r="AF163">
+        <v>2.88</v>
+      </c>
+      <c r="AG163">
+        <v>2.15</v>
+      </c>
+      <c r="AH163">
+        <v>1.66</v>
+      </c>
+      <c r="AI163">
+        <v>2.04</v>
+      </c>
+      <c r="AJ163">
+        <v>1.74</v>
+      </c>
+      <c r="AK163">
+        <v>1.2</v>
+      </c>
+      <c r="AL163">
+        <v>1.22</v>
+      </c>
+      <c r="AM163">
+        <v>2</v>
+      </c>
+      <c r="AN163">
+        <v>2</v>
+      </c>
+      <c r="AO163">
+        <v>1</v>
+      </c>
+      <c r="AP163">
+        <v>1.78</v>
+      </c>
+      <c r="AQ163">
+        <v>1.25</v>
+      </c>
+      <c r="AR163">
+        <v>1.46</v>
+      </c>
+      <c r="AS163">
+        <v>1.39</v>
+      </c>
+      <c r="AT163">
+        <v>2.85</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
+        <v>4</v>
+      </c>
+      <c r="AX163">
+        <v>2</v>
+      </c>
+      <c r="AY163">
+        <v>9</v>
+      </c>
+      <c r="AZ163">
+        <v>7</v>
+      </c>
+      <c r="BA163">
+        <v>6</v>
+      </c>
+      <c r="BB163">
+        <v>2</v>
+      </c>
+      <c r="BC163">
+        <v>8</v>
+      </c>
+      <c r="BD163">
+        <v>1.53</v>
+      </c>
+      <c r="BE163">
+        <v>8.5</v>
+      </c>
+      <c r="BF163">
+        <v>3</v>
+      </c>
+      <c r="BG163">
+        <v>1.25</v>
+      </c>
+      <c r="BH163">
+        <v>3.75</v>
+      </c>
+      <c r="BI163">
+        <v>1.45</v>
+      </c>
+      <c r="BJ163">
+        <v>2.6</v>
+      </c>
+      <c r="BK163">
+        <v>1.92</v>
+      </c>
+      <c r="BL163">
+        <v>1.88</v>
+      </c>
+      <c r="BM163">
+        <v>2.2</v>
+      </c>
+      <c r="BN163">
+        <v>1.62</v>
+      </c>
+      <c r="BO163">
+        <v>2.9</v>
+      </c>
+      <c r="BP163">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7327059</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45444.125</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>76</v>
+      </c>
+      <c r="H164" t="s">
+        <v>86</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>118</v>
+      </c>
+      <c r="P164" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q164">
+        <v>3.41</v>
+      </c>
+      <c r="R164">
+        <v>2.15</v>
+      </c>
+      <c r="S164">
+        <v>3.47</v>
+      </c>
+      <c r="T164">
+        <v>1.45</v>
+      </c>
+      <c r="U164">
+        <v>2.82</v>
+      </c>
+      <c r="V164">
+        <v>3.21</v>
+      </c>
+      <c r="W164">
+        <v>1.37</v>
+      </c>
+      <c r="X164">
+        <v>7.7</v>
+      </c>
+      <c r="Y164">
+        <v>1.06</v>
+      </c>
+      <c r="Z164">
+        <v>2.67</v>
+      </c>
+      <c r="AA164">
+        <v>3.24</v>
+      </c>
+      <c r="AB164">
+        <v>2.69</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>8</v>
+      </c>
+      <c r="AE164">
+        <v>1.31</v>
+      </c>
+      <c r="AF164">
+        <v>3.04</v>
+      </c>
+      <c r="AG164">
+        <v>2.05</v>
+      </c>
+      <c r="AH164">
+        <v>1.72</v>
+      </c>
+      <c r="AI164">
+        <v>1.8</v>
+      </c>
+      <c r="AJ164">
+        <v>1.95</v>
+      </c>
+      <c r="AK164">
+        <v>1.42</v>
+      </c>
+      <c r="AL164">
+        <v>1.3</v>
+      </c>
+      <c r="AM164">
+        <v>1.48</v>
+      </c>
+      <c r="AN164">
+        <v>1.14</v>
+      </c>
+      <c r="AO164">
+        <v>1.33</v>
+      </c>
+      <c r="AP164">
+        <v>1</v>
+      </c>
+      <c r="AQ164">
+        <v>1.5</v>
+      </c>
+      <c r="AR164">
+        <v>1.38</v>
+      </c>
+      <c r="AS164">
+        <v>1.24</v>
+      </c>
+      <c r="AT164">
+        <v>2.62</v>
+      </c>
+      <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>8</v>
+      </c>
+      <c r="AX164">
+        <v>1</v>
+      </c>
+      <c r="AY164">
+        <v>12</v>
+      </c>
+      <c r="AZ164">
+        <v>4</v>
+      </c>
+      <c r="BA164">
+        <v>9</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>9</v>
+      </c>
+      <c r="BD164">
+        <v>1.73</v>
+      </c>
+      <c r="BE164">
+        <v>8</v>
+      </c>
+      <c r="BF164">
+        <v>2.38</v>
+      </c>
+      <c r="BG164">
+        <v>1.22</v>
+      </c>
+      <c r="BH164">
+        <v>4.2</v>
+      </c>
+      <c r="BI164">
+        <v>1.38</v>
+      </c>
+      <c r="BJ164">
+        <v>2.9</v>
+      </c>
+      <c r="BK164">
+        <v>1.63</v>
+      </c>
+      <c r="BL164">
+        <v>2.2</v>
+      </c>
+      <c r="BM164">
+        <v>2</v>
+      </c>
+      <c r="BN164">
+        <v>1.73</v>
+      </c>
+      <c r="BO164">
+        <v>2.55</v>
+      </c>
+      <c r="BP164">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7327060</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45444.16666666666</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>87</v>
+      </c>
+      <c r="H165" t="s">
+        <v>82</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>197</v>
+      </c>
+      <c r="P165" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q165">
+        <v>3.77</v>
+      </c>
+      <c r="R165">
+        <v>2.17</v>
+      </c>
+      <c r="S165">
+        <v>3.14</v>
+      </c>
+      <c r="T165">
+        <v>1.44</v>
+      </c>
+      <c r="U165">
+        <v>2.85</v>
+      </c>
+      <c r="V165">
+        <v>3.19</v>
+      </c>
+      <c r="W165">
+        <v>1.37</v>
+      </c>
+      <c r="X165">
+        <v>7.7</v>
+      </c>
+      <c r="Y165">
+        <v>1.07</v>
+      </c>
+      <c r="Z165">
+        <v>3.05</v>
+      </c>
+      <c r="AA165">
+        <v>3.36</v>
+      </c>
+      <c r="AB165">
+        <v>2.33</v>
+      </c>
+      <c r="AC165">
+        <v>1.04</v>
+      </c>
+      <c r="AD165">
+        <v>8.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.33</v>
+      </c>
+      <c r="AF165">
+        <v>3.4</v>
+      </c>
+      <c r="AG165">
+        <v>2</v>
+      </c>
+      <c r="AH165">
+        <v>1.75</v>
+      </c>
+      <c r="AI165">
+        <v>1.8</v>
+      </c>
+      <c r="AJ165">
+        <v>1.96</v>
+      </c>
+      <c r="AK165">
+        <v>1.57</v>
+      </c>
+      <c r="AL165">
+        <v>1.33</v>
+      </c>
+      <c r="AM165">
+        <v>1.4</v>
+      </c>
+      <c r="AN165">
+        <v>2</v>
+      </c>
+      <c r="AO165">
+        <v>2.38</v>
+      </c>
+      <c r="AP165">
+        <v>1.89</v>
+      </c>
+      <c r="AQ165">
+        <v>2.22</v>
+      </c>
+      <c r="AR165">
+        <v>1.64</v>
+      </c>
+      <c r="AS165">
+        <v>1.43</v>
+      </c>
+      <c r="AT165">
+        <v>3.07</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>5</v>
+      </c>
+      <c r="AW165">
+        <v>7</v>
+      </c>
+      <c r="AX165">
+        <v>5</v>
+      </c>
+      <c r="AY165">
+        <v>14</v>
+      </c>
+      <c r="AZ165">
+        <v>10</v>
+      </c>
+      <c r="BA165">
+        <v>5</v>
+      </c>
+      <c r="BB165">
+        <v>8</v>
+      </c>
+      <c r="BC165">
+        <v>13</v>
+      </c>
+      <c r="BD165">
+        <v>1.95</v>
+      </c>
+      <c r="BE165">
+        <v>8</v>
+      </c>
+      <c r="BF165">
+        <v>2.1</v>
+      </c>
+      <c r="BG165">
+        <v>1.25</v>
+      </c>
+      <c r="BH165">
+        <v>3.75</v>
+      </c>
+      <c r="BI165">
+        <v>1.44</v>
+      </c>
+      <c r="BJ165">
+        <v>2.65</v>
+      </c>
+      <c r="BK165">
+        <v>1.72</v>
+      </c>
+      <c r="BL165">
+        <v>2.05</v>
+      </c>
+      <c r="BM165">
+        <v>2</v>
+      </c>
+      <c r="BN165">
+        <v>1.73</v>
+      </c>
+      <c r="BO165">
+        <v>2.8</v>
+      </c>
+      <c r="BP165">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7327061</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45444.29166666666</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>83</v>
+      </c>
+      <c r="H166" t="s">
+        <v>77</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>187</v>
+      </c>
+      <c r="P166" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q166">
+        <v>4.25</v>
+      </c>
+      <c r="R166">
+        <v>2.07</v>
+      </c>
+      <c r="S166">
+        <v>2.67</v>
+      </c>
+      <c r="T166">
+        <v>1.44</v>
+      </c>
+      <c r="U166">
+        <v>2.67</v>
+      </c>
+      <c r="V166">
+        <v>3.05</v>
+      </c>
+      <c r="W166">
+        <v>1.35</v>
+      </c>
+      <c r="X166">
+        <v>8</v>
+      </c>
+      <c r="Y166">
+        <v>1.06</v>
+      </c>
+      <c r="Z166">
+        <v>3.75</v>
+      </c>
+      <c r="AA166">
+        <v>3.5</v>
+      </c>
+      <c r="AB166">
+        <v>1.99</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>8.1</v>
+      </c>
+      <c r="AE166">
+        <v>1.33</v>
+      </c>
+      <c r="AF166">
+        <v>2.93</v>
+      </c>
+      <c r="AG166">
+        <v>2.1</v>
+      </c>
+      <c r="AH166">
+        <v>1.7</v>
+      </c>
+      <c r="AI166">
+        <v>1.87</v>
+      </c>
+      <c r="AJ166">
+        <v>1.87</v>
+      </c>
+      <c r="AK166">
+        <v>1.75</v>
+      </c>
+      <c r="AL166">
+        <v>1.32</v>
+      </c>
+      <c r="AM166">
+        <v>1.3</v>
+      </c>
+      <c r="AN166">
+        <v>0</v>
+      </c>
+      <c r="AO166">
+        <v>1.38</v>
+      </c>
+      <c r="AP166">
+        <v>0.13</v>
+      </c>
+      <c r="AQ166">
+        <v>1.33</v>
+      </c>
+      <c r="AR166">
+        <v>1.37</v>
+      </c>
+      <c r="AS166">
+        <v>1.33</v>
+      </c>
+      <c r="AT166">
+        <v>2.7</v>
+      </c>
+      <c r="AU166">
+        <v>8</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>4</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>12</v>
+      </c>
+      <c r="AZ166">
+        <v>7</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>10</v>
+      </c>
+      <c r="BD166">
+        <v>2.3</v>
+      </c>
+      <c r="BE166">
+        <v>8</v>
+      </c>
+      <c r="BF166">
+        <v>1.8</v>
+      </c>
+      <c r="BG166">
+        <v>1.16</v>
+      </c>
+      <c r="BH166">
+        <v>5.2</v>
+      </c>
+      <c r="BI166">
+        <v>1.33</v>
+      </c>
+      <c r="BJ166">
+        <v>3.1</v>
+      </c>
+      <c r="BK166">
+        <v>1.57</v>
+      </c>
+      <c r="BL166">
+        <v>2.3</v>
+      </c>
+      <c r="BM166">
+        <v>2</v>
+      </c>
+      <c r="BN166">
+        <v>1.8</v>
+      </c>
+      <c r="BO166">
+        <v>2.45</v>
+      </c>
+      <c r="BP166">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['10', '32', '43', '59', '78']</t>
+  </si>
+  <si>
+    <t>['5', '18']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -857,6 +863,12 @@
   </si>
   <si>
     <t>['29', '65']</t>
+  </si>
+  <si>
+    <t>['20', '46', '90+4']</t>
+  </si>
+  <si>
+    <t>['26', '39']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1695,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1889,7 +1901,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2176,7 +2188,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ5">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2301,7 +2313,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2713,7 +2725,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2919,7 +2931,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3203,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.11</v>
@@ -3331,7 +3343,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3409,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>1.22</v>
@@ -3537,7 +3549,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3618,7 +3630,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3743,7 +3755,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3821,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>0.89</v>
@@ -3949,7 +3961,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4361,7 +4373,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4648,7 +4660,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4773,7 +4785,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4979,7 +4991,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5391,7 +5403,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5597,7 +5609,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5884,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6627,7 +6639,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6911,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>1.11</v>
@@ -7039,7 +7051,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7451,7 +7463,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7657,7 +7669,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8069,7 +8081,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8275,7 +8287,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8481,7 +8493,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8559,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8687,7 +8699,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8765,7 +8777,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8893,7 +8905,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9099,7 +9111,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9305,7 +9317,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9511,7 +9523,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9589,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.11</v>
@@ -9717,7 +9729,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10210,7 +10222,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10413,7 +10425,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10541,7 +10553,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10828,7 +10840,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -12189,7 +12201,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12601,7 +12613,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12885,7 +12897,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -13219,7 +13231,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13300,7 +13312,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ59">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13425,7 +13437,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13915,7 +13927,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>1.25</v>
@@ -14043,7 +14055,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14249,7 +14261,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14455,7 +14467,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14867,7 +14879,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14945,7 +14957,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
         <v>2.38</v>
@@ -15154,7 +15166,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15975,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16103,7 +16115,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16309,7 +16321,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16390,7 +16402,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16515,7 +16527,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16596,7 +16608,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -17133,7 +17145,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17545,7 +17557,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17623,7 +17635,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>1.75</v>
@@ -17751,7 +17763,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18163,7 +18175,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18369,7 +18381,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18781,7 +18793,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19271,7 +19283,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19399,7 +19411,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19605,7 +19617,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19811,7 +19823,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20429,7 +20441,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20635,7 +20647,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20919,10 +20931,10 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21047,7 +21059,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21253,7 +21265,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21334,7 +21346,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ98">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21459,7 +21471,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21537,7 +21549,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
         <v>0.57</v>
@@ -21665,7 +21677,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22077,7 +22089,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22489,7 +22501,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22982,7 +22994,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ106">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23107,7 +23119,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23519,7 +23531,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23597,7 +23609,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23725,7 +23737,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23931,7 +23943,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24137,7 +24149,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24215,7 +24227,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
         <v>0.89</v>
@@ -24755,7 +24767,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24961,7 +24973,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25167,7 +25179,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25248,7 +25260,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ117">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -25373,7 +25385,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25451,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
         <v>1.67</v>
@@ -25785,7 +25797,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25991,7 +26003,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26197,7 +26209,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26278,7 +26290,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ122">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26403,7 +26415,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26893,10 +26905,10 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27021,7 +27033,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27227,7 +27239,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27433,7 +27445,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27639,7 +27651,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27845,7 +27857,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28541,7 +28553,7 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
         <v>0.67</v>
@@ -28747,7 +28759,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -29081,7 +29093,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29287,7 +29299,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29574,7 +29586,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ138">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -29905,7 +29917,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30111,7 +30123,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30192,7 +30204,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ141">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30523,7 +30535,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30729,7 +30741,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31553,7 +31565,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31631,10 +31643,10 @@
         <v>0.5</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -31965,7 +31977,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32171,7 +32183,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32377,7 +32389,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32458,7 +32470,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32583,7 +32595,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32661,7 +32673,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ153">
         <v>1.25</v>
@@ -32995,7 +33007,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33201,7 +33213,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34025,7 +34037,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34437,7 +34449,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34643,7 +34655,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34849,7 +34861,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35418,6 +35430,624 @@
       </c>
       <c r="BP166">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7327062</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45445.04513888889</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>79</v>
+      </c>
+      <c r="H167" t="s">
+        <v>89</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>4</v>
+      </c>
+      <c r="L167">
+        <v>5</v>
+      </c>
+      <c r="M167">
+        <v>3</v>
+      </c>
+      <c r="N167">
+        <v>8</v>
+      </c>
+      <c r="O167" t="s">
+        <v>198</v>
+      </c>
+      <c r="P167" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q167">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>2.2</v>
+      </c>
+      <c r="S167">
+        <v>3.5</v>
+      </c>
+      <c r="T167">
+        <v>1.38</v>
+      </c>
+      <c r="U167">
+        <v>2.91</v>
+      </c>
+      <c r="V167">
+        <v>2.78</v>
+      </c>
+      <c r="W167">
+        <v>1.41</v>
+      </c>
+      <c r="X167">
+        <v>6.95</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>2.26</v>
+      </c>
+      <c r="AA167">
+        <v>3.27</v>
+      </c>
+      <c r="AB167">
+        <v>2.84</v>
+      </c>
+      <c r="AC167">
+        <v>1.01</v>
+      </c>
+      <c r="AD167">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE167">
+        <v>1.26</v>
+      </c>
+      <c r="AF167">
+        <v>3.34</v>
+      </c>
+      <c r="AG167">
+        <v>1.89</v>
+      </c>
+      <c r="AH167">
+        <v>1.82</v>
+      </c>
+      <c r="AI167">
+        <v>1.72</v>
+      </c>
+      <c r="AJ167">
+        <v>2.05</v>
+      </c>
+      <c r="AK167">
+        <v>1.4</v>
+      </c>
+      <c r="AL167">
+        <v>1.3</v>
+      </c>
+      <c r="AM167">
+        <v>1.57</v>
+      </c>
+      <c r="AN167">
+        <v>1.13</v>
+      </c>
+      <c r="AO167">
+        <v>0.43</v>
+      </c>
+      <c r="AP167">
+        <v>1.33</v>
+      </c>
+      <c r="AQ167">
+        <v>0.38</v>
+      </c>
+      <c r="AR167">
+        <v>1.53</v>
+      </c>
+      <c r="AS167">
+        <v>1.23</v>
+      </c>
+      <c r="AT167">
+        <v>2.76</v>
+      </c>
+      <c r="AU167">
+        <v>8</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>4</v>
+      </c>
+      <c r="AX167">
+        <v>3</v>
+      </c>
+      <c r="AY167">
+        <v>12</v>
+      </c>
+      <c r="AZ167">
+        <v>8</v>
+      </c>
+      <c r="BA167">
+        <v>1</v>
+      </c>
+      <c r="BB167">
+        <v>2</v>
+      </c>
+      <c r="BC167">
+        <v>3</v>
+      </c>
+      <c r="BD167">
+        <v>1.95</v>
+      </c>
+      <c r="BE167">
+        <v>8</v>
+      </c>
+      <c r="BF167">
+        <v>2.05</v>
+      </c>
+      <c r="BG167">
+        <v>1.3</v>
+      </c>
+      <c r="BH167">
+        <v>3.35</v>
+      </c>
+      <c r="BI167">
+        <v>1.53</v>
+      </c>
+      <c r="BJ167">
+        <v>2.4</v>
+      </c>
+      <c r="BK167">
+        <v>1.88</v>
+      </c>
+      <c r="BL167">
+        <v>1.92</v>
+      </c>
+      <c r="BM167">
+        <v>2.35</v>
+      </c>
+      <c r="BN167">
+        <v>1.53</v>
+      </c>
+      <c r="BO167">
+        <v>3.15</v>
+      </c>
+      <c r="BP167">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7327063</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45445.20833333334</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>81</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>199</v>
+      </c>
+      <c r="P168" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q168">
+        <v>2.54</v>
+      </c>
+      <c r="R168">
+        <v>2.17</v>
+      </c>
+      <c r="S168">
+        <v>4.2</v>
+      </c>
+      <c r="T168">
+        <v>1.38</v>
+      </c>
+      <c r="U168">
+        <v>2.91</v>
+      </c>
+      <c r="V168">
+        <v>2.78</v>
+      </c>
+      <c r="W168">
+        <v>1.41</v>
+      </c>
+      <c r="X168">
+        <v>6.9</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>2.02</v>
+      </c>
+      <c r="AA168">
+        <v>3.19</v>
+      </c>
+      <c r="AB168">
+        <v>3.42</v>
+      </c>
+      <c r="AC168">
+        <v>1.01</v>
+      </c>
+      <c r="AD168">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE168">
+        <v>1.26</v>
+      </c>
+      <c r="AF168">
+        <v>3.34</v>
+      </c>
+      <c r="AG168">
+        <v>2.02</v>
+      </c>
+      <c r="AH168">
+        <v>1.86</v>
+      </c>
+      <c r="AI168">
+        <v>1.75</v>
+      </c>
+      <c r="AJ168">
+        <v>2</v>
+      </c>
+      <c r="AK168">
+        <v>1.25</v>
+      </c>
+      <c r="AL168">
+        <v>1.29</v>
+      </c>
+      <c r="AM168">
+        <v>1.83</v>
+      </c>
+      <c r="AN168">
+        <v>1.38</v>
+      </c>
+      <c r="AO168">
+        <v>2.14</v>
+      </c>
+      <c r="AP168">
+        <v>1.56</v>
+      </c>
+      <c r="AQ168">
+        <v>1.88</v>
+      </c>
+      <c r="AR168">
+        <v>1.71</v>
+      </c>
+      <c r="AS168">
+        <v>1.35</v>
+      </c>
+      <c r="AT168">
+        <v>3.06</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>8</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>10</v>
+      </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>18</v>
+      </c>
+      <c r="BA168">
+        <v>9</v>
+      </c>
+      <c r="BB168">
+        <v>7</v>
+      </c>
+      <c r="BC168">
+        <v>16</v>
+      </c>
+      <c r="BD168">
+        <v>1.73</v>
+      </c>
+      <c r="BE168">
+        <v>8</v>
+      </c>
+      <c r="BF168">
+        <v>2.5</v>
+      </c>
+      <c r="BG168">
+        <v>1.22</v>
+      </c>
+      <c r="BH168">
+        <v>3.65</v>
+      </c>
+      <c r="BI168">
+        <v>1.43</v>
+      </c>
+      <c r="BJ168">
+        <v>2.62</v>
+      </c>
+      <c r="BK168">
+        <v>1.82</v>
+      </c>
+      <c r="BL168">
+        <v>1.98</v>
+      </c>
+      <c r="BM168">
+        <v>2.21</v>
+      </c>
+      <c r="BN168">
+        <v>1.59</v>
+      </c>
+      <c r="BO168">
+        <v>2.93</v>
+      </c>
+      <c r="BP168">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7327064</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45445.29166666666</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>91</v>
+      </c>
+      <c r="P169" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q169">
+        <v>2.71</v>
+      </c>
+      <c r="R169">
+        <v>1.94</v>
+      </c>
+      <c r="S169">
+        <v>4.8</v>
+      </c>
+      <c r="T169">
+        <v>1.54</v>
+      </c>
+      <c r="U169">
+        <v>2.39</v>
+      </c>
+      <c r="V169">
+        <v>3.48</v>
+      </c>
+      <c r="W169">
+        <v>1.28</v>
+      </c>
+      <c r="X169">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y169">
+        <v>1.04</v>
+      </c>
+      <c r="Z169">
+        <v>2.06</v>
+      </c>
+      <c r="AA169">
+        <v>3.01</v>
+      </c>
+      <c r="AB169">
+        <v>3.53</v>
+      </c>
+      <c r="AC169">
+        <v>1.06</v>
+      </c>
+      <c r="AD169">
+        <v>6.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.57</v>
+      </c>
+      <c r="AF169">
+        <v>2.4</v>
+      </c>
+      <c r="AG169">
+        <v>2.5</v>
+      </c>
+      <c r="AH169">
+        <v>1.47</v>
+      </c>
+      <c r="AI169">
+        <v>2.13</v>
+      </c>
+      <c r="AJ169">
+        <v>1.69</v>
+      </c>
+      <c r="AK169">
+        <v>1.25</v>
+      </c>
+      <c r="AL169">
+        <v>1.35</v>
+      </c>
+      <c r="AM169">
+        <v>1.79</v>
+      </c>
+      <c r="AN169">
+        <v>1.5</v>
+      </c>
+      <c r="AO169">
+        <v>1.57</v>
+      </c>
+      <c r="AP169">
+        <v>1.33</v>
+      </c>
+      <c r="AQ169">
+        <v>1.75</v>
+      </c>
+      <c r="AR169">
+        <v>1.41</v>
+      </c>
+      <c r="AS169">
+        <v>1.24</v>
+      </c>
+      <c r="AT169">
+        <v>2.65</v>
+      </c>
+      <c r="AU169">
+        <v>5</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>17</v>
+      </c>
+      <c r="AX169">
+        <v>5</v>
+      </c>
+      <c r="AY169">
+        <v>22</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>7</v>
+      </c>
+      <c r="BB169">
+        <v>3</v>
+      </c>
+      <c r="BC169">
+        <v>10</v>
+      </c>
+      <c r="BD169">
+        <v>1.62</v>
+      </c>
+      <c r="BE169">
+        <v>8</v>
+      </c>
+      <c r="BF169">
+        <v>2.62</v>
+      </c>
+      <c r="BG169">
+        <v>1.23</v>
+      </c>
+      <c r="BH169">
+        <v>3.9</v>
+      </c>
+      <c r="BI169">
+        <v>1.4</v>
+      </c>
+      <c r="BJ169">
+        <v>2.75</v>
+      </c>
+      <c r="BK169">
+        <v>1.73</v>
+      </c>
+      <c r="BL169">
+        <v>2</v>
+      </c>
+      <c r="BM169">
+        <v>2.1</v>
+      </c>
+      <c r="BN169">
+        <v>1.7</v>
+      </c>
+      <c r="BO169">
+        <v>2.7</v>
+      </c>
+      <c r="BP169">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -35652,7 +35652,7 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45445.20833333334</v>
+        <v>45445.21736111111</v>
       </c>
       <c r="F168">
         <v>17</v>
@@ -35987,19 +35987,19 @@
         <v>5</v>
       </c>
       <c r="AV169">
+        <v>3</v>
+      </c>
+      <c r="AW169">
+        <v>9</v>
+      </c>
+      <c r="AX169">
         <v>4</v>
       </c>
-      <c r="AW169">
-        <v>17</v>
-      </c>
-      <c r="AX169">
-        <v>5</v>
-      </c>
       <c r="AY169">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AZ169">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA169">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,18 @@
     <t>['5', '18']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['2', '47', '62', '82']</t>
+  </si>
+  <si>
+    <t>['42', '49']</t>
+  </si>
+  <si>
+    <t>['18', '20']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -769,9 +781,6 @@
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['27', '54']</t>
   </si>
   <si>
@@ -869,6 +878,12 @@
   </si>
   <si>
     <t>['26', '39']</t>
+  </si>
+  <si>
+    <t>['43', '57', '61']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1695,7 +1710,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1901,7 +1916,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2188,7 +2203,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ5">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2313,7 +2328,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2725,7 +2740,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2931,7 +2946,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3009,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -3343,7 +3358,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3549,7 +3564,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3627,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3755,7 +3770,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3961,7 +3976,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4248,7 +4263,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ15">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4373,7 +4388,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4451,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4660,7 +4675,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4785,7 +4800,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4991,7 +5006,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5403,7 +5418,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5484,7 +5499,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5609,7 +5624,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6305,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25">
         <v>0.57</v>
@@ -6639,7 +6654,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7051,7 +7066,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7129,10 +7144,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7338,7 +7353,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7463,7 +7478,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7669,7 +7684,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7750,7 +7765,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8081,7 +8096,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8287,7 +8302,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8493,7 +8508,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8699,7 +8714,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8905,7 +8920,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8983,7 +8998,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ38">
         <v>1.22</v>
@@ -9111,7 +9126,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9317,7 +9332,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9398,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9523,7 +9538,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9729,7 +9744,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9807,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10222,7 +10237,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10553,7 +10568,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11455,7 +11470,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -12201,7 +12216,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12282,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12613,7 +12628,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13103,7 +13118,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>0.75</v>
@@ -13231,7 +13246,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13437,7 +13452,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13518,7 +13533,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -14055,7 +14070,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14261,7 +14276,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14467,7 +14482,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14545,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ65">
         <v>0.89</v>
@@ -14751,7 +14766,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
         <v>0.67</v>
@@ -14879,7 +14894,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14960,7 +14975,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15781,7 +15796,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -15990,7 +16005,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16115,7 +16130,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16193,7 +16208,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>0.67</v>
@@ -16321,7 +16336,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16402,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16527,7 +16542,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -17145,7 +17160,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17429,7 +17444,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
         <v>0.75</v>
@@ -17557,7 +17572,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17763,7 +17778,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18175,7 +18190,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18253,7 +18268,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18381,7 +18396,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18793,7 +18808,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19286,7 +19301,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19411,7 +19426,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19492,7 +19507,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19617,7 +19632,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19823,7 +19838,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20110,7 +20125,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20441,7 +20456,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20647,7 +20662,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20725,7 +20740,7 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ95">
         <v>1.22</v>
@@ -21059,7 +21074,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21137,7 +21152,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97">
         <v>0.75</v>
@@ -21265,7 +21280,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21471,7 +21486,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21677,7 +21692,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21961,7 +21976,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101">
         <v>0.89</v>
@@ -22089,7 +22104,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22501,7 +22516,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22991,10 +23006,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ106">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23119,7 +23134,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23200,7 +23215,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23531,7 +23546,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23612,7 +23627,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23737,7 +23752,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23943,7 +23958,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24149,7 +24164,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24767,7 +24782,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24845,10 +24860,10 @@
         <v>2.4</v>
       </c>
       <c r="AP115">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -24973,7 +24988,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25179,7 +25194,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25257,7 +25272,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ117">
         <v>1.88</v>
@@ -25385,7 +25400,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25797,7 +25812,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26003,7 +26018,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26084,7 +26099,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
         <v>1.28</v>
@@ -26209,7 +26224,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26287,7 +26302,7 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ122">
         <v>1.75</v>
@@ -26415,7 +26430,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26702,7 +26717,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -26908,7 +26923,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27033,7 +27048,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27239,7 +27254,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27317,7 +27332,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ127">
         <v>2.22</v>
@@ -27445,7 +27460,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27651,7 +27666,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27732,7 +27747,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27857,7 +27872,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27935,7 +27950,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
         <v>1.67</v>
@@ -29093,7 +29108,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29299,7 +29314,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29917,7 +29932,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30123,7 +30138,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30410,7 +30425,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30535,7 +30550,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30616,7 +30631,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -30741,7 +30756,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30819,7 +30834,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ144">
         <v>1.5</v>
@@ -31565,7 +31580,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31646,7 +31661,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -31977,7 +31992,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32183,7 +32198,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32389,7 +32404,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32595,7 +32610,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32882,7 +32897,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33007,7 +33022,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33085,7 +33100,7 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
         <v>1.5</v>
@@ -33213,7 +33228,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33706,7 +33721,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ158">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -33909,7 +33924,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159">
         <v>1.25</v>
@@ -34037,7 +34052,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34321,7 +34336,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ161">
         <v>0.89</v>
@@ -34449,7 +34464,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34655,7 +34670,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34861,7 +34876,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35351,7 +35366,7 @@
         <v>1.38</v>
       </c>
       <c r="AP166">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ166">
         <v>1.33</v>
@@ -35479,7 +35494,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35560,7 +35575,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35891,7 +35906,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36047,6 +36062,830 @@
         <v>2.7</v>
       </c>
       <c r="BP169">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7327065</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45458.16666666666</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H170" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>3</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>200</v>
+      </c>
+      <c r="P170" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q170">
+        <v>3.1</v>
+      </c>
+      <c r="R170">
+        <v>2.38</v>
+      </c>
+      <c r="S170">
+        <v>3</v>
+      </c>
+      <c r="T170">
+        <v>1.3</v>
+      </c>
+      <c r="U170">
+        <v>3.4</v>
+      </c>
+      <c r="V170">
+        <v>2.38</v>
+      </c>
+      <c r="W170">
+        <v>1.53</v>
+      </c>
+      <c r="X170">
+        <v>6</v>
+      </c>
+      <c r="Y170">
+        <v>1.13</v>
+      </c>
+      <c r="Z170">
+        <v>2.61</v>
+      </c>
+      <c r="AA170">
+        <v>3.4</v>
+      </c>
+      <c r="AB170">
+        <v>2.45</v>
+      </c>
+      <c r="AC170">
+        <v>1.04</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.18</v>
+      </c>
+      <c r="AF170">
+        <v>4.5</v>
+      </c>
+      <c r="AG170">
+        <v>1.55</v>
+      </c>
+      <c r="AH170">
+        <v>2.29</v>
+      </c>
+      <c r="AI170">
+        <v>1.5</v>
+      </c>
+      <c r="AJ170">
+        <v>2.5</v>
+      </c>
+      <c r="AK170">
+        <v>1.53</v>
+      </c>
+      <c r="AL170">
+        <v>1.22</v>
+      </c>
+      <c r="AM170">
+        <v>1.47</v>
+      </c>
+      <c r="AN170">
+        <v>1.5</v>
+      </c>
+      <c r="AO170">
+        <v>2.38</v>
+      </c>
+      <c r="AP170">
+        <v>1.29</v>
+      </c>
+      <c r="AQ170">
+        <v>2.44</v>
+      </c>
+      <c r="AR170">
+        <v>1.86</v>
+      </c>
+      <c r="AS170">
+        <v>1.35</v>
+      </c>
+      <c r="AT170">
+        <v>3.21</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>3</v>
+      </c>
+      <c r="AX170">
+        <v>7</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>13</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>7</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>2.1</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>1.91</v>
+      </c>
+      <c r="BG170">
+        <v>1.18</v>
+      </c>
+      <c r="BH170">
+        <v>4.7</v>
+      </c>
+      <c r="BI170">
+        <v>1.32</v>
+      </c>
+      <c r="BJ170">
+        <v>3.2</v>
+      </c>
+      <c r="BK170">
+        <v>1.53</v>
+      </c>
+      <c r="BL170">
+        <v>2.35</v>
+      </c>
+      <c r="BM170">
+        <v>2</v>
+      </c>
+      <c r="BN170">
+        <v>1.73</v>
+      </c>
+      <c r="BO170">
+        <v>2.35</v>
+      </c>
+      <c r="BP170">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7327066</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45458.27083333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>70</v>
+      </c>
+      <c r="H171" t="s">
+        <v>79</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171" t="s">
+        <v>201</v>
+      </c>
+      <c r="P171" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q171">
+        <v>2.1</v>
+      </c>
+      <c r="R171">
+        <v>2.3</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>1.33</v>
+      </c>
+      <c r="U171">
+        <v>3.25</v>
+      </c>
+      <c r="V171">
+        <v>2.63</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.54</v>
+      </c>
+      <c r="AA171">
+        <v>3.8</v>
+      </c>
+      <c r="AB171">
+        <v>5.8</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>9.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.25</v>
+      </c>
+      <c r="AF171">
+        <v>3.75</v>
+      </c>
+      <c r="AG171">
+        <v>1.75</v>
+      </c>
+      <c r="AH171">
+        <v>1.96</v>
+      </c>
+      <c r="AI171">
+        <v>1.91</v>
+      </c>
+      <c r="AJ171">
+        <v>1.91</v>
+      </c>
+      <c r="AK171">
+        <v>1.09</v>
+      </c>
+      <c r="AL171">
+        <v>1.18</v>
+      </c>
+      <c r="AM171">
+        <v>2.4</v>
+      </c>
+      <c r="AN171">
+        <v>1.75</v>
+      </c>
+      <c r="AO171">
+        <v>1.5</v>
+      </c>
+      <c r="AP171">
+        <v>1.89</v>
+      </c>
+      <c r="AQ171">
+        <v>1.33</v>
+      </c>
+      <c r="AR171">
+        <v>2.14</v>
+      </c>
+      <c r="AS171">
+        <v>1.25</v>
+      </c>
+      <c r="AT171">
+        <v>3.39</v>
+      </c>
+      <c r="AU171">
+        <v>2</v>
+      </c>
+      <c r="AV171">
+        <v>0</v>
+      </c>
+      <c r="AW171">
+        <v>3</v>
+      </c>
+      <c r="AX171">
+        <v>4</v>
+      </c>
+      <c r="AY171">
+        <v>5</v>
+      </c>
+      <c r="AZ171">
+        <v>4</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
+      <c r="BC171">
+        <v>4</v>
+      </c>
+      <c r="BD171">
+        <v>1.22</v>
+      </c>
+      <c r="BE171">
+        <v>10</v>
+      </c>
+      <c r="BF171">
+        <v>5</v>
+      </c>
+      <c r="BG171">
+        <v>1.22</v>
+      </c>
+      <c r="BH171">
+        <v>4.1</v>
+      </c>
+      <c r="BI171">
+        <v>1.38</v>
+      </c>
+      <c r="BJ171">
+        <v>2.85</v>
+      </c>
+      <c r="BK171">
+        <v>1.73</v>
+      </c>
+      <c r="BL171">
+        <v>2</v>
+      </c>
+      <c r="BM171">
+        <v>2.05</v>
+      </c>
+      <c r="BN171">
+        <v>1.72</v>
+      </c>
+      <c r="BO171">
+        <v>2.6</v>
+      </c>
+      <c r="BP171">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7327068</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>77</v>
+      </c>
+      <c r="H172" t="s">
+        <v>87</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>202</v>
+      </c>
+      <c r="P172" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q172">
+        <v>3.4</v>
+      </c>
+      <c r="R172">
+        <v>2.1</v>
+      </c>
+      <c r="S172">
+        <v>3.25</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>9</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>2.65</v>
+      </c>
+      <c r="AA172">
+        <v>3.25</v>
+      </c>
+      <c r="AB172">
+        <v>2.5</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>8.6</v>
+      </c>
+      <c r="AE172">
+        <v>1.3</v>
+      </c>
+      <c r="AF172">
+        <v>3.1</v>
+      </c>
+      <c r="AG172">
+        <v>1.9</v>
+      </c>
+      <c r="AH172">
+        <v>1.8</v>
+      </c>
+      <c r="AI172">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172">
+        <v>1.95</v>
+      </c>
+      <c r="AK172">
+        <v>1.5</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>1.45</v>
+      </c>
+      <c r="AN172">
+        <v>1.63</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
+      </c>
+      <c r="AP172">
+        <v>1.78</v>
+      </c>
+      <c r="AQ172">
+        <v>0.89</v>
+      </c>
+      <c r="AR172">
+        <v>1.57</v>
+      </c>
+      <c r="AS172">
+        <v>1.48</v>
+      </c>
+      <c r="AT172">
+        <v>3.05</v>
+      </c>
+      <c r="AU172">
+        <v>2</v>
+      </c>
+      <c r="AV172">
+        <v>2</v>
+      </c>
+      <c r="AW172">
+        <v>5</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>7</v>
+      </c>
+      <c r="AZ172">
+        <v>5</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>4</v>
+      </c>
+      <c r="BD172">
+        <v>1.91</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>2.2</v>
+      </c>
+      <c r="BG172">
+        <v>1.18</v>
+      </c>
+      <c r="BH172">
+        <v>4.7</v>
+      </c>
+      <c r="BI172">
+        <v>1.32</v>
+      </c>
+      <c r="BJ172">
+        <v>3.2</v>
+      </c>
+      <c r="BK172">
+        <v>1.7</v>
+      </c>
+      <c r="BL172">
+        <v>2.05</v>
+      </c>
+      <c r="BM172">
+        <v>1.87</v>
+      </c>
+      <c r="BN172">
+        <v>1.87</v>
+      </c>
+      <c r="BO172">
+        <v>2.35</v>
+      </c>
+      <c r="BP172">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7327067</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>83</v>
+      </c>
+      <c r="H173" t="s">
+        <v>89</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>203</v>
+      </c>
+      <c r="P173" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>3.4</v>
+      </c>
+      <c r="T173">
+        <v>1.36</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.75</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>7</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>2.35</v>
+      </c>
+      <c r="AA173">
+        <v>3.3</v>
+      </c>
+      <c r="AB173">
+        <v>2.81</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>9</v>
+      </c>
+      <c r="AE173">
+        <v>1.28</v>
+      </c>
+      <c r="AF173">
+        <v>3.5</v>
+      </c>
+      <c r="AG173">
+        <v>1.76</v>
+      </c>
+      <c r="AH173">
+        <v>1.95</v>
+      </c>
+      <c r="AI173">
+        <v>1.67</v>
+      </c>
+      <c r="AJ173">
+        <v>2.1</v>
+      </c>
+      <c r="AK173">
+        <v>1.42</v>
+      </c>
+      <c r="AL173">
+        <v>1.25</v>
+      </c>
+      <c r="AM173">
+        <v>1.57</v>
+      </c>
+      <c r="AN173">
+        <v>0.13</v>
+      </c>
+      <c r="AO173">
+        <v>0.38</v>
+      </c>
+      <c r="AP173">
+        <v>0.44</v>
+      </c>
+      <c r="AQ173">
+        <v>0.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.4</v>
+      </c>
+      <c r="AS173">
+        <v>1.22</v>
+      </c>
+      <c r="AT173">
+        <v>2.62</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>2</v>
+      </c>
+      <c r="AX173">
+        <v>6</v>
+      </c>
+      <c r="AY173">
+        <v>6</v>
+      </c>
+      <c r="AZ173">
+        <v>9</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>6</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.95</v>
+      </c>
+      <c r="BE173">
+        <v>8</v>
+      </c>
+      <c r="BF173">
+        <v>2.05</v>
+      </c>
+      <c r="BG173">
+        <v>1.23</v>
+      </c>
+      <c r="BH173">
+        <v>4</v>
+      </c>
+      <c r="BI173">
+        <v>1.4</v>
+      </c>
+      <c r="BJ173">
+        <v>2.75</v>
+      </c>
+      <c r="BK173">
+        <v>1.7</v>
+      </c>
+      <c r="BL173">
+        <v>2.05</v>
+      </c>
+      <c r="BM173">
+        <v>2.1</v>
+      </c>
+      <c r="BN173">
+        <v>1.7</v>
+      </c>
+      <c r="BO173">
+        <v>2.7</v>
+      </c>
+      <c r="BP173">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -626,6 +626,15 @@
   </si>
   <si>
     <t>['18', '20']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['45', '64']</t>
+  </si>
+  <si>
+    <t>['15', '25']</t>
   </si>
   <si>
     <t>['19', '47', '62']</t>
@@ -1245,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1710,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1788,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1916,7 +1925,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2200,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>0.33</v>
@@ -2328,7 +2337,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2409,7 +2418,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2740,7 +2749,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2821,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2946,7 +2955,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3358,7 +3367,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3564,7 +3573,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3770,7 +3779,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3851,7 +3860,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3976,7 +3985,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4054,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4260,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
         <v>2.44</v>
@@ -4388,7 +4397,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4469,7 +4478,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4800,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4878,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5006,7 +5015,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5084,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5290,10 +5299,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5418,7 +5427,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5624,7 +5633,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5705,7 +5714,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6323,7 +6332,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6526,10 +6535,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6654,7 +6663,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6732,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
         <v>2.22</v>
@@ -7066,7 +7075,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7478,7 +7487,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7556,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7684,7 +7693,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7968,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8096,7 +8105,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8302,7 +8311,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8380,10 +8389,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ35">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8508,7 +8517,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8714,7 +8723,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8795,7 +8804,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8920,7 +8929,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9126,7 +9135,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9204,10 +9213,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9332,7 +9341,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9538,7 +9547,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9744,7 +9753,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10031,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10234,7 +10243,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44">
         <v>0.33</v>
@@ -10568,7 +10577,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10649,7 +10658,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ46">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -11058,10 +11067,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11264,7 +11273,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
         <v>1.22</v>
@@ -11473,7 +11482,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11882,7 +11891,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -12091,7 +12100,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12216,7 +12225,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12500,7 +12509,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55">
         <v>1.11</v>
@@ -12628,7 +12637,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13121,7 +13130,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13246,7 +13255,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13452,7 +13461,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13530,7 +13539,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60">
         <v>0.89</v>
@@ -13945,7 +13954,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14070,7 +14079,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14148,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
         <v>1.22</v>
@@ -14276,7 +14285,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14482,7 +14491,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14563,7 +14572,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ65">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14769,7 +14778,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -14894,7 +14903,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15178,7 +15187,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
         <v>1.75</v>
@@ -15387,7 +15396,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15590,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -16130,7 +16139,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16211,7 +16220,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16336,7 +16345,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16542,7 +16551,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16826,7 +16835,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -17032,7 +17041,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>1.11</v>
@@ -17160,7 +17169,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17447,7 +17456,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17572,7 +17581,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17778,7 +17787,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17856,10 +17865,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18190,7 +18199,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18271,7 +18280,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18396,7 +18405,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18808,7 +18817,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18886,10 +18895,10 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19426,7 +19435,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19504,7 +19513,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ89">
         <v>2.44</v>
@@ -19632,7 +19641,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19710,7 +19719,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19838,7 +19847,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19919,7 +19928,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20328,7 +20337,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>1.11</v>
@@ -20456,7 +20465,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20662,7 +20671,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21074,7 +21083,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21155,7 +21164,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ97">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21280,7 +21289,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21567,7 +21576,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21692,7 +21701,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21770,7 +21779,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ100">
         <v>1.67</v>
@@ -21979,7 +21988,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ101">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -22104,7 +22113,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22388,10 +22397,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22516,7 +22525,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22594,7 +22603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ104">
         <v>1.11</v>
@@ -22803,7 +22812,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -23134,7 +23143,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23418,7 +23427,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108">
         <v>1.5</v>
@@ -23546,7 +23555,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23752,7 +23761,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23830,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
         <v>2.22</v>
@@ -23958,7 +23967,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24036,10 +24045,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24164,7 +24173,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24245,7 +24254,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24448,7 +24457,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24654,10 +24663,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24782,7 +24791,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24988,7 +24997,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25194,7 +25203,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25400,7 +25409,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25687,7 +25696,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25812,7 +25821,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26018,7 +26027,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26224,7 +26233,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26430,7 +26439,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26511,7 +26520,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -27048,7 +27057,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27126,7 +27135,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126">
         <v>1.5</v>
@@ -27254,7 +27263,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27460,7 +27469,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27538,10 +27547,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27666,7 +27675,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27744,7 +27753,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27872,7 +27881,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28156,7 +28165,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ131">
         <v>1.75</v>
@@ -28365,7 +28374,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -28571,7 +28580,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -29108,7 +29117,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29314,7 +29323,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29395,7 +29404,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29598,7 +29607,7 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ138">
         <v>1.75</v>
@@ -29932,7 +29941,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30010,7 +30019,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30138,7 +30147,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30550,7 +30559,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30756,7 +30765,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31040,10 +31049,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ145">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31246,7 +31255,7 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ146">
         <v>2.22</v>
@@ -31452,7 +31461,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ147">
         <v>1.22</v>
@@ -31580,7 +31589,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31867,7 +31876,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -31992,7 +32001,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32198,7 +32207,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32279,7 +32288,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR151">
         <v>1.18</v>
@@ -32404,7 +32413,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32610,7 +32619,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32691,7 +32700,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -32894,7 +32903,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
         <v>1.33</v>
@@ -33022,7 +33031,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33228,7 +33237,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33306,7 +33315,7 @@
         <v>1.13</v>
       </c>
       <c r="AP156">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ156">
         <v>1.11</v>
@@ -33512,7 +33521,7 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33927,7 +33936,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ159">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR159">
         <v>1.88</v>
@@ -34052,7 +34061,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34339,7 +34348,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ161">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR161">
         <v>2.23</v>
@@ -34464,7 +34473,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34542,7 +34551,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ162">
         <v>1.22</v>
@@ -34670,7 +34679,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34751,7 +34760,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -34876,7 +34885,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35494,7 +35503,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35906,7 +35915,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36112,7 +36121,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36318,7 +36327,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36411,31 +36420,31 @@
         <v>3.39</v>
       </c>
       <c r="AU171">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW171">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY171">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AZ171">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA171">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB171">
         <v>1</v>
       </c>
       <c r="BC171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BD171">
         <v>1.22</v>
@@ -36617,31 +36626,31 @@
         <v>3.05</v>
       </c>
       <c r="AU172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX172">
         <v>3</v>
       </c>
       <c r="AY172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA172">
         <v>3</v>
       </c>
       <c r="BB172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC172">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD172">
         <v>1.91</v>
@@ -36823,22 +36832,22 @@
         <v>2.62</v>
       </c>
       <c r="AU173">
+        <v>7</v>
+      </c>
+      <c r="AV173">
         <v>4</v>
       </c>
-      <c r="AV173">
+      <c r="AW173">
         <v>3</v>
       </c>
-      <c r="AW173">
-        <v>2</v>
-      </c>
       <c r="AX173">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY173">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ173">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA173">
         <v>3</v>
@@ -36887,6 +36896,1242 @@
       </c>
       <c r="BP173">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7327069</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45459.08333333334</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>204</v>
+      </c>
+      <c r="P174" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q174">
+        <v>2.5</v>
+      </c>
+      <c r="R174">
+        <v>2.2</v>
+      </c>
+      <c r="S174">
+        <v>4.5</v>
+      </c>
+      <c r="T174">
+        <v>1.4</v>
+      </c>
+      <c r="U174">
+        <v>2.75</v>
+      </c>
+      <c r="V174">
+        <v>2.75</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>8</v>
+      </c>
+      <c r="Y174">
+        <v>1.08</v>
+      </c>
+      <c r="Z174">
+        <v>1.94</v>
+      </c>
+      <c r="AA174">
+        <v>3.46</v>
+      </c>
+      <c r="AB174">
+        <v>3.98</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE174">
+        <v>1.26</v>
+      </c>
+      <c r="AF174">
+        <v>3.34</v>
+      </c>
+      <c r="AG174">
+        <v>2.01</v>
+      </c>
+      <c r="AH174">
+        <v>1.8</v>
+      </c>
+      <c r="AI174">
+        <v>1.8</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>1.14</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.97</v>
+      </c>
+      <c r="AN174">
+        <v>1.25</v>
+      </c>
+      <c r="AO174">
+        <v>0.75</v>
+      </c>
+      <c r="AP174">
+        <v>1.44</v>
+      </c>
+      <c r="AQ174">
+        <v>0.67</v>
+      </c>
+      <c r="AR174">
+        <v>1.8</v>
+      </c>
+      <c r="AS174">
+        <v>1.54</v>
+      </c>
+      <c r="AT174">
+        <v>3.34</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>12</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>5</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.53</v>
+      </c>
+      <c r="BE174">
+        <v>8.5</v>
+      </c>
+      <c r="BF174">
+        <v>3</v>
+      </c>
+      <c r="BG174">
+        <v>1.17</v>
+      </c>
+      <c r="BH174">
+        <v>4.9</v>
+      </c>
+      <c r="BI174">
+        <v>1.3</v>
+      </c>
+      <c r="BJ174">
+        <v>3.35</v>
+      </c>
+      <c r="BK174">
+        <v>1.5</v>
+      </c>
+      <c r="BL174">
+        <v>2.45</v>
+      </c>
+      <c r="BM174">
+        <v>2.05</v>
+      </c>
+      <c r="BN174">
+        <v>1.7</v>
+      </c>
+      <c r="BO174">
+        <v>2.25</v>
+      </c>
+      <c r="BP174">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7327070</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45459.14583333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+      <c r="H175" t="s">
+        <v>74</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>205</v>
+      </c>
+      <c r="P175" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q175">
+        <v>2.63</v>
+      </c>
+      <c r="R175">
+        <v>2.1</v>
+      </c>
+      <c r="S175">
+        <v>4.33</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3</v>
+      </c>
+      <c r="W175">
+        <v>1.36</v>
+      </c>
+      <c r="X175">
+        <v>9</v>
+      </c>
+      <c r="Y175">
+        <v>1.07</v>
+      </c>
+      <c r="Z175">
+        <v>1.92</v>
+      </c>
+      <c r="AA175">
+        <v>3.3</v>
+      </c>
+      <c r="AB175">
+        <v>3.83</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>8.4</v>
+      </c>
+      <c r="AE175">
+        <v>1.31</v>
+      </c>
+      <c r="AF175">
+        <v>3.04</v>
+      </c>
+      <c r="AG175">
+        <v>2</v>
+      </c>
+      <c r="AH175">
+        <v>1.72</v>
+      </c>
+      <c r="AI175">
+        <v>1.91</v>
+      </c>
+      <c r="AJ175">
+        <v>1.91</v>
+      </c>
+      <c r="AK175">
+        <v>1.25</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.8</v>
+      </c>
+      <c r="AN175">
+        <v>1.22</v>
+      </c>
+      <c r="AO175">
+        <v>0.57</v>
+      </c>
+      <c r="AP175">
+        <v>1.4</v>
+      </c>
+      <c r="AQ175">
+        <v>0.5</v>
+      </c>
+      <c r="AR175">
+        <v>1.34</v>
+      </c>
+      <c r="AS175">
+        <v>1.17</v>
+      </c>
+      <c r="AT175">
+        <v>2.51</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>10</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>15</v>
+      </c>
+      <c r="AZ175">
+        <v>7</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>6</v>
+      </c>
+      <c r="BD175">
+        <v>1.67</v>
+      </c>
+      <c r="BE175">
+        <v>8</v>
+      </c>
+      <c r="BF175">
+        <v>2.5</v>
+      </c>
+      <c r="BG175">
+        <v>1.23</v>
+      </c>
+      <c r="BH175">
+        <v>4</v>
+      </c>
+      <c r="BI175">
+        <v>1.4</v>
+      </c>
+      <c r="BJ175">
+        <v>2.75</v>
+      </c>
+      <c r="BK175">
+        <v>1.88</v>
+      </c>
+      <c r="BL175">
+        <v>1.92</v>
+      </c>
+      <c r="BM175">
+        <v>2.1</v>
+      </c>
+      <c r="BN175">
+        <v>1.7</v>
+      </c>
+      <c r="BO175">
+        <v>2.7</v>
+      </c>
+      <c r="BP175">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7327073</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>76</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>124</v>
+      </c>
+      <c r="P176" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q176">
+        <v>2.75</v>
+      </c>
+      <c r="R176">
+        <v>2.1</v>
+      </c>
+      <c r="S176">
+        <v>4.33</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3.25</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>9</v>
+      </c>
+      <c r="Y176">
+        <v>1.07</v>
+      </c>
+      <c r="Z176">
+        <v>2.12</v>
+      </c>
+      <c r="AA176">
+        <v>3.2</v>
+      </c>
+      <c r="AB176">
+        <v>3.32</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
+      <c r="AE176">
+        <v>1.33</v>
+      </c>
+      <c r="AF176">
+        <v>2.93</v>
+      </c>
+      <c r="AG176">
+        <v>2.03</v>
+      </c>
+      <c r="AH176">
+        <v>1.7</v>
+      </c>
+      <c r="AI176">
+        <v>1.91</v>
+      </c>
+      <c r="AJ176">
+        <v>1.91</v>
+      </c>
+      <c r="AK176">
+        <v>1.3</v>
+      </c>
+      <c r="AL176">
+        <v>1.31</v>
+      </c>
+      <c r="AM176">
+        <v>1.72</v>
+      </c>
+      <c r="AN176">
+        <v>1.22</v>
+      </c>
+      <c r="AO176">
+        <v>0.67</v>
+      </c>
+      <c r="AP176">
+        <v>1.2</v>
+      </c>
+      <c r="AQ176">
+        <v>0.7</v>
+      </c>
+      <c r="AR176">
+        <v>1</v>
+      </c>
+      <c r="AS176">
+        <v>1.47</v>
+      </c>
+      <c r="AT176">
+        <v>2.47</v>
+      </c>
+      <c r="AU176">
+        <v>0</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>3</v>
+      </c>
+      <c r="AX176">
+        <v>2</v>
+      </c>
+      <c r="AY176">
+        <v>3</v>
+      </c>
+      <c r="AZ176">
+        <v>5</v>
+      </c>
+      <c r="BA176">
+        <v>1</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
+      <c r="BC176">
+        <v>2</v>
+      </c>
+      <c r="BD176">
+        <v>1.95</v>
+      </c>
+      <c r="BE176">
+        <v>8</v>
+      </c>
+      <c r="BF176">
+        <v>2.1</v>
+      </c>
+      <c r="BG176">
+        <v>1.23</v>
+      </c>
+      <c r="BH176">
+        <v>4</v>
+      </c>
+      <c r="BI176">
+        <v>1.4</v>
+      </c>
+      <c r="BJ176">
+        <v>2.75</v>
+      </c>
+      <c r="BK176">
+        <v>1.67</v>
+      </c>
+      <c r="BL176">
+        <v>2.1</v>
+      </c>
+      <c r="BM176">
+        <v>2</v>
+      </c>
+      <c r="BN176">
+        <v>1.8</v>
+      </c>
+      <c r="BO176">
+        <v>2.7</v>
+      </c>
+      <c r="BP176">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7327074</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>86</v>
+      </c>
+      <c r="H177" t="s">
+        <v>78</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>206</v>
+      </c>
+      <c r="P177" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q177">
+        <v>3.1</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
+        <v>3.75</v>
+      </c>
+      <c r="T177">
+        <v>1.44</v>
+      </c>
+      <c r="U177">
+        <v>2.63</v>
+      </c>
+      <c r="V177">
+        <v>3.25</v>
+      </c>
+      <c r="W177">
+        <v>1.33</v>
+      </c>
+      <c r="X177">
+        <v>9</v>
+      </c>
+      <c r="Y177">
+        <v>1.07</v>
+      </c>
+      <c r="Z177">
+        <v>2.35</v>
+      </c>
+      <c r="AA177">
+        <v>3.2</v>
+      </c>
+      <c r="AB177">
+        <v>2.88</v>
+      </c>
+      <c r="AC177">
+        <v>1.05</v>
+      </c>
+      <c r="AD177">
+        <v>8</v>
+      </c>
+      <c r="AE177">
+        <v>1.33</v>
+      </c>
+      <c r="AF177">
+        <v>3</v>
+      </c>
+      <c r="AG177">
+        <v>2</v>
+      </c>
+      <c r="AH177">
+        <v>1.72</v>
+      </c>
+      <c r="AI177">
+        <v>1.91</v>
+      </c>
+      <c r="AJ177">
+        <v>1.91</v>
+      </c>
+      <c r="AK177">
+        <v>1.36</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.57</v>
+      </c>
+      <c r="AN177">
+        <v>2.29</v>
+      </c>
+      <c r="AO177">
+        <v>1.25</v>
+      </c>
+      <c r="AP177">
+        <v>2.38</v>
+      </c>
+      <c r="AQ177">
+        <v>1.11</v>
+      </c>
+      <c r="AR177">
+        <v>1.65</v>
+      </c>
+      <c r="AS177">
+        <v>1.53</v>
+      </c>
+      <c r="AT177">
+        <v>3.18</v>
+      </c>
+      <c r="AU177">
+        <v>6</v>
+      </c>
+      <c r="AV177">
+        <v>7</v>
+      </c>
+      <c r="AW177">
+        <v>5</v>
+      </c>
+      <c r="AX177">
+        <v>14</v>
+      </c>
+      <c r="AY177">
+        <v>11</v>
+      </c>
+      <c r="AZ177">
+        <v>21</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>10</v>
+      </c>
+      <c r="BC177">
+        <v>13</v>
+      </c>
+      <c r="BD177">
+        <v>1.83</v>
+      </c>
+      <c r="BE177">
+        <v>8</v>
+      </c>
+      <c r="BF177">
+        <v>2.25</v>
+      </c>
+      <c r="BG177">
+        <v>1.23</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>1.4</v>
+      </c>
+      <c r="BJ177">
+        <v>2.75</v>
+      </c>
+      <c r="BK177">
+        <v>1.73</v>
+      </c>
+      <c r="BL177">
+        <v>2</v>
+      </c>
+      <c r="BM177">
+        <v>2.1</v>
+      </c>
+      <c r="BN177">
+        <v>1.7</v>
+      </c>
+      <c r="BO177">
+        <v>2.7</v>
+      </c>
+      <c r="BP177">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7327071</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>84</v>
+      </c>
+      <c r="H178" t="s">
+        <v>88</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>108</v>
+      </c>
+      <c r="P178" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q178">
+        <v>2.5</v>
+      </c>
+      <c r="R178">
+        <v>2.2</v>
+      </c>
+      <c r="S178">
+        <v>4.5</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>2.75</v>
+      </c>
+      <c r="W178">
+        <v>1.4</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>1.8</v>
+      </c>
+      <c r="AA178">
+        <v>3.45</v>
+      </c>
+      <c r="AB178">
+        <v>4.17</v>
+      </c>
+      <c r="AC178">
+        <v>1.06</v>
+      </c>
+      <c r="AD178">
+        <v>8.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.3</v>
+      </c>
+      <c r="AF178">
+        <v>3.3</v>
+      </c>
+      <c r="AG178">
+        <v>1.85</v>
+      </c>
+      <c r="AH178">
+        <v>1.85</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.18</v>
+      </c>
+      <c r="AL178">
+        <v>1.22</v>
+      </c>
+      <c r="AM178">
+        <v>1.9</v>
+      </c>
+      <c r="AN178">
+        <v>2.5</v>
+      </c>
+      <c r="AO178">
+        <v>1.25</v>
+      </c>
+      <c r="AP178">
+        <v>2.33</v>
+      </c>
+      <c r="AQ178">
+        <v>1.22</v>
+      </c>
+      <c r="AR178">
+        <v>1.32</v>
+      </c>
+      <c r="AS178">
+        <v>1.34</v>
+      </c>
+      <c r="AT178">
+        <v>2.66</v>
+      </c>
+      <c r="AU178">
+        <v>3</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>10</v>
+      </c>
+      <c r="AX178">
+        <v>12</v>
+      </c>
+      <c r="AY178">
+        <v>13</v>
+      </c>
+      <c r="AZ178">
+        <v>17</v>
+      </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
+        <v>3</v>
+      </c>
+      <c r="BC178">
+        <v>5</v>
+      </c>
+      <c r="BD178">
+        <v>1.62</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>2.62</v>
+      </c>
+      <c r="BG178">
+        <v>1.23</v>
+      </c>
+      <c r="BH178">
+        <v>4</v>
+      </c>
+      <c r="BI178">
+        <v>1.4</v>
+      </c>
+      <c r="BJ178">
+        <v>2.75</v>
+      </c>
+      <c r="BK178">
+        <v>1.73</v>
+      </c>
+      <c r="BL178">
+        <v>2</v>
+      </c>
+      <c r="BM178">
+        <v>2.1</v>
+      </c>
+      <c r="BN178">
+        <v>1.7</v>
+      </c>
+      <c r="BO178">
+        <v>2.7</v>
+      </c>
+      <c r="BP178">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7327072</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>85</v>
+      </c>
+      <c r="H179" t="s">
+        <v>72</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>111</v>
+      </c>
+      <c r="P179" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q179">
+        <v>2.75</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <v>1.4</v>
+      </c>
+      <c r="U179">
+        <v>2.75</v>
+      </c>
+      <c r="V179">
+        <v>3</v>
+      </c>
+      <c r="W179">
+        <v>1.36</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.08</v>
+      </c>
+      <c r="Z179">
+        <v>2.02</v>
+      </c>
+      <c r="AA179">
+        <v>3.3</v>
+      </c>
+      <c r="AB179">
+        <v>3.49</v>
+      </c>
+      <c r="AC179">
+        <v>1.06</v>
+      </c>
+      <c r="AD179">
+        <v>8.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.3</v>
+      </c>
+      <c r="AF179">
+        <v>3.3</v>
+      </c>
+      <c r="AG179">
+        <v>1.8</v>
+      </c>
+      <c r="AH179">
+        <v>1.9</v>
+      </c>
+      <c r="AI179">
+        <v>1.75</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.28</v>
+      </c>
+      <c r="AL179">
+        <v>1.25</v>
+      </c>
+      <c r="AM179">
+        <v>1.75</v>
+      </c>
+      <c r="AN179">
+        <v>1.33</v>
+      </c>
+      <c r="AO179">
+        <v>0.89</v>
+      </c>
+      <c r="AP179">
+        <v>1.3</v>
+      </c>
+      <c r="AQ179">
+        <v>0.9</v>
+      </c>
+      <c r="AR179">
+        <v>1.3</v>
+      </c>
+      <c r="AS179">
+        <v>1.25</v>
+      </c>
+      <c r="AT179">
+        <v>2.55</v>
+      </c>
+      <c r="AU179">
+        <v>3</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>17</v>
+      </c>
+      <c r="AX179">
+        <v>5</v>
+      </c>
+      <c r="AY179">
+        <v>20</v>
+      </c>
+      <c r="AZ179">
+        <v>11</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>11</v>
+      </c>
+      <c r="BD179">
+        <v>1.8</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>2.38</v>
+      </c>
+      <c r="BG179">
+        <v>1.2</v>
+      </c>
+      <c r="BH179">
+        <v>4.2</v>
+      </c>
+      <c r="BI179">
+        <v>1.37</v>
+      </c>
+      <c r="BJ179">
+        <v>2.9</v>
+      </c>
+      <c r="BK179">
+        <v>1.73</v>
+      </c>
+      <c r="BL179">
+        <v>2</v>
+      </c>
+      <c r="BM179">
+        <v>2</v>
+      </c>
+      <c r="BN179">
+        <v>1.75</v>
+      </c>
+      <c r="BO179">
+        <v>2.55</v>
+      </c>
+      <c r="BP179">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -37047,13 +37047,13 @@
         <v>8</v>
       </c>
       <c r="AX174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY174">
         <v>12</v>
       </c>
       <c r="AZ174">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA174">
         <v>5</v>
@@ -37244,31 +37244,31 @@
         <v>2.51</v>
       </c>
       <c r="AU175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV175">
         <v>3</v>
       </c>
       <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
         <v>10</v>
       </c>
-      <c r="AX175">
+      <c r="AZ175">
+        <v>6</v>
+      </c>
+      <c r="BA175">
         <v>4</v>
-      </c>
-      <c r="AY175">
-        <v>15</v>
-      </c>
-      <c r="AZ175">
-        <v>7</v>
-      </c>
-      <c r="BA175">
-        <v>3</v>
       </c>
       <c r="BB175">
         <v>3</v>
       </c>
       <c r="BC175">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD175">
         <v>1.67</v>
@@ -37315,7 +37315,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7327073</v>
+        <v>7327074</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37330,43 +37330,43 @@
         <v>18</v>
       </c>
       <c r="G176" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H176" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176">
         <v>1</v>
       </c>
       <c r="N176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O176" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="Q176">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="R176">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T176">
         <v>1.44</v>
@@ -37387,16 +37387,16 @@
         <v>1.07</v>
       </c>
       <c r="Z176">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="AA176">
         <v>3.2</v>
       </c>
       <c r="AB176">
-        <v>3.32</v>
+        <v>2.88</v>
       </c>
       <c r="AC176">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD176">
         <v>8</v>
@@ -37405,13 +37405,13 @@
         <v>1.33</v>
       </c>
       <c r="AF176">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="AG176">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AH176">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AI176">
         <v>1.91</v>
@@ -37420,70 +37420,70 @@
         <v>1.91</v>
       </c>
       <c r="AK176">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AL176">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AM176">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AN176">
-        <v>1.22</v>
+        <v>2.29</v>
       </c>
       <c r="AO176">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>1.2</v>
+        <v>2.38</v>
       </c>
       <c r="AQ176">
-        <v>0.7</v>
+        <v>1.11</v>
       </c>
       <c r="AR176">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AS176">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AT176">
-        <v>2.47</v>
+        <v>3.18</v>
       </c>
       <c r="AU176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
         <v>3</v>
       </c>
-      <c r="AW176">
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>9</v>
+      </c>
+      <c r="BA176">
         <v>3</v>
       </c>
-      <c r="AX176">
-        <v>2</v>
-      </c>
-      <c r="AY176">
-        <v>3</v>
-      </c>
-      <c r="AZ176">
-        <v>5</v>
-      </c>
-      <c r="BA176">
-        <v>1</v>
-      </c>
       <c r="BB176">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC176">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BD176">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="BE176">
         <v>8</v>
       </c>
       <c r="BF176">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="BG176">
         <v>1.23</v>
@@ -37498,16 +37498,16 @@
         <v>2.75</v>
       </c>
       <c r="BK176">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BL176">
+        <v>2</v>
+      </c>
+      <c r="BM176">
         <v>2.1</v>
       </c>
-      <c r="BM176">
-        <v>2</v>
-      </c>
       <c r="BN176">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO176">
         <v>2.7</v>
@@ -37521,7 +37521,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7327074</v>
+        <v>7327071</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37536,160 +37536,160 @@
         <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H177" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M177">
         <v>1</v>
       </c>
       <c r="N177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O177" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="P177" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="Q177">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S177">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T177">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U177">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V177">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W177">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y177">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z177">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="AA177">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AB177">
-        <v>2.88</v>
+        <v>4.17</v>
       </c>
       <c r="AC177">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD177">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE177">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF177">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AG177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH177">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AI177">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ177">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK177">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AL177">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM177">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AN177">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AO177">
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="AQ177">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AR177">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
       <c r="AS177">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="AT177">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
       <c r="AU177">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV177">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>10</v>
+      </c>
+      <c r="AY177">
         <v>5</v>
       </c>
-      <c r="AX177">
-        <v>14</v>
-      </c>
-      <c r="AY177">
-        <v>11</v>
-      </c>
       <c r="AZ177">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA177">
+        <v>2</v>
+      </c>
+      <c r="BB177">
         <v>3</v>
       </c>
-      <c r="BB177">
-        <v>10</v>
-      </c>
       <c r="BC177">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BD177">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="BE177">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF177">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="BG177">
         <v>1.23</v>
@@ -37727,7 +37727,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7327071</v>
+        <v>7327072</v>
       </c>
       <c r="C178" t="s">
         <v>68</v>
@@ -37742,10 +37742,10 @@
         <v>18</v>
       </c>
       <c r="G178" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H178" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -37766,19 +37766,19 @@
         <v>2</v>
       </c>
       <c r="O178" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P178" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="Q178">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R178">
         <v>2.2</v>
       </c>
       <c r="S178">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T178">
         <v>1.4</v>
@@ -37787,10 +37787,10 @@
         <v>2.75</v>
       </c>
       <c r="V178">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W178">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X178">
         <v>8</v>
@@ -37799,13 +37799,13 @@
         <v>1.08</v>
       </c>
       <c r="Z178">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AA178">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AB178">
-        <v>4.17</v>
+        <v>3.49</v>
       </c>
       <c r="AC178">
         <v>1.06</v>
@@ -37820,94 +37820,94 @@
         <v>3.3</v>
       </c>
       <c r="AG178">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI178">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ178">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK178">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AL178">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM178">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AN178">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO178">
+        <v>0.89</v>
+      </c>
+      <c r="AP178">
+        <v>1.3</v>
+      </c>
+      <c r="AQ178">
+        <v>0.9</v>
+      </c>
+      <c r="AR178">
+        <v>1.3</v>
+      </c>
+      <c r="AS178">
         <v>1.25</v>
       </c>
-      <c r="AP178">
-        <v>2.33</v>
-      </c>
-      <c r="AQ178">
-        <v>1.22</v>
-      </c>
-      <c r="AR178">
-        <v>1.32</v>
-      </c>
-      <c r="AS178">
-        <v>1.34</v>
-      </c>
       <c r="AT178">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="AU178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>8</v>
+      </c>
+      <c r="AX178">
+        <v>1</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
         <v>5</v>
       </c>
-      <c r="AW178">
-        <v>10</v>
-      </c>
-      <c r="AX178">
-        <v>12</v>
-      </c>
-      <c r="AY178">
-        <v>13</v>
-      </c>
-      <c r="AZ178">
-        <v>17</v>
-      </c>
       <c r="BA178">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB178">
         <v>3</v>
       </c>
       <c r="BC178">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD178">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="BE178">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF178">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="BG178">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH178">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BI178">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BJ178">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BK178">
         <v>1.73</v>
@@ -37916,16 +37916,16 @@
         <v>2</v>
       </c>
       <c r="BM178">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BN178">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BO178">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BP178">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="179" spans="1:68">
@@ -37933,7 +37933,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7327072</v>
+        <v>7327073</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -37942,22 +37942,22 @@
         <v>69</v>
       </c>
       <c r="E179" s="2">
-        <v>45459.25</v>
+        <v>45459.28125</v>
       </c>
       <c r="F179">
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H179" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
         <v>1</v>
@@ -37972,166 +37972,166 @@
         <v>2</v>
       </c>
       <c r="O179" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
       </c>
       <c r="R179">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S179">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T179">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U179">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V179">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W179">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X179">
+        <v>9</v>
+      </c>
+      <c r="Y179">
+        <v>1.07</v>
+      </c>
+      <c r="Z179">
+        <v>2.12</v>
+      </c>
+      <c r="AA179">
+        <v>3.2</v>
+      </c>
+      <c r="AB179">
+        <v>3.32</v>
+      </c>
+      <c r="AC179">
+        <v>1.03</v>
+      </c>
+      <c r="AD179">
         <v>8</v>
       </c>
-      <c r="Y179">
-        <v>1.08</v>
-      </c>
-      <c r="Z179">
-        <v>2.02</v>
-      </c>
-      <c r="AA179">
-        <v>3.3</v>
-      </c>
-      <c r="AB179">
-        <v>3.49</v>
-      </c>
-      <c r="AC179">
-        <v>1.06</v>
-      </c>
-      <c r="AD179">
-        <v>8.5</v>
-      </c>
       <c r="AE179">
+        <v>1.33</v>
+      </c>
+      <c r="AF179">
+        <v>2.93</v>
+      </c>
+      <c r="AG179">
+        <v>2.03</v>
+      </c>
+      <c r="AH179">
+        <v>1.7</v>
+      </c>
+      <c r="AI179">
+        <v>1.91</v>
+      </c>
+      <c r="AJ179">
+        <v>1.91</v>
+      </c>
+      <c r="AK179">
         <v>1.3</v>
       </c>
-      <c r="AF179">
-        <v>3.3</v>
-      </c>
-      <c r="AG179">
-        <v>1.8</v>
-      </c>
-      <c r="AH179">
-        <v>1.9</v>
-      </c>
-      <c r="AI179">
-        <v>1.75</v>
-      </c>
-      <c r="AJ179">
-        <v>2</v>
-      </c>
-      <c r="AK179">
-        <v>1.28</v>
-      </c>
       <c r="AL179">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AM179">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AN179">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AO179">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="AP179">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AQ179">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AR179">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AS179">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AT179">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU179">
         <v>3</v>
       </c>
       <c r="AV179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW179">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AX179">
         <v>5</v>
       </c>
       <c r="AY179">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AZ179">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA179">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC179">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BE179">
         <v>8</v>
       </c>
       <c r="BF179">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BG179">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH179">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="BI179">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BJ179">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="BK179">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BL179">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BM179">
         <v>2</v>
       </c>
       <c r="BN179">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="BO179">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BP179">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,27 @@
     <t>['5', '18']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['2', '47', '62', '82']</t>
+  </si>
+  <si>
+    <t>['42', '49']</t>
+  </si>
+  <si>
+    <t>['18', '20']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['45', '64']</t>
+  </si>
+  <si>
+    <t>['15', '25']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -769,9 +790,6 @@
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['27', '54']</t>
   </si>
   <si>
@@ -869,6 +887,12 @@
   </si>
   <si>
     <t>['26', '39']</t>
+  </si>
+  <si>
+    <t>['43', '57', '61']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1695,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1773,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1901,7 +1925,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2185,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2313,7 +2337,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2394,7 +2418,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2725,7 +2749,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2806,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2931,7 +2955,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3009,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -3343,7 +3367,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3549,7 +3573,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3627,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3755,7 +3779,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3836,7 +3860,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3961,7 +3985,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4039,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4245,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4373,7 +4397,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4451,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4660,7 +4684,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4785,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4863,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4991,7 +5015,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5069,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5275,10 +5299,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5403,7 +5427,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5484,7 +5508,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5609,7 +5633,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5690,7 +5714,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6305,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6511,10 +6535,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6639,7 +6663,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6717,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
         <v>2.22</v>
@@ -7051,7 +7075,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7129,10 +7153,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7338,7 +7362,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7463,7 +7487,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7541,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>1.75</v>
@@ -7669,7 +7693,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7750,7 +7774,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ32">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -7953,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8081,7 +8105,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8287,7 +8311,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8365,10 +8389,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ35">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8493,7 +8517,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8699,7 +8723,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8780,7 +8804,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8905,7 +8929,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -8983,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ38">
         <v>1.22</v>
@@ -9111,7 +9135,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9189,10 +9213,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9317,7 +9341,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9398,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9523,7 +9547,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9729,7 +9753,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9807,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10016,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10219,10 +10243,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10553,7 +10577,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10634,7 +10658,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ46">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -11043,10 +11067,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11249,7 +11273,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
         <v>1.22</v>
@@ -11455,10 +11479,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11867,7 +11891,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>1.67</v>
@@ -12076,7 +12100,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12201,7 +12225,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12282,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12485,7 +12509,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55">
         <v>1.11</v>
@@ -12613,7 +12637,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13103,10 +13127,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13231,7 +13255,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13437,7 +13461,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13515,10 +13539,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13930,7 +13954,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14055,7 +14079,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14133,7 +14157,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ63">
         <v>1.22</v>
@@ -14261,7 +14285,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14467,7 +14491,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14545,10 +14569,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ65">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14751,10 +14775,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -14879,7 +14903,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14960,7 +14984,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15163,7 +15187,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
         <v>1.75</v>
@@ -15372,7 +15396,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ69">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15575,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15781,7 +15805,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -15990,7 +16014,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16115,7 +16139,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16193,10 +16217,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16321,7 +16345,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16402,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16527,7 +16551,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16811,7 +16835,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -17017,7 +17041,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
         <v>1.11</v>
@@ -17145,7 +17169,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17429,10 +17453,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17557,7 +17581,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17763,7 +17787,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17841,10 +17865,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ81">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18175,7 +18199,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18253,10 +18277,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18381,7 +18405,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18793,7 +18817,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18871,10 +18895,10 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19286,7 +19310,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19411,7 +19435,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19489,10 +19513,10 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ89">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19617,7 +19641,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19695,7 +19719,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19823,7 +19847,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19904,7 +19928,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20110,7 +20134,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20313,7 +20337,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>1.11</v>
@@ -20441,7 +20465,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20647,7 +20671,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20725,7 +20749,7 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ95">
         <v>1.22</v>
@@ -21059,7 +21083,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21137,10 +21161,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21265,7 +21289,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21471,7 +21495,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -21552,7 +21576,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21677,7 +21701,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21755,7 +21779,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ100">
         <v>1.67</v>
@@ -21961,10 +21985,10 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -22089,7 +22113,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22373,10 +22397,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22501,7 +22525,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22579,7 +22603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ104">
         <v>1.11</v>
@@ -22788,7 +22812,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -22991,10 +23015,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ106">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23119,7 +23143,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23200,7 +23224,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23403,7 +23427,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108">
         <v>1.5</v>
@@ -23531,7 +23555,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23612,7 +23636,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23737,7 +23761,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23815,7 +23839,7 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
         <v>2.22</v>
@@ -23943,7 +23967,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24021,10 +24045,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24149,7 +24173,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24230,7 +24254,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24433,7 +24457,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24639,10 +24663,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24767,7 +24791,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24845,10 +24869,10 @@
         <v>2.4</v>
       </c>
       <c r="AP115">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ115">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -24973,7 +24997,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25179,7 +25203,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25257,7 +25281,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ117">
         <v>1.88</v>
@@ -25385,7 +25409,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25672,7 +25696,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25797,7 +25821,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26003,7 +26027,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26084,7 +26108,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
         <v>1.28</v>
@@ -26209,7 +26233,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26287,7 +26311,7 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ122">
         <v>1.75</v>
@@ -26415,7 +26439,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26496,7 +26520,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -26702,7 +26726,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -26908,7 +26932,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27033,7 +27057,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27111,7 +27135,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126">
         <v>1.5</v>
@@ -27239,7 +27263,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27317,7 +27341,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ127">
         <v>2.22</v>
@@ -27445,7 +27469,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27523,10 +27547,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ128">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27651,7 +27675,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27729,10 +27753,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27857,7 +27881,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27935,7 +27959,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
         <v>1.67</v>
@@ -28141,7 +28165,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ131">
         <v>1.75</v>
@@ -28350,7 +28374,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -28556,7 +28580,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -29093,7 +29117,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29299,7 +29323,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29380,7 +29404,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29583,7 +29607,7 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ138">
         <v>1.75</v>
@@ -29917,7 +29941,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -29995,7 +30019,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30123,7 +30147,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30410,7 +30434,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30535,7 +30559,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30616,7 +30640,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -30741,7 +30765,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30819,7 +30843,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ144">
         <v>1.5</v>
@@ -31025,10 +31049,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ145">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31231,7 +31255,7 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ146">
         <v>2.22</v>
@@ -31437,7 +31461,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ147">
         <v>1.22</v>
@@ -31565,7 +31589,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31646,7 +31670,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -31852,7 +31876,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -31977,7 +32001,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32183,7 +32207,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32264,7 +32288,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR151">
         <v>1.18</v>
@@ -32389,7 +32413,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32595,7 +32619,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32676,7 +32700,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -32879,10 +32903,10 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33007,7 +33031,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33085,7 +33109,7 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
         <v>1.5</v>
@@ -33213,7 +33237,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33291,7 +33315,7 @@
         <v>1.13</v>
       </c>
       <c r="AP156">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ156">
         <v>1.11</v>
@@ -33497,7 +33521,7 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33706,7 +33730,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ158">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -33909,10 +33933,10 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ159">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR159">
         <v>1.88</v>
@@ -34037,7 +34061,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34321,10 +34345,10 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ161">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR161">
         <v>2.23</v>
@@ -34449,7 +34473,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34527,7 +34551,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ162">
         <v>1.22</v>
@@ -34655,7 +34679,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34736,7 +34760,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -34861,7 +34885,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35351,7 +35375,7 @@
         <v>1.38</v>
       </c>
       <c r="AP166">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AQ166">
         <v>1.33</v>
@@ -35479,7 +35503,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35560,7 +35584,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35891,7 +35915,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36047,6 +36071,2066 @@
         <v>2.7</v>
       </c>
       <c r="BP169">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7327065</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45458.16666666666</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H170" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>3</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170" t="s">
+        <v>200</v>
+      </c>
+      <c r="P170" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q170">
+        <v>3.1</v>
+      </c>
+      <c r="R170">
+        <v>2.38</v>
+      </c>
+      <c r="S170">
+        <v>3</v>
+      </c>
+      <c r="T170">
+        <v>1.3</v>
+      </c>
+      <c r="U170">
+        <v>3.4</v>
+      </c>
+      <c r="V170">
+        <v>2.38</v>
+      </c>
+      <c r="W170">
+        <v>1.53</v>
+      </c>
+      <c r="X170">
+        <v>6</v>
+      </c>
+      <c r="Y170">
+        <v>1.13</v>
+      </c>
+      <c r="Z170">
+        <v>2.61</v>
+      </c>
+      <c r="AA170">
+        <v>3.4</v>
+      </c>
+      <c r="AB170">
+        <v>2.45</v>
+      </c>
+      <c r="AC170">
+        <v>1.04</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.18</v>
+      </c>
+      <c r="AF170">
+        <v>4.5</v>
+      </c>
+      <c r="AG170">
+        <v>1.55</v>
+      </c>
+      <c r="AH170">
+        <v>2.29</v>
+      </c>
+      <c r="AI170">
+        <v>1.5</v>
+      </c>
+      <c r="AJ170">
+        <v>2.5</v>
+      </c>
+      <c r="AK170">
+        <v>1.53</v>
+      </c>
+      <c r="AL170">
+        <v>1.22</v>
+      </c>
+      <c r="AM170">
+        <v>1.47</v>
+      </c>
+      <c r="AN170">
+        <v>1.5</v>
+      </c>
+      <c r="AO170">
+        <v>2.38</v>
+      </c>
+      <c r="AP170">
+        <v>1.29</v>
+      </c>
+      <c r="AQ170">
+        <v>2.44</v>
+      </c>
+      <c r="AR170">
+        <v>1.86</v>
+      </c>
+      <c r="AS170">
+        <v>1.35</v>
+      </c>
+      <c r="AT170">
+        <v>3.21</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>3</v>
+      </c>
+      <c r="AX170">
+        <v>7</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>13</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>7</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>2.1</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>1.91</v>
+      </c>
+      <c r="BG170">
+        <v>1.18</v>
+      </c>
+      <c r="BH170">
+        <v>4.7</v>
+      </c>
+      <c r="BI170">
+        <v>1.32</v>
+      </c>
+      <c r="BJ170">
+        <v>3.2</v>
+      </c>
+      <c r="BK170">
+        <v>1.53</v>
+      </c>
+      <c r="BL170">
+        <v>2.35</v>
+      </c>
+      <c r="BM170">
+        <v>2</v>
+      </c>
+      <c r="BN170">
+        <v>1.73</v>
+      </c>
+      <c r="BO170">
+        <v>2.35</v>
+      </c>
+      <c r="BP170">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7327066</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45458.27083333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>70</v>
+      </c>
+      <c r="H171" t="s">
+        <v>79</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>4</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171" t="s">
+        <v>201</v>
+      </c>
+      <c r="P171" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q171">
+        <v>2.1</v>
+      </c>
+      <c r="R171">
+        <v>2.3</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>1.33</v>
+      </c>
+      <c r="U171">
+        <v>3.25</v>
+      </c>
+      <c r="V171">
+        <v>2.63</v>
+      </c>
+      <c r="W171">
+        <v>1.44</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.54</v>
+      </c>
+      <c r="AA171">
+        <v>3.8</v>
+      </c>
+      <c r="AB171">
+        <v>5.8</v>
+      </c>
+      <c r="AC171">
+        <v>1.05</v>
+      </c>
+      <c r="AD171">
+        <v>9.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.25</v>
+      </c>
+      <c r="AF171">
+        <v>3.75</v>
+      </c>
+      <c r="AG171">
+        <v>1.75</v>
+      </c>
+      <c r="AH171">
+        <v>1.96</v>
+      </c>
+      <c r="AI171">
+        <v>1.91</v>
+      </c>
+      <c r="AJ171">
+        <v>1.91</v>
+      </c>
+      <c r="AK171">
+        <v>1.09</v>
+      </c>
+      <c r="AL171">
+        <v>1.18</v>
+      </c>
+      <c r="AM171">
+        <v>2.4</v>
+      </c>
+      <c r="AN171">
+        <v>1.75</v>
+      </c>
+      <c r="AO171">
+        <v>1.5</v>
+      </c>
+      <c r="AP171">
+        <v>1.89</v>
+      </c>
+      <c r="AQ171">
+        <v>1.33</v>
+      </c>
+      <c r="AR171">
+        <v>2.14</v>
+      </c>
+      <c r="AS171">
+        <v>1.25</v>
+      </c>
+      <c r="AT171">
+        <v>3.39</v>
+      </c>
+      <c r="AU171">
+        <v>9</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>10</v>
+      </c>
+      <c r="AX171">
+        <v>8</v>
+      </c>
+      <c r="AY171">
+        <v>19</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>7</v>
+      </c>
+      <c r="BB171">
+        <v>1</v>
+      </c>
+      <c r="BC171">
+        <v>8</v>
+      </c>
+      <c r="BD171">
+        <v>1.22</v>
+      </c>
+      <c r="BE171">
+        <v>10</v>
+      </c>
+      <c r="BF171">
+        <v>5</v>
+      </c>
+      <c r="BG171">
+        <v>1.22</v>
+      </c>
+      <c r="BH171">
+        <v>4.1</v>
+      </c>
+      <c r="BI171">
+        <v>1.38</v>
+      </c>
+      <c r="BJ171">
+        <v>2.85</v>
+      </c>
+      <c r="BK171">
+        <v>1.73</v>
+      </c>
+      <c r="BL171">
+        <v>2</v>
+      </c>
+      <c r="BM171">
+        <v>2.05</v>
+      </c>
+      <c r="BN171">
+        <v>1.72</v>
+      </c>
+      <c r="BO171">
+        <v>2.6</v>
+      </c>
+      <c r="BP171">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7327068</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>77</v>
+      </c>
+      <c r="H172" t="s">
+        <v>87</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>202</v>
+      </c>
+      <c r="P172" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q172">
+        <v>3.4</v>
+      </c>
+      <c r="R172">
+        <v>2.1</v>
+      </c>
+      <c r="S172">
+        <v>3.25</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>9</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>2.65</v>
+      </c>
+      <c r="AA172">
+        <v>3.25</v>
+      </c>
+      <c r="AB172">
+        <v>2.5</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>8.6</v>
+      </c>
+      <c r="AE172">
+        <v>1.3</v>
+      </c>
+      <c r="AF172">
+        <v>3.1</v>
+      </c>
+      <c r="AG172">
+        <v>1.9</v>
+      </c>
+      <c r="AH172">
+        <v>1.8</v>
+      </c>
+      <c r="AI172">
+        <v>1.8</v>
+      </c>
+      <c r="AJ172">
+        <v>1.95</v>
+      </c>
+      <c r="AK172">
+        <v>1.5</v>
+      </c>
+      <c r="AL172">
+        <v>1.25</v>
+      </c>
+      <c r="AM172">
+        <v>1.45</v>
+      </c>
+      <c r="AN172">
+        <v>1.63</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
+      </c>
+      <c r="AP172">
+        <v>1.78</v>
+      </c>
+      <c r="AQ172">
+        <v>0.89</v>
+      </c>
+      <c r="AR172">
+        <v>1.57</v>
+      </c>
+      <c r="AS172">
+        <v>1.48</v>
+      </c>
+      <c r="AT172">
+        <v>3.05</v>
+      </c>
+      <c r="AU172">
+        <v>4</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>10</v>
+      </c>
+      <c r="AZ172">
+        <v>6</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>6</v>
+      </c>
+      <c r="BD172">
+        <v>1.91</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>2.2</v>
+      </c>
+      <c r="BG172">
+        <v>1.18</v>
+      </c>
+      <c r="BH172">
+        <v>4.7</v>
+      </c>
+      <c r="BI172">
+        <v>1.32</v>
+      </c>
+      <c r="BJ172">
+        <v>3.2</v>
+      </c>
+      <c r="BK172">
+        <v>1.7</v>
+      </c>
+      <c r="BL172">
+        <v>2.05</v>
+      </c>
+      <c r="BM172">
+        <v>1.87</v>
+      </c>
+      <c r="BN172">
+        <v>1.87</v>
+      </c>
+      <c r="BO172">
+        <v>2.35</v>
+      </c>
+      <c r="BP172">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7327067</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>83</v>
+      </c>
+      <c r="H173" t="s">
+        <v>89</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>203</v>
+      </c>
+      <c r="P173" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>3.4</v>
+      </c>
+      <c r="T173">
+        <v>1.36</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.75</v>
+      </c>
+      <c r="W173">
+        <v>1.4</v>
+      </c>
+      <c r="X173">
+        <v>7</v>
+      </c>
+      <c r="Y173">
+        <v>1.1</v>
+      </c>
+      <c r="Z173">
+        <v>2.35</v>
+      </c>
+      <c r="AA173">
+        <v>3.3</v>
+      </c>
+      <c r="AB173">
+        <v>2.81</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>9</v>
+      </c>
+      <c r="AE173">
+        <v>1.28</v>
+      </c>
+      <c r="AF173">
+        <v>3.5</v>
+      </c>
+      <c r="AG173">
+        <v>1.76</v>
+      </c>
+      <c r="AH173">
+        <v>1.95</v>
+      </c>
+      <c r="AI173">
+        <v>1.67</v>
+      </c>
+      <c r="AJ173">
+        <v>2.1</v>
+      </c>
+      <c r="AK173">
+        <v>1.42</v>
+      </c>
+      <c r="AL173">
+        <v>1.25</v>
+      </c>
+      <c r="AM173">
+        <v>1.57</v>
+      </c>
+      <c r="AN173">
+        <v>0.13</v>
+      </c>
+      <c r="AO173">
+        <v>0.38</v>
+      </c>
+      <c r="AP173">
+        <v>0.44</v>
+      </c>
+      <c r="AQ173">
+        <v>0.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.4</v>
+      </c>
+      <c r="AS173">
+        <v>1.22</v>
+      </c>
+      <c r="AT173">
+        <v>2.62</v>
+      </c>
+      <c r="AU173">
+        <v>7</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>3</v>
+      </c>
+      <c r="AX173">
+        <v>8</v>
+      </c>
+      <c r="AY173">
+        <v>10</v>
+      </c>
+      <c r="AZ173">
+        <v>12</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>6</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.95</v>
+      </c>
+      <c r="BE173">
+        <v>8</v>
+      </c>
+      <c r="BF173">
+        <v>2.05</v>
+      </c>
+      <c r="BG173">
+        <v>1.23</v>
+      </c>
+      <c r="BH173">
+        <v>4</v>
+      </c>
+      <c r="BI173">
+        <v>1.4</v>
+      </c>
+      <c r="BJ173">
+        <v>2.75</v>
+      </c>
+      <c r="BK173">
+        <v>1.7</v>
+      </c>
+      <c r="BL173">
+        <v>2.05</v>
+      </c>
+      <c r="BM173">
+        <v>2.1</v>
+      </c>
+      <c r="BN173">
+        <v>1.7</v>
+      </c>
+      <c r="BO173">
+        <v>2.7</v>
+      </c>
+      <c r="BP173">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7327069</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45459.08333333334</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>82</v>
+      </c>
+      <c r="H174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>204</v>
+      </c>
+      <c r="P174" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q174">
+        <v>2.5</v>
+      </c>
+      <c r="R174">
+        <v>2.2</v>
+      </c>
+      <c r="S174">
+        <v>4.5</v>
+      </c>
+      <c r="T174">
+        <v>1.4</v>
+      </c>
+      <c r="U174">
+        <v>2.75</v>
+      </c>
+      <c r="V174">
+        <v>2.75</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>8</v>
+      </c>
+      <c r="Y174">
+        <v>1.08</v>
+      </c>
+      <c r="Z174">
+        <v>1.94</v>
+      </c>
+      <c r="AA174">
+        <v>3.46</v>
+      </c>
+      <c r="AB174">
+        <v>3.98</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE174">
+        <v>1.26</v>
+      </c>
+      <c r="AF174">
+        <v>3.34</v>
+      </c>
+      <c r="AG174">
+        <v>2.01</v>
+      </c>
+      <c r="AH174">
+        <v>1.8</v>
+      </c>
+      <c r="AI174">
+        <v>1.8</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>1.14</v>
+      </c>
+      <c r="AL174">
+        <v>1.28</v>
+      </c>
+      <c r="AM174">
+        <v>1.97</v>
+      </c>
+      <c r="AN174">
+        <v>1.25</v>
+      </c>
+      <c r="AO174">
+        <v>0.75</v>
+      </c>
+      <c r="AP174">
+        <v>1.44</v>
+      </c>
+      <c r="AQ174">
+        <v>0.67</v>
+      </c>
+      <c r="AR174">
+        <v>1.8</v>
+      </c>
+      <c r="AS174">
+        <v>1.54</v>
+      </c>
+      <c r="AT174">
+        <v>3.34</v>
+      </c>
+      <c r="AU174">
+        <v>4</v>
+      </c>
+      <c r="AV174">
+        <v>2</v>
+      </c>
+      <c r="AW174">
+        <v>8</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>12</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>5</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.53</v>
+      </c>
+      <c r="BE174">
+        <v>8.5</v>
+      </c>
+      <c r="BF174">
+        <v>3</v>
+      </c>
+      <c r="BG174">
+        <v>1.17</v>
+      </c>
+      <c r="BH174">
+        <v>4.9</v>
+      </c>
+      <c r="BI174">
+        <v>1.3</v>
+      </c>
+      <c r="BJ174">
+        <v>3.35</v>
+      </c>
+      <c r="BK174">
+        <v>1.5</v>
+      </c>
+      <c r="BL174">
+        <v>2.45</v>
+      </c>
+      <c r="BM174">
+        <v>2.05</v>
+      </c>
+      <c r="BN174">
+        <v>1.7</v>
+      </c>
+      <c r="BO174">
+        <v>2.25</v>
+      </c>
+      <c r="BP174">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7327070</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45459.14583333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>73</v>
+      </c>
+      <c r="H175" t="s">
+        <v>74</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>205</v>
+      </c>
+      <c r="P175" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q175">
+        <v>2.63</v>
+      </c>
+      <c r="R175">
+        <v>2.1</v>
+      </c>
+      <c r="S175">
+        <v>4.33</v>
+      </c>
+      <c r="T175">
+        <v>1.44</v>
+      </c>
+      <c r="U175">
+        <v>2.63</v>
+      </c>
+      <c r="V175">
+        <v>3</v>
+      </c>
+      <c r="W175">
+        <v>1.36</v>
+      </c>
+      <c r="X175">
+        <v>9</v>
+      </c>
+      <c r="Y175">
+        <v>1.07</v>
+      </c>
+      <c r="Z175">
+        <v>1.92</v>
+      </c>
+      <c r="AA175">
+        <v>3.3</v>
+      </c>
+      <c r="AB175">
+        <v>3.83</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>8.4</v>
+      </c>
+      <c r="AE175">
+        <v>1.31</v>
+      </c>
+      <c r="AF175">
+        <v>3.04</v>
+      </c>
+      <c r="AG175">
+        <v>2</v>
+      </c>
+      <c r="AH175">
+        <v>1.72</v>
+      </c>
+      <c r="AI175">
+        <v>1.91</v>
+      </c>
+      <c r="AJ175">
+        <v>1.91</v>
+      </c>
+      <c r="AK175">
+        <v>1.25</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.8</v>
+      </c>
+      <c r="AN175">
+        <v>1.22</v>
+      </c>
+      <c r="AO175">
+        <v>0.57</v>
+      </c>
+      <c r="AP175">
+        <v>1.4</v>
+      </c>
+      <c r="AQ175">
+        <v>0.5</v>
+      </c>
+      <c r="AR175">
+        <v>1.34</v>
+      </c>
+      <c r="AS175">
+        <v>1.17</v>
+      </c>
+      <c r="AT175">
+        <v>2.51</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>10</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>15</v>
+      </c>
+      <c r="AZ175">
+        <v>7</v>
+      </c>
+      <c r="BA175">
+        <v>4</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>7</v>
+      </c>
+      <c r="BD175">
+        <v>1.67</v>
+      </c>
+      <c r="BE175">
+        <v>8</v>
+      </c>
+      <c r="BF175">
+        <v>2.5</v>
+      </c>
+      <c r="BG175">
+        <v>1.23</v>
+      </c>
+      <c r="BH175">
+        <v>4</v>
+      </c>
+      <c r="BI175">
+        <v>1.4</v>
+      </c>
+      <c r="BJ175">
+        <v>2.75</v>
+      </c>
+      <c r="BK175">
+        <v>1.88</v>
+      </c>
+      <c r="BL175">
+        <v>1.92</v>
+      </c>
+      <c r="BM175">
+        <v>2.1</v>
+      </c>
+      <c r="BN175">
+        <v>1.7</v>
+      </c>
+      <c r="BO175">
+        <v>2.7</v>
+      </c>
+      <c r="BP175">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7327074</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>86</v>
+      </c>
+      <c r="H176" t="s">
+        <v>78</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>206</v>
+      </c>
+      <c r="P176" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q176">
+        <v>3.1</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>3.75</v>
+      </c>
+      <c r="T176">
+        <v>1.44</v>
+      </c>
+      <c r="U176">
+        <v>2.63</v>
+      </c>
+      <c r="V176">
+        <v>3.25</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>9</v>
+      </c>
+      <c r="Y176">
+        <v>1.07</v>
+      </c>
+      <c r="Z176">
+        <v>2.35</v>
+      </c>
+      <c r="AA176">
+        <v>3.2</v>
+      </c>
+      <c r="AB176">
+        <v>2.88</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
+      <c r="AE176">
+        <v>1.33</v>
+      </c>
+      <c r="AF176">
+        <v>3</v>
+      </c>
+      <c r="AG176">
+        <v>2</v>
+      </c>
+      <c r="AH176">
+        <v>1.72</v>
+      </c>
+      <c r="AI176">
+        <v>1.91</v>
+      </c>
+      <c r="AJ176">
+        <v>1.91</v>
+      </c>
+      <c r="AK176">
+        <v>1.36</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.57</v>
+      </c>
+      <c r="AN176">
+        <v>2.29</v>
+      </c>
+      <c r="AO176">
+        <v>1.25</v>
+      </c>
+      <c r="AP176">
+        <v>2.38</v>
+      </c>
+      <c r="AQ176">
+        <v>1.11</v>
+      </c>
+      <c r="AR176">
+        <v>1.65</v>
+      </c>
+      <c r="AS176">
+        <v>1.53</v>
+      </c>
+      <c r="AT176">
+        <v>3.18</v>
+      </c>
+      <c r="AU176">
+        <v>6</v>
+      </c>
+      <c r="AV176">
+        <v>7</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>5</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>10</v>
+      </c>
+      <c r="BC176">
+        <v>13</v>
+      </c>
+      <c r="BD176">
+        <v>1.83</v>
+      </c>
+      <c r="BE176">
+        <v>8</v>
+      </c>
+      <c r="BF176">
+        <v>2.25</v>
+      </c>
+      <c r="BG176">
+        <v>1.23</v>
+      </c>
+      <c r="BH176">
+        <v>4</v>
+      </c>
+      <c r="BI176">
+        <v>1.4</v>
+      </c>
+      <c r="BJ176">
+        <v>2.75</v>
+      </c>
+      <c r="BK176">
+        <v>1.73</v>
+      </c>
+      <c r="BL176">
+        <v>2</v>
+      </c>
+      <c r="BM176">
+        <v>2.1</v>
+      </c>
+      <c r="BN176">
+        <v>1.7</v>
+      </c>
+      <c r="BO176">
+        <v>2.7</v>
+      </c>
+      <c r="BP176">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7327071</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>84</v>
+      </c>
+      <c r="H177" t="s">
+        <v>88</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>108</v>
+      </c>
+      <c r="P177" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q177">
+        <v>2.5</v>
+      </c>
+      <c r="R177">
+        <v>2.2</v>
+      </c>
+      <c r="S177">
+        <v>4.5</v>
+      </c>
+      <c r="T177">
+        <v>1.4</v>
+      </c>
+      <c r="U177">
+        <v>2.75</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.4</v>
+      </c>
+      <c r="X177">
+        <v>8</v>
+      </c>
+      <c r="Y177">
+        <v>1.08</v>
+      </c>
+      <c r="Z177">
+        <v>1.8</v>
+      </c>
+      <c r="AA177">
+        <v>3.45</v>
+      </c>
+      <c r="AB177">
+        <v>4.17</v>
+      </c>
+      <c r="AC177">
+        <v>1.06</v>
+      </c>
+      <c r="AD177">
+        <v>8.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.3</v>
+      </c>
+      <c r="AF177">
+        <v>3.3</v>
+      </c>
+      <c r="AG177">
+        <v>1.85</v>
+      </c>
+      <c r="AH177">
+        <v>1.85</v>
+      </c>
+      <c r="AI177">
+        <v>1.8</v>
+      </c>
+      <c r="AJ177">
+        <v>1.95</v>
+      </c>
+      <c r="AK177">
+        <v>1.18</v>
+      </c>
+      <c r="AL177">
+        <v>1.22</v>
+      </c>
+      <c r="AM177">
+        <v>1.9</v>
+      </c>
+      <c r="AN177">
+        <v>2.5</v>
+      </c>
+      <c r="AO177">
+        <v>1.25</v>
+      </c>
+      <c r="AP177">
+        <v>2.33</v>
+      </c>
+      <c r="AQ177">
+        <v>1.22</v>
+      </c>
+      <c r="AR177">
+        <v>1.32</v>
+      </c>
+      <c r="AS177">
+        <v>1.34</v>
+      </c>
+      <c r="AT177">
+        <v>2.66</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>4</v>
+      </c>
+      <c r="AX177">
+        <v>10</v>
+      </c>
+      <c r="AY177">
+        <v>7</v>
+      </c>
+      <c r="AZ177">
+        <v>16</v>
+      </c>
+      <c r="BA177">
+        <v>2</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>5</v>
+      </c>
+      <c r="BD177">
+        <v>1.62</v>
+      </c>
+      <c r="BE177">
+        <v>8.5</v>
+      </c>
+      <c r="BF177">
+        <v>2.62</v>
+      </c>
+      <c r="BG177">
+        <v>1.23</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>1.4</v>
+      </c>
+      <c r="BJ177">
+        <v>2.75</v>
+      </c>
+      <c r="BK177">
+        <v>1.73</v>
+      </c>
+      <c r="BL177">
+        <v>2</v>
+      </c>
+      <c r="BM177">
+        <v>2.1</v>
+      </c>
+      <c r="BN177">
+        <v>1.7</v>
+      </c>
+      <c r="BO177">
+        <v>2.7</v>
+      </c>
+      <c r="BP177">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7327072</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>85</v>
+      </c>
+      <c r="H178" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>111</v>
+      </c>
+      <c r="P178" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q178">
+        <v>2.75</v>
+      </c>
+      <c r="R178">
+        <v>2.2</v>
+      </c>
+      <c r="S178">
+        <v>4</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>2.02</v>
+      </c>
+      <c r="AA178">
+        <v>3.3</v>
+      </c>
+      <c r="AB178">
+        <v>3.49</v>
+      </c>
+      <c r="AC178">
+        <v>1.06</v>
+      </c>
+      <c r="AD178">
+        <v>8.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.3</v>
+      </c>
+      <c r="AF178">
+        <v>3.3</v>
+      </c>
+      <c r="AG178">
+        <v>1.8</v>
+      </c>
+      <c r="AH178">
+        <v>1.9</v>
+      </c>
+      <c r="AI178">
+        <v>1.75</v>
+      </c>
+      <c r="AJ178">
+        <v>2</v>
+      </c>
+      <c r="AK178">
+        <v>1.28</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>1.75</v>
+      </c>
+      <c r="AN178">
+        <v>1.33</v>
+      </c>
+      <c r="AO178">
+        <v>0.89</v>
+      </c>
+      <c r="AP178">
+        <v>1.3</v>
+      </c>
+      <c r="AQ178">
+        <v>0.9</v>
+      </c>
+      <c r="AR178">
+        <v>1.3</v>
+      </c>
+      <c r="AS178">
+        <v>1.25</v>
+      </c>
+      <c r="AT178">
+        <v>2.55</v>
+      </c>
+      <c r="AU178">
+        <v>3</v>
+      </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
+      <c r="AW178">
+        <v>8</v>
+      </c>
+      <c r="AX178">
+        <v>2</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>8</v>
+      </c>
+      <c r="BB178">
+        <v>3</v>
+      </c>
+      <c r="BC178">
+        <v>11</v>
+      </c>
+      <c r="BD178">
+        <v>1.8</v>
+      </c>
+      <c r="BE178">
+        <v>8</v>
+      </c>
+      <c r="BF178">
+        <v>2.38</v>
+      </c>
+      <c r="BG178">
+        <v>1.2</v>
+      </c>
+      <c r="BH178">
+        <v>4.2</v>
+      </c>
+      <c r="BI178">
+        <v>1.37</v>
+      </c>
+      <c r="BJ178">
+        <v>2.9</v>
+      </c>
+      <c r="BK178">
+        <v>1.73</v>
+      </c>
+      <c r="BL178">
+        <v>2</v>
+      </c>
+      <c r="BM178">
+        <v>2</v>
+      </c>
+      <c r="BN178">
+        <v>1.75</v>
+      </c>
+      <c r="BO178">
+        <v>2.55</v>
+      </c>
+      <c r="BP178">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7327073</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45459.28125</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>71</v>
+      </c>
+      <c r="H179" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>124</v>
+      </c>
+      <c r="P179" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q179">
+        <v>2.75</v>
+      </c>
+      <c r="R179">
+        <v>2.1</v>
+      </c>
+      <c r="S179">
+        <v>4.33</v>
+      </c>
+      <c r="T179">
+        <v>1.44</v>
+      </c>
+      <c r="U179">
+        <v>2.63</v>
+      </c>
+      <c r="V179">
+        <v>3.25</v>
+      </c>
+      <c r="W179">
+        <v>1.33</v>
+      </c>
+      <c r="X179">
+        <v>9</v>
+      </c>
+      <c r="Y179">
+        <v>1.07</v>
+      </c>
+      <c r="Z179">
+        <v>2.12</v>
+      </c>
+      <c r="AA179">
+        <v>3.2</v>
+      </c>
+      <c r="AB179">
+        <v>3.32</v>
+      </c>
+      <c r="AC179">
+        <v>1.03</v>
+      </c>
+      <c r="AD179">
+        <v>8</v>
+      </c>
+      <c r="AE179">
+        <v>1.33</v>
+      </c>
+      <c r="AF179">
+        <v>2.93</v>
+      </c>
+      <c r="AG179">
+        <v>2.03</v>
+      </c>
+      <c r="AH179">
+        <v>1.7</v>
+      </c>
+      <c r="AI179">
+        <v>1.91</v>
+      </c>
+      <c r="AJ179">
+        <v>1.91</v>
+      </c>
+      <c r="AK179">
+        <v>1.3</v>
+      </c>
+      <c r="AL179">
+        <v>1.31</v>
+      </c>
+      <c r="AM179">
+        <v>1.72</v>
+      </c>
+      <c r="AN179">
+        <v>1.22</v>
+      </c>
+      <c r="AO179">
+        <v>0.67</v>
+      </c>
+      <c r="AP179">
+        <v>1.2</v>
+      </c>
+      <c r="AQ179">
+        <v>0.7</v>
+      </c>
+      <c r="AR179">
+        <v>1</v>
+      </c>
+      <c r="AS179">
+        <v>1.47</v>
+      </c>
+      <c r="AT179">
+        <v>2.47</v>
+      </c>
+      <c r="AU179">
+        <v>4</v>
+      </c>
+      <c r="AV179">
+        <v>7</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>6</v>
+      </c>
+      <c r="AY179">
+        <v>7</v>
+      </c>
+      <c r="AZ179">
+        <v>13</v>
+      </c>
+      <c r="BA179">
+        <v>5</v>
+      </c>
+      <c r="BB179">
+        <v>5</v>
+      </c>
+      <c r="BC179">
+        <v>10</v>
+      </c>
+      <c r="BD179">
+        <v>1.95</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>2.1</v>
+      </c>
+      <c r="BG179">
+        <v>1.23</v>
+      </c>
+      <c r="BH179">
+        <v>4</v>
+      </c>
+      <c r="BI179">
+        <v>1.4</v>
+      </c>
+      <c r="BJ179">
+        <v>2.75</v>
+      </c>
+      <c r="BK179">
+        <v>1.67</v>
+      </c>
+      <c r="BL179">
+        <v>2.1</v>
+      </c>
+      <c r="BM179">
+        <v>2</v>
+      </c>
+      <c r="BN179">
+        <v>1.8</v>
+      </c>
+      <c r="BO179">
+        <v>2.7</v>
+      </c>
+      <c r="BP179">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,9 @@
     <t>['15', '25']</t>
   </si>
   <si>
+    <t>['27', '87', '90']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -893,6 +896,9 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['2', '77']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,7 +1725,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1925,7 +1931,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2337,7 +2343,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2749,7 +2755,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2955,7 +2961,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3367,7 +3373,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3573,7 +3579,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3651,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.75</v>
@@ -3779,7 +3785,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3985,7 +3991,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4397,7 +4403,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4809,7 +4815,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5015,7 +5021,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5096,7 +5102,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5427,7 +5433,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5633,7 +5639,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6663,7 +6669,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7075,7 +7081,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7487,7 +7493,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7693,7 +7699,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7980,7 +7986,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8105,7 +8111,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8311,7 +8317,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8517,7 +8523,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8723,7 +8729,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8929,7 +8935,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9135,7 +9141,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9341,7 +9347,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9547,7 +9553,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9753,7 +9759,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10577,7 +10583,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -12225,7 +12231,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12637,7 +12643,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12718,7 +12724,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -13127,7 +13133,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -13255,7 +13261,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13461,7 +13467,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14079,7 +14085,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14285,7 +14291,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14491,7 +14497,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14903,7 +14909,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15805,7 +15811,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -16139,7 +16145,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16217,7 +16223,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>0.7</v>
@@ -16345,7 +16351,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16551,7 +16557,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16838,7 +16844,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17169,7 +17175,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17581,7 +17587,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17787,7 +17793,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18074,7 +18080,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18199,7 +18205,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18405,7 +18411,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18817,7 +18823,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19435,7 +19441,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19641,7 +19647,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19847,7 +19853,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20465,7 +20471,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20671,7 +20677,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21083,7 +21089,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21289,7 +21295,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21701,7 +21707,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21985,7 +21991,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>0.9</v>
@@ -22113,7 +22119,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22194,7 +22200,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22525,7 +22531,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23143,7 +23149,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23555,7 +23561,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23761,7 +23767,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23967,7 +23973,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24173,7 +24179,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24791,7 +24797,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24997,7 +25003,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25203,7 +25209,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25409,7 +25415,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25821,7 +25827,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26027,7 +26033,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26233,7 +26239,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26439,7 +26445,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -27057,7 +27063,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27263,7 +27269,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27469,7 +27475,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27675,7 +27681,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27881,7 +27887,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29117,7 +29123,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29323,7 +29329,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29941,7 +29947,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30147,7 +30153,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30559,7 +30565,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30765,7 +30771,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30846,7 +30852,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ144">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -31589,7 +31595,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32001,7 +32007,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32207,7 +32213,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32413,7 +32419,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32619,7 +32625,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33031,7 +33037,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33112,7 +33118,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR155">
         <v>1.58</v>
@@ -33237,7 +33243,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33933,7 +33939,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
         <v>1.11</v>
@@ -34061,7 +34067,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34473,7 +34479,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34679,7 +34685,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34885,7 +34891,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35503,7 +35509,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35915,7 +35921,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36121,7 +36127,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36199,7 +36205,7 @@
         <v>2.38</v>
       </c>
       <c r="AP170">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
         <v>2.44</v>
@@ -36327,7 +36333,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37357,7 +37363,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37975,7 +37981,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38132,6 +38138,212 @@
       </c>
       <c r="BP179">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7327015</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45462.29166666666</v>
+      </c>
+      <c r="F180">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>80</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>5</v>
+      </c>
+      <c r="O180" t="s">
+        <v>207</v>
+      </c>
+      <c r="P180" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q180">
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <v>2.57</v>
+      </c>
+      <c r="S180">
+        <v>2.46</v>
+      </c>
+      <c r="T180">
+        <v>1.25</v>
+      </c>
+      <c r="U180">
+        <v>3.45</v>
+      </c>
+      <c r="V180">
+        <v>2.28</v>
+      </c>
+      <c r="W180">
+        <v>1.65</v>
+      </c>
+      <c r="X180">
+        <v>4.9</v>
+      </c>
+      <c r="Y180">
+        <v>1.16</v>
+      </c>
+      <c r="Z180">
+        <v>3.7</v>
+      </c>
+      <c r="AA180">
+        <v>4.3</v>
+      </c>
+      <c r="AB180">
+        <v>1.85</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>11</v>
+      </c>
+      <c r="AE180">
+        <v>1.16</v>
+      </c>
+      <c r="AF180">
+        <v>5.45</v>
+      </c>
+      <c r="AG180">
+        <v>1.53</v>
+      </c>
+      <c r="AH180">
+        <v>2.25</v>
+      </c>
+      <c r="AI180">
+        <v>1.48</v>
+      </c>
+      <c r="AJ180">
+        <v>2.45</v>
+      </c>
+      <c r="AK180">
+        <v>1.9</v>
+      </c>
+      <c r="AL180">
+        <v>1.2</v>
+      </c>
+      <c r="AM180">
+        <v>1.28</v>
+      </c>
+      <c r="AN180">
+        <v>1.29</v>
+      </c>
+      <c r="AO180">
+        <v>1.5</v>
+      </c>
+      <c r="AP180">
+        <v>1.5</v>
+      </c>
+      <c r="AQ180">
+        <v>1.33</v>
+      </c>
+      <c r="AR180">
+        <v>1.74</v>
+      </c>
+      <c r="AS180">
+        <v>1.68</v>
+      </c>
+      <c r="AT180">
+        <v>3.42</v>
+      </c>
+      <c r="AU180">
+        <v>4</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>10</v>
+      </c>
+      <c r="AZ180">
+        <v>3</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>4</v>
+      </c>
+      <c r="BC180">
+        <v>9</v>
+      </c>
+      <c r="BD180">
+        <v>3</v>
+      </c>
+      <c r="BE180">
+        <v>9</v>
+      </c>
+      <c r="BF180">
+        <v>1.5</v>
+      </c>
+      <c r="BG180">
+        <v>1.17</v>
+      </c>
+      <c r="BH180">
+        <v>4.5</v>
+      </c>
+      <c r="BI180">
+        <v>1.27</v>
+      </c>
+      <c r="BJ180">
+        <v>3.28</v>
+      </c>
+      <c r="BK180">
+        <v>1.5</v>
+      </c>
+      <c r="BL180">
+        <v>2.41</v>
+      </c>
+      <c r="BM180">
+        <v>1.95</v>
+      </c>
+      <c r="BN180">
+        <v>1.77</v>
+      </c>
+      <c r="BO180">
+        <v>2.34</v>
+      </c>
+      <c r="BP180">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -38280,22 +38280,22 @@
         <v>3.42</v>
       </c>
       <c r="AU180">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV180">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW180">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY180">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ180">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA180">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,18 @@
     <t>['27', '87', '90']</t>
   </si>
   <si>
+    <t>['61', '90+7']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['70', '85']</t>
+  </si>
+  <si>
+    <t>['58', '60', '76']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -683,9 +695,6 @@
   </si>
   <si>
     <t>['57', '74']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['28', '32', '57']</t>
@@ -899,6 +908,15 @@
   </si>
   <si>
     <t>['2', '77']</t>
+  </si>
+  <si>
+    <t>['17', '90+11']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['3', '42']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,7 +1743,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1806,7 +1824,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1931,7 +1949,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2009,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ4">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2343,7 +2361,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2421,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ6">
         <v>1.22</v>
@@ -2627,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2755,7 +2773,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2833,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2961,7 +2979,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3042,7 +3060,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3245,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3373,7 +3391,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3451,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.22</v>
@@ -3579,7 +3597,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3660,7 +3678,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3785,7 +3803,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3991,7 +4009,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4403,7 +4421,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4687,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -4815,7 +4833,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4896,7 +4914,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5021,7 +5039,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5102,7 +5120,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5305,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ20">
         <v>1.22</v>
@@ -5433,7 +5451,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5511,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5639,7 +5657,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5717,7 +5735,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
         <v>1.11</v>
@@ -5926,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6129,10 +6147,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6669,7 +6687,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6750,7 +6768,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ27">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -6956,7 +6974,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7081,7 +7099,7 @@
         <v>109</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7493,7 +7511,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7574,7 +7592,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7699,7 +7717,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7986,7 +8004,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8111,7 +8129,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8189,10 +8207,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8317,7 +8335,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8395,7 +8413,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ35">
         <v>0.9</v>
@@ -8523,7 +8541,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8601,10 +8619,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8729,7 +8747,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8807,7 +8825,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1.22</v>
@@ -8935,7 +8953,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9141,7 +9159,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9222,7 +9240,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9347,7 +9365,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9425,7 +9443,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40">
         <v>0.89</v>
@@ -9553,7 +9571,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9631,10 +9649,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9759,7 +9777,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10458,7 +10476,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10583,7 +10601,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10661,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10867,10 +10885,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -11691,10 +11709,10 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ51">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -11900,7 +11918,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12103,7 +12121,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53">
         <v>1.22</v>
@@ -12231,7 +12249,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12309,7 +12327,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12515,10 +12533,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12643,7 +12661,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12721,10 +12739,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12927,10 +12945,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13136,7 +13154,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13261,7 +13279,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13342,7 +13360,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ59">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13467,7 +13485,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13957,7 +13975,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.11</v>
@@ -14085,7 +14103,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14291,7 +14309,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14372,7 +14390,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14497,7 +14515,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14909,7 +14927,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15196,7 +15214,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15399,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15608,7 +15626,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -16017,7 +16035,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
         <v>0.89</v>
@@ -16145,7 +16163,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16351,7 +16369,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16557,7 +16575,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16635,10 +16653,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16844,7 +16862,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17050,7 +17068,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17175,7 +17193,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17253,10 +17271,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ78">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17462,7 +17480,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17587,7 +17605,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17665,10 +17683,10 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17793,7 +17811,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17871,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ81">
         <v>0.5</v>
@@ -18080,7 +18098,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18205,7 +18223,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18411,7 +18429,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18489,10 +18507,10 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18695,10 +18713,10 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ85">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18823,7 +18841,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19107,7 +19125,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19441,7 +19459,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19647,7 +19665,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19728,7 +19746,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -19853,7 +19871,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20137,7 +20155,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ92">
         <v>2.44</v>
@@ -20346,7 +20364,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ93">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20471,7 +20489,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20552,7 +20570,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20677,7 +20695,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20961,10 +20979,10 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21089,7 +21107,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21170,7 +21188,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ97">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21295,7 +21313,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21373,10 +21391,10 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21579,7 +21597,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ99">
         <v>0.5</v>
@@ -21707,7 +21725,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21785,10 +21803,10 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ100">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22119,7 +22137,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22200,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22531,7 +22549,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22612,7 +22630,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ104">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22815,7 +22833,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -23149,7 +23167,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23227,7 +23245,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107">
         <v>1.33</v>
@@ -23561,7 +23579,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23767,7 +23785,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23848,7 +23866,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -23973,7 +23991,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24179,7 +24197,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24257,7 +24275,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>0.9</v>
@@ -24463,10 +24481,10 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -24672,7 +24690,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ114">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24797,7 +24815,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25003,7 +25021,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25084,7 +25102,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25209,7 +25227,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25290,7 +25308,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ117">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -25415,7 +25433,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25493,10 +25511,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ118">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -25699,7 +25717,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ119">
         <v>0.5</v>
@@ -25827,7 +25845,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25905,7 +25923,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ120">
         <v>1.22</v>
@@ -26033,7 +26051,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26239,7 +26257,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26320,7 +26338,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ122">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26445,7 +26463,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26523,7 +26541,7 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ123">
         <v>0.5</v>
@@ -26729,7 +26747,7 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ124">
         <v>2.44</v>
@@ -27063,7 +27081,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27269,7 +27287,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27350,7 +27368,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ127">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27475,7 +27493,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27681,7 +27699,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27887,7 +27905,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27968,7 +27986,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ130">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -28174,7 +28192,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR131">
         <v>0.9399999999999999</v>
@@ -28583,7 +28601,7 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ133">
         <v>0.7</v>
@@ -28789,7 +28807,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -28995,10 +29013,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29123,7 +29141,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29329,7 +29347,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29407,10 +29425,10 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ137">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29616,7 +29634,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ138">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -29819,10 +29837,10 @@
         <v>1.29</v>
       </c>
       <c r="AP139">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ139">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -29947,7 +29965,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30028,7 +30046,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30153,7 +30171,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30231,10 +30249,10 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ141">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30437,7 +30455,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ142">
         <v>1.33</v>
@@ -30565,7 +30583,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30643,7 +30661,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ143">
         <v>0.89</v>
@@ -30771,7 +30789,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30852,7 +30870,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -31055,10 +31073,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ145">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31264,7 +31282,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ146">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -31595,7 +31613,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31673,7 +31691,7 @@
         <v>0.5</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ148">
         <v>0.33</v>
@@ -31879,7 +31897,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ149">
         <v>1.22</v>
@@ -32007,7 +32025,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32088,7 +32106,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ150">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR150">
         <v>1.3</v>
@@ -32213,7 +32231,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32291,7 +32309,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ151">
         <v>0.7</v>
@@ -32419,7 +32437,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32500,7 +32518,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32625,7 +32643,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33037,7 +33055,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="Q155">
         <v>4.5</v>
@@ -33118,7 +33136,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.58</v>
@@ -33243,7 +33261,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33324,7 +33342,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ156">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>0.96</v>
@@ -33733,7 +33751,7 @@
         <v>2.29</v>
       </c>
       <c r="AP158">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ158">
         <v>2.44</v>
@@ -34067,7 +34085,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34145,10 +34163,10 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ160">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR160">
         <v>1.45</v>
@@ -34479,7 +34497,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34685,7 +34703,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34763,7 +34781,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ163">
         <v>1.22</v>
@@ -34891,7 +34909,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -34969,7 +34987,7 @@
         <v>1.33</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ164">
         <v>1.5</v>
@@ -35175,10 +35193,10 @@
         <v>2.38</v>
       </c>
       <c r="AP165">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ165">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35384,7 +35402,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR166">
         <v>1.37</v>
@@ -35509,7 +35527,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35587,7 +35605,7 @@
         <v>0.43</v>
       </c>
       <c r="AP167">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
         <v>0.33</v>
@@ -35796,7 +35814,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ168">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -35921,7 +35939,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -35999,10 +36017,10 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR169">
         <v>1.41</v>
@@ -36127,7 +36145,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36333,7 +36351,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37032,7 +37050,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ174">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR174">
         <v>1.8</v>
@@ -37363,7 +37381,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37441,7 +37459,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ176">
         <v>1.11</v>
@@ -37981,7 +37999,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38187,7 +38205,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38268,7 +38286,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -38344,6 +38362,1860 @@
       </c>
       <c r="BP180">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7327075</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45465.125</v>
+      </c>
+      <c r="F181">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>75</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>91</v>
+      </c>
+      <c r="P181" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q181">
+        <v>2.45</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>5</v>
+      </c>
+      <c r="T181">
+        <v>1.53</v>
+      </c>
+      <c r="U181">
+        <v>2.35</v>
+      </c>
+      <c r="V181">
+        <v>3.5</v>
+      </c>
+      <c r="W181">
+        <v>1.25</v>
+      </c>
+      <c r="X181">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y181">
+        <v>1.04</v>
+      </c>
+      <c r="Z181">
+        <v>1.75</v>
+      </c>
+      <c r="AA181">
+        <v>3.45</v>
+      </c>
+      <c r="AB181">
+        <v>4.75</v>
+      </c>
+      <c r="AC181">
+        <v>1.09</v>
+      </c>
+      <c r="AD181">
+        <v>7</v>
+      </c>
+      <c r="AE181">
+        <v>1.54</v>
+      </c>
+      <c r="AF181">
+        <v>2.49</v>
+      </c>
+      <c r="AG181">
+        <v>2.6</v>
+      </c>
+      <c r="AH181">
+        <v>1.47</v>
+      </c>
+      <c r="AI181">
+        <v>2.2</v>
+      </c>
+      <c r="AJ181">
+        <v>1.57</v>
+      </c>
+      <c r="AK181">
+        <v>1.17</v>
+      </c>
+      <c r="AL181">
+        <v>1.25</v>
+      </c>
+      <c r="AM181">
+        <v>2</v>
+      </c>
+      <c r="AN181">
+        <v>1.78</v>
+      </c>
+      <c r="AO181">
+        <v>1.75</v>
+      </c>
+      <c r="AP181">
+        <v>1.7</v>
+      </c>
+      <c r="AQ181">
+        <v>1.67</v>
+      </c>
+      <c r="AR181">
+        <v>1.45</v>
+      </c>
+      <c r="AS181">
+        <v>1.21</v>
+      </c>
+      <c r="AT181">
+        <v>2.66</v>
+      </c>
+      <c r="AU181">
+        <v>2</v>
+      </c>
+      <c r="AV181">
+        <v>3</v>
+      </c>
+      <c r="AW181">
+        <v>5</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>7</v>
+      </c>
+      <c r="AZ181">
+        <v>8</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>4</v>
+      </c>
+      <c r="BC181">
+        <v>9</v>
+      </c>
+      <c r="BD181">
+        <v>1.4</v>
+      </c>
+      <c r="BE181">
+        <v>9</v>
+      </c>
+      <c r="BF181">
+        <v>3.5</v>
+      </c>
+      <c r="BG181">
+        <v>1.25</v>
+      </c>
+      <c r="BH181">
+        <v>3.42</v>
+      </c>
+      <c r="BI181">
+        <v>1.48</v>
+      </c>
+      <c r="BJ181">
+        <v>2.47</v>
+      </c>
+      <c r="BK181">
+        <v>1.95</v>
+      </c>
+      <c r="BL181">
+        <v>1.77</v>
+      </c>
+      <c r="BM181">
+        <v>2.36</v>
+      </c>
+      <c r="BN181">
+        <v>1.52</v>
+      </c>
+      <c r="BO181">
+        <v>3.18</v>
+      </c>
+      <c r="BP181">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7327076</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45465.25</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>79</v>
+      </c>
+      <c r="H182" t="s">
+        <v>71</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>127</v>
+      </c>
+      <c r="P182" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q182">
+        <v>3.4</v>
+      </c>
+      <c r="R182">
+        <v>1.9</v>
+      </c>
+      <c r="S182">
+        <v>3.4</v>
+      </c>
+      <c r="T182">
+        <v>1.52</v>
+      </c>
+      <c r="U182">
+        <v>2.39</v>
+      </c>
+      <c r="V182">
+        <v>3.4</v>
+      </c>
+      <c r="W182">
+        <v>1.28</v>
+      </c>
+      <c r="X182">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="Y182">
+        <v>1.04</v>
+      </c>
+      <c r="Z182">
+        <v>2.7</v>
+      </c>
+      <c r="AA182">
+        <v>2.9</v>
+      </c>
+      <c r="AB182">
+        <v>2.8</v>
+      </c>
+      <c r="AC182">
+        <v>1.09</v>
+      </c>
+      <c r="AD182">
+        <v>7</v>
+      </c>
+      <c r="AE182">
+        <v>1.44</v>
+      </c>
+      <c r="AF182">
+        <v>2.7</v>
+      </c>
+      <c r="AG182">
+        <v>2.4</v>
+      </c>
+      <c r="AH182">
+        <v>1.54</v>
+      </c>
+      <c r="AI182">
+        <v>1.95</v>
+      </c>
+      <c r="AJ182">
+        <v>1.8</v>
+      </c>
+      <c r="AK182">
+        <v>1.44</v>
+      </c>
+      <c r="AL182">
+        <v>1.3</v>
+      </c>
+      <c r="AM182">
+        <v>1.45</v>
+      </c>
+      <c r="AN182">
+        <v>1.33</v>
+      </c>
+      <c r="AO182">
+        <v>1.88</v>
+      </c>
+      <c r="AP182">
+        <v>1.5</v>
+      </c>
+      <c r="AQ182">
+        <v>1.67</v>
+      </c>
+      <c r="AR182">
+        <v>1.53</v>
+      </c>
+      <c r="AS182">
+        <v>1.44</v>
+      </c>
+      <c r="AT182">
+        <v>2.97</v>
+      </c>
+      <c r="AU182">
+        <v>3</v>
+      </c>
+      <c r="AV182">
+        <v>6</v>
+      </c>
+      <c r="AW182">
+        <v>5</v>
+      </c>
+      <c r="AX182">
+        <v>7</v>
+      </c>
+      <c r="AY182">
+        <v>8</v>
+      </c>
+      <c r="AZ182">
+        <v>13</v>
+      </c>
+      <c r="BA182">
+        <v>7</v>
+      </c>
+      <c r="BB182">
+        <v>11</v>
+      </c>
+      <c r="BC182">
+        <v>18</v>
+      </c>
+      <c r="BD182">
+        <v>1.91</v>
+      </c>
+      <c r="BE182">
+        <v>8</v>
+      </c>
+      <c r="BF182">
+        <v>2.1</v>
+      </c>
+      <c r="BG182">
+        <v>1.27</v>
+      </c>
+      <c r="BH182">
+        <v>3.28</v>
+      </c>
+      <c r="BI182">
+        <v>1.52</v>
+      </c>
+      <c r="BJ182">
+        <v>2.36</v>
+      </c>
+      <c r="BK182">
+        <v>1.95</v>
+      </c>
+      <c r="BL182">
+        <v>1.77</v>
+      </c>
+      <c r="BM182">
+        <v>2.46</v>
+      </c>
+      <c r="BN182">
+        <v>1.48</v>
+      </c>
+      <c r="BO182">
+        <v>3.34</v>
+      </c>
+      <c r="BP182">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7327077</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45465.25</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>88</v>
+      </c>
+      <c r="H183" t="s">
+        <v>81</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183" t="s">
+        <v>208</v>
+      </c>
+      <c r="P183" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q183">
+        <v>3.3</v>
+      </c>
+      <c r="R183">
+        <v>2.2</v>
+      </c>
+      <c r="S183">
+        <v>2.85</v>
+      </c>
+      <c r="T183">
+        <v>1.34</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>2.6</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6</v>
+      </c>
+      <c r="Y183">
+        <v>1.1</v>
+      </c>
+      <c r="Z183">
+        <v>2.9</v>
+      </c>
+      <c r="AA183">
+        <v>3.5</v>
+      </c>
+      <c r="AB183">
+        <v>2.3</v>
+      </c>
+      <c r="AC183">
+        <v>1.05</v>
+      </c>
+      <c r="AD183">
+        <v>9.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.25</v>
+      </c>
+      <c r="AF183">
+        <v>3.75</v>
+      </c>
+      <c r="AG183">
+        <v>1.76</v>
+      </c>
+      <c r="AH183">
+        <v>2</v>
+      </c>
+      <c r="AI183">
+        <v>1.62</v>
+      </c>
+      <c r="AJ183">
+        <v>2.2</v>
+      </c>
+      <c r="AK183">
+        <v>1.6</v>
+      </c>
+      <c r="AL183">
+        <v>1.22</v>
+      </c>
+      <c r="AM183">
+        <v>1.42</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
+        <v>0.67</v>
+      </c>
+      <c r="AP183">
+        <v>1</v>
+      </c>
+      <c r="AQ183">
+        <v>0.7</v>
+      </c>
+      <c r="AR183">
+        <v>1.43</v>
+      </c>
+      <c r="AS183">
+        <v>1.46</v>
+      </c>
+      <c r="AT183">
+        <v>2.89</v>
+      </c>
+      <c r="AU183">
+        <v>7</v>
+      </c>
+      <c r="AV183">
+        <v>9</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>10</v>
+      </c>
+      <c r="AY183">
+        <v>12</v>
+      </c>
+      <c r="AZ183">
+        <v>19</v>
+      </c>
+      <c r="BA183">
+        <v>5</v>
+      </c>
+      <c r="BB183">
+        <v>7</v>
+      </c>
+      <c r="BC183">
+        <v>12</v>
+      </c>
+      <c r="BD183">
+        <v>1.8</v>
+      </c>
+      <c r="BE183">
+        <v>8</v>
+      </c>
+      <c r="BF183">
+        <v>2.38</v>
+      </c>
+      <c r="BG183">
+        <v>1.2</v>
+      </c>
+      <c r="BH183">
+        <v>3.9</v>
+      </c>
+      <c r="BI183">
+        <v>1.4</v>
+      </c>
+      <c r="BJ183">
+        <v>2.72</v>
+      </c>
+      <c r="BK183">
+        <v>1.77</v>
+      </c>
+      <c r="BL183">
+        <v>1.95</v>
+      </c>
+      <c r="BM183">
+        <v>2.16</v>
+      </c>
+      <c r="BN183">
+        <v>1.62</v>
+      </c>
+      <c r="BO183">
+        <v>2.84</v>
+      </c>
+      <c r="BP183">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7327078</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45465.27083333334</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>72</v>
+      </c>
+      <c r="H184" t="s">
+        <v>77</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>209</v>
+      </c>
+      <c r="P184" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q184">
+        <v>3.75</v>
+      </c>
+      <c r="R184">
+        <v>2.05</v>
+      </c>
+      <c r="S184">
+        <v>2.8</v>
+      </c>
+      <c r="T184">
+        <v>1.42</v>
+      </c>
+      <c r="U184">
+        <v>2.65</v>
+      </c>
+      <c r="V184">
+        <v>2.95</v>
+      </c>
+      <c r="W184">
+        <v>1.35</v>
+      </c>
+      <c r="X184">
+        <v>7.4</v>
+      </c>
+      <c r="Y184">
+        <v>1.06</v>
+      </c>
+      <c r="Z184">
+        <v>3.4</v>
+      </c>
+      <c r="AA184">
+        <v>3.3</v>
+      </c>
+      <c r="AB184">
+        <v>2.1</v>
+      </c>
+      <c r="AC184">
+        <v>1.06</v>
+      </c>
+      <c r="AD184">
+        <v>8.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.33</v>
+      </c>
+      <c r="AF184">
+        <v>3.2</v>
+      </c>
+      <c r="AG184">
+        <v>1.98</v>
+      </c>
+      <c r="AH184">
+        <v>1.77</v>
+      </c>
+      <c r="AI184">
+        <v>1.8</v>
+      </c>
+      <c r="AJ184">
+        <v>1.95</v>
+      </c>
+      <c r="AK184">
+        <v>1.66</v>
+      </c>
+      <c r="AL184">
+        <v>1.25</v>
+      </c>
+      <c r="AM184">
+        <v>1.33</v>
+      </c>
+      <c r="AN184">
+        <v>1.25</v>
+      </c>
+      <c r="AO184">
+        <v>1.33</v>
+      </c>
+      <c r="AP184">
+        <v>1.22</v>
+      </c>
+      <c r="AQ184">
+        <v>1.3</v>
+      </c>
+      <c r="AR184">
+        <v>1.26</v>
+      </c>
+      <c r="AS184">
+        <v>1.29</v>
+      </c>
+      <c r="AT184">
+        <v>2.55</v>
+      </c>
+      <c r="AU184">
+        <v>7</v>
+      </c>
+      <c r="AV184">
+        <v>5</v>
+      </c>
+      <c r="AW184">
+        <v>9</v>
+      </c>
+      <c r="AX184">
+        <v>9</v>
+      </c>
+      <c r="AY184">
+        <v>16</v>
+      </c>
+      <c r="AZ184">
+        <v>14</v>
+      </c>
+      <c r="BA184">
+        <v>8</v>
+      </c>
+      <c r="BB184">
+        <v>8</v>
+      </c>
+      <c r="BC184">
+        <v>16</v>
+      </c>
+      <c r="BD184">
+        <v>2.2</v>
+      </c>
+      <c r="BE184">
+        <v>8</v>
+      </c>
+      <c r="BF184">
+        <v>1.91</v>
+      </c>
+      <c r="BG184">
+        <v>1.2</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>1.3</v>
+      </c>
+      <c r="BJ184">
+        <v>3.08</v>
+      </c>
+      <c r="BK184">
+        <v>1.7</v>
+      </c>
+      <c r="BL184">
+        <v>2.05</v>
+      </c>
+      <c r="BM184">
+        <v>2</v>
+      </c>
+      <c r="BN184">
+        <v>1.73</v>
+      </c>
+      <c r="BO184">
+        <v>2.49</v>
+      </c>
+      <c r="BP184">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7327079</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45465.27083333334</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>86</v>
+      </c>
+      <c r="H185" t="s">
+        <v>82</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>210</v>
+      </c>
+      <c r="P185" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q185">
+        <v>4</v>
+      </c>
+      <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
+        <v>2.7</v>
+      </c>
+      <c r="T185">
+        <v>1.45</v>
+      </c>
+      <c r="U185">
+        <v>2.55</v>
+      </c>
+      <c r="V185">
+        <v>3.05</v>
+      </c>
+      <c r="W185">
+        <v>1.33</v>
+      </c>
+      <c r="X185">
+        <v>7.9</v>
+      </c>
+      <c r="Y185">
+        <v>1.05</v>
+      </c>
+      <c r="Z185">
+        <v>3.7</v>
+      </c>
+      <c r="AA185">
+        <v>3.3</v>
+      </c>
+      <c r="AB185">
+        <v>2</v>
+      </c>
+      <c r="AC185">
+        <v>1.07</v>
+      </c>
+      <c r="AD185">
+        <v>8</v>
+      </c>
+      <c r="AE185">
+        <v>1.36</v>
+      </c>
+      <c r="AF185">
+        <v>2.95</v>
+      </c>
+      <c r="AG185">
+        <v>2.12</v>
+      </c>
+      <c r="AH185">
+        <v>1.68</v>
+      </c>
+      <c r="AI185">
+        <v>1.9</v>
+      </c>
+      <c r="AJ185">
+        <v>1.83</v>
+      </c>
+      <c r="AK185">
+        <v>1.75</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.28</v>
+      </c>
+      <c r="AN185">
+        <v>2.38</v>
+      </c>
+      <c r="AO185">
+        <v>2.22</v>
+      </c>
+      <c r="AP185">
+        <v>2.44</v>
+      </c>
+      <c r="AQ185">
+        <v>2</v>
+      </c>
+      <c r="AR185">
+        <v>1.6</v>
+      </c>
+      <c r="AS185">
+        <v>1.43</v>
+      </c>
+      <c r="AT185">
+        <v>3.03</v>
+      </c>
+      <c r="AU185">
+        <v>4</v>
+      </c>
+      <c r="AV185">
+        <v>5</v>
+      </c>
+      <c r="AW185">
+        <v>2</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>6</v>
+      </c>
+      <c r="AZ185">
+        <v>7</v>
+      </c>
+      <c r="BA185">
+        <v>3</v>
+      </c>
+      <c r="BB185">
+        <v>9</v>
+      </c>
+      <c r="BC185">
+        <v>12</v>
+      </c>
+      <c r="BD185">
+        <v>2.3</v>
+      </c>
+      <c r="BE185">
+        <v>8</v>
+      </c>
+      <c r="BF185">
+        <v>1.8</v>
+      </c>
+      <c r="BG185">
+        <v>1.22</v>
+      </c>
+      <c r="BH185">
+        <v>3.8</v>
+      </c>
+      <c r="BI185">
+        <v>1.32</v>
+      </c>
+      <c r="BJ185">
+        <v>2.98</v>
+      </c>
+      <c r="BK185">
+        <v>1.58</v>
+      </c>
+      <c r="BL185">
+        <v>2.23</v>
+      </c>
+      <c r="BM185">
+        <v>1.95</v>
+      </c>
+      <c r="BN185">
+        <v>1.77</v>
+      </c>
+      <c r="BO185">
+        <v>2.57</v>
+      </c>
+      <c r="BP185">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7327081</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>78</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>91</v>
+      </c>
+      <c r="P186" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q186">
+        <v>4.35</v>
+      </c>
+      <c r="R186">
+        <v>2.31</v>
+      </c>
+      <c r="S186">
+        <v>2.61</v>
+      </c>
+      <c r="T186">
+        <v>1.38</v>
+      </c>
+      <c r="U186">
+        <v>3.16</v>
+      </c>
+      <c r="V186">
+        <v>2.84</v>
+      </c>
+      <c r="W186">
+        <v>1.45</v>
+      </c>
+      <c r="X186">
+        <v>6</v>
+      </c>
+      <c r="Y186">
+        <v>1.09</v>
+      </c>
+      <c r="Z186">
+        <v>3.7</v>
+      </c>
+      <c r="AA186">
+        <v>3.5</v>
+      </c>
+      <c r="AB186">
+        <v>1.95</v>
+      </c>
+      <c r="AC186">
+        <v>1.02</v>
+      </c>
+      <c r="AD186">
+        <v>10</v>
+      </c>
+      <c r="AE186">
+        <v>1.29</v>
+      </c>
+      <c r="AF186">
+        <v>3.4</v>
+      </c>
+      <c r="AG186">
+        <v>1.87</v>
+      </c>
+      <c r="AH186">
+        <v>1.88</v>
+      </c>
+      <c r="AI186">
+        <v>1.73</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.83</v>
+      </c>
+      <c r="AL186">
+        <v>1.3</v>
+      </c>
+      <c r="AM186">
+        <v>1.29</v>
+      </c>
+      <c r="AN186">
+        <v>1.33</v>
+      </c>
+      <c r="AO186">
+        <v>1.33</v>
+      </c>
+      <c r="AP186">
+        <v>1.2</v>
+      </c>
+      <c r="AQ186">
+        <v>1.5</v>
+      </c>
+      <c r="AR186">
+        <v>1.43</v>
+      </c>
+      <c r="AS186">
+        <v>1.62</v>
+      </c>
+      <c r="AT186">
+        <v>3.05</v>
+      </c>
+      <c r="AU186">
+        <v>4</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>15</v>
+      </c>
+      <c r="AX186">
+        <v>13</v>
+      </c>
+      <c r="AY186">
+        <v>19</v>
+      </c>
+      <c r="AZ186">
+        <v>16</v>
+      </c>
+      <c r="BA186">
+        <v>7</v>
+      </c>
+      <c r="BB186">
+        <v>5</v>
+      </c>
+      <c r="BC186">
+        <v>12</v>
+      </c>
+      <c r="BD186">
+        <v>2.62</v>
+      </c>
+      <c r="BE186">
+        <v>8.5</v>
+      </c>
+      <c r="BF186">
+        <v>1.62</v>
+      </c>
+      <c r="BG186">
+        <v>1.18</v>
+      </c>
+      <c r="BH186">
+        <v>4</v>
+      </c>
+      <c r="BI186">
+        <v>1.38</v>
+      </c>
+      <c r="BJ186">
+        <v>2.8</v>
+      </c>
+      <c r="BK186">
+        <v>1.7</v>
+      </c>
+      <c r="BL186">
+        <v>2.05</v>
+      </c>
+      <c r="BM186">
+        <v>2.11</v>
+      </c>
+      <c r="BN186">
+        <v>1.65</v>
+      </c>
+      <c r="BO186">
+        <v>2.75</v>
+      </c>
+      <c r="BP186">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7327080</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>87</v>
+      </c>
+      <c r="H187" t="s">
+        <v>84</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>4</v>
+      </c>
+      <c r="O187" t="s">
+        <v>125</v>
+      </c>
+      <c r="P187" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q187">
+        <v>2.9</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>3.6</v>
+      </c>
+      <c r="T187">
+        <v>1.43</v>
+      </c>
+      <c r="U187">
+        <v>2.65</v>
+      </c>
+      <c r="V187">
+        <v>2.95</v>
+      </c>
+      <c r="W187">
+        <v>1.35</v>
+      </c>
+      <c r="X187">
+        <v>7.4</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>2.25</v>
+      </c>
+      <c r="AA187">
+        <v>3.3</v>
+      </c>
+      <c r="AB187">
+        <v>3.1</v>
+      </c>
+      <c r="AC187">
+        <v>1.07</v>
+      </c>
+      <c r="AD187">
+        <v>8</v>
+      </c>
+      <c r="AE187">
+        <v>1.33</v>
+      </c>
+      <c r="AF187">
+        <v>3.1</v>
+      </c>
+      <c r="AG187">
+        <v>2.07</v>
+      </c>
+      <c r="AH187">
+        <v>1.71</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.95</v>
+      </c>
+      <c r="AK187">
+        <v>1.36</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.63</v>
+      </c>
+      <c r="AN187">
+        <v>1.89</v>
+      </c>
+      <c r="AO187">
+        <v>1.67</v>
+      </c>
+      <c r="AP187">
+        <v>1.8</v>
+      </c>
+      <c r="AQ187">
+        <v>1.6</v>
+      </c>
+      <c r="AR187">
+        <v>1.66</v>
+      </c>
+      <c r="AS187">
+        <v>1.39</v>
+      </c>
+      <c r="AT187">
+        <v>3.05</v>
+      </c>
+      <c r="AU187">
+        <v>7</v>
+      </c>
+      <c r="AV187">
+        <v>7</v>
+      </c>
+      <c r="AW187">
+        <v>8</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
+        <v>15</v>
+      </c>
+      <c r="AZ187">
+        <v>12</v>
+      </c>
+      <c r="BA187">
+        <v>9</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>10</v>
+      </c>
+      <c r="BD187">
+        <v>1.67</v>
+      </c>
+      <c r="BE187">
+        <v>8</v>
+      </c>
+      <c r="BF187">
+        <v>2.5</v>
+      </c>
+      <c r="BG187">
+        <v>1.22</v>
+      </c>
+      <c r="BH187">
+        <v>3.8</v>
+      </c>
+      <c r="BI187">
+        <v>1.35</v>
+      </c>
+      <c r="BJ187">
+        <v>2.84</v>
+      </c>
+      <c r="BK187">
+        <v>1.7</v>
+      </c>
+      <c r="BL187">
+        <v>2.05</v>
+      </c>
+      <c r="BM187">
+        <v>2.06</v>
+      </c>
+      <c r="BN187">
+        <v>1.71</v>
+      </c>
+      <c r="BO187">
+        <v>2.69</v>
+      </c>
+      <c r="BP187">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7327083</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>74</v>
+      </c>
+      <c r="H188" t="s">
+        <v>83</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188" t="s">
+        <v>211</v>
+      </c>
+      <c r="P188" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>2.1</v>
+      </c>
+      <c r="S188">
+        <v>3.2</v>
+      </c>
+      <c r="T188">
+        <v>1.37</v>
+      </c>
+      <c r="U188">
+        <v>2.95</v>
+      </c>
+      <c r="V188">
+        <v>2.71</v>
+      </c>
+      <c r="W188">
+        <v>1.43</v>
+      </c>
+      <c r="X188">
+        <v>6.75</v>
+      </c>
+      <c r="Y188">
+        <v>1.09</v>
+      </c>
+      <c r="Z188">
+        <v>2.5</v>
+      </c>
+      <c r="AA188">
+        <v>3.4</v>
+      </c>
+      <c r="AB188">
+        <v>2.7</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>9.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.28</v>
+      </c>
+      <c r="AF188">
+        <v>3.55</v>
+      </c>
+      <c r="AG188">
+        <v>1.84</v>
+      </c>
+      <c r="AH188">
+        <v>1.92</v>
+      </c>
+      <c r="AI188">
+        <v>1.65</v>
+      </c>
+      <c r="AJ188">
+        <v>2.05</v>
+      </c>
+      <c r="AK188">
+        <v>1.45</v>
+      </c>
+      <c r="AL188">
+        <v>1.25</v>
+      </c>
+      <c r="AM188">
+        <v>1.5</v>
+      </c>
+      <c r="AN188">
+        <v>1.11</v>
+      </c>
+      <c r="AO188">
+        <v>1.11</v>
+      </c>
+      <c r="AP188">
+        <v>1.3</v>
+      </c>
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>1.44</v>
+      </c>
+      <c r="AS188">
+        <v>1.27</v>
+      </c>
+      <c r="AT188">
+        <v>2.71</v>
+      </c>
+      <c r="AU188">
+        <v>10</v>
+      </c>
+      <c r="AV188">
+        <v>9</v>
+      </c>
+      <c r="AW188">
+        <v>8</v>
+      </c>
+      <c r="AX188">
+        <v>8</v>
+      </c>
+      <c r="AY188">
+        <v>18</v>
+      </c>
+      <c r="AZ188">
+        <v>17</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>8</v>
+      </c>
+      <c r="BC188">
+        <v>13</v>
+      </c>
+      <c r="BD188">
+        <v>1.83</v>
+      </c>
+      <c r="BE188">
+        <v>8.5</v>
+      </c>
+      <c r="BF188">
+        <v>2.2</v>
+      </c>
+      <c r="BG188">
+        <v>1.18</v>
+      </c>
+      <c r="BH188">
+        <v>4.33</v>
+      </c>
+      <c r="BI188">
+        <v>1.27</v>
+      </c>
+      <c r="BJ188">
+        <v>3.28</v>
+      </c>
+      <c r="BK188">
+        <v>1.5</v>
+      </c>
+      <c r="BL188">
+        <v>2.41</v>
+      </c>
+      <c r="BM188">
+        <v>1.85</v>
+      </c>
+      <c r="BN188">
+        <v>1.85</v>
+      </c>
+      <c r="BO188">
+        <v>2.36</v>
+      </c>
+      <c r="BP188">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7327082</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>76</v>
+      </c>
+      <c r="H189" t="s">
+        <v>85</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>91</v>
+      </c>
+      <c r="P189" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q189">
+        <v>3.1</v>
+      </c>
+      <c r="R189">
+        <v>2.1</v>
+      </c>
+      <c r="S189">
+        <v>3.2</v>
+      </c>
+      <c r="T189">
+        <v>1.39</v>
+      </c>
+      <c r="U189">
+        <v>2.8</v>
+      </c>
+      <c r="V189">
+        <v>2.75</v>
+      </c>
+      <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>6.95</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2.5</v>
+      </c>
+      <c r="AA189">
+        <v>3.4</v>
+      </c>
+      <c r="AB189">
+        <v>2.7</v>
+      </c>
+      <c r="AC189">
+        <v>1.06</v>
+      </c>
+      <c r="AD189">
+        <v>8.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.28</v>
+      </c>
+      <c r="AF189">
+        <v>3.5</v>
+      </c>
+      <c r="AG189">
+        <v>1.88</v>
+      </c>
+      <c r="AH189">
+        <v>1.88</v>
+      </c>
+      <c r="AI189">
+        <v>1.7</v>
+      </c>
+      <c r="AJ189">
+        <v>2.1</v>
+      </c>
+      <c r="AK189">
+        <v>1.47</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.5</v>
+      </c>
+      <c r="AN189">
+        <v>1</v>
+      </c>
+      <c r="AO189">
+        <v>1.75</v>
+      </c>
+      <c r="AP189">
+        <v>0.89</v>
+      </c>
+      <c r="AQ189">
+        <v>1.89</v>
+      </c>
+      <c r="AR189">
+        <v>1.41</v>
+      </c>
+      <c r="AS189">
+        <v>1.2</v>
+      </c>
+      <c r="AT189">
+        <v>2.61</v>
+      </c>
+      <c r="AU189">
+        <v>11</v>
+      </c>
+      <c r="AV189">
+        <v>3</v>
+      </c>
+      <c r="AW189">
+        <v>15</v>
+      </c>
+      <c r="AX189">
+        <v>8</v>
+      </c>
+      <c r="AY189">
+        <v>26</v>
+      </c>
+      <c r="AZ189">
+        <v>11</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>3</v>
+      </c>
+      <c r="BC189">
+        <v>13</v>
+      </c>
+      <c r="BD189">
+        <v>1.67</v>
+      </c>
+      <c r="BE189">
+        <v>8.5</v>
+      </c>
+      <c r="BF189">
+        <v>2.5</v>
+      </c>
+      <c r="BG189">
+        <v>1.22</v>
+      </c>
+      <c r="BH189">
+        <v>3.8</v>
+      </c>
+      <c r="BI189">
+        <v>1.34</v>
+      </c>
+      <c r="BJ189">
+        <v>2.88</v>
+      </c>
+      <c r="BK189">
+        <v>1.62</v>
+      </c>
+      <c r="BL189">
+        <v>2.16</v>
+      </c>
+      <c r="BM189">
+        <v>2.05</v>
+      </c>
+      <c r="BN189">
+        <v>1.7</v>
+      </c>
+      <c r="BO189">
+        <v>2.65</v>
+      </c>
+      <c r="BP189">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -918,6 +918,9 @@
   <si>
     <t>['3', '42']</t>
   </si>
+  <si>
+    <t>['63']</t>
+  </si>
 </sst>
 </file>
 
@@ -1278,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3472,7 +3475,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -7383,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
         <v>0.89</v>
@@ -7795,7 +7798,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
         <v>2.44</v>
@@ -9034,7 +9037,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ38">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -11300,7 +11303,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -13357,7 +13360,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13769,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -14184,7 +14187,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ63">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -18095,7 +18098,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -19949,7 +19952,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ91">
         <v>0.7</v>
@@ -20776,7 +20779,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -25099,7 +25102,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ116">
         <v>1.89</v>
@@ -25926,7 +25929,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ120">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -28395,7 +28398,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ132">
         <v>0.9</v>
@@ -29222,7 +29225,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -31488,7 +31491,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ147">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -32103,7 +32106,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ150">
         <v>1.6</v>
@@ -34578,7 +34581,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ162">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -39534,22 +39537,22 @@
         <v>3.05</v>
       </c>
       <c r="AU186">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV186">
         <v>3</v>
       </c>
       <c r="AW186">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AX186">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY186">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ186">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA186">
         <v>7</v>
@@ -39743,19 +39746,19 @@
         <v>7</v>
       </c>
       <c r="AV187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW187">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY187">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ187">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA187">
         <v>9</v>
@@ -39946,22 +39949,22 @@
         <v>2.71</v>
       </c>
       <c r="AU188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV188">
         <v>9</v>
       </c>
       <c r="AW188">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX188">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY188">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ188">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA188">
         <v>5</v>
@@ -40152,22 +40155,22 @@
         <v>2.61</v>
       </c>
       <c r="AU189">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV189">
         <v>3</v>
       </c>
       <c r="AW189">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AX189">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY189">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ189">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA189">
         <v>10</v>
@@ -40216,6 +40219,212 @@
       </c>
       <c r="BP189">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7327084</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45466.08333333334</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" t="s">
+        <v>80</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>91</v>
+      </c>
+      <c r="P190" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q190">
+        <v>4.19</v>
+      </c>
+      <c r="R190">
+        <v>2.62</v>
+      </c>
+      <c r="S190">
+        <v>2.35</v>
+      </c>
+      <c r="T190">
+        <v>1.25</v>
+      </c>
+      <c r="U190">
+        <v>3.6</v>
+      </c>
+      <c r="V190">
+        <v>2.23</v>
+      </c>
+      <c r="W190">
+        <v>1.68</v>
+      </c>
+      <c r="X190">
+        <v>4.5</v>
+      </c>
+      <c r="Y190">
+        <v>1.17</v>
+      </c>
+      <c r="Z190">
+        <v>3.3</v>
+      </c>
+      <c r="AA190">
+        <v>4</v>
+      </c>
+      <c r="AB190">
+        <v>1.95</v>
+      </c>
+      <c r="AC190">
+        <v>1.01</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
+        <v>1.13</v>
+      </c>
+      <c r="AF190">
+        <v>5</v>
+      </c>
+      <c r="AG190">
+        <v>1.9</v>
+      </c>
+      <c r="AH190">
+        <v>1.9</v>
+      </c>
+      <c r="AI190">
+        <v>1.48</v>
+      </c>
+      <c r="AJ190">
+        <v>2.5</v>
+      </c>
+      <c r="AK190">
+        <v>1.88</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.3</v>
+      </c>
+      <c r="AN190">
+        <v>0.89</v>
+      </c>
+      <c r="AO190">
+        <v>1.22</v>
+      </c>
+      <c r="AP190">
+        <v>0.8</v>
+      </c>
+      <c r="AQ190">
+        <v>1.4</v>
+      </c>
+      <c r="AR190">
+        <v>1.27</v>
+      </c>
+      <c r="AS190">
+        <v>1.58</v>
+      </c>
+      <c r="AT190">
+        <v>2.85</v>
+      </c>
+      <c r="AU190">
+        <v>5</v>
+      </c>
+      <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>6</v>
+      </c>
+      <c r="AX190">
+        <v>5</v>
+      </c>
+      <c r="AY190">
+        <v>11</v>
+      </c>
+      <c r="AZ190">
+        <v>12</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>8</v>
+      </c>
+      <c r="BC190">
+        <v>12</v>
+      </c>
+      <c r="BD190">
+        <v>2.1</v>
+      </c>
+      <c r="BE190">
+        <v>8</v>
+      </c>
+      <c r="BF190">
+        <v>1.91</v>
+      </c>
+      <c r="BG190">
+        <v>1.22</v>
+      </c>
+      <c r="BH190">
+        <v>4</v>
+      </c>
+      <c r="BI190">
+        <v>1.31</v>
+      </c>
+      <c r="BJ190">
+        <v>3.04</v>
+      </c>
+      <c r="BK190">
+        <v>1.7</v>
+      </c>
+      <c r="BL190">
+        <v>2.05</v>
+      </c>
+      <c r="BM190">
+        <v>2.05</v>
+      </c>
+      <c r="BN190">
+        <v>1.7</v>
+      </c>
+      <c r="BO190">
+        <v>2.52</v>
+      </c>
+      <c r="BP190">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,21 @@
     <t>['58', '60', '76']</t>
   </si>
   <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['51', '60', '90+5']</t>
+  </si>
+  <si>
+    <t>['36', '47']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['20', '70']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -758,9 +773,6 @@
   </si>
   <si>
     <t>['20']</t>
-  </si>
-  <si>
-    <t>['8']</t>
   </si>
   <si>
     <t>['45', '89']</t>
@@ -920,6 +932,9 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['42', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1618,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1746,7 +1761,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1824,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ3">
         <v>1.6</v>
@@ -1952,7 +1967,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2030,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -2236,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2364,7 +2379,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2445,7 +2460,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ6">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2651,7 +2666,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2776,7 +2791,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2982,7 +2997,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3060,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ9">
         <v>1.89</v>
@@ -3394,7 +3409,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3475,7 +3490,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3600,7 +3615,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3806,7 +3821,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3884,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.9</v>
@@ -4012,7 +4027,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4090,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4296,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ15">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4424,7 +4439,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4502,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4711,7 +4726,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4836,7 +4851,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4914,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18">
         <v>1.3</v>
@@ -5042,7 +5057,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5120,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5329,7 +5344,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ20">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5454,7 +5469,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5535,7 +5550,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5660,7 +5675,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5738,10 +5753,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6356,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6562,10 +6577,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ26">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6690,7 +6705,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6768,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -6974,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7180,10 +7195,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7389,7 +7404,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7514,7 +7529,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7592,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ31">
         <v>1.89</v>
@@ -7720,7 +7735,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7801,7 +7816,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ32">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8004,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8132,7 +8147,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8338,7 +8353,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8544,7 +8559,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8750,7 +8765,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8831,7 +8846,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -8956,7 +8971,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9034,10 +9049,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9162,7 +9177,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9240,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
         <v>0.7</v>
@@ -9368,7 +9383,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9449,7 +9464,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ40">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9574,7 +9589,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9780,7 +9795,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9858,10 +9873,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10067,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10270,10 +10285,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10476,7 +10491,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.89</v>
@@ -10604,7 +10619,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10685,7 +10700,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -11094,7 +11109,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ48">
         <v>0.9</v>
@@ -11300,10 +11315,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11506,10 +11521,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ50">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11918,7 +11933,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ52">
         <v>1.6</v>
@@ -12124,10 +12139,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12252,7 +12267,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12333,7 +12348,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12664,7 +12679,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13282,7 +13297,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13488,7 +13503,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13566,10 +13581,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13775,7 +13790,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -13981,7 +13996,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14106,7 +14121,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14184,10 +14199,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14312,7 +14327,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14518,7 +14533,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14596,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ65">
         <v>0.9</v>
@@ -14802,10 +14817,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -14930,7 +14945,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15008,10 +15023,10 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15214,7 +15229,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ68">
         <v>1.67</v>
@@ -15423,7 +15438,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15626,7 +15641,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ70">
         <v>1.6</v>
@@ -15835,7 +15850,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -16041,7 +16056,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16166,7 +16181,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16247,7 +16262,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16372,7 +16387,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16453,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16578,7 +16593,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16656,7 +16671,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>1.67</v>
@@ -16862,7 +16877,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -17068,7 +17083,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17196,7 +17211,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17480,7 +17495,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ79">
         <v>0.7</v>
@@ -17608,7 +17623,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17814,7 +17829,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17895,7 +17910,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18226,7 +18241,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18304,10 +18319,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18432,7 +18447,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18844,7 +18859,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18922,7 +18937,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ86">
         <v>0.9</v>
@@ -19131,7 +19146,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19334,10 +19349,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19462,7 +19477,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19540,10 +19555,10 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ89">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19668,7 +19683,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19746,7 +19761,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ90">
         <v>1.3</v>
@@ -19874,7 +19889,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -19955,7 +19970,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ91">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20158,10 +20173,10 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20364,7 +20379,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20492,7 +20507,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20698,7 +20713,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20776,10 +20791,10 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21110,7 +21125,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21188,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ97">
         <v>0.7</v>
@@ -21316,7 +21331,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21603,7 +21618,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21728,7 +21743,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22140,7 +22155,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22424,10 +22439,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ103">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22552,7 +22567,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22630,7 +22645,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22839,7 +22854,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ105">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -23042,10 +23057,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ106">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23170,7 +23185,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23251,7 +23266,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23454,10 +23469,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23582,7 +23597,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23660,10 +23675,10 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23788,7 +23803,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23866,7 +23881,7 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -23994,7 +24009,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24072,10 +24087,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ111">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24200,7 +24215,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24690,7 +24705,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ114">
         <v>0.7</v>
@@ -24818,7 +24833,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24896,10 +24911,10 @@
         <v>2.4</v>
       </c>
       <c r="AP115">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ115">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25024,7 +25039,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25230,7 +25245,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25308,7 +25323,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ117">
         <v>1.67</v>
@@ -25436,7 +25451,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25723,7 +25738,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ119">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25848,7 +25863,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25929,7 +25944,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ120">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -26054,7 +26069,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26135,7 +26150,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR121">
         <v>1.28</v>
@@ -26260,7 +26275,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26338,7 +26353,7 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ122">
         <v>1.67</v>
@@ -26466,7 +26481,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26544,10 +26559,10 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ123">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -26753,7 +26768,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ124">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -26956,10 +26971,10 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27084,7 +27099,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27162,10 +27177,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27290,7 +27305,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27368,7 +27383,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ127">
         <v>2</v>
@@ -27496,7 +27511,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27574,10 +27589,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ128">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27702,7 +27717,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27780,10 +27795,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ129">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27908,7 +27923,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -27986,7 +28001,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ130">
         <v>1.6</v>
@@ -28192,7 +28207,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ131">
         <v>1.89</v>
@@ -28607,7 +28622,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ133">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -28813,7 +28828,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29144,7 +29159,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29225,7 +29240,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29350,7 +29365,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29634,7 +29649,7 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ138">
         <v>1.67</v>
@@ -29968,7 +29983,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30046,7 +30061,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ140">
         <v>1.3</v>
@@ -30174,7 +30189,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30461,7 +30476,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30586,7 +30601,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30664,10 +30679,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ143">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -30792,7 +30807,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30870,7 +30885,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ144">
         <v>1.5</v>
@@ -31282,7 +31297,7 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ146">
         <v>2</v>
@@ -31488,10 +31503,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -31616,7 +31631,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31697,7 +31712,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ148">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -31903,7 +31918,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ149">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -32028,7 +32043,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32234,7 +32249,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32312,10 +32327,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ151">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR151">
         <v>1.18</v>
@@ -32440,7 +32455,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32646,7 +32661,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32724,10 +32739,10 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -32930,10 +32945,10 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33136,7 +33151,7 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ155">
         <v>1.5</v>
@@ -33264,7 +33279,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33342,7 +33357,7 @@
         <v>1.13</v>
       </c>
       <c r="AP156">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33548,10 +33563,10 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33757,7 +33772,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ158">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -33963,7 +33978,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR159">
         <v>1.88</v>
@@ -34088,7 +34103,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34372,7 +34387,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ161">
         <v>0.9</v>
@@ -34500,7 +34515,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34578,10 +34593,10 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ162">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -34706,7 +34721,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34787,7 +34802,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ163">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -34912,7 +34927,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -34993,7 +35008,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR164">
         <v>1.38</v>
@@ -35402,7 +35417,7 @@
         <v>1.38</v>
       </c>
       <c r="AP166">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ166">
         <v>1.3</v>
@@ -35530,7 +35545,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35611,7 +35626,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35814,7 +35829,7 @@
         <v>2.14</v>
       </c>
       <c r="AP168">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168">
         <v>1.67</v>
@@ -35942,7 +35957,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36148,7 +36163,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36229,7 +36244,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="AR170">
         <v>1.86</v>
@@ -36354,7 +36369,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36432,10 +36447,10 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ171">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR171">
         <v>2.14</v>
@@ -36638,10 +36653,10 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ172">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -36844,10 +36859,10 @@
         <v>0.38</v>
       </c>
       <c r="AP173">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AQ173">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -37050,7 +37065,7 @@
         <v>0.75</v>
       </c>
       <c r="AP174">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ174">
         <v>0.7</v>
@@ -37256,10 +37271,10 @@
         <v>0.57</v>
       </c>
       <c r="AP175">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ175">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37384,7 +37399,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37465,7 +37480,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ176">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR176">
         <v>1.65</v>
@@ -37668,10 +37683,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ177">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AR177">
         <v>1.32</v>
@@ -37874,7 +37889,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ178">
         <v>0.9</v>
@@ -38002,7 +38017,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38080,10 +38095,10 @@
         <v>0.67</v>
       </c>
       <c r="AP179">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AQ179">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR179">
         <v>1</v>
@@ -38208,7 +38223,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38826,7 +38841,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39032,7 +39047,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39110,7 +39125,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ184">
         <v>1.3</v>
@@ -39238,7 +39253,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39650,7 +39665,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40062,7 +40077,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40268,7 +40283,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40349,7 +40364,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ190">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR190">
         <v>1.27</v>
@@ -40425,6 +40440,2066 @@
       </c>
       <c r="BP190">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7327093</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F191">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>70</v>
+      </c>
+      <c r="H191" t="s">
+        <v>88</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>196</v>
+      </c>
+      <c r="P191" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q191">
+        <v>2.1</v>
+      </c>
+      <c r="R191">
+        <v>2.34</v>
+      </c>
+      <c r="S191">
+        <v>5.9</v>
+      </c>
+      <c r="T191">
+        <v>1.32</v>
+      </c>
+      <c r="U191">
+        <v>3.22</v>
+      </c>
+      <c r="V191">
+        <v>2.52</v>
+      </c>
+      <c r="W191">
+        <v>1.49</v>
+      </c>
+      <c r="X191">
+        <v>6</v>
+      </c>
+      <c r="Y191">
+        <v>1.11</v>
+      </c>
+      <c r="Z191">
+        <v>1.53</v>
+      </c>
+      <c r="AA191">
+        <v>4.2</v>
+      </c>
+      <c r="AB191">
+        <v>5.25</v>
+      </c>
+      <c r="AC191">
+        <v>1.04</v>
+      </c>
+      <c r="AD191">
+        <v>10.5</v>
+      </c>
+      <c r="AE191">
+        <v>1.2</v>
+      </c>
+      <c r="AF191">
+        <v>3.9</v>
+      </c>
+      <c r="AG191">
+        <v>1.73</v>
+      </c>
+      <c r="AH191">
+        <v>2</v>
+      </c>
+      <c r="AI191">
+        <v>1.91</v>
+      </c>
+      <c r="AJ191">
+        <v>1.91</v>
+      </c>
+      <c r="AK191">
+        <v>1.09</v>
+      </c>
+      <c r="AL191">
+        <v>1.17</v>
+      </c>
+      <c r="AM191">
+        <v>2.45</v>
+      </c>
+      <c r="AN191">
+        <v>1.89</v>
+      </c>
+      <c r="AO191">
+        <v>1.22</v>
+      </c>
+      <c r="AP191">
+        <v>1.8</v>
+      </c>
+      <c r="AQ191">
+        <v>1.2</v>
+      </c>
+      <c r="AR191">
+        <v>2.15</v>
+      </c>
+      <c r="AS191">
+        <v>1.39</v>
+      </c>
+      <c r="AT191">
+        <v>3.54</v>
+      </c>
+      <c r="AU191">
+        <v>9</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>11</v>
+      </c>
+      <c r="AX191">
+        <v>3</v>
+      </c>
+      <c r="AY191">
+        <v>20</v>
+      </c>
+      <c r="AZ191">
+        <v>5</v>
+      </c>
+      <c r="BA191">
+        <v>11</v>
+      </c>
+      <c r="BB191">
+        <v>1</v>
+      </c>
+      <c r="BC191">
+        <v>12</v>
+      </c>
+      <c r="BD191">
+        <v>1.2</v>
+      </c>
+      <c r="BE191">
+        <v>9.6</v>
+      </c>
+      <c r="BF191">
+        <v>6.55</v>
+      </c>
+      <c r="BG191">
+        <v>1.22</v>
+      </c>
+      <c r="BH191">
+        <v>4.1</v>
+      </c>
+      <c r="BI191">
+        <v>1.4</v>
+      </c>
+      <c r="BJ191">
+        <v>2.85</v>
+      </c>
+      <c r="BK191">
+        <v>1.66</v>
+      </c>
+      <c r="BL191">
+        <v>2.15</v>
+      </c>
+      <c r="BM191">
+        <v>2.05</v>
+      </c>
+      <c r="BN191">
+        <v>1.72</v>
+      </c>
+      <c r="BO191">
+        <v>2.65</v>
+      </c>
+      <c r="BP191">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7327085</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>84</v>
+      </c>
+      <c r="H192" t="s">
+        <v>86</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192" t="s">
+        <v>91</v>
+      </c>
+      <c r="P192" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q192">
+        <v>2.86</v>
+      </c>
+      <c r="R192">
+        <v>2.14</v>
+      </c>
+      <c r="S192">
+        <v>4.39</v>
+      </c>
+      <c r="T192">
+        <v>1.47</v>
+      </c>
+      <c r="U192">
+        <v>2.72</v>
+      </c>
+      <c r="V192">
+        <v>3.36</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>8</v>
+      </c>
+      <c r="Y192">
+        <v>1.05</v>
+      </c>
+      <c r="Z192">
+        <v>2.15</v>
+      </c>
+      <c r="AA192">
+        <v>3.1</v>
+      </c>
+      <c r="AB192">
+        <v>3.4</v>
+      </c>
+      <c r="AC192">
+        <v>1.06</v>
+      </c>
+      <c r="AD192">
+        <v>7.5</v>
+      </c>
+      <c r="AE192">
+        <v>1.38</v>
+      </c>
+      <c r="AF192">
+        <v>2.8</v>
+      </c>
+      <c r="AG192">
+        <v>2.2</v>
+      </c>
+      <c r="AH192">
+        <v>1.62</v>
+      </c>
+      <c r="AI192">
+        <v>1.91</v>
+      </c>
+      <c r="AJ192">
+        <v>1.8</v>
+      </c>
+      <c r="AK192">
+        <v>1.3</v>
+      </c>
+      <c r="AL192">
+        <v>1.35</v>
+      </c>
+      <c r="AM192">
+        <v>1.7</v>
+      </c>
+      <c r="AN192">
+        <v>2.33</v>
+      </c>
+      <c r="AO192">
+        <v>1.5</v>
+      </c>
+      <c r="AP192">
+        <v>2.2</v>
+      </c>
+      <c r="AQ192">
+        <v>1.45</v>
+      </c>
+      <c r="AR192">
+        <v>1.29</v>
+      </c>
+      <c r="AS192">
+        <v>1.17</v>
+      </c>
+      <c r="AT192">
+        <v>2.46</v>
+      </c>
+      <c r="AU192">
+        <v>5</v>
+      </c>
+      <c r="AV192">
+        <v>2</v>
+      </c>
+      <c r="AW192">
+        <v>6</v>
+      </c>
+      <c r="AX192">
+        <v>4</v>
+      </c>
+      <c r="AY192">
+        <v>11</v>
+      </c>
+      <c r="AZ192">
+        <v>6</v>
+      </c>
+      <c r="BA192">
+        <v>5</v>
+      </c>
+      <c r="BB192">
+        <v>4</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.73</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>2.4</v>
+      </c>
+      <c r="BG192">
+        <v>1.25</v>
+      </c>
+      <c r="BH192">
+        <v>3.6</v>
+      </c>
+      <c r="BI192">
+        <v>1.41</v>
+      </c>
+      <c r="BJ192">
+        <v>2.7</v>
+      </c>
+      <c r="BK192">
+        <v>1.77</v>
+      </c>
+      <c r="BL192">
+        <v>1.95</v>
+      </c>
+      <c r="BM192">
+        <v>2.2</v>
+      </c>
+      <c r="BN192">
+        <v>1.6</v>
+      </c>
+      <c r="BO192">
+        <v>2.9</v>
+      </c>
+      <c r="BP192">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7327086</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>85</v>
+      </c>
+      <c r="H193" t="s">
+        <v>89</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
+        <v>111</v>
+      </c>
+      <c r="P193" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q193">
+        <v>2.5</v>
+      </c>
+      <c r="R193">
+        <v>2.15</v>
+      </c>
+      <c r="S193">
+        <v>3.95</v>
+      </c>
+      <c r="T193">
+        <v>1.33</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.45</v>
+      </c>
+      <c r="W193">
+        <v>1.48</v>
+      </c>
+      <c r="X193">
+        <v>6.05</v>
+      </c>
+      <c r="Y193">
+        <v>1.11</v>
+      </c>
+      <c r="Z193">
+        <v>1.91</v>
+      </c>
+      <c r="AA193">
+        <v>3.6</v>
+      </c>
+      <c r="AB193">
+        <v>3.6</v>
+      </c>
+      <c r="AC193">
+        <v>1.03</v>
+      </c>
+      <c r="AD193">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AE193">
+        <v>1.21</v>
+      </c>
+      <c r="AF193">
+        <v>3.9</v>
+      </c>
+      <c r="AG193">
+        <v>1.67</v>
+      </c>
+      <c r="AH193">
+        <v>2.1</v>
+      </c>
+      <c r="AI193">
+        <v>1.62</v>
+      </c>
+      <c r="AJ193">
+        <v>2.15</v>
+      </c>
+      <c r="AK193">
+        <v>1.2</v>
+      </c>
+      <c r="AL193">
+        <v>1.27</v>
+      </c>
+      <c r="AM193">
+        <v>1.83</v>
+      </c>
+      <c r="AN193">
+        <v>1.3</v>
+      </c>
+      <c r="AO193">
+        <v>0.33</v>
+      </c>
+      <c r="AP193">
+        <v>1.45</v>
+      </c>
+      <c r="AQ193">
+        <v>0.3</v>
+      </c>
+      <c r="AR193">
+        <v>1.31</v>
+      </c>
+      <c r="AS193">
+        <v>1.24</v>
+      </c>
+      <c r="AT193">
+        <v>2.55</v>
+      </c>
+      <c r="AU193">
+        <v>7</v>
+      </c>
+      <c r="AV193">
+        <v>4</v>
+      </c>
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>11</v>
+      </c>
+      <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>5</v>
+      </c>
+      <c r="BB193">
+        <v>5</v>
+      </c>
+      <c r="BC193">
+        <v>10</v>
+      </c>
+      <c r="BD193">
+        <v>1.8</v>
+      </c>
+      <c r="BE193">
+        <v>8</v>
+      </c>
+      <c r="BF193">
+        <v>2.38</v>
+      </c>
+      <c r="BG193">
+        <v>1.3</v>
+      </c>
+      <c r="BH193">
+        <v>3.2</v>
+      </c>
+      <c r="BI193">
+        <v>1.44</v>
+      </c>
+      <c r="BJ193">
+        <v>2.6</v>
+      </c>
+      <c r="BK193">
+        <v>1.7</v>
+      </c>
+      <c r="BL193">
+        <v>2.05</v>
+      </c>
+      <c r="BM193">
+        <v>2</v>
+      </c>
+      <c r="BN193">
+        <v>1.73</v>
+      </c>
+      <c r="BO193">
+        <v>3.2</v>
+      </c>
+      <c r="BP193">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7327087</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>81</v>
+      </c>
+      <c r="H194" t="s">
+        <v>76</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>212</v>
+      </c>
+      <c r="P194" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q194">
+        <v>2.4</v>
+      </c>
+      <c r="R194">
+        <v>2.46</v>
+      </c>
+      <c r="S194">
+        <v>4.49</v>
+      </c>
+      <c r="T194">
+        <v>1.3</v>
+      </c>
+      <c r="U194">
+        <v>3.2</v>
+      </c>
+      <c r="V194">
+        <v>2.55</v>
+      </c>
+      <c r="W194">
+        <v>1.54</v>
+      </c>
+      <c r="X194">
+        <v>5.5</v>
+      </c>
+      <c r="Y194">
+        <v>1.11</v>
+      </c>
+      <c r="Z194">
+        <v>1.8</v>
+      </c>
+      <c r="AA194">
+        <v>4</v>
+      </c>
+      <c r="AB194">
+        <v>3.6</v>
+      </c>
+      <c r="AC194">
+        <v>1.02</v>
+      </c>
+      <c r="AD194">
+        <v>10</v>
+      </c>
+      <c r="AE194">
+        <v>1.22</v>
+      </c>
+      <c r="AF194">
+        <v>3.8</v>
+      </c>
+      <c r="AG194">
+        <v>1.57</v>
+      </c>
+      <c r="AH194">
+        <v>2.25</v>
+      </c>
+      <c r="AI194">
+        <v>1.62</v>
+      </c>
+      <c r="AJ194">
+        <v>2.2</v>
+      </c>
+      <c r="AK194">
+        <v>1.25</v>
+      </c>
+      <c r="AL194">
+        <v>1.29</v>
+      </c>
+      <c r="AM194">
+        <v>1.91</v>
+      </c>
+      <c r="AN194">
+        <v>1.56</v>
+      </c>
+      <c r="AO194">
+        <v>0.7</v>
+      </c>
+      <c r="AP194">
+        <v>1.5</v>
+      </c>
+      <c r="AQ194">
+        <v>0.73</v>
+      </c>
+      <c r="AR194">
+        <v>1.65</v>
+      </c>
+      <c r="AS194">
+        <v>1.49</v>
+      </c>
+      <c r="AT194">
+        <v>3.14</v>
+      </c>
+      <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>13</v>
+      </c>
+      <c r="AX194">
+        <v>2</v>
+      </c>
+      <c r="AY194">
+        <v>18</v>
+      </c>
+      <c r="AZ194">
+        <v>6</v>
+      </c>
+      <c r="BA194">
+        <v>9</v>
+      </c>
+      <c r="BB194">
+        <v>4</v>
+      </c>
+      <c r="BC194">
+        <v>13</v>
+      </c>
+      <c r="BD194">
+        <v>1.83</v>
+      </c>
+      <c r="BE194">
+        <v>8</v>
+      </c>
+      <c r="BF194">
+        <v>2.2</v>
+      </c>
+      <c r="BG194">
+        <v>1.18</v>
+      </c>
+      <c r="BH194">
+        <v>4.33</v>
+      </c>
+      <c r="BI194">
+        <v>1.33</v>
+      </c>
+      <c r="BJ194">
+        <v>3</v>
+      </c>
+      <c r="BK194">
+        <v>1.47</v>
+      </c>
+      <c r="BL194">
+        <v>2.5</v>
+      </c>
+      <c r="BM194">
+        <v>1.95</v>
+      </c>
+      <c r="BN194">
+        <v>1.77</v>
+      </c>
+      <c r="BO194">
+        <v>2.35</v>
+      </c>
+      <c r="BP194">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7327088</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>72</v>
+      </c>
+      <c r="H195" t="s">
+        <v>79</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>213</v>
+      </c>
+      <c r="P195" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q195">
+        <v>3.39</v>
+      </c>
+      <c r="R195">
+        <v>2.16</v>
+      </c>
+      <c r="S195">
+        <v>3.48</v>
+      </c>
+      <c r="T195">
+        <v>1.42</v>
+      </c>
+      <c r="U195">
+        <v>2.65</v>
+      </c>
+      <c r="V195">
+        <v>2.88</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y195">
+        <v>1.05</v>
+      </c>
+      <c r="Z195">
+        <v>2.5</v>
+      </c>
+      <c r="AA195">
+        <v>3.2</v>
+      </c>
+      <c r="AB195">
+        <v>2.7</v>
+      </c>
+      <c r="AC195">
+        <v>1.08</v>
+      </c>
+      <c r="AD195">
+        <v>7.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.4</v>
+      </c>
+      <c r="AF195">
+        <v>2.88</v>
+      </c>
+      <c r="AG195">
+        <v>2.1</v>
+      </c>
+      <c r="AH195">
+        <v>1.67</v>
+      </c>
+      <c r="AI195">
+        <v>1.83</v>
+      </c>
+      <c r="AJ195">
+        <v>1.85</v>
+      </c>
+      <c r="AK195">
+        <v>1.47</v>
+      </c>
+      <c r="AL195">
+        <v>1.38</v>
+      </c>
+      <c r="AM195">
+        <v>1.49</v>
+      </c>
+      <c r="AN195">
+        <v>1.22</v>
+      </c>
+      <c r="AO195">
+        <v>1.33</v>
+      </c>
+      <c r="AP195">
+        <v>1.4</v>
+      </c>
+      <c r="AQ195">
+        <v>1.2</v>
+      </c>
+      <c r="AR195">
+        <v>1.32</v>
+      </c>
+      <c r="AS195">
+        <v>1.24</v>
+      </c>
+      <c r="AT195">
+        <v>2.56</v>
+      </c>
+      <c r="AU195">
+        <v>6</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>6</v>
+      </c>
+      <c r="AX195">
+        <v>6</v>
+      </c>
+      <c r="AY195">
+        <v>12</v>
+      </c>
+      <c r="AZ195">
+        <v>10</v>
+      </c>
+      <c r="BA195">
+        <v>3</v>
+      </c>
+      <c r="BB195">
+        <v>4</v>
+      </c>
+      <c r="BC195">
+        <v>7</v>
+      </c>
+      <c r="BD195">
+        <v>1.8</v>
+      </c>
+      <c r="BE195">
+        <v>8</v>
+      </c>
+      <c r="BF195">
+        <v>2.38</v>
+      </c>
+      <c r="BG195">
+        <v>1.22</v>
+      </c>
+      <c r="BH195">
+        <v>3.8</v>
+      </c>
+      <c r="BI195">
+        <v>1.34</v>
+      </c>
+      <c r="BJ195">
+        <v>3</v>
+      </c>
+      <c r="BK195">
+        <v>1.77</v>
+      </c>
+      <c r="BL195">
+        <v>1.95</v>
+      </c>
+      <c r="BM195">
+        <v>2.1</v>
+      </c>
+      <c r="BN195">
+        <v>1.65</v>
+      </c>
+      <c r="BO195">
+        <v>2.75</v>
+      </c>
+      <c r="BP195">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7327089</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" t="s">
+        <v>87</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>91</v>
+      </c>
+      <c r="P196" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q196">
+        <v>3.72</v>
+      </c>
+      <c r="R196">
+        <v>2.14</v>
+      </c>
+      <c r="S196">
+        <v>3.24</v>
+      </c>
+      <c r="T196">
+        <v>1.46</v>
+      </c>
+      <c r="U196">
+        <v>2.76</v>
+      </c>
+      <c r="V196">
+        <v>3.3</v>
+      </c>
+      <c r="W196">
+        <v>1.34</v>
+      </c>
+      <c r="X196">
+        <v>8</v>
+      </c>
+      <c r="Y196">
+        <v>1.05</v>
+      </c>
+      <c r="Z196">
+        <v>2.88</v>
+      </c>
+      <c r="AA196">
+        <v>3</v>
+      </c>
+      <c r="AB196">
+        <v>2.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.05</v>
+      </c>
+      <c r="AD196">
+        <v>8</v>
+      </c>
+      <c r="AE196">
+        <v>1.36</v>
+      </c>
+      <c r="AF196">
+        <v>2.88</v>
+      </c>
+      <c r="AG196">
+        <v>2.1</v>
+      </c>
+      <c r="AH196">
+        <v>1.65</v>
+      </c>
+      <c r="AI196">
+        <v>1.85</v>
+      </c>
+      <c r="AJ196">
+        <v>1.85</v>
+      </c>
+      <c r="AK196">
+        <v>1.53</v>
+      </c>
+      <c r="AL196">
+        <v>1.36</v>
+      </c>
+      <c r="AM196">
+        <v>1.4</v>
+      </c>
+      <c r="AN196">
+        <v>1.2</v>
+      </c>
+      <c r="AO196">
+        <v>0.89</v>
+      </c>
+      <c r="AP196">
+        <v>1.09</v>
+      </c>
+      <c r="AQ196">
+        <v>1.1</v>
+      </c>
+      <c r="AR196">
+        <v>1.01</v>
+      </c>
+      <c r="AS196">
+        <v>1.42</v>
+      </c>
+      <c r="AT196">
+        <v>2.43</v>
+      </c>
+      <c r="AU196">
+        <v>2</v>
+      </c>
+      <c r="AV196">
+        <v>4</v>
+      </c>
+      <c r="AW196">
+        <v>6</v>
+      </c>
+      <c r="AX196">
+        <v>7</v>
+      </c>
+      <c r="AY196">
+        <v>8</v>
+      </c>
+      <c r="AZ196">
+        <v>11</v>
+      </c>
+      <c r="BA196">
+        <v>3</v>
+      </c>
+      <c r="BB196">
+        <v>12</v>
+      </c>
+      <c r="BC196">
+        <v>15</v>
+      </c>
+      <c r="BD196">
+        <v>2.1</v>
+      </c>
+      <c r="BE196">
+        <v>8</v>
+      </c>
+      <c r="BF196">
+        <v>1.95</v>
+      </c>
+      <c r="BG196">
+        <v>1.25</v>
+      </c>
+      <c r="BH196">
+        <v>3.6</v>
+      </c>
+      <c r="BI196">
+        <v>1.42</v>
+      </c>
+      <c r="BJ196">
+        <v>2.65</v>
+      </c>
+      <c r="BK196">
+        <v>1.7</v>
+      </c>
+      <c r="BL196">
+        <v>2.05</v>
+      </c>
+      <c r="BM196">
+        <v>2</v>
+      </c>
+      <c r="BN196">
+        <v>1.73</v>
+      </c>
+      <c r="BO196">
+        <v>2.85</v>
+      </c>
+      <c r="BP196">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7327090</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>83</v>
+      </c>
+      <c r="H197" t="s">
+        <v>78</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>4</v>
+      </c>
+      <c r="O197" t="s">
+        <v>214</v>
+      </c>
+      <c r="P197" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q197">
+        <v>3.8</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>2.8</v>
+      </c>
+      <c r="T197">
+        <v>1.42</v>
+      </c>
+      <c r="U197">
+        <v>2.65</v>
+      </c>
+      <c r="V197">
+        <v>2.88</v>
+      </c>
+      <c r="W197">
+        <v>1.36</v>
+      </c>
+      <c r="X197">
+        <v>8</v>
+      </c>
+      <c r="Y197">
+        <v>1.06</v>
+      </c>
+      <c r="Z197">
+        <v>3.25</v>
+      </c>
+      <c r="AA197">
+        <v>3.25</v>
+      </c>
+      <c r="AB197">
+        <v>2.15</v>
+      </c>
+      <c r="AC197">
+        <v>1.07</v>
+      </c>
+      <c r="AD197">
+        <v>8</v>
+      </c>
+      <c r="AE197">
+        <v>1.38</v>
+      </c>
+      <c r="AF197">
+        <v>3</v>
+      </c>
+      <c r="AG197">
+        <v>2</v>
+      </c>
+      <c r="AH197">
+        <v>1.73</v>
+      </c>
+      <c r="AI197">
+        <v>1.83</v>
+      </c>
+      <c r="AJ197">
+        <v>1.85</v>
+      </c>
+      <c r="AK197">
+        <v>1.7</v>
+      </c>
+      <c r="AL197">
+        <v>1.28</v>
+      </c>
+      <c r="AM197">
+        <v>1.28</v>
+      </c>
+      <c r="AN197">
+        <v>0.44</v>
+      </c>
+      <c r="AO197">
+        <v>1.11</v>
+      </c>
+      <c r="AP197">
+        <v>0.5</v>
+      </c>
+      <c r="AQ197">
+        <v>1.1</v>
+      </c>
+      <c r="AR197">
+        <v>1.4</v>
+      </c>
+      <c r="AS197">
+        <v>1.56</v>
+      </c>
+      <c r="AT197">
+        <v>2.96</v>
+      </c>
+      <c r="AU197">
+        <v>5</v>
+      </c>
+      <c r="AV197">
+        <v>6</v>
+      </c>
+      <c r="AW197">
+        <v>2</v>
+      </c>
+      <c r="AX197">
+        <v>8</v>
+      </c>
+      <c r="AY197">
+        <v>7</v>
+      </c>
+      <c r="AZ197">
+        <v>14</v>
+      </c>
+      <c r="BA197">
+        <v>4</v>
+      </c>
+      <c r="BB197">
+        <v>4</v>
+      </c>
+      <c r="BC197">
+        <v>8</v>
+      </c>
+      <c r="BD197">
+        <v>2.4</v>
+      </c>
+      <c r="BE197">
+        <v>8.5</v>
+      </c>
+      <c r="BF197">
+        <v>1.73</v>
+      </c>
+      <c r="BG197">
+        <v>1.18</v>
+      </c>
+      <c r="BH197">
+        <v>4.33</v>
+      </c>
+      <c r="BI197">
+        <v>1.33</v>
+      </c>
+      <c r="BJ197">
+        <v>3</v>
+      </c>
+      <c r="BK197">
+        <v>1.48</v>
+      </c>
+      <c r="BL197">
+        <v>2.47</v>
+      </c>
+      <c r="BM197">
+        <v>1.95</v>
+      </c>
+      <c r="BN197">
+        <v>1.77</v>
+      </c>
+      <c r="BO197">
+        <v>2.35</v>
+      </c>
+      <c r="BP197">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7327091</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>77</v>
+      </c>
+      <c r="H198" t="s">
+        <v>74</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198" t="s">
+        <v>215</v>
+      </c>
+      <c r="P198" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q198">
+        <v>2.34</v>
+      </c>
+      <c r="R198">
+        <v>2.36</v>
+      </c>
+      <c r="S198">
+        <v>5.09</v>
+      </c>
+      <c r="T198">
+        <v>1.36</v>
+      </c>
+      <c r="U198">
+        <v>3.18</v>
+      </c>
+      <c r="V198">
+        <v>2.8</v>
+      </c>
+      <c r="W198">
+        <v>1.45</v>
+      </c>
+      <c r="X198">
+        <v>6</v>
+      </c>
+      <c r="Y198">
+        <v>1.09</v>
+      </c>
+      <c r="Z198">
+        <v>1.75</v>
+      </c>
+      <c r="AA198">
+        <v>3.75</v>
+      </c>
+      <c r="AB198">
+        <v>4.2</v>
+      </c>
+      <c r="AC198">
+        <v>1.02</v>
+      </c>
+      <c r="AD198">
+        <v>10</v>
+      </c>
+      <c r="AE198">
+        <v>1.25</v>
+      </c>
+      <c r="AF198">
+        <v>3.6</v>
+      </c>
+      <c r="AG198">
+        <v>1.73</v>
+      </c>
+      <c r="AH198">
+        <v>2</v>
+      </c>
+      <c r="AI198">
+        <v>1.75</v>
+      </c>
+      <c r="AJ198">
+        <v>1.95</v>
+      </c>
+      <c r="AK198">
+        <v>1.22</v>
+      </c>
+      <c r="AL198">
+        <v>1.29</v>
+      </c>
+      <c r="AM198">
+        <v>2</v>
+      </c>
+      <c r="AN198">
+        <v>1.78</v>
+      </c>
+      <c r="AO198">
+        <v>0.5</v>
+      </c>
+      <c r="AP198">
+        <v>1.9</v>
+      </c>
+      <c r="AQ198">
+        <v>0.44</v>
+      </c>
+      <c r="AR198">
+        <v>1.52</v>
+      </c>
+      <c r="AS198">
+        <v>1.15</v>
+      </c>
+      <c r="AT198">
+        <v>2.67</v>
+      </c>
+      <c r="AU198">
+        <v>3</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
+        <v>4</v>
+      </c>
+      <c r="AX198">
+        <v>9</v>
+      </c>
+      <c r="AY198">
+        <v>7</v>
+      </c>
+      <c r="AZ198">
+        <v>12</v>
+      </c>
+      <c r="BA198">
+        <v>6</v>
+      </c>
+      <c r="BB198">
+        <v>3</v>
+      </c>
+      <c r="BC198">
+        <v>9</v>
+      </c>
+      <c r="BD198">
+        <v>1.57</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>2.75</v>
+      </c>
+      <c r="BG198">
+        <v>1.2</v>
+      </c>
+      <c r="BH198">
+        <v>4</v>
+      </c>
+      <c r="BI198">
+        <v>1.28</v>
+      </c>
+      <c r="BJ198">
+        <v>3.35</v>
+      </c>
+      <c r="BK198">
+        <v>1.73</v>
+      </c>
+      <c r="BL198">
+        <v>2</v>
+      </c>
+      <c r="BM198">
+        <v>2.05</v>
+      </c>
+      <c r="BN198">
+        <v>1.7</v>
+      </c>
+      <c r="BO198">
+        <v>2.45</v>
+      </c>
+      <c r="BP198">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7327092</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>82</v>
+      </c>
+      <c r="H199" t="s">
+        <v>75</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199" t="s">
+        <v>91</v>
+      </c>
+      <c r="P199" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q199">
+        <v>2.8</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>3.75</v>
+      </c>
+      <c r="T199">
+        <v>1.42</v>
+      </c>
+      <c r="U199">
+        <v>2.65</v>
+      </c>
+      <c r="V199">
+        <v>2.88</v>
+      </c>
+      <c r="W199">
+        <v>1.36</v>
+      </c>
+      <c r="X199">
+        <v>8.5</v>
+      </c>
+      <c r="Y199">
+        <v>1.05</v>
+      </c>
+      <c r="Z199">
+        <v>2.15</v>
+      </c>
+      <c r="AA199">
+        <v>3.25</v>
+      </c>
+      <c r="AB199">
+        <v>3.25</v>
+      </c>
+      <c r="AC199">
+        <v>1.07</v>
+      </c>
+      <c r="AD199">
+        <v>8</v>
+      </c>
+      <c r="AE199">
+        <v>1.38</v>
+      </c>
+      <c r="AF199">
+        <v>3</v>
+      </c>
+      <c r="AG199">
+        <v>2.1</v>
+      </c>
+      <c r="AH199">
+        <v>1.67</v>
+      </c>
+      <c r="AI199">
+        <v>1.8</v>
+      </c>
+      <c r="AJ199">
+        <v>1.85</v>
+      </c>
+      <c r="AK199">
+        <v>1.28</v>
+      </c>
+      <c r="AL199">
+        <v>1.3</v>
+      </c>
+      <c r="AM199">
+        <v>1.62</v>
+      </c>
+      <c r="AN199">
+        <v>1.44</v>
+      </c>
+      <c r="AO199">
+        <v>2.44</v>
+      </c>
+      <c r="AP199">
+        <v>1.4</v>
+      </c>
+      <c r="AQ199">
+        <v>2.3</v>
+      </c>
+      <c r="AR199">
+        <v>1.76</v>
+      </c>
+      <c r="AS199">
+        <v>1.38</v>
+      </c>
+      <c r="AT199">
+        <v>3.14</v>
+      </c>
+      <c r="AU199">
+        <v>4</v>
+      </c>
+      <c r="AV199">
+        <v>3</v>
+      </c>
+      <c r="AW199">
+        <v>7</v>
+      </c>
+      <c r="AX199">
+        <v>1</v>
+      </c>
+      <c r="AY199">
+        <v>11</v>
+      </c>
+      <c r="AZ199">
+        <v>4</v>
+      </c>
+      <c r="BA199">
+        <v>4</v>
+      </c>
+      <c r="BB199">
+        <v>3</v>
+      </c>
+      <c r="BC199">
+        <v>7</v>
+      </c>
+      <c r="BD199">
+        <v>1.91</v>
+      </c>
+      <c r="BE199">
+        <v>8</v>
+      </c>
+      <c r="BF199">
+        <v>2.2</v>
+      </c>
+      <c r="BG199">
+        <v>1.22</v>
+      </c>
+      <c r="BH199">
+        <v>3.8</v>
+      </c>
+      <c r="BI199">
+        <v>1.32</v>
+      </c>
+      <c r="BJ199">
+        <v>3.1</v>
+      </c>
+      <c r="BK199">
+        <v>1.77</v>
+      </c>
+      <c r="BL199">
+        <v>1.95</v>
+      </c>
+      <c r="BM199">
+        <v>2.05</v>
+      </c>
+      <c r="BN199">
+        <v>1.7</v>
+      </c>
+      <c r="BO199">
+        <v>2.65</v>
+      </c>
+      <c r="BP199">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7327094</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F200">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>73</v>
+      </c>
+      <c r="H200" t="s">
+        <v>80</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>216</v>
+      </c>
+      <c r="P200" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q200">
+        <v>3.3</v>
+      </c>
+      <c r="R200">
+        <v>2.05</v>
+      </c>
+      <c r="S200">
+        <v>3.1</v>
+      </c>
+      <c r="T200">
+        <v>1.4</v>
+      </c>
+      <c r="U200">
+        <v>2.75</v>
+      </c>
+      <c r="V200">
+        <v>2.8</v>
+      </c>
+      <c r="W200">
+        <v>1.39</v>
+      </c>
+      <c r="X200">
+        <v>6.95</v>
+      </c>
+      <c r="Y200">
+        <v>1.07</v>
+      </c>
+      <c r="Z200">
+        <v>2.7</v>
+      </c>
+      <c r="AA200">
+        <v>3.2</v>
+      </c>
+      <c r="AB200">
+        <v>2.5</v>
+      </c>
+      <c r="AC200">
+        <v>1.03</v>
+      </c>
+      <c r="AD200">
+        <v>8.4</v>
+      </c>
+      <c r="AE200">
+        <v>1.27</v>
+      </c>
+      <c r="AF200">
+        <v>3.28</v>
+      </c>
+      <c r="AG200">
+        <v>1.91</v>
+      </c>
+      <c r="AH200">
+        <v>1.8</v>
+      </c>
+      <c r="AI200">
+        <v>1.72</v>
+      </c>
+      <c r="AJ200">
+        <v>2.05</v>
+      </c>
+      <c r="AK200">
+        <v>1.47</v>
+      </c>
+      <c r="AL200">
+        <v>1.28</v>
+      </c>
+      <c r="AM200">
+        <v>1.42</v>
+      </c>
+      <c r="AN200">
+        <v>1.4</v>
+      </c>
+      <c r="AO200">
+        <v>1.4</v>
+      </c>
+      <c r="AP200">
+        <v>1.55</v>
+      </c>
+      <c r="AQ200">
+        <v>1.27</v>
+      </c>
+      <c r="AR200">
+        <v>1.37</v>
+      </c>
+      <c r="AS200">
+        <v>1.58</v>
+      </c>
+      <c r="AT200">
+        <v>2.95</v>
+      </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
+      <c r="AV200">
+        <v>6</v>
+      </c>
+      <c r="AW200">
+        <v>5</v>
+      </c>
+      <c r="AX200">
+        <v>6</v>
+      </c>
+      <c r="AY200">
+        <v>10</v>
+      </c>
+      <c r="AZ200">
+        <v>12</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>10</v>
+      </c>
+      <c r="BC200">
+        <v>15</v>
+      </c>
+      <c r="BD200">
+        <v>1.95</v>
+      </c>
+      <c r="BE200">
+        <v>8</v>
+      </c>
+      <c r="BF200">
+        <v>2.05</v>
+      </c>
+      <c r="BG200">
+        <v>1.2</v>
+      </c>
+      <c r="BH200">
+        <v>4</v>
+      </c>
+      <c r="BI200">
+        <v>1.29</v>
+      </c>
+      <c r="BJ200">
+        <v>3.3</v>
+      </c>
+      <c r="BK200">
+        <v>1.48</v>
+      </c>
+      <c r="BL200">
+        <v>2.47</v>
+      </c>
+      <c r="BM200">
+        <v>2.05</v>
+      </c>
+      <c r="BN200">
+        <v>1.7</v>
+      </c>
+      <c r="BO200">
+        <v>2.45</v>
+      </c>
+      <c r="BP200">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="307">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1296,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2460,7 +2460,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ20">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ30">
         <v>1.1</v>
@@ -7813,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ32">
         <v>2.3</v>
@@ -8846,7 +8846,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -12142,7 +12142,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -13375,7 +13375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ61">
         <v>1.45</v>
@@ -18113,7 +18113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18322,7 +18322,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -19967,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ91">
         <v>0.73</v>
@@ -24090,7 +24090,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -25117,7 +25117,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ116">
         <v>1.89</v>
@@ -28413,7 +28413,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ132">
         <v>0.9</v>
@@ -31918,7 +31918,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ149">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -32121,7 +32121,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ150">
         <v>1.6</v>
@@ -34802,7 +34802,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ163">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -37686,7 +37686,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ177">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR177">
         <v>1.32</v>
@@ -40361,7 +40361,7 @@
         <v>1.22</v>
       </c>
       <c r="AP190">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ190">
         <v>1.27</v>
@@ -40570,7 +40570,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ191">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR191">
         <v>2.15</v>
@@ -42500,6 +42500,212 @@
       </c>
       <c r="BP200">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7327095</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45472.08333333334</v>
+      </c>
+      <c r="F201">
+        <v>21</v>
+      </c>
+      <c r="G201" t="s">
+        <v>89</v>
+      </c>
+      <c r="H201" t="s">
+        <v>88</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
+        <v>91</v>
+      </c>
+      <c r="P201" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q201">
+        <v>2.68</v>
+      </c>
+      <c r="R201">
+        <v>1.98</v>
+      </c>
+      <c r="S201">
+        <v>2.6</v>
+      </c>
+      <c r="T201">
+        <v>1.28</v>
+      </c>
+      <c r="U201">
+        <v>2.6</v>
+      </c>
+      <c r="V201">
+        <v>2.24</v>
+      </c>
+      <c r="W201">
+        <v>1.36</v>
+      </c>
+      <c r="X201">
+        <v>4.92</v>
+      </c>
+      <c r="Y201">
+        <v>1.08</v>
+      </c>
+      <c r="Z201">
+        <v>2.7</v>
+      </c>
+      <c r="AA201">
+        <v>3.3</v>
+      </c>
+      <c r="AB201">
+        <v>2.55</v>
+      </c>
+      <c r="AC201">
+        <v>1.05</v>
+      </c>
+      <c r="AD201">
+        <v>9</v>
+      </c>
+      <c r="AE201">
+        <v>1.28</v>
+      </c>
+      <c r="AF201">
+        <v>3.6</v>
+      </c>
+      <c r="AG201">
+        <v>1.83</v>
+      </c>
+      <c r="AH201">
+        <v>2.03</v>
+      </c>
+      <c r="AI201">
+        <v>1.52</v>
+      </c>
+      <c r="AJ201">
+        <v>1.94</v>
+      </c>
+      <c r="AK201">
+        <v>1.61</v>
+      </c>
+      <c r="AL201">
+        <v>1.43</v>
+      </c>
+      <c r="AM201">
+        <v>1.57</v>
+      </c>
+      <c r="AN201">
+        <v>0.8</v>
+      </c>
+      <c r="AO201">
+        <v>1.2</v>
+      </c>
+      <c r="AP201">
+        <v>0.73</v>
+      </c>
+      <c r="AQ201">
+        <v>1.36</v>
+      </c>
+      <c r="AR201">
+        <v>1.29</v>
+      </c>
+      <c r="AS201">
+        <v>1.32</v>
+      </c>
+      <c r="AT201">
+        <v>2.61</v>
+      </c>
+      <c r="AU201">
+        <v>3</v>
+      </c>
+      <c r="AV201">
+        <v>4</v>
+      </c>
+      <c r="AW201">
+        <v>5</v>
+      </c>
+      <c r="AX201">
+        <v>3</v>
+      </c>
+      <c r="AY201">
+        <v>8</v>
+      </c>
+      <c r="AZ201">
+        <v>7</v>
+      </c>
+      <c r="BA201">
+        <v>5</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>10</v>
+      </c>
+      <c r="BD201">
+        <v>1.91</v>
+      </c>
+      <c r="BE201">
+        <v>8</v>
+      </c>
+      <c r="BF201">
+        <v>2.2</v>
+      </c>
+      <c r="BG201">
+        <v>1.25</v>
+      </c>
+      <c r="BH201">
+        <v>3.75</v>
+      </c>
+      <c r="BI201">
+        <v>1.44</v>
+      </c>
+      <c r="BJ201">
+        <v>2.65</v>
+      </c>
+      <c r="BK201">
+        <v>1.7</v>
+      </c>
+      <c r="BL201">
+        <v>2.05</v>
+      </c>
+      <c r="BM201">
+        <v>2.15</v>
+      </c>
+      <c r="BN201">
+        <v>1.65</v>
+      </c>
+      <c r="BO201">
+        <v>2.8</v>
+      </c>
+      <c r="BP201">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,6 +667,18 @@
     <t>['20', '70']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['26', '65']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -835,9 +847,6 @@
     <t>['22', '64', '75']</t>
   </si>
   <si>
-    <t>['26', '65']</t>
-  </si>
-  <si>
     <t>['2', '18', '84']</t>
   </si>
   <si>
@@ -935,6 +944,12 @@
   </si>
   <si>
     <t>['42', '90+6']</t>
+  </si>
+  <si>
+    <t>['11', '22']</t>
+  </si>
+  <si>
+    <t>['45+1', '61', '69']</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1776,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1967,7 +1982,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2379,7 +2394,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2791,7 +2806,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2997,7 +3012,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3075,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>1.89</v>
@@ -3409,7 +3424,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3615,7 +3630,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3693,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.67</v>
@@ -3821,7 +3836,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3899,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ13">
         <v>0.9</v>
@@ -4027,7 +4042,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4314,7 +4329,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ15">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4439,7 +4454,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4851,7 +4866,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5057,7 +5072,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5138,7 +5153,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5341,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20">
         <v>1.36</v>
@@ -5469,7 +5484,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5550,7 +5565,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5675,7 +5690,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5962,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6705,7 +6720,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6989,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7195,10 +7210,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7529,7 +7544,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7735,7 +7750,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7816,7 +7831,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ32">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8022,7 +8037,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8147,7 +8162,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8353,7 +8368,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8431,7 +8446,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>0.9</v>
@@ -8559,7 +8574,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8640,7 +8655,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8765,7 +8780,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8971,7 +8986,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9177,7 +9192,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9383,7 +9398,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9589,7 +9604,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9795,7 +9810,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10491,7 +10506,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ45">
         <v>1.89</v>
@@ -10619,7 +10634,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11521,7 +11536,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.73</v>
@@ -12267,7 +12282,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12348,7 +12363,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12551,7 +12566,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12679,7 +12694,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12760,7 +12775,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ56">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -13169,7 +13184,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
         <v>0.7</v>
@@ -13297,7 +13312,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13378,7 +13393,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13503,7 +13518,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14121,7 +14136,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14327,7 +14342,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14533,7 +14548,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14945,7 +14960,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15023,10 +15038,10 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ67">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15847,7 +15862,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>1.45</v>
@@ -16181,7 +16196,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16259,7 +16274,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>0.73</v>
@@ -16387,7 +16402,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16674,7 +16689,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16880,7 +16895,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ76">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17211,7 +17226,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17495,7 +17510,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.7</v>
@@ -17623,7 +17638,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17829,7 +17844,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17907,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ81">
         <v>0.44</v>
@@ -18116,7 +18131,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18241,7 +18256,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18447,7 +18462,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18859,7 +18874,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19349,10 +19364,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19477,7 +19492,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19558,7 +19573,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ89">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19683,7 +19698,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19889,7 +19904,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20176,7 +20191,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ92">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20507,7 +20522,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20713,7 +20728,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20791,7 +20806,7 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.27</v>
@@ -21125,7 +21140,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21331,7 +21346,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21412,7 +21427,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21743,7 +21758,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21821,7 +21836,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ100">
         <v>1.6</v>
@@ -22027,7 +22042,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>0.9</v>
@@ -22155,7 +22170,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22236,7 +22251,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22567,7 +22582,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23057,7 +23072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
         <v>0.3</v>
@@ -23185,7 +23200,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23266,7 +23281,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ107">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23597,7 +23612,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23675,7 +23690,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ109">
         <v>1.1</v>
@@ -23803,7 +23818,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24009,7 +24024,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24215,7 +24230,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24499,7 +24514,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ113">
         <v>1.3</v>
@@ -24833,7 +24848,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24914,7 +24929,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ115">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25039,7 +25054,7 @@
         <v>92</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25245,7 +25260,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25326,7 +25341,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ117">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -25451,7 +25466,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25863,7 +25878,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26069,7 +26084,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26275,7 +26290,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26481,7 +26496,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26768,7 +26783,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ124">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -26971,7 +26986,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ125">
         <v>0.3</v>
@@ -27099,7 +27114,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27305,7 +27320,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27383,7 +27398,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>2</v>
@@ -27511,7 +27526,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27717,7 +27732,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27798,7 +27813,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ129">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -27923,7 +27938,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29159,7 +29174,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29365,7 +29380,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29983,7 +29998,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30189,7 +30204,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30270,7 +30285,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ141">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30476,7 +30491,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ142">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30601,7 +30616,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30807,7 +30822,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30888,7 +30903,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ144">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -31091,7 +31106,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ145">
         <v>0.7</v>
@@ -31631,7 +31646,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32043,7 +32058,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32249,7 +32264,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32455,7 +32470,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32661,7 +32676,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32739,7 +32754,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ153">
         <v>1.1</v>
@@ -32948,7 +32963,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33151,10 +33166,10 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR155">
         <v>1.58</v>
@@ -33279,7 +33294,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33772,7 +33787,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ158">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -33975,7 +33990,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159">
         <v>1.1</v>
@@ -34103,7 +34118,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34515,7 +34530,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34721,7 +34736,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34927,7 +34942,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35545,7 +35560,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35829,10 +35844,10 @@
         <v>2.14</v>
       </c>
       <c r="AP168">
+        <v>1.45</v>
+      </c>
+      <c r="AQ168">
         <v>1.5</v>
-      </c>
-      <c r="AQ168">
-        <v>1.67</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -35957,7 +35972,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36163,7 +36178,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36241,10 +36256,10 @@
         <v>2.38</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ170">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR170">
         <v>1.86</v>
@@ -36369,7 +36384,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36450,7 +36465,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ171">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR171">
         <v>2.14</v>
@@ -36653,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
         <v>1.1</v>
@@ -37399,7 +37414,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37477,7 +37492,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ176">
         <v>1.1</v>
@@ -38017,7 +38032,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38223,7 +38238,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38301,10 +38316,10 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ180">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -38716,7 +38731,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR182">
         <v>1.53</v>
@@ -38841,7 +38856,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39047,7 +39062,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39253,7 +39268,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39331,7 +39346,7 @@
         <v>2.22</v>
       </c>
       <c r="AP185">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AQ185">
         <v>2</v>
@@ -39540,7 +39555,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ186">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR186">
         <v>1.43</v>
@@ -39665,7 +39680,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40077,7 +40092,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40283,7 +40298,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40489,7 +40504,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -41185,7 +41200,7 @@
         <v>0.7</v>
       </c>
       <c r="AP194">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ194">
         <v>0.73</v>
@@ -41394,7 +41409,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ195">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR195">
         <v>1.32</v>
@@ -41725,7 +41740,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42009,7 +42024,7 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>0.44</v>
@@ -42218,7 +42233,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ199">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR199">
         <v>1.76</v>
@@ -42343,7 +42358,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42642,22 +42657,22 @@
         <v>2.61</v>
       </c>
       <c r="AU201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV201">
         <v>4</v>
       </c>
       <c r="AW201">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX201">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY201">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ201">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA201">
         <v>5</v>
@@ -42706,6 +42721,830 @@
       </c>
       <c r="BP201">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7327096</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>81</v>
+      </c>
+      <c r="H202" t="s">
+        <v>70</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>217</v>
+      </c>
+      <c r="P202" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q202">
+        <v>3.75</v>
+      </c>
+      <c r="R202">
+        <v>2.3</v>
+      </c>
+      <c r="S202">
+        <v>2.6</v>
+      </c>
+      <c r="T202">
+        <v>1.33</v>
+      </c>
+      <c r="U202">
+        <v>3.25</v>
+      </c>
+      <c r="V202">
+        <v>2.5</v>
+      </c>
+      <c r="W202">
+        <v>1.5</v>
+      </c>
+      <c r="X202">
+        <v>6.5</v>
+      </c>
+      <c r="Y202">
+        <v>1.11</v>
+      </c>
+      <c r="Z202">
+        <v>3.5</v>
+      </c>
+      <c r="AA202">
+        <v>3.6</v>
+      </c>
+      <c r="AB202">
+        <v>2</v>
+      </c>
+      <c r="AC202">
+        <v>1.01</v>
+      </c>
+      <c r="AD202">
+        <v>10.5</v>
+      </c>
+      <c r="AE202">
+        <v>1.2</v>
+      </c>
+      <c r="AF202">
+        <v>3.9</v>
+      </c>
+      <c r="AG202">
+        <v>1.72</v>
+      </c>
+      <c r="AH202">
+        <v>2.13</v>
+      </c>
+      <c r="AI202">
+        <v>1.62</v>
+      </c>
+      <c r="AJ202">
+        <v>2.2</v>
+      </c>
+      <c r="AK202">
+        <v>1.67</v>
+      </c>
+      <c r="AL202">
+        <v>1.27</v>
+      </c>
+      <c r="AM202">
+        <v>1.28</v>
+      </c>
+      <c r="AN202">
+        <v>1.5</v>
+      </c>
+      <c r="AO202">
+        <v>1.5</v>
+      </c>
+      <c r="AP202">
+        <v>1.45</v>
+      </c>
+      <c r="AQ202">
+        <v>1.45</v>
+      </c>
+      <c r="AR202">
+        <v>1.68</v>
+      </c>
+      <c r="AS202">
+        <v>1.57</v>
+      </c>
+      <c r="AT202">
+        <v>3.25</v>
+      </c>
+      <c r="AU202">
+        <v>8</v>
+      </c>
+      <c r="AV202">
+        <v>4</v>
+      </c>
+      <c r="AW202">
+        <v>4</v>
+      </c>
+      <c r="AX202">
+        <v>4</v>
+      </c>
+      <c r="AY202">
+        <v>12</v>
+      </c>
+      <c r="AZ202">
+        <v>8</v>
+      </c>
+      <c r="BA202">
+        <v>4</v>
+      </c>
+      <c r="BB202">
+        <v>4</v>
+      </c>
+      <c r="BC202">
+        <v>8</v>
+      </c>
+      <c r="BD202">
+        <v>2.95</v>
+      </c>
+      <c r="BE202">
+        <v>6.9</v>
+      </c>
+      <c r="BF202">
+        <v>1.64</v>
+      </c>
+      <c r="BG202">
+        <v>1.25</v>
+      </c>
+      <c r="BH202">
+        <v>3.75</v>
+      </c>
+      <c r="BI202">
+        <v>1.44</v>
+      </c>
+      <c r="BJ202">
+        <v>2.65</v>
+      </c>
+      <c r="BK202">
+        <v>1.72</v>
+      </c>
+      <c r="BL202">
+        <v>2.05</v>
+      </c>
+      <c r="BM202">
+        <v>2.15</v>
+      </c>
+      <c r="BN202">
+        <v>1.65</v>
+      </c>
+      <c r="BO202">
+        <v>2.8</v>
+      </c>
+      <c r="BP202">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7327097</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>80</v>
+      </c>
+      <c r="H203" t="s">
+        <v>79</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>3</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>218</v>
+      </c>
+      <c r="P203" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q203">
+        <v>2.07</v>
+      </c>
+      <c r="R203">
+        <v>2.04</v>
+      </c>
+      <c r="S203">
+        <v>3.56</v>
+      </c>
+      <c r="T203">
+        <v>1.26</v>
+      </c>
+      <c r="U203">
+        <v>2.68</v>
+      </c>
+      <c r="V203">
+        <v>2.16</v>
+      </c>
+      <c r="W203">
+        <v>1.38</v>
+      </c>
+      <c r="X203">
+        <v>4.76</v>
+      </c>
+      <c r="Y203">
+        <v>1.09</v>
+      </c>
+      <c r="Z203">
+        <v>1.85</v>
+      </c>
+      <c r="AA203">
+        <v>3.7</v>
+      </c>
+      <c r="AB203">
+        <v>3.9</v>
+      </c>
+      <c r="AC203">
+        <v>1.05</v>
+      </c>
+      <c r="AD203">
+        <v>9.5</v>
+      </c>
+      <c r="AE203">
+        <v>1.25</v>
+      </c>
+      <c r="AF203">
+        <v>3.95</v>
+      </c>
+      <c r="AG203">
+        <v>1.77</v>
+      </c>
+      <c r="AH203">
+        <v>2.06</v>
+      </c>
+      <c r="AI203">
+        <v>1.54</v>
+      </c>
+      <c r="AJ203">
+        <v>1.9</v>
+      </c>
+      <c r="AK203">
+        <v>1.32</v>
+      </c>
+      <c r="AL203">
+        <v>1.34</v>
+      </c>
+      <c r="AM203">
+        <v>2.16</v>
+      </c>
+      <c r="AN203">
+        <v>1.5</v>
+      </c>
+      <c r="AO203">
+        <v>1.2</v>
+      </c>
+      <c r="AP203">
+        <v>1.33</v>
+      </c>
+      <c r="AQ203">
+        <v>1.36</v>
+      </c>
+      <c r="AR203">
+        <v>1.74</v>
+      </c>
+      <c r="AS203">
+        <v>1.24</v>
+      </c>
+      <c r="AT203">
+        <v>2.98</v>
+      </c>
+      <c r="AU203">
+        <v>5</v>
+      </c>
+      <c r="AV203">
+        <v>5</v>
+      </c>
+      <c r="AW203">
+        <v>5</v>
+      </c>
+      <c r="AX203">
+        <v>4</v>
+      </c>
+      <c r="AY203">
+        <v>10</v>
+      </c>
+      <c r="AZ203">
+        <v>9</v>
+      </c>
+      <c r="BA203">
+        <v>7</v>
+      </c>
+      <c r="BB203">
+        <v>5</v>
+      </c>
+      <c r="BC203">
+        <v>12</v>
+      </c>
+      <c r="BD203">
+        <v>1.53</v>
+      </c>
+      <c r="BE203">
+        <v>8.5</v>
+      </c>
+      <c r="BF203">
+        <v>2.88</v>
+      </c>
+      <c r="BG203">
+        <v>1.22</v>
+      </c>
+      <c r="BH203">
+        <v>4</v>
+      </c>
+      <c r="BI203">
+        <v>1.42</v>
+      </c>
+      <c r="BJ203">
+        <v>2.75</v>
+      </c>
+      <c r="BK203">
+        <v>1.7</v>
+      </c>
+      <c r="BL203">
+        <v>2.05</v>
+      </c>
+      <c r="BM203">
+        <v>2.1</v>
+      </c>
+      <c r="BN203">
+        <v>1.68</v>
+      </c>
+      <c r="BO203">
+        <v>2.75</v>
+      </c>
+      <c r="BP203">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7327098</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45473.25</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>86</v>
+      </c>
+      <c r="H204" t="s">
+        <v>75</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>219</v>
+      </c>
+      <c r="P204" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q204">
+        <v>3.65</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>2.88</v>
+      </c>
+      <c r="T204">
+        <v>1.38</v>
+      </c>
+      <c r="U204">
+        <v>2.24</v>
+      </c>
+      <c r="V204">
+        <v>2.76</v>
+      </c>
+      <c r="W204">
+        <v>1.25</v>
+      </c>
+      <c r="X204">
+        <v>7.48</v>
+      </c>
+      <c r="Y204">
+        <v>1.03</v>
+      </c>
+      <c r="Z204">
+        <v>3.2</v>
+      </c>
+      <c r="AA204">
+        <v>3.25</v>
+      </c>
+      <c r="AB204">
+        <v>2.2</v>
+      </c>
+      <c r="AC204">
+        <v>1.08</v>
+      </c>
+      <c r="AD204">
+        <v>7.5</v>
+      </c>
+      <c r="AE204">
+        <v>1.4</v>
+      </c>
+      <c r="AF204">
+        <v>2.88</v>
+      </c>
+      <c r="AG204">
+        <v>2.15</v>
+      </c>
+      <c r="AH204">
+        <v>1.66</v>
+      </c>
+      <c r="AI204">
+        <v>1.77</v>
+      </c>
+      <c r="AJ204">
+        <v>1.64</v>
+      </c>
+      <c r="AK204">
+        <v>1.77</v>
+      </c>
+      <c r="AL204">
+        <v>1.45</v>
+      </c>
+      <c r="AM204">
+        <v>1.43</v>
+      </c>
+      <c r="AN204">
+        <v>2.44</v>
+      </c>
+      <c r="AO204">
+        <v>2.3</v>
+      </c>
+      <c r="AP204">
+        <v>2.2</v>
+      </c>
+      <c r="AQ204">
+        <v>2.36</v>
+      </c>
+      <c r="AR204">
+        <v>1.52</v>
+      </c>
+      <c r="AS204">
+        <v>1.31</v>
+      </c>
+      <c r="AT204">
+        <v>2.83</v>
+      </c>
+      <c r="AU204">
+        <v>4</v>
+      </c>
+      <c r="AV204">
+        <v>5</v>
+      </c>
+      <c r="AW204">
+        <v>7</v>
+      </c>
+      <c r="AX204">
+        <v>7</v>
+      </c>
+      <c r="AY204">
+        <v>11</v>
+      </c>
+      <c r="AZ204">
+        <v>12</v>
+      </c>
+      <c r="BA204">
+        <v>5</v>
+      </c>
+      <c r="BB204">
+        <v>3</v>
+      </c>
+      <c r="BC204">
+        <v>8</v>
+      </c>
+      <c r="BD204">
+        <v>2.46</v>
+      </c>
+      <c r="BE204">
+        <v>6.55</v>
+      </c>
+      <c r="BF204">
+        <v>1.87</v>
+      </c>
+      <c r="BG204">
+        <v>1.24</v>
+      </c>
+      <c r="BH204">
+        <v>3.48</v>
+      </c>
+      <c r="BI204">
+        <v>1.47</v>
+      </c>
+      <c r="BJ204">
+        <v>2.49</v>
+      </c>
+      <c r="BK204">
+        <v>1.82</v>
+      </c>
+      <c r="BL204">
+        <v>1.98</v>
+      </c>
+      <c r="BM204">
+        <v>2.34</v>
+      </c>
+      <c r="BN204">
+        <v>1.53</v>
+      </c>
+      <c r="BO204">
+        <v>3.14</v>
+      </c>
+      <c r="BP204">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7327099</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45473.25</v>
+      </c>
+      <c r="F205">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>77</v>
+      </c>
+      <c r="H205" t="s">
+        <v>71</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205" t="s">
+        <v>220</v>
+      </c>
+      <c r="P205" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q205">
+        <v>2.6</v>
+      </c>
+      <c r="R205">
+        <v>1.8</v>
+      </c>
+      <c r="S205">
+        <v>3.24</v>
+      </c>
+      <c r="T205">
+        <v>1.4</v>
+      </c>
+      <c r="U205">
+        <v>2.18</v>
+      </c>
+      <c r="V205">
+        <v>2.92</v>
+      </c>
+      <c r="W205">
+        <v>1.23</v>
+      </c>
+      <c r="X205">
+        <v>7.8</v>
+      </c>
+      <c r="Y205">
+        <v>1.03</v>
+      </c>
+      <c r="Z205">
+        <v>2.4</v>
+      </c>
+      <c r="AA205">
+        <v>3</v>
+      </c>
+      <c r="AB205">
+        <v>3.1</v>
+      </c>
+      <c r="AC205">
+        <v>1.09</v>
+      </c>
+      <c r="AD205">
+        <v>7</v>
+      </c>
+      <c r="AE205">
+        <v>1.55</v>
+      </c>
+      <c r="AF205">
+        <v>2.3</v>
+      </c>
+      <c r="AG205">
+        <v>2.38</v>
+      </c>
+      <c r="AH205">
+        <v>1.55</v>
+      </c>
+      <c r="AI205">
+        <v>1.8</v>
+      </c>
+      <c r="AJ205">
+        <v>1.62</v>
+      </c>
+      <c r="AK205">
+        <v>1.45</v>
+      </c>
+      <c r="AL205">
+        <v>1.47</v>
+      </c>
+      <c r="AM205">
+        <v>1.72</v>
+      </c>
+      <c r="AN205">
+        <v>1.9</v>
+      </c>
+      <c r="AO205">
+        <v>1.67</v>
+      </c>
+      <c r="AP205">
+        <v>2</v>
+      </c>
+      <c r="AQ205">
+        <v>1.5</v>
+      </c>
+      <c r="AR205">
+        <v>1.48</v>
+      </c>
+      <c r="AS205">
+        <v>1.47</v>
+      </c>
+      <c r="AT205">
+        <v>2.95</v>
+      </c>
+      <c r="AU205">
+        <v>5</v>
+      </c>
+      <c r="AV205">
+        <v>4</v>
+      </c>
+      <c r="AW205">
+        <v>9</v>
+      </c>
+      <c r="AX205">
+        <v>8</v>
+      </c>
+      <c r="AY205">
+        <v>14</v>
+      </c>
+      <c r="AZ205">
+        <v>12</v>
+      </c>
+      <c r="BA205">
+        <v>3</v>
+      </c>
+      <c r="BB205">
+        <v>11</v>
+      </c>
+      <c r="BC205">
+        <v>14</v>
+      </c>
+      <c r="BD205">
+        <v>1.54</v>
+      </c>
+      <c r="BE205">
+        <v>7.2</v>
+      </c>
+      <c r="BF205">
+        <v>3.28</v>
+      </c>
+      <c r="BG205">
+        <v>1.22</v>
+      </c>
+      <c r="BH205">
+        <v>4</v>
+      </c>
+      <c r="BI205">
+        <v>1.35</v>
+      </c>
+      <c r="BJ205">
+        <v>2.84</v>
+      </c>
+      <c r="BK205">
+        <v>1.63</v>
+      </c>
+      <c r="BL205">
+        <v>2.14</v>
+      </c>
+      <c r="BM205">
+        <v>2.06</v>
+      </c>
+      <c r="BN205">
+        <v>1.71</v>
+      </c>
+      <c r="BO205">
+        <v>2.69</v>
+      </c>
+      <c r="BP205">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,15 @@
     <t>['26', '65']</t>
   </si>
   <si>
+    <t>['21', '52', '74']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['17', '38', '62']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -950,6 +959,9 @@
   </si>
   <si>
     <t>['45+1', '61', '69']</t>
+  </si>
+  <si>
+    <t>['62', '64', '72', '90']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1776,7 +1788,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1857,7 +1869,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1982,7 +1994,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2394,7 +2406,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2472,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ6">
         <v>1.36</v>
@@ -2806,7 +2818,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2884,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
         <v>0.7</v>
@@ -3012,7 +3024,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3299,7 +3311,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3424,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3630,7 +3642,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3711,7 +3723,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3836,7 +3848,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3917,7 +3929,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ13">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4042,7 +4054,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4120,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ14">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4454,7 +4466,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4738,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ17">
         <v>0.3</v>
@@ -4866,7 +4878,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5072,7 +5084,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5150,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>1.45</v>
@@ -5484,7 +5496,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5562,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ21">
         <v>1.36</v>
@@ -5690,7 +5702,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5771,7 +5783,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6183,7 +6195,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6720,7 +6732,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6798,7 +6810,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -7007,7 +7019,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7544,7 +7556,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7750,7 +7762,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8034,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ33">
         <v>1.45</v>
@@ -8162,7 +8174,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8240,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ34">
         <v>1.3</v>
@@ -8368,7 +8380,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8449,7 +8461,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8574,7 +8586,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8780,7 +8792,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8986,7 +8998,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9192,7 +9204,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9398,7 +9410,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9476,7 +9488,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>1.1</v>
@@ -9604,7 +9616,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9685,7 +9697,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9810,7 +9822,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10097,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10300,7 +10312,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ44">
         <v>0.3</v>
@@ -10634,7 +10646,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10918,10 +10930,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
+        <v>1.91</v>
+      </c>
+      <c r="AQ47">
         <v>1.8</v>
-      </c>
-      <c r="AQ47">
-        <v>1.67</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -11127,7 +11139,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ48">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11742,7 +11754,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11951,7 +11963,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ52">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12282,7 +12294,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12360,7 +12372,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
         <v>1.36</v>
@@ -12569,7 +12581,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12694,7 +12706,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13312,7 +13324,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13518,7 +13530,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13596,7 +13608,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.1</v>
@@ -14011,7 +14023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14136,7 +14148,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14214,7 +14226,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ63">
         <v>1.27</v>
@@ -14342,7 +14354,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14548,7 +14560,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14629,7 +14641,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ65">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14960,7 +14972,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15247,7 +15259,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15450,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ69">
         <v>0.44</v>
@@ -15656,10 +15668,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
+        <v>1.33</v>
+      </c>
+      <c r="AQ70">
         <v>1.45</v>
-      </c>
-      <c r="AQ70">
-        <v>1.6</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -16196,7 +16208,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16402,7 +16414,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17101,7 +17113,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17226,7 +17238,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17638,7 +17650,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17844,7 +17856,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18256,7 +18268,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18462,7 +18474,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18540,10 +18552,10 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ84">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18746,7 +18758,7 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85">
         <v>2</v>
@@ -18874,7 +18886,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18955,7 +18967,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ86">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19158,7 +19170,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ87">
         <v>1.45</v>
@@ -19492,7 +19504,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19570,7 +19582,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>2.36</v>
@@ -19698,7 +19710,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19904,7 +19916,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20394,10 +20406,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20522,7 +20534,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20728,7 +20740,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21015,7 +21027,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21140,7 +21152,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21346,7 +21358,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21424,7 +21436,7 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
         <v>1.5</v>
@@ -21758,7 +21770,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21839,7 +21851,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22045,7 +22057,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -22170,7 +22182,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22582,7 +22594,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22660,10 +22672,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22869,7 +22881,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ105">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -23200,7 +23212,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23278,7 +23290,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ107">
         <v>1.36</v>
@@ -23612,7 +23624,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23818,7 +23830,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24024,7 +24036,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24102,7 +24114,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ111">
         <v>1.36</v>
@@ -24230,7 +24242,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24311,7 +24323,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24848,7 +24860,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25260,7 +25272,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25466,7 +25478,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25547,7 +25559,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ118">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -25750,7 +25762,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ119">
         <v>0.44</v>
@@ -25878,7 +25890,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25956,7 +25968,7 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ120">
         <v>1.27</v>
@@ -26084,7 +26096,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26290,7 +26302,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26371,7 +26383,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ122">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26496,7 +26508,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26780,7 +26792,7 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ124">
         <v>2.36</v>
@@ -27114,7 +27126,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27320,7 +27332,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27526,7 +27538,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27604,10 +27616,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27732,7 +27744,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27938,7 +27950,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28019,7 +28031,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ130">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -28431,7 +28443,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ132">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -29174,7 +29186,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29380,7 +29392,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29458,7 +29470,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ137">
         <v>0.7</v>
@@ -29664,10 +29676,10 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ138">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -29870,10 +29882,10 @@
         <v>1.29</v>
       </c>
       <c r="AP139">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -29998,7 +30010,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30204,7 +30216,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30282,7 +30294,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ141">
         <v>1.5</v>
@@ -30616,7 +30628,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30822,7 +30834,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31518,7 +31530,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
         <v>1.27</v>
@@ -31646,7 +31658,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31930,7 +31942,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ149">
         <v>1.36</v>
@@ -32058,7 +32070,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32139,7 +32151,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ150">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR150">
         <v>1.3</v>
@@ -32264,7 +32276,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32470,7 +32482,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32551,7 +32563,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32676,7 +32688,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32757,7 +32769,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ153">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -32960,7 +32972,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ154">
         <v>1.36</v>
@@ -33294,7 +33306,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33375,7 +33387,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ156">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR156">
         <v>0.96</v>
@@ -33578,7 +33590,7 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ157">
         <v>1.45</v>
@@ -33784,7 +33796,7 @@
         <v>2.29</v>
       </c>
       <c r="AP158">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ158">
         <v>2.36</v>
@@ -33993,7 +34005,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ159">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR159">
         <v>1.88</v>
@@ -34118,7 +34130,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34196,7 +34208,7 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ160">
         <v>1.89</v>
@@ -34405,7 +34417,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ161">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR161">
         <v>2.23</v>
@@ -34530,7 +34542,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34736,7 +34748,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34942,7 +34954,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35020,7 +35032,7 @@
         <v>1.33</v>
       </c>
       <c r="AP164">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ164">
         <v>1.45</v>
@@ -35226,7 +35238,7 @@
         <v>2.38</v>
       </c>
       <c r="AP165">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -35560,7 +35572,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35972,7 +35984,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36053,7 +36065,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ169">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR169">
         <v>1.41</v>
@@ -36178,7 +36190,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36384,7 +36396,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37080,7 +37092,7 @@
         <v>0.75</v>
       </c>
       <c r="AP174">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ174">
         <v>0.7</v>
@@ -37414,7 +37426,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37495,7 +37507,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ176">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR176">
         <v>1.65</v>
@@ -37904,10 +37916,10 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ178">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR178">
         <v>1.3</v>
@@ -38032,7 +38044,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38238,7 +38250,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38525,7 +38537,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ181">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38856,7 +38868,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39062,7 +39074,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39268,7 +39280,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39680,7 +39692,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -39758,10 +39770,10 @@
         <v>1.67</v>
       </c>
       <c r="AP187">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ187">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR187">
         <v>1.66</v>
@@ -39964,10 +39976,10 @@
         <v>1.11</v>
       </c>
       <c r="AP188">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR188">
         <v>1.44</v>
@@ -40092,7 +40104,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40170,7 +40182,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ189">
         <v>1.89</v>
@@ -40298,7 +40310,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40504,7 +40516,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40994,7 +41006,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
         <v>0.3</v>
@@ -41740,7 +41752,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -41821,7 +41833,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ197">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42230,7 +42242,7 @@
         <v>2.44</v>
       </c>
       <c r="AP199">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ199">
         <v>2.36</v>
@@ -42358,7 +42370,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42976,7 +42988,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43182,7 +43194,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43281,16 +43293,16 @@
         <v>5</v>
       </c>
       <c r="AW204">
+        <v>3</v>
+      </c>
+      <c r="AX204">
+        <v>5</v>
+      </c>
+      <c r="AY204">
         <v>7</v>
       </c>
-      <c r="AX204">
-        <v>7</v>
-      </c>
-      <c r="AY204">
-        <v>11</v>
-      </c>
       <c r="AZ204">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA204">
         <v>5</v>
@@ -43388,7 +43400,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43481,22 +43493,22 @@
         <v>2.95</v>
       </c>
       <c r="AU205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV205">
         <v>4</v>
       </c>
       <c r="AW205">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX205">
+        <v>4</v>
+      </c>
+      <c r="AY205">
         <v>8</v>
       </c>
-      <c r="AY205">
-        <v>14</v>
-      </c>
       <c r="AZ205">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA205">
         <v>3</v>
@@ -43545,6 +43557,1036 @@
       </c>
       <c r="BP205">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7327100</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45473.27083333334</v>
+      </c>
+      <c r="F206">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>87</v>
+      </c>
+      <c r="H206" t="s">
+        <v>72</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>221</v>
+      </c>
+      <c r="P206" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q206">
+        <v>1.96</v>
+      </c>
+      <c r="R206">
+        <v>2.02</v>
+      </c>
+      <c r="S206">
+        <v>4.12</v>
+      </c>
+      <c r="T206">
+        <v>1.28</v>
+      </c>
+      <c r="U206">
+        <v>2.56</v>
+      </c>
+      <c r="V206">
+        <v>2.32</v>
+      </c>
+      <c r="W206">
+        <v>1.34</v>
+      </c>
+      <c r="X206">
+        <v>5.32</v>
+      </c>
+      <c r="Y206">
+        <v>1.06</v>
+      </c>
+      <c r="Z206">
+        <v>1.71</v>
+      </c>
+      <c r="AA206">
+        <v>3.8</v>
+      </c>
+      <c r="AB206">
+        <v>4.5</v>
+      </c>
+      <c r="AC206">
+        <v>1.01</v>
+      </c>
+      <c r="AD206">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE206">
+        <v>1.24</v>
+      </c>
+      <c r="AF206">
+        <v>3.5</v>
+      </c>
+      <c r="AG206">
+        <v>1.83</v>
+      </c>
+      <c r="AH206">
+        <v>1.92</v>
+      </c>
+      <c r="AI206">
+        <v>1.66</v>
+      </c>
+      <c r="AJ206">
+        <v>1.75</v>
+      </c>
+      <c r="AK206">
+        <v>1.22</v>
+      </c>
+      <c r="AL206">
+        <v>1.33</v>
+      </c>
+      <c r="AM206">
+        <v>2.43</v>
+      </c>
+      <c r="AN206">
+        <v>1.8</v>
+      </c>
+      <c r="AO206">
+        <v>0.9</v>
+      </c>
+      <c r="AP206">
+        <v>1.91</v>
+      </c>
+      <c r="AQ206">
+        <v>0.82</v>
+      </c>
+      <c r="AR206">
+        <v>1.66</v>
+      </c>
+      <c r="AS206">
+        <v>1.24</v>
+      </c>
+      <c r="AT206">
+        <v>2.9</v>
+      </c>
+      <c r="AU206">
+        <v>10</v>
+      </c>
+      <c r="AV206">
+        <v>3</v>
+      </c>
+      <c r="AW206">
+        <v>8</v>
+      </c>
+      <c r="AX206">
+        <v>5</v>
+      </c>
+      <c r="AY206">
+        <v>18</v>
+      </c>
+      <c r="AZ206">
+        <v>8</v>
+      </c>
+      <c r="BA206">
+        <v>6</v>
+      </c>
+      <c r="BB206">
+        <v>2</v>
+      </c>
+      <c r="BC206">
+        <v>8</v>
+      </c>
+      <c r="BD206">
+        <v>1.3</v>
+      </c>
+      <c r="BE206">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF206">
+        <v>4.9</v>
+      </c>
+      <c r="BG206">
+        <v>1.18</v>
+      </c>
+      <c r="BH206">
+        <v>4.5</v>
+      </c>
+      <c r="BI206">
+        <v>1.28</v>
+      </c>
+      <c r="BJ206">
+        <v>3.2</v>
+      </c>
+      <c r="BK206">
+        <v>1.53</v>
+      </c>
+      <c r="BL206">
+        <v>2.34</v>
+      </c>
+      <c r="BM206">
+        <v>1.89</v>
+      </c>
+      <c r="BN206">
+        <v>1.85</v>
+      </c>
+      <c r="BO206">
+        <v>2.41</v>
+      </c>
+      <c r="BP206">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7327101</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45473.27083333334</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>85</v>
+      </c>
+      <c r="H207" t="s">
+        <v>73</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>91</v>
+      </c>
+      <c r="P207" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q207">
+        <v>2.6</v>
+      </c>
+      <c r="R207">
+        <v>1.75</v>
+      </c>
+      <c r="S207">
+        <v>3.48</v>
+      </c>
+      <c r="T207">
+        <v>1.45</v>
+      </c>
+      <c r="U207">
+        <v>2.06</v>
+      </c>
+      <c r="V207">
+        <v>3.08</v>
+      </c>
+      <c r="W207">
+        <v>1.21</v>
+      </c>
+      <c r="X207">
+        <v>8.6</v>
+      </c>
+      <c r="Y207">
+        <v>1.02</v>
+      </c>
+      <c r="Z207">
+        <v>2.3</v>
+      </c>
+      <c r="AA207">
+        <v>3.05</v>
+      </c>
+      <c r="AB207">
+        <v>3.25</v>
+      </c>
+      <c r="AC207">
+        <v>1.06</v>
+      </c>
+      <c r="AD207">
+        <v>6.5</v>
+      </c>
+      <c r="AE207">
+        <v>1.57</v>
+      </c>
+      <c r="AF207">
+        <v>2.42</v>
+      </c>
+      <c r="AG207">
+        <v>2.4</v>
+      </c>
+      <c r="AH207">
+        <v>1.53</v>
+      </c>
+      <c r="AI207">
+        <v>1.93</v>
+      </c>
+      <c r="AJ207">
+        <v>1.53</v>
+      </c>
+      <c r="AK207">
+        <v>1.39</v>
+      </c>
+      <c r="AL207">
+        <v>1.47</v>
+      </c>
+      <c r="AM207">
+        <v>1.78</v>
+      </c>
+      <c r="AN207">
+        <v>1.45</v>
+      </c>
+      <c r="AO207">
+        <v>1.67</v>
+      </c>
+      <c r="AP207">
+        <v>1.33</v>
+      </c>
+      <c r="AQ207">
+        <v>1.8</v>
+      </c>
+      <c r="AR207">
+        <v>1.33</v>
+      </c>
+      <c r="AS207">
+        <v>1.2</v>
+      </c>
+      <c r="AT207">
+        <v>2.53</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>5</v>
+      </c>
+      <c r="AW207">
+        <v>4</v>
+      </c>
+      <c r="AX207">
+        <v>6</v>
+      </c>
+      <c r="AY207">
+        <v>9</v>
+      </c>
+      <c r="AZ207">
+        <v>11</v>
+      </c>
+      <c r="BA207">
+        <v>6</v>
+      </c>
+      <c r="BB207">
+        <v>1</v>
+      </c>
+      <c r="BC207">
+        <v>7</v>
+      </c>
+      <c r="BD207">
+        <v>1.71</v>
+      </c>
+      <c r="BE207">
+        <v>6.65</v>
+      </c>
+      <c r="BF207">
+        <v>2.79</v>
+      </c>
+      <c r="BG207">
+        <v>1.24</v>
+      </c>
+      <c r="BH207">
+        <v>3.48</v>
+      </c>
+      <c r="BI207">
+        <v>1.47</v>
+      </c>
+      <c r="BJ207">
+        <v>2.49</v>
+      </c>
+      <c r="BK207">
+        <v>1.8</v>
+      </c>
+      <c r="BL207">
+        <v>2</v>
+      </c>
+      <c r="BM207">
+        <v>2.34</v>
+      </c>
+      <c r="BN207">
+        <v>1.53</v>
+      </c>
+      <c r="BO207">
+        <v>3.14</v>
+      </c>
+      <c r="BP207">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7327104</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F208">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>74</v>
+      </c>
+      <c r="H208" t="s">
+        <v>78</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>4</v>
+      </c>
+      <c r="N208">
+        <v>5</v>
+      </c>
+      <c r="O208" t="s">
+        <v>222</v>
+      </c>
+      <c r="P208" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q208">
+        <v>3.85</v>
+      </c>
+      <c r="R208">
+        <v>2.1</v>
+      </c>
+      <c r="S208">
+        <v>2.6</v>
+      </c>
+      <c r="T208">
+        <v>1.28</v>
+      </c>
+      <c r="U208">
+        <v>2.6</v>
+      </c>
+      <c r="V208">
+        <v>2.24</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>5.08</v>
+      </c>
+      <c r="Y208">
+        <v>1.07</v>
+      </c>
+      <c r="Z208">
+        <v>3.45</v>
+      </c>
+      <c r="AA208">
+        <v>3.55</v>
+      </c>
+      <c r="AB208">
+        <v>2</v>
+      </c>
+      <c r="AC208">
+        <v>1.01</v>
+      </c>
+      <c r="AD208">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE208">
+        <v>1.24</v>
+      </c>
+      <c r="AF208">
+        <v>3.5</v>
+      </c>
+      <c r="AG208">
+        <v>1.82</v>
+      </c>
+      <c r="AH208">
+        <v>1.94</v>
+      </c>
+      <c r="AI208">
+        <v>1.56</v>
+      </c>
+      <c r="AJ208">
+        <v>1.88</v>
+      </c>
+      <c r="AK208">
+        <v>1.73</v>
+      </c>
+      <c r="AL208">
+        <v>1.25</v>
+      </c>
+      <c r="AM208">
+        <v>1.3</v>
+      </c>
+      <c r="AN208">
+        <v>1.3</v>
+      </c>
+      <c r="AO208">
+        <v>1.1</v>
+      </c>
+      <c r="AP208">
+        <v>1.18</v>
+      </c>
+      <c r="AQ208">
+        <v>1.27</v>
+      </c>
+      <c r="AR208">
+        <v>1.46</v>
+      </c>
+      <c r="AS208">
+        <v>1.59</v>
+      </c>
+      <c r="AT208">
+        <v>3.05</v>
+      </c>
+      <c r="AU208">
+        <v>4</v>
+      </c>
+      <c r="AV208">
+        <v>7</v>
+      </c>
+      <c r="AW208">
+        <v>3</v>
+      </c>
+      <c r="AX208">
+        <v>8</v>
+      </c>
+      <c r="AY208">
+        <v>7</v>
+      </c>
+      <c r="AZ208">
+        <v>15</v>
+      </c>
+      <c r="BA208">
+        <v>9</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BC208">
+        <v>10</v>
+      </c>
+      <c r="BD208">
+        <v>2.41</v>
+      </c>
+      <c r="BE208">
+        <v>6.7</v>
+      </c>
+      <c r="BF208">
+        <v>1.89</v>
+      </c>
+      <c r="BG208">
+        <v>1.22</v>
+      </c>
+      <c r="BH208">
+        <v>4.1</v>
+      </c>
+      <c r="BI208">
+        <v>1.33</v>
+      </c>
+      <c r="BJ208">
+        <v>2.93</v>
+      </c>
+      <c r="BK208">
+        <v>1.6</v>
+      </c>
+      <c r="BL208">
+        <v>2.19</v>
+      </c>
+      <c r="BM208">
+        <v>2.01</v>
+      </c>
+      <c r="BN208">
+        <v>1.75</v>
+      </c>
+      <c r="BO208">
+        <v>2.58</v>
+      </c>
+      <c r="BP208">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7327102</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F209">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>76</v>
+      </c>
+      <c r="H209" t="s">
+        <v>83</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>91</v>
+      </c>
+      <c r="P209" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q209">
+        <v>2.24</v>
+      </c>
+      <c r="R209">
+        <v>1.93</v>
+      </c>
+      <c r="S209">
+        <v>3.48</v>
+      </c>
+      <c r="T209">
+        <v>1.3</v>
+      </c>
+      <c r="U209">
+        <v>2.48</v>
+      </c>
+      <c r="V209">
+        <v>2.44</v>
+      </c>
+      <c r="W209">
+        <v>1.3</v>
+      </c>
+      <c r="X209">
+        <v>5.8</v>
+      </c>
+      <c r="Y209">
+        <v>1.06</v>
+      </c>
+      <c r="Z209">
+        <v>2</v>
+      </c>
+      <c r="AA209">
+        <v>3.35</v>
+      </c>
+      <c r="AB209">
+        <v>3.65</v>
+      </c>
+      <c r="AC209">
+        <v>1.02</v>
+      </c>
+      <c r="AD209">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE209">
+        <v>1.28</v>
+      </c>
+      <c r="AF209">
+        <v>3.18</v>
+      </c>
+      <c r="AG209">
+        <v>1.96</v>
+      </c>
+      <c r="AH209">
+        <v>1.8</v>
+      </c>
+      <c r="AI209">
+        <v>1.75</v>
+      </c>
+      <c r="AJ209">
+        <v>1.93</v>
+      </c>
+      <c r="AK209">
+        <v>1.28</v>
+      </c>
+      <c r="AL209">
+        <v>1.25</v>
+      </c>
+      <c r="AM209">
+        <v>1.77</v>
+      </c>
+      <c r="AN209">
+        <v>0.89</v>
+      </c>
+      <c r="AO209">
+        <v>1</v>
+      </c>
+      <c r="AP209">
+        <v>0.8</v>
+      </c>
+      <c r="AQ209">
+        <v>1.18</v>
+      </c>
+      <c r="AR209">
+        <v>1.53</v>
+      </c>
+      <c r="AS209">
+        <v>1.35</v>
+      </c>
+      <c r="AT209">
+        <v>2.88</v>
+      </c>
+      <c r="AU209">
+        <v>2</v>
+      </c>
+      <c r="AV209">
+        <v>3</v>
+      </c>
+      <c r="AW209">
+        <v>7</v>
+      </c>
+      <c r="AX209">
+        <v>5</v>
+      </c>
+      <c r="AY209">
+        <v>9</v>
+      </c>
+      <c r="AZ209">
+        <v>8</v>
+      </c>
+      <c r="BA209">
+        <v>5</v>
+      </c>
+      <c r="BB209">
+        <v>3</v>
+      </c>
+      <c r="BC209">
+        <v>8</v>
+      </c>
+      <c r="BD209">
+        <v>1.51</v>
+      </c>
+      <c r="BE209">
+        <v>7.5</v>
+      </c>
+      <c r="BF209">
+        <v>3.36</v>
+      </c>
+      <c r="BG209">
+        <v>1.14</v>
+      </c>
+      <c r="BH209">
+        <v>5.6</v>
+      </c>
+      <c r="BI209">
+        <v>1.22</v>
+      </c>
+      <c r="BJ209">
+        <v>3.65</v>
+      </c>
+      <c r="BK209">
+        <v>1.43</v>
+      </c>
+      <c r="BL209">
+        <v>2.62</v>
+      </c>
+      <c r="BM209">
+        <v>1.85</v>
+      </c>
+      <c r="BN209">
+        <v>1.95</v>
+      </c>
+      <c r="BO209">
+        <v>2.17</v>
+      </c>
+      <c r="BP209">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7327103</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F210">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>82</v>
+      </c>
+      <c r="H210" t="s">
+        <v>84</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>3</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>4</v>
+      </c>
+      <c r="O210" t="s">
+        <v>223</v>
+      </c>
+      <c r="P210" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q210">
+        <v>2.16</v>
+      </c>
+      <c r="R210">
+        <v>1.94</v>
+      </c>
+      <c r="S210">
+        <v>3.72</v>
+      </c>
+      <c r="T210">
+        <v>1.28</v>
+      </c>
+      <c r="U210">
+        <v>2.52</v>
+      </c>
+      <c r="V210">
+        <v>2.4</v>
+      </c>
+      <c r="W210">
+        <v>1.32</v>
+      </c>
+      <c r="X210">
+        <v>5.72</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>1.95</v>
+      </c>
+      <c r="AA210">
+        <v>3.4</v>
+      </c>
+      <c r="AB210">
+        <v>3.8</v>
+      </c>
+      <c r="AC210">
+        <v>1.02</v>
+      </c>
+      <c r="AD210">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE210">
+        <v>1.28</v>
+      </c>
+      <c r="AF210">
+        <v>3.18</v>
+      </c>
+      <c r="AG210">
+        <v>2.02</v>
+      </c>
+      <c r="AH210">
+        <v>1.75</v>
+      </c>
+      <c r="AI210">
+        <v>1.67</v>
+      </c>
+      <c r="AJ210">
+        <v>1.73</v>
+      </c>
+      <c r="AK210">
+        <v>1.32</v>
+      </c>
+      <c r="AL210">
+        <v>1.37</v>
+      </c>
+      <c r="AM210">
+        <v>2.1</v>
+      </c>
+      <c r="AN210">
+        <v>1.4</v>
+      </c>
+      <c r="AO210">
+        <v>1.6</v>
+      </c>
+      <c r="AP210">
+        <v>1.55</v>
+      </c>
+      <c r="AQ210">
+        <v>1.45</v>
+      </c>
+      <c r="AR210">
+        <v>1.72</v>
+      </c>
+      <c r="AS210">
+        <v>1.4</v>
+      </c>
+      <c r="AT210">
+        <v>3.12</v>
+      </c>
+      <c r="AU210">
+        <v>8</v>
+      </c>
+      <c r="AV210">
+        <v>3</v>
+      </c>
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>5</v>
+      </c>
+      <c r="AY210">
+        <v>12</v>
+      </c>
+      <c r="AZ210">
+        <v>8</v>
+      </c>
+      <c r="BA210">
+        <v>2</v>
+      </c>
+      <c r="BB210">
+        <v>3</v>
+      </c>
+      <c r="BC210">
+        <v>5</v>
+      </c>
+      <c r="BD210">
+        <v>1.39</v>
+      </c>
+      <c r="BE210">
+        <v>7.7</v>
+      </c>
+      <c r="BF210">
+        <v>4.1</v>
+      </c>
+      <c r="BG210">
+        <v>1.18</v>
+      </c>
+      <c r="BH210">
+        <v>4.5</v>
+      </c>
+      <c r="BI210">
+        <v>1.29</v>
+      </c>
+      <c r="BJ210">
+        <v>3.14</v>
+      </c>
+      <c r="BK210">
+        <v>1.54</v>
+      </c>
+      <c r="BL210">
+        <v>2.32</v>
+      </c>
+      <c r="BM210">
+        <v>1.91</v>
+      </c>
+      <c r="BN210">
+        <v>1.83</v>
+      </c>
+      <c r="BO210">
+        <v>2.44</v>
+      </c>
+      <c r="BP210">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1323,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ12">
         <v>1.8</v>
@@ -6401,7 +6401,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -10727,7 +10727,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ46">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -13196,7 +13196,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ58">
         <v>0.7</v>
@@ -15465,7 +15465,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ69">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15874,7 +15874,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ71">
         <v>1.45</v>
@@ -16286,7 +16286,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ73">
         <v>0.73</v>
@@ -17937,7 +17937,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ81">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -21645,7 +21645,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -22054,7 +22054,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ101">
         <v>0.82</v>
@@ -25765,7 +25765,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ119">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -26589,7 +26589,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ123">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -34002,7 +34002,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ159">
         <v>1.27</v>
@@ -36268,7 +36268,7 @@
         <v>2.38</v>
       </c>
       <c r="AP170">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ170">
         <v>2.36</v>
@@ -37301,7 +37301,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ175">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -38328,7 +38328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ180">
         <v>1.45</v>
@@ -42039,7 +42039,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR198">
         <v>1.52</v>
@@ -43066,7 +43066,7 @@
         <v>1.2</v>
       </c>
       <c r="AP203">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ203">
         <v>1.36</v>
@@ -44587,6 +44587,212 @@
       </c>
       <c r="BP210">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7327048</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45476.29166666666</v>
+      </c>
+      <c r="F211">
+        <v>16</v>
+      </c>
+      <c r="G211" t="s">
+        <v>80</v>
+      </c>
+      <c r="H211" t="s">
+        <v>74</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>91</v>
+      </c>
+      <c r="P211" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q211">
+        <v>2.2</v>
+      </c>
+      <c r="R211">
+        <v>2.6</v>
+      </c>
+      <c r="S211">
+        <v>4.33</v>
+      </c>
+      <c r="T211">
+        <v>1.22</v>
+      </c>
+      <c r="U211">
+        <v>4</v>
+      </c>
+      <c r="V211">
+        <v>2.1</v>
+      </c>
+      <c r="W211">
+        <v>1.67</v>
+      </c>
+      <c r="X211">
+        <v>4.5</v>
+      </c>
+      <c r="Y211">
+        <v>1.18</v>
+      </c>
+      <c r="Z211">
+        <v>1.65</v>
+      </c>
+      <c r="AA211">
+        <v>4.33</v>
+      </c>
+      <c r="AB211">
+        <v>4.33</v>
+      </c>
+      <c r="AC211">
+        <v>1.01</v>
+      </c>
+      <c r="AD211">
+        <v>10.75</v>
+      </c>
+      <c r="AE211">
+        <v>1.14</v>
+      </c>
+      <c r="AF211">
+        <v>5.5</v>
+      </c>
+      <c r="AG211">
+        <v>1.41</v>
+      </c>
+      <c r="AH211">
+        <v>2.63</v>
+      </c>
+      <c r="AI211">
+        <v>1.5</v>
+      </c>
+      <c r="AJ211">
+        <v>2.5</v>
+      </c>
+      <c r="AK211">
+        <v>1.2</v>
+      </c>
+      <c r="AL211">
+        <v>1.17</v>
+      </c>
+      <c r="AM211">
+        <v>2.2</v>
+      </c>
+      <c r="AN211">
+        <v>1.33</v>
+      </c>
+      <c r="AO211">
+        <v>0.44</v>
+      </c>
+      <c r="AP211">
+        <v>1.2</v>
+      </c>
+      <c r="AQ211">
+        <v>0.7</v>
+      </c>
+      <c r="AR211">
+        <v>1.71</v>
+      </c>
+      <c r="AS211">
+        <v>1.18</v>
+      </c>
+      <c r="AT211">
+        <v>2.89</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>7</v>
+      </c>
+      <c r="AW211">
+        <v>12</v>
+      </c>
+      <c r="AX211">
+        <v>6</v>
+      </c>
+      <c r="AY211">
+        <v>18</v>
+      </c>
+      <c r="AZ211">
+        <v>13</v>
+      </c>
+      <c r="BA211">
+        <v>8</v>
+      </c>
+      <c r="BB211">
+        <v>7</v>
+      </c>
+      <c r="BC211">
+        <v>15</v>
+      </c>
+      <c r="BD211">
+        <v>1.32</v>
+      </c>
+      <c r="BE211">
+        <v>8.4</v>
+      </c>
+      <c r="BF211">
+        <v>4.6</v>
+      </c>
+      <c r="BG211">
+        <v>1.15</v>
+      </c>
+      <c r="BH211">
+        <v>4.75</v>
+      </c>
+      <c r="BI211">
+        <v>1.22</v>
+      </c>
+      <c r="BJ211">
+        <v>3.65</v>
+      </c>
+      <c r="BK211">
+        <v>1.42</v>
+      </c>
+      <c r="BL211">
+        <v>2.65</v>
+      </c>
+      <c r="BM211">
+        <v>1.73</v>
+      </c>
+      <c r="BN211">
+        <v>2.04</v>
+      </c>
+      <c r="BO211">
+        <v>2.14</v>
+      </c>
+      <c r="BP211">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -963,6 +963,9 @@
   <si>
     <t>['62', '64', '72', '90']</t>
   </si>
+  <si>
+    <t>['11', '52', '71']</t>
+  </si>
 </sst>
 </file>
 
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ2">
         <v>1.1</v>
@@ -2075,7 +2078,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -6398,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
         <v>0.7</v>
@@ -6813,7 +6816,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -9900,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ42">
         <v>1.45</v>
@@ -11757,7 +11760,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -14844,7 +14847,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66">
         <v>0.73</v>
@@ -17319,7 +17322,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -18761,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -21230,7 +21233,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ97">
         <v>0.7</v>
@@ -23911,7 +23914,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -25350,7 +25353,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -27413,7 +27416,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -28028,7 +28031,7 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ130">
         <v>1.45</v>
@@ -31327,7 +31330,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ146">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -34414,7 +34417,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ161">
         <v>0.82</v>
@@ -35241,7 +35244,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -36474,7 +36477,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ171">
         <v>1.36</v>
@@ -39361,7 +39364,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ185">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -40594,7 +40597,7 @@
         <v>1.22</v>
       </c>
       <c r="AP191">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ191">
         <v>1.36</v>
@@ -44793,6 +44796,212 @@
       </c>
       <c r="BP211">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7327105</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45478.29166666666</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>70</v>
+      </c>
+      <c r="H212" t="s">
+        <v>82</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>2</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212" t="s">
+        <v>93</v>
+      </c>
+      <c r="P212" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q212">
+        <v>2.8</v>
+      </c>
+      <c r="R212">
+        <v>2.05</v>
+      </c>
+      <c r="S212">
+        <v>3.65</v>
+      </c>
+      <c r="T212">
+        <v>1.4</v>
+      </c>
+      <c r="U212">
+        <v>2.75</v>
+      </c>
+      <c r="V212">
+        <v>2.8</v>
+      </c>
+      <c r="W212">
+        <v>1.38</v>
+      </c>
+      <c r="X212">
+        <v>6.95</v>
+      </c>
+      <c r="Y212">
+        <v>1.07</v>
+      </c>
+      <c r="Z212">
+        <v>2.03</v>
+      </c>
+      <c r="AA212">
+        <v>3.37</v>
+      </c>
+      <c r="AB212">
+        <v>3.52</v>
+      </c>
+      <c r="AC212">
+        <v>1.06</v>
+      </c>
+      <c r="AD212">
+        <v>8.5</v>
+      </c>
+      <c r="AE212">
+        <v>1.3</v>
+      </c>
+      <c r="AF212">
+        <v>3.35</v>
+      </c>
+      <c r="AG212">
+        <v>1.94</v>
+      </c>
+      <c r="AH212">
+        <v>1.83</v>
+      </c>
+      <c r="AI212">
+        <v>1.7</v>
+      </c>
+      <c r="AJ212">
+        <v>2</v>
+      </c>
+      <c r="AK212">
+        <v>1.33</v>
+      </c>
+      <c r="AL212">
+        <v>1.25</v>
+      </c>
+      <c r="AM212">
+        <v>1.67</v>
+      </c>
+      <c r="AN212">
+        <v>1.8</v>
+      </c>
+      <c r="AO212">
+        <v>2</v>
+      </c>
+      <c r="AP212">
+        <v>1.64</v>
+      </c>
+      <c r="AQ212">
+        <v>2.09</v>
+      </c>
+      <c r="AR212">
+        <v>2.16</v>
+      </c>
+      <c r="AS212">
+        <v>1.42</v>
+      </c>
+      <c r="AT212">
+        <v>3.58</v>
+      </c>
+      <c r="AU212">
+        <v>4</v>
+      </c>
+      <c r="AV212">
+        <v>2</v>
+      </c>
+      <c r="AW212">
+        <v>3</v>
+      </c>
+      <c r="AX212">
+        <v>1</v>
+      </c>
+      <c r="AY212">
+        <v>7</v>
+      </c>
+      <c r="AZ212">
+        <v>3</v>
+      </c>
+      <c r="BA212">
+        <v>5</v>
+      </c>
+      <c r="BB212">
+        <v>2</v>
+      </c>
+      <c r="BC212">
+        <v>7</v>
+      </c>
+      <c r="BD212">
+        <v>1.5</v>
+      </c>
+      <c r="BE212">
+        <v>9</v>
+      </c>
+      <c r="BF212">
+        <v>3</v>
+      </c>
+      <c r="BG212">
+        <v>1.2</v>
+      </c>
+      <c r="BH212">
+        <v>4</v>
+      </c>
+      <c r="BI212">
+        <v>1.33</v>
+      </c>
+      <c r="BJ212">
+        <v>3.1</v>
+      </c>
+      <c r="BK212">
+        <v>1.57</v>
+      </c>
+      <c r="BL212">
+        <v>2.3</v>
+      </c>
+      <c r="BM212">
+        <v>2</v>
+      </c>
+      <c r="BN212">
+        <v>1.8</v>
+      </c>
+      <c r="BO212">
+        <v>2.45</v>
+      </c>
+      <c r="BP212">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -44938,31 +44938,31 @@
         <v>3.58</v>
       </c>
       <c r="AU212">
+        <v>5</v>
+      </c>
+      <c r="AV212">
+        <v>7</v>
+      </c>
+      <c r="AW212">
+        <v>6</v>
+      </c>
+      <c r="AX212">
         <v>4</v>
       </c>
-      <c r="AV212">
-        <v>2</v>
-      </c>
-      <c r="AW212">
-        <v>3</v>
-      </c>
-      <c r="AX212">
-        <v>1</v>
-      </c>
       <c r="AY212">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ212">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BA212">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC212">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD212">
         <v>1.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,27 @@
     <t>['17', '38', '62']</t>
   </si>
   <si>
+    <t>['61', '66']</t>
+  </si>
+  <si>
+    <t>['17', '61', '84']</t>
+  </si>
+  <si>
+    <t>['20', '90+2']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['61', '74']</t>
+  </si>
+  <si>
+    <t>['4', '45+3', '70', '88']</t>
+  </si>
+  <si>
+    <t>['14', '32', '90+4']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -965,6 +986,21 @@
   </si>
   <si>
     <t>['11', '52', '71']</t>
+  </si>
+  <si>
+    <t>['13', '32', '51', '53']</t>
+  </si>
+  <si>
+    <t>['51', '80']</t>
+  </si>
+  <si>
+    <t>['32', '90', '90+2']</t>
+  </si>
+  <si>
+    <t>['2', '86']</t>
+  </si>
+  <si>
+    <t>['47', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP212"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1791,7 +1827,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1997,7 +2033,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2075,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
         <v>2.09</v>
@@ -2281,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2409,7 +2445,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2693,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ7">
         <v>1.45</v>
@@ -2821,7 +2857,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2902,7 +2938,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3027,7 +3063,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3108,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3311,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ10">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3439,7 +3475,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3517,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ11">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3645,7 +3681,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3851,7 +3887,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4057,7 +4093,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4469,7 +4505,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4550,7 +4586,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4756,7 +4792,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ17">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4881,7 +4917,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -4959,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ18">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5087,7 +5123,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5371,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ20">
         <v>1.36</v>
@@ -5499,7 +5535,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5577,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>1.36</v>
@@ -5705,7 +5741,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5783,7 +5819,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22">
         <v>1.27</v>
@@ -5989,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6195,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ24">
         <v>1.45</v>
@@ -6404,7 +6440,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6607,10 +6643,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ26">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6735,7 +6771,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7022,7 +7058,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ28">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7559,7 +7595,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7637,10 +7673,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ31">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7765,7 +7801,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8177,7 +8213,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8258,7 +8294,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8383,7 +8419,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8461,7 +8497,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ35">
         <v>0.82</v>
@@ -8589,7 +8625,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8667,10 +8703,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8795,7 +8831,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8873,7 +8909,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
         <v>1.36</v>
@@ -9001,7 +9037,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9082,7 +9118,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9207,7 +9243,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9285,10 +9321,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ39">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9413,7 +9449,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9619,7 +9655,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9697,10 +9733,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ41">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9825,7 +9861,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10109,7 +10145,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43">
         <v>1.27</v>
@@ -10318,7 +10354,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ44">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10524,7 +10560,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ45">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10649,7 +10685,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10727,10 +10763,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ46">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -10933,7 +10969,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>1.8</v>
@@ -11139,7 +11175,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ48">
         <v>0.82</v>
@@ -11348,7 +11384,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ49">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11554,7 +11590,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11963,7 +11999,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
         <v>1.45</v>
@@ -12169,7 +12205,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ53">
         <v>1.36</v>
@@ -12297,7 +12333,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12581,10 +12617,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ55">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12709,7 +12745,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12787,7 +12823,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>1.45</v>
@@ -12993,10 +13029,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ57">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13202,7 +13238,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ58">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13327,7 +13363,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13408,7 +13444,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13533,7 +13569,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14023,7 +14059,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ62">
         <v>1.27</v>
@@ -14151,7 +14187,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14232,7 +14268,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ63">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14357,7 +14393,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14435,10 +14471,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ64">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14563,7 +14599,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14850,7 +14886,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ66">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -14975,7 +15011,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15465,10 +15501,10 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -16083,7 +16119,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ72">
         <v>1.1</v>
@@ -16211,7 +16247,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16292,7 +16328,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ73">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16417,7 +16453,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16495,10 +16531,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ74">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16701,10 +16737,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16907,7 +16943,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76">
         <v>1.45</v>
@@ -17113,10 +17149,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ77">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17241,7 +17277,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17319,7 +17355,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ78">
         <v>2.09</v>
@@ -17528,7 +17564,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17653,7 +17689,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17731,10 +17767,10 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ80">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17859,7 +17895,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17937,10 +17973,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ81">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18271,7 +18307,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18477,7 +18513,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18889,7 +18925,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -18967,7 +19003,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ86">
         <v>0.82</v>
@@ -19173,7 +19209,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ87">
         <v>1.45</v>
@@ -19507,7 +19543,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19713,7 +19749,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19794,7 +19830,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ90">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -19919,7 +19955,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20000,7 +20036,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ91">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20203,7 +20239,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ92">
         <v>2.36</v>
@@ -20412,7 +20448,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ93">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20537,7 +20573,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20615,10 +20651,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ94">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20743,7 +20779,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20824,7 +20860,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21027,7 +21063,7 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ96">
         <v>1.8</v>
@@ -21155,7 +21191,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21236,7 +21272,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ97">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21361,7 +21397,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21439,10 +21475,10 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21645,10 +21681,10 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ99">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21773,7 +21809,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21851,7 +21887,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ100">
         <v>1.45</v>
@@ -22185,7 +22221,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22263,7 +22299,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ102">
         <v>1.45</v>
@@ -22469,10 +22505,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22597,7 +22633,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22678,7 +22714,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22881,7 +22917,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ105">
         <v>1.27</v>
@@ -23090,7 +23126,7 @@
         <v>2</v>
       </c>
       <c r="AQ106">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23215,7 +23251,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23499,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ108">
         <v>1.45</v>
@@ -23627,7 +23663,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23833,7 +23869,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24039,7 +24075,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24245,7 +24281,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24323,7 +24359,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ112">
         <v>0.82</v>
@@ -24529,10 +24565,10 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ113">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -24735,10 +24771,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ114">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24863,7 +24899,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25150,7 +25186,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ116">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25275,7 +25311,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25356,7 +25392,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -25481,7 +25517,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25559,7 +25595,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ118">
         <v>1.45</v>
@@ -25768,7 +25804,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ119">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25893,7 +25929,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25971,10 +26007,10 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ120">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -26099,7 +26135,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26177,7 +26213,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ121">
         <v>1.1</v>
@@ -26305,7 +26341,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26511,7 +26547,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26589,10 +26625,10 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ123">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -27004,7 +27040,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ125">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27129,7 +27165,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27335,7 +27371,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27541,7 +27577,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27747,7 +27783,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27825,7 +27861,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ129">
         <v>1.36</v>
@@ -27953,7 +27989,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28240,7 +28276,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ131">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR131">
         <v>0.9399999999999999</v>
@@ -28649,10 +28685,10 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ133">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -28855,7 +28891,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ134">
         <v>1.45</v>
@@ -29061,10 +29097,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ135">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29189,7 +29225,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29267,10 +29303,10 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ136">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29395,7 +29431,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29476,7 +29512,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29885,10 +29921,10 @@
         <v>1.29</v>
       </c>
       <c r="AP139">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ139">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30013,7 +30049,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30091,10 +30127,10 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30219,7 +30255,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30300,7 +30336,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ141">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30503,7 +30539,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ142">
         <v>1.36</v>
@@ -30631,7 +30667,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30709,7 +30745,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ143">
         <v>1.1</v>
@@ -30837,7 +30873,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31121,10 +31157,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ145">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31327,7 +31363,7 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ146">
         <v>2.09</v>
@@ -31536,7 +31572,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -31661,7 +31697,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31739,10 +31775,10 @@
         <v>0.5</v>
       </c>
       <c r="AP148">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ148">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -32073,7 +32109,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32279,7 +32315,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32357,10 +32393,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ151">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR151">
         <v>1.18</v>
@@ -32485,7 +32521,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32563,7 +32599,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ152">
         <v>1.8</v>
@@ -32691,7 +32727,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33309,7 +33345,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33390,7 +33426,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ156">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
         <v>0.96</v>
@@ -33799,7 +33835,7 @@
         <v>2.29</v>
       </c>
       <c r="AP158">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ158">
         <v>2.36</v>
@@ -34133,7 +34169,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34214,7 +34250,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ160">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR160">
         <v>1.45</v>
@@ -34545,7 +34581,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34623,10 +34659,10 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ162">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -34751,7 +34787,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34829,7 +34865,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ163">
         <v>1.36</v>
@@ -34957,7 +34993,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35241,7 +35277,7 @@
         <v>2.38</v>
       </c>
       <c r="AP165">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ165">
         <v>2.09</v>
@@ -35450,7 +35486,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ166">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR166">
         <v>1.37</v>
@@ -35575,7 +35611,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35653,10 +35689,10 @@
         <v>0.43</v>
       </c>
       <c r="AP167">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ167">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35862,7 +35898,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -35987,7 +36023,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36065,7 +36101,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ169">
         <v>1.8</v>
@@ -36193,7 +36229,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36399,7 +36435,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36892,7 +36928,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ173">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -37098,7 +37134,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ174">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR174">
         <v>1.8</v>
@@ -37301,10 +37337,10 @@
         <v>0.57</v>
       </c>
       <c r="AP175">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ175">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37429,7 +37465,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37507,7 +37543,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ176">
         <v>1.27</v>
@@ -37713,7 +37749,7 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ177">
         <v>1.36</v>
@@ -38047,7 +38083,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38128,7 +38164,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ179">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR179">
         <v>1</v>
@@ -38253,7 +38289,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38537,7 +38573,7 @@
         <v>1.75</v>
       </c>
       <c r="AP181">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ181">
         <v>1.8</v>
@@ -38743,10 +38779,10 @@
         <v>1.88</v>
       </c>
       <c r="AP182">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ182">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR182">
         <v>1.53</v>
@@ -38871,7 +38907,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -38949,10 +38985,10 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ183">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR183">
         <v>1.43</v>
@@ -39077,7 +39113,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39155,10 +39191,10 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ184">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39283,7 +39319,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39361,7 +39397,7 @@
         <v>2.22</v>
       </c>
       <c r="AP185">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ185">
         <v>2.09</v>
@@ -39567,7 +39603,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ186">
         <v>1.45</v>
@@ -39695,7 +39731,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -39773,7 +39809,7 @@
         <v>1.67</v>
       </c>
       <c r="AP187">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ187">
         <v>1.45</v>
@@ -39982,7 +40018,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ188">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR188">
         <v>1.44</v>
@@ -40107,7 +40143,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40188,7 +40224,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ189">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40313,7 +40349,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40394,7 +40430,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ190">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR190">
         <v>1.27</v>
@@ -40519,7 +40555,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40803,7 +40839,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ192">
         <v>1.45</v>
@@ -41012,7 +41048,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR193">
         <v>1.31</v>
@@ -41218,7 +41254,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ194">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR194">
         <v>1.65</v>
@@ -41421,7 +41457,7 @@
         <v>1.33</v>
       </c>
       <c r="AP195">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ195">
         <v>1.36</v>
@@ -41755,7 +41791,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42042,7 +42078,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR198">
         <v>1.52</v>
@@ -42373,7 +42409,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42451,10 +42487,10 @@
         <v>1.4</v>
       </c>
       <c r="AP200">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR200">
         <v>1.37</v>
@@ -42991,7 +43027,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43197,7 +43233,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43275,7 +43311,7 @@
         <v>2.3</v>
       </c>
       <c r="AP204">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ204">
         <v>2.36</v>
@@ -43403,7 +43439,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43484,7 +43520,7 @@
         <v>2</v>
       </c>
       <c r="AQ205">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -43687,7 +43723,7 @@
         <v>0.9</v>
       </c>
       <c r="AP206">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ206">
         <v>0.82</v>
@@ -44021,7 +44057,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44227,7 +44263,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44308,7 +44344,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ209">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -44720,7 +44756,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ211">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR211">
         <v>1.71</v>
@@ -44845,7 +44881,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45002,6 +45038,1860 @@
       </c>
       <c r="BP212">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7327108</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45479.25</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>75</v>
+      </c>
+      <c r="H213" t="s">
+        <v>71</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>131</v>
+      </c>
+      <c r="P213" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q213">
+        <v>2.64</v>
+      </c>
+      <c r="R213">
+        <v>2.12</v>
+      </c>
+      <c r="S213">
+        <v>4.83</v>
+      </c>
+      <c r="T213">
+        <v>1.47</v>
+      </c>
+      <c r="U213">
+        <v>2.68</v>
+      </c>
+      <c r="V213">
+        <v>3.38</v>
+      </c>
+      <c r="W213">
+        <v>1.32</v>
+      </c>
+      <c r="X213">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y213">
+        <v>1.04</v>
+      </c>
+      <c r="Z213">
+        <v>1.95</v>
+      </c>
+      <c r="AA213">
+        <v>3.3</v>
+      </c>
+      <c r="AB213">
+        <v>3.9</v>
+      </c>
+      <c r="AC213">
+        <v>1.08</v>
+      </c>
+      <c r="AD213">
+        <v>7.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.4</v>
+      </c>
+      <c r="AF213">
+        <v>2.8</v>
+      </c>
+      <c r="AG213">
+        <v>2.2</v>
+      </c>
+      <c r="AH213">
+        <v>1.6</v>
+      </c>
+      <c r="AI213">
+        <v>2</v>
+      </c>
+      <c r="AJ213">
+        <v>1.77</v>
+      </c>
+      <c r="AK213">
+        <v>1.22</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.8</v>
+      </c>
+      <c r="AN213">
+        <v>1.7</v>
+      </c>
+      <c r="AO213">
+        <v>1.5</v>
+      </c>
+      <c r="AP213">
+        <v>1.82</v>
+      </c>
+      <c r="AQ213">
+        <v>1.36</v>
+      </c>
+      <c r="AR213">
+        <v>1.4</v>
+      </c>
+      <c r="AS213">
+        <v>1.44</v>
+      </c>
+      <c r="AT213">
+        <v>2.84</v>
+      </c>
+      <c r="AU213">
+        <v>3</v>
+      </c>
+      <c r="AV213">
+        <v>2</v>
+      </c>
+      <c r="AW213">
+        <v>5</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>8</v>
+      </c>
+      <c r="AZ213">
+        <v>4</v>
+      </c>
+      <c r="BA213">
+        <v>1</v>
+      </c>
+      <c r="BB213">
+        <v>6</v>
+      </c>
+      <c r="BC213">
+        <v>7</v>
+      </c>
+      <c r="BD213">
+        <v>1.53</v>
+      </c>
+      <c r="BE213">
+        <v>8</v>
+      </c>
+      <c r="BF213">
+        <v>3</v>
+      </c>
+      <c r="BG213">
+        <v>1.36</v>
+      </c>
+      <c r="BH213">
+        <v>3</v>
+      </c>
+      <c r="BI213">
+        <v>1.62</v>
+      </c>
+      <c r="BJ213">
+        <v>2.2</v>
+      </c>
+      <c r="BK213">
+        <v>2.05</v>
+      </c>
+      <c r="BL213">
+        <v>1.7</v>
+      </c>
+      <c r="BM213">
+        <v>2.65</v>
+      </c>
+      <c r="BN213">
+        <v>1.45</v>
+      </c>
+      <c r="BO213">
+        <v>3.5</v>
+      </c>
+      <c r="BP213">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7327106</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45479.25</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>84</v>
+      </c>
+      <c r="H214" t="s">
+        <v>89</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>224</v>
+      </c>
+      <c r="P214" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q214">
+        <v>1.91</v>
+      </c>
+      <c r="R214">
+        <v>2.35</v>
+      </c>
+      <c r="S214">
+        <v>5.75</v>
+      </c>
+      <c r="T214">
+        <v>1.33</v>
+      </c>
+      <c r="U214">
+        <v>3.1</v>
+      </c>
+      <c r="V214">
+        <v>2.45</v>
+      </c>
+      <c r="W214">
+        <v>1.48</v>
+      </c>
+      <c r="X214">
+        <v>6.05</v>
+      </c>
+      <c r="Y214">
+        <v>1.11</v>
+      </c>
+      <c r="Z214">
+        <v>1.36</v>
+      </c>
+      <c r="AA214">
+        <v>4.6</v>
+      </c>
+      <c r="AB214">
+        <v>7.5</v>
+      </c>
+      <c r="AC214">
+        <v>1.04</v>
+      </c>
+      <c r="AD214">
+        <v>10</v>
+      </c>
+      <c r="AE214">
+        <v>1.22</v>
+      </c>
+      <c r="AF214">
+        <v>4.2</v>
+      </c>
+      <c r="AG214">
+        <v>1.7</v>
+      </c>
+      <c r="AH214">
+        <v>2</v>
+      </c>
+      <c r="AI214">
+        <v>1.85</v>
+      </c>
+      <c r="AJ214">
+        <v>1.83</v>
+      </c>
+      <c r="AK214">
+        <v>1.09</v>
+      </c>
+      <c r="AL214">
+        <v>1.15</v>
+      </c>
+      <c r="AM214">
+        <v>2.75</v>
+      </c>
+      <c r="AN214">
+        <v>2.2</v>
+      </c>
+      <c r="AO214">
+        <v>0.3</v>
+      </c>
+      <c r="AP214">
+        <v>2.27</v>
+      </c>
+      <c r="AQ214">
+        <v>0.27</v>
+      </c>
+      <c r="AR214">
+        <v>1.31</v>
+      </c>
+      <c r="AS214">
+        <v>1.22</v>
+      </c>
+      <c r="AT214">
+        <v>2.53</v>
+      </c>
+      <c r="AU214">
+        <v>9</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>3</v>
+      </c>
+      <c r="AX214">
+        <v>5</v>
+      </c>
+      <c r="AY214">
+        <v>12</v>
+      </c>
+      <c r="AZ214">
+        <v>10</v>
+      </c>
+      <c r="BA214">
+        <v>5</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>9</v>
+      </c>
+      <c r="BD214">
+        <v>1.4</v>
+      </c>
+      <c r="BE214">
+        <v>9</v>
+      </c>
+      <c r="BF214">
+        <v>3.4</v>
+      </c>
+      <c r="BG214">
+        <v>1.28</v>
+      </c>
+      <c r="BH214">
+        <v>3.5</v>
+      </c>
+      <c r="BI214">
+        <v>1.47</v>
+      </c>
+      <c r="BJ214">
+        <v>2.55</v>
+      </c>
+      <c r="BK214">
+        <v>1.7</v>
+      </c>
+      <c r="BL214">
+        <v>2.05</v>
+      </c>
+      <c r="BM214">
+        <v>2.05</v>
+      </c>
+      <c r="BN214">
+        <v>1.7</v>
+      </c>
+      <c r="BO214">
+        <v>3</v>
+      </c>
+      <c r="BP214">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7327110</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45479.27083333334</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>88</v>
+      </c>
+      <c r="H215" t="s">
+        <v>74</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>2</v>
+      </c>
+      <c r="K215">
+        <v>3</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>4</v>
+      </c>
+      <c r="N215">
+        <v>7</v>
+      </c>
+      <c r="O215" t="s">
+        <v>225</v>
+      </c>
+      <c r="P215" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q215">
+        <v>2.5</v>
+      </c>
+      <c r="R215">
+        <v>2.25</v>
+      </c>
+      <c r="S215">
+        <v>4.33</v>
+      </c>
+      <c r="T215">
+        <v>1.36</v>
+      </c>
+      <c r="U215">
+        <v>3</v>
+      </c>
+      <c r="V215">
+        <v>2.63</v>
+      </c>
+      <c r="W215">
+        <v>1.44</v>
+      </c>
+      <c r="X215">
+        <v>7</v>
+      </c>
+      <c r="Y215">
+        <v>1.1</v>
+      </c>
+      <c r="Z215">
+        <v>1.8</v>
+      </c>
+      <c r="AA215">
+        <v>3.5</v>
+      </c>
+      <c r="AB215">
+        <v>4</v>
+      </c>
+      <c r="AC215">
+        <v>1.05</v>
+      </c>
+      <c r="AD215">
+        <v>9.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.25</v>
+      </c>
+      <c r="AF215">
+        <v>3.7</v>
+      </c>
+      <c r="AG215">
+        <v>1.86</v>
+      </c>
+      <c r="AH215">
+        <v>1.98</v>
+      </c>
+      <c r="AI215">
+        <v>1.75</v>
+      </c>
+      <c r="AJ215">
+        <v>2</v>
+      </c>
+      <c r="AK215">
+        <v>1.22</v>
+      </c>
+      <c r="AL215">
+        <v>1.22</v>
+      </c>
+      <c r="AM215">
+        <v>1.93</v>
+      </c>
+      <c r="AN215">
+        <v>1</v>
+      </c>
+      <c r="AO215">
+        <v>0.7</v>
+      </c>
+      <c r="AP215">
+        <v>0.91</v>
+      </c>
+      <c r="AQ215">
+        <v>0.91</v>
+      </c>
+      <c r="AR215">
+        <v>1.43</v>
+      </c>
+      <c r="AS215">
+        <v>1.22</v>
+      </c>
+      <c r="AT215">
+        <v>2.65</v>
+      </c>
+      <c r="AU215">
+        <v>9</v>
+      </c>
+      <c r="AV215">
+        <v>9</v>
+      </c>
+      <c r="AW215">
+        <v>7</v>
+      </c>
+      <c r="AX215">
+        <v>4</v>
+      </c>
+      <c r="AY215">
+        <v>16</v>
+      </c>
+      <c r="AZ215">
+        <v>13</v>
+      </c>
+      <c r="BA215">
+        <v>5</v>
+      </c>
+      <c r="BB215">
+        <v>6</v>
+      </c>
+      <c r="BC215">
+        <v>11</v>
+      </c>
+      <c r="BD215">
+        <v>1.53</v>
+      </c>
+      <c r="BE215">
+        <v>8.5</v>
+      </c>
+      <c r="BF215">
+        <v>3</v>
+      </c>
+      <c r="BG215">
+        <v>1.28</v>
+      </c>
+      <c r="BH215">
+        <v>3.4</v>
+      </c>
+      <c r="BI215">
+        <v>1.52</v>
+      </c>
+      <c r="BJ215">
+        <v>2.45</v>
+      </c>
+      <c r="BK215">
+        <v>1.7</v>
+      </c>
+      <c r="BL215">
+        <v>2.05</v>
+      </c>
+      <c r="BM215">
+        <v>2.3</v>
+      </c>
+      <c r="BN215">
+        <v>1.57</v>
+      </c>
+      <c r="BO215">
+        <v>3</v>
+      </c>
+      <c r="BP215">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7327111</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45479.27083333334</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>72</v>
+      </c>
+      <c r="H216" t="s">
+        <v>81</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4</v>
+      </c>
+      <c r="O216" t="s">
+        <v>226</v>
+      </c>
+      <c r="P216" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q216">
+        <v>3.95</v>
+      </c>
+      <c r="R216">
+        <v>2.2</v>
+      </c>
+      <c r="S216">
+        <v>2.45</v>
+      </c>
+      <c r="T216">
+        <v>1.33</v>
+      </c>
+      <c r="U216">
+        <v>3</v>
+      </c>
+      <c r="V216">
+        <v>2.45</v>
+      </c>
+      <c r="W216">
+        <v>1.48</v>
+      </c>
+      <c r="X216">
+        <v>5.95</v>
+      </c>
+      <c r="Y216">
+        <v>1.1</v>
+      </c>
+      <c r="Z216">
+        <v>3.6</v>
+      </c>
+      <c r="AA216">
+        <v>3.6</v>
+      </c>
+      <c r="AB216">
+        <v>1.91</v>
+      </c>
+      <c r="AC216">
+        <v>1.05</v>
+      </c>
+      <c r="AD216">
+        <v>9.5</v>
+      </c>
+      <c r="AE216">
+        <v>1.22</v>
+      </c>
+      <c r="AF216">
+        <v>4</v>
+      </c>
+      <c r="AG216">
+        <v>1.7</v>
+      </c>
+      <c r="AH216">
+        <v>2</v>
+      </c>
+      <c r="AI216">
+        <v>1.57</v>
+      </c>
+      <c r="AJ216">
+        <v>2.2</v>
+      </c>
+      <c r="AK216">
+        <v>1.8</v>
+      </c>
+      <c r="AL216">
+        <v>1.22</v>
+      </c>
+      <c r="AM216">
+        <v>1.28</v>
+      </c>
+      <c r="AN216">
+        <v>1.4</v>
+      </c>
+      <c r="AO216">
+        <v>0.7</v>
+      </c>
+      <c r="AP216">
+        <v>1.36</v>
+      </c>
+      <c r="AQ216">
+        <v>0.73</v>
+      </c>
+      <c r="AR216">
+        <v>1.33</v>
+      </c>
+      <c r="AS216">
+        <v>1.54</v>
+      </c>
+      <c r="AT216">
+        <v>2.87</v>
+      </c>
+      <c r="AU216">
+        <v>5</v>
+      </c>
+      <c r="AV216">
+        <v>6</v>
+      </c>
+      <c r="AW216">
+        <v>3</v>
+      </c>
+      <c r="AX216">
+        <v>6</v>
+      </c>
+      <c r="AY216">
+        <v>8</v>
+      </c>
+      <c r="AZ216">
+        <v>12</v>
+      </c>
+      <c r="BA216">
+        <v>5</v>
+      </c>
+      <c r="BB216">
+        <v>4</v>
+      </c>
+      <c r="BC216">
+        <v>9</v>
+      </c>
+      <c r="BD216">
+        <v>2.2</v>
+      </c>
+      <c r="BE216">
+        <v>8</v>
+      </c>
+      <c r="BF216">
+        <v>1.91</v>
+      </c>
+      <c r="BG216">
+        <v>1.28</v>
+      </c>
+      <c r="BH216">
+        <v>3.4</v>
+      </c>
+      <c r="BI216">
+        <v>1.52</v>
+      </c>
+      <c r="BJ216">
+        <v>2.45</v>
+      </c>
+      <c r="BK216">
+        <v>1.7</v>
+      </c>
+      <c r="BL216">
+        <v>2.05</v>
+      </c>
+      <c r="BM216">
+        <v>2.05</v>
+      </c>
+      <c r="BN216">
+        <v>1.7</v>
+      </c>
+      <c r="BO216">
+        <v>3</v>
+      </c>
+      <c r="BP216">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7327107</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45479.27777777778</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>79</v>
+      </c>
+      <c r="H217" t="s">
+        <v>77</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>227</v>
+      </c>
+      <c r="P217" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q217">
+        <v>3.76</v>
+      </c>
+      <c r="R217">
+        <v>2.04</v>
+      </c>
+      <c r="S217">
+        <v>3.33</v>
+      </c>
+      <c r="T217">
+        <v>1.51</v>
+      </c>
+      <c r="U217">
+        <v>2.56</v>
+      </c>
+      <c r="V217">
+        <v>3.4</v>
+      </c>
+      <c r="W217">
+        <v>1.28</v>
+      </c>
+      <c r="X217">
+        <v>9.4</v>
+      </c>
+      <c r="Y217">
+        <v>1.04</v>
+      </c>
+      <c r="Z217">
+        <v>2.9</v>
+      </c>
+      <c r="AA217">
+        <v>2.9</v>
+      </c>
+      <c r="AB217">
+        <v>2.55</v>
+      </c>
+      <c r="AC217">
+        <v>1.1</v>
+      </c>
+      <c r="AD217">
+        <v>6.5</v>
+      </c>
+      <c r="AE217">
+        <v>1.48</v>
+      </c>
+      <c r="AF217">
+        <v>2.65</v>
+      </c>
+      <c r="AG217">
+        <v>2.25</v>
+      </c>
+      <c r="AH217">
+        <v>1.57</v>
+      </c>
+      <c r="AI217">
+        <v>1.95</v>
+      </c>
+      <c r="AJ217">
+        <v>1.73</v>
+      </c>
+      <c r="AK217">
+        <v>1.5</v>
+      </c>
+      <c r="AL217">
+        <v>1.33</v>
+      </c>
+      <c r="AM217">
+        <v>1.38</v>
+      </c>
+      <c r="AN217">
+        <v>1.5</v>
+      </c>
+      <c r="AO217">
+        <v>1.3</v>
+      </c>
+      <c r="AP217">
+        <v>1.45</v>
+      </c>
+      <c r="AQ217">
+        <v>1.27</v>
+      </c>
+      <c r="AR217">
+        <v>1.48</v>
+      </c>
+      <c r="AS217">
+        <v>1.34</v>
+      </c>
+      <c r="AT217">
+        <v>2.82</v>
+      </c>
+      <c r="AU217">
+        <v>4</v>
+      </c>
+      <c r="AV217">
+        <v>7</v>
+      </c>
+      <c r="AW217">
+        <v>3</v>
+      </c>
+      <c r="AX217">
+        <v>8</v>
+      </c>
+      <c r="AY217">
+        <v>7</v>
+      </c>
+      <c r="AZ217">
+        <v>15</v>
+      </c>
+      <c r="BA217">
+        <v>2</v>
+      </c>
+      <c r="BB217">
+        <v>4</v>
+      </c>
+      <c r="BC217">
+        <v>6</v>
+      </c>
+      <c r="BD217">
+        <v>2.05</v>
+      </c>
+      <c r="BE217">
+        <v>8</v>
+      </c>
+      <c r="BF217">
+        <v>2</v>
+      </c>
+      <c r="BG217">
+        <v>1.3</v>
+      </c>
+      <c r="BH217">
+        <v>3.3</v>
+      </c>
+      <c r="BI217">
+        <v>1.53</v>
+      </c>
+      <c r="BJ217">
+        <v>2.4</v>
+      </c>
+      <c r="BK217">
+        <v>1.88</v>
+      </c>
+      <c r="BL217">
+        <v>1.92</v>
+      </c>
+      <c r="BM217">
+        <v>2.4</v>
+      </c>
+      <c r="BN217">
+        <v>1.53</v>
+      </c>
+      <c r="BO217">
+        <v>3.1</v>
+      </c>
+      <c r="BP217">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7327109</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>87</v>
+      </c>
+      <c r="H218" t="s">
+        <v>76</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>3</v>
+      </c>
+      <c r="N218">
+        <v>5</v>
+      </c>
+      <c r="O218" t="s">
+        <v>228</v>
+      </c>
+      <c r="P218" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q218">
+        <v>2.35</v>
+      </c>
+      <c r="R218">
+        <v>2.15</v>
+      </c>
+      <c r="S218">
+        <v>4.33</v>
+      </c>
+      <c r="T218">
+        <v>1.36</v>
+      </c>
+      <c r="U218">
+        <v>2.88</v>
+      </c>
+      <c r="V218">
+        <v>2.65</v>
+      </c>
+      <c r="W218">
+        <v>1.42</v>
+      </c>
+      <c r="X218">
+        <v>6.95</v>
+      </c>
+      <c r="Y218">
+        <v>1.07</v>
+      </c>
+      <c r="Z218">
+        <v>1.87</v>
+      </c>
+      <c r="AA218">
+        <v>3.6</v>
+      </c>
+      <c r="AB218">
+        <v>3.8</v>
+      </c>
+      <c r="AC218">
+        <v>1.05</v>
+      </c>
+      <c r="AD218">
+        <v>9.5</v>
+      </c>
+      <c r="AE218">
+        <v>1.28</v>
+      </c>
+      <c r="AF218">
+        <v>3.55</v>
+      </c>
+      <c r="AG218">
+        <v>1.91</v>
+      </c>
+      <c r="AH218">
+        <v>1.97</v>
+      </c>
+      <c r="AI218">
+        <v>1.73</v>
+      </c>
+      <c r="AJ218">
+        <v>1.95</v>
+      </c>
+      <c r="AK218">
+        <v>1.22</v>
+      </c>
+      <c r="AL218">
+        <v>1.22</v>
+      </c>
+      <c r="AM218">
+        <v>1.95</v>
+      </c>
+      <c r="AN218">
+        <v>1.91</v>
+      </c>
+      <c r="AO218">
+        <v>0.73</v>
+      </c>
+      <c r="AP218">
+        <v>1.75</v>
+      </c>
+      <c r="AQ218">
+        <v>0.92</v>
+      </c>
+      <c r="AR218">
+        <v>1.71</v>
+      </c>
+      <c r="AS218">
+        <v>1.45</v>
+      </c>
+      <c r="AT218">
+        <v>3.16</v>
+      </c>
+      <c r="AU218">
+        <v>7</v>
+      </c>
+      <c r="AV218">
+        <v>5</v>
+      </c>
+      <c r="AW218">
+        <v>5</v>
+      </c>
+      <c r="AX218">
+        <v>4</v>
+      </c>
+      <c r="AY218">
+        <v>12</v>
+      </c>
+      <c r="AZ218">
+        <v>9</v>
+      </c>
+      <c r="BA218">
+        <v>5</v>
+      </c>
+      <c r="BB218">
+        <v>5</v>
+      </c>
+      <c r="BC218">
+        <v>10</v>
+      </c>
+      <c r="BD218">
+        <v>1.73</v>
+      </c>
+      <c r="BE218">
+        <v>8.5</v>
+      </c>
+      <c r="BF218">
+        <v>2.38</v>
+      </c>
+      <c r="BG218">
+        <v>1.18</v>
+      </c>
+      <c r="BH218">
+        <v>4.33</v>
+      </c>
+      <c r="BI218">
+        <v>1.33</v>
+      </c>
+      <c r="BJ218">
+        <v>3.1</v>
+      </c>
+      <c r="BK218">
+        <v>1.55</v>
+      </c>
+      <c r="BL218">
+        <v>2.35</v>
+      </c>
+      <c r="BM218">
+        <v>2</v>
+      </c>
+      <c r="BN218">
+        <v>1.8</v>
+      </c>
+      <c r="BO218">
+        <v>2.4</v>
+      </c>
+      <c r="BP218">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7327113</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F219">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>86</v>
+      </c>
+      <c r="H219" t="s">
+        <v>80</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>4</v>
+      </c>
+      <c r="O219" t="s">
+        <v>229</v>
+      </c>
+      <c r="P219" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q219">
+        <v>3.2</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>3.3</v>
+      </c>
+      <c r="T219">
+        <v>1.42</v>
+      </c>
+      <c r="U219">
+        <v>2.65</v>
+      </c>
+      <c r="V219">
+        <v>2.88</v>
+      </c>
+      <c r="W219">
+        <v>1.36</v>
+      </c>
+      <c r="X219">
+        <v>7.5</v>
+      </c>
+      <c r="Y219">
+        <v>1.07</v>
+      </c>
+      <c r="Z219">
+        <v>2.45</v>
+      </c>
+      <c r="AA219">
+        <v>3.25</v>
+      </c>
+      <c r="AB219">
+        <v>2.8</v>
+      </c>
+      <c r="AC219">
+        <v>1.07</v>
+      </c>
+      <c r="AD219">
+        <v>8</v>
+      </c>
+      <c r="AE219">
+        <v>1.33</v>
+      </c>
+      <c r="AF219">
+        <v>3.2</v>
+      </c>
+      <c r="AG219">
+        <v>2.06</v>
+      </c>
+      <c r="AH219">
+        <v>1.78</v>
+      </c>
+      <c r="AI219">
+        <v>1.7</v>
+      </c>
+      <c r="AJ219">
+        <v>2</v>
+      </c>
+      <c r="AK219">
+        <v>1.44</v>
+      </c>
+      <c r="AL219">
+        <v>1.3</v>
+      </c>
+      <c r="AM219">
+        <v>1.48</v>
+      </c>
+      <c r="AN219">
+        <v>2.2</v>
+      </c>
+      <c r="AO219">
+        <v>1.27</v>
+      </c>
+      <c r="AP219">
+        <v>2.27</v>
+      </c>
+      <c r="AQ219">
+        <v>1.17</v>
+      </c>
+      <c r="AR219">
+        <v>1.48</v>
+      </c>
+      <c r="AS219">
+        <v>1.6</v>
+      </c>
+      <c r="AT219">
+        <v>3.08</v>
+      </c>
+      <c r="AU219">
+        <v>11</v>
+      </c>
+      <c r="AV219">
+        <v>4</v>
+      </c>
+      <c r="AW219">
+        <v>7</v>
+      </c>
+      <c r="AX219">
+        <v>10</v>
+      </c>
+      <c r="AY219">
+        <v>18</v>
+      </c>
+      <c r="AZ219">
+        <v>14</v>
+      </c>
+      <c r="BA219">
+        <v>4</v>
+      </c>
+      <c r="BB219">
+        <v>5</v>
+      </c>
+      <c r="BC219">
+        <v>9</v>
+      </c>
+      <c r="BD219">
+        <v>1.83</v>
+      </c>
+      <c r="BE219">
+        <v>8</v>
+      </c>
+      <c r="BF219">
+        <v>2.25</v>
+      </c>
+      <c r="BG219">
+        <v>1.18</v>
+      </c>
+      <c r="BH219">
+        <v>4.33</v>
+      </c>
+      <c r="BI219">
+        <v>1.33</v>
+      </c>
+      <c r="BJ219">
+        <v>3.1</v>
+      </c>
+      <c r="BK219">
+        <v>1.57</v>
+      </c>
+      <c r="BL219">
+        <v>2.3</v>
+      </c>
+      <c r="BM219">
+        <v>2</v>
+      </c>
+      <c r="BN219">
+        <v>1.8</v>
+      </c>
+      <c r="BO219">
+        <v>2.45</v>
+      </c>
+      <c r="BP219">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7327112</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45479.3125</v>
+      </c>
+      <c r="F220">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>78</v>
+      </c>
+      <c r="H220" t="s">
+        <v>85</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>3</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>5</v>
+      </c>
+      <c r="O220" t="s">
+        <v>230</v>
+      </c>
+      <c r="P220" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q220">
+        <v>2.65</v>
+      </c>
+      <c r="R220">
+        <v>2.05</v>
+      </c>
+      <c r="S220">
+        <v>3.9</v>
+      </c>
+      <c r="T220">
+        <v>1.4</v>
+      </c>
+      <c r="U220">
+        <v>2.75</v>
+      </c>
+      <c r="V220">
+        <v>2.8</v>
+      </c>
+      <c r="W220">
+        <v>1.38</v>
+      </c>
+      <c r="X220">
+        <v>6.95</v>
+      </c>
+      <c r="Y220">
+        <v>1.07</v>
+      </c>
+      <c r="Z220">
+        <v>2</v>
+      </c>
+      <c r="AA220">
+        <v>3.5</v>
+      </c>
+      <c r="AB220">
+        <v>3.4</v>
+      </c>
+      <c r="AC220">
+        <v>1.06</v>
+      </c>
+      <c r="AD220">
+        <v>8.5</v>
+      </c>
+      <c r="AE220">
+        <v>1.33</v>
+      </c>
+      <c r="AF220">
+        <v>3.3</v>
+      </c>
+      <c r="AG220">
+        <v>2.03</v>
+      </c>
+      <c r="AH220">
+        <v>1.85</v>
+      </c>
+      <c r="AI220">
+        <v>1.73</v>
+      </c>
+      <c r="AJ220">
+        <v>1.95</v>
+      </c>
+      <c r="AK220">
+        <v>1.3</v>
+      </c>
+      <c r="AL220">
+        <v>1.25</v>
+      </c>
+      <c r="AM220">
+        <v>1.7</v>
+      </c>
+      <c r="AN220">
+        <v>1.2</v>
+      </c>
+      <c r="AO220">
+        <v>1.89</v>
+      </c>
+      <c r="AP220">
+        <v>1.36</v>
+      </c>
+      <c r="AQ220">
+        <v>1.7</v>
+      </c>
+      <c r="AR220">
+        <v>1.47</v>
+      </c>
+      <c r="AS220">
+        <v>1.18</v>
+      </c>
+      <c r="AT220">
+        <v>2.65</v>
+      </c>
+      <c r="AU220">
+        <v>7</v>
+      </c>
+      <c r="AV220">
+        <v>7</v>
+      </c>
+      <c r="AW220">
+        <v>3</v>
+      </c>
+      <c r="AX220">
+        <v>7</v>
+      </c>
+      <c r="AY220">
+        <v>10</v>
+      </c>
+      <c r="AZ220">
+        <v>14</v>
+      </c>
+      <c r="BA220">
+        <v>7</v>
+      </c>
+      <c r="BB220">
+        <v>8</v>
+      </c>
+      <c r="BC220">
+        <v>15</v>
+      </c>
+      <c r="BD220">
+        <v>1.5</v>
+      </c>
+      <c r="BE220">
+        <v>8.5</v>
+      </c>
+      <c r="BF220">
+        <v>3</v>
+      </c>
+      <c r="BG220">
+        <v>1.28</v>
+      </c>
+      <c r="BH220">
+        <v>3.5</v>
+      </c>
+      <c r="BI220">
+        <v>1.5</v>
+      </c>
+      <c r="BJ220">
+        <v>2.5</v>
+      </c>
+      <c r="BK220">
+        <v>1.77</v>
+      </c>
+      <c r="BL220">
+        <v>1.95</v>
+      </c>
+      <c r="BM220">
+        <v>2.3</v>
+      </c>
+      <c r="BN220">
+        <v>1.57</v>
+      </c>
+      <c r="BO220">
+        <v>3</v>
+      </c>
+      <c r="BP220">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7327114</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45480.29166666666</v>
+      </c>
+      <c r="F221">
+        <v>22</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221" t="s">
+        <v>83</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>191</v>
+      </c>
+      <c r="P221" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q221">
+        <v>3</v>
+      </c>
+      <c r="R221">
+        <v>1.95</v>
+      </c>
+      <c r="S221">
+        <v>4.33</v>
+      </c>
+      <c r="T221">
+        <v>1.53</v>
+      </c>
+      <c r="U221">
+        <v>2.38</v>
+      </c>
+      <c r="V221">
+        <v>3.75</v>
+      </c>
+      <c r="W221">
+        <v>1.25</v>
+      </c>
+      <c r="X221">
+        <v>11</v>
+      </c>
+      <c r="Y221">
+        <v>1.05</v>
+      </c>
+      <c r="Z221">
+        <v>2.15</v>
+      </c>
+      <c r="AA221">
+        <v>3.1</v>
+      </c>
+      <c r="AB221">
+        <v>3.5</v>
+      </c>
+      <c r="AC221">
+        <v>1.1</v>
+      </c>
+      <c r="AD221">
+        <v>7</v>
+      </c>
+      <c r="AE221">
+        <v>1.45</v>
+      </c>
+      <c r="AF221">
+        <v>2.6</v>
+      </c>
+      <c r="AG221">
+        <v>2.48</v>
+      </c>
+      <c r="AH221">
+        <v>1.5</v>
+      </c>
+      <c r="AI221">
+        <v>2.05</v>
+      </c>
+      <c r="AJ221">
+        <v>1.7</v>
+      </c>
+      <c r="AK221">
+        <v>1.28</v>
+      </c>
+      <c r="AL221">
+        <v>1.28</v>
+      </c>
+      <c r="AM221">
+        <v>1.68</v>
+      </c>
+      <c r="AN221">
+        <v>1.55</v>
+      </c>
+      <c r="AO221">
+        <v>1.18</v>
+      </c>
+      <c r="AP221">
+        <v>1.42</v>
+      </c>
+      <c r="AQ221">
+        <v>1.33</v>
+      </c>
+      <c r="AR221">
+        <v>1.36</v>
+      </c>
+      <c r="AS221">
+        <v>1.32</v>
+      </c>
+      <c r="AT221">
+        <v>2.68</v>
+      </c>
+      <c r="AU221">
+        <v>3</v>
+      </c>
+      <c r="AV221">
+        <v>5</v>
+      </c>
+      <c r="AW221">
+        <v>6</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>9</v>
+      </c>
+      <c r="AZ221">
+        <v>10</v>
+      </c>
+      <c r="BA221">
+        <v>5</v>
+      </c>
+      <c r="BB221">
+        <v>5</v>
+      </c>
+      <c r="BC221">
+        <v>10</v>
+      </c>
+      <c r="BD221">
+        <v>1.8</v>
+      </c>
+      <c r="BE221">
+        <v>8</v>
+      </c>
+      <c r="BF221">
+        <v>2.3</v>
+      </c>
+      <c r="BG221">
+        <v>1.23</v>
+      </c>
+      <c r="BH221">
+        <v>4</v>
+      </c>
+      <c r="BI221">
+        <v>1.4</v>
+      </c>
+      <c r="BJ221">
+        <v>2.8</v>
+      </c>
+      <c r="BK221">
+        <v>1.7</v>
+      </c>
+      <c r="BL221">
+        <v>2.05</v>
+      </c>
+      <c r="BM221">
+        <v>2.1</v>
+      </c>
+      <c r="BN221">
+        <v>1.7</v>
+      </c>
+      <c r="BO221">
+        <v>2.65</v>
+      </c>
+      <c r="BP221">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['14', '32', '90+4']</t>
   </si>
   <si>
+    <t>['6', '77']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1001,6 +1004,9 @@
   </si>
   <si>
     <t>['47', '90+9']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,7 +1833,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2033,7 +2039,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2114,7 +2120,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2445,7 +2451,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2526,7 +2532,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ6">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2857,7 +2863,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3063,7 +3069,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3475,7 +3481,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3681,7 +3687,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3887,7 +3893,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4093,7 +4099,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4505,7 +4511,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4917,7 +4923,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5123,7 +5129,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5201,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ19">
         <v>1.45</v>
@@ -5410,7 +5416,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5535,7 +5541,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5741,7 +5747,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6771,7 +6777,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6849,10 +6855,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ27">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -7467,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30">
         <v>1.1</v>
@@ -7595,7 +7601,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7801,7 +7807,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7879,7 +7885,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ32">
         <v>2.36</v>
@@ -8213,7 +8219,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8419,7 +8425,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8625,7 +8631,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8831,7 +8837,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8912,7 +8918,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -9037,7 +9043,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9243,7 +9249,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9449,7 +9455,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9655,7 +9661,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9861,7 +9867,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10685,7 +10691,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11796,7 +11802,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ51">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -12208,7 +12214,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ53">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12333,7 +12339,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12745,7 +12751,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13363,7 +13369,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13441,7 +13447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59">
         <v>1.36</v>
@@ -13569,7 +13575,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13647,7 +13653,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ60">
         <v>1.1</v>
@@ -13853,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>1.45</v>
@@ -14187,7 +14193,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14393,7 +14399,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14599,7 +14605,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15011,7 +15017,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15707,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ70">
         <v>1.45</v>
@@ -16247,7 +16253,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16453,7 +16459,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17277,7 +17283,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17358,7 +17364,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ78">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17689,7 +17695,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17895,7 +17901,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18179,7 +18185,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ82">
         <v>1.45</v>
@@ -18307,7 +18313,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18388,7 +18394,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ83">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18513,7 +18519,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18800,7 +18806,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -18925,7 +18931,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19543,7 +19549,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19621,7 +19627,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ89">
         <v>2.36</v>
@@ -19749,7 +19755,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19955,7 +19961,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20033,7 +20039,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91">
         <v>0.92</v>
@@ -20573,7 +20579,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20779,7 +20785,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21191,7 +21197,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21397,7 +21403,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21809,7 +21815,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22221,7 +22227,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22633,7 +22639,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22711,7 +22717,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ104">
         <v>1.33</v>
@@ -23251,7 +23257,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23663,7 +23669,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23869,7 +23875,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23950,7 +23956,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ110">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -24075,7 +24081,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24156,7 +24162,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ111">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24281,7 +24287,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24899,7 +24905,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25183,7 +25189,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ116">
         <v>1.7</v>
@@ -25311,7 +25317,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25517,7 +25523,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25929,7 +25935,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26135,7 +26141,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26341,7 +26347,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26547,7 +26553,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -27165,7 +27171,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27371,7 +27377,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27452,7 +27458,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27577,7 +27583,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27655,7 +27661,7 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ128">
         <v>1.27</v>
@@ -27783,7 +27789,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27989,7 +27995,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28479,7 +28485,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ132">
         <v>0.82</v>
@@ -29225,7 +29231,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29431,7 +29437,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -30049,7 +30055,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30255,7 +30261,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30667,7 +30673,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30873,7 +30879,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31366,7 +31372,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ146">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -31569,7 +31575,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ147">
         <v>1.17</v>
@@ -31697,7 +31703,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31984,7 +31990,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ149">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -32109,7 +32115,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32187,7 +32193,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ150">
         <v>1.45</v>
@@ -32315,7 +32321,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32521,7 +32527,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32727,7 +32733,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33345,7 +33351,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33629,7 +33635,7 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ157">
         <v>1.45</v>
@@ -34169,7 +34175,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34581,7 +34587,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34787,7 +34793,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34868,7 +34874,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ163">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -34993,7 +34999,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35280,7 +35286,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ165">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35611,7 +35617,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36023,7 +36029,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36229,7 +36235,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36435,7 +36441,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37465,7 +37471,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37752,7 +37758,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ177">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR177">
         <v>1.32</v>
@@ -37955,7 +37961,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ178">
         <v>0.82</v>
@@ -38083,7 +38089,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38289,7 +38295,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38907,7 +38913,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39113,7 +39119,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39319,7 +39325,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39400,7 +39406,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ185">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -39731,7 +39737,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40143,7 +40149,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40349,7 +40355,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40427,7 +40433,7 @@
         <v>1.22</v>
       </c>
       <c r="AP190">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ190">
         <v>1.17</v>
@@ -40555,7 +40561,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40636,7 +40642,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ191">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR191">
         <v>2.15</v>
@@ -41045,7 +41051,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ193">
         <v>0.27</v>
@@ -41791,7 +41797,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42409,7 +42415,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42693,10 +42699,10 @@
         <v>1.2</v>
       </c>
       <c r="AP201">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ201">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR201">
         <v>1.29</v>
@@ -43027,7 +43033,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43233,7 +43239,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43439,7 +43445,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43929,7 +43935,7 @@
         <v>1.67</v>
       </c>
       <c r="AP207">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ207">
         <v>1.8</v>
@@ -44057,7 +44063,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44263,7 +44269,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44881,7 +44887,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -44962,7 +44968,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ212">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR212">
         <v>2.16</v>
@@ -45499,7 +45505,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45705,7 +45711,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45911,7 +45917,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46117,7 +46123,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46529,7 +46535,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46735,7 +46741,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -46892,6 +46898,418 @@
       </c>
       <c r="BP221">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7327115</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45486.08333333334</v>
+      </c>
+      <c r="F222">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>89</v>
+      </c>
+      <c r="H222" t="s">
+        <v>82</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>158</v>
+      </c>
+      <c r="P222" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q222">
+        <v>6.5</v>
+      </c>
+      <c r="R222">
+        <v>2.4</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
+        <v>1.33</v>
+      </c>
+      <c r="U222">
+        <v>3.25</v>
+      </c>
+      <c r="V222">
+        <v>2.5</v>
+      </c>
+      <c r="W222">
+        <v>1.5</v>
+      </c>
+      <c r="X222">
+        <v>6.5</v>
+      </c>
+      <c r="Y222">
+        <v>1.11</v>
+      </c>
+      <c r="Z222">
+        <v>7</v>
+      </c>
+      <c r="AA222">
+        <v>4.5</v>
+      </c>
+      <c r="AB222">
+        <v>1.4</v>
+      </c>
+      <c r="AC222">
+        <v>1.04</v>
+      </c>
+      <c r="AD222">
+        <v>12</v>
+      </c>
+      <c r="AE222">
+        <v>1.18</v>
+      </c>
+      <c r="AF222">
+        <v>4.2</v>
+      </c>
+      <c r="AG222">
+        <v>1.67</v>
+      </c>
+      <c r="AH222">
+        <v>2.1</v>
+      </c>
+      <c r="AI222">
+        <v>1.95</v>
+      </c>
+      <c r="AJ222">
+        <v>1.8</v>
+      </c>
+      <c r="AK222">
+        <v>2.7</v>
+      </c>
+      <c r="AL222">
+        <v>1.15</v>
+      </c>
+      <c r="AM222">
+        <v>1.07</v>
+      </c>
+      <c r="AN222">
+        <v>0.73</v>
+      </c>
+      <c r="AO222">
+        <v>2.09</v>
+      </c>
+      <c r="AP222">
+        <v>0.75</v>
+      </c>
+      <c r="AQ222">
+        <v>2</v>
+      </c>
+      <c r="AR222">
+        <v>1.28</v>
+      </c>
+      <c r="AS222">
+        <v>1.42</v>
+      </c>
+      <c r="AT222">
+        <v>2.7</v>
+      </c>
+      <c r="AU222">
+        <v>7</v>
+      </c>
+      <c r="AV222">
+        <v>7</v>
+      </c>
+      <c r="AW222">
+        <v>5</v>
+      </c>
+      <c r="AX222">
+        <v>5</v>
+      </c>
+      <c r="AY222">
+        <v>12</v>
+      </c>
+      <c r="AZ222">
+        <v>12</v>
+      </c>
+      <c r="BA222">
+        <v>3</v>
+      </c>
+      <c r="BB222">
+        <v>8</v>
+      </c>
+      <c r="BC222">
+        <v>11</v>
+      </c>
+      <c r="BD222">
+        <v>3.4</v>
+      </c>
+      <c r="BE222">
+        <v>9</v>
+      </c>
+      <c r="BF222">
+        <v>1.4</v>
+      </c>
+      <c r="BG222">
+        <v>1.18</v>
+      </c>
+      <c r="BH222">
+        <v>4.05</v>
+      </c>
+      <c r="BI222">
+        <v>1.38</v>
+      </c>
+      <c r="BJ222">
+        <v>2.8</v>
+      </c>
+      <c r="BK222">
+        <v>1.7</v>
+      </c>
+      <c r="BL222">
+        <v>2.05</v>
+      </c>
+      <c r="BM222">
+        <v>2</v>
+      </c>
+      <c r="BN222">
+        <v>1.73</v>
+      </c>
+      <c r="BO222">
+        <v>2.71</v>
+      </c>
+      <c r="BP222">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7327116</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45486.29166666666</v>
+      </c>
+      <c r="F223">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>85</v>
+      </c>
+      <c r="H223" t="s">
+        <v>88</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>231</v>
+      </c>
+      <c r="P223" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q223">
+        <v>2.95</v>
+      </c>
+      <c r="R223">
+        <v>2.11</v>
+      </c>
+      <c r="S223">
+        <v>3.58</v>
+      </c>
+      <c r="T223">
+        <v>1.4</v>
+      </c>
+      <c r="U223">
+        <v>2.82</v>
+      </c>
+      <c r="V223">
+        <v>2.86</v>
+      </c>
+      <c r="W223">
+        <v>1.39</v>
+      </c>
+      <c r="X223">
+        <v>7.3</v>
+      </c>
+      <c r="Y223">
+        <v>1.07</v>
+      </c>
+      <c r="Z223">
+        <v>2.3</v>
+      </c>
+      <c r="AA223">
+        <v>3.25</v>
+      </c>
+      <c r="AB223">
+        <v>2.9</v>
+      </c>
+      <c r="AC223">
+        <v>1.02</v>
+      </c>
+      <c r="AD223">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE223">
+        <v>1.28</v>
+      </c>
+      <c r="AF223">
+        <v>3.18</v>
+      </c>
+      <c r="AG223">
+        <v>2.06</v>
+      </c>
+      <c r="AH223">
+        <v>1.76</v>
+      </c>
+      <c r="AI223">
+        <v>1.75</v>
+      </c>
+      <c r="AJ223">
+        <v>2</v>
+      </c>
+      <c r="AK223">
+        <v>1.38</v>
+      </c>
+      <c r="AL223">
+        <v>1.28</v>
+      </c>
+      <c r="AM223">
+        <v>1.57</v>
+      </c>
+      <c r="AN223">
+        <v>1.33</v>
+      </c>
+      <c r="AO223">
+        <v>1.36</v>
+      </c>
+      <c r="AP223">
+        <v>1.46</v>
+      </c>
+      <c r="AQ223">
+        <v>1.25</v>
+      </c>
+      <c r="AR223">
+        <v>1.32</v>
+      </c>
+      <c r="AS223">
+        <v>1.32</v>
+      </c>
+      <c r="AT223">
+        <v>2.64</v>
+      </c>
+      <c r="AU223">
+        <v>3</v>
+      </c>
+      <c r="AV223">
+        <v>5</v>
+      </c>
+      <c r="AW223">
+        <v>5</v>
+      </c>
+      <c r="AX223">
+        <v>11</v>
+      </c>
+      <c r="AY223">
+        <v>8</v>
+      </c>
+      <c r="AZ223">
+        <v>16</v>
+      </c>
+      <c r="BA223">
+        <v>3</v>
+      </c>
+      <c r="BB223">
+        <v>1</v>
+      </c>
+      <c r="BC223">
+        <v>4</v>
+      </c>
+      <c r="BD223">
+        <v>2</v>
+      </c>
+      <c r="BE223">
+        <v>8</v>
+      </c>
+      <c r="BF223">
+        <v>2.05</v>
+      </c>
+      <c r="BG223">
+        <v>1.19</v>
+      </c>
+      <c r="BH223">
+        <v>3.95</v>
+      </c>
+      <c r="BI223">
+        <v>1.39</v>
+      </c>
+      <c r="BJ223">
+        <v>2.76</v>
+      </c>
+      <c r="BK223">
+        <v>1.73</v>
+      </c>
+      <c r="BL223">
+        <v>2</v>
+      </c>
+      <c r="BM223">
+        <v>2.12</v>
+      </c>
+      <c r="BN223">
+        <v>1.64</v>
+      </c>
+      <c r="BO223">
+        <v>2.79</v>
+      </c>
+      <c r="BP223">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,21 @@
     <t>['6', '77']</t>
   </si>
   <si>
+    <t>['54', '56']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['22', '38', '44', '52', '75']</t>
+  </si>
+  <si>
+    <t>['45+3', '52', '71', '90+6']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -766,9 +781,6 @@
     <t>['48', '64']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['18', '62']</t>
   </si>
   <si>
@@ -776,9 +788,6 @@
   </si>
   <si>
     <t>['5', '33', '52']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['11', '55', '64', '81']</t>
@@ -1007,6 +1016,12 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['19', '84']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1833,7 +1848,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1911,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2039,7 +2054,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2451,7 +2466,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2529,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ6">
         <v>1.25</v>
@@ -2738,7 +2753,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ7">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2863,7 +2878,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2941,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0.73</v>
@@ -3069,7 +3084,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3481,7 +3496,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3559,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3687,7 +3702,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3765,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ12">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3893,7 +3908,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -3971,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ13">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4099,7 +4114,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4180,7 +4195,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ14">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4383,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4511,7 +4526,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4589,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ16">
         <v>0.92</v>
@@ -4795,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ17">
         <v>0.27</v>
@@ -4923,7 +4938,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5004,7 +5019,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ18">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5129,7 +5144,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5541,7 +5556,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5747,7 +5762,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5828,7 +5843,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ22">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6240,7 +6255,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ24">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6443,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0.91</v>
@@ -6777,7 +6792,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7061,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -7476,7 +7491,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7601,7 +7616,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7807,7 +7822,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7888,7 +7903,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8219,7 +8234,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8297,10 +8312,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8425,7 +8440,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8506,7 +8521,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ35">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8631,7 +8646,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8837,7 +8852,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8915,7 +8930,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -9043,7 +9058,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9121,7 +9136,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9249,7 +9264,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9455,7 +9470,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9533,10 +9548,10 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9661,7 +9676,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9739,7 +9754,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.33</v>
@@ -9867,7 +9882,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -9945,10 +9960,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10154,7 +10169,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ43">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10563,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
         <v>1.7</v>
@@ -10691,7 +10706,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10978,7 +10993,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -11184,7 +11199,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ48">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11387,7 +11402,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ49">
         <v>1.17</v>
@@ -11799,7 +11814,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -12008,7 +12023,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ52">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12339,7 +12354,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12417,7 +12432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.36</v>
@@ -12751,7 +12766,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13038,7 +13053,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ57">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13241,7 +13256,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ58">
         <v>0.73</v>
@@ -13369,7 +13384,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13575,7 +13590,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13656,7 +13671,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ60">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13862,7 +13877,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -14065,10 +14080,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14193,7 +14208,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14399,7 +14414,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14480,7 +14495,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14605,7 +14620,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14683,10 +14698,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ65">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -14889,7 +14904,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.92</v>
@@ -15017,7 +15032,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15095,10 +15110,10 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ67">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15301,10 +15316,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15716,7 +15731,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ70">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -15919,10 +15934,10 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ71">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -16128,7 +16143,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ72">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16253,7 +16268,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16331,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ73">
         <v>0.92</v>
@@ -16459,7 +16474,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17283,7 +17298,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17695,7 +17710,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17773,7 +17788,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ80">
         <v>1.7</v>
@@ -17901,7 +17916,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18313,7 +18328,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18391,7 +18406,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ83">
         <v>1.25</v>
@@ -18519,7 +18534,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18597,10 +18612,10 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ84">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18803,7 +18818,7 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>2</v>
@@ -18931,7 +18946,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19012,7 +19027,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ86">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19218,7 +19233,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ87">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19421,7 +19436,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88">
         <v>1.36</v>
@@ -19549,7 +19564,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19630,7 +19645,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ89">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19755,7 +19770,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19833,10 +19848,10 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -19961,7 +19976,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20248,7 +20263,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ92">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20579,7 +20594,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20785,7 +20800,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21069,10 +21084,10 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21197,7 +21212,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21275,7 +21290,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97">
         <v>0.73</v>
@@ -21403,7 +21418,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21815,7 +21830,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21896,7 +21911,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ100">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22099,10 +22114,10 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -22227,7 +22242,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22639,7 +22654,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22926,7 +22941,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ105">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -23257,7 +23272,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23335,7 +23350,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ107">
         <v>1.36</v>
@@ -23544,7 +23559,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ108">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23669,7 +23684,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23747,10 +23762,10 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ109">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23875,7 +23890,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23953,7 +23968,7 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -24081,7 +24096,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24287,7 +24302,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24365,10 +24380,10 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24574,7 +24589,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ113">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -24905,7 +24920,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24983,10 +24998,10 @@
         <v>2.4</v>
       </c>
       <c r="AP115">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ115">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25317,7 +25332,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25395,7 +25410,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117">
         <v>1.36</v>
@@ -25523,7 +25538,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25604,7 +25619,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ118">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -25807,7 +25822,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>0.91</v>
@@ -25935,7 +25950,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26141,7 +26156,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26222,7 +26237,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ121">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR121">
         <v>1.28</v>
@@ -26347,7 +26362,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26425,10 +26440,10 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ122">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26553,7 +26568,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26837,10 +26852,10 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -27043,7 +27058,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ125">
         <v>0.27</v>
@@ -27171,7 +27186,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27249,10 +27264,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ126">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27377,7 +27392,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27583,7 +27598,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27664,7 +27679,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ128">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27789,7 +27804,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27995,7 +28010,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28073,10 +28088,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ130">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -28279,7 +28294,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ131">
         <v>1.7</v>
@@ -28488,7 +28503,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ132">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -28897,10 +28912,10 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ134">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29106,7 +29121,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ135">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29231,7 +29246,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29437,7 +29452,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29515,7 +29530,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ137">
         <v>0.73</v>
@@ -29724,7 +29739,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ138">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -30055,7 +30070,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30136,7 +30151,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30261,7 +30276,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30339,7 +30354,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ141">
         <v>1.36</v>
@@ -30673,7 +30688,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30754,7 +30769,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ143">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -30879,7 +30894,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30957,7 +30972,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ144">
         <v>1.45</v>
@@ -31703,7 +31718,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31987,7 +32002,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1.25</v>
@@ -32115,7 +32130,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32196,7 +32211,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ150">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR150">
         <v>1.3</v>
@@ -32321,7 +32336,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32527,7 +32542,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32608,7 +32623,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ152">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32733,7 +32748,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32811,10 +32826,10 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ153">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -33351,7 +33366,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33429,7 +33444,7 @@
         <v>1.13</v>
       </c>
       <c r="AP156">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156">
         <v>1.33</v>
@@ -33638,7 +33653,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ157">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33844,7 +33859,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ158">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -34047,10 +34062,10 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ159">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR159">
         <v>1.88</v>
@@ -34175,7 +34190,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34253,7 +34268,7 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ160">
         <v>1.7</v>
@@ -34459,10 +34474,10 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ161">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR161">
         <v>2.23</v>
@@ -34587,7 +34602,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34793,7 +34808,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34999,7 +35014,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35077,10 +35092,10 @@
         <v>1.33</v>
       </c>
       <c r="AP164">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR164">
         <v>1.38</v>
@@ -35489,10 +35504,10 @@
         <v>1.38</v>
       </c>
       <c r="AP166">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ166">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR166">
         <v>1.37</v>
@@ -35617,7 +35632,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35695,7 +35710,7 @@
         <v>0.43</v>
       </c>
       <c r="AP167">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ167">
         <v>0.27</v>
@@ -35901,7 +35916,7 @@
         <v>2.14</v>
       </c>
       <c r="AP168">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ168">
         <v>1.36</v>
@@ -36029,7 +36044,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36110,7 +36125,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ169">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR169">
         <v>1.41</v>
@@ -36235,7 +36250,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36313,10 +36328,10 @@
         <v>2.38</v>
       </c>
       <c r="AP170">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ170">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR170">
         <v>1.86</v>
@@ -36441,7 +36456,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36519,7 +36534,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ171">
         <v>1.36</v>
@@ -36728,7 +36743,7 @@
         <v>2</v>
       </c>
       <c r="AQ172">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -36931,7 +36946,7 @@
         <v>0.38</v>
       </c>
       <c r="AP173">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ173">
         <v>0.27</v>
@@ -37471,7 +37486,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37552,7 +37567,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ176">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR176">
         <v>1.65</v>
@@ -37964,7 +37979,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ178">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR178">
         <v>1.3</v>
@@ -38089,7 +38104,7 @@
         <v>124</v>
       </c>
       <c r="P179" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38167,7 +38182,7 @@
         <v>0.67</v>
       </c>
       <c r="AP179">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ179">
         <v>0.92</v>
@@ -38295,7 +38310,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38373,7 +38388,7 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ180">
         <v>1.45</v>
@@ -38582,7 +38597,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ181">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38785,7 +38800,7 @@
         <v>1.88</v>
       </c>
       <c r="AP182">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ182">
         <v>1.36</v>
@@ -38913,7 +38928,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39119,7 +39134,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39200,7 +39215,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ184">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39325,7 +39340,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39737,7 +39752,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -39818,7 +39833,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ187">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR187">
         <v>1.66</v>
@@ -40021,7 +40036,7 @@
         <v>1.11</v>
       </c>
       <c r="AP188">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ188">
         <v>1.33</v>
@@ -40149,7 +40164,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40227,7 +40242,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ189">
         <v>1.7</v>
@@ -40355,7 +40370,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40561,7 +40576,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40639,7 +40654,7 @@
         <v>1.22</v>
       </c>
       <c r="AP191">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ191">
         <v>1.25</v>
@@ -40848,7 +40863,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ192">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR192">
         <v>1.29</v>
@@ -41257,7 +41272,7 @@
         <v>0.7</v>
       </c>
       <c r="AP194">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ194">
         <v>0.92</v>
@@ -41669,10 +41684,10 @@
         <v>0.89</v>
       </c>
       <c r="AP196">
+        <v>1.25</v>
+      </c>
+      <c r="AQ196">
         <v>1.09</v>
-      </c>
-      <c r="AQ196">
-        <v>1.1</v>
       </c>
       <c r="AR196">
         <v>1.01</v>
@@ -41797,7 +41812,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -41875,10 +41890,10 @@
         <v>1.11</v>
       </c>
       <c r="AP197">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ197">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42290,7 +42305,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ199">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR199">
         <v>1.76</v>
@@ -42415,7 +42430,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42905,7 +42920,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ202">
         <v>1.45</v>
@@ -43033,7 +43048,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43111,7 +43126,7 @@
         <v>1.2</v>
       </c>
       <c r="AP203">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ203">
         <v>1.36</v>
@@ -43239,7 +43254,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43320,7 +43335,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ204">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR204">
         <v>1.52</v>
@@ -43445,7 +43460,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43732,7 +43747,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ206">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR206">
         <v>1.66</v>
@@ -43938,7 +43953,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ207">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR207">
         <v>1.33</v>
@@ -44063,7 +44078,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44141,10 +44156,10 @@
         <v>1.1</v>
       </c>
       <c r="AP208">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ208">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -44269,7 +44284,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44347,7 +44362,7 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ209">
         <v>1.33</v>
@@ -44556,7 +44571,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ210">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR210">
         <v>1.72</v>
@@ -44759,7 +44774,7 @@
         <v>0.44</v>
       </c>
       <c r="AP211">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ211">
         <v>0.91</v>
@@ -44887,7 +44902,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -44965,7 +44980,7 @@
         <v>2</v>
       </c>
       <c r="AP212">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ212">
         <v>2</v>
@@ -45505,7 +45520,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45711,7 +45726,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45917,7 +45932,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -45995,10 +46010,10 @@
         <v>1.3</v>
       </c>
       <c r="AP217">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ217">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR217">
         <v>1.48</v>
@@ -46123,7 +46138,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46535,7 +46550,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46741,7 +46756,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -46947,7 +46962,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47246,22 +47261,22 @@
         <v>2.64</v>
       </c>
       <c r="AU223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV223">
         <v>5</v>
       </c>
       <c r="AW223">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX223">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AY223">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ223">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA223">
         <v>3</v>
@@ -47310,6 +47325,1654 @@
       </c>
       <c r="BP223">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7327118</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45486.875</v>
+      </c>
+      <c r="F224">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>71</v>
+      </c>
+      <c r="H224" t="s">
+        <v>78</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>232</v>
+      </c>
+      <c r="P224" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q224">
+        <v>3.4</v>
+      </c>
+      <c r="R224">
+        <v>2.05</v>
+      </c>
+      <c r="S224">
+        <v>3.4</v>
+      </c>
+      <c r="T224">
+        <v>1.44</v>
+      </c>
+      <c r="U224">
+        <v>2.63</v>
+      </c>
+      <c r="V224">
+        <v>3.4</v>
+      </c>
+      <c r="W224">
+        <v>1.3</v>
+      </c>
+      <c r="X224">
+        <v>10</v>
+      </c>
+      <c r="Y224">
+        <v>1.06</v>
+      </c>
+      <c r="Z224">
+        <v>2.65</v>
+      </c>
+      <c r="AA224">
+        <v>3.1</v>
+      </c>
+      <c r="AB224">
+        <v>2.6</v>
+      </c>
+      <c r="AC224">
+        <v>1.07</v>
+      </c>
+      <c r="AD224">
+        <v>8</v>
+      </c>
+      <c r="AE224">
+        <v>1.36</v>
+      </c>
+      <c r="AF224">
+        <v>2.95</v>
+      </c>
+      <c r="AG224">
+        <v>2.1</v>
+      </c>
+      <c r="AH224">
+        <v>1.65</v>
+      </c>
+      <c r="AI224">
+        <v>1.91</v>
+      </c>
+      <c r="AJ224">
+        <v>1.91</v>
+      </c>
+      <c r="AK224">
+        <v>1.47</v>
+      </c>
+      <c r="AL224">
+        <v>1.28</v>
+      </c>
+      <c r="AM224">
+        <v>1.45</v>
+      </c>
+      <c r="AN224">
+        <v>1.09</v>
+      </c>
+      <c r="AO224">
+        <v>1.27</v>
+      </c>
+      <c r="AP224">
+        <v>1.25</v>
+      </c>
+      <c r="AQ224">
+        <v>1.17</v>
+      </c>
+      <c r="AR224">
+        <v>1</v>
+      </c>
+      <c r="AS224">
+        <v>1.59</v>
+      </c>
+      <c r="AT224">
+        <v>2.59</v>
+      </c>
+      <c r="AU224">
+        <v>3</v>
+      </c>
+      <c r="AV224">
+        <v>3</v>
+      </c>
+      <c r="AW224">
+        <v>2</v>
+      </c>
+      <c r="AX224">
+        <v>3</v>
+      </c>
+      <c r="AY224">
+        <v>5</v>
+      </c>
+      <c r="AZ224">
+        <v>6</v>
+      </c>
+      <c r="BA224">
+        <v>5</v>
+      </c>
+      <c r="BB224">
+        <v>2</v>
+      </c>
+      <c r="BC224">
+        <v>7</v>
+      </c>
+      <c r="BD224">
+        <v>2.38</v>
+      </c>
+      <c r="BE224">
+        <v>8</v>
+      </c>
+      <c r="BF224">
+        <v>1.8</v>
+      </c>
+      <c r="BG224">
+        <v>1.17</v>
+      </c>
+      <c r="BH224">
+        <v>4.2</v>
+      </c>
+      <c r="BI224">
+        <v>1.36</v>
+      </c>
+      <c r="BJ224">
+        <v>2.89</v>
+      </c>
+      <c r="BK224">
+        <v>1.7</v>
+      </c>
+      <c r="BL224">
+        <v>2.05</v>
+      </c>
+      <c r="BM224">
+        <v>2.04</v>
+      </c>
+      <c r="BN224">
+        <v>1.69</v>
+      </c>
+      <c r="BO224">
+        <v>2.64</v>
+      </c>
+      <c r="BP224">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7327117</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45487.25</v>
+      </c>
+      <c r="F225">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>79</v>
+      </c>
+      <c r="H225" t="s">
+        <v>75</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
+        <v>91</v>
+      </c>
+      <c r="P225" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q225">
+        <v>4.75</v>
+      </c>
+      <c r="R225">
+        <v>2.1</v>
+      </c>
+      <c r="S225">
+        <v>2.6</v>
+      </c>
+      <c r="T225">
+        <v>1.44</v>
+      </c>
+      <c r="U225">
+        <v>2.63</v>
+      </c>
+      <c r="V225">
+        <v>3.25</v>
+      </c>
+      <c r="W225">
+        <v>1.33</v>
+      </c>
+      <c r="X225">
+        <v>10</v>
+      </c>
+      <c r="Y225">
+        <v>1.06</v>
+      </c>
+      <c r="Z225">
+        <v>4</v>
+      </c>
+      <c r="AA225">
+        <v>3.3</v>
+      </c>
+      <c r="AB225">
+        <v>1.9</v>
+      </c>
+      <c r="AC225">
+        <v>1.07</v>
+      </c>
+      <c r="AD225">
+        <v>8</v>
+      </c>
+      <c r="AE225">
+        <v>1.36</v>
+      </c>
+      <c r="AF225">
+        <v>2.95</v>
+      </c>
+      <c r="AG225">
+        <v>2.1</v>
+      </c>
+      <c r="AH225">
+        <v>1.65</v>
+      </c>
+      <c r="AI225">
+        <v>1.95</v>
+      </c>
+      <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.83</v>
+      </c>
+      <c r="AL225">
+        <v>1.25</v>
+      </c>
+      <c r="AM225">
+        <v>1.18</v>
+      </c>
+      <c r="AN225">
+        <v>1.45</v>
+      </c>
+      <c r="AO225">
+        <v>2.36</v>
+      </c>
+      <c r="AP225">
+        <v>1.33</v>
+      </c>
+      <c r="AQ225">
+        <v>2.42</v>
+      </c>
+      <c r="AR225">
+        <v>1.43</v>
+      </c>
+      <c r="AS225">
+        <v>1.31</v>
+      </c>
+      <c r="AT225">
+        <v>2.74</v>
+      </c>
+      <c r="AU225">
+        <v>8</v>
+      </c>
+      <c r="AV225">
+        <v>4</v>
+      </c>
+      <c r="AW225">
+        <v>3</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>11</v>
+      </c>
+      <c r="AZ225">
+        <v>8</v>
+      </c>
+      <c r="BA225">
+        <v>7</v>
+      </c>
+      <c r="BB225">
+        <v>7</v>
+      </c>
+      <c r="BC225">
+        <v>14</v>
+      </c>
+      <c r="BD225">
+        <v>2.5</v>
+      </c>
+      <c r="BE225">
+        <v>8</v>
+      </c>
+      <c r="BF225">
+        <v>1.67</v>
+      </c>
+      <c r="BG225">
+        <v>1.26</v>
+      </c>
+      <c r="BH225">
+        <v>3.34</v>
+      </c>
+      <c r="BI225">
+        <v>1.5</v>
+      </c>
+      <c r="BJ225">
+        <v>2.41</v>
+      </c>
+      <c r="BK225">
+        <v>2</v>
+      </c>
+      <c r="BL225">
+        <v>1.73</v>
+      </c>
+      <c r="BM225">
+        <v>2.41</v>
+      </c>
+      <c r="BN225">
+        <v>1.5</v>
+      </c>
+      <c r="BO225">
+        <v>3.28</v>
+      </c>
+      <c r="BP225">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7327119</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45487.27083333334</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>83</v>
+      </c>
+      <c r="H226" t="s">
+        <v>87</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226" t="s">
+        <v>91</v>
+      </c>
+      <c r="P226" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q226">
+        <v>4.33</v>
+      </c>
+      <c r="R226">
+        <v>2.2</v>
+      </c>
+      <c r="S226">
+        <v>2.6</v>
+      </c>
+      <c r="T226">
+        <v>1.4</v>
+      </c>
+      <c r="U226">
+        <v>2.75</v>
+      </c>
+      <c r="V226">
+        <v>2.75</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>8</v>
+      </c>
+      <c r="Y226">
+        <v>1.08</v>
+      </c>
+      <c r="Z226">
+        <v>3.75</v>
+      </c>
+      <c r="AA226">
+        <v>3.45</v>
+      </c>
+      <c r="AB226">
+        <v>1.9</v>
+      </c>
+      <c r="AC226">
+        <v>1.05</v>
+      </c>
+      <c r="AD226">
+        <v>9</v>
+      </c>
+      <c r="AE226">
+        <v>1.28</v>
+      </c>
+      <c r="AF226">
+        <v>3.5</v>
+      </c>
+      <c r="AG226">
+        <v>1.85</v>
+      </c>
+      <c r="AH226">
+        <v>1.85</v>
+      </c>
+      <c r="AI226">
+        <v>1.75</v>
+      </c>
+      <c r="AJ226">
+        <v>2</v>
+      </c>
+      <c r="AK226">
+        <v>1.83</v>
+      </c>
+      <c r="AL226">
+        <v>1.22</v>
+      </c>
+      <c r="AM226">
+        <v>1.25</v>
+      </c>
+      <c r="AN226">
+        <v>0.5</v>
+      </c>
+      <c r="AO226">
+        <v>1.1</v>
+      </c>
+      <c r="AP226">
+        <v>0.55</v>
+      </c>
+      <c r="AQ226">
+        <v>1.09</v>
+      </c>
+      <c r="AR226">
+        <v>1.37</v>
+      </c>
+      <c r="AS226">
+        <v>1.41</v>
+      </c>
+      <c r="AT226">
+        <v>2.78</v>
+      </c>
+      <c r="AU226">
+        <v>5</v>
+      </c>
+      <c r="AV226">
+        <v>3</v>
+      </c>
+      <c r="AW226">
+        <v>7</v>
+      </c>
+      <c r="AX226">
+        <v>2</v>
+      </c>
+      <c r="AY226">
+        <v>12</v>
+      </c>
+      <c r="AZ226">
+        <v>5</v>
+      </c>
+      <c r="BA226">
+        <v>5</v>
+      </c>
+      <c r="BB226">
+        <v>6</v>
+      </c>
+      <c r="BC226">
+        <v>11</v>
+      </c>
+      <c r="BD226">
+        <v>2.2</v>
+      </c>
+      <c r="BE226">
+        <v>8.5</v>
+      </c>
+      <c r="BF226">
+        <v>1.83</v>
+      </c>
+      <c r="BG226">
+        <v>1.18</v>
+      </c>
+      <c r="BH226">
+        <v>4.33</v>
+      </c>
+      <c r="BI226">
+        <v>1.25</v>
+      </c>
+      <c r="BJ226">
+        <v>3.42</v>
+      </c>
+      <c r="BK226">
+        <v>1.47</v>
+      </c>
+      <c r="BL226">
+        <v>2.49</v>
+      </c>
+      <c r="BM226">
+        <v>1.73</v>
+      </c>
+      <c r="BN226">
+        <v>2</v>
+      </c>
+      <c r="BO226">
+        <v>2.27</v>
+      </c>
+      <c r="BP226">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7327120</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45487.27083333334</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>70</v>
+      </c>
+      <c r="H227" t="s">
+        <v>73</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>233</v>
+      </c>
+      <c r="P227" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q227">
+        <v>2.1</v>
+      </c>
+      <c r="R227">
+        <v>2.2</v>
+      </c>
+      <c r="S227">
+        <v>7</v>
+      </c>
+      <c r="T227">
+        <v>1.44</v>
+      </c>
+      <c r="U227">
+        <v>2.63</v>
+      </c>
+      <c r="V227">
+        <v>3.25</v>
+      </c>
+      <c r="W227">
+        <v>1.33</v>
+      </c>
+      <c r="X227">
+        <v>9</v>
+      </c>
+      <c r="Y227">
+        <v>1.07</v>
+      </c>
+      <c r="Z227">
+        <v>1.5</v>
+      </c>
+      <c r="AA227">
+        <v>3.85</v>
+      </c>
+      <c r="AB227">
+        <v>6.5</v>
+      </c>
+      <c r="AC227">
+        <v>1.06</v>
+      </c>
+      <c r="AD227">
+        <v>8.5</v>
+      </c>
+      <c r="AE227">
+        <v>1.36</v>
+      </c>
+      <c r="AF227">
+        <v>2.95</v>
+      </c>
+      <c r="AG227">
+        <v>2</v>
+      </c>
+      <c r="AH227">
+        <v>1.7</v>
+      </c>
+      <c r="AI227">
+        <v>2.25</v>
+      </c>
+      <c r="AJ227">
+        <v>1.57</v>
+      </c>
+      <c r="AK227">
+        <v>1.06</v>
+      </c>
+      <c r="AL227">
+        <v>1.2</v>
+      </c>
+      <c r="AM227">
+        <v>2.5</v>
+      </c>
+      <c r="AN227">
+        <v>1.64</v>
+      </c>
+      <c r="AO227">
+        <v>1.8</v>
+      </c>
+      <c r="AP227">
+        <v>1.75</v>
+      </c>
+      <c r="AQ227">
+        <v>1.64</v>
+      </c>
+      <c r="AR227">
+        <v>2.1</v>
+      </c>
+      <c r="AS227">
+        <v>1.2</v>
+      </c>
+      <c r="AT227">
+        <v>3.3</v>
+      </c>
+      <c r="AU227">
+        <v>3</v>
+      </c>
+      <c r="AV227">
+        <v>3</v>
+      </c>
+      <c r="AW227">
+        <v>3</v>
+      </c>
+      <c r="AX227">
+        <v>6</v>
+      </c>
+      <c r="AY227">
+        <v>6</v>
+      </c>
+      <c r="AZ227">
+        <v>9</v>
+      </c>
+      <c r="BA227">
+        <v>5</v>
+      </c>
+      <c r="BB227">
+        <v>3</v>
+      </c>
+      <c r="BC227">
+        <v>8</v>
+      </c>
+      <c r="BD227">
+        <v>1.17</v>
+      </c>
+      <c r="BE227">
+        <v>11</v>
+      </c>
+      <c r="BF227">
+        <v>6</v>
+      </c>
+      <c r="BG227">
+        <v>1.25</v>
+      </c>
+      <c r="BH227">
+        <v>3.6</v>
+      </c>
+      <c r="BI227">
+        <v>1.34</v>
+      </c>
+      <c r="BJ227">
+        <v>2.88</v>
+      </c>
+      <c r="BK227">
+        <v>1.73</v>
+      </c>
+      <c r="BL227">
+        <v>2</v>
+      </c>
+      <c r="BM227">
+        <v>2.06</v>
+      </c>
+      <c r="BN227">
+        <v>1.71</v>
+      </c>
+      <c r="BO227">
+        <v>2.69</v>
+      </c>
+      <c r="BP227">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7327121</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>81</v>
+      </c>
+      <c r="H228" t="s">
+        <v>77</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>234</v>
+      </c>
+      <c r="P228" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q228">
+        <v>2.75</v>
+      </c>
+      <c r="R228">
+        <v>2.25</v>
+      </c>
+      <c r="S228">
+        <v>3.75</v>
+      </c>
+      <c r="T228">
+        <v>1.36</v>
+      </c>
+      <c r="U228">
+        <v>3</v>
+      </c>
+      <c r="V228">
+        <v>2.63</v>
+      </c>
+      <c r="W228">
+        <v>1.44</v>
+      </c>
+      <c r="X228">
+        <v>7</v>
+      </c>
+      <c r="Y228">
+        <v>1.1</v>
+      </c>
+      <c r="Z228">
+        <v>2</v>
+      </c>
+      <c r="AA228">
+        <v>3.4</v>
+      </c>
+      <c r="AB228">
+        <v>3.35</v>
+      </c>
+      <c r="AC228">
+        <v>1.05</v>
+      </c>
+      <c r="AD228">
+        <v>9.5</v>
+      </c>
+      <c r="AE228">
+        <v>1.25</v>
+      </c>
+      <c r="AF228">
+        <v>3.75</v>
+      </c>
+      <c r="AG228">
+        <v>1.75</v>
+      </c>
+      <c r="AH228">
+        <v>1.95</v>
+      </c>
+      <c r="AI228">
+        <v>1.67</v>
+      </c>
+      <c r="AJ228">
+        <v>2.1</v>
+      </c>
+      <c r="AK228">
+        <v>1.3</v>
+      </c>
+      <c r="AL228">
+        <v>1.22</v>
+      </c>
+      <c r="AM228">
+        <v>1.72</v>
+      </c>
+      <c r="AN228">
+        <v>1.45</v>
+      </c>
+      <c r="AO228">
+        <v>1.27</v>
+      </c>
+      <c r="AP228">
+        <v>1.42</v>
+      </c>
+      <c r="AQ228">
+        <v>1.25</v>
+      </c>
+      <c r="AR228">
+        <v>1.67</v>
+      </c>
+      <c r="AS228">
+        <v>1.39</v>
+      </c>
+      <c r="AT228">
+        <v>3.06</v>
+      </c>
+      <c r="AU228">
+        <v>8</v>
+      </c>
+      <c r="AV228">
+        <v>4</v>
+      </c>
+      <c r="AW228">
+        <v>6</v>
+      </c>
+      <c r="AX228">
+        <v>8</v>
+      </c>
+      <c r="AY228">
+        <v>14</v>
+      </c>
+      <c r="AZ228">
+        <v>12</v>
+      </c>
+      <c r="BA228">
+        <v>1</v>
+      </c>
+      <c r="BB228">
+        <v>5</v>
+      </c>
+      <c r="BC228">
+        <v>6</v>
+      </c>
+      <c r="BD228">
+        <v>1.83</v>
+      </c>
+      <c r="BE228">
+        <v>8</v>
+      </c>
+      <c r="BF228">
+        <v>2.25</v>
+      </c>
+      <c r="BG228">
+        <v>1.15</v>
+      </c>
+      <c r="BH228">
+        <v>4.45</v>
+      </c>
+      <c r="BI228">
+        <v>1.32</v>
+      </c>
+      <c r="BJ228">
+        <v>3.1</v>
+      </c>
+      <c r="BK228">
+        <v>1.73</v>
+      </c>
+      <c r="BL228">
+        <v>2</v>
+      </c>
+      <c r="BM228">
+        <v>1.95</v>
+      </c>
+      <c r="BN228">
+        <v>1.85</v>
+      </c>
+      <c r="BO228">
+        <v>2.44</v>
+      </c>
+      <c r="BP228">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7327122</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>76</v>
+      </c>
+      <c r="H229" t="s">
+        <v>72</v>
+      </c>
+      <c r="I229">
+        <v>3</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+      <c r="L229">
+        <v>5</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>5</v>
+      </c>
+      <c r="O229" t="s">
+        <v>235</v>
+      </c>
+      <c r="P229" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q229">
+        <v>2.75</v>
+      </c>
+      <c r="R229">
+        <v>2.2</v>
+      </c>
+      <c r="S229">
+        <v>3.75</v>
+      </c>
+      <c r="T229">
+        <v>1.4</v>
+      </c>
+      <c r="U229">
+        <v>2.75</v>
+      </c>
+      <c r="V229">
+        <v>2.75</v>
+      </c>
+      <c r="W229">
+        <v>1.4</v>
+      </c>
+      <c r="X229">
+        <v>8</v>
+      </c>
+      <c r="Y229">
+        <v>1.08</v>
+      </c>
+      <c r="Z229">
+        <v>2.05</v>
+      </c>
+      <c r="AA229">
+        <v>3.4</v>
+      </c>
+      <c r="AB229">
+        <v>3.3</v>
+      </c>
+      <c r="AC229">
+        <v>1.05</v>
+      </c>
+      <c r="AD229">
+        <v>9</v>
+      </c>
+      <c r="AE229">
+        <v>1.28</v>
+      </c>
+      <c r="AF229">
+        <v>3.5</v>
+      </c>
+      <c r="AG229">
+        <v>1.85</v>
+      </c>
+      <c r="AH229">
+        <v>1.85</v>
+      </c>
+      <c r="AI229">
+        <v>1.75</v>
+      </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
+      <c r="AK229">
+        <v>1.3</v>
+      </c>
+      <c r="AL229">
+        <v>1.25</v>
+      </c>
+      <c r="AM229">
+        <v>1.75</v>
+      </c>
+      <c r="AN229">
+        <v>0.8</v>
+      </c>
+      <c r="AO229">
+        <v>0.82</v>
+      </c>
+      <c r="AP229">
+        <v>1</v>
+      </c>
+      <c r="AQ229">
+        <v>0.75</v>
+      </c>
+      <c r="AR229">
+        <v>1.5</v>
+      </c>
+      <c r="AS229">
+        <v>1.21</v>
+      </c>
+      <c r="AT229">
+        <v>2.71</v>
+      </c>
+      <c r="AU229">
+        <v>9</v>
+      </c>
+      <c r="AV229">
+        <v>0</v>
+      </c>
+      <c r="AW229">
+        <v>12</v>
+      </c>
+      <c r="AX229">
+        <v>5</v>
+      </c>
+      <c r="AY229">
+        <v>21</v>
+      </c>
+      <c r="AZ229">
+        <v>5</v>
+      </c>
+      <c r="BA229">
+        <v>12</v>
+      </c>
+      <c r="BB229">
+        <v>3</v>
+      </c>
+      <c r="BC229">
+        <v>15</v>
+      </c>
+      <c r="BD229">
+        <v>1.62</v>
+      </c>
+      <c r="BE229">
+        <v>8.5</v>
+      </c>
+      <c r="BF229">
+        <v>2.75</v>
+      </c>
+      <c r="BG229">
+        <v>1.18</v>
+      </c>
+      <c r="BH229">
+        <v>4.33</v>
+      </c>
+      <c r="BI229">
+        <v>1.26</v>
+      </c>
+      <c r="BJ229">
+        <v>3.34</v>
+      </c>
+      <c r="BK229">
+        <v>1.49</v>
+      </c>
+      <c r="BL229">
+        <v>2.44</v>
+      </c>
+      <c r="BM229">
+        <v>1.85</v>
+      </c>
+      <c r="BN229">
+        <v>1.85</v>
+      </c>
+      <c r="BO229">
+        <v>2.34</v>
+      </c>
+      <c r="BP229">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7327123</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>74</v>
+      </c>
+      <c r="H230" t="s">
+        <v>86</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>91</v>
+      </c>
+      <c r="P230" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q230">
+        <v>3.75</v>
+      </c>
+      <c r="R230">
+        <v>2.2</v>
+      </c>
+      <c r="S230">
+        <v>2.75</v>
+      </c>
+      <c r="T230">
+        <v>1.36</v>
+      </c>
+      <c r="U230">
+        <v>3</v>
+      </c>
+      <c r="V230">
+        <v>2.75</v>
+      </c>
+      <c r="W230">
+        <v>1.4</v>
+      </c>
+      <c r="X230">
+        <v>8</v>
+      </c>
+      <c r="Y230">
+        <v>1.08</v>
+      </c>
+      <c r="Z230">
+        <v>3.2</v>
+      </c>
+      <c r="AA230">
+        <v>3.4</v>
+      </c>
+      <c r="AB230">
+        <v>2.1</v>
+      </c>
+      <c r="AC230">
+        <v>1.05</v>
+      </c>
+      <c r="AD230">
+        <v>9</v>
+      </c>
+      <c r="AE230">
+        <v>1.28</v>
+      </c>
+      <c r="AF230">
+        <v>3.5</v>
+      </c>
+      <c r="AG230">
+        <v>1.85</v>
+      </c>
+      <c r="AH230">
+        <v>1.85</v>
+      </c>
+      <c r="AI230">
+        <v>1.7</v>
+      </c>
+      <c r="AJ230">
+        <v>2.05</v>
+      </c>
+      <c r="AK230">
+        <v>1.7</v>
+      </c>
+      <c r="AL230">
+        <v>1.25</v>
+      </c>
+      <c r="AM230">
+        <v>1.33</v>
+      </c>
+      <c r="AN230">
+        <v>1.18</v>
+      </c>
+      <c r="AO230">
+        <v>1.45</v>
+      </c>
+      <c r="AP230">
+        <v>1.08</v>
+      </c>
+      <c r="AQ230">
+        <v>1.58</v>
+      </c>
+      <c r="AR230">
+        <v>1.42</v>
+      </c>
+      <c r="AS230">
+        <v>1.15</v>
+      </c>
+      <c r="AT230">
+        <v>2.57</v>
+      </c>
+      <c r="AU230">
+        <v>6</v>
+      </c>
+      <c r="AV230">
+        <v>8</v>
+      </c>
+      <c r="AW230">
+        <v>8</v>
+      </c>
+      <c r="AX230">
+        <v>7</v>
+      </c>
+      <c r="AY230">
+        <v>14</v>
+      </c>
+      <c r="AZ230">
+        <v>15</v>
+      </c>
+      <c r="BA230">
+        <v>6</v>
+      </c>
+      <c r="BB230">
+        <v>2</v>
+      </c>
+      <c r="BC230">
+        <v>8</v>
+      </c>
+      <c r="BD230">
+        <v>2.05</v>
+      </c>
+      <c r="BE230">
+        <v>8</v>
+      </c>
+      <c r="BF230">
+        <v>2</v>
+      </c>
+      <c r="BG230">
+        <v>1.17</v>
+      </c>
+      <c r="BH230">
+        <v>4.2</v>
+      </c>
+      <c r="BI230">
+        <v>1.36</v>
+      </c>
+      <c r="BJ230">
+        <v>2.89</v>
+      </c>
+      <c r="BK230">
+        <v>1.73</v>
+      </c>
+      <c r="BL230">
+        <v>2</v>
+      </c>
+      <c r="BM230">
+        <v>2.04</v>
+      </c>
+      <c r="BN230">
+        <v>1.69</v>
+      </c>
+      <c r="BO230">
+        <v>2.64</v>
+      </c>
+      <c r="BP230">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7327124</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45487.3125</v>
+      </c>
+      <c r="F231">
+        <v>23</v>
+      </c>
+      <c r="G231" t="s">
+        <v>80</v>
+      </c>
+      <c r="H231" t="s">
+        <v>84</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>5</v>
+      </c>
+      <c r="O231" t="s">
+        <v>236</v>
+      </c>
+      <c r="P231" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231">
+        <v>2.3</v>
+      </c>
+      <c r="S231">
+        <v>3.2</v>
+      </c>
+      <c r="T231">
+        <v>1.33</v>
+      </c>
+      <c r="U231">
+        <v>3.25</v>
+      </c>
+      <c r="V231">
+        <v>2.5</v>
+      </c>
+      <c r="W231">
+        <v>1.5</v>
+      </c>
+      <c r="X231">
+        <v>6.5</v>
+      </c>
+      <c r="Y231">
+        <v>1.11</v>
+      </c>
+      <c r="Z231">
+        <v>2.4</v>
+      </c>
+      <c r="AA231">
+        <v>3.4</v>
+      </c>
+      <c r="AB231">
+        <v>2.65</v>
+      </c>
+      <c r="AC231">
+        <v>1.04</v>
+      </c>
+      <c r="AD231">
+        <v>10</v>
+      </c>
+      <c r="AE231">
+        <v>1.22</v>
+      </c>
+      <c r="AF231">
+        <v>4</v>
+      </c>
+      <c r="AG231">
+        <v>1.65</v>
+      </c>
+      <c r="AH231">
+        <v>2.1</v>
+      </c>
+      <c r="AI231">
+        <v>1.57</v>
+      </c>
+      <c r="AJ231">
+        <v>2.25</v>
+      </c>
+      <c r="AK231">
+        <v>1.47</v>
+      </c>
+      <c r="AL231">
+        <v>1.25</v>
+      </c>
+      <c r="AM231">
+        <v>1.52</v>
+      </c>
+      <c r="AN231">
+        <v>1.2</v>
+      </c>
+      <c r="AO231">
+        <v>1.45</v>
+      </c>
+      <c r="AP231">
+        <v>1.36</v>
+      </c>
+      <c r="AQ231">
+        <v>1.33</v>
+      </c>
+      <c r="AR231">
+        <v>1.75</v>
+      </c>
+      <c r="AS231">
+        <v>1.36</v>
+      </c>
+      <c r="AT231">
+        <v>3.11</v>
+      </c>
+      <c r="AU231">
+        <v>5</v>
+      </c>
+      <c r="AV231">
+        <v>3</v>
+      </c>
+      <c r="AW231">
+        <v>3</v>
+      </c>
+      <c r="AX231">
+        <v>4</v>
+      </c>
+      <c r="AY231">
+        <v>8</v>
+      </c>
+      <c r="AZ231">
+        <v>7</v>
+      </c>
+      <c r="BA231">
+        <v>5</v>
+      </c>
+      <c r="BB231">
+        <v>9</v>
+      </c>
+      <c r="BC231">
+        <v>14</v>
+      </c>
+      <c r="BD231">
+        <v>1.8</v>
+      </c>
+      <c r="BE231">
+        <v>8.5</v>
+      </c>
+      <c r="BF231">
+        <v>2.3</v>
+      </c>
+      <c r="BG231">
+        <v>1.15</v>
+      </c>
+      <c r="BH231">
+        <v>4.75</v>
+      </c>
+      <c r="BI231">
+        <v>1.25</v>
+      </c>
+      <c r="BJ231">
+        <v>3.42</v>
+      </c>
+      <c r="BK231">
+        <v>1.47</v>
+      </c>
+      <c r="BL231">
+        <v>2.49</v>
+      </c>
+      <c r="BM231">
+        <v>1.85</v>
+      </c>
+      <c r="BN231">
+        <v>1.85</v>
+      </c>
+      <c r="BO231">
+        <v>2.27</v>
+      </c>
+      <c r="BP231">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -47341,7 +47341,7 @@
         <v>69</v>
       </c>
       <c r="E224" s="2">
-        <v>45486.875</v>
+        <v>45487.25</v>
       </c>
       <c r="F224">
         <v>23</v>
@@ -47467,31 +47467,31 @@
         <v>2.59</v>
       </c>
       <c r="AU224">
+        <v>4</v>
+      </c>
+      <c r="AV224">
+        <v>6</v>
+      </c>
+      <c r="AW224">
+        <v>8</v>
+      </c>
+      <c r="AX224">
+        <v>7</v>
+      </c>
+      <c r="AY224">
+        <v>12</v>
+      </c>
+      <c r="AZ224">
+        <v>13</v>
+      </c>
+      <c r="BA224">
+        <v>7</v>
+      </c>
+      <c r="BB224">
         <v>3</v>
       </c>
-      <c r="AV224">
-        <v>3</v>
-      </c>
-      <c r="AW224">
-        <v>2</v>
-      </c>
-      <c r="AX224">
-        <v>3</v>
-      </c>
-      <c r="AY224">
-        <v>5</v>
-      </c>
-      <c r="AZ224">
-        <v>6</v>
-      </c>
-      <c r="BA224">
-        <v>5</v>
-      </c>
-      <c r="BB224">
-        <v>2</v>
-      </c>
       <c r="BC224">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD224">
         <v>2.38</v>
@@ -47885,13 +47885,13 @@
         <v>3</v>
       </c>
       <c r="AW226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX226">
         <v>2</v>
       </c>
       <c r="AY226">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ226">
         <v>5</v>
@@ -48085,7 +48085,7 @@
         <v>3.3</v>
       </c>
       <c r="AU227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV227">
         <v>3</v>
@@ -48094,13 +48094,13 @@
         <v>3</v>
       </c>
       <c r="AX227">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY227">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ227">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA227">
         <v>5</v>
@@ -48300,13 +48300,13 @@
         <v>6</v>
       </c>
       <c r="AX228">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY228">
         <v>14</v>
       </c>
       <c r="AZ228">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA228">
         <v>1</v>
@@ -48497,22 +48497,22 @@
         <v>2.71</v>
       </c>
       <c r="AU229">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV229">
         <v>0</v>
       </c>
       <c r="AW229">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AX229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY229">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA229">
         <v>12</v>
@@ -48703,22 +48703,22 @@
         <v>2.57</v>
       </c>
       <c r="AU230">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV230">
         <v>8</v>
       </c>
       <c r="AW230">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX230">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY230">
+        <v>10</v>
+      </c>
+      <c r="AZ230">
         <v>14</v>
-      </c>
-      <c r="AZ230">
-        <v>15</v>
       </c>
       <c r="BA230">
         <v>6</v>
@@ -48909,22 +48909,22 @@
         <v>3.11</v>
       </c>
       <c r="AU231">
+        <v>9</v>
+      </c>
+      <c r="AV231">
         <v>5</v>
       </c>
-      <c r="AV231">
-        <v>3</v>
-      </c>
       <c r="AW231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX231">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY231">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ231">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA231">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -47885,13 +47885,13 @@
         <v>3</v>
       </c>
       <c r="AW226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX226">
         <v>2</v>
       </c>
       <c r="AY226">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ226">
         <v>5</v>
@@ -48085,7 +48085,7 @@
         <v>3.3</v>
       </c>
       <c r="AU227">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV227">
         <v>3</v>
@@ -48094,13 +48094,13 @@
         <v>3</v>
       </c>
       <c r="AX227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY227">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ227">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA227">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,21 @@
     <t>['45+3', '52', '71', '90+6']</t>
   </si>
   <si>
+    <t>['76', '81', '90']</t>
+  </si>
+  <si>
+    <t>['30', '47']</t>
+  </si>
+  <si>
+    <t>['33', '90', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+10']</t>
+  </si>
+  <si>
+    <t>['12', '67']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -842,9 +857,6 @@
   </si>
   <si>
     <t>['11', '86']</t>
-  </si>
-  <si>
-    <t>['30', '47']</t>
   </si>
   <si>
     <t>['14', '25']</t>
@@ -1022,6 +1034,24 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['37', '45+2', '51', '57']</t>
+  </si>
+  <si>
+    <t>['33', '43']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['22', '54', '90+10']</t>
+  </si>
+  <si>
+    <t>['79', '81']</t>
+  </si>
+  <si>
+    <t>['4', '10', '79']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1848,7 +1878,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2054,7 +2084,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2132,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -2338,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ5">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2466,7 +2496,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2547,7 +2577,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ6">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2750,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.58</v>
@@ -2878,7 +2908,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2959,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3084,7 +3114,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3162,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3368,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3496,7 +3526,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3577,7 +3607,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3702,7 +3732,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3908,7 +3938,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4114,7 +4144,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4192,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>1.17</v>
@@ -4526,7 +4556,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4607,7 +4637,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ16">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4813,7 +4843,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ17">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4938,7 +4968,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5016,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -5144,7 +5174,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5428,10 +5458,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5556,7 +5586,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5634,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ21">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5762,7 +5792,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5840,7 +5870,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.17</v>
@@ -6049,7 +6079,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ23">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6252,7 +6282,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6664,10 +6694,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ26">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6792,7 +6822,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7079,7 +7109,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7282,10 +7312,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7616,7 +7646,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7694,10 +7724,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ31">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7822,7 +7852,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8106,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.45</v>
@@ -8234,7 +8264,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8518,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ35">
         <v>0.75</v>
@@ -8646,7 +8676,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8724,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8852,7 +8882,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -8933,7 +8963,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -9058,7 +9088,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9139,7 +9169,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9342,10 +9372,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9470,7 +9500,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9676,7 +9706,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9757,7 +9787,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9882,7 +9912,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10372,10 +10402,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10581,7 +10611,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ45">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10706,7 +10736,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10784,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>0.91</v>
@@ -10990,7 +11020,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ47">
         <v>1.64</v>
@@ -11196,7 +11226,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -11405,7 +11435,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ49">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11608,10 +11638,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ50">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -12020,7 +12050,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -12226,10 +12256,10 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12354,7 +12384,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12435,7 +12465,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12638,10 +12668,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ55">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12766,7 +12796,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12844,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1.45</v>
@@ -13050,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -13259,7 +13289,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ58">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13384,7 +13414,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13465,7 +13495,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13590,7 +13620,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14208,7 +14238,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14286,10 +14316,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14414,7 +14444,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14620,7 +14650,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14907,7 +14937,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -15032,7 +15062,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15522,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ69">
         <v>0.91</v>
@@ -16140,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
         <v>1.09</v>
@@ -16268,7 +16298,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16349,7 +16379,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ73">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16474,7 +16504,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16555,7 +16585,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ74">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16758,10 +16788,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16964,7 +16994,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ76">
         <v>1.45</v>
@@ -17170,10 +17200,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17298,7 +17328,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17376,7 +17406,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>2</v>
@@ -17582,10 +17612,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ79">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17710,7 +17740,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17791,7 +17821,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17916,7 +17946,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17994,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ81">
         <v>0.91</v>
@@ -18328,7 +18358,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18409,7 +18439,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18534,7 +18564,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18946,7 +18976,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19024,7 +19054,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
         <v>0.75</v>
@@ -19230,7 +19260,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ87">
         <v>1.58</v>
@@ -19439,7 +19469,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19564,7 +19594,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19770,7 +19800,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19976,7 +20006,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20057,7 +20087,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ91">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20260,7 +20290,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>2.42</v>
@@ -20466,10 +20496,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20594,7 +20624,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20675,7 +20705,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ94">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20800,7 +20830,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20878,10 +20908,10 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21212,7 +21242,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21293,7 +21323,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ97">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21418,7 +21448,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21496,10 +21526,10 @@
         <v>2.25</v>
       </c>
       <c r="AP98">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ98">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21702,7 +21732,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ99">
         <v>0.91</v>
@@ -21830,7 +21860,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21908,7 +21938,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -22242,7 +22272,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22526,10 +22556,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ103">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22654,7 +22684,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22735,7 +22765,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22938,7 +22968,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105">
         <v>1.17</v>
@@ -23144,10 +23174,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ106">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23272,7 +23302,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23353,7 +23383,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ107">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23556,7 +23586,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ108">
         <v>1.58</v>
@@ -23684,7 +23714,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23890,7 +23920,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24096,7 +24126,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24174,10 +24204,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24302,7 +24332,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24586,7 +24616,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ113">
         <v>1.25</v>
@@ -24792,10 +24822,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ114">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24920,7 +24950,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25207,7 +25237,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25332,7 +25362,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25413,7 +25443,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ117">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -25538,7 +25568,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25616,7 +25646,7 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
         <v>1.33</v>
@@ -25950,7 +25980,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26028,10 +26058,10 @@
         <v>2</v>
       </c>
       <c r="AP120">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ120">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -26156,7 +26186,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26362,7 +26392,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26568,7 +26598,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26646,7 +26676,7 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
         <v>0.91</v>
@@ -27061,7 +27091,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ125">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27186,7 +27216,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27392,7 +27422,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27470,7 +27500,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ127">
         <v>2</v>
@@ -27598,7 +27628,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27804,7 +27834,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27882,10 +27912,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28010,7 +28040,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28297,7 +28327,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ131">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR131">
         <v>0.9399999999999999</v>
@@ -28706,10 +28736,10 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -29118,7 +29148,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ135">
         <v>1.25</v>
@@ -29246,7 +29276,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29327,7 +29357,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ136">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29452,7 +29482,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29533,7 +29563,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ137">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -29736,7 +29766,7 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
         <v>1.64</v>
@@ -29942,10 +29972,10 @@
         <v>1.29</v>
       </c>
       <c r="AP139">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30070,7 +30100,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30148,7 +30178,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ140">
         <v>1.25</v>
@@ -30276,7 +30306,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30357,7 +30387,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ141">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30560,10 +30590,10 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ142">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30688,7 +30718,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30766,7 +30796,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ143">
         <v>1.09</v>
@@ -30894,7 +30924,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31178,10 +31208,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ145">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31384,7 +31414,7 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ146">
         <v>2</v>
@@ -31593,7 +31623,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ147">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -31718,7 +31748,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31796,10 +31826,10 @@
         <v>0.5</v>
       </c>
       <c r="AP148">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ148">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -32005,7 +32035,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -32130,7 +32160,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32336,7 +32366,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32414,10 +32444,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ151">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR151">
         <v>1.18</v>
@@ -32542,7 +32572,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32748,7 +32778,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33032,10 +33062,10 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33238,7 +33268,7 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ155">
         <v>1.45</v>
@@ -33366,7 +33396,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33447,7 +33477,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR156">
         <v>0.96</v>
@@ -33856,7 +33886,7 @@
         <v>2.29</v>
       </c>
       <c r="AP158">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ158">
         <v>2.42</v>
@@ -34190,7 +34220,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34271,7 +34301,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ160">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR160">
         <v>1.45</v>
@@ -34602,7 +34632,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34680,10 +34710,10 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ162">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -34808,7 +34838,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34886,10 +34916,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ163">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -35014,7 +35044,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35298,7 +35328,7 @@
         <v>2.38</v>
       </c>
       <c r="AP165">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -35632,7 +35662,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35713,7 +35743,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35919,7 +35949,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ168">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36044,7 +36074,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36122,7 +36152,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ169">
         <v>1.64</v>
@@ -36250,7 +36280,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36456,7 +36486,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36537,7 +36567,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ171">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>2.14</v>
@@ -36740,7 +36770,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ172">
         <v>1.09</v>
@@ -36949,7 +36979,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ173">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -37152,10 +37182,10 @@
         <v>0.75</v>
       </c>
       <c r="AP174">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR174">
         <v>1.8</v>
@@ -37358,7 +37388,7 @@
         <v>0.57</v>
       </c>
       <c r="AP175">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ175">
         <v>0.91</v>
@@ -37486,7 +37516,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37564,7 +37594,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ176">
         <v>1.17</v>
@@ -37770,10 +37800,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ177">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR177">
         <v>1.32</v>
@@ -38185,7 +38215,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ179">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR179">
         <v>1</v>
@@ -38310,7 +38340,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38594,7 +38624,7 @@
         <v>1.75</v>
       </c>
       <c r="AP181">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ181">
         <v>1.64</v>
@@ -38803,7 +38833,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ182">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR182">
         <v>1.53</v>
@@ -38928,7 +38958,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39009,7 +39039,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ183">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR183">
         <v>1.43</v>
@@ -39134,7 +39164,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39212,7 +39242,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184">
         <v>1.25</v>
@@ -39340,7 +39370,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39418,7 +39448,7 @@
         <v>2.22</v>
       </c>
       <c r="AP185">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ185">
         <v>2</v>
@@ -39624,7 +39654,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ186">
         <v>1.45</v>
@@ -39752,7 +39782,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -39830,7 +39860,7 @@
         <v>1.67</v>
       </c>
       <c r="AP187">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ187">
         <v>1.33</v>
@@ -40039,7 +40069,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ188">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR188">
         <v>1.44</v>
@@ -40164,7 +40194,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40245,7 +40275,7 @@
         <v>1</v>
       </c>
       <c r="AQ189">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40370,7 +40400,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40451,7 +40481,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ190">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR190">
         <v>1.27</v>
@@ -40576,7 +40606,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40657,7 +40687,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR191">
         <v>2.15</v>
@@ -40860,7 +40890,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ192">
         <v>1.58</v>
@@ -41069,7 +41099,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ193">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR193">
         <v>1.31</v>
@@ -41275,7 +41305,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ194">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR194">
         <v>1.65</v>
@@ -41478,10 +41508,10 @@
         <v>1.33</v>
       </c>
       <c r="AP195">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ195">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR195">
         <v>1.32</v>
@@ -41812,7 +41842,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42096,7 +42126,7 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ198">
         <v>0.91</v>
@@ -42302,7 +42332,7 @@
         <v>2.44</v>
       </c>
       <c r="AP199">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ199">
         <v>2.42</v>
@@ -42430,7 +42460,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42508,10 +42538,10 @@
         <v>1.4</v>
       </c>
       <c r="AP200">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ200">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR200">
         <v>1.37</v>
@@ -42717,7 +42747,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ201">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR201">
         <v>1.29</v>
@@ -43048,7 +43078,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43129,7 +43159,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ203">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR203">
         <v>1.74</v>
@@ -43254,7 +43284,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43332,7 +43362,7 @@
         <v>2.3</v>
       </c>
       <c r="AP204">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ204">
         <v>2.42</v>
@@ -43460,7 +43490,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43538,10 +43568,10 @@
         <v>1.67</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ205">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -43744,7 +43774,7 @@
         <v>0.9</v>
       </c>
       <c r="AP206">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ206">
         <v>0.75</v>
@@ -44078,7 +44108,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44284,7 +44314,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44365,7 +44395,7 @@
         <v>1</v>
       </c>
       <c r="AQ209">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -44568,7 +44598,7 @@
         <v>1.6</v>
       </c>
       <c r="AP210">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ210">
         <v>1.33</v>
@@ -44902,7 +44932,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45186,10 +45216,10 @@
         <v>1.5</v>
       </c>
       <c r="AP213">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ213">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR213">
         <v>1.4</v>
@@ -45392,10 +45422,10 @@
         <v>0.3</v>
       </c>
       <c r="AP214">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ214">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR214">
         <v>1.31</v>
@@ -45520,7 +45550,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45726,7 +45756,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45804,10 +45834,10 @@
         <v>0.7</v>
       </c>
       <c r="AP216">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ216">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR216">
         <v>1.33</v>
@@ -45932,7 +45962,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46138,7 +46168,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46216,10 +46246,10 @@
         <v>0.73</v>
       </c>
       <c r="AP218">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ218">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR218">
         <v>1.71</v>
@@ -46422,10 +46452,10 @@
         <v>1.27</v>
       </c>
       <c r="AP219">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AQ219">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46550,7 +46580,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46628,10 +46658,10 @@
         <v>1.89</v>
       </c>
       <c r="AP220">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ220">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR220">
         <v>1.47</v>
@@ -46756,7 +46786,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -46834,10 +46864,10 @@
         <v>1.18</v>
       </c>
       <c r="AP221">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ221">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR221">
         <v>1.36</v>
@@ -46962,7 +46992,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47249,7 +47279,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ223">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR223">
         <v>1.32</v>
@@ -48610,7 +48640,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48816,7 +48846,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -48973,6 +49003,1860 @@
       </c>
       <c r="BP231">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7327127</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45492.875</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>87</v>
+      </c>
+      <c r="H232" t="s">
+        <v>89</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>3</v>
+      </c>
+      <c r="M232">
+        <v>4</v>
+      </c>
+      <c r="N232">
+        <v>7</v>
+      </c>
+      <c r="O232" t="s">
+        <v>237</v>
+      </c>
+      <c r="P232" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q232">
+        <v>2.07</v>
+      </c>
+      <c r="R232">
+        <v>2.49</v>
+      </c>
+      <c r="S232">
+        <v>5.75</v>
+      </c>
+      <c r="T232">
+        <v>1.3</v>
+      </c>
+      <c r="U232">
+        <v>3.4</v>
+      </c>
+      <c r="V232">
+        <v>2.57</v>
+      </c>
+      <c r="W232">
+        <v>1.51</v>
+      </c>
+      <c r="X232">
+        <v>6</v>
+      </c>
+      <c r="Y232">
+        <v>1.13</v>
+      </c>
+      <c r="Z232">
+        <v>1.5</v>
+      </c>
+      <c r="AA232">
+        <v>4.2</v>
+      </c>
+      <c r="AB232">
+        <v>5</v>
+      </c>
+      <c r="AC232">
+        <v>1.03</v>
+      </c>
+      <c r="AD232">
+        <v>11</v>
+      </c>
+      <c r="AE232">
+        <v>1.18</v>
+      </c>
+      <c r="AF232">
+        <v>4.05</v>
+      </c>
+      <c r="AG232">
+        <v>1.63</v>
+      </c>
+      <c r="AH232">
+        <v>2.2</v>
+      </c>
+      <c r="AI232">
+        <v>1.8</v>
+      </c>
+      <c r="AJ232">
+        <v>1.95</v>
+      </c>
+      <c r="AK232">
+        <v>1.12</v>
+      </c>
+      <c r="AL232">
+        <v>1.22</v>
+      </c>
+      <c r="AM232">
+        <v>2.4</v>
+      </c>
+      <c r="AN232">
+        <v>1.75</v>
+      </c>
+      <c r="AO232">
+        <v>0.27</v>
+      </c>
+      <c r="AP232">
+        <v>1.62</v>
+      </c>
+      <c r="AQ232">
+        <v>0.5</v>
+      </c>
+      <c r="AR232">
+        <v>1.7</v>
+      </c>
+      <c r="AS232">
+        <v>1.22</v>
+      </c>
+      <c r="AT232">
+        <v>2.92</v>
+      </c>
+      <c r="AU232">
+        <v>6</v>
+      </c>
+      <c r="AV232">
+        <v>0</v>
+      </c>
+      <c r="AW232">
+        <v>3</v>
+      </c>
+      <c r="AX232">
+        <v>4</v>
+      </c>
+      <c r="AY232">
+        <v>9</v>
+      </c>
+      <c r="AZ232">
+        <v>4</v>
+      </c>
+      <c r="BA232">
+        <v>3</v>
+      </c>
+      <c r="BB232">
+        <v>2</v>
+      </c>
+      <c r="BC232">
+        <v>5</v>
+      </c>
+      <c r="BD232">
+        <v>1.5</v>
+      </c>
+      <c r="BE232">
+        <v>9</v>
+      </c>
+      <c r="BF232">
+        <v>3.1</v>
+      </c>
+      <c r="BG232">
+        <v>1.25</v>
+      </c>
+      <c r="BH232">
+        <v>3.6</v>
+      </c>
+      <c r="BI232">
+        <v>1.35</v>
+      </c>
+      <c r="BJ232">
+        <v>2.84</v>
+      </c>
+      <c r="BK232">
+        <v>1.7</v>
+      </c>
+      <c r="BL232">
+        <v>2.05</v>
+      </c>
+      <c r="BM232">
+        <v>2.09</v>
+      </c>
+      <c r="BN232">
+        <v>1.69</v>
+      </c>
+      <c r="BO232">
+        <v>2.72</v>
+      </c>
+      <c r="BP232">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7327125</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45493.25</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>84</v>
+      </c>
+      <c r="H233" t="s">
+        <v>85</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="O233" t="s">
+        <v>238</v>
+      </c>
+      <c r="P233" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q233">
+        <v>2.4</v>
+      </c>
+      <c r="R233">
+        <v>2.2</v>
+      </c>
+      <c r="S233">
+        <v>4.75</v>
+      </c>
+      <c r="T233">
+        <v>1.4</v>
+      </c>
+      <c r="U233">
+        <v>2.75</v>
+      </c>
+      <c r="V233">
+        <v>2.75</v>
+      </c>
+      <c r="W233">
+        <v>1.4</v>
+      </c>
+      <c r="X233">
+        <v>8</v>
+      </c>
+      <c r="Y233">
+        <v>1.08</v>
+      </c>
+      <c r="Z233">
+        <v>1.73</v>
+      </c>
+      <c r="AA233">
+        <v>3.7</v>
+      </c>
+      <c r="AB233">
+        <v>4</v>
+      </c>
+      <c r="AC233">
+        <v>1.02</v>
+      </c>
+      <c r="AD233">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE233">
+        <v>1.27</v>
+      </c>
+      <c r="AF233">
+        <v>3.28</v>
+      </c>
+      <c r="AG233">
+        <v>1.91</v>
+      </c>
+      <c r="AH233">
+        <v>1.84</v>
+      </c>
+      <c r="AI233">
+        <v>1.8</v>
+      </c>
+      <c r="AJ233">
+        <v>1.95</v>
+      </c>
+      <c r="AK233">
+        <v>1.2</v>
+      </c>
+      <c r="AL233">
+        <v>1.29</v>
+      </c>
+      <c r="AM233">
+        <v>1.95</v>
+      </c>
+      <c r="AN233">
+        <v>2.27</v>
+      </c>
+      <c r="AO233">
+        <v>1.7</v>
+      </c>
+      <c r="AP233">
+        <v>2.33</v>
+      </c>
+      <c r="AQ233">
+        <v>1.55</v>
+      </c>
+      <c r="AR233">
+        <v>1.34</v>
+      </c>
+      <c r="AS233">
+        <v>1.24</v>
+      </c>
+      <c r="AT233">
+        <v>2.58</v>
+      </c>
+      <c r="AU233">
+        <v>5</v>
+      </c>
+      <c r="AV233">
+        <v>4</v>
+      </c>
+      <c r="AW233">
+        <v>6</v>
+      </c>
+      <c r="AX233">
+        <v>3</v>
+      </c>
+      <c r="AY233">
+        <v>11</v>
+      </c>
+      <c r="AZ233">
+        <v>7</v>
+      </c>
+      <c r="BA233">
+        <v>3</v>
+      </c>
+      <c r="BB233">
+        <v>5</v>
+      </c>
+      <c r="BC233">
+        <v>8</v>
+      </c>
+      <c r="BD233">
+        <v>1.57</v>
+      </c>
+      <c r="BE233">
+        <v>8.5</v>
+      </c>
+      <c r="BF233">
+        <v>2.75</v>
+      </c>
+      <c r="BG233">
+        <v>1.18</v>
+      </c>
+      <c r="BH233">
+        <v>4</v>
+      </c>
+      <c r="BI233">
+        <v>1.38</v>
+      </c>
+      <c r="BJ233">
+        <v>2.8</v>
+      </c>
+      <c r="BK233">
+        <v>1.77</v>
+      </c>
+      <c r="BL233">
+        <v>1.95</v>
+      </c>
+      <c r="BM233">
+        <v>2.11</v>
+      </c>
+      <c r="BN233">
+        <v>1.65</v>
+      </c>
+      <c r="BO233">
+        <v>2.75</v>
+      </c>
+      <c r="BP233">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7327126</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45493.25</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>75</v>
+      </c>
+      <c r="H234" t="s">
+        <v>80</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>2</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234">
+        <v>3</v>
+      </c>
+      <c r="O234" t="s">
+        <v>100</v>
+      </c>
+      <c r="P234" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q234">
+        <v>2.4</v>
+      </c>
+      <c r="R234">
+        <v>2.38</v>
+      </c>
+      <c r="S234">
+        <v>4.33</v>
+      </c>
+      <c r="T234">
+        <v>1.3</v>
+      </c>
+      <c r="U234">
+        <v>3.4</v>
+      </c>
+      <c r="V234">
+        <v>2.5</v>
+      </c>
+      <c r="W234">
+        <v>1.5</v>
+      </c>
+      <c r="X234">
+        <v>6</v>
+      </c>
+      <c r="Y234">
+        <v>1.13</v>
+      </c>
+      <c r="Z234">
+        <v>1.73</v>
+      </c>
+      <c r="AA234">
+        <v>3.9</v>
+      </c>
+      <c r="AB234">
+        <v>3.75</v>
+      </c>
+      <c r="AC234">
+        <v>1.04</v>
+      </c>
+      <c r="AD234">
+        <v>10</v>
+      </c>
+      <c r="AE234">
+        <v>1.22</v>
+      </c>
+      <c r="AF234">
+        <v>4.2</v>
+      </c>
+      <c r="AG234">
+        <v>1.67</v>
+      </c>
+      <c r="AH234">
+        <v>2.12</v>
+      </c>
+      <c r="AI234">
+        <v>1.62</v>
+      </c>
+      <c r="AJ234">
+        <v>2.2</v>
+      </c>
+      <c r="AK234">
+        <v>1.22</v>
+      </c>
+      <c r="AL234">
+        <v>1.25</v>
+      </c>
+      <c r="AM234">
+        <v>2</v>
+      </c>
+      <c r="AN234">
+        <v>1.82</v>
+      </c>
+      <c r="AO234">
+        <v>1.17</v>
+      </c>
+      <c r="AP234">
+        <v>1.67</v>
+      </c>
+      <c r="AQ234">
+        <v>1.31</v>
+      </c>
+      <c r="AR234">
+        <v>1.38</v>
+      </c>
+      <c r="AS234">
+        <v>1.59</v>
+      </c>
+      <c r="AT234">
+        <v>2.97</v>
+      </c>
+      <c r="AU234">
+        <v>3</v>
+      </c>
+      <c r="AV234">
+        <v>4</v>
+      </c>
+      <c r="AW234">
+        <v>3</v>
+      </c>
+      <c r="AX234">
+        <v>3</v>
+      </c>
+      <c r="AY234">
+        <v>6</v>
+      </c>
+      <c r="AZ234">
+        <v>7</v>
+      </c>
+      <c r="BA234">
+        <v>6</v>
+      </c>
+      <c r="BB234">
+        <v>5</v>
+      </c>
+      <c r="BC234">
+        <v>11</v>
+      </c>
+      <c r="BD234">
+        <v>1.5</v>
+      </c>
+      <c r="BE234">
+        <v>8.5</v>
+      </c>
+      <c r="BF234">
+        <v>3</v>
+      </c>
+      <c r="BG234">
+        <v>1.18</v>
+      </c>
+      <c r="BH234">
+        <v>4.33</v>
+      </c>
+      <c r="BI234">
+        <v>1.28</v>
+      </c>
+      <c r="BJ234">
+        <v>3.2</v>
+      </c>
+      <c r="BK234">
+        <v>1.77</v>
+      </c>
+      <c r="BL234">
+        <v>1.95</v>
+      </c>
+      <c r="BM234">
+        <v>1.88</v>
+      </c>
+      <c r="BN234">
+        <v>1.86</v>
+      </c>
+      <c r="BO234">
+        <v>2.39</v>
+      </c>
+      <c r="BP234">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7327133</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45493.29166666666</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>73</v>
+      </c>
+      <c r="H235" t="s">
+        <v>79</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="O235" t="s">
+        <v>91</v>
+      </c>
+      <c r="P235" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q235">
+        <v>2.91</v>
+      </c>
+      <c r="R235">
+        <v>1.92</v>
+      </c>
+      <c r="S235">
+        <v>4.4</v>
+      </c>
+      <c r="T235">
+        <v>1.56</v>
+      </c>
+      <c r="U235">
+        <v>2.42</v>
+      </c>
+      <c r="V235">
+        <v>3.64</v>
+      </c>
+      <c r="W235">
+        <v>1.26</v>
+      </c>
+      <c r="X235">
+        <v>10.25</v>
+      </c>
+      <c r="Y235">
+        <v>1.03</v>
+      </c>
+      <c r="Z235">
+        <v>2.05</v>
+      </c>
+      <c r="AA235">
+        <v>3.1</v>
+      </c>
+      <c r="AB235">
+        <v>3.4</v>
+      </c>
+      <c r="AC235">
+        <v>1.07</v>
+      </c>
+      <c r="AD235">
+        <v>6.35</v>
+      </c>
+      <c r="AE235">
+        <v>1.49</v>
+      </c>
+      <c r="AF235">
+        <v>2.5</v>
+      </c>
+      <c r="AG235">
+        <v>2.4</v>
+      </c>
+      <c r="AH235">
+        <v>1.5</v>
+      </c>
+      <c r="AI235">
+        <v>2.14</v>
+      </c>
+      <c r="AJ235">
+        <v>1.66</v>
+      </c>
+      <c r="AK235">
+        <v>1.3</v>
+      </c>
+      <c r="AL235">
+        <v>1.36</v>
+      </c>
+      <c r="AM235">
+        <v>1.65</v>
+      </c>
+      <c r="AN235">
+        <v>1.42</v>
+      </c>
+      <c r="AO235">
+        <v>1.36</v>
+      </c>
+      <c r="AP235">
+        <v>1.31</v>
+      </c>
+      <c r="AQ235">
+        <v>1.5</v>
+      </c>
+      <c r="AR235">
+        <v>1.35</v>
+      </c>
+      <c r="AS235">
+        <v>1.23</v>
+      </c>
+      <c r="AT235">
+        <v>2.58</v>
+      </c>
+      <c r="AU235">
+        <v>2</v>
+      </c>
+      <c r="AV235">
+        <v>6</v>
+      </c>
+      <c r="AW235">
+        <v>7</v>
+      </c>
+      <c r="AX235">
+        <v>10</v>
+      </c>
+      <c r="AY235">
+        <v>9</v>
+      </c>
+      <c r="AZ235">
+        <v>16</v>
+      </c>
+      <c r="BA235">
+        <v>0</v>
+      </c>
+      <c r="BB235">
+        <v>6</v>
+      </c>
+      <c r="BC235">
+        <v>6</v>
+      </c>
+      <c r="BD235">
+        <v>1.73</v>
+      </c>
+      <c r="BE235">
+        <v>8</v>
+      </c>
+      <c r="BF235">
+        <v>2.5</v>
+      </c>
+      <c r="BG235">
+        <v>1.3</v>
+      </c>
+      <c r="BH235">
+        <v>3.2</v>
+      </c>
+      <c r="BI235">
+        <v>1.53</v>
+      </c>
+      <c r="BJ235">
+        <v>2.38</v>
+      </c>
+      <c r="BK235">
+        <v>1.95</v>
+      </c>
+      <c r="BL235">
+        <v>1.77</v>
+      </c>
+      <c r="BM235">
+        <v>2.3</v>
+      </c>
+      <c r="BN235">
+        <v>1.55</v>
+      </c>
+      <c r="BO235">
+        <v>3</v>
+      </c>
+      <c r="BP235">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7327132</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45493.29166666666</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>82</v>
+      </c>
+      <c r="H236" t="s">
+        <v>71</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>3</v>
+      </c>
+      <c r="M236">
+        <v>3</v>
+      </c>
+      <c r="N236">
+        <v>6</v>
+      </c>
+      <c r="O236" t="s">
+        <v>239</v>
+      </c>
+      <c r="P236" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q236">
+        <v>2.25</v>
+      </c>
+      <c r="R236">
+        <v>2.15</v>
+      </c>
+      <c r="S236">
+        <v>5</v>
+      </c>
+      <c r="T236">
+        <v>1.43</v>
+      </c>
+      <c r="U236">
+        <v>2.65</v>
+      </c>
+      <c r="V236">
+        <v>2.95</v>
+      </c>
+      <c r="W236">
+        <v>1.35</v>
+      </c>
+      <c r="X236">
+        <v>7.9</v>
+      </c>
+      <c r="Y236">
+        <v>1.05</v>
+      </c>
+      <c r="Z236">
+        <v>1.57</v>
+      </c>
+      <c r="AA236">
+        <v>3.8</v>
+      </c>
+      <c r="AB236">
+        <v>5</v>
+      </c>
+      <c r="AC236">
+        <v>1.03</v>
+      </c>
+      <c r="AD236">
+        <v>8.1</v>
+      </c>
+      <c r="AE236">
+        <v>1.36</v>
+      </c>
+      <c r="AF236">
+        <v>3</v>
+      </c>
+      <c r="AG236">
+        <v>2.08</v>
+      </c>
+      <c r="AH236">
+        <v>1.7</v>
+      </c>
+      <c r="AI236">
+        <v>2.04</v>
+      </c>
+      <c r="AJ236">
+        <v>1.73</v>
+      </c>
+      <c r="AK236">
+        <v>1.12</v>
+      </c>
+      <c r="AL236">
+        <v>1.2</v>
+      </c>
+      <c r="AM236">
+        <v>2.15</v>
+      </c>
+      <c r="AN236">
+        <v>1.55</v>
+      </c>
+      <c r="AO236">
+        <v>1.36</v>
+      </c>
+      <c r="AP236">
+        <v>1.5</v>
+      </c>
+      <c r="AQ236">
+        <v>1.33</v>
+      </c>
+      <c r="AR236">
+        <v>1.71</v>
+      </c>
+      <c r="AS236">
+        <v>1.37</v>
+      </c>
+      <c r="AT236">
+        <v>3.08</v>
+      </c>
+      <c r="AU236">
+        <v>4</v>
+      </c>
+      <c r="AV236">
+        <v>6</v>
+      </c>
+      <c r="AW236">
+        <v>10</v>
+      </c>
+      <c r="AX236">
+        <v>4</v>
+      </c>
+      <c r="AY236">
+        <v>14</v>
+      </c>
+      <c r="AZ236">
+        <v>10</v>
+      </c>
+      <c r="BA236">
+        <v>7</v>
+      </c>
+      <c r="BB236">
+        <v>3</v>
+      </c>
+      <c r="BC236">
+        <v>10</v>
+      </c>
+      <c r="BD236">
+        <v>1.5</v>
+      </c>
+      <c r="BE236">
+        <v>8.5</v>
+      </c>
+      <c r="BF236">
+        <v>3</v>
+      </c>
+      <c r="BG236">
+        <v>1.18</v>
+      </c>
+      <c r="BH236">
+        <v>4.33</v>
+      </c>
+      <c r="BI236">
+        <v>1.29</v>
+      </c>
+      <c r="BJ236">
+        <v>3.14</v>
+      </c>
+      <c r="BK236">
+        <v>1.77</v>
+      </c>
+      <c r="BL236">
+        <v>1.95</v>
+      </c>
+      <c r="BM236">
+        <v>1.9</v>
+      </c>
+      <c r="BN236">
+        <v>1.9</v>
+      </c>
+      <c r="BO236">
+        <v>2.35</v>
+      </c>
+      <c r="BP236">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7327131</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45493.29166666666</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>77</v>
+      </c>
+      <c r="H237" t="s">
+        <v>88</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>3</v>
+      </c>
+      <c r="O237" t="s">
+        <v>240</v>
+      </c>
+      <c r="P237" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q237">
+        <v>2.75</v>
+      </c>
+      <c r="R237">
+        <v>2.1</v>
+      </c>
+      <c r="S237">
+        <v>4</v>
+      </c>
+      <c r="T237">
+        <v>1.41</v>
+      </c>
+      <c r="U237">
+        <v>2.78</v>
+      </c>
+      <c r="V237">
+        <v>2.91</v>
+      </c>
+      <c r="W237">
+        <v>1.38</v>
+      </c>
+      <c r="X237">
+        <v>7.5</v>
+      </c>
+      <c r="Y237">
+        <v>1.07</v>
+      </c>
+      <c r="Z237">
+        <v>2</v>
+      </c>
+      <c r="AA237">
+        <v>3.4</v>
+      </c>
+      <c r="AB237">
+        <v>3.25</v>
+      </c>
+      <c r="AC237">
+        <v>1.02</v>
+      </c>
+      <c r="AD237">
+        <v>8.6</v>
+      </c>
+      <c r="AE237">
+        <v>1.3</v>
+      </c>
+      <c r="AF237">
+        <v>3.1</v>
+      </c>
+      <c r="AG237">
+        <v>2</v>
+      </c>
+      <c r="AH237">
+        <v>1.76</v>
+      </c>
+      <c r="AI237">
+        <v>1.8</v>
+      </c>
+      <c r="AJ237">
+        <v>1.95</v>
+      </c>
+      <c r="AK237">
+        <v>1.28</v>
+      </c>
+      <c r="AL237">
+        <v>1.3</v>
+      </c>
+      <c r="AM237">
+        <v>1.65</v>
+      </c>
+      <c r="AN237">
+        <v>2</v>
+      </c>
+      <c r="AO237">
+        <v>1.25</v>
+      </c>
+      <c r="AP237">
+        <v>1.83</v>
+      </c>
+      <c r="AQ237">
+        <v>1.38</v>
+      </c>
+      <c r="AR237">
+        <v>1.44</v>
+      </c>
+      <c r="AS237">
+        <v>1.34</v>
+      </c>
+      <c r="AT237">
+        <v>2.78</v>
+      </c>
+      <c r="AU237">
+        <v>3</v>
+      </c>
+      <c r="AV237">
+        <v>7</v>
+      </c>
+      <c r="AW237">
+        <v>13</v>
+      </c>
+      <c r="AX237">
+        <v>14</v>
+      </c>
+      <c r="AY237">
+        <v>16</v>
+      </c>
+      <c r="AZ237">
+        <v>21</v>
+      </c>
+      <c r="BA237">
+        <v>8</v>
+      </c>
+      <c r="BB237">
+        <v>5</v>
+      </c>
+      <c r="BC237">
+        <v>13</v>
+      </c>
+      <c r="BD237">
+        <v>1.8</v>
+      </c>
+      <c r="BE237">
+        <v>8</v>
+      </c>
+      <c r="BF237">
+        <v>2.3</v>
+      </c>
+      <c r="BG237">
+        <v>1.25</v>
+      </c>
+      <c r="BH237">
+        <v>3.6</v>
+      </c>
+      <c r="BI237">
+        <v>1.34</v>
+      </c>
+      <c r="BJ237">
+        <v>2.88</v>
+      </c>
+      <c r="BK237">
+        <v>1.62</v>
+      </c>
+      <c r="BL237">
+        <v>2.16</v>
+      </c>
+      <c r="BM237">
+        <v>2.05</v>
+      </c>
+      <c r="BN237">
+        <v>1.7</v>
+      </c>
+      <c r="BO237">
+        <v>2.65</v>
+      </c>
+      <c r="BP237">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7327129</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45493.29166666666</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>72</v>
+      </c>
+      <c r="H238" t="s">
+        <v>83</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>3</v>
+      </c>
+      <c r="O238" t="s">
+        <v>158</v>
+      </c>
+      <c r="P238" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q238">
+        <v>3</v>
+      </c>
+      <c r="R238">
+        <v>2.2</v>
+      </c>
+      <c r="S238">
+        <v>3.6</v>
+      </c>
+      <c r="T238">
+        <v>1.39</v>
+      </c>
+      <c r="U238">
+        <v>2.86</v>
+      </c>
+      <c r="V238">
+        <v>2.82</v>
+      </c>
+      <c r="W238">
+        <v>1.4</v>
+      </c>
+      <c r="X238">
+        <v>7.1</v>
+      </c>
+      <c r="Y238">
+        <v>1.08</v>
+      </c>
+      <c r="Z238">
+        <v>2.25</v>
+      </c>
+      <c r="AA238">
+        <v>3.3</v>
+      </c>
+      <c r="AB238">
+        <v>2.8</v>
+      </c>
+      <c r="AC238">
+        <v>1.02</v>
+      </c>
+      <c r="AD238">
+        <v>9.1</v>
+      </c>
+      <c r="AE238">
+        <v>1.27</v>
+      </c>
+      <c r="AF238">
+        <v>3.28</v>
+      </c>
+      <c r="AG238">
+        <v>1.82</v>
+      </c>
+      <c r="AH238">
+        <v>1.94</v>
+      </c>
+      <c r="AI238">
+        <v>1.7</v>
+      </c>
+      <c r="AJ238">
+        <v>2.05</v>
+      </c>
+      <c r="AK238">
+        <v>1.35</v>
+      </c>
+      <c r="AL238">
+        <v>1.32</v>
+      </c>
+      <c r="AM238">
+        <v>1.55</v>
+      </c>
+      <c r="AN238">
+        <v>1.36</v>
+      </c>
+      <c r="AO238">
+        <v>1.33</v>
+      </c>
+      <c r="AP238">
+        <v>1.25</v>
+      </c>
+      <c r="AQ238">
+        <v>1.46</v>
+      </c>
+      <c r="AR238">
+        <v>1.3</v>
+      </c>
+      <c r="AS238">
+        <v>1.32</v>
+      </c>
+      <c r="AT238">
+        <v>2.62</v>
+      </c>
+      <c r="AU238">
+        <v>2</v>
+      </c>
+      <c r="AV238">
+        <v>5</v>
+      </c>
+      <c r="AW238">
+        <v>10</v>
+      </c>
+      <c r="AX238">
+        <v>9</v>
+      </c>
+      <c r="AY238">
+        <v>12</v>
+      </c>
+      <c r="AZ238">
+        <v>14</v>
+      </c>
+      <c r="BA238">
+        <v>1</v>
+      </c>
+      <c r="BB238">
+        <v>3</v>
+      </c>
+      <c r="BC238">
+        <v>4</v>
+      </c>
+      <c r="BD238">
+        <v>1.95</v>
+      </c>
+      <c r="BE238">
+        <v>8.5</v>
+      </c>
+      <c r="BF238">
+        <v>2.1</v>
+      </c>
+      <c r="BG238">
+        <v>1.17</v>
+      </c>
+      <c r="BH238">
+        <v>4.5</v>
+      </c>
+      <c r="BI238">
+        <v>1.26</v>
+      </c>
+      <c r="BJ238">
+        <v>3.34</v>
+      </c>
+      <c r="BK238">
+        <v>1.53</v>
+      </c>
+      <c r="BL238">
+        <v>2.44</v>
+      </c>
+      <c r="BM238">
+        <v>1.95</v>
+      </c>
+      <c r="BN238">
+        <v>1.85</v>
+      </c>
+      <c r="BO238">
+        <v>2.28</v>
+      </c>
+      <c r="BP238">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7327128</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45493.29166666666</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>78</v>
+      </c>
+      <c r="H239" t="s">
+        <v>81</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="K239">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>3</v>
+      </c>
+      <c r="N239">
+        <v>5</v>
+      </c>
+      <c r="O239" t="s">
+        <v>241</v>
+      </c>
+      <c r="P239" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q239">
+        <v>3</v>
+      </c>
+      <c r="R239">
+        <v>2.25</v>
+      </c>
+      <c r="S239">
+        <v>3.4</v>
+      </c>
+      <c r="T239">
+        <v>1.33</v>
+      </c>
+      <c r="U239">
+        <v>3.16</v>
+      </c>
+      <c r="V239">
+        <v>2.55</v>
+      </c>
+      <c r="W239">
+        <v>1.48</v>
+      </c>
+      <c r="X239">
+        <v>6.1</v>
+      </c>
+      <c r="Y239">
+        <v>1.11</v>
+      </c>
+      <c r="Z239">
+        <v>2.2</v>
+      </c>
+      <c r="AA239">
+        <v>3.6</v>
+      </c>
+      <c r="AB239">
+        <v>2.75</v>
+      </c>
+      <c r="AC239">
+        <v>1.05</v>
+      </c>
+      <c r="AD239">
+        <v>11</v>
+      </c>
+      <c r="AE239">
+        <v>1.21</v>
+      </c>
+      <c r="AF239">
+        <v>3.75</v>
+      </c>
+      <c r="AG239">
+        <v>1.71</v>
+      </c>
+      <c r="AH239">
+        <v>2.07</v>
+      </c>
+      <c r="AI239">
+        <v>1.62</v>
+      </c>
+      <c r="AJ239">
+        <v>2.2</v>
+      </c>
+      <c r="AK239">
+        <v>1.38</v>
+      </c>
+      <c r="AL239">
+        <v>1.28</v>
+      </c>
+      <c r="AM239">
+        <v>1.52</v>
+      </c>
+      <c r="AN239">
+        <v>1.36</v>
+      </c>
+      <c r="AO239">
+        <v>0.73</v>
+      </c>
+      <c r="AP239">
+        <v>1.25</v>
+      </c>
+      <c r="AQ239">
+        <v>0.92</v>
+      </c>
+      <c r="AR239">
+        <v>1.46</v>
+      </c>
+      <c r="AS239">
+        <v>1.56</v>
+      </c>
+      <c r="AT239">
+        <v>3.02</v>
+      </c>
+      <c r="AU239">
+        <v>8</v>
+      </c>
+      <c r="AV239">
+        <v>8</v>
+      </c>
+      <c r="AW239">
+        <v>11</v>
+      </c>
+      <c r="AX239">
+        <v>4</v>
+      </c>
+      <c r="AY239">
+        <v>19</v>
+      </c>
+      <c r="AZ239">
+        <v>12</v>
+      </c>
+      <c r="BA239">
+        <v>5</v>
+      </c>
+      <c r="BB239">
+        <v>9</v>
+      </c>
+      <c r="BC239">
+        <v>14</v>
+      </c>
+      <c r="BD239">
+        <v>1.73</v>
+      </c>
+      <c r="BE239">
+        <v>8</v>
+      </c>
+      <c r="BF239">
+        <v>2.5</v>
+      </c>
+      <c r="BG239">
+        <v>1.2</v>
+      </c>
+      <c r="BH239">
+        <v>4</v>
+      </c>
+      <c r="BI239">
+        <v>1.31</v>
+      </c>
+      <c r="BJ239">
+        <v>3.04</v>
+      </c>
+      <c r="BK239">
+        <v>1.7</v>
+      </c>
+      <c r="BL239">
+        <v>2.05</v>
+      </c>
+      <c r="BM239">
+        <v>1.97</v>
+      </c>
+      <c r="BN239">
+        <v>1.83</v>
+      </c>
+      <c r="BO239">
+        <v>2.46</v>
+      </c>
+      <c r="BP239">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7327130</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45493.29166666666</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240" t="s">
+        <v>86</v>
+      </c>
+      <c r="H240" t="s">
+        <v>76</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
+        <v>91</v>
+      </c>
+      <c r="P240" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q240">
+        <v>2.63</v>
+      </c>
+      <c r="R240">
+        <v>2.1</v>
+      </c>
+      <c r="S240">
+        <v>4.33</v>
+      </c>
+      <c r="T240">
+        <v>1.41</v>
+      </c>
+      <c r="U240">
+        <v>2.78</v>
+      </c>
+      <c r="V240">
+        <v>2.91</v>
+      </c>
+      <c r="W240">
+        <v>1.38</v>
+      </c>
+      <c r="X240">
+        <v>7.5</v>
+      </c>
+      <c r="Y240">
+        <v>1.07</v>
+      </c>
+      <c r="Z240">
+        <v>1.91</v>
+      </c>
+      <c r="AA240">
+        <v>3.4</v>
+      </c>
+      <c r="AB240">
+        <v>3.6</v>
+      </c>
+      <c r="AC240">
+        <v>1.02</v>
+      </c>
+      <c r="AD240">
+        <v>8.6</v>
+      </c>
+      <c r="AE240">
+        <v>1.3</v>
+      </c>
+      <c r="AF240">
+        <v>3.1</v>
+      </c>
+      <c r="AG240">
+        <v>2.02</v>
+      </c>
+      <c r="AH240">
+        <v>1.75</v>
+      </c>
+      <c r="AI240">
+        <v>1.8</v>
+      </c>
+      <c r="AJ240">
+        <v>1.95</v>
+      </c>
+      <c r="AK240">
+        <v>1.24</v>
+      </c>
+      <c r="AL240">
+        <v>1.3</v>
+      </c>
+      <c r="AM240">
+        <v>1.72</v>
+      </c>
+      <c r="AN240">
+        <v>2.27</v>
+      </c>
+      <c r="AO240">
+        <v>0.92</v>
+      </c>
+      <c r="AP240">
+        <v>2.08</v>
+      </c>
+      <c r="AQ240">
+        <v>1.08</v>
+      </c>
+      <c r="AR240">
+        <v>1.54</v>
+      </c>
+      <c r="AS240">
+        <v>1.44</v>
+      </c>
+      <c r="AT240">
+        <v>2.98</v>
+      </c>
+      <c r="AU240">
+        <v>5</v>
+      </c>
+      <c r="AV240">
+        <v>7</v>
+      </c>
+      <c r="AW240">
+        <v>5</v>
+      </c>
+      <c r="AX240">
+        <v>10</v>
+      </c>
+      <c r="AY240">
+        <v>10</v>
+      </c>
+      <c r="AZ240">
+        <v>17</v>
+      </c>
+      <c r="BA240">
+        <v>6</v>
+      </c>
+      <c r="BB240">
+        <v>4</v>
+      </c>
+      <c r="BC240">
+        <v>10</v>
+      </c>
+      <c r="BD240">
+        <v>1.83</v>
+      </c>
+      <c r="BE240">
+        <v>8</v>
+      </c>
+      <c r="BF240">
+        <v>2.25</v>
+      </c>
+      <c r="BG240">
+        <v>1.22</v>
+      </c>
+      <c r="BH240">
+        <v>3.8</v>
+      </c>
+      <c r="BI240">
+        <v>1.32</v>
+      </c>
+      <c r="BJ240">
+        <v>2.98</v>
+      </c>
+      <c r="BK240">
+        <v>1.58</v>
+      </c>
+      <c r="BL240">
+        <v>2.23</v>
+      </c>
+      <c r="BM240">
+        <v>1.95</v>
+      </c>
+      <c r="BN240">
+        <v>1.77</v>
+      </c>
+      <c r="BO240">
+        <v>2.55</v>
+      </c>
+      <c r="BP240">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,9 +727,6 @@
     <t>['45+3', '52', '71', '90+6']</t>
   </si>
   <si>
-    <t>['76', '81', '90']</t>
-  </si>
-  <si>
     <t>['30', '47']</t>
   </si>
   <si>
@@ -740,6 +737,12 @@
   </si>
   <si>
     <t>['12', '67']</t>
+  </si>
+  <si>
+    <t>['76', '81', '90']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
   <si>
     <t>['19', '47', '62']</t>
@@ -1036,22 +1039,25 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['37', '45+2', '51', '57']</t>
+    <t>['33', '43']</t>
   </si>
   <si>
-    <t>['33', '43']</t>
+    <t>['22', '54', '90+10']</t>
   </si>
   <si>
     <t>['38']</t>
   </si>
   <si>
-    <t>['22', '54', '90+10']</t>
+    <t>['4', '10', '79']</t>
+  </si>
+  <si>
+    <t>['37', '45+2', '51', '57']</t>
   </si>
   <si>
     <t>['79', '81']</t>
   </si>
   <si>
-    <t>['4', '10', '79']</t>
+    <t>['21', '71', '87', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP240"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1878,7 +1884,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2084,7 +2090,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2496,7 +2502,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2574,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.38</v>
@@ -2908,7 +2914,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3114,7 +3120,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3526,7 +3532,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3732,7 +3738,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3938,7 +3944,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4144,7 +4150,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4556,7 +4562,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4840,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0.5</v>
@@ -4968,7 +4974,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5174,7 +5180,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5255,7 +5261,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ19">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5586,7 +5592,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5792,7 +5798,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6822,7 +6828,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7646,7 +7652,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7852,7 +7858,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8139,7 +8145,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8264,7 +8270,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8342,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8676,7 +8682,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8882,7 +8888,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9088,7 +9094,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9500,7 +9506,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9706,7 +9712,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9912,7 +9918,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10736,7 +10742,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11844,7 +11850,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -12384,7 +12390,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12796,7 +12802,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12877,7 +12883,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -13414,7 +13420,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13620,7 +13626,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14238,7 +14244,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14444,7 +14450,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14650,7 +14656,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15062,7 +15068,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16298,7 +16304,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16504,7 +16510,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16997,7 +17003,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ76">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17328,7 +17334,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17740,7 +17746,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17946,7 +17952,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18233,7 +18239,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ82">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18358,7 +18364,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18564,7 +18570,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18642,7 +18648,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>1.33</v>
@@ -18976,7 +18982,7 @@
         <v>149</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3.1</v>
@@ -19594,7 +19600,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19800,7 +19806,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20006,7 +20012,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20624,7 +20630,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20830,7 +20836,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21242,7 +21248,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21448,7 +21454,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21860,7 +21866,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22272,7 +22278,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22353,7 +22359,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ102">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22684,7 +22690,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23302,7 +23308,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23380,7 +23386,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
         <v>1.5</v>
@@ -23714,7 +23720,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23920,7 +23926,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24126,7 +24132,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24332,7 +24338,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24950,7 +24956,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25362,7 +25368,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25568,7 +25574,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25980,7 +25986,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26186,7 +26192,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26392,7 +26398,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26598,7 +26604,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -27216,7 +27222,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27422,7 +27428,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27628,7 +27634,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27834,7 +27840,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28040,7 +28046,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29276,7 +29282,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29482,7 +29488,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29560,7 +29566,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
         <v>0.92</v>
@@ -30100,7 +30106,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30306,7 +30312,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30384,7 +30390,7 @@
         <v>2</v>
       </c>
       <c r="AP141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>1.33</v>
@@ -30718,7 +30724,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30924,7 +30930,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31005,7 +31011,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ144">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -31748,7 +31754,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32160,7 +32166,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32366,7 +32372,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32572,7 +32578,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32778,7 +32784,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33271,7 +33277,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ155">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR155">
         <v>1.58</v>
@@ -33396,7 +33402,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34220,7 +34226,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34298,7 +34304,7 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ160">
         <v>1.55</v>
@@ -34632,7 +34638,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34838,7 +34844,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35044,7 +35050,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35662,7 +35668,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36074,7 +36080,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36280,7 +36286,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36486,7 +36492,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37516,7 +37522,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -38340,7 +38346,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38421,7 +38427,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ180">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -38958,7 +38964,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39164,7 +39170,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39370,7 +39376,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39657,7 +39663,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ186">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR186">
         <v>1.43</v>
@@ -39782,7 +39788,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40066,7 +40072,7 @@
         <v>1.11</v>
       </c>
       <c r="AP188">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
         <v>1.46</v>
@@ -40194,7 +40200,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40400,7 +40406,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40606,7 +40612,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -41842,7 +41848,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42460,7 +42466,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42953,7 +42959,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ202">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR202">
         <v>1.68</v>
@@ -43078,7 +43084,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43284,7 +43290,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43490,7 +43496,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44108,7 +44114,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44186,7 +44192,7 @@
         <v>1.1</v>
       </c>
       <c r="AP208">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ208">
         <v>1.17</v>
@@ -44314,7 +44320,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44932,7 +44938,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45550,7 +45556,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45756,7 +45762,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45962,7 +45968,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46168,7 +46174,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46580,7 +46586,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46786,7 +46792,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -46992,7 +46998,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -48640,7 +48646,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48718,7 +48724,7 @@
         <v>1.45</v>
       </c>
       <c r="AP230">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ230">
         <v>1.58</v>
@@ -48846,7 +48852,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49010,7 +49016,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7327127</v>
+        <v>7327125</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -49019,94 +49025,94 @@
         <v>69</v>
       </c>
       <c r="E232" s="2">
-        <v>45492.875</v>
+        <v>45493.25</v>
       </c>
       <c r="F232">
         <v>24</v>
       </c>
       <c r="G232" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H232" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K232">
         <v>2</v>
       </c>
       <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
         <v>3</v>
-      </c>
-      <c r="M232">
-        <v>4</v>
-      </c>
-      <c r="N232">
-        <v>7</v>
       </c>
       <c r="O232" t="s">
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="Q232">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="R232">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="S232">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="T232">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U232">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V232">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="W232">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="X232">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y232">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z232">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AA232">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AB232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC232">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD232">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE232">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AF232">
-        <v>4.05</v>
+        <v>3.28</v>
       </c>
       <c r="AG232">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AH232">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="AI232">
         <v>1.8</v>
@@ -49115,100 +49121,100 @@
         <v>1.95</v>
       </c>
       <c r="AK232">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AL232">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AM232">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="AN232">
-        <v>1.75</v>
+        <v>2.27</v>
       </c>
       <c r="AO232">
-        <v>0.27</v>
+        <v>1.7</v>
       </c>
       <c r="AP232">
-        <v>1.62</v>
+        <v>2.33</v>
       </c>
       <c r="AQ232">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="AR232">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="AS232">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AT232">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="AU232">
+        <v>5</v>
+      </c>
+      <c r="AV232">
+        <v>4</v>
+      </c>
+      <c r="AW232">
         <v>6</v>
       </c>
-      <c r="AV232">
-        <v>0</v>
-      </c>
-      <c r="AW232">
+      <c r="AX232">
         <v>3</v>
       </c>
-      <c r="AX232">
-        <v>4</v>
-      </c>
       <c r="AY232">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ232">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA232">
         <v>3</v>
       </c>
       <c r="BB232">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC232">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD232">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="BE232">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF232">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BG232">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BH232">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="BI232">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="BJ232">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="BK232">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BL232">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BM232">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="BN232">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="BO232">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="BP232">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="233" spans="1:68">
@@ -49216,7 +49222,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7327125</v>
+        <v>7327126</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49231,172 +49237,172 @@
         <v>24</v>
       </c>
       <c r="G233" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H233" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K233">
         <v>2</v>
       </c>
       <c r="L233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N233">
         <v>3</v>
       </c>
       <c r="O233" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
       </c>
       <c r="R233">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S233">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="T233">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U233">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W233">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X233">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y233">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z233">
         <v>1.73</v>
       </c>
       <c r="AA233">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AB233">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AC233">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD233">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AE233">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AF233">
-        <v>3.28</v>
+        <v>4.2</v>
       </c>
       <c r="AG233">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AH233">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="AI233">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ233">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AK233">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AL233">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AM233">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AN233">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
       <c r="AO233">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="AP233">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AQ233">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="AR233">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AS233">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="AT233">
-        <v>2.58</v>
+        <v>2.97</v>
       </c>
       <c r="AU233">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV233">
         <v>4</v>
       </c>
       <c r="AW233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX233">
         <v>3</v>
       </c>
       <c r="AY233">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ233">
         <v>7</v>
       </c>
       <c r="BA233">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB233">
         <v>5</v>
       </c>
       <c r="BC233">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD233">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="BE233">
         <v>8.5</v>
       </c>
       <c r="BF233">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BG233">
         <v>1.18</v>
       </c>
       <c r="BH233">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BI233">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="BJ233">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BK233">
         <v>1.77</v>
@@ -49405,16 +49411,16 @@
         <v>1.95</v>
       </c>
       <c r="BM233">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="BN233">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="BO233">
-        <v>2.75</v>
+        <v>2.39</v>
       </c>
       <c r="BP233">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="234" spans="1:68">
@@ -49422,7 +49428,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>7327126</v>
+        <v>7327132</v>
       </c>
       <c r="C234" t="s">
         <v>68</v>
@@ -49431,157 +49437,157 @@
         <v>69</v>
       </c>
       <c r="E234" s="2">
-        <v>45493.25</v>
+        <v>45493.29166666666</v>
       </c>
       <c r="F234">
         <v>24</v>
       </c>
       <c r="G234" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H234" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K234">
         <v>2</v>
       </c>
       <c r="L234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N234">
+        <v>6</v>
+      </c>
+      <c r="O234" t="s">
+        <v>238</v>
+      </c>
+      <c r="P234" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q234">
+        <v>2.25</v>
+      </c>
+      <c r="R234">
+        <v>2.15</v>
+      </c>
+      <c r="S234">
+        <v>5</v>
+      </c>
+      <c r="T234">
+        <v>1.43</v>
+      </c>
+      <c r="U234">
+        <v>2.65</v>
+      </c>
+      <c r="V234">
+        <v>2.95</v>
+      </c>
+      <c r="W234">
+        <v>1.35</v>
+      </c>
+      <c r="X234">
+        <v>7.9</v>
+      </c>
+      <c r="Y234">
+        <v>1.05</v>
+      </c>
+      <c r="Z234">
+        <v>1.57</v>
+      </c>
+      <c r="AA234">
+        <v>3.8</v>
+      </c>
+      <c r="AB234">
+        <v>5</v>
+      </c>
+      <c r="AC234">
+        <v>1.03</v>
+      </c>
+      <c r="AD234">
+        <v>8.1</v>
+      </c>
+      <c r="AE234">
+        <v>1.36</v>
+      </c>
+      <c r="AF234">
         <v>3</v>
       </c>
-      <c r="O234" t="s">
-        <v>100</v>
-      </c>
-      <c r="P234" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q234">
-        <v>2.4</v>
-      </c>
-      <c r="R234">
-        <v>2.38</v>
-      </c>
-      <c r="S234">
-        <v>4.33</v>
-      </c>
-      <c r="T234">
-        <v>1.3</v>
-      </c>
-      <c r="U234">
-        <v>3.4</v>
-      </c>
-      <c r="V234">
-        <v>2.5</v>
-      </c>
-      <c r="W234">
+      <c r="AG234">
+        <v>2.08</v>
+      </c>
+      <c r="AH234">
+        <v>1.7</v>
+      </c>
+      <c r="AI234">
+        <v>2.04</v>
+      </c>
+      <c r="AJ234">
+        <v>1.73</v>
+      </c>
+      <c r="AK234">
+        <v>1.12</v>
+      </c>
+      <c r="AL234">
+        <v>1.2</v>
+      </c>
+      <c r="AM234">
+        <v>2.15</v>
+      </c>
+      <c r="AN234">
+        <v>1.55</v>
+      </c>
+      <c r="AO234">
+        <v>1.36</v>
+      </c>
+      <c r="AP234">
         <v>1.5</v>
       </c>
-      <c r="X234">
-        <v>6</v>
-      </c>
-      <c r="Y234">
-        <v>1.13</v>
-      </c>
-      <c r="Z234">
-        <v>1.73</v>
-      </c>
-      <c r="AA234">
-        <v>3.9</v>
-      </c>
-      <c r="AB234">
-        <v>3.75</v>
-      </c>
-      <c r="AC234">
-        <v>1.04</v>
-      </c>
-      <c r="AD234">
-        <v>10</v>
-      </c>
-      <c r="AE234">
-        <v>1.22</v>
-      </c>
-      <c r="AF234">
-        <v>4.2</v>
-      </c>
-      <c r="AG234">
-        <v>1.67</v>
-      </c>
-      <c r="AH234">
-        <v>2.12</v>
-      </c>
-      <c r="AI234">
-        <v>1.62</v>
-      </c>
-      <c r="AJ234">
-        <v>2.2</v>
-      </c>
-      <c r="AK234">
-        <v>1.22</v>
-      </c>
-      <c r="AL234">
-        <v>1.25</v>
-      </c>
-      <c r="AM234">
-        <v>2</v>
-      </c>
-      <c r="AN234">
-        <v>1.82</v>
-      </c>
-      <c r="AO234">
-        <v>1.17</v>
-      </c>
-      <c r="AP234">
-        <v>1.67</v>
-      </c>
       <c r="AQ234">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AR234">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AS234">
-        <v>1.59</v>
+        <v>1.37</v>
       </c>
       <c r="AT234">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="AU234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW234">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY234">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ234">
         <v>7</v>
       </c>
       <c r="BA234">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB234">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC234">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD234">
         <v>1.5</v>
@@ -49599,10 +49605,10 @@
         <v>4.33</v>
       </c>
       <c r="BI234">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ234">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="BK234">
         <v>1.77</v>
@@ -49611,16 +49617,16 @@
         <v>1.95</v>
       </c>
       <c r="BM234">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BN234">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="BO234">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="BP234">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="235" spans="1:68">
@@ -49670,7 +49676,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49763,22 +49769,22 @@
         <v>2.58</v>
       </c>
       <c r="AU235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV235">
         <v>6</v>
       </c>
       <c r="AW235">
+        <v>4</v>
+      </c>
+      <c r="AX235">
         <v>7</v>
       </c>
-      <c r="AX235">
-        <v>10</v>
-      </c>
       <c r="AY235">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ235">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA235">
         <v>0</v>
@@ -49834,7 +49840,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>7327132</v>
+        <v>7327130</v>
       </c>
       <c r="C236" t="s">
         <v>68</v>
@@ -49849,124 +49855,124 @@
         <v>24</v>
       </c>
       <c r="G236" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H236" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N236">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O236" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="Q236">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R236">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S236">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="T236">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="U236">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="V236">
-        <v>2.95</v>
+        <v>2.91</v>
       </c>
       <c r="W236">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X236">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="Y236">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z236">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AA236">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AB236">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AC236">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD236">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="AE236">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF236">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG236">
+        <v>2.02</v>
+      </c>
+      <c r="AH236">
+        <v>1.75</v>
+      </c>
+      <c r="AI236">
+        <v>1.8</v>
+      </c>
+      <c r="AJ236">
+        <v>1.95</v>
+      </c>
+      <c r="AK236">
+        <v>1.24</v>
+      </c>
+      <c r="AL236">
+        <v>1.3</v>
+      </c>
+      <c r="AM236">
+        <v>1.72</v>
+      </c>
+      <c r="AN236">
+        <v>2.27</v>
+      </c>
+      <c r="AO236">
+        <v>0.92</v>
+      </c>
+      <c r="AP236">
         <v>2.08</v>
       </c>
-      <c r="AH236">
-        <v>1.7</v>
-      </c>
-      <c r="AI236">
-        <v>2.04</v>
-      </c>
-      <c r="AJ236">
-        <v>1.73</v>
-      </c>
-      <c r="AK236">
-        <v>1.12</v>
-      </c>
-      <c r="AL236">
-        <v>1.2</v>
-      </c>
-      <c r="AM236">
-        <v>2.15</v>
-      </c>
-      <c r="AN236">
-        <v>1.55</v>
-      </c>
-      <c r="AO236">
-        <v>1.36</v>
-      </c>
-      <c r="AP236">
-        <v>1.5</v>
-      </c>
       <c r="AQ236">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AR236">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AS236">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AT236">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="AU236">
         <v>4</v>
@@ -49975,64 +49981,64 @@
         <v>6</v>
       </c>
       <c r="AW236">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AX236">
+        <v>8</v>
+      </c>
+      <c r="AY236">
+        <v>7</v>
+      </c>
+      <c r="AZ236">
+        <v>14</v>
+      </c>
+      <c r="BA236">
+        <v>6</v>
+      </c>
+      <c r="BB236">
         <v>4</v>
-      </c>
-      <c r="AY236">
-        <v>14</v>
-      </c>
-      <c r="AZ236">
-        <v>10</v>
-      </c>
-      <c r="BA236">
-        <v>7</v>
-      </c>
-      <c r="BB236">
-        <v>3</v>
       </c>
       <c r="BC236">
         <v>10</v>
       </c>
       <c r="BD236">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="BE236">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF236">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="BG236">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH236">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="BI236">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BJ236">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="BK236">
+        <v>1.58</v>
+      </c>
+      <c r="BL236">
+        <v>2.23</v>
+      </c>
+      <c r="BM236">
+        <v>1.95</v>
+      </c>
+      <c r="BN236">
         <v>1.77</v>
       </c>
-      <c r="BL236">
-        <v>1.95</v>
-      </c>
-      <c r="BM236">
-        <v>1.9</v>
-      </c>
-      <c r="BN236">
-        <v>1.9</v>
-      </c>
       <c r="BO236">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="BP236">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="237" spans="1:68">
@@ -50079,7 +50085,7 @@
         <v>3</v>
       </c>
       <c r="O237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P237" t="s">
         <v>214</v>
@@ -50175,22 +50181,22 @@
         <v>2.78</v>
       </c>
       <c r="AU237">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV237">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW237">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX237">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AY237">
+        <v>11</v>
+      </c>
+      <c r="AZ237">
         <v>16</v>
-      </c>
-      <c r="AZ237">
-        <v>21</v>
       </c>
       <c r="BA237">
         <v>8</v>
@@ -50246,7 +50252,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>7327129</v>
+        <v>7327128</v>
       </c>
       <c r="C238" t="s">
         <v>68</v>
@@ -50261,31 +50267,31 @@
         <v>24</v>
       </c>
       <c r="G238" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H238" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K238">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O238" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="P238" t="s">
         <v>344</v>
@@ -50294,154 +50300,154 @@
         <v>3</v>
       </c>
       <c r="R238">
+        <v>2.25</v>
+      </c>
+      <c r="S238">
+        <v>3.4</v>
+      </c>
+      <c r="T238">
+        <v>1.33</v>
+      </c>
+      <c r="U238">
+        <v>3.16</v>
+      </c>
+      <c r="V238">
+        <v>2.55</v>
+      </c>
+      <c r="W238">
+        <v>1.48</v>
+      </c>
+      <c r="X238">
+        <v>6.1</v>
+      </c>
+      <c r="Y238">
+        <v>1.11</v>
+      </c>
+      <c r="Z238">
         <v>2.2</v>
       </c>
-      <c r="S238">
+      <c r="AA238">
         <v>3.6</v>
       </c>
-      <c r="T238">
-        <v>1.39</v>
-      </c>
-      <c r="U238">
-        <v>2.86</v>
-      </c>
-      <c r="V238">
-        <v>2.82</v>
-      </c>
-      <c r="W238">
-        <v>1.4</v>
-      </c>
-      <c r="X238">
-        <v>7.1</v>
-      </c>
-      <c r="Y238">
-        <v>1.08</v>
-      </c>
-      <c r="Z238">
-        <v>2.25</v>
-      </c>
-      <c r="AA238">
-        <v>3.3</v>
-      </c>
       <c r="AB238">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AC238">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD238">
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="AE238">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AF238">
-        <v>3.28</v>
+        <v>3.75</v>
       </c>
       <c r="AG238">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AH238">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="AI238">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ238">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK238">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AL238">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM238">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AN238">
         <v>1.36</v>
       </c>
       <c r="AO238">
-        <v>1.33</v>
+        <v>0.73</v>
       </c>
       <c r="AP238">
         <v>1.25</v>
       </c>
       <c r="AQ238">
+        <v>0.92</v>
+      </c>
+      <c r="AR238">
         <v>1.46</v>
       </c>
-      <c r="AR238">
-        <v>1.3</v>
-      </c>
       <c r="AS238">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AT238">
-        <v>2.62</v>
+        <v>3.02</v>
       </c>
       <c r="AU238">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV238">
+        <v>9</v>
+      </c>
+      <c r="AW238">
+        <v>7</v>
+      </c>
+      <c r="AX238">
+        <v>1</v>
+      </c>
+      <c r="AY238">
+        <v>15</v>
+      </c>
+      <c r="AZ238">
+        <v>10</v>
+      </c>
+      <c r="BA238">
         <v>5</v>
       </c>
-      <c r="AW238">
-        <v>10</v>
-      </c>
-      <c r="AX238">
+      <c r="BB238">
         <v>9</v>
       </c>
-      <c r="AY238">
-        <v>12</v>
-      </c>
-      <c r="AZ238">
+      <c r="BC238">
         <v>14</v>
       </c>
-      <c r="BA238">
-        <v>1</v>
-      </c>
-      <c r="BB238">
-        <v>3</v>
-      </c>
-      <c r="BC238">
+      <c r="BD238">
+        <v>1.73</v>
+      </c>
+      <c r="BE238">
+        <v>8</v>
+      </c>
+      <c r="BF238">
+        <v>2.5</v>
+      </c>
+      <c r="BG238">
+        <v>1.2</v>
+      </c>
+      <c r="BH238">
         <v>4</v>
       </c>
-      <c r="BD238">
-        <v>1.95</v>
-      </c>
-      <c r="BE238">
-        <v>8.5</v>
-      </c>
-      <c r="BF238">
-        <v>2.1</v>
-      </c>
-      <c r="BG238">
-        <v>1.17</v>
-      </c>
-      <c r="BH238">
-        <v>4.5</v>
-      </c>
       <c r="BI238">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BJ238">
-        <v>3.34</v>
+        <v>3.04</v>
       </c>
       <c r="BK238">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="BL238">
-        <v>2.44</v>
+        <v>2.05</v>
       </c>
       <c r="BM238">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="BN238">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="BO238">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="BP238">
         <v>1.53</v>
@@ -50452,7 +50458,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7327128</v>
+        <v>7327127</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -50467,28 +50473,28 @@
         <v>24</v>
       </c>
       <c r="G239" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H239" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239">
         <v>2</v>
       </c>
       <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
         <v>3</v>
       </c>
-      <c r="L239">
-        <v>2</v>
-      </c>
       <c r="M239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N239">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O239" t="s">
         <v>241</v>
@@ -50497,142 +50503,142 @@
         <v>345</v>
       </c>
       <c r="Q239">
-        <v>3</v>
+        <v>2.07</v>
       </c>
       <c r="R239">
-        <v>2.25</v>
+        <v>2.49</v>
       </c>
       <c r="S239">
+        <v>5.75</v>
+      </c>
+      <c r="T239">
+        <v>1.3</v>
+      </c>
+      <c r="U239">
         <v>3.4</v>
       </c>
-      <c r="T239">
-        <v>1.33</v>
-      </c>
-      <c r="U239">
-        <v>3.16</v>
-      </c>
       <c r="V239">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W239">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X239">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y239">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z239">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AA239">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AB239">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="AC239">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD239">
         <v>11</v>
       </c>
       <c r="AE239">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AF239">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="AG239">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AH239">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="AI239">
+        <v>1.8</v>
+      </c>
+      <c r="AJ239">
+        <v>1.95</v>
+      </c>
+      <c r="AK239">
+        <v>1.12</v>
+      </c>
+      <c r="AL239">
+        <v>1.22</v>
+      </c>
+      <c r="AM239">
+        <v>2.4</v>
+      </c>
+      <c r="AN239">
+        <v>1.75</v>
+      </c>
+      <c r="AO239">
+        <v>0.27</v>
+      </c>
+      <c r="AP239">
         <v>1.62</v>
       </c>
-      <c r="AJ239">
-        <v>2.2</v>
-      </c>
-      <c r="AK239">
-        <v>1.38</v>
-      </c>
-      <c r="AL239">
-        <v>1.28</v>
-      </c>
-      <c r="AM239">
-        <v>1.52</v>
-      </c>
-      <c r="AN239">
-        <v>1.36</v>
-      </c>
-      <c r="AO239">
-        <v>0.73</v>
-      </c>
-      <c r="AP239">
-        <v>1.25</v>
-      </c>
       <c r="AQ239">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AR239">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="AS239">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AT239">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="AU239">
         <v>8</v>
       </c>
       <c r="AV239">
+        <v>5</v>
+      </c>
+      <c r="AW239">
+        <v>4</v>
+      </c>
+      <c r="AX239">
+        <v>3</v>
+      </c>
+      <c r="AY239">
+        <v>12</v>
+      </c>
+      <c r="AZ239">
         <v>8</v>
       </c>
-      <c r="AW239">
-        <v>11</v>
-      </c>
-      <c r="AX239">
-        <v>4</v>
-      </c>
-      <c r="AY239">
-        <v>19</v>
-      </c>
-      <c r="AZ239">
-        <v>12</v>
-      </c>
       <c r="BA239">
+        <v>3</v>
+      </c>
+      <c r="BB239">
+        <v>2</v>
+      </c>
+      <c r="BC239">
         <v>5</v>
       </c>
-      <c r="BB239">
+      <c r="BD239">
+        <v>1.5</v>
+      </c>
+      <c r="BE239">
         <v>9</v>
       </c>
-      <c r="BC239">
-        <v>14</v>
-      </c>
-      <c r="BD239">
-        <v>1.73</v>
-      </c>
-      <c r="BE239">
-        <v>8</v>
-      </c>
       <c r="BF239">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="BG239">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BH239">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="BI239">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="BJ239">
-        <v>3.04</v>
+        <v>2.84</v>
       </c>
       <c r="BK239">
         <v>1.7</v>
@@ -50641,16 +50647,16 @@
         <v>2.05</v>
       </c>
       <c r="BM239">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="BN239">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="BO239">
-        <v>2.46</v>
+        <v>2.72</v>
       </c>
       <c r="BP239">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="240" spans="1:68">
@@ -50658,7 +50664,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>7327130</v>
+        <v>7327129</v>
       </c>
       <c r="C240" t="s">
         <v>68</v>
@@ -50673,190 +50679,396 @@
         <v>24</v>
       </c>
       <c r="G240" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H240" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240">
         <v>0</v>
       </c>
       <c r="K240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O240" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="Q240">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R240">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S240">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="T240">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="U240">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="V240">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="W240">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X240">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="Y240">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z240">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AA240">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB240">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="AC240">
         <v>1.02</v>
       </c>
       <c r="AD240">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="AE240">
+        <v>1.27</v>
+      </c>
+      <c r="AF240">
+        <v>3.28</v>
+      </c>
+      <c r="AG240">
+        <v>1.82</v>
+      </c>
+      <c r="AH240">
+        <v>1.94</v>
+      </c>
+      <c r="AI240">
+        <v>1.7</v>
+      </c>
+      <c r="AJ240">
+        <v>2.05</v>
+      </c>
+      <c r="AK240">
+        <v>1.35</v>
+      </c>
+      <c r="AL240">
+        <v>1.32</v>
+      </c>
+      <c r="AM240">
+        <v>1.55</v>
+      </c>
+      <c r="AN240">
+        <v>1.36</v>
+      </c>
+      <c r="AO240">
+        <v>1.33</v>
+      </c>
+      <c r="AP240">
+        <v>1.25</v>
+      </c>
+      <c r="AQ240">
+        <v>1.46</v>
+      </c>
+      <c r="AR240">
         <v>1.3</v>
       </c>
-      <c r="AF240">
-        <v>3.1</v>
-      </c>
-      <c r="AG240">
-        <v>2.02</v>
-      </c>
-      <c r="AH240">
-        <v>1.75</v>
-      </c>
-      <c r="AI240">
-        <v>1.8</v>
-      </c>
-      <c r="AJ240">
+      <c r="AS240">
+        <v>1.32</v>
+      </c>
+      <c r="AT240">
+        <v>2.62</v>
+      </c>
+      <c r="AU240">
+        <v>2</v>
+      </c>
+      <c r="AV240">
+        <v>3</v>
+      </c>
+      <c r="AW240">
+        <v>6</v>
+      </c>
+      <c r="AX240">
+        <v>8</v>
+      </c>
+      <c r="AY240">
+        <v>8</v>
+      </c>
+      <c r="AZ240">
+        <v>11</v>
+      </c>
+      <c r="BA240">
+        <v>1</v>
+      </c>
+      <c r="BB240">
+        <v>3</v>
+      </c>
+      <c r="BC240">
+        <v>4</v>
+      </c>
+      <c r="BD240">
         <v>1.95</v>
       </c>
-      <c r="AK240">
-        <v>1.24</v>
-      </c>
-      <c r="AL240">
-        <v>1.3</v>
-      </c>
-      <c r="AM240">
-        <v>1.72</v>
-      </c>
-      <c r="AN240">
-        <v>2.27</v>
-      </c>
-      <c r="AO240">
-        <v>0.92</v>
-      </c>
-      <c r="AP240">
-        <v>2.08</v>
-      </c>
-      <c r="AQ240">
-        <v>1.08</v>
-      </c>
-      <c r="AR240">
-        <v>1.54</v>
-      </c>
-      <c r="AS240">
-        <v>1.44</v>
-      </c>
-      <c r="AT240">
-        <v>2.98</v>
-      </c>
-      <c r="AU240">
-        <v>5</v>
-      </c>
-      <c r="AV240">
-        <v>7</v>
-      </c>
-      <c r="AW240">
-        <v>5</v>
-      </c>
-      <c r="AX240">
-        <v>10</v>
-      </c>
-      <c r="AY240">
-        <v>10</v>
-      </c>
-      <c r="AZ240">
-        <v>17</v>
-      </c>
-      <c r="BA240">
-        <v>6</v>
-      </c>
-      <c r="BB240">
-        <v>4</v>
-      </c>
-      <c r="BC240">
-        <v>10</v>
-      </c>
-      <c r="BD240">
-        <v>1.83</v>
-      </c>
       <c r="BE240">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF240">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="BG240">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="BH240">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="BI240">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="BJ240">
-        <v>2.98</v>
+        <v>3.34</v>
       </c>
       <c r="BK240">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="BL240">
-        <v>2.23</v>
+        <v>2.44</v>
       </c>
       <c r="BM240">
         <v>1.95</v>
       </c>
       <c r="BN240">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BO240">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="BP240">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7327134</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45494.29166666666</v>
+      </c>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>74</v>
+      </c>
+      <c r="H241" t="s">
+        <v>70</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>4</v>
+      </c>
+      <c r="N241">
+        <v>5</v>
+      </c>
+      <c r="O241" t="s">
+        <v>242</v>
+      </c>
+      <c r="P241" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q241">
+        <v>5.5</v>
+      </c>
+      <c r="R241">
+        <v>2.5</v>
+      </c>
+      <c r="S241">
+        <v>2</v>
+      </c>
+      <c r="T241">
+        <v>1.29</v>
+      </c>
+      <c r="U241">
+        <v>3.5</v>
+      </c>
+      <c r="V241">
+        <v>2.25</v>
+      </c>
+      <c r="W241">
+        <v>1.57</v>
+      </c>
+      <c r="X241">
+        <v>5.5</v>
+      </c>
+      <c r="Y241">
+        <v>1.14</v>
+      </c>
+      <c r="Z241">
+        <v>5.35</v>
+      </c>
+      <c r="AA241">
+        <v>4.5</v>
+      </c>
+      <c r="AB241">
+        <v>1.55</v>
+      </c>
+      <c r="AC241">
+        <v>1.03</v>
+      </c>
+      <c r="AD241">
+        <v>11</v>
+      </c>
+      <c r="AE241">
+        <v>1.16</v>
+      </c>
+      <c r="AF241">
+        <v>4.75</v>
+      </c>
+      <c r="AG241">
+        <v>1.52</v>
+      </c>
+      <c r="AH241">
+        <v>2.36</v>
+      </c>
+      <c r="AI241">
+        <v>1.7</v>
+      </c>
+      <c r="AJ241">
+        <v>2.05</v>
+      </c>
+      <c r="AK241">
+        <v>2.65</v>
+      </c>
+      <c r="AL241">
+        <v>1.15</v>
+      </c>
+      <c r="AM241">
+        <v>1.09</v>
+      </c>
+      <c r="AN241">
+        <v>1.08</v>
+      </c>
+      <c r="AO241">
         <v>1.45</v>
+      </c>
+      <c r="AP241">
+        <v>1</v>
+      </c>
+      <c r="AQ241">
+        <v>1.58</v>
+      </c>
+      <c r="AR241">
+        <v>1.42</v>
+      </c>
+      <c r="AS241">
+        <v>1.54</v>
+      </c>
+      <c r="AT241">
+        <v>2.96</v>
+      </c>
+      <c r="AU241">
+        <v>6</v>
+      </c>
+      <c r="AV241">
+        <v>12</v>
+      </c>
+      <c r="AW241">
+        <v>7</v>
+      </c>
+      <c r="AX241">
+        <v>7</v>
+      </c>
+      <c r="AY241">
+        <v>13</v>
+      </c>
+      <c r="AZ241">
+        <v>19</v>
+      </c>
+      <c r="BA241">
+        <v>9</v>
+      </c>
+      <c r="BB241">
+        <v>9</v>
+      </c>
+      <c r="BC241">
+        <v>18</v>
+      </c>
+      <c r="BD241">
+        <v>3.75</v>
+      </c>
+      <c r="BE241">
+        <v>9.5</v>
+      </c>
+      <c r="BF241">
+        <v>1.33</v>
+      </c>
+      <c r="BG241">
+        <v>1.2</v>
+      </c>
+      <c r="BH241">
+        <v>4</v>
+      </c>
+      <c r="BI241">
+        <v>1.3</v>
+      </c>
+      <c r="BJ241">
+        <v>3.08</v>
+      </c>
+      <c r="BK241">
+        <v>1.7</v>
+      </c>
+      <c r="BL241">
+        <v>2.05</v>
+      </c>
+      <c r="BM241">
+        <v>2.05</v>
+      </c>
+      <c r="BN241">
+        <v>1.7</v>
+      </c>
+      <c r="BO241">
+        <v>2.4</v>
+      </c>
+      <c r="BP241">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,21 @@
     <t>['46']</t>
   </si>
   <si>
+    <t>['59', '71', '79']</t>
+  </si>
+  <si>
+    <t>['14', '27']</t>
+  </si>
+  <si>
+    <t>['57', '71', '85']</t>
+  </si>
+  <si>
+    <t>['18', '53', '79']</t>
+  </si>
+  <si>
+    <t>['4', '31', '51']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1058,6 +1073,15 @@
   </si>
   <si>
     <t>['21', '71', '87', '90+5']</t>
+  </si>
+  <si>
+    <t>['5', '19']</t>
+  </si>
+  <si>
+    <t>['66', '90+1']</t>
+  </si>
+  <si>
+    <t>['12', '57']</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1884,7 +1908,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2090,7 +2114,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2171,7 +2195,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2377,7 +2401,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2502,7 +2526,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2914,7 +2938,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3120,7 +3144,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3198,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ9">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3532,7 +3556,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3738,7 +3762,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3816,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3944,7 +3968,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4022,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4150,7 +4174,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4437,7 +4461,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4562,7 +4586,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4640,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16">
         <v>1.08</v>
@@ -4849,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -4974,7 +4998,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5052,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -5180,7 +5204,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5464,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.38</v>
@@ -5592,7 +5616,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5798,7 +5822,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6082,10 +6106,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6497,7 +6521,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6828,7 +6852,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6909,7 +6933,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -7112,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ28">
         <v>1.46</v>
@@ -7318,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7652,7 +7676,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7733,7 +7757,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ31">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7858,7 +7882,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7939,7 +7963,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8270,7 +8294,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8554,10 +8578,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8682,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8763,7 +8787,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8888,7 +8912,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9094,7 +9118,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9172,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.31</v>
@@ -9378,7 +9402,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ39">
         <v>0.92</v>
@@ -9506,7 +9530,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9712,7 +9736,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9918,7 +9942,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10202,7 +10226,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -10411,7 +10435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10614,10 +10638,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10742,7 +10766,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10823,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -11029,7 +11053,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ47">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -11232,10 +11256,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11644,7 +11668,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ50">
         <v>1.08</v>
@@ -11853,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -12390,7 +12414,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12674,7 +12698,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.46</v>
@@ -12802,7 +12826,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13292,7 +13316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>0.92</v>
@@ -13420,7 +13444,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13501,7 +13525,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13626,7 +13650,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14244,7 +14268,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14450,7 +14474,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14528,7 +14552,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14656,7 +14680,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14734,10 +14758,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -15068,7 +15092,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15146,10 +15170,10 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ67">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15355,7 +15379,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -15561,7 +15585,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ69">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15970,7 +15994,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.58</v>
@@ -16304,7 +16328,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16382,7 +16406,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.08</v>
@@ -16510,7 +16534,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16588,10 +16612,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16797,7 +16821,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -17206,7 +17230,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ77">
         <v>1.46</v>
@@ -17334,7 +17358,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17415,7 +17439,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17618,7 +17642,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -17746,7 +17770,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17827,7 +17851,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ80">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -17952,7 +17976,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18030,10 +18054,10 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18364,7 +18388,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18442,7 +18466,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ83">
         <v>1.38</v>
@@ -18570,7 +18594,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18857,7 +18881,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -19063,7 +19087,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ86">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19472,7 +19496,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19600,7 +19624,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19681,7 +19705,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ89">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19806,7 +19830,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20012,7 +20036,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20299,7 +20323,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20630,7 +20654,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20708,10 +20732,10 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ94">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20836,7 +20860,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20914,7 +20938,7 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ95">
         <v>1.31</v>
@@ -21123,7 +21147,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21248,7 +21272,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21454,7 +21478,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21535,7 +21559,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21741,7 +21765,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ99">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21866,7 +21890,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21944,7 +21968,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
         <v>1.33</v>
@@ -22150,10 +22174,10 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -22278,7 +22302,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22356,7 +22380,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ102">
         <v>1.58</v>
@@ -22562,7 +22586,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ103">
         <v>1.08</v>
@@ -22690,7 +22714,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23180,10 +23204,10 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ106">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23308,7 +23332,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23720,7 +23744,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23798,7 +23822,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ109">
         <v>1.09</v>
@@ -23926,7 +23950,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24007,7 +24031,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -24132,7 +24156,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24338,7 +24362,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24419,7 +24443,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24622,7 +24646,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>1.25</v>
@@ -24956,7 +24980,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25034,10 +25058,10 @@
         <v>2.4</v>
       </c>
       <c r="AP115">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ115">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25243,7 +25267,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25368,7 +25392,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25449,7 +25473,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ117">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -25574,7 +25598,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25861,7 +25885,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25986,7 +26010,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26192,7 +26216,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26270,7 +26294,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121">
         <v>1.09</v>
@@ -26398,7 +26422,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26476,10 +26500,10 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ122">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26604,7 +26628,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26685,7 +26709,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -26891,7 +26915,7 @@
         <v>1</v>
       </c>
       <c r="AQ124">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -27094,10 +27118,10 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27222,7 +27246,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27428,7 +27452,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27506,10 +27530,10 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27634,7 +27658,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27840,7 +27864,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27918,7 +27942,7 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -28046,7 +28070,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28333,7 +28357,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ131">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>0.9399999999999999</v>
@@ -28539,7 +28563,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -29282,7 +29306,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29360,7 +29384,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ136">
         <v>1.31</v>
@@ -29488,7 +29512,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29775,7 +29799,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -30106,7 +30130,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30312,7 +30336,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30393,7 +30417,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30724,7 +30748,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30930,7 +30954,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31008,7 +31032,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ144">
         <v>1.58</v>
@@ -31214,7 +31238,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
         <v>0.92</v>
@@ -31420,10 +31444,10 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -31754,7 +31778,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31835,7 +31859,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ148">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -32166,7 +32190,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32372,7 +32396,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32578,7 +32602,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32656,10 +32680,10 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ152">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32784,7 +32808,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32862,7 +32886,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ153">
         <v>1.17</v>
@@ -33274,7 +33298,7 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ155">
         <v>1.58</v>
@@ -33402,7 +33426,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33895,7 +33919,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ158">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -34098,7 +34122,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
         <v>1.17</v>
@@ -34226,7 +34250,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34307,7 +34331,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR160">
         <v>1.45</v>
@@ -34513,7 +34537,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ161">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR161">
         <v>2.23</v>
@@ -34638,7 +34662,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34716,7 +34740,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ162">
         <v>1.31</v>
@@ -34844,7 +34868,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35050,7 +35074,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35337,7 +35361,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35540,7 +35564,7 @@
         <v>1.38</v>
       </c>
       <c r="AP166">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ166">
         <v>1.25</v>
@@ -35668,7 +35692,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35749,7 +35773,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ167">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35952,10 +35976,10 @@
         <v>2.14</v>
       </c>
       <c r="AP168">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ168">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36080,7 +36104,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36161,7 +36185,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ169">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR169">
         <v>1.41</v>
@@ -36286,7 +36310,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36364,10 +36388,10 @@
         <v>2.38</v>
       </c>
       <c r="AP170">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR170">
         <v>1.86</v>
@@ -36492,7 +36516,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36776,7 +36800,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ172">
         <v>1.09</v>
@@ -36982,10 +37006,10 @@
         <v>0.38</v>
       </c>
       <c r="AP173">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ173">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -37397,7 +37421,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ175">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37522,7 +37546,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37600,7 +37624,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
         <v>1.17</v>
@@ -37806,7 +37830,7 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ177">
         <v>1.38</v>
@@ -38015,7 +38039,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ178">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR178">
         <v>1.3</v>
@@ -38346,7 +38370,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38424,7 +38448,7 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ180">
         <v>1.58</v>
@@ -38633,7 +38657,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ181">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38839,7 +38863,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ182">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR182">
         <v>1.53</v>
@@ -38964,7 +38988,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39042,7 +39066,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ183">
         <v>0.92</v>
@@ -39170,7 +39194,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39376,7 +39400,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39454,10 +39478,10 @@
         <v>2.22</v>
       </c>
       <c r="AP185">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ185">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -39788,7 +39812,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40200,7 +40224,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40281,7 +40305,7 @@
         <v>1</v>
       </c>
       <c r="AQ189">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40406,7 +40430,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40612,7 +40636,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40896,7 +40920,7 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ192">
         <v>1.58</v>
@@ -41105,7 +41129,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ193">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR193">
         <v>1.31</v>
@@ -41308,7 +41332,7 @@
         <v>0.7</v>
       </c>
       <c r="AP194">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ194">
         <v>1.08</v>
@@ -41848,7 +41872,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -41926,7 +41950,7 @@
         <v>1.11</v>
       </c>
       <c r="AP197">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ197">
         <v>1.17</v>
@@ -42132,10 +42156,10 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ198">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR198">
         <v>1.52</v>
@@ -42341,7 +42365,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ199">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR199">
         <v>1.76</v>
@@ -42466,7 +42490,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42956,7 +42980,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ202">
         <v>1.58</v>
@@ -43084,7 +43108,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43162,7 +43186,7 @@
         <v>1.2</v>
       </c>
       <c r="AP203">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
         <v>1.5</v>
@@ -43290,7 +43314,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43368,10 +43392,10 @@
         <v>2.3</v>
       </c>
       <c r="AP204">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ204">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR204">
         <v>1.52</v>
@@ -43496,7 +43520,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43574,10 +43598,10 @@
         <v>1.67</v>
       </c>
       <c r="AP205">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ205">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -43783,7 +43807,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ206">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR206">
         <v>1.66</v>
@@ -43989,7 +44013,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ207">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR207">
         <v>1.33</v>
@@ -44114,7 +44138,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44320,7 +44344,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44810,10 +44834,10 @@
         <v>0.44</v>
       </c>
       <c r="AP211">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ211">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR211">
         <v>1.71</v>
@@ -44938,7 +44962,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45019,7 +45043,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ212">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR212">
         <v>2.16</v>
@@ -45225,7 +45249,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ213">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR213">
         <v>1.4</v>
@@ -45428,10 +45452,10 @@
         <v>0.3</v>
       </c>
       <c r="AP214">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ214">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR214">
         <v>1.31</v>
@@ -45556,7 +45580,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45634,10 +45658,10 @@
         <v>0.7</v>
       </c>
       <c r="AP215">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ215">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR215">
         <v>1.43</v>
@@ -45762,7 +45786,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45968,7 +45992,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46174,7 +46198,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46458,7 +46482,7 @@
         <v>1.27</v>
       </c>
       <c r="AP219">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ219">
         <v>1.31</v>
@@ -46586,7 +46610,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46667,7 +46691,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ220">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR220">
         <v>1.47</v>
@@ -46792,7 +46816,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -46998,7 +47022,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47079,7 +47103,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ222">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AR222">
         <v>1.28</v>
@@ -47697,7 +47721,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ225">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AR225">
         <v>1.43</v>
@@ -47900,7 +47924,7 @@
         <v>1.1</v>
       </c>
       <c r="AP226">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ226">
         <v>1.09</v>
@@ -48109,7 +48133,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ227">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR227">
         <v>2.1</v>
@@ -48312,7 +48336,7 @@
         <v>1.27</v>
       </c>
       <c r="AP228">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ228">
         <v>1.25</v>
@@ -48521,7 +48545,7 @@
         <v>1</v>
       </c>
       <c r="AQ229">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR229">
         <v>1.5</v>
@@ -48646,7 +48670,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48852,7 +48876,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -48930,7 +48954,7 @@
         <v>1.45</v>
       </c>
       <c r="AP231">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ231">
         <v>1.33</v>
@@ -49058,7 +49082,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49136,10 +49160,10 @@
         <v>1.7</v>
       </c>
       <c r="AP232">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ232">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR232">
         <v>1.34</v>
@@ -49264,7 +49288,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49470,7 +49494,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49551,7 +49575,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ234">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR234">
         <v>1.71</v>
@@ -49676,7 +49700,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49882,7 +49906,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -49960,7 +49984,7 @@
         <v>0.92</v>
       </c>
       <c r="AP236">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ236">
         <v>1.08</v>
@@ -50166,7 +50190,7 @@
         <v>1.25</v>
       </c>
       <c r="AP237">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ237">
         <v>1.38</v>
@@ -50294,7 +50318,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50500,7 +50524,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50581,7 +50605,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ239">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -50706,7 +50730,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50912,7 +50936,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51069,6 +51093,1654 @@
       </c>
       <c r="BP241">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7327142</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45511.29166666666</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>77</v>
+      </c>
+      <c r="H242" t="s">
+        <v>75</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242" t="s">
+        <v>91</v>
+      </c>
+      <c r="P242" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q242">
+        <v>3.6</v>
+      </c>
+      <c r="R242">
+        <v>2.1</v>
+      </c>
+      <c r="S242">
+        <v>3</v>
+      </c>
+      <c r="T242">
+        <v>1.44</v>
+      </c>
+      <c r="U242">
+        <v>2.63</v>
+      </c>
+      <c r="V242">
+        <v>3.25</v>
+      </c>
+      <c r="W242">
+        <v>1.33</v>
+      </c>
+      <c r="X242">
+        <v>9</v>
+      </c>
+      <c r="Y242">
+        <v>1.07</v>
+      </c>
+      <c r="Z242">
+        <v>3.02</v>
+      </c>
+      <c r="AA242">
+        <v>3.34</v>
+      </c>
+      <c r="AB242">
+        <v>2.36</v>
+      </c>
+      <c r="AC242">
+        <v>1.03</v>
+      </c>
+      <c r="AD242">
+        <v>8.1</v>
+      </c>
+      <c r="AE242">
+        <v>1.33</v>
+      </c>
+      <c r="AF242">
+        <v>2.93</v>
+      </c>
+      <c r="AG242">
+        <v>2</v>
+      </c>
+      <c r="AH242">
+        <v>1.7</v>
+      </c>
+      <c r="AI242">
+        <v>1.8</v>
+      </c>
+      <c r="AJ242">
+        <v>1.95</v>
+      </c>
+      <c r="AK242">
+        <v>1.59</v>
+      </c>
+      <c r="AL242">
+        <v>1.32</v>
+      </c>
+      <c r="AM242">
+        <v>1.38</v>
+      </c>
+      <c r="AN242">
+        <v>1.83</v>
+      </c>
+      <c r="AO242">
+        <v>2.42</v>
+      </c>
+      <c r="AP242">
+        <v>1.77</v>
+      </c>
+      <c r="AQ242">
+        <v>2.31</v>
+      </c>
+      <c r="AR242">
+        <v>1.44</v>
+      </c>
+      <c r="AS242">
+        <v>1.29</v>
+      </c>
+      <c r="AT242">
+        <v>2.73</v>
+      </c>
+      <c r="AU242">
+        <v>3</v>
+      </c>
+      <c r="AV242">
+        <v>4</v>
+      </c>
+      <c r="AW242">
+        <v>1</v>
+      </c>
+      <c r="AX242">
+        <v>7</v>
+      </c>
+      <c r="AY242">
+        <v>4</v>
+      </c>
+      <c r="AZ242">
+        <v>11</v>
+      </c>
+      <c r="BA242">
+        <v>2</v>
+      </c>
+      <c r="BB242">
+        <v>6</v>
+      </c>
+      <c r="BC242">
+        <v>8</v>
+      </c>
+      <c r="BD242">
+        <v>2.2</v>
+      </c>
+      <c r="BE242">
+        <v>8</v>
+      </c>
+      <c r="BF242">
+        <v>1.91</v>
+      </c>
+      <c r="BG242">
+        <v>1.25</v>
+      </c>
+      <c r="BH242">
+        <v>3.6</v>
+      </c>
+      <c r="BI242">
+        <v>1.42</v>
+      </c>
+      <c r="BJ242">
+        <v>2.62</v>
+      </c>
+      <c r="BK242">
+        <v>1.77</v>
+      </c>
+      <c r="BL242">
+        <v>1.95</v>
+      </c>
+      <c r="BM242">
+        <v>2.14</v>
+      </c>
+      <c r="BN242">
+        <v>1.7</v>
+      </c>
+      <c r="BO242">
+        <v>2.62</v>
+      </c>
+      <c r="BP242">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7327140</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45511.29166666666</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>83</v>
+      </c>
+      <c r="H243" t="s">
+        <v>71</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>2</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>5</v>
+      </c>
+      <c r="O243" t="s">
+        <v>243</v>
+      </c>
+      <c r="P243" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q243">
+        <v>3.6</v>
+      </c>
+      <c r="R243">
+        <v>2.05</v>
+      </c>
+      <c r="S243">
+        <v>3.2</v>
+      </c>
+      <c r="T243">
+        <v>1.44</v>
+      </c>
+      <c r="U243">
+        <v>2.63</v>
+      </c>
+      <c r="V243">
+        <v>3.4</v>
+      </c>
+      <c r="W243">
+        <v>1.3</v>
+      </c>
+      <c r="X243">
+        <v>10</v>
+      </c>
+      <c r="Y243">
+        <v>1.06</v>
+      </c>
+      <c r="Z243">
+        <v>2.88</v>
+      </c>
+      <c r="AA243">
+        <v>3.3</v>
+      </c>
+      <c r="AB243">
+        <v>2.48</v>
+      </c>
+      <c r="AC243">
+        <v>1.07</v>
+      </c>
+      <c r="AD243">
+        <v>8</v>
+      </c>
+      <c r="AE243">
+        <v>1.38</v>
+      </c>
+      <c r="AF243">
+        <v>2.95</v>
+      </c>
+      <c r="AG243">
+        <v>2.1</v>
+      </c>
+      <c r="AH243">
+        <v>1.65</v>
+      </c>
+      <c r="AI243">
+        <v>1.91</v>
+      </c>
+      <c r="AJ243">
+        <v>1.91</v>
+      </c>
+      <c r="AK243">
+        <v>1.5</v>
+      </c>
+      <c r="AL243">
+        <v>1.3</v>
+      </c>
+      <c r="AM243">
+        <v>1.33</v>
+      </c>
+      <c r="AN243">
+        <v>0.55</v>
+      </c>
+      <c r="AO243">
+        <v>1.33</v>
+      </c>
+      <c r="AP243">
+        <v>0.75</v>
+      </c>
+      <c r="AQ243">
+        <v>1.23</v>
+      </c>
+      <c r="AR243">
+        <v>1.38</v>
+      </c>
+      <c r="AS243">
+        <v>1.35</v>
+      </c>
+      <c r="AT243">
+        <v>2.73</v>
+      </c>
+      <c r="AU243">
+        <v>6</v>
+      </c>
+      <c r="AV243">
+        <v>6</v>
+      </c>
+      <c r="AW243">
+        <v>7</v>
+      </c>
+      <c r="AX243">
+        <v>5</v>
+      </c>
+      <c r="AY243">
+        <v>13</v>
+      </c>
+      <c r="AZ243">
+        <v>11</v>
+      </c>
+      <c r="BA243">
+        <v>9</v>
+      </c>
+      <c r="BB243">
+        <v>1</v>
+      </c>
+      <c r="BC243">
+        <v>10</v>
+      </c>
+      <c r="BD243">
+        <v>1.95</v>
+      </c>
+      <c r="BE243">
+        <v>8.5</v>
+      </c>
+      <c r="BF243">
+        <v>2.05</v>
+      </c>
+      <c r="BG243">
+        <v>1.2</v>
+      </c>
+      <c r="BH243">
+        <v>4</v>
+      </c>
+      <c r="BI243">
+        <v>1.33</v>
+      </c>
+      <c r="BJ243">
+        <v>3</v>
+      </c>
+      <c r="BK243">
+        <v>1.6</v>
+      </c>
+      <c r="BL243">
+        <v>2.3</v>
+      </c>
+      <c r="BM243">
+        <v>2</v>
+      </c>
+      <c r="BN243">
+        <v>1.8</v>
+      </c>
+      <c r="BO243">
+        <v>2.42</v>
+      </c>
+      <c r="BP243">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7327139</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45511.29166666666</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>88</v>
+      </c>
+      <c r="H244" t="s">
+        <v>72</v>
+      </c>
+      <c r="I244">
+        <v>2</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>2</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>4</v>
+      </c>
+      <c r="O244" t="s">
+        <v>244</v>
+      </c>
+      <c r="P244" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q244">
+        <v>2.5</v>
+      </c>
+      <c r="R244">
+        <v>2.25</v>
+      </c>
+      <c r="S244">
+        <v>4.33</v>
+      </c>
+      <c r="T244">
+        <v>1.36</v>
+      </c>
+      <c r="U244">
+        <v>3</v>
+      </c>
+      <c r="V244">
+        <v>2.75</v>
+      </c>
+      <c r="W244">
+        <v>1.4</v>
+      </c>
+      <c r="X244">
+        <v>7</v>
+      </c>
+      <c r="Y244">
+        <v>1.1</v>
+      </c>
+      <c r="Z244">
+        <v>1.72</v>
+      </c>
+      <c r="AA244">
+        <v>3.92</v>
+      </c>
+      <c r="AB244">
+        <v>4.6</v>
+      </c>
+      <c r="AC244">
+        <v>1.05</v>
+      </c>
+      <c r="AD244">
+        <v>9.5</v>
+      </c>
+      <c r="AE244">
+        <v>1.25</v>
+      </c>
+      <c r="AF244">
+        <v>3.6</v>
+      </c>
+      <c r="AG244">
+        <v>1.8</v>
+      </c>
+      <c r="AH244">
+        <v>1.9</v>
+      </c>
+      <c r="AI244">
+        <v>1.7</v>
+      </c>
+      <c r="AJ244">
+        <v>2.05</v>
+      </c>
+      <c r="AK244">
+        <v>1.18</v>
+      </c>
+      <c r="AL244">
+        <v>1.21</v>
+      </c>
+      <c r="AM244">
+        <v>1.91</v>
+      </c>
+      <c r="AN244">
+        <v>0.91</v>
+      </c>
+      <c r="AO244">
+        <v>0.75</v>
+      </c>
+      <c r="AP244">
+        <v>0.92</v>
+      </c>
+      <c r="AQ244">
+        <v>0.77</v>
+      </c>
+      <c r="AR244">
+        <v>1.49</v>
+      </c>
+      <c r="AS244">
+        <v>1.13</v>
+      </c>
+      <c r="AT244">
+        <v>2.62</v>
+      </c>
+      <c r="AU244">
+        <v>7</v>
+      </c>
+      <c r="AV244">
+        <v>3</v>
+      </c>
+      <c r="AW244">
+        <v>6</v>
+      </c>
+      <c r="AX244">
+        <v>3</v>
+      </c>
+      <c r="AY244">
+        <v>13</v>
+      </c>
+      <c r="AZ244">
+        <v>6</v>
+      </c>
+      <c r="BA244">
+        <v>6</v>
+      </c>
+      <c r="BB244">
+        <v>5</v>
+      </c>
+      <c r="BC244">
+        <v>11</v>
+      </c>
+      <c r="BD244">
+        <v>1.5</v>
+      </c>
+      <c r="BE244">
+        <v>9</v>
+      </c>
+      <c r="BF244">
+        <v>3</v>
+      </c>
+      <c r="BG244">
+        <v>1.22</v>
+      </c>
+      <c r="BH244">
+        <v>3.8</v>
+      </c>
+      <c r="BI244">
+        <v>1.38</v>
+      </c>
+      <c r="BJ244">
+        <v>2.8</v>
+      </c>
+      <c r="BK244">
+        <v>1.66</v>
+      </c>
+      <c r="BL244">
+        <v>2.23</v>
+      </c>
+      <c r="BM244">
+        <v>2</v>
+      </c>
+      <c r="BN244">
+        <v>1.8</v>
+      </c>
+      <c r="BO244">
+        <v>2.4</v>
+      </c>
+      <c r="BP244">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7327141</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45511.29166666666</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>86</v>
+      </c>
+      <c r="H245" t="s">
+        <v>85</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245" t="s">
+        <v>91</v>
+      </c>
+      <c r="P245" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q245">
+        <v>2.75</v>
+      </c>
+      <c r="R245">
+        <v>2.1</v>
+      </c>
+      <c r="S245">
+        <v>4</v>
+      </c>
+      <c r="T245">
+        <v>1.4</v>
+      </c>
+      <c r="U245">
+        <v>2.75</v>
+      </c>
+      <c r="V245">
+        <v>3</v>
+      </c>
+      <c r="W245">
+        <v>1.36</v>
+      </c>
+      <c r="X245">
+        <v>9</v>
+      </c>
+      <c r="Y245">
+        <v>1.07</v>
+      </c>
+      <c r="Z245">
+        <v>2.18</v>
+      </c>
+      <c r="AA245">
+        <v>3.42</v>
+      </c>
+      <c r="AB245">
+        <v>3.3</v>
+      </c>
+      <c r="AC245">
+        <v>1.07</v>
+      </c>
+      <c r="AD245">
+        <v>8</v>
+      </c>
+      <c r="AE245">
+        <v>1.33</v>
+      </c>
+      <c r="AF245">
+        <v>3.2</v>
+      </c>
+      <c r="AG245">
+        <v>1.95</v>
+      </c>
+      <c r="AH245">
+        <v>1.75</v>
+      </c>
+      <c r="AI245">
+        <v>1.8</v>
+      </c>
+      <c r="AJ245">
+        <v>1.95</v>
+      </c>
+      <c r="AK245">
+        <v>1.22</v>
+      </c>
+      <c r="AL245">
+        <v>1.24</v>
+      </c>
+      <c r="AM245">
+        <v>1.78</v>
+      </c>
+      <c r="AN245">
+        <v>2.08</v>
+      </c>
+      <c r="AO245">
+        <v>1.55</v>
+      </c>
+      <c r="AP245">
+        <v>2</v>
+      </c>
+      <c r="AQ245">
+        <v>1.5</v>
+      </c>
+      <c r="AR245">
+        <v>1.5</v>
+      </c>
+      <c r="AS245">
+        <v>1.21</v>
+      </c>
+      <c r="AT245">
+        <v>2.71</v>
+      </c>
+      <c r="AU245">
+        <v>7</v>
+      </c>
+      <c r="AV245">
+        <v>2</v>
+      </c>
+      <c r="AW245">
+        <v>11</v>
+      </c>
+      <c r="AX245">
+        <v>4</v>
+      </c>
+      <c r="AY245">
+        <v>18</v>
+      </c>
+      <c r="AZ245">
+        <v>6</v>
+      </c>
+      <c r="BA245">
+        <v>4</v>
+      </c>
+      <c r="BB245">
+        <v>5</v>
+      </c>
+      <c r="BC245">
+        <v>9</v>
+      </c>
+      <c r="BD245">
+        <v>1.67</v>
+      </c>
+      <c r="BE245">
+        <v>8.5</v>
+      </c>
+      <c r="BF245">
+        <v>2.6</v>
+      </c>
+      <c r="BG245">
+        <v>1.25</v>
+      </c>
+      <c r="BH245">
+        <v>3.6</v>
+      </c>
+      <c r="BI245">
+        <v>1.42</v>
+      </c>
+      <c r="BJ245">
+        <v>2.62</v>
+      </c>
+      <c r="BK245">
+        <v>1.7</v>
+      </c>
+      <c r="BL245">
+        <v>2.05</v>
+      </c>
+      <c r="BM245">
+        <v>2.05</v>
+      </c>
+      <c r="BN245">
+        <v>1.7</v>
+      </c>
+      <c r="BO245">
+        <v>2.62</v>
+      </c>
+      <c r="BP245">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7327137</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45511.29166666666</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>81</v>
+      </c>
+      <c r="H246" t="s">
+        <v>82</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>3</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>245</v>
+      </c>
+      <c r="P246" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q246">
+        <v>3.6</v>
+      </c>
+      <c r="R246">
+        <v>2.3</v>
+      </c>
+      <c r="S246">
+        <v>2.75</v>
+      </c>
+      <c r="T246">
+        <v>1.3</v>
+      </c>
+      <c r="U246">
+        <v>3.4</v>
+      </c>
+      <c r="V246">
+        <v>2.5</v>
+      </c>
+      <c r="W246">
+        <v>1.5</v>
+      </c>
+      <c r="X246">
+        <v>6</v>
+      </c>
+      <c r="Y246">
+        <v>1.13</v>
+      </c>
+      <c r="Z246">
+        <v>3.08</v>
+      </c>
+      <c r="AA246">
+        <v>3.72</v>
+      </c>
+      <c r="AB246">
+        <v>2.17</v>
+      </c>
+      <c r="AC246">
+        <v>1.04</v>
+      </c>
+      <c r="AD246">
+        <v>10</v>
+      </c>
+      <c r="AE246">
+        <v>1.22</v>
+      </c>
+      <c r="AF246">
+        <v>4.2</v>
+      </c>
+      <c r="AG246">
+        <v>1.65</v>
+      </c>
+      <c r="AH246">
+        <v>2.1</v>
+      </c>
+      <c r="AI246">
+        <v>1.57</v>
+      </c>
+      <c r="AJ246">
+        <v>2.25</v>
+      </c>
+      <c r="AK246">
+        <v>1.62</v>
+      </c>
+      <c r="AL246">
+        <v>1.24</v>
+      </c>
+      <c r="AM246">
+        <v>1.3</v>
+      </c>
+      <c r="AN246">
+        <v>1.42</v>
+      </c>
+      <c r="AO246">
+        <v>2</v>
+      </c>
+      <c r="AP246">
+        <v>1.54</v>
+      </c>
+      <c r="AQ246">
+        <v>1.85</v>
+      </c>
+      <c r="AR246">
+        <v>1.68</v>
+      </c>
+      <c r="AS246">
+        <v>1.43</v>
+      </c>
+      <c r="AT246">
+        <v>3.11</v>
+      </c>
+      <c r="AU246">
+        <v>9</v>
+      </c>
+      <c r="AV246">
+        <v>3</v>
+      </c>
+      <c r="AW246">
+        <v>4</v>
+      </c>
+      <c r="AX246">
+        <v>5</v>
+      </c>
+      <c r="AY246">
+        <v>13</v>
+      </c>
+      <c r="AZ246">
+        <v>8</v>
+      </c>
+      <c r="BA246">
+        <v>7</v>
+      </c>
+      <c r="BB246">
+        <v>4</v>
+      </c>
+      <c r="BC246">
+        <v>11</v>
+      </c>
+      <c r="BD246">
+        <v>2.38</v>
+      </c>
+      <c r="BE246">
+        <v>8.5</v>
+      </c>
+      <c r="BF246">
+        <v>1.8</v>
+      </c>
+      <c r="BG246">
+        <v>1.18</v>
+      </c>
+      <c r="BH246">
+        <v>4.33</v>
+      </c>
+      <c r="BI246">
+        <v>1.33</v>
+      </c>
+      <c r="BJ246">
+        <v>3</v>
+      </c>
+      <c r="BK246">
+        <v>1.57</v>
+      </c>
+      <c r="BL246">
+        <v>2.35</v>
+      </c>
+      <c r="BM246">
+        <v>2</v>
+      </c>
+      <c r="BN246">
+        <v>1.8</v>
+      </c>
+      <c r="BO246">
+        <v>2.36</v>
+      </c>
+      <c r="BP246">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7327135</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45511.29166666666</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>84</v>
+      </c>
+      <c r="H247" t="s">
+        <v>74</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>3</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>3</v>
+      </c>
+      <c r="O247" t="s">
+        <v>246</v>
+      </c>
+      <c r="P247" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q247">
+        <v>2.1</v>
+      </c>
+      <c r="R247">
+        <v>2.4</v>
+      </c>
+      <c r="S247">
+        <v>5.5</v>
+      </c>
+      <c r="T247">
+        <v>1.3</v>
+      </c>
+      <c r="U247">
+        <v>3.4</v>
+      </c>
+      <c r="V247">
+        <v>2.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>6</v>
+      </c>
+      <c r="Y247">
+        <v>1.13</v>
+      </c>
+      <c r="Z247">
+        <v>1.53</v>
+      </c>
+      <c r="AA247">
+        <v>4.4</v>
+      </c>
+      <c r="AB247">
+        <v>5.75</v>
+      </c>
+      <c r="AC247">
+        <v>1.04</v>
+      </c>
+      <c r="AD247">
+        <v>10</v>
+      </c>
+      <c r="AE247">
+        <v>1.17</v>
+      </c>
+      <c r="AF247">
+        <v>4.15</v>
+      </c>
+      <c r="AG247">
+        <v>1.65</v>
+      </c>
+      <c r="AH247">
+        <v>2.1</v>
+      </c>
+      <c r="AI247">
+        <v>1.7</v>
+      </c>
+      <c r="AJ247">
+        <v>2.05</v>
+      </c>
+      <c r="AK247">
+        <v>1.1</v>
+      </c>
+      <c r="AL247">
+        <v>1.18</v>
+      </c>
+      <c r="AM247">
+        <v>2.29</v>
+      </c>
+      <c r="AN247">
+        <v>2.33</v>
+      </c>
+      <c r="AO247">
+        <v>0.91</v>
+      </c>
+      <c r="AP247">
+        <v>2.38</v>
+      </c>
+      <c r="AQ247">
+        <v>0.83</v>
+      </c>
+      <c r="AR247">
+        <v>1.34</v>
+      </c>
+      <c r="AS247">
+        <v>1.26</v>
+      </c>
+      <c r="AT247">
+        <v>2.6</v>
+      </c>
+      <c r="AU247">
+        <v>9</v>
+      </c>
+      <c r="AV247">
+        <v>6</v>
+      </c>
+      <c r="AW247">
+        <v>4</v>
+      </c>
+      <c r="AX247">
+        <v>3</v>
+      </c>
+      <c r="AY247">
+        <v>13</v>
+      </c>
+      <c r="AZ247">
+        <v>9</v>
+      </c>
+      <c r="BA247">
+        <v>5</v>
+      </c>
+      <c r="BB247">
+        <v>4</v>
+      </c>
+      <c r="BC247">
+        <v>9</v>
+      </c>
+      <c r="BD247">
+        <v>1.5</v>
+      </c>
+      <c r="BE247">
+        <v>8.5</v>
+      </c>
+      <c r="BF247">
+        <v>3</v>
+      </c>
+      <c r="BG247">
+        <v>1.2</v>
+      </c>
+      <c r="BH247">
+        <v>4</v>
+      </c>
+      <c r="BI247">
+        <v>1.36</v>
+      </c>
+      <c r="BJ247">
+        <v>2.9</v>
+      </c>
+      <c r="BK247">
+        <v>1.77</v>
+      </c>
+      <c r="BL247">
+        <v>1.95</v>
+      </c>
+      <c r="BM247">
+        <v>1.96</v>
+      </c>
+      <c r="BN247">
+        <v>1.85</v>
+      </c>
+      <c r="BO247">
+        <v>2.45</v>
+      </c>
+      <c r="BP247">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7327138</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45511.29166666666</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>76</v>
+      </c>
+      <c r="H248" t="s">
+        <v>73</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>197</v>
+      </c>
+      <c r="P248" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q248">
+        <v>3.1</v>
+      </c>
+      <c r="R248">
+        <v>2</v>
+      </c>
+      <c r="S248">
+        <v>4</v>
+      </c>
+      <c r="T248">
+        <v>1.5</v>
+      </c>
+      <c r="U248">
+        <v>2.5</v>
+      </c>
+      <c r="V248">
+        <v>3.5</v>
+      </c>
+      <c r="W248">
+        <v>1.29</v>
+      </c>
+      <c r="X248">
+        <v>10</v>
+      </c>
+      <c r="Y248">
+        <v>1.06</v>
+      </c>
+      <c r="Z248">
+        <v>2.35</v>
+      </c>
+      <c r="AA248">
+        <v>3.2</v>
+      </c>
+      <c r="AB248">
+        <v>3.16</v>
+      </c>
+      <c r="AC248">
+        <v>1.08</v>
+      </c>
+      <c r="AD248">
+        <v>7.5</v>
+      </c>
+      <c r="AE248">
+        <v>1.42</v>
+      </c>
+      <c r="AF248">
+        <v>2.8</v>
+      </c>
+      <c r="AG248">
+        <v>2.2</v>
+      </c>
+      <c r="AH248">
+        <v>1.6</v>
+      </c>
+      <c r="AI248">
+        <v>1.95</v>
+      </c>
+      <c r="AJ248">
+        <v>1.8</v>
+      </c>
+      <c r="AK248">
+        <v>1.31</v>
+      </c>
+      <c r="AL248">
+        <v>1.3</v>
+      </c>
+      <c r="AM248">
+        <v>1.52</v>
+      </c>
+      <c r="AN248">
+        <v>1</v>
+      </c>
+      <c r="AO248">
+        <v>1.64</v>
+      </c>
+      <c r="AP248">
+        <v>1</v>
+      </c>
+      <c r="AQ248">
+        <v>1.58</v>
+      </c>
+      <c r="AR248">
+        <v>1.61</v>
+      </c>
+      <c r="AS248">
+        <v>1.19</v>
+      </c>
+      <c r="AT248">
+        <v>2.8</v>
+      </c>
+      <c r="AU248">
+        <v>5</v>
+      </c>
+      <c r="AV248">
+        <v>6</v>
+      </c>
+      <c r="AW248">
+        <v>4</v>
+      </c>
+      <c r="AX248">
+        <v>6</v>
+      </c>
+      <c r="AY248">
+        <v>9</v>
+      </c>
+      <c r="AZ248">
+        <v>12</v>
+      </c>
+      <c r="BA248">
+        <v>1</v>
+      </c>
+      <c r="BB248">
+        <v>9</v>
+      </c>
+      <c r="BC248">
+        <v>10</v>
+      </c>
+      <c r="BD248">
+        <v>1.5</v>
+      </c>
+      <c r="BE248">
+        <v>8.5</v>
+      </c>
+      <c r="BF248">
+        <v>3</v>
+      </c>
+      <c r="BG248">
+        <v>1.22</v>
+      </c>
+      <c r="BH248">
+        <v>3.8</v>
+      </c>
+      <c r="BI248">
+        <v>1.4</v>
+      </c>
+      <c r="BJ248">
+        <v>2.7</v>
+      </c>
+      <c r="BK248">
+        <v>1.68</v>
+      </c>
+      <c r="BL248">
+        <v>2.18</v>
+      </c>
+      <c r="BM248">
+        <v>2.05</v>
+      </c>
+      <c r="BN248">
+        <v>1.7</v>
+      </c>
+      <c r="BO248">
+        <v>2.5</v>
+      </c>
+      <c r="BP248">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7327144</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45511.3125</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>80</v>
+      </c>
+      <c r="H249" t="s">
+        <v>89</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>3</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>2</v>
+      </c>
+      <c r="N249">
+        <v>5</v>
+      </c>
+      <c r="O249" t="s">
+        <v>247</v>
+      </c>
+      <c r="P249" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q249">
+        <v>2.1</v>
+      </c>
+      <c r="R249">
+        <v>2.6</v>
+      </c>
+      <c r="S249">
+        <v>4.75</v>
+      </c>
+      <c r="T249">
+        <v>1.25</v>
+      </c>
+      <c r="U249">
+        <v>3.75</v>
+      </c>
+      <c r="V249">
+        <v>2.2</v>
+      </c>
+      <c r="W249">
+        <v>1.62</v>
+      </c>
+      <c r="X249">
+        <v>5</v>
+      </c>
+      <c r="Y249">
+        <v>1.17</v>
+      </c>
+      <c r="Z249">
+        <v>1.62</v>
+      </c>
+      <c r="AA249">
+        <v>4.3</v>
+      </c>
+      <c r="AB249">
+        <v>4.35</v>
+      </c>
+      <c r="AC249">
+        <v>1.04</v>
+      </c>
+      <c r="AD249">
+        <v>10</v>
+      </c>
+      <c r="AE249">
+        <v>1.11</v>
+      </c>
+      <c r="AF249">
+        <v>5.25</v>
+      </c>
+      <c r="AG249">
+        <v>1.45</v>
+      </c>
+      <c r="AH249">
+        <v>2.55</v>
+      </c>
+      <c r="AI249">
+        <v>1.53</v>
+      </c>
+      <c r="AJ249">
+        <v>2.38</v>
+      </c>
+      <c r="AK249">
+        <v>1.14</v>
+      </c>
+      <c r="AL249">
+        <v>1.17</v>
+      </c>
+      <c r="AM249">
+        <v>2.18</v>
+      </c>
+      <c r="AN249">
+        <v>1.36</v>
+      </c>
+      <c r="AO249">
+        <v>0.5</v>
+      </c>
+      <c r="AP249">
+        <v>1.5</v>
+      </c>
+      <c r="AQ249">
+        <v>0.46</v>
+      </c>
+      <c r="AR249">
+        <v>1.75</v>
+      </c>
+      <c r="AS249">
+        <v>1.22</v>
+      </c>
+      <c r="AT249">
+        <v>2.97</v>
+      </c>
+      <c r="AU249">
+        <v>8</v>
+      </c>
+      <c r="AV249">
+        <v>3</v>
+      </c>
+      <c r="AW249">
+        <v>3</v>
+      </c>
+      <c r="AX249">
+        <v>6</v>
+      </c>
+      <c r="AY249">
+        <v>11</v>
+      </c>
+      <c r="AZ249">
+        <v>9</v>
+      </c>
+      <c r="BA249">
+        <v>3</v>
+      </c>
+      <c r="BB249">
+        <v>4</v>
+      </c>
+      <c r="BC249">
+        <v>7</v>
+      </c>
+      <c r="BD249">
+        <v>1.5</v>
+      </c>
+      <c r="BE249">
+        <v>9</v>
+      </c>
+      <c r="BF249">
+        <v>3.1</v>
+      </c>
+      <c r="BG249">
+        <v>1.17</v>
+      </c>
+      <c r="BH249">
+        <v>4.5</v>
+      </c>
+      <c r="BI249">
+        <v>1.3</v>
+      </c>
+      <c r="BJ249">
+        <v>3.2</v>
+      </c>
+      <c r="BK249">
+        <v>1.51</v>
+      </c>
+      <c r="BL249">
+        <v>2.51</v>
+      </c>
+      <c r="BM249">
+        <v>2.05</v>
+      </c>
+      <c r="BN249">
+        <v>1.7</v>
+      </c>
+      <c r="BO249">
+        <v>2.25</v>
+      </c>
+      <c r="BP249">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1443,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ11">
         <v>1.31</v>
@@ -5285,7 +5285,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ19">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8990,7 +8990,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -9814,7 +9814,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ41">
         <v>1.46</v>
@@ -12907,7 +12907,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -14140,7 +14140,7 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ62">
         <v>1.17</v>
@@ -17027,7 +17027,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ76">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17848,7 +17848,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -18263,7 +18263,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ82">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -21144,7 +21144,7 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ96">
         <v>1.58</v>
@@ -22383,7 +22383,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ102">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -24440,7 +24440,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ112">
         <v>0.77</v>
@@ -28972,7 +28972,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ134">
         <v>1.58</v>
@@ -31035,7 +31035,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ144">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -33301,7 +33301,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ155">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR155">
         <v>1.58</v>
@@ -35770,7 +35770,7 @@
         <v>0.43</v>
       </c>
       <c r="AP167">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ167">
         <v>0.46</v>
@@ -38451,7 +38451,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -38860,7 +38860,7 @@
         <v>1.88</v>
       </c>
       <c r="AP182">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ182">
         <v>1.23</v>
@@ -39687,7 +39687,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ186">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR186">
         <v>1.43</v>
@@ -42983,7 +42983,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ202">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR202">
         <v>1.68</v>
@@ -46070,7 +46070,7 @@
         <v>1.3</v>
       </c>
       <c r="AP217">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ217">
         <v>1.25</v>
@@ -47718,7 +47718,7 @@
         <v>2.36</v>
       </c>
       <c r="AP225">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ225">
         <v>2.31</v>
@@ -51017,7 +51017,7 @@
         <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR241">
         <v>1.42</v>
@@ -51462,10 +51462,10 @@
         <v>9</v>
       </c>
       <c r="BB243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC243">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD243">
         <v>1.95</v>
@@ -52130,7 +52130,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>7327135</v>
+        <v>7327136</v>
       </c>
       <c r="C247" t="s">
         <v>68</v>
@@ -52145,190 +52145,190 @@
         <v>25</v>
       </c>
       <c r="G247" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H247" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
       </c>
       <c r="K247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O247" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="P247" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="Q247">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="R247">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S247">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="T247">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U247">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V247">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X247">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y247">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z247">
-        <v>1.53</v>
+        <v>3.96</v>
       </c>
       <c r="AA247">
-        <v>4.4</v>
+        <v>3.62</v>
       </c>
       <c r="AB247">
-        <v>5.75</v>
+        <v>1.9</v>
       </c>
       <c r="AC247">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD247">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE247">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AF247">
-        <v>4.15</v>
+        <v>3.3</v>
       </c>
       <c r="AG247">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AH247">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AI247">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ247">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK247">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="AL247">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AM247">
-        <v>2.29</v>
+        <v>1.19</v>
       </c>
       <c r="AN247">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO247">
-        <v>0.91</v>
+        <v>1.58</v>
       </c>
       <c r="AP247">
-        <v>2.38</v>
+        <v>1.23</v>
       </c>
       <c r="AQ247">
-        <v>0.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR247">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS247">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AT247">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="AU247">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV247">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY247">
         <v>13</v>
       </c>
       <c r="AZ247">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA247">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB247">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC247">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD247">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="BE247">
         <v>8.5</v>
       </c>
       <c r="BF247">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BG247">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH247">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="BI247">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="BJ247">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BK247">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BL247">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BM247">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="BN247">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="BO247">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BP247">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="248" spans="1:68">
@@ -52336,7 +52336,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>7327138</v>
+        <v>7327135</v>
       </c>
       <c r="C248" t="s">
         <v>68</v>
@@ -52351,127 +52351,127 @@
         <v>25</v>
       </c>
       <c r="G248" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H248" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248">
         <v>0</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O248" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="P248" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="Q248">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S248">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T248">
+        <v>1.3</v>
+      </c>
+      <c r="U248">
+        <v>3.4</v>
+      </c>
+      <c r="V248">
+        <v>2.5</v>
+      </c>
+      <c r="W248">
         <v>1.5</v>
       </c>
-      <c r="U248">
-        <v>2.5</v>
-      </c>
-      <c r="V248">
-        <v>3.5</v>
-      </c>
-      <c r="W248">
-        <v>1.29</v>
-      </c>
       <c r="X248">
+        <v>6</v>
+      </c>
+      <c r="Y248">
+        <v>1.13</v>
+      </c>
+      <c r="Z248">
+        <v>1.53</v>
+      </c>
+      <c r="AA248">
+        <v>4.4</v>
+      </c>
+      <c r="AB248">
+        <v>5.75</v>
+      </c>
+      <c r="AC248">
+        <v>1.04</v>
+      </c>
+      <c r="AD248">
         <v>10</v>
       </c>
-      <c r="Y248">
-        <v>1.06</v>
-      </c>
-      <c r="Z248">
-        <v>2.35</v>
-      </c>
-      <c r="AA248">
-        <v>3.2</v>
-      </c>
-      <c r="AB248">
-        <v>3.16</v>
-      </c>
-      <c r="AC248">
-        <v>1.08</v>
-      </c>
-      <c r="AD248">
-        <v>7.5</v>
-      </c>
       <c r="AE248">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AF248">
-        <v>2.8</v>
+        <v>4.15</v>
       </c>
       <c r="AG248">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="AH248">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AI248">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AJ248">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AK248">
-        <v>1.31</v>
+        <v>1.1</v>
       </c>
       <c r="AL248">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AM248">
-        <v>1.52</v>
+        <v>2.29</v>
       </c>
       <c r="AN248">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AO248">
-        <v>1.64</v>
+        <v>0.91</v>
       </c>
       <c r="AP248">
-        <v>1</v>
+        <v>2.38</v>
       </c>
       <c r="AQ248">
-        <v>1.58</v>
+        <v>0.83</v>
       </c>
       <c r="AR248">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AS248">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT248">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AU248">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV248">
         <v>6</v>
@@ -52480,22 +52480,22 @@
         <v>4</v>
       </c>
       <c r="AX248">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY248">
+        <v>13</v>
+      </c>
+      <c r="AZ248">
         <v>9</v>
       </c>
-      <c r="AZ248">
-        <v>12</v>
-      </c>
       <c r="BA248">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB248">
+        <v>4</v>
+      </c>
+      <c r="BC248">
         <v>9</v>
-      </c>
-      <c r="BC248">
-        <v>10</v>
       </c>
       <c r="BD248">
         <v>1.5</v>
@@ -52507,34 +52507,34 @@
         <v>3</v>
       </c>
       <c r="BG248">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH248">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BI248">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BJ248">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BK248">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="BL248">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="BM248">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="BN248">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BO248">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="BP248">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="249" spans="1:68">
@@ -52542,7 +52542,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>7327144</v>
+        <v>7327138</v>
       </c>
       <c r="C249" t="s">
         <v>68</v>
@@ -52551,184 +52551,184 @@
         <v>69</v>
       </c>
       <c r="E249" s="2">
-        <v>45511.3125</v>
+        <v>45511.29166666666</v>
       </c>
       <c r="F249">
         <v>25</v>
       </c>
       <c r="G249" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H249" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K249">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>197</v>
+      </c>
+      <c r="P249" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q249">
+        <v>3.1</v>
+      </c>
+      <c r="R249">
+        <v>2</v>
+      </c>
+      <c r="S249">
+        <v>4</v>
+      </c>
+      <c r="T249">
+        <v>1.5</v>
+      </c>
+      <c r="U249">
+        <v>2.5</v>
+      </c>
+      <c r="V249">
+        <v>3.5</v>
+      </c>
+      <c r="W249">
+        <v>1.29</v>
+      </c>
+      <c r="X249">
+        <v>10</v>
+      </c>
+      <c r="Y249">
+        <v>1.06</v>
+      </c>
+      <c r="Z249">
+        <v>2.35</v>
+      </c>
+      <c r="AA249">
+        <v>3.2</v>
+      </c>
+      <c r="AB249">
+        <v>3.16</v>
+      </c>
+      <c r="AC249">
+        <v>1.08</v>
+      </c>
+      <c r="AD249">
+        <v>7.5</v>
+      </c>
+      <c r="AE249">
+        <v>1.42</v>
+      </c>
+      <c r="AF249">
+        <v>2.8</v>
+      </c>
+      <c r="AG249">
+        <v>2.2</v>
+      </c>
+      <c r="AH249">
+        <v>1.6</v>
+      </c>
+      <c r="AI249">
+        <v>1.95</v>
+      </c>
+      <c r="AJ249">
+        <v>1.8</v>
+      </c>
+      <c r="AK249">
+        <v>1.31</v>
+      </c>
+      <c r="AL249">
+        <v>1.3</v>
+      </c>
+      <c r="AM249">
+        <v>1.52</v>
+      </c>
+      <c r="AN249">
+        <v>1</v>
+      </c>
+      <c r="AO249">
+        <v>1.64</v>
+      </c>
+      <c r="AP249">
+        <v>1</v>
+      </c>
+      <c r="AQ249">
+        <v>1.58</v>
+      </c>
+      <c r="AR249">
+        <v>1.61</v>
+      </c>
+      <c r="AS249">
+        <v>1.19</v>
+      </c>
+      <c r="AT249">
+        <v>2.8</v>
+      </c>
+      <c r="AU249">
         <v>5</v>
       </c>
-      <c r="O249" t="s">
-        <v>247</v>
-      </c>
-      <c r="P249" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q249">
-        <v>2.1</v>
-      </c>
-      <c r="R249">
-        <v>2.6</v>
-      </c>
-      <c r="S249">
-        <v>4.75</v>
-      </c>
-      <c r="T249">
-        <v>1.25</v>
-      </c>
-      <c r="U249">
-        <v>3.75</v>
-      </c>
-      <c r="V249">
-        <v>2.2</v>
-      </c>
-      <c r="W249">
-        <v>1.62</v>
-      </c>
-      <c r="X249">
-        <v>5</v>
-      </c>
-      <c r="Y249">
-        <v>1.17</v>
-      </c>
-      <c r="Z249">
-        <v>1.62</v>
-      </c>
-      <c r="AA249">
-        <v>4.3</v>
-      </c>
-      <c r="AB249">
-        <v>4.35</v>
-      </c>
-      <c r="AC249">
-        <v>1.04</v>
-      </c>
-      <c r="AD249">
-        <v>10</v>
-      </c>
-      <c r="AE249">
-        <v>1.11</v>
-      </c>
-      <c r="AF249">
-        <v>5.25</v>
-      </c>
-      <c r="AG249">
-        <v>1.45</v>
-      </c>
-      <c r="AH249">
-        <v>2.55</v>
-      </c>
-      <c r="AI249">
-        <v>1.53</v>
-      </c>
-      <c r="AJ249">
-        <v>2.38</v>
-      </c>
-      <c r="AK249">
-        <v>1.14</v>
-      </c>
-      <c r="AL249">
-        <v>1.17</v>
-      </c>
-      <c r="AM249">
-        <v>2.18</v>
-      </c>
-      <c r="AN249">
-        <v>1.36</v>
-      </c>
-      <c r="AO249">
-        <v>0.5</v>
-      </c>
-      <c r="AP249">
-        <v>1.5</v>
-      </c>
-      <c r="AQ249">
-        <v>0.46</v>
-      </c>
-      <c r="AR249">
-        <v>1.75</v>
-      </c>
-      <c r="AS249">
-        <v>1.22</v>
-      </c>
-      <c r="AT249">
-        <v>2.97</v>
-      </c>
-      <c r="AU249">
-        <v>8</v>
-      </c>
       <c r="AV249">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX249">
         <v>6</v>
       </c>
       <c r="AY249">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ249">
+        <v>12</v>
+      </c>
+      <c r="BA249">
+        <v>1</v>
+      </c>
+      <c r="BB249">
         <v>9</v>
       </c>
-      <c r="BA249">
-        <v>3</v>
-      </c>
-      <c r="BB249">
-        <v>4</v>
-      </c>
       <c r="BC249">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD249">
         <v>1.5</v>
       </c>
       <c r="BE249">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF249">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="BG249">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="BH249">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="BI249">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BJ249">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="BK249">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="BL249">
-        <v>2.51</v>
+        <v>2.18</v>
       </c>
       <c r="BM249">
         <v>2.05</v>
@@ -52737,9 +52737,215 @@
         <v>1.7</v>
       </c>
       <c r="BO249">
+        <v>2.5</v>
+      </c>
+      <c r="BP249">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7327144</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45511.3125</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>80</v>
+      </c>
+      <c r="H250" t="s">
+        <v>89</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+      <c r="N250">
+        <v>5</v>
+      </c>
+      <c r="O250" t="s">
+        <v>247</v>
+      </c>
+      <c r="P250" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q250">
+        <v>2.1</v>
+      </c>
+      <c r="R250">
+        <v>2.6</v>
+      </c>
+      <c r="S250">
+        <v>4.75</v>
+      </c>
+      <c r="T250">
+        <v>1.25</v>
+      </c>
+      <c r="U250">
+        <v>3.75</v>
+      </c>
+      <c r="V250">
+        <v>2.2</v>
+      </c>
+      <c r="W250">
+        <v>1.62</v>
+      </c>
+      <c r="X250">
+        <v>5</v>
+      </c>
+      <c r="Y250">
+        <v>1.17</v>
+      </c>
+      <c r="Z250">
+        <v>1.62</v>
+      </c>
+      <c r="AA250">
+        <v>4.3</v>
+      </c>
+      <c r="AB250">
+        <v>4.35</v>
+      </c>
+      <c r="AC250">
+        <v>1.04</v>
+      </c>
+      <c r="AD250">
+        <v>10</v>
+      </c>
+      <c r="AE250">
+        <v>1.11</v>
+      </c>
+      <c r="AF250">
+        <v>5.25</v>
+      </c>
+      <c r="AG250">
+        <v>1.45</v>
+      </c>
+      <c r="AH250">
+        <v>2.55</v>
+      </c>
+      <c r="AI250">
+        <v>1.53</v>
+      </c>
+      <c r="AJ250">
+        <v>2.38</v>
+      </c>
+      <c r="AK250">
+        <v>1.14</v>
+      </c>
+      <c r="AL250">
+        <v>1.17</v>
+      </c>
+      <c r="AM250">
+        <v>2.18</v>
+      </c>
+      <c r="AN250">
+        <v>1.36</v>
+      </c>
+      <c r="AO250">
+        <v>0.5</v>
+      </c>
+      <c r="AP250">
+        <v>1.5</v>
+      </c>
+      <c r="AQ250">
+        <v>0.46</v>
+      </c>
+      <c r="AR250">
+        <v>1.75</v>
+      </c>
+      <c r="AS250">
+        <v>1.22</v>
+      </c>
+      <c r="AT250">
+        <v>2.97</v>
+      </c>
+      <c r="AU250">
+        <v>8</v>
+      </c>
+      <c r="AV250">
+        <v>3</v>
+      </c>
+      <c r="AW250">
+        <v>3</v>
+      </c>
+      <c r="AX250">
+        <v>6</v>
+      </c>
+      <c r="AY250">
+        <v>11</v>
+      </c>
+      <c r="AZ250">
+        <v>9</v>
+      </c>
+      <c r="BA250">
+        <v>3</v>
+      </c>
+      <c r="BB250">
+        <v>4</v>
+      </c>
+      <c r="BC250">
+        <v>7</v>
+      </c>
+      <c r="BD250">
+        <v>1.5</v>
+      </c>
+      <c r="BE250">
+        <v>9</v>
+      </c>
+      <c r="BF250">
+        <v>3.1</v>
+      </c>
+      <c r="BG250">
+        <v>1.17</v>
+      </c>
+      <c r="BH250">
+        <v>4.5</v>
+      </c>
+      <c r="BI250">
+        <v>1.3</v>
+      </c>
+      <c r="BJ250">
+        <v>3.2</v>
+      </c>
+      <c r="BK250">
+        <v>1.51</v>
+      </c>
+      <c r="BL250">
+        <v>2.51</v>
+      </c>
+      <c r="BM250">
+        <v>2.05</v>
+      </c>
+      <c r="BN250">
+        <v>1.7</v>
+      </c>
+      <c r="BO250">
         <v>2.25</v>
       </c>
-      <c r="BP249">
+      <c r="BP250">
         <v>1.62</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,9 @@
     <t>['4', '31', '51']</t>
   </si>
   <si>
+    <t>['65', '90+9']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1082,6 +1085,9 @@
   </si>
   <si>
     <t>['12', '57']</t>
+  </si>
+  <si>
+    <t>['14', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP250"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1908,7 +1914,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2114,7 +2120,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2526,7 +2532,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2938,7 +2944,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3144,7 +3150,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3556,7 +3562,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3762,7 +3768,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3843,7 +3849,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3968,7 +3974,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4174,7 +4180,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4586,7 +4592,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4998,7 +5004,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5204,7 +5210,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5616,7 +5622,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5822,7 +5828,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6852,7 +6858,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7548,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ30">
         <v>1.09</v>
@@ -7676,7 +7682,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7882,7 +7888,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7960,7 +7966,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ32">
         <v>2.31</v>
@@ -8294,7 +8300,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8706,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8912,7 +8918,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9118,7 +9124,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9530,7 +9536,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9736,7 +9742,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9942,7 +9948,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10766,7 +10772,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11053,7 +11059,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ47">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -12414,7 +12420,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12826,7 +12832,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13444,7 +13450,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13522,7 +13528,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ59">
         <v>1.23</v>
@@ -13650,7 +13656,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13934,7 +13940,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ61">
         <v>1.58</v>
@@ -14268,7 +14274,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14474,7 +14480,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14680,7 +14686,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15092,7 +15098,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15379,7 +15385,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ68">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -16328,7 +16334,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16534,7 +16540,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17358,7 +17364,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17770,7 +17776,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17976,7 +17982,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18260,7 +18266,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ82">
         <v>1.69</v>
@@ -18388,7 +18394,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18594,7 +18600,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -19624,7 +19630,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19830,7 +19836,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20036,7 +20042,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20114,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ91">
         <v>1.08</v>
@@ -20654,7 +20660,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20860,7 +20866,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21147,7 +21153,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ96">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21272,7 +21278,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21478,7 +21484,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21890,7 +21896,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22302,7 +22308,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22714,7 +22720,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23332,7 +23338,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23744,7 +23750,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23950,7 +23956,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24156,7 +24162,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24362,7 +24368,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24980,7 +24986,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25264,7 +25270,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25392,7 +25398,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25598,7 +25604,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -26010,7 +26016,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26216,7 +26222,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26422,7 +26428,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26503,7 +26509,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ122">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26628,7 +26634,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -27246,7 +27252,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27452,7 +27458,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27658,7 +27664,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27864,7 +27870,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28070,7 +28076,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28560,7 +28566,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ132">
         <v>0.77</v>
@@ -29306,7 +29312,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29512,7 +29518,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29799,7 +29805,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -30130,7 +30136,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30336,7 +30342,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30748,7 +30754,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30954,7 +30960,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31778,7 +31784,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32190,7 +32196,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32268,7 +32274,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ150">
         <v>1.33</v>
@@ -32396,7 +32402,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32602,7 +32608,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32683,7 +32689,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ152">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32808,7 +32814,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33426,7 +33432,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34250,7 +34256,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34662,7 +34668,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34868,7 +34874,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35074,7 +35080,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35692,7 +35698,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36104,7 +36110,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36185,7 +36191,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ169">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR169">
         <v>1.41</v>
@@ -36310,7 +36316,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36516,7 +36522,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37546,7 +37552,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -38370,7 +38376,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38657,7 +38663,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ181">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38988,7 +38994,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39194,7 +39200,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39400,7 +39406,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39812,7 +39818,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40224,7 +40230,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40430,7 +40436,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40508,7 +40514,7 @@
         <v>1.22</v>
       </c>
       <c r="AP190">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ190">
         <v>1.31</v>
@@ -40636,7 +40642,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -41872,7 +41878,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42490,7 +42496,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42774,7 +42780,7 @@
         <v>1.2</v>
       </c>
       <c r="AP201">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ201">
         <v>1.38</v>
@@ -43108,7 +43114,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43314,7 +43320,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43520,7 +43526,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44013,7 +44019,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ207">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR207">
         <v>1.33</v>
@@ -44138,7 +44144,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44344,7 +44350,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44962,7 +44968,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45580,7 +45586,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45786,7 +45792,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45992,7 +45998,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46198,7 +46204,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46610,7 +46616,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46816,7 +46822,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -47022,7 +47028,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47100,7 +47106,7 @@
         <v>2.09</v>
       </c>
       <c r="AP222">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ222">
         <v>1.85</v>
@@ -48133,7 +48139,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ227">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR227">
         <v>2.1</v>
@@ -48670,7 +48676,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48876,7 +48882,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49082,7 +49088,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49288,7 +49294,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49494,7 +49500,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49700,7 +49706,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49906,7 +49912,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -50318,7 +50324,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50524,7 +50530,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50730,7 +50736,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50936,7 +50942,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51348,7 +51354,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q243">
         <v>3.6</v>
@@ -51554,7 +51560,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -52665,7 +52671,7 @@
         <v>1</v>
       </c>
       <c r="AQ249">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR249">
         <v>1.61</v>
@@ -52790,7 +52796,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -52947,6 +52953,212 @@
       </c>
       <c r="BP250">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7327145</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45514.08333333334</v>
+      </c>
+      <c r="F251">
+        <v>26</v>
+      </c>
+      <c r="G251" t="s">
+        <v>89</v>
+      </c>
+      <c r="H251" t="s">
+        <v>73</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>4</v>
+      </c>
+      <c r="O251" t="s">
+        <v>248</v>
+      </c>
+      <c r="P251" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q251">
+        <v>3.5</v>
+      </c>
+      <c r="R251">
+        <v>2.05</v>
+      </c>
+      <c r="S251">
+        <v>3.25</v>
+      </c>
+      <c r="T251">
+        <v>1.44</v>
+      </c>
+      <c r="U251">
+        <v>2.63</v>
+      </c>
+      <c r="V251">
+        <v>3.25</v>
+      </c>
+      <c r="W251">
+        <v>1.33</v>
+      </c>
+      <c r="X251">
+        <v>10</v>
+      </c>
+      <c r="Y251">
+        <v>1.06</v>
+      </c>
+      <c r="Z251">
+        <v>2.72</v>
+      </c>
+      <c r="AA251">
+        <v>3.06</v>
+      </c>
+      <c r="AB251">
+        <v>2.46</v>
+      </c>
+      <c r="AC251">
+        <v>1.08</v>
+      </c>
+      <c r="AD251">
+        <v>6.5</v>
+      </c>
+      <c r="AE251">
+        <v>1.36</v>
+      </c>
+      <c r="AF251">
+        <v>2.95</v>
+      </c>
+      <c r="AG251">
+        <v>2.14</v>
+      </c>
+      <c r="AH251">
+        <v>1.67</v>
+      </c>
+      <c r="AI251">
+        <v>1.91</v>
+      </c>
+      <c r="AJ251">
+        <v>1.91</v>
+      </c>
+      <c r="AK251">
+        <v>1.52</v>
+      </c>
+      <c r="AL251">
+        <v>1.28</v>
+      </c>
+      <c r="AM251">
+        <v>1.4</v>
+      </c>
+      <c r="AN251">
+        <v>0.75</v>
+      </c>
+      <c r="AO251">
+        <v>1.58</v>
+      </c>
+      <c r="AP251">
+        <v>0.77</v>
+      </c>
+      <c r="AQ251">
+        <v>1.54</v>
+      </c>
+      <c r="AR251">
+        <v>1.31</v>
+      </c>
+      <c r="AS251">
+        <v>1.21</v>
+      </c>
+      <c r="AT251">
+        <v>2.52</v>
+      </c>
+      <c r="AU251">
+        <v>4</v>
+      </c>
+      <c r="AV251">
+        <v>9</v>
+      </c>
+      <c r="AW251">
+        <v>5</v>
+      </c>
+      <c r="AX251">
+        <v>4</v>
+      </c>
+      <c r="AY251">
+        <v>9</v>
+      </c>
+      <c r="AZ251">
+        <v>13</v>
+      </c>
+      <c r="BA251">
+        <v>2</v>
+      </c>
+      <c r="BB251">
+        <v>3</v>
+      </c>
+      <c r="BC251">
+        <v>5</v>
+      </c>
+      <c r="BD251">
+        <v>1.77</v>
+      </c>
+      <c r="BE251">
+        <v>6.55</v>
+      </c>
+      <c r="BF251">
+        <v>2.66</v>
+      </c>
+      <c r="BG251">
+        <v>1.33</v>
+      </c>
+      <c r="BH251">
+        <v>3.1</v>
+      </c>
+      <c r="BI251">
+        <v>1.57</v>
+      </c>
+      <c r="BJ251">
+        <v>2.3</v>
+      </c>
+      <c r="BK251">
+        <v>1.95</v>
+      </c>
+      <c r="BL251">
+        <v>1.8</v>
+      </c>
+      <c r="BM251">
+        <v>2.5</v>
+      </c>
+      <c r="BN251">
+        <v>1.5</v>
+      </c>
+      <c r="BO251">
+        <v>3.3</v>
+      </c>
+      <c r="BP251">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,15 @@
     <t>['65', '90+9']</t>
   </si>
   <si>
+    <t>['78', '85']</t>
+  </si>
+  <si>
+    <t>['77', '89']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -797,9 +806,6 @@
   </si>
   <si>
     <t>['69']</t>
-  </si>
-  <si>
-    <t>['42']</t>
   </si>
   <si>
     <t>['35']</t>
@@ -1088,6 +1094,12 @@
   </si>
   <si>
     <t>['14', '90+6']</t>
+  </si>
+  <si>
+    <t>['14', '20', '72']</t>
+  </si>
+  <si>
+    <t>['45+3', '65']</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1786,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ2">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1914,7 +1926,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -1992,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2120,7 +2132,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2198,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2532,7 +2544,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2816,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ7">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2944,7 +2956,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3025,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3150,7 +3162,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3434,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ10">
         <v>1.46</v>
@@ -3562,7 +3574,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3768,7 +3780,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3846,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>1.54</v>
@@ -3974,7 +3986,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4180,7 +4192,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4464,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>2.31</v>
@@ -4592,7 +4604,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4673,7 +4685,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ16">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5004,7 +5016,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5085,7 +5097,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5210,7 +5222,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5288,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ19">
         <v>1.69</v>
@@ -5622,7 +5634,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>2.05</v>
@@ -5703,7 +5715,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5828,7 +5840,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5906,7 +5918,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
         <v>1.17</v>
@@ -6318,10 +6330,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6524,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ25">
         <v>0.83</v>
@@ -6733,7 +6745,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ26">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR26">
         <v>0.92</v>
@@ -6858,7 +6870,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6936,10 +6948,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR27">
         <v>1.14</v>
@@ -7351,7 +7363,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7557,7 +7569,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ30">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7682,7 +7694,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7888,7 +7900,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8300,7 +8312,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8381,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8712,7 +8724,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8790,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ36">
         <v>1.23</v>
@@ -8918,7 +8930,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9124,7 +9136,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9411,7 +9423,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ39">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>1.13</v>
@@ -9536,7 +9548,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9617,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9742,7 +9754,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9948,7 +9960,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10026,10 +10038,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ42">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10772,7 +10784,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10850,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -11468,7 +11480,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ49">
         <v>1.31</v>
@@ -11677,7 +11689,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ50">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR50">
         <v>1.4</v>
@@ -11883,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR51">
         <v>1.44</v>
@@ -12089,7 +12101,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12292,7 +12304,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
@@ -12420,7 +12432,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12501,7 +12513,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12832,7 +12844,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12910,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ56">
         <v>1.69</v>
@@ -13116,10 +13128,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13322,10 +13334,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR58">
         <v>2.12</v>
@@ -13450,7 +13462,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13656,7 +13668,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13734,10 +13746,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ60">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13943,7 +13955,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ61">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -14274,7 +14286,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14480,7 +14492,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14561,7 +14573,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14686,7 +14698,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14970,10 +14982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ66">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR66">
         <v>2.42</v>
@@ -15098,7 +15110,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15382,7 +15394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ68">
         <v>1.54</v>
@@ -15794,10 +15806,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -16000,10 +16012,10 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -16206,10 +16218,10 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ72">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16334,7 +16346,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16412,10 +16424,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR73">
         <v>1.82</v>
@@ -16540,7 +16552,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16824,7 +16836,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
         <v>1.23</v>
@@ -17364,7 +17376,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17442,10 +17454,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ78">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR78">
         <v>1.27</v>
@@ -17651,7 +17663,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ79">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR79">
         <v>1.43</v>
@@ -17776,7 +17788,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17982,7 +17994,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18394,7 +18406,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18600,7 +18612,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18681,7 +18693,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -18887,7 +18899,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR85">
         <v>1.39</v>
@@ -19299,7 +19311,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ87">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19505,7 +19517,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19630,7 +19642,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19708,7 +19720,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ89">
         <v>2.31</v>
@@ -19836,7 +19848,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19914,10 +19926,10 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -20042,7 +20054,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20123,7 +20135,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ91">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20326,7 +20338,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92">
         <v>2.31</v>
@@ -20660,7 +20672,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20866,7 +20878,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21278,7 +21290,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21356,10 +21368,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ97">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR97">
         <v>2.45</v>
@@ -21484,7 +21496,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21768,7 +21780,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ99">
         <v>0.83</v>
@@ -21896,7 +21908,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -21977,7 +21989,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22180,7 +22192,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>0.77</v>
@@ -22308,7 +22320,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22595,7 +22607,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ103">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR103">
         <v>1.34</v>
@@ -22720,7 +22732,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22798,7 +22810,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ104">
         <v>1.46</v>
@@ -23004,7 +23016,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ105">
         <v>1.17</v>
@@ -23338,7 +23350,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23419,7 +23431,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23625,7 +23637,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ108">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23750,7 +23762,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23831,7 +23843,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ109">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -23956,7 +23968,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24034,10 +24046,10 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR110">
         <v>0.91</v>
@@ -24162,7 +24174,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24368,7 +24380,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24655,7 +24667,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -24861,7 +24873,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ114">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR114">
         <v>1.34</v>
@@ -24986,7 +24998,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25398,7 +25410,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25476,7 +25488,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ117">
         <v>1.23</v>
@@ -25604,7 +25616,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25682,10 +25694,10 @@
         <v>1</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ118">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -26016,7 +26028,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26222,7 +26234,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26303,7 +26315,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ121">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR121">
         <v>1.28</v>
@@ -26428,7 +26440,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26634,7 +26646,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26712,7 +26724,7 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
         <v>0.83</v>
@@ -27252,7 +27264,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27330,10 +27342,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27458,7 +27470,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27539,7 +27551,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ127">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27664,7 +27676,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27742,7 +27754,7 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -27870,7 +27882,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27951,7 +27963,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28076,7 +28088,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28154,10 +28166,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ130">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -28360,7 +28372,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28772,10 +28784,10 @@
         <v>0.86</v>
       </c>
       <c r="AP133">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ133">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -28981,7 +28993,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ134">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29184,10 +29196,10 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ135">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29312,7 +29324,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29518,7 +29530,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29599,7 +29611,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR137">
         <v>1.52</v>
@@ -30136,7 +30148,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30217,7 +30229,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ140">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30342,7 +30354,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30626,10 +30638,10 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30754,7 +30766,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30832,10 +30844,10 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -30960,7 +30972,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31247,7 +31259,7 @@
         <v>2</v>
       </c>
       <c r="AQ145">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR145">
         <v>1.71</v>
@@ -31453,7 +31465,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ146">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR146">
         <v>1.3</v>
@@ -31656,7 +31668,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
         <v>1.31</v>
@@ -31784,7 +31796,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31862,7 +31874,7 @@
         <v>0.5</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ148">
         <v>0.46</v>
@@ -32196,7 +32208,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32277,7 +32289,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ150">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR150">
         <v>1.3</v>
@@ -32402,7 +32414,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32480,10 +32492,10 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ151">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR151">
         <v>1.18</v>
@@ -32608,7 +32620,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32814,7 +32826,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33101,7 +33113,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33432,7 +33444,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33510,7 +33522,7 @@
         <v>1.13</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156">
         <v>1.46</v>
@@ -33716,10 +33728,10 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ157">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -34128,7 +34140,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ159">
         <v>1.17</v>
@@ -34256,7 +34268,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34540,7 +34552,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ161">
         <v>0.77</v>
@@ -34668,7 +34680,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34874,7 +34886,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34952,7 +34964,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ163">
         <v>1.38</v>
@@ -35080,7 +35092,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35161,7 +35173,7 @@
         <v>1</v>
       </c>
       <c r="AQ164">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR164">
         <v>1.38</v>
@@ -35367,7 +35379,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ165">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR165">
         <v>1.64</v>
@@ -35573,7 +35585,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ166">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR166">
         <v>1.37</v>
@@ -35698,7 +35710,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36110,7 +36122,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36188,7 +36200,7 @@
         <v>1.57</v>
       </c>
       <c r="AP169">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ169">
         <v>1.54</v>
@@ -36316,7 +36328,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36394,7 +36406,7 @@
         <v>2.38</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ170">
         <v>2.31</v>
@@ -36522,7 +36534,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36600,10 +36612,10 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ171">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR171">
         <v>2.14</v>
@@ -36809,7 +36821,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ172">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -37221,7 +37233,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ174">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR174">
         <v>1.8</v>
@@ -37552,7 +37564,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -38042,7 +38054,7 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ178">
         <v>0.77</v>
@@ -38248,10 +38260,10 @@
         <v>0.67</v>
       </c>
       <c r="AP179">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ179">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR179">
         <v>1</v>
@@ -38376,7 +38388,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38454,7 +38466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ180">
         <v>1.69</v>
@@ -38660,7 +38672,7 @@
         <v>1.75</v>
       </c>
       <c r="AP181">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ181">
         <v>1.54</v>
@@ -38994,7 +39006,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39075,7 +39087,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ183">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR183">
         <v>1.43</v>
@@ -39200,7 +39212,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39278,10 +39290,10 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39406,7 +39418,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39487,7 +39499,7 @@
         <v>2</v>
       </c>
       <c r="AQ185">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR185">
         <v>1.6</v>
@@ -39690,7 +39702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ186">
         <v>1.69</v>
@@ -39818,7 +39830,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -39899,7 +39911,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ187">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR187">
         <v>1.66</v>
@@ -40230,7 +40242,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40436,7 +40448,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40642,7 +40654,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40720,7 +40732,7 @@
         <v>1.22</v>
       </c>
       <c r="AP191">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ191">
         <v>1.38</v>
@@ -40929,7 +40941,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ192">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR192">
         <v>1.29</v>
@@ -41132,7 +41144,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ193">
         <v>0.46</v>
@@ -41341,7 +41353,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ194">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR194">
         <v>1.65</v>
@@ -41544,10 +41556,10 @@
         <v>1.33</v>
       </c>
       <c r="AP195">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ195">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR195">
         <v>1.32</v>
@@ -41750,10 +41762,10 @@
         <v>0.89</v>
       </c>
       <c r="AP196">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ196">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR196">
         <v>1.01</v>
@@ -41878,7 +41890,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42496,7 +42508,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -43114,7 +43126,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43192,10 +43204,10 @@
         <v>1.2</v>
       </c>
       <c r="AP203">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR203">
         <v>1.74</v>
@@ -43320,7 +43332,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43526,7 +43538,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44016,7 +44028,7 @@
         <v>1.67</v>
       </c>
       <c r="AP207">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ207">
         <v>1.54</v>
@@ -44144,7 +44156,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44350,7 +44362,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44637,7 +44649,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ210">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR210">
         <v>1.72</v>
@@ -44840,7 +44852,7 @@
         <v>0.44</v>
       </c>
       <c r="AP211">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ211">
         <v>0.83</v>
@@ -44968,7 +44980,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45046,10 +45058,10 @@
         <v>2</v>
       </c>
       <c r="AP212">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ212">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR212">
         <v>2.16</v>
@@ -45252,7 +45264,7 @@
         <v>1.5</v>
       </c>
       <c r="AP213">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ213">
         <v>1.23</v>
@@ -45586,7 +45598,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45792,7 +45804,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45870,10 +45882,10 @@
         <v>0.7</v>
       </c>
       <c r="AP216">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR216">
         <v>1.33</v>
@@ -45998,7 +46010,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46079,7 +46091,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ217">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR217">
         <v>1.48</v>
@@ -46204,7 +46216,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46285,7 +46297,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ218">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR218">
         <v>1.71</v>
@@ -46616,7 +46628,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46694,7 +46706,7 @@
         <v>1.89</v>
       </c>
       <c r="AP220">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ220">
         <v>1.5</v>
@@ -46822,7 +46834,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -47028,7 +47040,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47109,7 +47121,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ222">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR222">
         <v>1.28</v>
@@ -47312,7 +47324,7 @@
         <v>1.36</v>
       </c>
       <c r="AP223">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AQ223">
         <v>1.38</v>
@@ -47518,7 +47530,7 @@
         <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ224">
         <v>1.17</v>
@@ -47933,7 +47945,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ226">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR226">
         <v>1.37</v>
@@ -48136,7 +48148,7 @@
         <v>1.8</v>
       </c>
       <c r="AP227">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ227">
         <v>1.54</v>
@@ -48345,7 +48357,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ228">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR228">
         <v>1.67</v>
@@ -48676,7 +48688,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48757,7 +48769,7 @@
         <v>1</v>
       </c>
       <c r="AQ230">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR230">
         <v>1.42</v>
@@ -48882,7 +48894,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -48960,10 +48972,10 @@
         <v>1.45</v>
       </c>
       <c r="AP231">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ231">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR231">
         <v>1.75</v>
@@ -49088,7 +49100,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49294,7 +49306,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49372,7 +49384,7 @@
         <v>1.17</v>
       </c>
       <c r="AP233">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ233">
         <v>1.31</v>
@@ -49500,7 +49512,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49706,7 +49718,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49787,7 +49799,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ235">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR235">
         <v>1.35</v>
@@ -49912,7 +49924,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -49993,7 +50005,7 @@
         <v>2</v>
       </c>
       <c r="AQ236">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AR236">
         <v>1.54</v>
@@ -50324,7 +50336,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50402,10 +50414,10 @@
         <v>0.73</v>
       </c>
       <c r="AP238">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ238">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AR238">
         <v>1.46</v>
@@ -50530,7 +50542,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50736,7 +50748,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50814,7 +50826,7 @@
         <v>1.33</v>
       </c>
       <c r="AP240">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ240">
         <v>1.46</v>
@@ -50942,7 +50954,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51354,7 +51366,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q243">
         <v>3.6</v>
@@ -51560,7 +51572,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -52053,7 +52065,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ246">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR246">
         <v>1.68</v>
@@ -52796,7 +52808,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -52874,7 +52886,7 @@
         <v>0.5</v>
       </c>
       <c r="AP250">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ250">
         <v>0.46</v>
@@ -53002,7 +53014,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53159,6 +53171,1654 @@
       </c>
       <c r="BP251">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7327146</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45515.25</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>75</v>
+      </c>
+      <c r="H252" t="s">
+        <v>76</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>91</v>
+      </c>
+      <c r="P252" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q252">
+        <v>2.5</v>
+      </c>
+      <c r="R252">
+        <v>2.24</v>
+      </c>
+      <c r="S252">
+        <v>4.71</v>
+      </c>
+      <c r="T252">
+        <v>1.39</v>
+      </c>
+      <c r="U252">
+        <v>2.99</v>
+      </c>
+      <c r="V252">
+        <v>2.97</v>
+      </c>
+      <c r="W252">
+        <v>1.4</v>
+      </c>
+      <c r="X252">
+        <v>8</v>
+      </c>
+      <c r="Y252">
+        <v>1.08</v>
+      </c>
+      <c r="Z252">
+        <v>1.94</v>
+      </c>
+      <c r="AA252">
+        <v>3.7</v>
+      </c>
+      <c r="AB252">
+        <v>4.1</v>
+      </c>
+      <c r="AC252">
+        <v>1.02</v>
+      </c>
+      <c r="AD252">
+        <v>7.8</v>
+      </c>
+      <c r="AE252">
+        <v>1.28</v>
+      </c>
+      <c r="AF252">
+        <v>3.22</v>
+      </c>
+      <c r="AG252">
+        <v>2.02</v>
+      </c>
+      <c r="AH252">
+        <v>1.87</v>
+      </c>
+      <c r="AI252">
+        <v>1.8</v>
+      </c>
+      <c r="AJ252">
+        <v>1.95</v>
+      </c>
+      <c r="AK252">
+        <v>1.2</v>
+      </c>
+      <c r="AL252">
+        <v>1.22</v>
+      </c>
+      <c r="AM252">
+        <v>1.87</v>
+      </c>
+      <c r="AN252">
+        <v>1.67</v>
+      </c>
+      <c r="AO252">
+        <v>1.08</v>
+      </c>
+      <c r="AP252">
+        <v>1.54</v>
+      </c>
+      <c r="AQ252">
+        <v>1.21</v>
+      </c>
+      <c r="AR252">
+        <v>1.35</v>
+      </c>
+      <c r="AS252">
+        <v>1.47</v>
+      </c>
+      <c r="AT252">
+        <v>2.82</v>
+      </c>
+      <c r="AU252">
+        <v>2</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>7</v>
+      </c>
+      <c r="AX252">
+        <v>2</v>
+      </c>
+      <c r="AY252">
+        <v>9</v>
+      </c>
+      <c r="AZ252">
+        <v>7</v>
+      </c>
+      <c r="BA252">
+        <v>8</v>
+      </c>
+      <c r="BB252">
+        <v>6</v>
+      </c>
+      <c r="BC252">
+        <v>14</v>
+      </c>
+      <c r="BD252">
+        <v>1.43</v>
+      </c>
+      <c r="BE252">
+        <v>7.5</v>
+      </c>
+      <c r="BF252">
+        <v>3.84</v>
+      </c>
+      <c r="BG252">
+        <v>1.22</v>
+      </c>
+      <c r="BH252">
+        <v>3.8</v>
+      </c>
+      <c r="BI252">
+        <v>1.35</v>
+      </c>
+      <c r="BJ252">
+        <v>2.84</v>
+      </c>
+      <c r="BK252">
+        <v>1.68</v>
+      </c>
+      <c r="BL252">
+        <v>2.17</v>
+      </c>
+      <c r="BM252">
+        <v>2.07</v>
+      </c>
+      <c r="BN252">
+        <v>1.75</v>
+      </c>
+      <c r="BO252">
+        <v>2.6</v>
+      </c>
+      <c r="BP252">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7327147</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45515.27083333334</v>
+      </c>
+      <c r="F253">
+        <v>26</v>
+      </c>
+      <c r="G253" t="s">
+        <v>70</v>
+      </c>
+      <c r="H253" t="s">
+        <v>77</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>249</v>
+      </c>
+      <c r="P253" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q253">
+        <v>2.24</v>
+      </c>
+      <c r="R253">
+        <v>2.39</v>
+      </c>
+      <c r="S253">
+        <v>5.17</v>
+      </c>
+      <c r="T253">
+        <v>1.33</v>
+      </c>
+      <c r="U253">
+        <v>3.25</v>
+      </c>
+      <c r="V253">
+        <v>2.63</v>
+      </c>
+      <c r="W253">
+        <v>1.44</v>
+      </c>
+      <c r="X253">
+        <v>7</v>
+      </c>
+      <c r="Y253">
+        <v>1.1</v>
+      </c>
+      <c r="Z253">
+        <v>1.73</v>
+      </c>
+      <c r="AA253">
+        <v>4.1</v>
+      </c>
+      <c r="AB253">
+        <v>4.9</v>
+      </c>
+      <c r="AC253">
+        <v>1.04</v>
+      </c>
+      <c r="AD253">
+        <v>8.5</v>
+      </c>
+      <c r="AE253">
+        <v>1.25</v>
+      </c>
+      <c r="AF253">
+        <v>3.75</v>
+      </c>
+      <c r="AG253">
+        <v>1.74</v>
+      </c>
+      <c r="AH253">
+        <v>1.94</v>
+      </c>
+      <c r="AI253">
+        <v>1.75</v>
+      </c>
+      <c r="AJ253">
+        <v>2</v>
+      </c>
+      <c r="AK253">
+        <v>1.15</v>
+      </c>
+      <c r="AL253">
+        <v>1.2</v>
+      </c>
+      <c r="AM253">
+        <v>2.1</v>
+      </c>
+      <c r="AN253">
+        <v>1.75</v>
+      </c>
+      <c r="AO253">
+        <v>1.25</v>
+      </c>
+      <c r="AP253">
+        <v>1.85</v>
+      </c>
+      <c r="AQ253">
+        <v>1.15</v>
+      </c>
+      <c r="AR253">
+        <v>2</v>
+      </c>
+      <c r="AS253">
+        <v>1.37</v>
+      </c>
+      <c r="AT253">
+        <v>3.37</v>
+      </c>
+      <c r="AU253">
+        <v>5</v>
+      </c>
+      <c r="AV253">
+        <v>3</v>
+      </c>
+      <c r="AW253">
+        <v>7</v>
+      </c>
+      <c r="AX253">
+        <v>6</v>
+      </c>
+      <c r="AY253">
+        <v>12</v>
+      </c>
+      <c r="AZ253">
+        <v>9</v>
+      </c>
+      <c r="BA253">
+        <v>4</v>
+      </c>
+      <c r="BB253">
+        <v>1</v>
+      </c>
+      <c r="BC253">
+        <v>5</v>
+      </c>
+      <c r="BD253">
+        <v>1.28</v>
+      </c>
+      <c r="BE253">
+        <v>8.6</v>
+      </c>
+      <c r="BF253">
+        <v>5.1</v>
+      </c>
+      <c r="BG253">
+        <v>1.18</v>
+      </c>
+      <c r="BH253">
+        <v>4.33</v>
+      </c>
+      <c r="BI253">
+        <v>1.3</v>
+      </c>
+      <c r="BJ253">
+        <v>3.3</v>
+      </c>
+      <c r="BK253">
+        <v>1.55</v>
+      </c>
+      <c r="BL253">
+        <v>2.4</v>
+      </c>
+      <c r="BM253">
+        <v>1.89</v>
+      </c>
+      <c r="BN253">
+        <v>1.91</v>
+      </c>
+      <c r="BO253">
+        <v>2.35</v>
+      </c>
+      <c r="BP253">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7327151</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F254">
+        <v>26</v>
+      </c>
+      <c r="G254" t="s">
+        <v>71</v>
+      </c>
+      <c r="H254" t="s">
+        <v>79</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="O254" t="s">
+        <v>94</v>
+      </c>
+      <c r="P254" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q254">
+        <v>2.87</v>
+      </c>
+      <c r="R254">
+        <v>2.04</v>
+      </c>
+      <c r="S254">
+        <v>4.6</v>
+      </c>
+      <c r="T254">
+        <v>1.53</v>
+      </c>
+      <c r="U254">
+        <v>2.51</v>
+      </c>
+      <c r="V254">
+        <v>3.5</v>
+      </c>
+      <c r="W254">
+        <v>1.29</v>
+      </c>
+      <c r="X254">
+        <v>11</v>
+      </c>
+      <c r="Y254">
+        <v>1.05</v>
+      </c>
+      <c r="Z254">
+        <v>2.14</v>
+      </c>
+      <c r="AA254">
+        <v>3.35</v>
+      </c>
+      <c r="AB254">
+        <v>3.8</v>
+      </c>
+      <c r="AC254">
+        <v>1.09</v>
+      </c>
+      <c r="AD254">
+        <v>6.25</v>
+      </c>
+      <c r="AE254">
+        <v>1.45</v>
+      </c>
+      <c r="AF254">
+        <v>2.6</v>
+      </c>
+      <c r="AG254">
+        <v>2.36</v>
+      </c>
+      <c r="AH254">
+        <v>1.5</v>
+      </c>
+      <c r="AI254">
+        <v>2.05</v>
+      </c>
+      <c r="AJ254">
+        <v>1.7</v>
+      </c>
+      <c r="AK254">
+        <v>1.25</v>
+      </c>
+      <c r="AL254">
+        <v>1.3</v>
+      </c>
+      <c r="AM254">
+        <v>1.63</v>
+      </c>
+      <c r="AN254">
+        <v>1.25</v>
+      </c>
+      <c r="AO254">
+        <v>1.5</v>
+      </c>
+      <c r="AP254">
+        <v>1.38</v>
+      </c>
+      <c r="AQ254">
+        <v>1.38</v>
+      </c>
+      <c r="AR254">
+        <v>1.04</v>
+      </c>
+      <c r="AS254">
+        <v>1.25</v>
+      </c>
+      <c r="AT254">
+        <v>2.29</v>
+      </c>
+      <c r="AU254">
+        <v>2</v>
+      </c>
+      <c r="AV254">
+        <v>3</v>
+      </c>
+      <c r="AW254">
+        <v>3</v>
+      </c>
+      <c r="AX254">
+        <v>3</v>
+      </c>
+      <c r="AY254">
+        <v>5</v>
+      </c>
+      <c r="AZ254">
+        <v>6</v>
+      </c>
+      <c r="BA254">
+        <v>3</v>
+      </c>
+      <c r="BB254">
+        <v>8</v>
+      </c>
+      <c r="BC254">
+        <v>11</v>
+      </c>
+      <c r="BD254">
+        <v>1.58</v>
+      </c>
+      <c r="BE254">
+        <v>7</v>
+      </c>
+      <c r="BF254">
+        <v>3.15</v>
+      </c>
+      <c r="BG254">
+        <v>1.28</v>
+      </c>
+      <c r="BH254">
+        <v>3.4</v>
+      </c>
+      <c r="BI254">
+        <v>1.52</v>
+      </c>
+      <c r="BJ254">
+        <v>2.45</v>
+      </c>
+      <c r="BK254">
+        <v>1.72</v>
+      </c>
+      <c r="BL254">
+        <v>2.1</v>
+      </c>
+      <c r="BM254">
+        <v>2.14</v>
+      </c>
+      <c r="BN254">
+        <v>1.7</v>
+      </c>
+      <c r="BO254">
+        <v>3.1</v>
+      </c>
+      <c r="BP254">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7327148</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F255">
+        <v>26</v>
+      </c>
+      <c r="G255" t="s">
+        <v>78</v>
+      </c>
+      <c r="H255" t="s">
+        <v>86</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255" t="s">
+        <v>91</v>
+      </c>
+      <c r="P255" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q255">
+        <v>2.78</v>
+      </c>
+      <c r="R255">
+        <v>2.2</v>
+      </c>
+      <c r="S255">
+        <v>4.13</v>
+      </c>
+      <c r="T255">
+        <v>1.4</v>
+      </c>
+      <c r="U255">
+        <v>2.75</v>
+      </c>
+      <c r="V255">
+        <v>3</v>
+      </c>
+      <c r="W255">
+        <v>1.36</v>
+      </c>
+      <c r="X255">
+        <v>9</v>
+      </c>
+      <c r="Y255">
+        <v>1.07</v>
+      </c>
+      <c r="Z255">
+        <v>2.15</v>
+      </c>
+      <c r="AA255">
+        <v>3.55</v>
+      </c>
+      <c r="AB255">
+        <v>3.55</v>
+      </c>
+      <c r="AC255">
+        <v>1.06</v>
+      </c>
+      <c r="AD255">
+        <v>7.2</v>
+      </c>
+      <c r="AE255">
+        <v>1.33</v>
+      </c>
+      <c r="AF255">
+        <v>3.1</v>
+      </c>
+      <c r="AG255">
+        <v>2.07</v>
+      </c>
+      <c r="AH255">
+        <v>1.82</v>
+      </c>
+      <c r="AI255">
+        <v>1.8</v>
+      </c>
+      <c r="AJ255">
+        <v>1.95</v>
+      </c>
+      <c r="AK255">
+        <v>1.3</v>
+      </c>
+      <c r="AL255">
+        <v>1.25</v>
+      </c>
+      <c r="AM255">
+        <v>1.68</v>
+      </c>
+      <c r="AN255">
+        <v>1.25</v>
+      </c>
+      <c r="AO255">
+        <v>1.58</v>
+      </c>
+      <c r="AP255">
+        <v>1.23</v>
+      </c>
+      <c r="AQ255">
+        <v>1.54</v>
+      </c>
+      <c r="AR255">
+        <v>1.5</v>
+      </c>
+      <c r="AS255">
+        <v>1.19</v>
+      </c>
+      <c r="AT255">
+        <v>2.69</v>
+      </c>
+      <c r="AU255">
+        <v>9</v>
+      </c>
+      <c r="AV255">
+        <v>6</v>
+      </c>
+      <c r="AW255">
+        <v>3</v>
+      </c>
+      <c r="AX255">
+        <v>3</v>
+      </c>
+      <c r="AY255">
+        <v>12</v>
+      </c>
+      <c r="AZ255">
+        <v>9</v>
+      </c>
+      <c r="BA255">
+        <v>6</v>
+      </c>
+      <c r="BB255">
+        <v>4</v>
+      </c>
+      <c r="BC255">
+        <v>10</v>
+      </c>
+      <c r="BD255">
+        <v>1.54</v>
+      </c>
+      <c r="BE255">
+        <v>7.2</v>
+      </c>
+      <c r="BF255">
+        <v>3.28</v>
+      </c>
+      <c r="BG255">
+        <v>1.28</v>
+      </c>
+      <c r="BH255">
+        <v>3.5</v>
+      </c>
+      <c r="BI255">
+        <v>1.33</v>
+      </c>
+      <c r="BJ255">
+        <v>2.91</v>
+      </c>
+      <c r="BK255">
+        <v>1.65</v>
+      </c>
+      <c r="BL255">
+        <v>2.22</v>
+      </c>
+      <c r="BM255">
+        <v>2.02</v>
+      </c>
+      <c r="BN255">
+        <v>1.78</v>
+      </c>
+      <c r="BO255">
+        <v>2.65</v>
+      </c>
+      <c r="BP255">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7327149</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F256">
+        <v>26</v>
+      </c>
+      <c r="G256" t="s">
+        <v>85</v>
+      </c>
+      <c r="H256" t="s">
+        <v>81</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>2</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>3</v>
+      </c>
+      <c r="N256">
+        <v>3</v>
+      </c>
+      <c r="O256" t="s">
+        <v>91</v>
+      </c>
+      <c r="P256" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q256">
+        <v>3.44</v>
+      </c>
+      <c r="R256">
+        <v>2.41</v>
+      </c>
+      <c r="S256">
+        <v>2.86</v>
+      </c>
+      <c r="T256">
+        <v>1.3</v>
+      </c>
+      <c r="U256">
+        <v>3.4</v>
+      </c>
+      <c r="V256">
+        <v>2.47</v>
+      </c>
+      <c r="W256">
+        <v>1.55</v>
+      </c>
+      <c r="X256">
+        <v>6</v>
+      </c>
+      <c r="Y256">
+        <v>1.13</v>
+      </c>
+      <c r="Z256">
+        <v>2.95</v>
+      </c>
+      <c r="AA256">
+        <v>3.8</v>
+      </c>
+      <c r="AB256">
+        <v>2.33</v>
+      </c>
+      <c r="AC256">
+        <v>1.04</v>
+      </c>
+      <c r="AD256">
+        <v>8.5</v>
+      </c>
+      <c r="AE256">
+        <v>1.2</v>
+      </c>
+      <c r="AF256">
+        <v>4.2</v>
+      </c>
+      <c r="AG256">
+        <v>1.61</v>
+      </c>
+      <c r="AH256">
+        <v>2.14</v>
+      </c>
+      <c r="AI256">
+        <v>1.53</v>
+      </c>
+      <c r="AJ256">
+        <v>2.38</v>
+      </c>
+      <c r="AK256">
+        <v>1.57</v>
+      </c>
+      <c r="AL256">
+        <v>1.25</v>
+      </c>
+      <c r="AM256">
+        <v>1.42</v>
+      </c>
+      <c r="AN256">
+        <v>1.46</v>
+      </c>
+      <c r="AO256">
+        <v>0.92</v>
+      </c>
+      <c r="AP256">
+        <v>1.36</v>
+      </c>
+      <c r="AQ256">
+        <v>1.08</v>
+      </c>
+      <c r="AR256">
+        <v>1.29</v>
+      </c>
+      <c r="AS256">
+        <v>1.57</v>
+      </c>
+      <c r="AT256">
+        <v>2.86</v>
+      </c>
+      <c r="AU256">
+        <v>4</v>
+      </c>
+      <c r="AV256">
+        <v>5</v>
+      </c>
+      <c r="AW256">
+        <v>5</v>
+      </c>
+      <c r="AX256">
+        <v>2</v>
+      </c>
+      <c r="AY256">
+        <v>9</v>
+      </c>
+      <c r="AZ256">
+        <v>7</v>
+      </c>
+      <c r="BA256">
+        <v>3</v>
+      </c>
+      <c r="BB256">
+        <v>6</v>
+      </c>
+      <c r="BC256">
+        <v>9</v>
+      </c>
+      <c r="BD256">
+        <v>2.09</v>
+      </c>
+      <c r="BE256">
+        <v>6.6</v>
+      </c>
+      <c r="BF256">
+        <v>2.16</v>
+      </c>
+      <c r="BG256">
+        <v>1.28</v>
+      </c>
+      <c r="BH256">
+        <v>3.5</v>
+      </c>
+      <c r="BI256">
+        <v>1.47</v>
+      </c>
+      <c r="BJ256">
+        <v>2.55</v>
+      </c>
+      <c r="BK256">
+        <v>1.69</v>
+      </c>
+      <c r="BL256">
+        <v>2.14</v>
+      </c>
+      <c r="BM256">
+        <v>2.08</v>
+      </c>
+      <c r="BN256">
+        <v>1.74</v>
+      </c>
+      <c r="BO256">
+        <v>3</v>
+      </c>
+      <c r="BP256">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7327150</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F257">
+        <v>26</v>
+      </c>
+      <c r="G257" t="s">
+        <v>72</v>
+      </c>
+      <c r="H257" t="s">
+        <v>84</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257">
+        <v>3</v>
+      </c>
+      <c r="O257" t="s">
+        <v>250</v>
+      </c>
+      <c r="P257" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q257">
+        <v>4.64</v>
+      </c>
+      <c r="R257">
+        <v>2.24</v>
+      </c>
+      <c r="S257">
+        <v>2.53</v>
+      </c>
+      <c r="T257">
+        <v>1.4</v>
+      </c>
+      <c r="U257">
+        <v>2.96</v>
+      </c>
+      <c r="V257">
+        <v>2.99</v>
+      </c>
+      <c r="W257">
+        <v>1.39</v>
+      </c>
+      <c r="X257">
+        <v>8</v>
+      </c>
+      <c r="Y257">
+        <v>1.08</v>
+      </c>
+      <c r="Z257">
+        <v>4.1</v>
+      </c>
+      <c r="AA257">
+        <v>3.7</v>
+      </c>
+      <c r="AB257">
+        <v>1.94</v>
+      </c>
+      <c r="AC257">
+        <v>1.02</v>
+      </c>
+      <c r="AD257">
+        <v>8.9</v>
+      </c>
+      <c r="AE257">
+        <v>1.32</v>
+      </c>
+      <c r="AF257">
+        <v>3.42</v>
+      </c>
+      <c r="AG257">
+        <v>2.02</v>
+      </c>
+      <c r="AH257">
+        <v>1.87</v>
+      </c>
+      <c r="AI257">
+        <v>1.85</v>
+      </c>
+      <c r="AJ257">
+        <v>1.95</v>
+      </c>
+      <c r="AK257">
+        <v>1.9</v>
+      </c>
+      <c r="AL257">
+        <v>1.3</v>
+      </c>
+      <c r="AM257">
+        <v>1.25</v>
+      </c>
+      <c r="AN257">
+        <v>1.25</v>
+      </c>
+      <c r="AO257">
+        <v>1.33</v>
+      </c>
+      <c r="AP257">
+        <v>1.38</v>
+      </c>
+      <c r="AQ257">
+        <v>1.23</v>
+      </c>
+      <c r="AR257">
+        <v>1.27</v>
+      </c>
+      <c r="AS257">
+        <v>1.36</v>
+      </c>
+      <c r="AT257">
+        <v>2.63</v>
+      </c>
+      <c r="AU257">
+        <v>5</v>
+      </c>
+      <c r="AV257">
+        <v>4</v>
+      </c>
+      <c r="AW257">
+        <v>3</v>
+      </c>
+      <c r="AX257">
+        <v>3</v>
+      </c>
+      <c r="AY257">
+        <v>8</v>
+      </c>
+      <c r="AZ257">
+        <v>7</v>
+      </c>
+      <c r="BA257">
+        <v>6</v>
+      </c>
+      <c r="BB257">
+        <v>3</v>
+      </c>
+      <c r="BC257">
+        <v>9</v>
+      </c>
+      <c r="BD257">
+        <v>2.53</v>
+      </c>
+      <c r="BE257">
+        <v>6.85</v>
+      </c>
+      <c r="BF257">
+        <v>1.82</v>
+      </c>
+      <c r="BG257">
+        <v>1.22</v>
+      </c>
+      <c r="BH257">
+        <v>3.8</v>
+      </c>
+      <c r="BI257">
+        <v>1.4</v>
+      </c>
+      <c r="BJ257">
+        <v>2.85</v>
+      </c>
+      <c r="BK257">
+        <v>1.69</v>
+      </c>
+      <c r="BL257">
+        <v>2.17</v>
+      </c>
+      <c r="BM257">
+        <v>2.07</v>
+      </c>
+      <c r="BN257">
+        <v>1.76</v>
+      </c>
+      <c r="BO257">
+        <v>2.65</v>
+      </c>
+      <c r="BP257">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7327152</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F258">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s">
+        <v>74</v>
+      </c>
+      <c r="H258" t="s">
+        <v>87</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>111</v>
+      </c>
+      <c r="P258" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q258">
+        <v>4.2</v>
+      </c>
+      <c r="R258">
+        <v>2.3</v>
+      </c>
+      <c r="S258">
+        <v>2.41</v>
+      </c>
+      <c r="T258">
+        <v>1.33</v>
+      </c>
+      <c r="U258">
+        <v>3.25</v>
+      </c>
+      <c r="V258">
+        <v>2.55</v>
+      </c>
+      <c r="W258">
+        <v>1.45</v>
+      </c>
+      <c r="X258">
+        <v>6.5</v>
+      </c>
+      <c r="Y258">
+        <v>1.11</v>
+      </c>
+      <c r="Z258">
+        <v>4.1</v>
+      </c>
+      <c r="AA258">
+        <v>3.95</v>
+      </c>
+      <c r="AB258">
+        <v>1.88</v>
+      </c>
+      <c r="AC258">
+        <v>1.01</v>
+      </c>
+      <c r="AD258">
+        <v>11</v>
+      </c>
+      <c r="AE258">
+        <v>1.2</v>
+      </c>
+      <c r="AF258">
+        <v>3.9</v>
+      </c>
+      <c r="AG258">
+        <v>1.67</v>
+      </c>
+      <c r="AH258">
+        <v>2.03</v>
+      </c>
+      <c r="AI258">
+        <v>1.67</v>
+      </c>
+      <c r="AJ258">
+        <v>2.1</v>
+      </c>
+      <c r="AK258">
+        <v>1.89</v>
+      </c>
+      <c r="AL258">
+        <v>1.25</v>
+      </c>
+      <c r="AM258">
+        <v>1.27</v>
+      </c>
+      <c r="AN258">
+        <v>1</v>
+      </c>
+      <c r="AO258">
+        <v>1.09</v>
+      </c>
+      <c r="AP258">
+        <v>1</v>
+      </c>
+      <c r="AQ258">
+        <v>1.08</v>
+      </c>
+      <c r="AR258">
+        <v>1.43</v>
+      </c>
+      <c r="AS258">
+        <v>1.37</v>
+      </c>
+      <c r="AT258">
+        <v>2.8</v>
+      </c>
+      <c r="AU258">
+        <v>5</v>
+      </c>
+      <c r="AV258">
+        <v>7</v>
+      </c>
+      <c r="AW258">
+        <v>6</v>
+      </c>
+      <c r="AX258">
+        <v>5</v>
+      </c>
+      <c r="AY258">
+        <v>11</v>
+      </c>
+      <c r="AZ258">
+        <v>12</v>
+      </c>
+      <c r="BA258">
+        <v>6</v>
+      </c>
+      <c r="BB258">
+        <v>8</v>
+      </c>
+      <c r="BC258">
+        <v>14</v>
+      </c>
+      <c r="BD258">
+        <v>2.43</v>
+      </c>
+      <c r="BE258">
+        <v>6.8</v>
+      </c>
+      <c r="BF258">
+        <v>1.87</v>
+      </c>
+      <c r="BG258">
+        <v>1.18</v>
+      </c>
+      <c r="BH258">
+        <v>4.33</v>
+      </c>
+      <c r="BI258">
+        <v>1.33</v>
+      </c>
+      <c r="BJ258">
+        <v>3</v>
+      </c>
+      <c r="BK258">
+        <v>1.57</v>
+      </c>
+      <c r="BL258">
+        <v>2.35</v>
+      </c>
+      <c r="BM258">
+        <v>1.92</v>
+      </c>
+      <c r="BN258">
+        <v>1.88</v>
+      </c>
+      <c r="BO258">
+        <v>2.36</v>
+      </c>
+      <c r="BP258">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7327153</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45515.3125</v>
+      </c>
+      <c r="F259">
+        <v>26</v>
+      </c>
+      <c r="G259" t="s">
+        <v>80</v>
+      </c>
+      <c r="H259" t="s">
+        <v>82</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>251</v>
+      </c>
+      <c r="P259" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q259">
+        <v>3.52</v>
+      </c>
+      <c r="R259">
+        <v>2.47</v>
+      </c>
+      <c r="S259">
+        <v>2.73</v>
+      </c>
+      <c r="T259">
+        <v>1.29</v>
+      </c>
+      <c r="U259">
+        <v>3.5</v>
+      </c>
+      <c r="V259">
+        <v>2.38</v>
+      </c>
+      <c r="W259">
+        <v>1.53</v>
+      </c>
+      <c r="X259">
+        <v>5.5</v>
+      </c>
+      <c r="Y259">
+        <v>1.14</v>
+      </c>
+      <c r="Z259">
+        <v>3.2</v>
+      </c>
+      <c r="AA259">
+        <v>3.9</v>
+      </c>
+      <c r="AB259">
+        <v>2.18</v>
+      </c>
+      <c r="AC259">
+        <v>1.03</v>
+      </c>
+      <c r="AD259">
+        <v>12</v>
+      </c>
+      <c r="AE259">
+        <v>1.17</v>
+      </c>
+      <c r="AF259">
+        <v>4.75</v>
+      </c>
+      <c r="AG259">
+        <v>1.53</v>
+      </c>
+      <c r="AH259">
+        <v>2.3</v>
+      </c>
+      <c r="AI259">
+        <v>1.49</v>
+      </c>
+      <c r="AJ259">
+        <v>2.56</v>
+      </c>
+      <c r="AK259">
+        <v>1.67</v>
+      </c>
+      <c r="AL259">
+        <v>1.27</v>
+      </c>
+      <c r="AM259">
+        <v>1.38</v>
+      </c>
+      <c r="AN259">
+        <v>1.5</v>
+      </c>
+      <c r="AO259">
+        <v>1.85</v>
+      </c>
+      <c r="AP259">
+        <v>1.38</v>
+      </c>
+      <c r="AQ259">
+        <v>1.93</v>
+      </c>
+      <c r="AR259">
+        <v>1.74</v>
+      </c>
+      <c r="AS259">
+        <v>1.39</v>
+      </c>
+      <c r="AT259">
+        <v>3.13</v>
+      </c>
+      <c r="AU259">
+        <v>5</v>
+      </c>
+      <c r="AV259">
+        <v>7</v>
+      </c>
+      <c r="AW259">
+        <v>7</v>
+      </c>
+      <c r="AX259">
+        <v>10</v>
+      </c>
+      <c r="AY259">
+        <v>12</v>
+      </c>
+      <c r="AZ259">
+        <v>17</v>
+      </c>
+      <c r="BA259">
+        <v>3</v>
+      </c>
+      <c r="BB259">
+        <v>5</v>
+      </c>
+      <c r="BC259">
+        <v>8</v>
+      </c>
+      <c r="BD259">
+        <v>2.11</v>
+      </c>
+      <c r="BE259">
+        <v>6.85</v>
+      </c>
+      <c r="BF259">
+        <v>2.11</v>
+      </c>
+      <c r="BG259">
+        <v>1.11</v>
+      </c>
+      <c r="BH259">
+        <v>5.5</v>
+      </c>
+      <c r="BI259">
+        <v>1.22</v>
+      </c>
+      <c r="BJ259">
+        <v>3.8</v>
+      </c>
+      <c r="BK259">
+        <v>1.38</v>
+      </c>
+      <c r="BL259">
+        <v>2.8</v>
+      </c>
+      <c r="BM259">
+        <v>1.64</v>
+      </c>
+      <c r="BN259">
+        <v>2.23</v>
+      </c>
+      <c r="BO259">
+        <v>2</v>
+      </c>
+      <c r="BP259">
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['25', '70']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1929,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2132,7 +2135,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2544,7 +2547,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2956,7 +2959,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3162,7 +3165,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3449,7 +3452,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ10">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3574,7 +3577,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3780,7 +3783,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3986,7 +3989,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4192,7 +4195,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4604,7 +4607,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5016,7 +5019,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5222,7 +5225,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5840,7 +5843,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6124,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ23">
         <v>1.23</v>
@@ -6870,7 +6873,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7157,7 +7160,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ28">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7694,7 +7697,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7900,7 +7903,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8312,7 +8315,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8724,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8930,7 +8933,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9136,7 +9139,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9548,7 +9551,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9754,7 +9757,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9835,7 +9838,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ41">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9960,7 +9963,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10244,7 +10247,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -10784,7 +10787,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -12432,7 +12435,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12719,7 +12722,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12844,7 +12847,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13462,7 +13465,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13668,7 +13671,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14286,7 +14289,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14492,7 +14495,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14570,7 +14573,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64">
         <v>1.15</v>
@@ -14698,7 +14701,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15110,7 +15113,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16346,7 +16349,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16552,7 +16555,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16630,7 +16633,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ74">
         <v>0.46</v>
@@ -17251,7 +17254,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ77">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17376,7 +17379,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17788,7 +17791,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17994,7 +17997,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18406,7 +18409,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18612,7 +18615,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -19642,7 +19645,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19848,7 +19851,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20054,7 +20057,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20547,7 +20550,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20672,7 +20675,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20750,7 +20753,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20878,7 +20881,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21290,7 +21293,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21496,7 +21499,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21908,7 +21911,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22320,7 +22323,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22398,7 +22401,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ102">
         <v>1.69</v>
@@ -22732,7 +22735,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22813,7 +22816,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ104">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -23350,7 +23353,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23762,7 +23765,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23968,7 +23971,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24174,7 +24177,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24380,7 +24383,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24998,7 +25001,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25410,7 +25413,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25616,7 +25619,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -26028,7 +26031,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26234,7 +26237,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26312,7 +26315,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ121">
         <v>1.08</v>
@@ -26440,7 +26443,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26646,7 +26649,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -27264,7 +27267,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27470,7 +27473,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27676,7 +27679,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27882,7 +27885,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28088,7 +28091,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29324,7 +29327,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29402,7 +29405,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ136">
         <v>1.31</v>
@@ -29530,7 +29533,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -30023,7 +30026,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ139">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30148,7 +30151,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30354,7 +30357,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30766,7 +30769,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30972,7 +30975,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31796,7 +31799,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32208,7 +32211,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32414,7 +32417,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32620,7 +32623,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32698,7 +32701,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ152">
         <v>1.54</v>
@@ -32826,7 +32829,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33444,7 +33447,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33525,7 +33528,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ156">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR156">
         <v>0.96</v>
@@ -34268,7 +34271,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34680,7 +34683,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34886,7 +34889,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35092,7 +35095,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35710,7 +35713,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36122,7 +36125,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36328,7 +36331,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36534,7 +36537,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37564,7 +37567,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -38388,7 +38391,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -39006,7 +39009,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39084,7 +39087,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ183">
         <v>1.08</v>
@@ -39212,7 +39215,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39418,7 +39421,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39830,7 +39833,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40117,7 +40120,7 @@
         <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR188">
         <v>1.44</v>
@@ -40242,7 +40245,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40448,7 +40451,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40654,7 +40657,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -41890,7 +41893,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42508,7 +42511,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -43126,7 +43129,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43332,7 +43335,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43538,7 +43541,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44156,7 +44159,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44362,7 +44365,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44443,7 +44446,7 @@
         <v>1</v>
       </c>
       <c r="AQ209">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -44980,7 +44983,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45598,7 +45601,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45676,7 +45679,7 @@
         <v>0.7</v>
       </c>
       <c r="AP215">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ215">
         <v>0.83</v>
@@ -45804,7 +45807,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46010,7 +46013,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46216,7 +46219,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46628,7 +46631,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46834,7 +46837,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -46915,7 +46918,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ221">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR221">
         <v>1.36</v>
@@ -47040,7 +47043,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -48688,7 +48691,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48894,7 +48897,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49100,7 +49103,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49306,7 +49309,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49512,7 +49515,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49718,7 +49721,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49924,7 +49927,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -50336,7 +50339,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50542,7 +50545,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50748,7 +50751,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50829,7 +50832,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ240">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR240">
         <v>1.3</v>
@@ -50954,7 +50957,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51366,7 +51369,7 @@
         <v>243</v>
       </c>
       <c r="P243" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q243">
         <v>3.6</v>
@@ -51572,7 +51575,7 @@
         <v>244</v>
       </c>
       <c r="P244" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q244">
         <v>2.5</v>
@@ -51650,7 +51653,7 @@
         <v>0.75</v>
       </c>
       <c r="AP244">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ244">
         <v>0.77</v>
@@ -52808,7 +52811,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -53014,7 +53017,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53220,7 +53223,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -54044,7 +54047,7 @@
         <v>91</v>
       </c>
       <c r="P256" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q256">
         <v>3.44</v>
@@ -54250,7 +54253,7 @@
         <v>250</v>
       </c>
       <c r="P257" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q257">
         <v>4.64</v>
@@ -54662,7 +54665,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -54819,6 +54822,212 @@
       </c>
       <c r="BP259">
         <v>1.81</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7327154</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45516.29166666666</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>88</v>
+      </c>
+      <c r="H260" t="s">
+        <v>83</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260" t="s">
+        <v>252</v>
+      </c>
+      <c r="P260" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q260">
+        <v>2.73</v>
+      </c>
+      <c r="R260">
+        <v>2.27</v>
+      </c>
+      <c r="S260">
+        <v>4.02</v>
+      </c>
+      <c r="T260">
+        <v>1.37</v>
+      </c>
+      <c r="U260">
+        <v>3.09</v>
+      </c>
+      <c r="V260">
+        <v>2.85</v>
+      </c>
+      <c r="W260">
+        <v>1.42</v>
+      </c>
+      <c r="X260">
+        <v>8</v>
+      </c>
+      <c r="Y260">
+        <v>1.08</v>
+      </c>
+      <c r="Z260">
+        <v>1.99</v>
+      </c>
+      <c r="AA260">
+        <v>3.49</v>
+      </c>
+      <c r="AB260">
+        <v>3.64</v>
+      </c>
+      <c r="AC260">
+        <v>1.01</v>
+      </c>
+      <c r="AD260">
+        <v>9.5</v>
+      </c>
+      <c r="AE260">
+        <v>1.28</v>
+      </c>
+      <c r="AF260">
+        <v>3.5</v>
+      </c>
+      <c r="AG260">
+        <v>1.89</v>
+      </c>
+      <c r="AH260">
+        <v>1.91</v>
+      </c>
+      <c r="AI260">
+        <v>1.75</v>
+      </c>
+      <c r="AJ260">
+        <v>2</v>
+      </c>
+      <c r="AK260">
+        <v>1.28</v>
+      </c>
+      <c r="AL260">
+        <v>1.25</v>
+      </c>
+      <c r="AM260">
+        <v>1.7</v>
+      </c>
+      <c r="AN260">
+        <v>0.92</v>
+      </c>
+      <c r="AO260">
+        <v>1.46</v>
+      </c>
+      <c r="AP260">
+        <v>1.08</v>
+      </c>
+      <c r="AQ260">
+        <v>1.36</v>
+      </c>
+      <c r="AR260">
+        <v>1.5</v>
+      </c>
+      <c r="AS260">
+        <v>1.31</v>
+      </c>
+      <c r="AT260">
+        <v>2.81</v>
+      </c>
+      <c r="AU260">
+        <v>0</v>
+      </c>
+      <c r="AV260">
+        <v>2</v>
+      </c>
+      <c r="AW260">
+        <v>4</v>
+      </c>
+      <c r="AX260">
+        <v>4</v>
+      </c>
+      <c r="AY260">
+        <v>4</v>
+      </c>
+      <c r="AZ260">
+        <v>6</v>
+      </c>
+      <c r="BA260">
+        <v>3</v>
+      </c>
+      <c r="BB260">
+        <v>6</v>
+      </c>
+      <c r="BC260">
+        <v>9</v>
+      </c>
+      <c r="BD260">
+        <v>1.62</v>
+      </c>
+      <c r="BE260">
+        <v>7</v>
+      </c>
+      <c r="BF260">
+        <v>3.02</v>
+      </c>
+      <c r="BG260">
+        <v>1.22</v>
+      </c>
+      <c r="BH260">
+        <v>4.1</v>
+      </c>
+      <c r="BI260">
+        <v>1.3</v>
+      </c>
+      <c r="BJ260">
+        <v>3.3</v>
+      </c>
+      <c r="BK260">
+        <v>1.64</v>
+      </c>
+      <c r="BL260">
+        <v>2.23</v>
+      </c>
+      <c r="BM260">
+        <v>2.01</v>
+      </c>
+      <c r="BN260">
+        <v>1.79</v>
+      </c>
+      <c r="BO260">
+        <v>2.3</v>
+      </c>
+      <c r="BP260">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -54964,31 +54964,31 @@
         <v>2.81</v>
       </c>
       <c r="AU260">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW260">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX260">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY260">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AZ260">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA260">
         <v>3</v>
       </c>
       <c r="BB260">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC260">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD260">
         <v>1.62</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -51121,7 +51121,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>7327142</v>
+        <v>7327141</v>
       </c>
       <c r="C242" t="s">
         <v>68</v>
@@ -51136,10 +51136,10 @@
         <v>25</v>
       </c>
       <c r="G242" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H242" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I242">
         <v>0</v>
@@ -51166,25 +51166,25 @@
         <v>91</v>
       </c>
       <c r="Q242">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R242">
         <v>2.1</v>
       </c>
       <c r="S242">
+        <v>4</v>
+      </c>
+      <c r="T242">
+        <v>1.4</v>
+      </c>
+      <c r="U242">
+        <v>2.75</v>
+      </c>
+      <c r="V242">
         <v>3</v>
       </c>
-      <c r="T242">
-        <v>1.44</v>
-      </c>
-      <c r="U242">
-        <v>2.63</v>
-      </c>
-      <c r="V242">
-        <v>3.25</v>
-      </c>
       <c r="W242">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X242">
         <v>9</v>
@@ -51193,31 +51193,31 @@
         <v>1.07</v>
       </c>
       <c r="Z242">
-        <v>3.02</v>
+        <v>2.18</v>
       </c>
       <c r="AA242">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="AB242">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="AC242">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AD242">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AE242">
         <v>1.33</v>
       </c>
       <c r="AF242">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="AG242">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH242">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AI242">
         <v>1.8</v>
@@ -51226,70 +51226,70 @@
         <v>1.95</v>
       </c>
       <c r="AK242">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="AL242">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AM242">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="AN242">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="AO242">
-        <v>2.42</v>
+        <v>1.55</v>
       </c>
       <c r="AP242">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AQ242">
-        <v>2.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR242">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AS242">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AT242">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="AU242">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV242">
+        <v>2</v>
+      </c>
+      <c r="AW242">
+        <v>11</v>
+      </c>
+      <c r="AX242">
         <v>4</v>
       </c>
-      <c r="AW242">
-        <v>1</v>
-      </c>
-      <c r="AX242">
-        <v>7</v>
-      </c>
       <c r="AY242">
+        <v>18</v>
+      </c>
+      <c r="AZ242">
+        <v>6</v>
+      </c>
+      <c r="BA242">
         <v>4</v>
       </c>
-      <c r="AZ242">
-        <v>11</v>
-      </c>
-      <c r="BA242">
-        <v>2</v>
-      </c>
       <c r="BB242">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC242">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD242">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="BE242">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF242">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="BG242">
         <v>1.25</v>
@@ -51304,13 +51304,13 @@
         <v>2.62</v>
       </c>
       <c r="BK242">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BL242">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BM242">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="BN242">
         <v>1.7</v>
@@ -51327,7 +51327,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>7327140</v>
+        <v>7327142</v>
       </c>
       <c r="C243" t="s">
         <v>68</v>
@@ -51342,43 +51342,43 @@
         <v>25</v>
       </c>
       <c r="G243" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H243" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I243">
         <v>0</v>
       </c>
       <c r="J243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N243">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O243" t="s">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>357</v>
+        <v>91</v>
       </c>
       <c r="Q243">
         <v>3.6</v>
       </c>
       <c r="R243">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S243">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T243">
         <v>1.44</v>
@@ -51387,145 +51387,145 @@
         <v>2.63</v>
       </c>
       <c r="V243">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W243">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X243">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y243">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z243">
-        <v>2.88</v>
+        <v>3.02</v>
       </c>
       <c r="AA243">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="AB243">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="AC243">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AD243">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AE243">
+        <v>1.33</v>
+      </c>
+      <c r="AF243">
+        <v>2.93</v>
+      </c>
+      <c r="AG243">
+        <v>2</v>
+      </c>
+      <c r="AH243">
+        <v>1.7</v>
+      </c>
+      <c r="AI243">
+        <v>1.8</v>
+      </c>
+      <c r="AJ243">
+        <v>1.95</v>
+      </c>
+      <c r="AK243">
+        <v>1.59</v>
+      </c>
+      <c r="AL243">
+        <v>1.32</v>
+      </c>
+      <c r="AM243">
         <v>1.38</v>
       </c>
-      <c r="AF243">
-        <v>2.95</v>
-      </c>
-      <c r="AG243">
-        <v>2.1</v>
-      </c>
-      <c r="AH243">
-        <v>1.65</v>
-      </c>
-      <c r="AI243">
-        <v>1.91</v>
-      </c>
-      <c r="AJ243">
-        <v>1.91</v>
-      </c>
-      <c r="AK243">
-        <v>1.5</v>
-      </c>
-      <c r="AL243">
-        <v>1.3</v>
-      </c>
-      <c r="AM243">
-        <v>1.33</v>
-      </c>
       <c r="AN243">
-        <v>0.55</v>
+        <v>1.83</v>
       </c>
       <c r="AO243">
-        <v>1.33</v>
+        <v>2.42</v>
       </c>
       <c r="AP243">
-        <v>0.75</v>
+        <v>1.77</v>
       </c>
       <c r="AQ243">
-        <v>1.23</v>
+        <v>2.31</v>
       </c>
       <c r="AR243">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS243">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AT243">
         <v>2.73</v>
       </c>
       <c r="AU243">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV243">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW243">
+        <v>1</v>
+      </c>
+      <c r="AX243">
         <v>7</v>
       </c>
-      <c r="AX243">
-        <v>5</v>
-      </c>
       <c r="AY243">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AZ243">
         <v>11</v>
       </c>
       <c r="BA243">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB243">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC243">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD243">
+        <v>2.2</v>
+      </c>
+      <c r="BE243">
+        <v>8</v>
+      </c>
+      <c r="BF243">
+        <v>1.91</v>
+      </c>
+      <c r="BG243">
+        <v>1.25</v>
+      </c>
+      <c r="BH243">
+        <v>3.6</v>
+      </c>
+      <c r="BI243">
+        <v>1.42</v>
+      </c>
+      <c r="BJ243">
+        <v>2.62</v>
+      </c>
+      <c r="BK243">
+        <v>1.77</v>
+      </c>
+      <c r="BL243">
         <v>1.95</v>
       </c>
-      <c r="BE243">
-        <v>8.5</v>
-      </c>
-      <c r="BF243">
-        <v>2.05</v>
-      </c>
-      <c r="BG243">
-        <v>1.2</v>
-      </c>
-      <c r="BH243">
-        <v>4</v>
-      </c>
-      <c r="BI243">
-        <v>1.33</v>
-      </c>
-      <c r="BJ243">
-        <v>3</v>
-      </c>
-      <c r="BK243">
-        <v>1.6</v>
-      </c>
-      <c r="BL243">
-        <v>2.3</v>
-      </c>
       <c r="BM243">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="BN243">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO243">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="BP243">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="244" spans="1:68">
@@ -51533,7 +51533,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>7327139</v>
+        <v>7327140</v>
       </c>
       <c r="C244" t="s">
         <v>68</v>
@@ -51548,178 +51548,178 @@
         <v>25</v>
       </c>
       <c r="G244" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H244" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K244">
         <v>2</v>
       </c>
       <c r="L244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M244">
         <v>2</v>
       </c>
       <c r="N244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q244">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="R244">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S244">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T244">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U244">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V244">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="W244">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X244">
+        <v>10</v>
+      </c>
+      <c r="Y244">
+        <v>1.06</v>
+      </c>
+      <c r="Z244">
+        <v>2.88</v>
+      </c>
+      <c r="AA244">
+        <v>3.3</v>
+      </c>
+      <c r="AB244">
+        <v>2.48</v>
+      </c>
+      <c r="AC244">
+        <v>1.07</v>
+      </c>
+      <c r="AD244">
+        <v>8</v>
+      </c>
+      <c r="AE244">
+        <v>1.38</v>
+      </c>
+      <c r="AF244">
+        <v>2.95</v>
+      </c>
+      <c r="AG244">
+        <v>2.1</v>
+      </c>
+      <c r="AH244">
+        <v>1.65</v>
+      </c>
+      <c r="AI244">
+        <v>1.91</v>
+      </c>
+      <c r="AJ244">
+        <v>1.91</v>
+      </c>
+      <c r="AK244">
+        <v>1.5</v>
+      </c>
+      <c r="AL244">
+        <v>1.3</v>
+      </c>
+      <c r="AM244">
+        <v>1.33</v>
+      </c>
+      <c r="AN244">
+        <v>0.55</v>
+      </c>
+      <c r="AO244">
+        <v>1.33</v>
+      </c>
+      <c r="AP244">
+        <v>0.75</v>
+      </c>
+      <c r="AQ244">
+        <v>1.23</v>
+      </c>
+      <c r="AR244">
+        <v>1.38</v>
+      </c>
+      <c r="AS244">
+        <v>1.35</v>
+      </c>
+      <c r="AT244">
+        <v>2.73</v>
+      </c>
+      <c r="AU244">
+        <v>6</v>
+      </c>
+      <c r="AV244">
+        <v>6</v>
+      </c>
+      <c r="AW244">
         <v>7</v>
       </c>
-      <c r="Y244">
-        <v>1.1</v>
-      </c>
-      <c r="Z244">
-        <v>1.72</v>
-      </c>
-      <c r="AA244">
-        <v>3.92</v>
-      </c>
-      <c r="AB244">
-        <v>4.6</v>
-      </c>
-      <c r="AC244">
-        <v>1.05</v>
-      </c>
-      <c r="AD244">
-        <v>9.5</v>
-      </c>
-      <c r="AE244">
-        <v>1.25</v>
-      </c>
-      <c r="AF244">
-        <v>3.6</v>
-      </c>
-      <c r="AG244">
-        <v>1.8</v>
-      </c>
-      <c r="AH244">
-        <v>1.9</v>
-      </c>
-      <c r="AI244">
-        <v>1.7</v>
-      </c>
-      <c r="AJ244">
-        <v>2.05</v>
-      </c>
-      <c r="AK244">
-        <v>1.18</v>
-      </c>
-      <c r="AL244">
-        <v>1.21</v>
-      </c>
-      <c r="AM244">
-        <v>1.91</v>
-      </c>
-      <c r="AN244">
-        <v>0.91</v>
-      </c>
-      <c r="AO244">
-        <v>0.75</v>
-      </c>
-      <c r="AP244">
-        <v>1.08</v>
-      </c>
-      <c r="AQ244">
-        <v>0.77</v>
-      </c>
-      <c r="AR244">
-        <v>1.49</v>
-      </c>
-      <c r="AS244">
-        <v>1.13</v>
-      </c>
-      <c r="AT244">
-        <v>2.62</v>
-      </c>
-      <c r="AU244">
-        <v>7</v>
-      </c>
-      <c r="AV244">
-        <v>3</v>
-      </c>
-      <c r="AW244">
-        <v>6</v>
-      </c>
       <c r="AX244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY244">
         <v>13</v>
       </c>
       <c r="AZ244">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA244">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB244">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC244">
         <v>11</v>
       </c>
       <c r="BD244">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="BE244">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF244">
+        <v>2.05</v>
+      </c>
+      <c r="BG244">
+        <v>1.2</v>
+      </c>
+      <c r="BH244">
+        <v>4</v>
+      </c>
+      <c r="BI244">
+        <v>1.33</v>
+      </c>
+      <c r="BJ244">
         <v>3</v>
       </c>
-      <c r="BG244">
-        <v>1.22</v>
-      </c>
-      <c r="BH244">
-        <v>3.8</v>
-      </c>
-      <c r="BI244">
-        <v>1.38</v>
-      </c>
-      <c r="BJ244">
-        <v>2.8</v>
-      </c>
       <c r="BK244">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="BL244">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="BM244">
         <v>2</v>
@@ -51728,10 +51728,10 @@
         <v>1.8</v>
       </c>
       <c r="BO244">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="BP244">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="245" spans="1:68">
@@ -51739,7 +51739,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>7327141</v>
+        <v>7327139</v>
       </c>
       <c r="C245" t="s">
         <v>68</v>
@@ -51754,190 +51754,190 @@
         <v>25</v>
       </c>
       <c r="G245" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H245" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J245">
         <v>0</v>
       </c>
       <c r="K245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N245">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O245" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>91</v>
+        <v>358</v>
       </c>
       <c r="Q245">
+        <v>2.5</v>
+      </c>
+      <c r="R245">
+        <v>2.25</v>
+      </c>
+      <c r="S245">
+        <v>4.33</v>
+      </c>
+      <c r="T245">
+        <v>1.36</v>
+      </c>
+      <c r="U245">
+        <v>3</v>
+      </c>
+      <c r="V245">
         <v>2.75</v>
       </c>
-      <c r="R245">
-        <v>2.1</v>
-      </c>
-      <c r="S245">
-        <v>4</v>
-      </c>
-      <c r="T245">
+      <c r="W245">
         <v>1.4</v>
       </c>
-      <c r="U245">
-        <v>2.75</v>
-      </c>
-      <c r="V245">
-        <v>3</v>
-      </c>
-      <c r="W245">
-        <v>1.36</v>
-      </c>
       <c r="X245">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y245">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z245">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="AA245">
-        <v>3.42</v>
+        <v>3.92</v>
       </c>
       <c r="AB245">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="AC245">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD245">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE245">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF245">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AG245">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="AH245">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AI245">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ245">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK245">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AL245">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AM245">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AN245">
-        <v>2.08</v>
+        <v>0.91</v>
       </c>
       <c r="AO245">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="AP245">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="AQ245">
-        <v>1.5</v>
+        <v>0.77</v>
       </c>
       <c r="AR245">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AS245">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT245">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="AU245">
         <v>7</v>
       </c>
       <c r="AV245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW245">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY245">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ245">
         <v>6</v>
       </c>
       <c r="BA245">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB245">
         <v>5</v>
       </c>
       <c r="BC245">
+        <v>11</v>
+      </c>
+      <c r="BD245">
+        <v>1.5</v>
+      </c>
+      <c r="BE245">
         <v>9</v>
       </c>
-      <c r="BD245">
-        <v>1.67</v>
-      </c>
-      <c r="BE245">
-        <v>8.5</v>
-      </c>
       <c r="BF245">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="BG245">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BH245">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BI245">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BJ245">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BK245">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="BL245">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="BM245">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BN245">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO245">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="BP245">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="246" spans="1:68">
@@ -53593,7 +53593,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>7327151</v>
+        <v>7327150</v>
       </c>
       <c r="C254" t="s">
         <v>68</v>
@@ -53608,130 +53608,130 @@
         <v>26</v>
       </c>
       <c r="G254" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H254" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K254">
         <v>1</v>
       </c>
       <c r="L254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O254" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="Q254">
-        <v>2.87</v>
+        <v>4.64</v>
       </c>
       <c r="R254">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="S254">
-        <v>4.6</v>
+        <v>2.53</v>
       </c>
       <c r="T254">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U254">
-        <v>2.51</v>
+        <v>2.96</v>
       </c>
       <c r="V254">
-        <v>3.5</v>
+        <v>2.99</v>
       </c>
       <c r="W254">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="X254">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y254">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z254">
-        <v>2.14</v>
+        <v>4.1</v>
       </c>
       <c r="AA254">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="AB254">
-        <v>3.8</v>
+        <v>1.94</v>
       </c>
       <c r="AC254">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="AD254">
-        <v>6.25</v>
+        <v>8.9</v>
       </c>
       <c r="AE254">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AF254">
-        <v>2.6</v>
+        <v>3.42</v>
       </c>
       <c r="AG254">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="AH254">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="AI254">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AJ254">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AK254">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="AL254">
         <v>1.3</v>
       </c>
       <c r="AM254">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AN254">
         <v>1.25</v>
       </c>
       <c r="AO254">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP254">
         <v>1.38</v>
       </c>
       <c r="AQ254">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AR254">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="AS254">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AT254">
-        <v>2.29</v>
+        <v>2.63</v>
       </c>
       <c r="AU254">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW254">
         <v>3</v>
@@ -53740,58 +53740,58 @@
         <v>3</v>
       </c>
       <c r="AY254">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ254">
+        <v>7</v>
+      </c>
+      <c r="BA254">
         <v>6</v>
       </c>
-      <c r="BA254">
+      <c r="BB254">
         <v>3</v>
       </c>
-      <c r="BB254">
-        <v>8</v>
-      </c>
       <c r="BC254">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD254">
-        <v>1.58</v>
+        <v>2.53</v>
       </c>
       <c r="BE254">
-        <v>7</v>
+        <v>6.85</v>
       </c>
       <c r="BF254">
-        <v>3.15</v>
+        <v>1.82</v>
       </c>
       <c r="BG254">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="BH254">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="BI254">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="BJ254">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="BK254">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="BL254">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="BM254">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="BN254">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="BO254">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="BP254">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="255" spans="1:68">
@@ -53799,7 +53799,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>7327148</v>
+        <v>7327149</v>
       </c>
       <c r="C255" t="s">
         <v>68</v>
@@ -53814,160 +53814,160 @@
         <v>26</v>
       </c>
       <c r="G255" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H255" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I255">
         <v>0</v>
       </c>
       <c r="J255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K255">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L255">
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N255">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O255" t="s">
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="Q255">
-        <v>2.78</v>
+        <v>3.44</v>
       </c>
       <c r="R255">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="S255">
-        <v>4.13</v>
+        <v>2.86</v>
       </c>
       <c r="T255">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U255">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V255">
-        <v>3</v>
+        <v>2.47</v>
       </c>
       <c r="W255">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="X255">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y255">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z255">
-        <v>2.15</v>
+        <v>2.95</v>
       </c>
       <c r="AA255">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="AB255">
-        <v>3.55</v>
+        <v>2.33</v>
       </c>
       <c r="AC255">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD255">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AE255">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AF255">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="AG255">
-        <v>2.07</v>
+        <v>1.61</v>
       </c>
       <c r="AH255">
-        <v>1.82</v>
+        <v>2.14</v>
       </c>
       <c r="AI255">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AJ255">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AK255">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AL255">
         <v>1.25</v>
       </c>
       <c r="AM255">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AN255">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AO255">
-        <v>1.58</v>
+        <v>0.92</v>
       </c>
       <c r="AP255">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ255">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="AR255">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AS255">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="AT255">
-        <v>2.69</v>
+        <v>2.86</v>
       </c>
       <c r="AU255">
+        <v>4</v>
+      </c>
+      <c r="AV255">
+        <v>5</v>
+      </c>
+      <c r="AW255">
+        <v>5</v>
+      </c>
+      <c r="AX255">
+        <v>2</v>
+      </c>
+      <c r="AY255">
         <v>9</v>
       </c>
-      <c r="AV255">
+      <c r="AZ255">
+        <v>7</v>
+      </c>
+      <c r="BA255">
+        <v>3</v>
+      </c>
+      <c r="BB255">
         <v>6</v>
       </c>
-      <c r="AW255">
-        <v>3</v>
-      </c>
-      <c r="AX255">
-        <v>3</v>
-      </c>
-      <c r="AY255">
-        <v>12</v>
-      </c>
-      <c r="AZ255">
+      <c r="BC255">
         <v>9</v>
       </c>
-      <c r="BA255">
-        <v>6</v>
-      </c>
-      <c r="BB255">
-        <v>4</v>
-      </c>
-      <c r="BC255">
-        <v>10</v>
-      </c>
       <c r="BD255">
-        <v>1.54</v>
+        <v>2.09</v>
       </c>
       <c r="BE255">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="BF255">
-        <v>3.28</v>
+        <v>2.16</v>
       </c>
       <c r="BG255">
         <v>1.28</v>
@@ -53976,28 +53976,28 @@
         <v>3.5</v>
       </c>
       <c r="BI255">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="BJ255">
-        <v>2.91</v>
+        <v>2.55</v>
       </c>
       <c r="BK255">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="BL255">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="BM255">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="BN255">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="BO255">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="BP255">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="256" spans="1:68">
@@ -54005,7 +54005,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>7327149</v>
+        <v>7327152</v>
       </c>
       <c r="C256" t="s">
         <v>68</v>
@@ -54020,190 +54020,190 @@
         <v>26</v>
       </c>
       <c r="G256" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H256" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
       <c r="J256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N256">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O256" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="P256" t="s">
-        <v>361</v>
+        <v>140</v>
       </c>
       <c r="Q256">
-        <v>3.44</v>
+        <v>4.2</v>
       </c>
       <c r="R256">
+        <v>2.3</v>
+      </c>
+      <c r="S256">
         <v>2.41</v>
       </c>
-      <c r="S256">
-        <v>2.86</v>
-      </c>
       <c r="T256">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U256">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V256">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="W256">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="X256">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y256">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z256">
-        <v>2.95</v>
+        <v>4.1</v>
       </c>
       <c r="AA256">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AB256">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="AC256">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD256">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE256">
         <v>1.2</v>
       </c>
       <c r="AF256">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AG256">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AH256">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="AI256">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AJ256">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK256">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AL256">
         <v>1.25</v>
       </c>
       <c r="AM256">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AN256">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AO256">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="AP256">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AQ256">
         <v>1.08</v>
       </c>
       <c r="AR256">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AS256">
+        <v>1.37</v>
+      </c>
+      <c r="AT256">
+        <v>2.8</v>
+      </c>
+      <c r="AU256">
+        <v>5</v>
+      </c>
+      <c r="AV256">
+        <v>7</v>
+      </c>
+      <c r="AW256">
+        <v>6</v>
+      </c>
+      <c r="AX256">
+        <v>5</v>
+      </c>
+      <c r="AY256">
+        <v>11</v>
+      </c>
+      <c r="AZ256">
+        <v>12</v>
+      </c>
+      <c r="BA256">
+        <v>6</v>
+      </c>
+      <c r="BB256">
+        <v>8</v>
+      </c>
+      <c r="BC256">
+        <v>14</v>
+      </c>
+      <c r="BD256">
+        <v>2.43</v>
+      </c>
+      <c r="BE256">
+        <v>6.8</v>
+      </c>
+      <c r="BF256">
+        <v>1.87</v>
+      </c>
+      <c r="BG256">
+        <v>1.18</v>
+      </c>
+      <c r="BH256">
+        <v>4.33</v>
+      </c>
+      <c r="BI256">
+        <v>1.33</v>
+      </c>
+      <c r="BJ256">
+        <v>3</v>
+      </c>
+      <c r="BK256">
         <v>1.57</v>
       </c>
-      <c r="AT256">
-        <v>2.86</v>
-      </c>
-      <c r="AU256">
-        <v>4</v>
-      </c>
-      <c r="AV256">
-        <v>5</v>
-      </c>
-      <c r="AW256">
-        <v>5</v>
-      </c>
-      <c r="AX256">
-        <v>2</v>
-      </c>
-      <c r="AY256">
-        <v>9</v>
-      </c>
-      <c r="AZ256">
-        <v>7</v>
-      </c>
-      <c r="BA256">
-        <v>3</v>
-      </c>
-      <c r="BB256">
-        <v>6</v>
-      </c>
-      <c r="BC256">
-        <v>9</v>
-      </c>
-      <c r="BD256">
-        <v>2.09</v>
-      </c>
-      <c r="BE256">
-        <v>6.6</v>
-      </c>
-      <c r="BF256">
-        <v>2.16</v>
-      </c>
-      <c r="BG256">
-        <v>1.28</v>
-      </c>
-      <c r="BH256">
-        <v>3.5</v>
-      </c>
-      <c r="BI256">
-        <v>1.47</v>
-      </c>
-      <c r="BJ256">
-        <v>2.55</v>
-      </c>
-      <c r="BK256">
-        <v>1.69</v>
-      </c>
       <c r="BL256">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="BM256">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="BN256">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="BO256">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="BP256">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="257" spans="1:68">
@@ -54211,7 +54211,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>7327150</v>
+        <v>7327151</v>
       </c>
       <c r="C257" t="s">
         <v>68</v>
@@ -54226,130 +54226,130 @@
         <v>26</v>
       </c>
       <c r="G257" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H257" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K257">
         <v>1</v>
       </c>
       <c r="L257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O257" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="P257" t="s">
-        <v>352</v>
+        <v>91</v>
       </c>
       <c r="Q257">
-        <v>4.64</v>
+        <v>2.87</v>
       </c>
       <c r="R257">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="S257">
-        <v>2.53</v>
+        <v>4.6</v>
       </c>
       <c r="T257">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="U257">
-        <v>2.96</v>
+        <v>2.51</v>
       </c>
       <c r="V257">
-        <v>2.99</v>
+        <v>3.5</v>
       </c>
       <c r="W257">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="X257">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y257">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z257">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="AA257">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="AB257">
-        <v>1.94</v>
+        <v>3.8</v>
       </c>
       <c r="AC257">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="AD257">
-        <v>8.9</v>
+        <v>6.25</v>
       </c>
       <c r="AE257">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AF257">
-        <v>3.42</v>
+        <v>2.6</v>
       </c>
       <c r="AG257">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="AH257">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="AI257">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AJ257">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AK257">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="AL257">
         <v>1.3</v>
       </c>
       <c r="AM257">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AN257">
         <v>1.25</v>
       </c>
       <c r="AO257">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP257">
         <v>1.38</v>
       </c>
       <c r="AQ257">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AR257">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
       <c r="AS257">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT257">
-        <v>2.63</v>
+        <v>2.29</v>
       </c>
       <c r="AU257">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW257">
         <v>3</v>
@@ -54358,58 +54358,58 @@
         <v>3</v>
       </c>
       <c r="AY257">
+        <v>5</v>
+      </c>
+      <c r="AZ257">
+        <v>6</v>
+      </c>
+      <c r="BA257">
+        <v>3</v>
+      </c>
+      <c r="BB257">
         <v>8</v>
       </c>
-      <c r="AZ257">
+      <c r="BC257">
+        <v>11</v>
+      </c>
+      <c r="BD257">
+        <v>1.58</v>
+      </c>
+      <c r="BE257">
         <v>7</v>
       </c>
-      <c r="BA257">
-        <v>6</v>
-      </c>
-      <c r="BB257">
-        <v>3</v>
-      </c>
-      <c r="BC257">
-        <v>9</v>
-      </c>
-      <c r="BD257">
-        <v>2.53</v>
-      </c>
-      <c r="BE257">
-        <v>6.85</v>
-      </c>
       <c r="BF257">
-        <v>1.82</v>
+        <v>3.15</v>
       </c>
       <c r="BG257">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="BH257">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI257">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BJ257">
-        <v>2.85</v>
+        <v>2.45</v>
       </c>
       <c r="BK257">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="BL257">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="BM257">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="BN257">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="BO257">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="BP257">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="258" spans="1:68">
@@ -54417,7 +54417,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>7327152</v>
+        <v>7327148</v>
       </c>
       <c r="C258" t="s">
         <v>68</v>
@@ -54432,10 +54432,10 @@
         <v>26</v>
       </c>
       <c r="G258" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H258" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -54447,175 +54447,175 @@
         <v>0</v>
       </c>
       <c r="L258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O258" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="P258" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="Q258">
-        <v>4.2</v>
+        <v>2.78</v>
       </c>
       <c r="R258">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S258">
-        <v>2.41</v>
+        <v>4.13</v>
       </c>
       <c r="T258">
+        <v>1.4</v>
+      </c>
+      <c r="U258">
+        <v>2.75</v>
+      </c>
+      <c r="V258">
+        <v>3</v>
+      </c>
+      <c r="W258">
+        <v>1.36</v>
+      </c>
+      <c r="X258">
+        <v>9</v>
+      </c>
+      <c r="Y258">
+        <v>1.07</v>
+      </c>
+      <c r="Z258">
+        <v>2.15</v>
+      </c>
+      <c r="AA258">
+        <v>3.55</v>
+      </c>
+      <c r="AB258">
+        <v>3.55</v>
+      </c>
+      <c r="AC258">
+        <v>1.06</v>
+      </c>
+      <c r="AD258">
+        <v>7.2</v>
+      </c>
+      <c r="AE258">
         <v>1.33</v>
       </c>
-      <c r="U258">
-        <v>3.25</v>
-      </c>
-      <c r="V258">
-        <v>2.55</v>
-      </c>
-      <c r="W258">
-        <v>1.45</v>
-      </c>
-      <c r="X258">
-        <v>6.5</v>
-      </c>
-      <c r="Y258">
-        <v>1.11</v>
-      </c>
-      <c r="Z258">
-        <v>4.1</v>
-      </c>
-      <c r="AA258">
-        <v>3.95</v>
-      </c>
-      <c r="AB258">
-        <v>1.88</v>
-      </c>
-      <c r="AC258">
-        <v>1.01</v>
-      </c>
-      <c r="AD258">
-        <v>11</v>
-      </c>
-      <c r="AE258">
-        <v>1.2</v>
-      </c>
       <c r="AF258">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AG258">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="AH258">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="AI258">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AJ258">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AK258">
-        <v>1.89</v>
+        <v>1.3</v>
       </c>
       <c r="AL258">
         <v>1.25</v>
       </c>
       <c r="AM258">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="AN258">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO258">
-        <v>1.09</v>
+        <v>1.58</v>
       </c>
       <c r="AP258">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AQ258">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="AR258">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AS258">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AT258">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AU258">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV258">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW258">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX258">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY258">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ258">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA258">
         <v>6</v>
       </c>
       <c r="BB258">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC258">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD258">
-        <v>2.43</v>
+        <v>1.54</v>
       </c>
       <c r="BE258">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="BF258">
-        <v>1.87</v>
+        <v>3.28</v>
       </c>
       <c r="BG258">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="BH258">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="BI258">
         <v>1.33</v>
       </c>
       <c r="BJ258">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="BK258">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BL258">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="BM258">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BN258">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="BO258">
-        <v>2.36</v>
+        <v>2.65</v>
       </c>
       <c r="BP258">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="259" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,9 @@
     <t>['25', '70']</t>
   </si>
   <si>
+    <t>['10', '11', '16', '70', '89']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1103,6 +1106,9 @@
   </si>
   <si>
     <t>['45+3', '65']</t>
+  </si>
+  <si>
+    <t>['57', '60', '77']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP260"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1935,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2135,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2547,7 +2553,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2959,7 +2965,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3165,7 +3171,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3577,7 +3583,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3783,7 +3789,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3989,7 +3995,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4195,7 +4201,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4607,7 +4613,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5019,7 +5025,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5225,7 +5231,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5843,7 +5849,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6542,7 +6548,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ25">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6873,7 +6879,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7569,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ30">
         <v>1.08</v>
@@ -7697,7 +7703,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7903,7 +7909,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7981,7 +7987,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ32">
         <v>2.31</v>
@@ -8315,7 +8321,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8727,7 +8733,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8933,7 +8939,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9139,7 +9145,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9551,7 +9557,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9757,7 +9763,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9963,7 +9969,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10787,7 +10793,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10868,7 +10874,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -12435,7 +12441,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12847,7 +12853,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13465,7 +13471,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13543,7 +13549,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ59">
         <v>1.23</v>
@@ -13671,7 +13677,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13955,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ61">
         <v>1.54</v>
@@ -14289,7 +14295,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14495,7 +14501,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14701,7 +14707,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15113,7 +15119,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15606,7 +15612,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -16349,7 +16355,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16555,7 +16561,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17379,7 +17385,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17791,7 +17797,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17997,7 +18003,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18078,7 +18084,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18281,7 +18287,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ82">
         <v>1.69</v>
@@ -18409,7 +18415,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18615,7 +18621,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -19645,7 +19651,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19851,7 +19857,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20057,7 +20063,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20135,7 +20141,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ91">
         <v>1.21</v>
@@ -20675,7 +20681,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20881,7 +20887,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21293,7 +21299,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21499,7 +21505,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21786,7 +21792,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ99">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21911,7 +21917,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22323,7 +22329,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22735,7 +22741,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23353,7 +23359,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23765,7 +23771,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23971,7 +23977,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24177,7 +24183,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24383,7 +24389,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -25001,7 +25007,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25285,7 +25291,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25413,7 +25419,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25619,7 +25625,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25906,7 +25912,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -26031,7 +26037,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26237,7 +26243,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26443,7 +26449,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26649,7 +26655,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26730,7 +26736,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -27267,7 +27273,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27473,7 +27479,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27679,7 +27685,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27885,7 +27891,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28091,7 +28097,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28581,7 +28587,7 @@
         <v>1.14</v>
       </c>
       <c r="AP132">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ132">
         <v>0.77</v>
@@ -29327,7 +29333,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29533,7 +29539,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -30151,7 +30157,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30357,7 +30363,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30769,7 +30775,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30975,7 +30981,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31799,7 +31805,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32211,7 +32217,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32289,7 +32295,7 @@
         <v>1.5</v>
       </c>
       <c r="AP150">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ150">
         <v>1.23</v>
@@ -32417,7 +32423,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32623,7 +32629,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32829,7 +32835,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33447,7 +33453,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34271,7 +34277,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34683,7 +34689,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34889,7 +34895,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35095,7 +35101,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35713,7 +35719,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36125,7 +36131,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36331,7 +36337,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36537,7 +36543,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37442,7 +37448,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ175">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37567,7 +37573,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -38391,7 +38397,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -39009,7 +39015,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39215,7 +39221,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39421,7 +39427,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39833,7 +39839,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40245,7 +40251,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40451,7 +40457,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40529,7 +40535,7 @@
         <v>1.22</v>
       </c>
       <c r="AP190">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ190">
         <v>1.31</v>
@@ -40657,7 +40663,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -41893,7 +41899,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42180,7 +42186,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ198">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR198">
         <v>1.52</v>
@@ -42511,7 +42517,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42795,7 +42801,7 @@
         <v>1.2</v>
       </c>
       <c r="AP201">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ201">
         <v>1.38</v>
@@ -43129,7 +43135,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43335,7 +43341,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43541,7 +43547,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44159,7 +44165,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44365,7 +44371,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44858,7 +44864,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ211">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR211">
         <v>1.71</v>
@@ -44983,7 +44989,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45601,7 +45607,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45682,7 +45688,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ215">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR215">
         <v>1.43</v>
@@ -45807,7 +45813,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46013,7 +46019,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46219,7 +46225,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46631,7 +46637,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46837,7 +46843,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -47043,7 +47049,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47121,7 +47127,7 @@
         <v>2.09</v>
       </c>
       <c r="AP222">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ222">
         <v>1.93</v>
@@ -48691,7 +48697,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48897,7 +48903,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49103,7 +49109,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49309,7 +49315,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49515,7 +49521,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49721,7 +49727,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49927,7 +49933,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -50339,7 +50345,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50545,7 +50551,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50751,7 +50757,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50957,7 +50963,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51575,7 +51581,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51781,7 +51787,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52480,7 +52486,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ248">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR248">
         <v>1.34</v>
@@ -52811,7 +52817,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -53017,7 +53023,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53095,7 +53101,7 @@
         <v>1.58</v>
       </c>
       <c r="AP251">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ251">
         <v>1.54</v>
@@ -53223,7 +53229,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53635,7 +53641,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q254">
         <v>4.64</v>
@@ -53841,7 +53847,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -54665,7 +54671,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -55028,6 +55034,212 @@
       </c>
       <c r="BP260">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7327155</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45520.3125</v>
+      </c>
+      <c r="F261">
+        <v>27</v>
+      </c>
+      <c r="G261" t="s">
+        <v>89</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261">
+        <v>3</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>3</v>
+      </c>
+      <c r="L261">
+        <v>5</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>8</v>
+      </c>
+      <c r="O261" t="s">
+        <v>253</v>
+      </c>
+      <c r="P261" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q261">
+        <v>2.5</v>
+      </c>
+      <c r="R261">
+        <v>2.38</v>
+      </c>
+      <c r="S261">
+        <v>3.6</v>
+      </c>
+      <c r="T261">
+        <v>1.29</v>
+      </c>
+      <c r="U261">
+        <v>3.3</v>
+      </c>
+      <c r="V261">
+        <v>2.25</v>
+      </c>
+      <c r="W261">
+        <v>1.57</v>
+      </c>
+      <c r="X261">
+        <v>5</v>
+      </c>
+      <c r="Y261">
+        <v>1.13</v>
+      </c>
+      <c r="Z261">
+        <v>2.04</v>
+      </c>
+      <c r="AA261">
+        <v>3.35</v>
+      </c>
+      <c r="AB261">
+        <v>2.94</v>
+      </c>
+      <c r="AC261">
+        <v>1.01</v>
+      </c>
+      <c r="AD261">
+        <v>12</v>
+      </c>
+      <c r="AE261">
+        <v>1.18</v>
+      </c>
+      <c r="AF261">
+        <v>4.33</v>
+      </c>
+      <c r="AG261">
+        <v>1.61</v>
+      </c>
+      <c r="AH261">
+        <v>2.14</v>
+      </c>
+      <c r="AI261">
+        <v>1.53</v>
+      </c>
+      <c r="AJ261">
+        <v>2.38</v>
+      </c>
+      <c r="AK261">
+        <v>1.35</v>
+      </c>
+      <c r="AL261">
+        <v>1.29</v>
+      </c>
+      <c r="AM261">
+        <v>1.73</v>
+      </c>
+      <c r="AN261">
+        <v>0.77</v>
+      </c>
+      <c r="AO261">
+        <v>0.83</v>
+      </c>
+      <c r="AP261">
+        <v>0.93</v>
+      </c>
+      <c r="AQ261">
+        <v>0.77</v>
+      </c>
+      <c r="AR261">
+        <v>1.3</v>
+      </c>
+      <c r="AS261">
+        <v>1.26</v>
+      </c>
+      <c r="AT261">
+        <v>2.56</v>
+      </c>
+      <c r="AU261">
+        <v>9</v>
+      </c>
+      <c r="AV261">
+        <v>7</v>
+      </c>
+      <c r="AW261">
+        <v>6</v>
+      </c>
+      <c r="AX261">
+        <v>2</v>
+      </c>
+      <c r="AY261">
+        <v>15</v>
+      </c>
+      <c r="AZ261">
+        <v>9</v>
+      </c>
+      <c r="BA261">
+        <v>3</v>
+      </c>
+      <c r="BB261">
+        <v>0</v>
+      </c>
+      <c r="BC261">
+        <v>3</v>
+      </c>
+      <c r="BD261">
+        <v>1.73</v>
+      </c>
+      <c r="BE261">
+        <v>8</v>
+      </c>
+      <c r="BF261">
+        <v>2.4</v>
+      </c>
+      <c r="BG261">
+        <v>1.18</v>
+      </c>
+      <c r="BH261">
+        <v>3.9</v>
+      </c>
+      <c r="BI261">
+        <v>1.36</v>
+      </c>
+      <c r="BJ261">
+        <v>2.75</v>
+      </c>
+      <c r="BK261">
+        <v>1.63</v>
+      </c>
+      <c r="BL261">
+        <v>2.06</v>
+      </c>
+      <c r="BM261">
+        <v>2.05</v>
+      </c>
+      <c r="BN261">
+        <v>1.64</v>
+      </c>
+      <c r="BO261">
+        <v>2.7</v>
+      </c>
+      <c r="BP261">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="374">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,18 @@
     <t>['10', '11', '16', '70', '89']</t>
   </si>
   <si>
+    <t>['4', '29', '45+2', '58']</t>
+  </si>
+  <si>
+    <t>['45', '79', '90+6']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['45+3', '84']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1109,6 +1121,21 @@
   </si>
   <si>
     <t>['57', '60', '77']</t>
+  </si>
+  <si>
+    <t>['12', '17', '28', '56', '64']</t>
+  </si>
+  <si>
+    <t>['58', '60', '79']</t>
+  </si>
+  <si>
+    <t>['53', '76']</t>
+  </si>
+  <si>
+    <t>['48', '55']</t>
+  </si>
+  <si>
+    <t>['56', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1935,7 +1962,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2013,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>1.23</v>
@@ -2141,7 +2168,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2425,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ5">
         <v>0.46</v>
@@ -2553,7 +2580,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2634,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2837,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2965,7 +2992,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3043,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ8">
         <v>1.08</v>
@@ -3171,7 +3198,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3249,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3458,7 +3485,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3583,7 +3610,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3664,7 +3691,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ11">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3789,7 +3816,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3995,7 +4022,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4073,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4201,7 +4228,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4279,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4485,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15">
         <v>2.31</v>
@@ -4613,7 +4640,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5025,7 +5052,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5103,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18">
         <v>1.15</v>
@@ -5231,7 +5258,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5309,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5518,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5724,7 +5751,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ21">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5849,7 +5876,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5930,7 +5957,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6339,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24">
         <v>1.23</v>
@@ -6751,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
         <v>1.21</v>
@@ -6879,7 +6906,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -6957,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.93</v>
@@ -7163,10 +7190,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR28">
         <v>2.2</v>
@@ -7369,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ29">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR29">
         <v>1.59</v>
@@ -7703,7 +7730,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7781,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7909,7 +7936,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8193,10 +8220,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ33">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -8321,7 +8348,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8608,7 +8635,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR35">
         <v>1.75</v>
@@ -8733,7 +8760,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8939,7 +8966,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9020,7 +9047,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.87</v>
@@ -9145,7 +9172,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9226,7 +9253,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.82</v>
@@ -9429,7 +9456,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ39">
         <v>1.08</v>
@@ -9557,7 +9584,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9635,7 +9662,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ40">
         <v>1.08</v>
@@ -9763,7 +9790,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9844,7 +9871,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ41">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9969,7 +9996,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10050,7 +10077,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ42">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>2.57</v>
@@ -10256,7 +10283,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10459,7 +10486,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ44">
         <v>0.46</v>
@@ -10665,7 +10692,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10793,7 +10820,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10871,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46">
         <v>0.77</v>
@@ -11283,10 +11310,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ48">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR48">
         <v>1.19</v>
@@ -11489,10 +11516,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ49">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>0.75</v>
@@ -11695,7 +11722,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50">
         <v>1.21</v>
@@ -12107,7 +12134,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ52">
         <v>1.23</v>
@@ -12316,7 +12343,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ53">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>0.74</v>
@@ -12441,7 +12468,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12519,10 +12546,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ54">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR54">
         <v>1.33</v>
@@ -12728,7 +12755,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR55">
         <v>1.66</v>
@@ -12853,7 +12880,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12931,10 +12958,10 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ56">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -13471,7 +13498,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13677,7 +13704,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13755,7 +13782,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.08</v>
@@ -13964,7 +13991,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ61">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.19</v>
@@ -14170,7 +14197,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14295,7 +14322,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14373,10 +14400,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ63">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.78</v>
@@ -14501,7 +14528,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14707,7 +14734,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14788,7 +14815,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.8</v>
@@ -15119,7 +15146,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15197,7 +15224,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ67">
         <v>2.31</v>
@@ -15403,7 +15430,7 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ68">
         <v>1.54</v>
@@ -15815,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.23</v>
@@ -16024,7 +16051,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -16355,7 +16382,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16561,7 +16588,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17051,10 +17078,10 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ76">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17257,10 +17284,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ77">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR77">
         <v>1.24</v>
@@ -17385,7 +17412,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17463,7 +17490,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ78">
         <v>1.93</v>
@@ -17669,7 +17696,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ79">
         <v>1.08</v>
@@ -17797,7 +17824,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18003,7 +18030,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18290,7 +18317,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ82">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR82">
         <v>1.24</v>
@@ -18415,7 +18442,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18496,7 +18523,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.71</v>
@@ -18621,7 +18648,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18905,7 +18932,7 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85">
         <v>1.93</v>
@@ -19111,10 +19138,10 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ86">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.34</v>
@@ -19320,7 +19347,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ87">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.7</v>
@@ -19523,10 +19550,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
         <v>1.75</v>
@@ -19651,7 +19678,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19729,7 +19756,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
         <v>2.31</v>
@@ -19857,7 +19884,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19935,7 +19962,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
         <v>1.15</v>
@@ -20063,7 +20090,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20553,10 +20580,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ93">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR93">
         <v>1.73</v>
@@ -20681,7 +20708,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20887,7 +20914,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -20965,10 +20992,10 @@
         <v>2.25</v>
       </c>
       <c r="AP95">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ95">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21299,7 +21326,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21505,7 +21532,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21917,7 +21944,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22204,7 +22231,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR101">
         <v>1.86</v>
@@ -22329,7 +22356,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22410,7 +22437,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ102">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22613,7 +22640,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ103">
         <v>1.21</v>
@@ -22741,7 +22768,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -22819,10 +22846,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -23025,10 +23052,10 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ105">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -23231,7 +23258,7 @@
         <v>0.5</v>
       </c>
       <c r="AP106">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ106">
         <v>0.46</v>
@@ -23359,7 +23386,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23440,7 +23467,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR107">
         <v>1.53</v>
@@ -23643,10 +23670,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ108">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>1.38</v>
@@ -23771,7 +23798,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23849,7 +23876,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ109">
         <v>1.08</v>
@@ -23977,7 +24004,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24055,7 +24082,7 @@
         <v>2.6</v>
       </c>
       <c r="AP110">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
         <v>1.93</v>
@@ -24183,7 +24210,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24261,10 +24288,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
+        <v>1.46</v>
+      </c>
+      <c r="AQ111">
         <v>1.5</v>
-      </c>
-      <c r="AQ111">
-        <v>1.38</v>
       </c>
       <c r="AR111">
         <v>1.88</v>
@@ -24389,7 +24416,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24470,7 +24497,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ112">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR112">
         <v>1.45</v>
@@ -24879,7 +24906,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ114">
         <v>1.08</v>
@@ -25007,7 +25034,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25419,7 +25446,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25625,7 +25652,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25909,7 +25936,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ119">
         <v>0.77</v>
@@ -26037,7 +26064,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26118,7 +26145,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ120">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR120">
         <v>1.61</v>
@@ -26243,7 +26270,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26449,7 +26476,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26655,7 +26682,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26939,7 +26966,7 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ124">
         <v>2.31</v>
@@ -27145,7 +27172,7 @@
         <v>0.6</v>
       </c>
       <c r="AP125">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ125">
         <v>0.46</v>
@@ -27273,7 +27300,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27351,10 +27378,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ126">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>0.97</v>
@@ -27479,7 +27506,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27557,7 +27584,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ127">
         <v>1.93</v>
@@ -27685,7 +27712,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27763,10 +27790,10 @@
         <v>1.6</v>
       </c>
       <c r="AP128">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27891,7 +27918,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -27969,10 +27996,10 @@
         <v>1.6</v>
       </c>
       <c r="AP129">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ129">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR129">
         <v>1.3</v>
@@ -28097,7 +28124,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28381,7 +28408,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28590,7 +28617,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ132">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -29002,7 +29029,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ134">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.54</v>
@@ -29205,7 +29232,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135">
         <v>1.15</v>
@@ -29333,7 +29360,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29414,7 +29441,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ136">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29539,7 +29566,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29823,7 +29850,7 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ138">
         <v>1.54</v>
@@ -30032,7 +30059,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ139">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR139">
         <v>1.71</v>
@@ -30157,7 +30184,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30235,7 +30262,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ140">
         <v>1.15</v>
@@ -30363,7 +30390,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30647,10 +30674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ142">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR142">
         <v>1.39</v>
@@ -30775,7 +30802,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30981,7 +31008,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31062,7 +31089,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ144">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR144">
         <v>1.45</v>
@@ -31471,7 +31498,7 @@
         <v>2.71</v>
       </c>
       <c r="AP146">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ146">
         <v>1.93</v>
@@ -31677,10 +31704,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ147">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR147">
         <v>1.24</v>
@@ -31805,7 +31832,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32089,10 +32116,10 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ149">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR149">
         <v>1.4</v>
@@ -32217,7 +32244,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32423,7 +32450,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32629,7 +32656,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32835,7 +32862,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32913,10 +32940,10 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ153">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -33119,10 +33146,10 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR154">
         <v>1.8</v>
@@ -33325,10 +33352,10 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ155">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR155">
         <v>1.58</v>
@@ -33453,7 +33480,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33531,10 +33558,10 @@
         <v>1.13</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR156">
         <v>0.96</v>
@@ -33737,10 +33764,10 @@
         <v>1.13</v>
       </c>
       <c r="AP157">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ157">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -34152,7 +34179,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ159">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR159">
         <v>1.88</v>
@@ -34277,7 +34304,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34564,7 +34591,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ161">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR161">
         <v>2.23</v>
@@ -34689,7 +34716,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34767,10 +34794,10 @@
         <v>1.38</v>
       </c>
       <c r="AP162">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ162">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -34895,7 +34922,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -34973,10 +35000,10 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ163">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR163">
         <v>1.46</v>
@@ -35101,7 +35128,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35179,10 +35206,10 @@
         <v>1.33</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ164">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
         <v>1.38</v>
@@ -35719,7 +35746,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36003,7 +36030,7 @@
         <v>2.14</v>
       </c>
       <c r="AP168">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ168">
         <v>1.23</v>
@@ -36131,7 +36158,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36337,7 +36364,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36543,7 +36570,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36624,7 +36651,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ171">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR171">
         <v>2.14</v>
@@ -36827,7 +36854,7 @@
         <v>1</v>
       </c>
       <c r="AP172">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ172">
         <v>1.08</v>
@@ -37239,7 +37266,7 @@
         <v>0.75</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ174">
         <v>1.08</v>
@@ -37445,7 +37472,7 @@
         <v>0.57</v>
       </c>
       <c r="AP175">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ175">
         <v>0.77</v>
@@ -37573,7 +37600,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37654,7 +37681,7 @@
         <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR176">
         <v>1.65</v>
@@ -37857,10 +37884,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ177">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR177">
         <v>1.32</v>
@@ -38063,10 +38090,10 @@
         <v>0.89</v>
       </c>
       <c r="AP178">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ178">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR178">
         <v>1.3</v>
@@ -38269,7 +38296,7 @@
         <v>0.67</v>
       </c>
       <c r="AP179">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ179">
         <v>1.21</v>
@@ -38397,7 +38424,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38478,7 +38505,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR180">
         <v>1.74</v>
@@ -38681,7 +38708,7 @@
         <v>1.75</v>
       </c>
       <c r="AP181">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ181">
         <v>1.54</v>
@@ -39015,7 +39042,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39221,7 +39248,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39427,7 +39454,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39714,7 +39741,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ186">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR186">
         <v>1.43</v>
@@ -39839,7 +39866,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40126,7 +40153,7 @@
         <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR188">
         <v>1.44</v>
@@ -40251,7 +40278,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40329,7 +40356,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ189">
         <v>1.5</v>
@@ -40457,7 +40484,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40538,7 +40565,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ190">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR190">
         <v>1.27</v>
@@ -40663,7 +40690,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40744,7 +40771,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ191">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR191">
         <v>2.15</v>
@@ -40947,10 +40974,10 @@
         <v>1.5</v>
       </c>
       <c r="AP192">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ192">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR192">
         <v>1.29</v>
@@ -41153,7 +41180,7 @@
         <v>0.33</v>
       </c>
       <c r="AP193">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
         <v>0.46</v>
@@ -41359,7 +41386,7 @@
         <v>0.7</v>
       </c>
       <c r="AP194">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ194">
         <v>1.21</v>
@@ -41568,7 +41595,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ195">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR195">
         <v>1.32</v>
@@ -41771,7 +41798,7 @@
         <v>0.89</v>
       </c>
       <c r="AP196">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ196">
         <v>1.08</v>
@@ -41899,7 +41926,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -41980,7 +42007,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ197">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42183,7 +42210,7 @@
         <v>0.5</v>
       </c>
       <c r="AP198">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ198">
         <v>0.77</v>
@@ -42389,7 +42416,7 @@
         <v>2.44</v>
       </c>
       <c r="AP199">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ199">
         <v>2.31</v>
@@ -42517,7 +42544,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -42595,10 +42622,10 @@
         <v>1.4</v>
       </c>
       <c r="AP200">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ200">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR200">
         <v>1.37</v>
@@ -42804,7 +42831,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ201">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR201">
         <v>1.29</v>
@@ -43007,10 +43034,10 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ202">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR202">
         <v>1.68</v>
@@ -43135,7 +43162,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43216,7 +43243,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ203">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR203">
         <v>1.74</v>
@@ -43341,7 +43368,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43547,7 +43574,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43625,7 +43652,7 @@
         <v>1.67</v>
       </c>
       <c r="AP205">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ205">
         <v>1.23</v>
@@ -43834,7 +43861,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ206">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR206">
         <v>1.66</v>
@@ -44037,7 +44064,7 @@
         <v>1.67</v>
       </c>
       <c r="AP207">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ207">
         <v>1.54</v>
@@ -44165,7 +44192,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44246,7 +44273,7 @@
         <v>1</v>
       </c>
       <c r="AQ208">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -44371,7 +44398,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44449,10 +44476,10 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ209">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR209">
         <v>1.53</v>
@@ -44655,7 +44682,7 @@
         <v>1.6</v>
       </c>
       <c r="AP210">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ210">
         <v>1.23</v>
@@ -44989,7 +45016,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45273,7 +45300,7 @@
         <v>1.5</v>
       </c>
       <c r="AP213">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ213">
         <v>1.23</v>
@@ -45479,7 +45506,7 @@
         <v>0.3</v>
       </c>
       <c r="AP214">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ214">
         <v>0.46</v>
@@ -45607,7 +45634,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45813,7 +45840,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46019,7 +46046,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46225,7 +46252,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46512,7 +46539,7 @@
         <v>2</v>
       </c>
       <c r="AQ219">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR219">
         <v>1.48</v>
@@ -46637,7 +46664,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46843,7 +46870,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -46921,10 +46948,10 @@
         <v>1.18</v>
       </c>
       <c r="AP221">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ221">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR221">
         <v>1.36</v>
@@ -47049,7 +47076,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47333,10 +47360,10 @@
         <v>1.36</v>
       </c>
       <c r="AP223">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ223">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR223">
         <v>1.32</v>
@@ -47539,10 +47566,10 @@
         <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ224">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR224">
         <v>1</v>
@@ -48363,7 +48390,7 @@
         <v>1.27</v>
       </c>
       <c r="AP228">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ228">
         <v>1.15</v>
@@ -48569,10 +48596,10 @@
         <v>0.82</v>
       </c>
       <c r="AP229">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ229">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR229">
         <v>1.5</v>
@@ -48697,7 +48724,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48778,7 +48805,7 @@
         <v>1</v>
       </c>
       <c r="AQ230">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR230">
         <v>1.42</v>
@@ -48903,7 +48930,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49109,7 +49136,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49187,7 +49214,7 @@
         <v>1.7</v>
       </c>
       <c r="AP232">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ232">
         <v>1.5</v>
@@ -49315,7 +49342,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49393,10 +49420,10 @@
         <v>1.17</v>
       </c>
       <c r="AP233">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ233">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR233">
         <v>1.38</v>
@@ -49521,7 +49548,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49599,7 +49626,7 @@
         <v>1.36</v>
       </c>
       <c r="AP234">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ234">
         <v>1.23</v>
@@ -49727,7 +49754,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49805,10 +49832,10 @@
         <v>1.36</v>
       </c>
       <c r="AP235">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ235">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR235">
         <v>1.35</v>
@@ -49933,7 +49960,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -50217,10 +50244,10 @@
         <v>1.25</v>
       </c>
       <c r="AP237">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ237">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR237">
         <v>1.44</v>
@@ -50345,7 +50372,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50551,7 +50578,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50757,7 +50784,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50838,7 +50865,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ240">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR240">
         <v>1.3</v>
@@ -50963,7 +50990,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51044,7 +51071,7 @@
         <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR241">
         <v>1.42</v>
@@ -51453,7 +51480,7 @@
         <v>2.42</v>
       </c>
       <c r="AP243">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ243">
         <v>2.31</v>
@@ -51581,7 +51608,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51787,7 +51814,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51868,7 +51895,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ245">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR245">
         <v>1.49</v>
@@ -52071,7 +52098,7 @@
         <v>2</v>
       </c>
       <c r="AP246">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ246">
         <v>1.93</v>
@@ -52280,7 +52307,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ247">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR247">
         <v>1.44</v>
@@ -52483,7 +52510,7 @@
         <v>0.91</v>
       </c>
       <c r="AP248">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ248">
         <v>0.77</v>
@@ -52689,7 +52716,7 @@
         <v>1.64</v>
       </c>
       <c r="AP249">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ249">
         <v>1.54</v>
@@ -52817,7 +52844,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -53023,7 +53050,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53229,7 +53256,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53307,7 +53334,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ252">
         <v>1.21</v>
@@ -53641,7 +53668,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q254">
         <v>4.64</v>
@@ -53847,7 +53874,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -53925,7 +53952,7 @@
         <v>0.92</v>
       </c>
       <c r="AP255">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AQ255">
         <v>1.08</v>
@@ -54337,10 +54364,10 @@
         <v>1.5</v>
       </c>
       <c r="AP257">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ257">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR257">
         <v>1.04</v>
@@ -54546,7 +54573,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ258">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR258">
         <v>1.5</v>
@@ -54671,7 +54698,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -54958,7 +54985,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ260">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR260">
         <v>1.5</v>
@@ -55083,7 +55110,7 @@
         <v>253</v>
       </c>
       <c r="P261" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55240,6 +55267,1860 @@
       </c>
       <c r="BP261">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7327156</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45521.25</v>
+      </c>
+      <c r="F262">
+        <v>27</v>
+      </c>
+      <c r="G262" t="s">
+        <v>84</v>
+      </c>
+      <c r="H262" t="s">
+        <v>87</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262" t="s">
+        <v>91</v>
+      </c>
+      <c r="P262" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q262">
+        <v>2.7</v>
+      </c>
+      <c r="R262">
+        <v>2.15</v>
+      </c>
+      <c r="S262">
+        <v>3.75</v>
+      </c>
+      <c r="T262">
+        <v>1.36</v>
+      </c>
+      <c r="U262">
+        <v>2.9</v>
+      </c>
+      <c r="V262">
+        <v>2.62</v>
+      </c>
+      <c r="W262">
+        <v>1.42</v>
+      </c>
+      <c r="X262">
+        <v>6</v>
+      </c>
+      <c r="Y262">
+        <v>1.09</v>
+      </c>
+      <c r="Z262">
+        <v>2.12</v>
+      </c>
+      <c r="AA262">
+        <v>3.16</v>
+      </c>
+      <c r="AB262">
+        <v>2.91</v>
+      </c>
+      <c r="AC262">
+        <v>1.02</v>
+      </c>
+      <c r="AD262">
+        <v>10</v>
+      </c>
+      <c r="AE262">
+        <v>1.29</v>
+      </c>
+      <c r="AF262">
+        <v>3.4</v>
+      </c>
+      <c r="AG262">
+        <v>1.89</v>
+      </c>
+      <c r="AH262">
+        <v>1.95</v>
+      </c>
+      <c r="AI262">
+        <v>1.67</v>
+      </c>
+      <c r="AJ262">
+        <v>2.1</v>
+      </c>
+      <c r="AK262">
+        <v>1.35</v>
+      </c>
+      <c r="AL262">
+        <v>1.3</v>
+      </c>
+      <c r="AM262">
+        <v>1.7</v>
+      </c>
+      <c r="AN262">
+        <v>2.38</v>
+      </c>
+      <c r="AO262">
+        <v>1.08</v>
+      </c>
+      <c r="AP262">
+        <v>2.29</v>
+      </c>
+      <c r="AQ262">
+        <v>1.08</v>
+      </c>
+      <c r="AR262">
+        <v>1.38</v>
+      </c>
+      <c r="AS262">
+        <v>1.39</v>
+      </c>
+      <c r="AT262">
+        <v>2.77</v>
+      </c>
+      <c r="AU262">
+        <v>7</v>
+      </c>
+      <c r="AV262">
+        <v>3</v>
+      </c>
+      <c r="AW262">
+        <v>5</v>
+      </c>
+      <c r="AX262">
+        <v>3</v>
+      </c>
+      <c r="AY262">
+        <v>12</v>
+      </c>
+      <c r="AZ262">
+        <v>6</v>
+      </c>
+      <c r="BA262">
+        <v>2</v>
+      </c>
+      <c r="BB262">
+        <v>1</v>
+      </c>
+      <c r="BC262">
+        <v>3</v>
+      </c>
+      <c r="BD262">
+        <v>1.83</v>
+      </c>
+      <c r="BE262">
+        <v>8</v>
+      </c>
+      <c r="BF262">
+        <v>2.25</v>
+      </c>
+      <c r="BG262">
+        <v>1.18</v>
+      </c>
+      <c r="BH262">
+        <v>3.9</v>
+      </c>
+      <c r="BI262">
+        <v>1.36</v>
+      </c>
+      <c r="BJ262">
+        <v>2.75</v>
+      </c>
+      <c r="BK262">
+        <v>1.63</v>
+      </c>
+      <c r="BL262">
+        <v>2.06</v>
+      </c>
+      <c r="BM262">
+        <v>2.05</v>
+      </c>
+      <c r="BN262">
+        <v>1.64</v>
+      </c>
+      <c r="BO262">
+        <v>2.7</v>
+      </c>
+      <c r="BP262">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7327157</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45521.25</v>
+      </c>
+      <c r="F263">
+        <v>27</v>
+      </c>
+      <c r="G263" t="s">
+        <v>75</v>
+      </c>
+      <c r="H263" t="s">
+        <v>72</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>4</v>
+      </c>
+      <c r="O263" t="s">
+        <v>254</v>
+      </c>
+      <c r="P263" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q263">
+        <v>2.15</v>
+      </c>
+      <c r="R263">
+        <v>2.25</v>
+      </c>
+      <c r="S263">
+        <v>5.25</v>
+      </c>
+      <c r="T263">
+        <v>1.36</v>
+      </c>
+      <c r="U263">
+        <v>2.9</v>
+      </c>
+      <c r="V263">
+        <v>2.62</v>
+      </c>
+      <c r="W263">
+        <v>1.42</v>
+      </c>
+      <c r="X263">
+        <v>6</v>
+      </c>
+      <c r="Y263">
+        <v>1.09</v>
+      </c>
+      <c r="Z263">
+        <v>1.56</v>
+      </c>
+      <c r="AA263">
+        <v>3.71</v>
+      </c>
+      <c r="AB263">
+        <v>5.1</v>
+      </c>
+      <c r="AC263">
+        <v>1.02</v>
+      </c>
+      <c r="AD263">
+        <v>10</v>
+      </c>
+      <c r="AE263">
+        <v>1.29</v>
+      </c>
+      <c r="AF263">
+        <v>3.3</v>
+      </c>
+      <c r="AG263">
+        <v>1.93</v>
+      </c>
+      <c r="AH263">
+        <v>1.91</v>
+      </c>
+      <c r="AI263">
+        <v>1.91</v>
+      </c>
+      <c r="AJ263">
+        <v>1.8</v>
+      </c>
+      <c r="AK263">
+        <v>1.17</v>
+      </c>
+      <c r="AL263">
+        <v>1.22</v>
+      </c>
+      <c r="AM263">
+        <v>2.38</v>
+      </c>
+      <c r="AN263">
+        <v>1.54</v>
+      </c>
+      <c r="AO263">
+        <v>0.77</v>
+      </c>
+      <c r="AP263">
+        <v>1.64</v>
+      </c>
+      <c r="AQ263">
+        <v>0.71</v>
+      </c>
+      <c r="AR263">
+        <v>1.33</v>
+      </c>
+      <c r="AS263">
+        <v>1.11</v>
+      </c>
+      <c r="AT263">
+        <v>2.44</v>
+      </c>
+      <c r="AU263">
+        <v>7</v>
+      </c>
+      <c r="AV263">
+        <v>4</v>
+      </c>
+      <c r="AW263">
+        <v>6</v>
+      </c>
+      <c r="AX263">
+        <v>3</v>
+      </c>
+      <c r="AY263">
+        <v>13</v>
+      </c>
+      <c r="AZ263">
+        <v>7</v>
+      </c>
+      <c r="BA263">
+        <v>7</v>
+      </c>
+      <c r="BB263">
+        <v>6</v>
+      </c>
+      <c r="BC263">
+        <v>13</v>
+      </c>
+      <c r="BD263">
+        <v>1.36</v>
+      </c>
+      <c r="BE263">
+        <v>9</v>
+      </c>
+      <c r="BF263">
+        <v>3.6</v>
+      </c>
+      <c r="BG263">
+        <v>1.24</v>
+      </c>
+      <c r="BH263">
+        <v>3.45</v>
+      </c>
+      <c r="BI263">
+        <v>1.45</v>
+      </c>
+      <c r="BJ263">
+        <v>2.45</v>
+      </c>
+      <c r="BK263">
+        <v>1.82</v>
+      </c>
+      <c r="BL263">
+        <v>1.98</v>
+      </c>
+      <c r="BM263">
+        <v>2.28</v>
+      </c>
+      <c r="BN263">
+        <v>1.52</v>
+      </c>
+      <c r="BO263">
+        <v>3.05</v>
+      </c>
+      <c r="BP263">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7327162</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F264">
+        <v>27</v>
+      </c>
+      <c r="G264" t="s">
+        <v>77</v>
+      </c>
+      <c r="H264" t="s">
+        <v>83</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>3</v>
+      </c>
+      <c r="K264">
+        <v>4</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>8</v>
+      </c>
+      <c r="O264" t="s">
+        <v>255</v>
+      </c>
+      <c r="P264" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q264">
+        <v>2.6</v>
+      </c>
+      <c r="R264">
+        <v>2.1</v>
+      </c>
+      <c r="S264">
+        <v>4.33</v>
+      </c>
+      <c r="T264">
+        <v>1.4</v>
+      </c>
+      <c r="U264">
+        <v>2.75</v>
+      </c>
+      <c r="V264">
+        <v>3</v>
+      </c>
+      <c r="W264">
+        <v>1.36</v>
+      </c>
+      <c r="X264">
+        <v>8</v>
+      </c>
+      <c r="Y264">
+        <v>1.08</v>
+      </c>
+      <c r="Z264">
+        <v>2</v>
+      </c>
+      <c r="AA264">
+        <v>3.17</v>
+      </c>
+      <c r="AB264">
+        <v>3.5</v>
+      </c>
+      <c r="AC264">
+        <v>1.02</v>
+      </c>
+      <c r="AD264">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE264">
+        <v>1.3</v>
+      </c>
+      <c r="AF264">
+        <v>3.3</v>
+      </c>
+      <c r="AG264">
+        <v>2.06</v>
+      </c>
+      <c r="AH264">
+        <v>1.82</v>
+      </c>
+      <c r="AI264">
+        <v>1.8</v>
+      </c>
+      <c r="AJ264">
+        <v>1.95</v>
+      </c>
+      <c r="AK264">
+        <v>1.25</v>
+      </c>
+      <c r="AL264">
+        <v>1.29</v>
+      </c>
+      <c r="AM264">
+        <v>1.86</v>
+      </c>
+      <c r="AN264">
+        <v>1.77</v>
+      </c>
+      <c r="AO264">
+        <v>1.36</v>
+      </c>
+      <c r="AP264">
+        <v>1.64</v>
+      </c>
+      <c r="AQ264">
+        <v>1.47</v>
+      </c>
+      <c r="AR264">
+        <v>1.38</v>
+      </c>
+      <c r="AS264">
+        <v>1.33</v>
+      </c>
+      <c r="AT264">
+        <v>2.71</v>
+      </c>
+      <c r="AU264">
+        <v>7</v>
+      </c>
+      <c r="AV264">
+        <v>10</v>
+      </c>
+      <c r="AW264">
+        <v>5</v>
+      </c>
+      <c r="AX264">
+        <v>9</v>
+      </c>
+      <c r="AY264">
+        <v>12</v>
+      </c>
+      <c r="AZ264">
+        <v>19</v>
+      </c>
+      <c r="BA264">
+        <v>11</v>
+      </c>
+      <c r="BB264">
+        <v>5</v>
+      </c>
+      <c r="BC264">
+        <v>16</v>
+      </c>
+      <c r="BD264">
+        <v>1.73</v>
+      </c>
+      <c r="BE264">
+        <v>8.5</v>
+      </c>
+      <c r="BF264">
+        <v>2.4</v>
+      </c>
+      <c r="BG264">
+        <v>1.18</v>
+      </c>
+      <c r="BH264">
+        <v>4.33</v>
+      </c>
+      <c r="BI264">
+        <v>1.33</v>
+      </c>
+      <c r="BJ264">
+        <v>3</v>
+      </c>
+      <c r="BK264">
+        <v>1.57</v>
+      </c>
+      <c r="BL264">
+        <v>2.36</v>
+      </c>
+      <c r="BM264">
+        <v>1.88</v>
+      </c>
+      <c r="BN264">
+        <v>1.92</v>
+      </c>
+      <c r="BO264">
+        <v>2.38</v>
+      </c>
+      <c r="BP264">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7327158</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F265">
+        <v>27</v>
+      </c>
+      <c r="G265" t="s">
+        <v>85</v>
+      </c>
+      <c r="H265" t="s">
+        <v>79</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265" t="s">
+        <v>91</v>
+      </c>
+      <c r="P265" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q265">
+        <v>3.1</v>
+      </c>
+      <c r="R265">
+        <v>2.05</v>
+      </c>
+      <c r="S265">
+        <v>3.3</v>
+      </c>
+      <c r="T265">
+        <v>1.42</v>
+      </c>
+      <c r="U265">
+        <v>2.62</v>
+      </c>
+      <c r="V265">
+        <v>2.9</v>
+      </c>
+      <c r="W265">
+        <v>1.36</v>
+      </c>
+      <c r="X265">
+        <v>7</v>
+      </c>
+      <c r="Y265">
+        <v>1.07</v>
+      </c>
+      <c r="Z265">
+        <v>2.49</v>
+      </c>
+      <c r="AA265">
+        <v>3.09</v>
+      </c>
+      <c r="AB265">
+        <v>2.65</v>
+      </c>
+      <c r="AC265">
+        <v>1.04</v>
+      </c>
+      <c r="AD265">
+        <v>8.5</v>
+      </c>
+      <c r="AE265">
+        <v>1.33</v>
+      </c>
+      <c r="AF265">
+        <v>3</v>
+      </c>
+      <c r="AG265">
+        <v>2.07</v>
+      </c>
+      <c r="AH265">
+        <v>1.71</v>
+      </c>
+      <c r="AI265">
+        <v>1.8</v>
+      </c>
+      <c r="AJ265">
+        <v>1.91</v>
+      </c>
+      <c r="AK265">
+        <v>1.45</v>
+      </c>
+      <c r="AL265">
+        <v>1.36</v>
+      </c>
+      <c r="AM265">
+        <v>1.48</v>
+      </c>
+      <c r="AN265">
+        <v>1.36</v>
+      </c>
+      <c r="AO265">
+        <v>1.38</v>
+      </c>
+      <c r="AP265">
+        <v>1.33</v>
+      </c>
+      <c r="AQ265">
+        <v>1.36</v>
+      </c>
+      <c r="AR265">
+        <v>1.28</v>
+      </c>
+      <c r="AS265">
+        <v>1.23</v>
+      </c>
+      <c r="AT265">
+        <v>2.51</v>
+      </c>
+      <c r="AU265">
+        <v>0</v>
+      </c>
+      <c r="AV265">
+        <v>6</v>
+      </c>
+      <c r="AW265">
+        <v>6</v>
+      </c>
+      <c r="AX265">
+        <v>6</v>
+      </c>
+      <c r="AY265">
+        <v>6</v>
+      </c>
+      <c r="AZ265">
+        <v>12</v>
+      </c>
+      <c r="BA265">
+        <v>6</v>
+      </c>
+      <c r="BB265">
+        <v>4</v>
+      </c>
+      <c r="BC265">
+        <v>10</v>
+      </c>
+      <c r="BD265">
+        <v>1.8</v>
+      </c>
+      <c r="BE265">
+        <v>8</v>
+      </c>
+      <c r="BF265">
+        <v>2.38</v>
+      </c>
+      <c r="BG265">
+        <v>1.25</v>
+      </c>
+      <c r="BH265">
+        <v>3.6</v>
+      </c>
+      <c r="BI265">
+        <v>1.44</v>
+      </c>
+      <c r="BJ265">
+        <v>2.6</v>
+      </c>
+      <c r="BK265">
+        <v>1.98</v>
+      </c>
+      <c r="BL265">
+        <v>1.82</v>
+      </c>
+      <c r="BM265">
+        <v>2.17</v>
+      </c>
+      <c r="BN265">
+        <v>1.68</v>
+      </c>
+      <c r="BO265">
+        <v>2.62</v>
+      </c>
+      <c r="BP265">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7327159</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F266">
+        <v>27</v>
+      </c>
+      <c r="G266" t="s">
+        <v>81</v>
+      </c>
+      <c r="H266" t="s">
+        <v>80</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>3</v>
+      </c>
+      <c r="N266">
+        <v>4</v>
+      </c>
+      <c r="O266" t="s">
+        <v>103</v>
+      </c>
+      <c r="P266" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q266">
+        <v>2.5</v>
+      </c>
+      <c r="R266">
+        <v>2.5</v>
+      </c>
+      <c r="S266">
+        <v>3.3</v>
+      </c>
+      <c r="T266">
+        <v>1.18</v>
+      </c>
+      <c r="U266">
+        <v>4.33</v>
+      </c>
+      <c r="V266">
+        <v>1.91</v>
+      </c>
+      <c r="W266">
+        <v>1.8</v>
+      </c>
+      <c r="X266">
+        <v>3.8</v>
+      </c>
+      <c r="Y266">
+        <v>1.22</v>
+      </c>
+      <c r="Z266">
+        <v>2.01</v>
+      </c>
+      <c r="AA266">
+        <v>3.71</v>
+      </c>
+      <c r="AB266">
+        <v>2.78</v>
+      </c>
+      <c r="AC266">
+        <v>1.01</v>
+      </c>
+      <c r="AD266">
+        <v>11.25</v>
+      </c>
+      <c r="AE266">
+        <v>1.08</v>
+      </c>
+      <c r="AF266">
+        <v>6.5</v>
+      </c>
+      <c r="AG266">
+        <v>1.33</v>
+      </c>
+      <c r="AH266">
+        <v>3.04</v>
+      </c>
+      <c r="AI266">
+        <v>1.33</v>
+      </c>
+      <c r="AJ266">
+        <v>3</v>
+      </c>
+      <c r="AK266">
+        <v>1.38</v>
+      </c>
+      <c r="AL266">
+        <v>1.25</v>
+      </c>
+      <c r="AM266">
+        <v>1.75</v>
+      </c>
+      <c r="AN266">
+        <v>1.54</v>
+      </c>
+      <c r="AO266">
+        <v>1.31</v>
+      </c>
+      <c r="AP266">
+        <v>1.43</v>
+      </c>
+      <c r="AQ266">
+        <v>1.43</v>
+      </c>
+      <c r="AR266">
+        <v>1.7</v>
+      </c>
+      <c r="AS266">
+        <v>1.54</v>
+      </c>
+      <c r="AT266">
+        <v>3.24</v>
+      </c>
+      <c r="AU266">
+        <v>8</v>
+      </c>
+      <c r="AV266">
+        <v>5</v>
+      </c>
+      <c r="AW266">
+        <v>10</v>
+      </c>
+      <c r="AX266">
+        <v>6</v>
+      </c>
+      <c r="AY266">
+        <v>18</v>
+      </c>
+      <c r="AZ266">
+        <v>11</v>
+      </c>
+      <c r="BA266">
+        <v>12</v>
+      </c>
+      <c r="BB266">
+        <v>5</v>
+      </c>
+      <c r="BC266">
+        <v>17</v>
+      </c>
+      <c r="BD266">
+        <v>1.83</v>
+      </c>
+      <c r="BE266">
+        <v>8.5</v>
+      </c>
+      <c r="BF266">
+        <v>2.25</v>
+      </c>
+      <c r="BG266">
+        <v>1.13</v>
+      </c>
+      <c r="BH266">
+        <v>5</v>
+      </c>
+      <c r="BI266">
+        <v>1.29</v>
+      </c>
+      <c r="BJ266">
+        <v>3.4</v>
+      </c>
+      <c r="BK266">
+        <v>1.44</v>
+      </c>
+      <c r="BL266">
+        <v>2.6</v>
+      </c>
+      <c r="BM266">
+        <v>1.85</v>
+      </c>
+      <c r="BN266">
+        <v>1.95</v>
+      </c>
+      <c r="BO266">
+        <v>2.13</v>
+      </c>
+      <c r="BP266">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7327160</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F267">
+        <v>27</v>
+      </c>
+      <c r="G267" t="s">
+        <v>76</v>
+      </c>
+      <c r="H267" t="s">
+        <v>78</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>256</v>
+      </c>
+      <c r="P267" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q267">
+        <v>3.32</v>
+      </c>
+      <c r="R267">
+        <v>2.24</v>
+      </c>
+      <c r="S267">
+        <v>3.25</v>
+      </c>
+      <c r="T267">
+        <v>1.38</v>
+      </c>
+      <c r="U267">
+        <v>3.07</v>
+      </c>
+      <c r="V267">
+        <v>2.86</v>
+      </c>
+      <c r="W267">
+        <v>1.42</v>
+      </c>
+      <c r="X267">
+        <v>6.8</v>
+      </c>
+      <c r="Y267">
+        <v>1.08</v>
+      </c>
+      <c r="Z267">
+        <v>2.63</v>
+      </c>
+      <c r="AA267">
+        <v>3.09</v>
+      </c>
+      <c r="AB267">
+        <v>2.34</v>
+      </c>
+      <c r="AC267">
+        <v>1.05</v>
+      </c>
+      <c r="AD267">
+        <v>9</v>
+      </c>
+      <c r="AE267">
+        <v>1.29</v>
+      </c>
+      <c r="AF267">
+        <v>3.4</v>
+      </c>
+      <c r="AG267">
+        <v>1.93</v>
+      </c>
+      <c r="AH267">
+        <v>1.91</v>
+      </c>
+      <c r="AI267">
+        <v>1.67</v>
+      </c>
+      <c r="AJ267">
+        <v>2.05</v>
+      </c>
+      <c r="AK267">
+        <v>1.5</v>
+      </c>
+      <c r="AL267">
+        <v>1.32</v>
+      </c>
+      <c r="AM267">
+        <v>1.47</v>
+      </c>
+      <c r="AN267">
+        <v>1</v>
+      </c>
+      <c r="AO267">
+        <v>1.17</v>
+      </c>
+      <c r="AP267">
+        <v>0.92</v>
+      </c>
+      <c r="AQ267">
+        <v>1.31</v>
+      </c>
+      <c r="AR267">
+        <v>1.57</v>
+      </c>
+      <c r="AS267">
+        <v>1.57</v>
+      </c>
+      <c r="AT267">
+        <v>3.14</v>
+      </c>
+      <c r="AU267">
+        <v>5</v>
+      </c>
+      <c r="AV267">
+        <v>3</v>
+      </c>
+      <c r="AW267">
+        <v>6</v>
+      </c>
+      <c r="AX267">
+        <v>4</v>
+      </c>
+      <c r="AY267">
+        <v>11</v>
+      </c>
+      <c r="AZ267">
+        <v>7</v>
+      </c>
+      <c r="BA267">
+        <v>4</v>
+      </c>
+      <c r="BB267">
+        <v>4</v>
+      </c>
+      <c r="BC267">
+        <v>8</v>
+      </c>
+      <c r="BD267">
+        <v>1.91</v>
+      </c>
+      <c r="BE267">
+        <v>8</v>
+      </c>
+      <c r="BF267">
+        <v>2.2</v>
+      </c>
+      <c r="BG267">
+        <v>1.17</v>
+      </c>
+      <c r="BH267">
+        <v>4.5</v>
+      </c>
+      <c r="BI267">
+        <v>1.29</v>
+      </c>
+      <c r="BJ267">
+        <v>3.1</v>
+      </c>
+      <c r="BK267">
+        <v>1.52</v>
+      </c>
+      <c r="BL267">
+        <v>2.28</v>
+      </c>
+      <c r="BM267">
+        <v>2</v>
+      </c>
+      <c r="BN267">
+        <v>1.8</v>
+      </c>
+      <c r="BO267">
+        <v>2.4</v>
+      </c>
+      <c r="BP267">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7327161</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F268">
+        <v>27</v>
+      </c>
+      <c r="G268" t="s">
+        <v>71</v>
+      </c>
+      <c r="H268" t="s">
+        <v>70</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>2</v>
+      </c>
+      <c r="N268">
+        <v>3</v>
+      </c>
+      <c r="O268" t="s">
+        <v>104</v>
+      </c>
+      <c r="P268" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q268">
+        <v>4.5</v>
+      </c>
+      <c r="R268">
+        <v>2.15</v>
+      </c>
+      <c r="S268">
+        <v>2.4</v>
+      </c>
+      <c r="T268">
+        <v>1.38</v>
+      </c>
+      <c r="U268">
+        <v>2.8</v>
+      </c>
+      <c r="V268">
+        <v>2.8</v>
+      </c>
+      <c r="W268">
+        <v>1.38</v>
+      </c>
+      <c r="X268">
+        <v>6.5</v>
+      </c>
+      <c r="Y268">
+        <v>1.08</v>
+      </c>
+      <c r="Z268">
+        <v>4.2</v>
+      </c>
+      <c r="AA268">
+        <v>3.25</v>
+      </c>
+      <c r="AB268">
+        <v>1.8</v>
+      </c>
+      <c r="AC268">
+        <v>1.03</v>
+      </c>
+      <c r="AD268">
+        <v>9</v>
+      </c>
+      <c r="AE268">
+        <v>1.3</v>
+      </c>
+      <c r="AF268">
+        <v>3.2</v>
+      </c>
+      <c r="AG268">
+        <v>2.03</v>
+      </c>
+      <c r="AH268">
+        <v>1.83</v>
+      </c>
+      <c r="AI268">
+        <v>1.85</v>
+      </c>
+      <c r="AJ268">
+        <v>1.85</v>
+      </c>
+      <c r="AK268">
+        <v>2</v>
+      </c>
+      <c r="AL268">
+        <v>1.29</v>
+      </c>
+      <c r="AM268">
+        <v>1.22</v>
+      </c>
+      <c r="AN268">
+        <v>1.38</v>
+      </c>
+      <c r="AO268">
+        <v>1.69</v>
+      </c>
+      <c r="AP268">
+        <v>1.29</v>
+      </c>
+      <c r="AQ268">
+        <v>1.79</v>
+      </c>
+      <c r="AR268">
+        <v>1.02</v>
+      </c>
+      <c r="AS268">
+        <v>1.59</v>
+      </c>
+      <c r="AT268">
+        <v>2.61</v>
+      </c>
+      <c r="AU268">
+        <v>2</v>
+      </c>
+      <c r="AV268">
+        <v>8</v>
+      </c>
+      <c r="AW268">
+        <v>2</v>
+      </c>
+      <c r="AX268">
+        <v>8</v>
+      </c>
+      <c r="AY268">
+        <v>4</v>
+      </c>
+      <c r="AZ268">
+        <v>16</v>
+      </c>
+      <c r="BA268">
+        <v>3</v>
+      </c>
+      <c r="BB268">
+        <v>5</v>
+      </c>
+      <c r="BC268">
+        <v>8</v>
+      </c>
+      <c r="BD268">
+        <v>3.4</v>
+      </c>
+      <c r="BE268">
+        <v>9</v>
+      </c>
+      <c r="BF268">
+        <v>1.4</v>
+      </c>
+      <c r="BG268">
+        <v>1.2</v>
+      </c>
+      <c r="BH268">
+        <v>4</v>
+      </c>
+      <c r="BI268">
+        <v>1.36</v>
+      </c>
+      <c r="BJ268">
+        <v>2.9</v>
+      </c>
+      <c r="BK268">
+        <v>1.7</v>
+      </c>
+      <c r="BL268">
+        <v>2.05</v>
+      </c>
+      <c r="BM268">
+        <v>1.98</v>
+      </c>
+      <c r="BN268">
+        <v>1.83</v>
+      </c>
+      <c r="BO268">
+        <v>2.45</v>
+      </c>
+      <c r="BP268">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7327163</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45521.29166666666</v>
+      </c>
+      <c r="F269">
+        <v>27</v>
+      </c>
+      <c r="G269" t="s">
+        <v>82</v>
+      </c>
+      <c r="H269" t="s">
+        <v>86</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>2</v>
+      </c>
+      <c r="M269">
+        <v>2</v>
+      </c>
+      <c r="N269">
+        <v>4</v>
+      </c>
+      <c r="O269" t="s">
+        <v>257</v>
+      </c>
+      <c r="P269" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q269">
+        <v>2.38</v>
+      </c>
+      <c r="R269">
+        <v>2.14</v>
+      </c>
+      <c r="S269">
+        <v>4.95</v>
+      </c>
+      <c r="T269">
+        <v>1.41</v>
+      </c>
+      <c r="U269">
+        <v>2.78</v>
+      </c>
+      <c r="V269">
+        <v>2.91</v>
+      </c>
+      <c r="W269">
+        <v>1.38</v>
+      </c>
+      <c r="X269">
+        <v>7.5</v>
+      </c>
+      <c r="Y269">
+        <v>1.07</v>
+      </c>
+      <c r="Z269">
+        <v>1.92</v>
+      </c>
+      <c r="AA269">
+        <v>3.23</v>
+      </c>
+      <c r="AB269">
+        <v>3.69</v>
+      </c>
+      <c r="AC269">
+        <v>1.02</v>
+      </c>
+      <c r="AD269">
+        <v>8.6</v>
+      </c>
+      <c r="AE269">
+        <v>1.29</v>
+      </c>
+      <c r="AF269">
+        <v>3.15</v>
+      </c>
+      <c r="AG269">
+        <v>2.04</v>
+      </c>
+      <c r="AH269">
+        <v>1.8</v>
+      </c>
+      <c r="AI269">
+        <v>1.85</v>
+      </c>
+      <c r="AJ269">
+        <v>1.85</v>
+      </c>
+      <c r="AK269">
+        <v>1.21</v>
+      </c>
+      <c r="AL269">
+        <v>1.28</v>
+      </c>
+      <c r="AM269">
+        <v>2</v>
+      </c>
+      <c r="AN269">
+        <v>1.5</v>
+      </c>
+      <c r="AO269">
+        <v>1.54</v>
+      </c>
+      <c r="AP269">
+        <v>1.46</v>
+      </c>
+      <c r="AQ269">
+        <v>1.5</v>
+      </c>
+      <c r="AR269">
+        <v>1.68</v>
+      </c>
+      <c r="AS269">
+        <v>1.19</v>
+      </c>
+      <c r="AT269">
+        <v>2.87</v>
+      </c>
+      <c r="AU269">
+        <v>8</v>
+      </c>
+      <c r="AV269">
+        <v>5</v>
+      </c>
+      <c r="AW269">
+        <v>3</v>
+      </c>
+      <c r="AX269">
+        <v>5</v>
+      </c>
+      <c r="AY269">
+        <v>11</v>
+      </c>
+      <c r="AZ269">
+        <v>10</v>
+      </c>
+      <c r="BA269">
+        <v>3</v>
+      </c>
+      <c r="BB269">
+        <v>4</v>
+      </c>
+      <c r="BC269">
+        <v>7</v>
+      </c>
+      <c r="BD269">
+        <v>1.5</v>
+      </c>
+      <c r="BE269">
+        <v>8.5</v>
+      </c>
+      <c r="BF269">
+        <v>3.1</v>
+      </c>
+      <c r="BG269">
+        <v>1.24</v>
+      </c>
+      <c r="BH269">
+        <v>3.45</v>
+      </c>
+      <c r="BI269">
+        <v>1.45</v>
+      </c>
+      <c r="BJ269">
+        <v>2.45</v>
+      </c>
+      <c r="BK269">
+        <v>1.8</v>
+      </c>
+      <c r="BL269">
+        <v>2</v>
+      </c>
+      <c r="BM269">
+        <v>2.28</v>
+      </c>
+      <c r="BN269">
+        <v>1.52</v>
+      </c>
+      <c r="BO269">
+        <v>3.05</v>
+      </c>
+      <c r="BP269">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7327164</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45521.3125</v>
+      </c>
+      <c r="F270">
+        <v>27</v>
+      </c>
+      <c r="G270" t="s">
+        <v>73</v>
+      </c>
+      <c r="H270" t="s">
+        <v>88</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
+        <v>91</v>
+      </c>
+      <c r="P270" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q270">
+        <v>3.25</v>
+      </c>
+      <c r="R270">
+        <v>2</v>
+      </c>
+      <c r="S270">
+        <v>3.75</v>
+      </c>
+      <c r="T270">
+        <v>1.5</v>
+      </c>
+      <c r="U270">
+        <v>2.5</v>
+      </c>
+      <c r="V270">
+        <v>3.5</v>
+      </c>
+      <c r="W270">
+        <v>1.29</v>
+      </c>
+      <c r="X270">
+        <v>11</v>
+      </c>
+      <c r="Y270">
+        <v>1.05</v>
+      </c>
+      <c r="Z270">
+        <v>2.43</v>
+      </c>
+      <c r="AA270">
+        <v>3</v>
+      </c>
+      <c r="AB270">
+        <v>2.8</v>
+      </c>
+      <c r="AC270">
+        <v>1.05</v>
+      </c>
+      <c r="AD270">
+        <v>7.1</v>
+      </c>
+      <c r="AE270">
+        <v>1.4</v>
+      </c>
+      <c r="AF270">
+        <v>2.64</v>
+      </c>
+      <c r="AG270">
+        <v>2.33</v>
+      </c>
+      <c r="AH270">
+        <v>1.57</v>
+      </c>
+      <c r="AI270">
+        <v>2</v>
+      </c>
+      <c r="AJ270">
+        <v>1.75</v>
+      </c>
+      <c r="AK270">
+        <v>1.38</v>
+      </c>
+      <c r="AL270">
+        <v>1.36</v>
+      </c>
+      <c r="AM270">
+        <v>1.53</v>
+      </c>
+      <c r="AN270">
+        <v>1.31</v>
+      </c>
+      <c r="AO270">
+        <v>1.38</v>
+      </c>
+      <c r="AP270">
+        <v>1.21</v>
+      </c>
+      <c r="AQ270">
+        <v>1.5</v>
+      </c>
+      <c r="AR270">
+        <v>1.31</v>
+      </c>
+      <c r="AS270">
+        <v>1.37</v>
+      </c>
+      <c r="AT270">
+        <v>2.68</v>
+      </c>
+      <c r="AU270">
+        <v>2</v>
+      </c>
+      <c r="AV270">
+        <v>7</v>
+      </c>
+      <c r="AW270">
+        <v>6</v>
+      </c>
+      <c r="AX270">
+        <v>5</v>
+      </c>
+      <c r="AY270">
+        <v>8</v>
+      </c>
+      <c r="AZ270">
+        <v>12</v>
+      </c>
+      <c r="BA270">
+        <v>2</v>
+      </c>
+      <c r="BB270">
+        <v>5</v>
+      </c>
+      <c r="BC270">
+        <v>7</v>
+      </c>
+      <c r="BD270">
+        <v>1.83</v>
+      </c>
+      <c r="BE270">
+        <v>8</v>
+      </c>
+      <c r="BF270">
+        <v>2.25</v>
+      </c>
+      <c r="BG270">
+        <v>1.25</v>
+      </c>
+      <c r="BH270">
+        <v>3.3</v>
+      </c>
+      <c r="BI270">
+        <v>1.48</v>
+      </c>
+      <c r="BJ270">
+        <v>2.38</v>
+      </c>
+      <c r="BK270">
+        <v>1.9</v>
+      </c>
+      <c r="BL270">
+        <v>1.9</v>
+      </c>
+      <c r="BM270">
+        <v>2.35</v>
+      </c>
+      <c r="BN270">
+        <v>1.49</v>
+      </c>
+      <c r="BO270">
+        <v>3.15</v>
+      </c>
+      <c r="BP270">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="378">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,15 @@
     <t>['45+3', '84']</t>
   </si>
   <si>
+    <t>['27', '48']</t>
+  </si>
+  <si>
+    <t>['49', '73', '83', '90+5']</t>
+  </si>
+  <si>
+    <t>['2', '36', '50']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1136,6 +1145,9 @@
   </si>
   <si>
     <t>['56', '90+5']</t>
+  </si>
+  <si>
+    <t>['22', '32']</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1962,7 +1974,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2168,7 +2180,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2580,7 +2592,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2992,7 +3004,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3070,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
         <v>1.08</v>
@@ -3198,7 +3210,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3279,7 +3291,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3610,7 +3622,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3816,7 +3828,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3894,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4022,7 +4034,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4228,7 +4240,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4640,7 +4652,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4718,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ16">
         <v>1.21</v>
@@ -5052,7 +5064,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5133,7 +5145,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ18">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5258,7 +5270,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5542,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5876,7 +5888,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6163,7 +6175,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ23">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6906,7 +6918,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7730,7 +7742,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7811,7 +7823,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -7936,7 +7948,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8348,7 +8360,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8429,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR34">
         <v>1.5</v>
@@ -8632,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ35">
         <v>0.71</v>
@@ -8760,7 +8772,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8841,7 +8853,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ36">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8966,7 +8978,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9172,7 +9184,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9250,7 +9262,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -9584,7 +9596,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9662,7 +9674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ40">
         <v>1.08</v>
@@ -9790,7 +9802,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9996,7 +10008,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10695,7 +10707,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.96</v>
@@ -10820,7 +10832,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -11107,7 +11119,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ47">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.39</v>
@@ -12468,7 +12480,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12546,7 +12558,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ54">
         <v>1.36</v>
@@ -12752,7 +12764,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ55">
         <v>1.47</v>
@@ -12880,7 +12892,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13167,7 +13179,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ57">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR57">
         <v>1.08</v>
@@ -13370,7 +13382,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.08</v>
@@ -13498,7 +13510,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13579,7 +13591,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ59">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -13704,7 +13716,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14322,7 +14334,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14528,7 +14540,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14609,7 +14621,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -14734,7 +14746,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14812,7 +14824,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -15146,7 +15158,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15433,7 +15445,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ68">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>0.99</v>
@@ -16048,7 +16060,7 @@
         <v>0.67</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -16382,7 +16394,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16460,7 +16472,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.21</v>
@@ -16588,7 +16600,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16875,7 +16887,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -17412,7 +17424,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17824,7 +17836,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17905,7 +17917,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR80">
         <v>1.45</v>
@@ -18030,7 +18042,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18108,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ81">
         <v>0.77</v>
@@ -18442,7 +18454,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18520,7 +18532,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ83">
         <v>1.5</v>
@@ -18648,7 +18660,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18932,7 +18944,7 @@
         <v>2.5</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ85">
         <v>1.93</v>
@@ -19678,7 +19690,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19884,7 +19896,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -19965,7 +19977,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ90">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR90">
         <v>0.92</v>
@@ -20090,7 +20102,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20708,7 +20720,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20789,7 +20801,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>1.33</v>
@@ -20914,7 +20926,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21201,7 +21213,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ96">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.47</v>
@@ -21326,7 +21338,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21532,7 +21544,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21613,7 +21625,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ98">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR98">
         <v>1.66</v>
@@ -21944,7 +21956,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22022,7 +22034,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ100">
         <v>1.23</v>
@@ -22228,7 +22240,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>0.71</v>
@@ -22356,7 +22368,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22768,7 +22780,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23386,7 +23398,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23798,7 +23810,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -24004,7 +24016,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24210,7 +24222,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24416,7 +24428,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24700,10 +24712,10 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ113">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR113">
         <v>1.67</v>
@@ -25034,7 +25046,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25112,7 +25124,7 @@
         <v>2.4</v>
       </c>
       <c r="AP115">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ115">
         <v>2.31</v>
@@ -25321,7 +25333,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
         <v>1.19</v>
@@ -25446,7 +25458,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25527,7 +25539,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ117">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR117">
         <v>2.41</v>
@@ -25652,7 +25664,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25936,7 +25948,7 @@
         <v>0.2</v>
       </c>
       <c r="AP119">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ119">
         <v>0.77</v>
@@ -26064,7 +26076,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26270,7 +26282,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26476,7 +26488,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26554,10 +26566,10 @@
         <v>1.25</v>
       </c>
       <c r="AP122">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ122">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26682,7 +26694,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26966,7 +26978,7 @@
         <v>2.5</v>
       </c>
       <c r="AP124">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ124">
         <v>2.31</v>
@@ -27300,7 +27312,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27506,7 +27518,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27712,7 +27724,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27918,7 +27930,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28124,7 +28136,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28411,7 +28423,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR131">
         <v>0.9399999999999999</v>
@@ -29235,7 +29247,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ135">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR135">
         <v>1.31</v>
@@ -29360,7 +29372,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29566,7 +29578,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29853,7 +29865,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ138">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -30184,7 +30196,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30265,7 +30277,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ140">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30390,7 +30402,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30471,7 +30483,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR141">
         <v>1.53</v>
@@ -30802,7 +30814,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -31008,7 +31020,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31086,7 +31098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ144">
         <v>1.79</v>
@@ -31292,7 +31304,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ145">
         <v>1.08</v>
@@ -31832,7 +31844,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32116,7 +32128,7 @@
         <v>1.17</v>
       </c>
       <c r="AP149">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ149">
         <v>1.5</v>
@@ -32244,7 +32256,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32450,7 +32462,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32656,7 +32668,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32737,7 +32749,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ152">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
         <v>1.47</v>
@@ -32862,7 +32874,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33480,7 +33492,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34176,7 +34188,7 @@
         <v>1.43</v>
       </c>
       <c r="AP159">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
         <v>1.31</v>
@@ -34304,7 +34316,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34385,7 +34397,7 @@
         <v>1</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR160">
         <v>1.45</v>
@@ -34716,7 +34728,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34922,7 +34934,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35128,7 +35140,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35206,7 +35218,7 @@
         <v>1.33</v>
       </c>
       <c r="AP164">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ164">
         <v>1.5</v>
@@ -35618,10 +35630,10 @@
         <v>1.38</v>
       </c>
       <c r="AP166">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ166">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR166">
         <v>1.37</v>
@@ -35746,7 +35758,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36033,7 +36045,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ168">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36158,7 +36170,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36239,7 +36251,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ169">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR169">
         <v>1.41</v>
@@ -36364,7 +36376,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36442,7 +36454,7 @@
         <v>2.38</v>
       </c>
       <c r="AP170">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
         <v>2.31</v>
@@ -36570,7 +36582,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -37060,7 +37072,7 @@
         <v>0.38</v>
       </c>
       <c r="AP173">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ173">
         <v>0.46</v>
@@ -37600,7 +37612,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37678,7 +37690,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ176">
         <v>1.31</v>
@@ -38424,7 +38436,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38502,7 +38514,7 @@
         <v>1.5</v>
       </c>
       <c r="AP180">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ180">
         <v>1.79</v>
@@ -38711,7 +38723,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ181">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -38917,7 +38929,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ182">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR182">
         <v>1.53</v>
@@ -39042,7 +39054,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39248,7 +39260,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39329,7 +39341,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ184">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR184">
         <v>1.26</v>
@@ -39454,7 +39466,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39532,7 +39544,7 @@
         <v>2.22</v>
       </c>
       <c r="AP185">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ185">
         <v>1.93</v>
@@ -39866,7 +39878,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40278,7 +40290,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40356,10 +40368,10 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR189">
         <v>1.41</v>
@@ -40484,7 +40496,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40690,7 +40702,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -41926,7 +41938,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42004,7 +42016,7 @@
         <v>1.11</v>
       </c>
       <c r="AP197">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ197">
         <v>1.31</v>
@@ -42544,7 +42556,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -43162,7 +43174,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43240,7 +43252,7 @@
         <v>1.2</v>
       </c>
       <c r="AP203">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
         <v>1.36</v>
@@ -43368,7 +43380,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43446,7 +43458,7 @@
         <v>2.3</v>
       </c>
       <c r="AP204">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ204">
         <v>2.31</v>
@@ -43574,7 +43586,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -43655,7 +43667,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ205">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -44067,7 +44079,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ207">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR207">
         <v>1.33</v>
@@ -44192,7 +44204,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44398,7 +44410,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44476,7 +44488,7 @@
         <v>1</v>
       </c>
       <c r="AP209">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ209">
         <v>1.47</v>
@@ -44888,7 +44900,7 @@
         <v>0.44</v>
       </c>
       <c r="AP211">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ211">
         <v>0.77</v>
@@ -45016,7 +45028,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45303,7 +45315,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ213">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR213">
         <v>1.4</v>
@@ -45634,7 +45646,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45840,7 +45852,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46046,7 +46058,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46127,7 +46139,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ217">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR217">
         <v>1.48</v>
@@ -46252,7 +46264,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46536,7 +46548,7 @@
         <v>1.27</v>
       </c>
       <c r="AP219">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ219">
         <v>1.43</v>
@@ -46664,7 +46676,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46745,7 +46757,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR220">
         <v>1.47</v>
@@ -46870,7 +46882,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -47076,7 +47088,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47978,7 +47990,7 @@
         <v>1.1</v>
       </c>
       <c r="AP226">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ226">
         <v>1.08</v>
@@ -48187,7 +48199,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ227">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR227">
         <v>2.1</v>
@@ -48393,7 +48405,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ228">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR228">
         <v>1.67</v>
@@ -48596,7 +48608,7 @@
         <v>0.82</v>
       </c>
       <c r="AP229">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ229">
         <v>0.71</v>
@@ -48724,7 +48736,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48930,7 +48942,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49008,7 +49020,7 @@
         <v>1.45</v>
       </c>
       <c r="AP231">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ231">
         <v>1.23</v>
@@ -49136,7 +49148,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49217,7 +49229,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ232">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR232">
         <v>1.34</v>
@@ -49342,7 +49354,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49548,7 +49560,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49629,7 +49641,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ234">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR234">
         <v>1.71</v>
@@ -49754,7 +49766,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49960,7 +49972,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -50038,7 +50050,7 @@
         <v>0.92</v>
       </c>
       <c r="AP236">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ236">
         <v>1.21</v>
@@ -50372,7 +50384,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50578,7 +50590,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50784,7 +50796,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50990,7 +51002,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51274,10 +51286,10 @@
         <v>1.55</v>
       </c>
       <c r="AP242">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AQ242">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR242">
         <v>1.5</v>
@@ -51608,7 +51620,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51686,10 +51698,10 @@
         <v>1.33</v>
       </c>
       <c r="AP244">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ244">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR244">
         <v>1.38</v>
@@ -51814,7 +51826,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52716,10 +52728,10 @@
         <v>1.64</v>
       </c>
       <c r="AP249">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ249">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR249">
         <v>1.61</v>
@@ -52844,7 +52856,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -52922,7 +52934,7 @@
         <v>0.5</v>
       </c>
       <c r="AP250">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ250">
         <v>0.46</v>
@@ -53050,7 +53062,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53131,7 +53143,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ251">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AR251">
         <v>1.31</v>
@@ -53256,7 +53268,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53543,7 +53555,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ253">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR253">
         <v>2</v>
@@ -53668,7 +53680,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q254">
         <v>4.64</v>
@@ -53874,7 +53886,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -54698,7 +54710,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -54776,7 +54788,7 @@
         <v>1.85</v>
       </c>
       <c r="AP259">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ259">
         <v>1.93</v>
@@ -55110,7 +55122,7 @@
         <v>253</v>
       </c>
       <c r="P261" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55728,7 +55740,7 @@
         <v>255</v>
       </c>
       <c r="P264" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q264">
         <v>2.6</v>
@@ -56140,7 +56152,7 @@
         <v>103</v>
       </c>
       <c r="P266" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56346,7 +56358,7 @@
         <v>256</v>
       </c>
       <c r="P267" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q267">
         <v>3.32</v>
@@ -56424,7 +56436,7 @@
         <v>1.17</v>
       </c>
       <c r="AP267">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ267">
         <v>1.31</v>
@@ -56552,7 +56564,7 @@
         <v>104</v>
       </c>
       <c r="P268" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q268">
         <v>4.5</v>
@@ -56758,7 +56770,7 @@
         <v>257</v>
       </c>
       <c r="P269" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q269">
         <v>2.38</v>
@@ -57121,6 +57133,830 @@
       </c>
       <c r="BP270">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7327165</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45528.27083333334</v>
+      </c>
+      <c r="F271">
+        <v>28</v>
+      </c>
+      <c r="G271" t="s">
+        <v>86</v>
+      </c>
+      <c r="H271" t="s">
+        <v>73</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>2</v>
+      </c>
+      <c r="K271">
+        <v>3</v>
+      </c>
+      <c r="L271">
+        <v>2</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+      <c r="N271">
+        <v>4</v>
+      </c>
+      <c r="O271" t="s">
+        <v>258</v>
+      </c>
+      <c r="P271" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q271">
+        <v>2.86</v>
+      </c>
+      <c r="R271">
+        <v>1.93</v>
+      </c>
+      <c r="S271">
+        <v>4.45</v>
+      </c>
+      <c r="T271">
+        <v>1.55</v>
+      </c>
+      <c r="U271">
+        <v>2.36</v>
+      </c>
+      <c r="V271">
+        <v>3.55</v>
+      </c>
+      <c r="W271">
+        <v>1.27</v>
+      </c>
+      <c r="X271">
+        <v>9.9</v>
+      </c>
+      <c r="Y271">
+        <v>1.03</v>
+      </c>
+      <c r="Z271">
+        <v>2.1</v>
+      </c>
+      <c r="AA271">
+        <v>3.05</v>
+      </c>
+      <c r="AB271">
+        <v>3.75</v>
+      </c>
+      <c r="AC271">
+        <v>1.07</v>
+      </c>
+      <c r="AD271">
+        <v>6.45</v>
+      </c>
+      <c r="AE271">
+        <v>1.48</v>
+      </c>
+      <c r="AF271">
+        <v>2.47</v>
+      </c>
+      <c r="AG271">
+        <v>2.55</v>
+      </c>
+      <c r="AH271">
+        <v>1.48</v>
+      </c>
+      <c r="AI271">
+        <v>2.13</v>
+      </c>
+      <c r="AJ271">
+        <v>1.67</v>
+      </c>
+      <c r="AK271">
+        <v>1.3</v>
+      </c>
+      <c r="AL271">
+        <v>1.36</v>
+      </c>
+      <c r="AM271">
+        <v>1.69</v>
+      </c>
+      <c r="AN271">
+        <v>2</v>
+      </c>
+      <c r="AO271">
+        <v>1.54</v>
+      </c>
+      <c r="AP271">
+        <v>1.93</v>
+      </c>
+      <c r="AQ271">
+        <v>1.5</v>
+      </c>
+      <c r="AR271">
+        <v>1.57</v>
+      </c>
+      <c r="AS271">
+        <v>1.25</v>
+      </c>
+      <c r="AT271">
+        <v>2.82</v>
+      </c>
+      <c r="AU271">
+        <v>8</v>
+      </c>
+      <c r="AV271">
+        <v>4</v>
+      </c>
+      <c r="AW271">
+        <v>9</v>
+      </c>
+      <c r="AX271">
+        <v>4</v>
+      </c>
+      <c r="AY271">
+        <v>17</v>
+      </c>
+      <c r="AZ271">
+        <v>8</v>
+      </c>
+      <c r="BA271">
+        <v>4</v>
+      </c>
+      <c r="BB271">
+        <v>3</v>
+      </c>
+      <c r="BC271">
+        <v>7</v>
+      </c>
+      <c r="BD271">
+        <v>1.67</v>
+      </c>
+      <c r="BE271">
+        <v>8</v>
+      </c>
+      <c r="BF271">
+        <v>2.6</v>
+      </c>
+      <c r="BG271">
+        <v>1.26</v>
+      </c>
+      <c r="BH271">
+        <v>3.34</v>
+      </c>
+      <c r="BI271">
+        <v>1.51</v>
+      </c>
+      <c r="BJ271">
+        <v>2.39</v>
+      </c>
+      <c r="BK271">
+        <v>1.77</v>
+      </c>
+      <c r="BL271">
+        <v>1.95</v>
+      </c>
+      <c r="BM271">
+        <v>2.44</v>
+      </c>
+      <c r="BN271">
+        <v>1.49</v>
+      </c>
+      <c r="BO271">
+        <v>3.28</v>
+      </c>
+      <c r="BP271">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7327167</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F272">
+        <v>28</v>
+      </c>
+      <c r="G272" t="s">
+        <v>80</v>
+      </c>
+      <c r="H272" t="s">
+        <v>77</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>4</v>
+      </c>
+      <c r="O272" t="s">
+        <v>259</v>
+      </c>
+      <c r="P272" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q272">
+        <v>2.5</v>
+      </c>
+      <c r="R272">
+        <v>2.3</v>
+      </c>
+      <c r="S272">
+        <v>3.6</v>
+      </c>
+      <c r="T272">
+        <v>1.25</v>
+      </c>
+      <c r="U272">
+        <v>3.6</v>
+      </c>
+      <c r="V272">
+        <v>2.25</v>
+      </c>
+      <c r="W272">
+        <v>1.57</v>
+      </c>
+      <c r="X272">
+        <v>4.75</v>
+      </c>
+      <c r="Y272">
+        <v>1.15</v>
+      </c>
+      <c r="Z272">
+        <v>1.9</v>
+      </c>
+      <c r="AA272">
+        <v>3.8</v>
+      </c>
+      <c r="AB272">
+        <v>3.5</v>
+      </c>
+      <c r="AC272">
+        <v>1.04</v>
+      </c>
+      <c r="AD272">
+        <v>12</v>
+      </c>
+      <c r="AE272">
+        <v>1.15</v>
+      </c>
+      <c r="AF272">
+        <v>4.75</v>
+      </c>
+      <c r="AG272">
+        <v>1.49</v>
+      </c>
+      <c r="AH272">
+        <v>2.44</v>
+      </c>
+      <c r="AI272">
+        <v>1.47</v>
+      </c>
+      <c r="AJ272">
+        <v>2.55</v>
+      </c>
+      <c r="AK272">
+        <v>1.35</v>
+      </c>
+      <c r="AL272">
+        <v>1.25</v>
+      </c>
+      <c r="AM272">
+        <v>1.78</v>
+      </c>
+      <c r="AN272">
+        <v>1.38</v>
+      </c>
+      <c r="AO272">
+        <v>1.15</v>
+      </c>
+      <c r="AP272">
+        <v>1.5</v>
+      </c>
+      <c r="AQ272">
+        <v>1.07</v>
+      </c>
+      <c r="AR272">
+        <v>1.71</v>
+      </c>
+      <c r="AS272">
+        <v>1.35</v>
+      </c>
+      <c r="AT272">
+        <v>3.06</v>
+      </c>
+      <c r="AU272">
+        <v>9</v>
+      </c>
+      <c r="AV272">
+        <v>7</v>
+      </c>
+      <c r="AW272">
+        <v>4</v>
+      </c>
+      <c r="AX272">
+        <v>5</v>
+      </c>
+      <c r="AY272">
+        <v>13</v>
+      </c>
+      <c r="AZ272">
+        <v>12</v>
+      </c>
+      <c r="BA272">
+        <v>4</v>
+      </c>
+      <c r="BB272">
+        <v>3</v>
+      </c>
+      <c r="BC272">
+        <v>7</v>
+      </c>
+      <c r="BD272">
+        <v>1.73</v>
+      </c>
+      <c r="BE272">
+        <v>8.5</v>
+      </c>
+      <c r="BF272">
+        <v>2.38</v>
+      </c>
+      <c r="BG272">
+        <v>1.14</v>
+      </c>
+      <c r="BH272">
+        <v>5.6</v>
+      </c>
+      <c r="BI272">
+        <v>1.25</v>
+      </c>
+      <c r="BJ272">
+        <v>3.7</v>
+      </c>
+      <c r="BK272">
+        <v>1.42</v>
+      </c>
+      <c r="BL272">
+        <v>2.7</v>
+      </c>
+      <c r="BM272">
+        <v>2</v>
+      </c>
+      <c r="BN272">
+        <v>1.8</v>
+      </c>
+      <c r="BO272">
+        <v>2.05</v>
+      </c>
+      <c r="BP272">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7327168</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F273">
+        <v>28</v>
+      </c>
+      <c r="G273" t="s">
+        <v>76</v>
+      </c>
+      <c r="H273" t="s">
+        <v>71</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>91</v>
+      </c>
+      <c r="P273" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q273">
+        <v>3</v>
+      </c>
+      <c r="R273">
+        <v>2</v>
+      </c>
+      <c r="S273">
+        <v>3.6</v>
+      </c>
+      <c r="T273">
+        <v>1.44</v>
+      </c>
+      <c r="U273">
+        <v>2.6</v>
+      </c>
+      <c r="V273">
+        <v>3.05</v>
+      </c>
+      <c r="W273">
+        <v>1.34</v>
+      </c>
+      <c r="X273">
+        <v>7.9</v>
+      </c>
+      <c r="Y273">
+        <v>1.05</v>
+      </c>
+      <c r="Z273">
+        <v>2.4</v>
+      </c>
+      <c r="AA273">
+        <v>3.15</v>
+      </c>
+      <c r="AB273">
+        <v>2.95</v>
+      </c>
+      <c r="AC273">
+        <v>1.05</v>
+      </c>
+      <c r="AD273">
+        <v>8</v>
+      </c>
+      <c r="AE273">
+        <v>1.33</v>
+      </c>
+      <c r="AF273">
+        <v>3</v>
+      </c>
+      <c r="AG273">
+        <v>2.14</v>
+      </c>
+      <c r="AH273">
+        <v>1.67</v>
+      </c>
+      <c r="AI273">
+        <v>1.83</v>
+      </c>
+      <c r="AJ273">
+        <v>1.9</v>
+      </c>
+      <c r="AK273">
+        <v>1.38</v>
+      </c>
+      <c r="AL273">
+        <v>1.28</v>
+      </c>
+      <c r="AM273">
+        <v>1.55</v>
+      </c>
+      <c r="AN273">
+        <v>0.92</v>
+      </c>
+      <c r="AO273">
+        <v>1.23</v>
+      </c>
+      <c r="AP273">
+        <v>0.86</v>
+      </c>
+      <c r="AQ273">
+        <v>1.36</v>
+      </c>
+      <c r="AR273">
+        <v>1.56</v>
+      </c>
+      <c r="AS273">
+        <v>1.35</v>
+      </c>
+      <c r="AT273">
+        <v>2.91</v>
+      </c>
+      <c r="AU273">
+        <v>3</v>
+      </c>
+      <c r="AV273">
+        <v>3</v>
+      </c>
+      <c r="AW273">
+        <v>2</v>
+      </c>
+      <c r="AX273">
+        <v>6</v>
+      </c>
+      <c r="AY273">
+        <v>5</v>
+      </c>
+      <c r="AZ273">
+        <v>9</v>
+      </c>
+      <c r="BA273">
+        <v>6</v>
+      </c>
+      <c r="BB273">
+        <v>3</v>
+      </c>
+      <c r="BC273">
+        <v>9</v>
+      </c>
+      <c r="BD273">
+        <v>1.67</v>
+      </c>
+      <c r="BE273">
+        <v>8.5</v>
+      </c>
+      <c r="BF273">
+        <v>2.5</v>
+      </c>
+      <c r="BG273">
+        <v>1.2</v>
+      </c>
+      <c r="BH273">
+        <v>4.4</v>
+      </c>
+      <c r="BI273">
+        <v>1.35</v>
+      </c>
+      <c r="BJ273">
+        <v>3</v>
+      </c>
+      <c r="BK273">
+        <v>1.6</v>
+      </c>
+      <c r="BL273">
+        <v>2.25</v>
+      </c>
+      <c r="BM273">
+        <v>2.05</v>
+      </c>
+      <c r="BN273">
+        <v>1.7</v>
+      </c>
+      <c r="BO273">
+        <v>2.5</v>
+      </c>
+      <c r="BP273">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7327169</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F274">
+        <v>28</v>
+      </c>
+      <c r="G274" t="s">
+        <v>83</v>
+      </c>
+      <c r="H274" t="s">
+        <v>85</v>
+      </c>
+      <c r="I274">
+        <v>2</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <v>3</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>260</v>
+      </c>
+      <c r="P274" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q274">
+        <v>2.91</v>
+      </c>
+      <c r="R274">
+        <v>2.14</v>
+      </c>
+      <c r="S274">
+        <v>3.55</v>
+      </c>
+      <c r="T274">
+        <v>1.4</v>
+      </c>
+      <c r="U274">
+        <v>2.75</v>
+      </c>
+      <c r="V274">
+        <v>2.8</v>
+      </c>
+      <c r="W274">
+        <v>1.39</v>
+      </c>
+      <c r="X274">
+        <v>6.95</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>2.35</v>
+      </c>
+      <c r="AA274">
+        <v>3.3</v>
+      </c>
+      <c r="AB274">
+        <v>2.85</v>
+      </c>
+      <c r="AC274">
+        <v>1.06</v>
+      </c>
+      <c r="AD274">
+        <v>8.5</v>
+      </c>
+      <c r="AE274">
+        <v>1.3</v>
+      </c>
+      <c r="AF274">
+        <v>3.3</v>
+      </c>
+      <c r="AG274">
+        <v>1.9</v>
+      </c>
+      <c r="AH274">
+        <v>1.85</v>
+      </c>
+      <c r="AI274">
+        <v>1.72</v>
+      </c>
+      <c r="AJ274">
+        <v>2.05</v>
+      </c>
+      <c r="AK274">
+        <v>1.4</v>
+      </c>
+      <c r="AL274">
+        <v>1.25</v>
+      </c>
+      <c r="AM274">
+        <v>1.57</v>
+      </c>
+      <c r="AN274">
+        <v>0.75</v>
+      </c>
+      <c r="AO274">
+        <v>1.5</v>
+      </c>
+      <c r="AP274">
+        <v>0.92</v>
+      </c>
+      <c r="AQ274">
+        <v>1.38</v>
+      </c>
+      <c r="AR274">
+        <v>1.4</v>
+      </c>
+      <c r="AS274">
+        <v>1.18</v>
+      </c>
+      <c r="AT274">
+        <v>2.58</v>
+      </c>
+      <c r="AU274">
+        <v>12</v>
+      </c>
+      <c r="AV274">
+        <v>3</v>
+      </c>
+      <c r="AW274">
+        <v>4</v>
+      </c>
+      <c r="AX274">
+        <v>5</v>
+      </c>
+      <c r="AY274">
+        <v>16</v>
+      </c>
+      <c r="AZ274">
+        <v>8</v>
+      </c>
+      <c r="BA274">
+        <v>8</v>
+      </c>
+      <c r="BB274">
+        <v>6</v>
+      </c>
+      <c r="BC274">
+        <v>14</v>
+      </c>
+      <c r="BD274">
+        <v>1.67</v>
+      </c>
+      <c r="BE274">
+        <v>8.5</v>
+      </c>
+      <c r="BF274">
+        <v>2.5</v>
+      </c>
+      <c r="BG274">
+        <v>1.2</v>
+      </c>
+      <c r="BH274">
+        <v>4.2</v>
+      </c>
+      <c r="BI274">
+        <v>1.3</v>
+      </c>
+      <c r="BJ274">
+        <v>3.08</v>
+      </c>
+      <c r="BK274">
+        <v>1.55</v>
+      </c>
+      <c r="BL274">
+        <v>2.29</v>
+      </c>
+      <c r="BM274">
+        <v>1.91</v>
+      </c>
+      <c r="BN274">
+        <v>1.8</v>
+      </c>
+      <c r="BO274">
+        <v>2.49</v>
+      </c>
+      <c r="BP274">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -799,6 +799,15 @@
     <t>['2', '36', '50']</t>
   </si>
   <si>
+    <t>['63', '75']</t>
+  </si>
+  <si>
+    <t>['38', '65']</t>
+  </si>
+  <si>
+    <t>['33', '59']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1148,6 +1157,9 @@
   </si>
   <si>
     <t>['22', '32']</t>
+  </si>
+  <si>
+    <t>['9', '89']</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -1974,7 +1986,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2055,7 +2067,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2180,7 +2192,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2258,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
         <v>1.93</v>
@@ -2467,7 +2479,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ5">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2592,7 +2604,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -3004,7 +3016,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3210,7 +3222,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3622,7 +3634,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3700,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
         <v>1.43</v>
@@ -3828,7 +3840,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4034,7 +4046,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4240,7 +4252,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4318,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4527,7 +4539,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ15">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR15">
         <v>0.86</v>
@@ -4652,7 +4664,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -4939,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR17">
         <v>1.28</v>
@@ -5064,7 +5076,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5270,7 +5282,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5888,7 +5900,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -5966,10 +5978,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ22">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR22">
         <v>0.93</v>
@@ -6172,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ23">
         <v>1.36</v>
@@ -6381,7 +6393,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ24">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.59</v>
@@ -6584,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ25">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR25">
         <v>2.81</v>
@@ -6918,7 +6930,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7742,7 +7754,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7948,7 +7960,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8029,7 +8041,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ32">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR32">
         <v>1.08</v>
@@ -8232,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>1.79</v>
@@ -8360,7 +8372,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8772,7 +8784,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8978,7 +8990,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9056,7 +9068,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -9184,7 +9196,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9596,7 +9608,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9802,7 +9814,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -9880,7 +9892,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ41">
         <v>1.47</v>
@@ -10008,7 +10020,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10086,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10292,10 +10304,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ43">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10498,10 +10510,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10832,7 +10844,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10913,7 +10925,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ46">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.43</v>
@@ -12149,7 +12161,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ52">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12352,7 +12364,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -12480,7 +12492,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12892,7 +12904,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -13510,7 +13522,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13716,7 +13728,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -14206,10 +14218,10 @@
         <v>2.33</v>
       </c>
       <c r="AP62">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ62">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -14334,7 +14346,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14412,7 +14424,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14540,7 +14552,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14618,7 +14630,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ64">
         <v>1.07</v>
@@ -14746,7 +14758,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15030,7 +15042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ66">
         <v>1.21</v>
@@ -15158,7 +15170,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15239,7 +15251,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ67">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR67">
         <v>1.93</v>
@@ -15651,7 +15663,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ69">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15857,7 +15869,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR70">
         <v>1.21</v>
@@ -16394,7 +16406,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16600,7 +16612,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -16678,10 +16690,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ74">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR74">
         <v>1.28</v>
@@ -16884,7 +16896,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
         <v>1.36</v>
@@ -17424,7 +17436,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17836,7 +17848,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -17914,7 +17926,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ80">
         <v>1.38</v>
@@ -18042,7 +18054,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18123,7 +18135,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ81">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR81">
         <v>1.58</v>
@@ -18454,7 +18466,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18660,7 +18672,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -18741,7 +18753,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR84">
         <v>1.47</v>
@@ -19690,7 +19702,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19771,7 +19783,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19896,7 +19908,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20102,7 +20114,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20386,10 +20398,10 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20592,7 +20604,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>1.47</v>
@@ -20720,7 +20732,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20798,7 +20810,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
@@ -20926,7 +20938,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21210,7 +21222,7 @@
         <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -21338,7 +21350,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21416,7 +21428,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ97">
         <v>1.08</v>
@@ -21544,7 +21556,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21831,7 +21843,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ99">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR99">
         <v>1.35</v>
@@ -21956,7 +21968,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22037,7 +22049,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ100">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -22368,7 +22380,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22446,7 +22458,7 @@
         <v>1.4</v>
       </c>
       <c r="AP102">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ102">
         <v>1.79</v>
@@ -22780,7 +22792,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23067,7 +23079,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ105">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR105">
         <v>1.34</v>
@@ -23273,7 +23285,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ106">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR106">
         <v>1.61</v>
@@ -23398,7 +23410,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23810,7 +23822,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -24016,7 +24028,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24222,7 +24234,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24300,7 +24312,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24428,7 +24440,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24506,7 +24518,7 @@
         <v>1.33</v>
       </c>
       <c r="AP112">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ112">
         <v>0.71</v>
@@ -25046,7 +25058,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25127,7 +25139,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ115">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR115">
         <v>1.54</v>
@@ -25458,7 +25470,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25536,7 +25548,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ117">
         <v>1.36</v>
@@ -25664,7 +25676,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -25745,7 +25757,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ118">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR118">
         <v>1.47</v>
@@ -25951,7 +25963,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ119">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -26076,7 +26088,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26282,7 +26294,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26360,7 +26372,7 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ121">
         <v>1.08</v>
@@ -26488,7 +26500,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26694,7 +26706,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -26772,10 +26784,10 @@
         <v>0.17</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ123">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR123">
         <v>1.08</v>
@@ -26981,7 +26993,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ124">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR124">
         <v>1.4</v>
@@ -27187,7 +27199,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ125">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR125">
         <v>1.77</v>
@@ -27312,7 +27324,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27518,7 +27530,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27724,7 +27736,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27805,7 +27817,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
@@ -27930,7 +27942,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28136,7 +28148,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -28214,10 +28226,10 @@
         <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ130">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
         <v>2.36</v>
@@ -29038,7 +29050,7 @@
         <v>1.14</v>
       </c>
       <c r="AP134">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -29372,7 +29384,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29450,7 +29462,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ136">
         <v>1.43</v>
@@ -29578,7 +29590,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -29862,7 +29874,7 @@
         <v>1.6</v>
       </c>
       <c r="AP138">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ138">
         <v>1.5</v>
@@ -30196,7 +30208,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30402,7 +30414,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30814,7 +30826,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30892,7 +30904,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ143">
         <v>1.08</v>
@@ -31020,7 +31032,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31844,7 +31856,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31925,7 +31937,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ148">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR148">
         <v>1.41</v>
@@ -32256,7 +32268,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32337,7 +32349,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ150">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR150">
         <v>1.3</v>
@@ -32462,7 +32474,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32540,7 +32552,7 @@
         <v>0.75</v>
       </c>
       <c r="AP151">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ151">
         <v>1.21</v>
@@ -32668,7 +32680,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32746,7 +32758,7 @@
         <v>1.33</v>
       </c>
       <c r="AP152">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ152">
         <v>1.5</v>
@@ -32874,7 +32886,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -32955,7 +32967,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ153">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR153">
         <v>1.8</v>
@@ -33158,7 +33170,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ154">
         <v>1.36</v>
@@ -33492,7 +33504,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33985,7 +33997,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ158">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR158">
         <v>1.74</v>
@@ -34191,7 +34203,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ159">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR159">
         <v>1.88</v>
@@ -34316,7 +34328,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34600,7 +34612,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ161">
         <v>0.71</v>
@@ -34728,7 +34740,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34934,7 +34946,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35140,7 +35152,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35758,7 +35770,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35836,10 +35848,10 @@
         <v>0.43</v>
       </c>
       <c r="AP167">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ167">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -36170,7 +36182,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36376,7 +36388,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36457,7 +36469,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR170">
         <v>1.86</v>
@@ -36582,7 +36594,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36660,7 +36672,7 @@
         <v>1.5</v>
       </c>
       <c r="AP171">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ171">
         <v>1.36</v>
@@ -37075,7 +37087,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ173">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR173">
         <v>1.4</v>
@@ -37278,7 +37290,7 @@
         <v>0.75</v>
       </c>
       <c r="AP174">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ174">
         <v>1.08</v>
@@ -37487,7 +37499,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ175">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37612,7 +37624,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -37693,7 +37705,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ176">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR176">
         <v>1.65</v>
@@ -38436,7 +38448,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38926,7 +38938,7 @@
         <v>1.88</v>
       </c>
       <c r="AP182">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ182">
         <v>1.36</v>
@@ -39054,7 +39066,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39132,7 +39144,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ183">
         <v>1.08</v>
@@ -39260,7 +39272,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39338,7 +39350,7 @@
         <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ184">
         <v>1.07</v>
@@ -39466,7 +39478,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39878,7 +39890,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -39959,7 +39971,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ187">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR187">
         <v>1.66</v>
@@ -40290,7 +40302,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40496,7 +40508,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40702,7 +40714,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -40780,7 +40792,7 @@
         <v>1.22</v>
       </c>
       <c r="AP191">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ191">
         <v>1.5</v>
@@ -41195,7 +41207,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR193">
         <v>1.31</v>
@@ -41604,7 +41616,7 @@
         <v>1.33</v>
       </c>
       <c r="AP195">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ195">
         <v>1.36</v>
@@ -41938,7 +41950,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42019,7 +42031,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ197">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR197">
         <v>1.4</v>
@@ -42225,7 +42237,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ198">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR198">
         <v>1.52</v>
@@ -42428,10 +42440,10 @@
         <v>2.44</v>
       </c>
       <c r="AP199">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ199">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR199">
         <v>1.76</v>
@@ -42556,7 +42568,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -43174,7 +43186,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43380,7 +43392,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43461,7 +43473,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ204">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR204">
         <v>1.52</v>
@@ -43586,7 +43598,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44204,7 +44216,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44285,7 +44297,7 @@
         <v>1</v>
       </c>
       <c r="AQ208">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR208">
         <v>1.46</v>
@@ -44410,7 +44422,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -44694,10 +44706,10 @@
         <v>1.6</v>
       </c>
       <c r="AP210">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ210">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR210">
         <v>1.72</v>
@@ -44903,7 +44915,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ211">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR211">
         <v>1.71</v>
@@ -45028,7 +45040,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45106,7 +45118,7 @@
         <v>2</v>
       </c>
       <c r="AP212">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ212">
         <v>1.93</v>
@@ -45521,7 +45533,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ214">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR214">
         <v>1.31</v>
@@ -45646,7 +45658,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45724,10 +45736,10 @@
         <v>0.7</v>
       </c>
       <c r="AP215">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ215">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR215">
         <v>1.43</v>
@@ -45852,7 +45864,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -45930,7 +45942,7 @@
         <v>0.7</v>
       </c>
       <c r="AP216">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ216">
         <v>1.08</v>
@@ -46058,7 +46070,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46136,7 +46148,7 @@
         <v>1.3</v>
       </c>
       <c r="AP217">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ217">
         <v>1.07</v>
@@ -46264,7 +46276,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46676,7 +46688,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46882,7 +46894,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -47088,7 +47100,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -47581,7 +47593,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ224">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR224">
         <v>1</v>
@@ -47784,10 +47796,10 @@
         <v>2.36</v>
       </c>
       <c r="AP225">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ225">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR225">
         <v>1.43</v>
@@ -48196,7 +48208,7 @@
         <v>1.8</v>
       </c>
       <c r="AP227">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ227">
         <v>1.5</v>
@@ -48736,7 +48748,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48942,7 +48954,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49023,7 +49035,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ231">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR231">
         <v>1.75</v>
@@ -49148,7 +49160,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49354,7 +49366,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49560,7 +49572,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49638,7 +49650,7 @@
         <v>1.36</v>
       </c>
       <c r="AP234">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ234">
         <v>1.36</v>
@@ -49766,7 +49778,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49972,7 +49984,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -50384,7 +50396,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50590,7 +50602,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50671,7 +50683,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ239">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -50796,7 +50808,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -50874,7 +50886,7 @@
         <v>1.33</v>
       </c>
       <c r="AP240">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ240">
         <v>1.47</v>
@@ -51002,7 +51014,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51495,7 +51507,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ243">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AR243">
         <v>1.44</v>
@@ -51620,7 +51632,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51826,7 +51838,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51904,7 +51916,7 @@
         <v>0.75</v>
       </c>
       <c r="AP245">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ245">
         <v>0.71</v>
@@ -52316,7 +52328,7 @@
         <v>1.58</v>
       </c>
       <c r="AP247">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ247">
         <v>1.79</v>
@@ -52525,7 +52537,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ248">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR248">
         <v>1.34</v>
@@ -52856,7 +52868,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -52937,7 +52949,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ250">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AR250">
         <v>1.75</v>
@@ -53062,7 +53074,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53268,7 +53280,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53552,7 +53564,7 @@
         <v>1.25</v>
       </c>
       <c r="AP253">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ253">
         <v>1.07</v>
@@ -53680,7 +53692,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q254">
         <v>4.64</v>
@@ -53758,10 +53770,10 @@
         <v>1.33</v>
       </c>
       <c r="AP254">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ254">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR254">
         <v>1.27</v>
@@ -53886,7 +53898,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -54710,7 +54722,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -54994,7 +55006,7 @@
         <v>1.46</v>
       </c>
       <c r="AP260">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ260">
         <v>1.47</v>
@@ -55122,7 +55134,7 @@
         <v>253</v>
       </c>
       <c r="P261" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55203,7 +55215,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ261">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR261">
         <v>1.3</v>
@@ -55740,7 +55752,7 @@
         <v>255</v>
       </c>
       <c r="P264" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q264">
         <v>2.6</v>
@@ -56152,7 +56164,7 @@
         <v>103</v>
       </c>
       <c r="P266" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56358,7 +56370,7 @@
         <v>256</v>
       </c>
       <c r="P267" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q267">
         <v>3.32</v>
@@ -56439,7 +56451,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ267">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR267">
         <v>1.57</v>
@@ -56564,7 +56576,7 @@
         <v>104</v>
       </c>
       <c r="P268" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q268">
         <v>4.5</v>
@@ -56770,7 +56782,7 @@
         <v>257</v>
       </c>
       <c r="P269" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q269">
         <v>2.38</v>
@@ -56848,7 +56860,7 @@
         <v>1.54</v>
       </c>
       <c r="AP269">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ269">
         <v>1.5</v>
@@ -57182,7 +57194,7 @@
         <v>258</v>
       </c>
       <c r="P271" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q271">
         <v>2.86</v>
@@ -57957,6 +57969,1036 @@
       </c>
       <c r="BP274">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7327170</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45529.25</v>
+      </c>
+      <c r="F275">
+        <v>28</v>
+      </c>
+      <c r="G275" t="s">
+        <v>79</v>
+      </c>
+      <c r="H275" t="s">
+        <v>84</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>3</v>
+      </c>
+      <c r="O275" t="s">
+        <v>261</v>
+      </c>
+      <c r="P275" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q275">
+        <v>3.75</v>
+      </c>
+      <c r="R275">
+        <v>2.05</v>
+      </c>
+      <c r="S275">
+        <v>3.1</v>
+      </c>
+      <c r="T275">
+        <v>1.44</v>
+      </c>
+      <c r="U275">
+        <v>2.63</v>
+      </c>
+      <c r="V275">
+        <v>3.25</v>
+      </c>
+      <c r="W275">
+        <v>1.33</v>
+      </c>
+      <c r="X275">
+        <v>10</v>
+      </c>
+      <c r="Y275">
+        <v>1.06</v>
+      </c>
+      <c r="Z275">
+        <v>2.97</v>
+      </c>
+      <c r="AA275">
+        <v>3.16</v>
+      </c>
+      <c r="AB275">
+        <v>2.33</v>
+      </c>
+      <c r="AC275">
+        <v>1.04</v>
+      </c>
+      <c r="AD275">
+        <v>7.3</v>
+      </c>
+      <c r="AE275">
+        <v>1.37</v>
+      </c>
+      <c r="AF275">
+        <v>2.76</v>
+      </c>
+      <c r="AG275">
+        <v>2.1</v>
+      </c>
+      <c r="AH275">
+        <v>1.68</v>
+      </c>
+      <c r="AI275">
+        <v>1.91</v>
+      </c>
+      <c r="AJ275">
+        <v>1.91</v>
+      </c>
+      <c r="AK275">
+        <v>1.6</v>
+      </c>
+      <c r="AL275">
+        <v>1.35</v>
+      </c>
+      <c r="AM275">
+        <v>1.36</v>
+      </c>
+      <c r="AN275">
+        <v>1.23</v>
+      </c>
+      <c r="AO275">
+        <v>1.23</v>
+      </c>
+      <c r="AP275">
+        <v>1.36</v>
+      </c>
+      <c r="AQ275">
+        <v>1.14</v>
+      </c>
+      <c r="AR275">
+        <v>1.46</v>
+      </c>
+      <c r="AS275">
+        <v>1.34</v>
+      </c>
+      <c r="AT275">
+        <v>2.8</v>
+      </c>
+      <c r="AU275">
+        <v>8</v>
+      </c>
+      <c r="AV275">
+        <v>9</v>
+      </c>
+      <c r="AW275">
+        <v>4</v>
+      </c>
+      <c r="AX275">
+        <v>4</v>
+      </c>
+      <c r="AY275">
+        <v>12</v>
+      </c>
+      <c r="AZ275">
+        <v>13</v>
+      </c>
+      <c r="BA275">
+        <v>5</v>
+      </c>
+      <c r="BB275">
+        <v>6</v>
+      </c>
+      <c r="BC275">
+        <v>11</v>
+      </c>
+      <c r="BD275">
+        <v>2</v>
+      </c>
+      <c r="BE275">
+        <v>8</v>
+      </c>
+      <c r="BF275">
+        <v>2.05</v>
+      </c>
+      <c r="BG275">
+        <v>1.21</v>
+      </c>
+      <c r="BH275">
+        <v>3.74</v>
+      </c>
+      <c r="BI275">
+        <v>1.42</v>
+      </c>
+      <c r="BJ275">
+        <v>2.65</v>
+      </c>
+      <c r="BK275">
+        <v>1.8</v>
+      </c>
+      <c r="BL275">
+        <v>2</v>
+      </c>
+      <c r="BM275">
+        <v>2.21</v>
+      </c>
+      <c r="BN275">
+        <v>1.59</v>
+      </c>
+      <c r="BO275">
+        <v>2.91</v>
+      </c>
+      <c r="BP275">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7327171</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45529.27083333334</v>
+      </c>
+      <c r="F276">
+        <v>28</v>
+      </c>
+      <c r="G276" t="s">
+        <v>70</v>
+      </c>
+      <c r="H276" t="s">
+        <v>78</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>2</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>2</v>
+      </c>
+      <c r="O276" t="s">
+        <v>262</v>
+      </c>
+      <c r="P276" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q276">
+        <v>2.25</v>
+      </c>
+      <c r="R276">
+        <v>2.3</v>
+      </c>
+      <c r="S276">
+        <v>5</v>
+      </c>
+      <c r="T276">
+        <v>1.33</v>
+      </c>
+      <c r="U276">
+        <v>3.25</v>
+      </c>
+      <c r="V276">
+        <v>2.63</v>
+      </c>
+      <c r="W276">
+        <v>1.44</v>
+      </c>
+      <c r="X276">
+        <v>6.5</v>
+      </c>
+      <c r="Y276">
+        <v>1.11</v>
+      </c>
+      <c r="Z276">
+        <v>1.66</v>
+      </c>
+      <c r="AA276">
+        <v>3.7</v>
+      </c>
+      <c r="AB276">
+        <v>4.69</v>
+      </c>
+      <c r="AC276">
+        <v>1.04</v>
+      </c>
+      <c r="AD276">
+        <v>10</v>
+      </c>
+      <c r="AE276">
+        <v>1.22</v>
+      </c>
+      <c r="AF276">
+        <v>4</v>
+      </c>
+      <c r="AG276">
+        <v>1.75</v>
+      </c>
+      <c r="AH276">
+        <v>2</v>
+      </c>
+      <c r="AI276">
+        <v>1.75</v>
+      </c>
+      <c r="AJ276">
+        <v>2</v>
+      </c>
+      <c r="AK276">
+        <v>1.15</v>
+      </c>
+      <c r="AL276">
+        <v>1.2</v>
+      </c>
+      <c r="AM276">
+        <v>2.15</v>
+      </c>
+      <c r="AN276">
+        <v>1.85</v>
+      </c>
+      <c r="AO276">
+        <v>1.31</v>
+      </c>
+      <c r="AP276">
+        <v>1.93</v>
+      </c>
+      <c r="AQ276">
+        <v>1.21</v>
+      </c>
+      <c r="AR276">
+        <v>1.97</v>
+      </c>
+      <c r="AS276">
+        <v>1.52</v>
+      </c>
+      <c r="AT276">
+        <v>3.49</v>
+      </c>
+      <c r="AU276">
+        <v>6</v>
+      </c>
+      <c r="AV276">
+        <v>6</v>
+      </c>
+      <c r="AW276">
+        <v>11</v>
+      </c>
+      <c r="AX276">
+        <v>3</v>
+      </c>
+      <c r="AY276">
+        <v>17</v>
+      </c>
+      <c r="AZ276">
+        <v>9</v>
+      </c>
+      <c r="BA276">
+        <v>1</v>
+      </c>
+      <c r="BB276">
+        <v>3</v>
+      </c>
+      <c r="BC276">
+        <v>4</v>
+      </c>
+      <c r="BD276">
+        <v>1.36</v>
+      </c>
+      <c r="BE276">
+        <v>9</v>
+      </c>
+      <c r="BF276">
+        <v>3.5</v>
+      </c>
+      <c r="BG276">
+        <v>1.18</v>
+      </c>
+      <c r="BH276">
+        <v>4.33</v>
+      </c>
+      <c r="BI276">
+        <v>1.33</v>
+      </c>
+      <c r="BJ276">
+        <v>3</v>
+      </c>
+      <c r="BK276">
+        <v>1.7</v>
+      </c>
+      <c r="BL276">
+        <v>2.05</v>
+      </c>
+      <c r="BM276">
+        <v>2</v>
+      </c>
+      <c r="BN276">
+        <v>1.73</v>
+      </c>
+      <c r="BO276">
+        <v>2.36</v>
+      </c>
+      <c r="BP276">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7327172</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F277">
+        <v>28</v>
+      </c>
+      <c r="G277" t="s">
+        <v>88</v>
+      </c>
+      <c r="H277" t="s">
+        <v>75</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277" t="s">
+        <v>91</v>
+      </c>
+      <c r="P277" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q277">
+        <v>4</v>
+      </c>
+      <c r="R277">
+        <v>2.05</v>
+      </c>
+      <c r="S277">
+        <v>3</v>
+      </c>
+      <c r="T277">
+        <v>1.44</v>
+      </c>
+      <c r="U277">
+        <v>2.63</v>
+      </c>
+      <c r="V277">
+        <v>3.25</v>
+      </c>
+      <c r="W277">
+        <v>1.33</v>
+      </c>
+      <c r="X277">
+        <v>9</v>
+      </c>
+      <c r="Y277">
+        <v>1.07</v>
+      </c>
+      <c r="Z277">
+        <v>3.21</v>
+      </c>
+      <c r="AA277">
+        <v>3.21</v>
+      </c>
+      <c r="AB277">
+        <v>2.18</v>
+      </c>
+      <c r="AC277">
+        <v>1.05</v>
+      </c>
+      <c r="AD277">
+        <v>8</v>
+      </c>
+      <c r="AE277">
+        <v>1.33</v>
+      </c>
+      <c r="AF277">
+        <v>3</v>
+      </c>
+      <c r="AG277">
+        <v>2.1</v>
+      </c>
+      <c r="AH277">
+        <v>1.7</v>
+      </c>
+      <c r="AI277">
+        <v>1.8</v>
+      </c>
+      <c r="AJ277">
+        <v>1.95</v>
+      </c>
+      <c r="AK277">
+        <v>1.62</v>
+      </c>
+      <c r="AL277">
+        <v>1.35</v>
+      </c>
+      <c r="AM277">
+        <v>1.35</v>
+      </c>
+      <c r="AN277">
+        <v>1.08</v>
+      </c>
+      <c r="AO277">
+        <v>2.31</v>
+      </c>
+      <c r="AP277">
+        <v>1.07</v>
+      </c>
+      <c r="AQ277">
+        <v>2.21</v>
+      </c>
+      <c r="AR277">
+        <v>1.49</v>
+      </c>
+      <c r="AS277">
+        <v>1.29</v>
+      </c>
+      <c r="AT277">
+        <v>2.78</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>3</v>
+      </c>
+      <c r="AW277">
+        <v>3</v>
+      </c>
+      <c r="AX277">
+        <v>3</v>
+      </c>
+      <c r="AY277">
+        <v>7</v>
+      </c>
+      <c r="AZ277">
+        <v>6</v>
+      </c>
+      <c r="BA277">
+        <v>2</v>
+      </c>
+      <c r="BB277">
+        <v>4</v>
+      </c>
+      <c r="BC277">
+        <v>6</v>
+      </c>
+      <c r="BD277">
+        <v>2.2</v>
+      </c>
+      <c r="BE277">
+        <v>8</v>
+      </c>
+      <c r="BF277">
+        <v>1.83</v>
+      </c>
+      <c r="BG277">
+        <v>1.25</v>
+      </c>
+      <c r="BH277">
+        <v>3.6</v>
+      </c>
+      <c r="BI277">
+        <v>1.44</v>
+      </c>
+      <c r="BJ277">
+        <v>2.6</v>
+      </c>
+      <c r="BK277">
+        <v>1.77</v>
+      </c>
+      <c r="BL277">
+        <v>1.95</v>
+      </c>
+      <c r="BM277">
+        <v>2.1</v>
+      </c>
+      <c r="BN277">
+        <v>1.65</v>
+      </c>
+      <c r="BO277">
+        <v>2.7</v>
+      </c>
+      <c r="BP277">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7327174</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F278">
+        <v>28</v>
+      </c>
+      <c r="G278" t="s">
+        <v>82</v>
+      </c>
+      <c r="H278" t="s">
+        <v>74</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>2</v>
+      </c>
+      <c r="O278" t="s">
+        <v>263</v>
+      </c>
+      <c r="P278" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q278">
+        <v>1.95</v>
+      </c>
+      <c r="R278">
+        <v>2.5</v>
+      </c>
+      <c r="S278">
+        <v>6</v>
+      </c>
+      <c r="T278">
+        <v>1.29</v>
+      </c>
+      <c r="U278">
+        <v>3.5</v>
+      </c>
+      <c r="V278">
+        <v>2.38</v>
+      </c>
+      <c r="W278">
+        <v>1.53</v>
+      </c>
+      <c r="X278">
+        <v>5.5</v>
+      </c>
+      <c r="Y278">
+        <v>1.14</v>
+      </c>
+      <c r="Z278">
+        <v>1.41</v>
+      </c>
+      <c r="AA278">
+        <v>4.69</v>
+      </c>
+      <c r="AB278">
+        <v>6.4</v>
+      </c>
+      <c r="AC278">
+        <v>1.03</v>
+      </c>
+      <c r="AD278">
+        <v>11</v>
+      </c>
+      <c r="AE278">
+        <v>1.18</v>
+      </c>
+      <c r="AF278">
+        <v>4.5</v>
+      </c>
+      <c r="AG278">
+        <v>1.57</v>
+      </c>
+      <c r="AH278">
+        <v>2.3</v>
+      </c>
+      <c r="AI278">
+        <v>1.8</v>
+      </c>
+      <c r="AJ278">
+        <v>1.95</v>
+      </c>
+      <c r="AK278">
+        <v>1.1</v>
+      </c>
+      <c r="AL278">
+        <v>1.1</v>
+      </c>
+      <c r="AM278">
+        <v>2.85</v>
+      </c>
+      <c r="AN278">
+        <v>1.46</v>
+      </c>
+      <c r="AO278">
+        <v>0.77</v>
+      </c>
+      <c r="AP278">
+        <v>1.57</v>
+      </c>
+      <c r="AQ278">
+        <v>0.71</v>
+      </c>
+      <c r="AR278">
+        <v>1.67</v>
+      </c>
+      <c r="AS278">
+        <v>1.27</v>
+      </c>
+      <c r="AT278">
+        <v>2.94</v>
+      </c>
+      <c r="AU278">
+        <v>6</v>
+      </c>
+      <c r="AV278">
+        <v>0</v>
+      </c>
+      <c r="AW278">
+        <v>8</v>
+      </c>
+      <c r="AX278">
+        <v>5</v>
+      </c>
+      <c r="AY278">
+        <v>14</v>
+      </c>
+      <c r="AZ278">
+        <v>5</v>
+      </c>
+      <c r="BA278">
+        <v>8</v>
+      </c>
+      <c r="BB278">
+        <v>1</v>
+      </c>
+      <c r="BC278">
+        <v>9</v>
+      </c>
+      <c r="BD278">
+        <v>1.4</v>
+      </c>
+      <c r="BE278">
+        <v>9</v>
+      </c>
+      <c r="BF278">
+        <v>3.4</v>
+      </c>
+      <c r="BG278">
+        <v>1.15</v>
+      </c>
+      <c r="BH278">
+        <v>4.75</v>
+      </c>
+      <c r="BI278">
+        <v>1.24</v>
+      </c>
+      <c r="BJ278">
+        <v>3.48</v>
+      </c>
+      <c r="BK278">
+        <v>1.45</v>
+      </c>
+      <c r="BL278">
+        <v>2.55</v>
+      </c>
+      <c r="BM278">
+        <v>2.05</v>
+      </c>
+      <c r="BN278">
+        <v>1.7</v>
+      </c>
+      <c r="BO278">
+        <v>2.23</v>
+      </c>
+      <c r="BP278">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7327173</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F279">
+        <v>28</v>
+      </c>
+      <c r="G279" t="s">
+        <v>72</v>
+      </c>
+      <c r="H279" t="s">
+        <v>89</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>91</v>
+      </c>
+      <c r="P279" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q279">
+        <v>3.1</v>
+      </c>
+      <c r="R279">
+        <v>2.3</v>
+      </c>
+      <c r="S279">
+        <v>3.1</v>
+      </c>
+      <c r="T279">
+        <v>1.33</v>
+      </c>
+      <c r="U279">
+        <v>3.25</v>
+      </c>
+      <c r="V279">
+        <v>2.5</v>
+      </c>
+      <c r="W279">
+        <v>1.5</v>
+      </c>
+      <c r="X279">
+        <v>6.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.11</v>
+      </c>
+      <c r="Z279">
+        <v>2.57</v>
+      </c>
+      <c r="AA279">
+        <v>3.46</v>
+      </c>
+      <c r="AB279">
+        <v>2.47</v>
+      </c>
+      <c r="AC279">
+        <v>1.05</v>
+      </c>
+      <c r="AD279">
+        <v>9.5</v>
+      </c>
+      <c r="AE279">
+        <v>1.22</v>
+      </c>
+      <c r="AF279">
+        <v>4</v>
+      </c>
+      <c r="AG279">
+        <v>1.66</v>
+      </c>
+      <c r="AH279">
+        <v>2.15</v>
+      </c>
+      <c r="AI279">
+        <v>1.57</v>
+      </c>
+      <c r="AJ279">
+        <v>2.25</v>
+      </c>
+      <c r="AK279">
+        <v>1.5</v>
+      </c>
+      <c r="AL279">
+        <v>1.25</v>
+      </c>
+      <c r="AM279">
+        <v>1.47</v>
+      </c>
+      <c r="AN279">
+        <v>1.38</v>
+      </c>
+      <c r="AO279">
+        <v>0.46</v>
+      </c>
+      <c r="AP279">
+        <v>1.29</v>
+      </c>
+      <c r="AQ279">
+        <v>0.64</v>
+      </c>
+      <c r="AR279">
+        <v>1.25</v>
+      </c>
+      <c r="AS279">
+        <v>1.2</v>
+      </c>
+      <c r="AT279">
+        <v>2.45</v>
+      </c>
+      <c r="AU279">
+        <v>4</v>
+      </c>
+      <c r="AV279">
+        <v>3</v>
+      </c>
+      <c r="AW279">
+        <v>4</v>
+      </c>
+      <c r="AX279">
+        <v>4</v>
+      </c>
+      <c r="AY279">
+        <v>8</v>
+      </c>
+      <c r="AZ279">
+        <v>7</v>
+      </c>
+      <c r="BA279">
+        <v>8</v>
+      </c>
+      <c r="BB279">
+        <v>5</v>
+      </c>
+      <c r="BC279">
+        <v>13</v>
+      </c>
+      <c r="BD279">
+        <v>2.05</v>
+      </c>
+      <c r="BE279">
+        <v>8</v>
+      </c>
+      <c r="BF279">
+        <v>2</v>
+      </c>
+      <c r="BG279">
+        <v>1.22</v>
+      </c>
+      <c r="BH279">
+        <v>3.65</v>
+      </c>
+      <c r="BI279">
+        <v>1.44</v>
+      </c>
+      <c r="BJ279">
+        <v>2.58</v>
+      </c>
+      <c r="BK279">
+        <v>1.77</v>
+      </c>
+      <c r="BL279">
+        <v>1.95</v>
+      </c>
+      <c r="BM279">
+        <v>2.25</v>
+      </c>
+      <c r="BN279">
+        <v>1.57</v>
+      </c>
+      <c r="BO279">
+        <v>2.98</v>
+      </c>
+      <c r="BP279">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="384">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -808,6 +808,9 @@
     <t>['33', '59']</t>
   </si>
   <si>
+    <t>['49', '90+8']</t>
+  </si>
+  <si>
     <t>['19', '47', '62']</t>
   </si>
   <si>
@@ -1160,6 +1163,9 @@
   </si>
   <si>
     <t>['9', '89']</t>
+  </si>
+  <si>
+    <t>['36', '87']</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,7 +1867,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ2">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1986,7 +1992,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q3">
         <v>3.4</v>
@@ -2192,7 +2198,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2604,7 +2610,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q6">
         <v>3.6</v>
@@ -2888,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -3016,7 +3022,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3222,7 +3228,7 @@
         <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q9">
         <v>2.88</v>
@@ -3634,7 +3640,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q11">
         <v>4.75</v>
@@ -3840,7 +3846,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4046,7 +4052,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q13">
         <v>2.1</v>
@@ -4252,7 +4258,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4664,7 +4670,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q16">
         <v>3.1</v>
@@ -5076,7 +5082,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5282,7 +5288,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5900,7 +5906,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q22">
         <v>3.3</v>
@@ -6390,7 +6396,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>1.14</v>
@@ -6930,7 +6936,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q27">
         <v>3.75</v>
@@ -7629,7 +7635,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7754,7 +7760,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q31">
         <v>3.2</v>
@@ -7960,7 +7966,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8372,7 +8378,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -8784,7 +8790,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8990,7 +8996,7 @@
         <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q37">
         <v>3.6</v>
@@ -9196,7 +9202,7 @@
         <v>114</v>
       </c>
       <c r="P38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q38">
         <v>4.33</v>
@@ -9608,7 +9614,7 @@
         <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9689,7 +9695,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ40">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR40">
         <v>0.99</v>
@@ -9814,7 +9820,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10020,7 +10026,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q42">
         <v>2.1</v>
@@ -10844,7 +10850,7 @@
         <v>122</v>
       </c>
       <c r="P46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q46">
         <v>2.38</v>
@@ -10922,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46">
         <v>0.71</v>
@@ -12492,7 +12498,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12904,7 +12910,7 @@
         <v>110</v>
       </c>
       <c r="P56" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12982,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
         <v>1.79</v>
@@ -13522,7 +13528,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q59">
         <v>3.5</v>
@@ -13728,7 +13734,7 @@
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q60">
         <v>3.9</v>
@@ -13809,7 +13815,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -14346,7 +14352,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>2.4</v>
@@ -14552,7 +14558,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>3.6</v>
@@ -14758,7 +14764,7 @@
         <v>91</v>
       </c>
       <c r="P65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -15170,7 +15176,7 @@
         <v>91</v>
       </c>
       <c r="P67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -16281,7 +16287,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ72">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16406,7 +16412,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q73">
         <v>2.2</v>
@@ -16612,7 +16618,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -17436,7 +17442,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q78">
         <v>3.4</v>
@@ -17514,7 +17520,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
         <v>1.93</v>
@@ -17848,7 +17854,7 @@
         <v>146</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>3.2</v>
@@ -18054,7 +18060,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -18466,7 +18472,7 @@
         <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18672,7 +18678,7 @@
         <v>148</v>
       </c>
       <c r="P84" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q84">
         <v>4.65</v>
@@ -19702,7 +19708,7 @@
         <v>130</v>
       </c>
       <c r="P89" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19908,7 +19914,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q90">
         <v>3.1</v>
@@ -20114,7 +20120,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20732,7 +20738,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20938,7 +20944,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q95">
         <v>2.82</v>
@@ -21350,7 +21356,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q97">
         <v>2.38</v>
@@ -21556,7 +21562,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>2.63</v>
@@ -21968,7 +21974,7 @@
         <v>158</v>
       </c>
       <c r="P100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q100">
         <v>3.6</v>
@@ -22380,7 +22386,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>4.7</v>
@@ -22792,7 +22798,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>2.88</v>
@@ -23076,7 +23082,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ105">
         <v>1.21</v>
@@ -23410,7 +23416,7 @@
         <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q107">
         <v>3.75</v>
@@ -23822,7 +23828,7 @@
         <v>164</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>3.16</v>
@@ -23903,7 +23909,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR109">
         <v>1.74</v>
@@ -24028,7 +24034,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24234,7 +24240,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q111">
         <v>2.17</v>
@@ -24440,7 +24446,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -25058,7 +25064,7 @@
         <v>91</v>
       </c>
       <c r="P115" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25470,7 +25476,7 @@
         <v>168</v>
       </c>
       <c r="P117" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q117">
         <v>2.05</v>
@@ -25676,7 +25682,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q118">
         <v>3.41</v>
@@ -26088,7 +26094,7 @@
         <v>171</v>
       </c>
       <c r="P120" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26294,7 +26300,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q121">
         <v>4.03</v>
@@ -26375,7 +26381,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ121">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR121">
         <v>1.28</v>
@@ -26500,7 +26506,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q122">
         <v>3.64</v>
@@ -26706,7 +26712,7 @@
         <v>91</v>
       </c>
       <c r="P123" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q123">
         <v>2.41</v>
@@ -27324,7 +27330,7 @@
         <v>91</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>3.3</v>
@@ -27530,7 +27536,7 @@
         <v>119</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q127">
         <v>4.08</v>
@@ -27736,7 +27742,7 @@
         <v>175</v>
       </c>
       <c r="P128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q128">
         <v>3.28</v>
@@ -27942,7 +27948,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q129">
         <v>2.62</v>
@@ -28148,7 +28154,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q130">
         <v>2.2</v>
@@ -29256,7 +29262,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ135">
         <v>1.07</v>
@@ -29384,7 +29390,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>3.2</v>
@@ -29590,7 +29596,7 @@
         <v>182</v>
       </c>
       <c r="P137" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q137">
         <v>4.65</v>
@@ -30208,7 +30214,7 @@
         <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q140">
         <v>3.75</v>
@@ -30414,7 +30420,7 @@
         <v>91</v>
       </c>
       <c r="P141" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q141">
         <v>3.75</v>
@@ -30698,7 +30704,7 @@
         <v>1.5</v>
       </c>
       <c r="AP142">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ142">
         <v>1.36</v>
@@ -30826,7 +30832,7 @@
         <v>101</v>
       </c>
       <c r="P143" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q143">
         <v>4.36</v>
@@ -30907,7 +30913,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ143">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR143">
         <v>1.16</v>
@@ -31032,7 +31038,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -31856,7 +31862,7 @@
         <v>188</v>
       </c>
       <c r="P148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -32268,7 +32274,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q150">
         <v>3.91</v>
@@ -32474,7 +32480,7 @@
         <v>190</v>
       </c>
       <c r="P151" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q151">
         <v>3.21</v>
@@ -32680,7 +32686,7 @@
         <v>191</v>
       </c>
       <c r="P152" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q152">
         <v>3.42</v>
@@ -32886,7 +32892,7 @@
         <v>131</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q153">
         <v>2.87</v>
@@ -33504,7 +33510,7 @@
         <v>102</v>
       </c>
       <c r="P156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -34328,7 +34334,7 @@
         <v>91</v>
       </c>
       <c r="P160" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q160">
         <v>3.55</v>
@@ -34740,7 +34746,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q162">
         <v>2.63</v>
@@ -34946,7 +34952,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q163">
         <v>2.34</v>
@@ -35024,7 +35030,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ163">
         <v>1.5</v>
@@ -35152,7 +35158,7 @@
         <v>118</v>
       </c>
       <c r="P164" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q164">
         <v>3.41</v>
@@ -35770,7 +35776,7 @@
         <v>198</v>
       </c>
       <c r="P167" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36182,7 +36188,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q169">
         <v>2.71</v>
@@ -36388,7 +36394,7 @@
         <v>200</v>
       </c>
       <c r="P170" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36594,7 +36600,7 @@
         <v>201</v>
       </c>
       <c r="P171" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q171">
         <v>2.1</v>
@@ -36881,7 +36887,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ172">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -37624,7 +37630,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q176">
         <v>3.1</v>
@@ -38448,7 +38454,7 @@
         <v>207</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38732,7 +38738,7 @@
         <v>1.75</v>
       </c>
       <c r="AP181">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ181">
         <v>1.5</v>
@@ -39066,7 +39072,7 @@
         <v>208</v>
       </c>
       <c r="P183" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q183">
         <v>3.3</v>
@@ -39272,7 +39278,7 @@
         <v>209</v>
       </c>
       <c r="P184" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q184">
         <v>3.75</v>
@@ -39478,7 +39484,7 @@
         <v>210</v>
       </c>
       <c r="P185" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -39890,7 +39896,7 @@
         <v>125</v>
       </c>
       <c r="P187" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q187">
         <v>2.9</v>
@@ -40302,7 +40308,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q189">
         <v>3.1</v>
@@ -40508,7 +40514,7 @@
         <v>91</v>
       </c>
       <c r="P190" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q190">
         <v>4.19</v>
@@ -40714,7 +40720,7 @@
         <v>196</v>
       </c>
       <c r="P191" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q191">
         <v>2.1</v>
@@ -41825,7 +41831,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ196">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR196">
         <v>1.01</v>
@@ -41950,7 +41956,7 @@
         <v>214</v>
       </c>
       <c r="P197" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q197">
         <v>3.8</v>
@@ -42568,7 +42574,7 @@
         <v>216</v>
       </c>
       <c r="P200" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q200">
         <v>3.3</v>
@@ -43186,7 +43192,7 @@
         <v>218</v>
       </c>
       <c r="P203" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q203">
         <v>2.07</v>
@@ -43392,7 +43398,7 @@
         <v>219</v>
       </c>
       <c r="P204" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q204">
         <v>3.65</v>
@@ -43598,7 +43604,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q205">
         <v>2.6</v>
@@ -44216,7 +44222,7 @@
         <v>222</v>
       </c>
       <c r="P208" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q208">
         <v>3.85</v>
@@ -44422,7 +44428,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q209">
         <v>2.24</v>
@@ -45040,7 +45046,7 @@
         <v>93</v>
       </c>
       <c r="P212" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q212">
         <v>2.8</v>
@@ -45324,7 +45330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP213">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ213">
         <v>1.36</v>
@@ -45658,7 +45664,7 @@
         <v>225</v>
       </c>
       <c r="P215" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45864,7 +45870,7 @@
         <v>226</v>
       </c>
       <c r="P216" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q216">
         <v>3.95</v>
@@ -46070,7 +46076,7 @@
         <v>227</v>
       </c>
       <c r="P217" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q217">
         <v>3.76</v>
@@ -46276,7 +46282,7 @@
         <v>228</v>
       </c>
       <c r="P218" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q218">
         <v>2.35</v>
@@ -46688,7 +46694,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q220">
         <v>2.65</v>
@@ -46894,7 +46900,7 @@
         <v>191</v>
       </c>
       <c r="P221" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q221">
         <v>3</v>
@@ -47100,7 +47106,7 @@
         <v>158</v>
       </c>
       <c r="P222" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q222">
         <v>6.5</v>
@@ -48005,7 +48011,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ226">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR226">
         <v>1.37</v>
@@ -48748,7 +48754,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q230">
         <v>3.75</v>
@@ -48954,7 +48960,7 @@
         <v>236</v>
       </c>
       <c r="P231" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q231">
         <v>3</v>
@@ -49160,7 +49166,7 @@
         <v>237</v>
       </c>
       <c r="P232" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q232">
         <v>2.4</v>
@@ -49366,7 +49372,7 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q233">
         <v>2.4</v>
@@ -49444,7 +49450,7 @@
         <v>1.17</v>
       </c>
       <c r="AP233">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ233">
         <v>1.43</v>
@@ -49572,7 +49578,7 @@
         <v>238</v>
       </c>
       <c r="P234" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q234">
         <v>2.25</v>
@@ -49778,7 +49784,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q235">
         <v>2.91</v>
@@ -49984,7 +49990,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q236">
         <v>2.63</v>
@@ -50396,7 +50402,7 @@
         <v>240</v>
       </c>
       <c r="P238" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -50602,7 +50608,7 @@
         <v>241</v>
       </c>
       <c r="P239" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q239">
         <v>2.07</v>
@@ -50808,7 +50814,7 @@
         <v>158</v>
       </c>
       <c r="P240" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q240">
         <v>3</v>
@@ -51014,7 +51020,7 @@
         <v>242</v>
       </c>
       <c r="P241" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q241">
         <v>5.5</v>
@@ -51632,7 +51638,7 @@
         <v>243</v>
       </c>
       <c r="P244" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q244">
         <v>3.6</v>
@@ -51838,7 +51844,7 @@
         <v>244</v>
       </c>
       <c r="P245" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52868,7 +52874,7 @@
         <v>247</v>
       </c>
       <c r="P250" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q250">
         <v>2.1</v>
@@ -53074,7 +53080,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q251">
         <v>3.5</v>
@@ -53280,7 +53286,7 @@
         <v>91</v>
       </c>
       <c r="P252" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q252">
         <v>2.5</v>
@@ -53358,7 +53364,7 @@
         <v>1.08</v>
       </c>
       <c r="AP252">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ252">
         <v>1.21</v>
@@ -53692,7 +53698,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q254">
         <v>4.64</v>
@@ -53898,7 +53904,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q255">
         <v>3.44</v>
@@ -54185,7 +54191,7 @@
         <v>1</v>
       </c>
       <c r="AQ256">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR256">
         <v>1.43</v>
@@ -54722,7 +54728,7 @@
         <v>251</v>
       </c>
       <c r="P259" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q259">
         <v>3.52</v>
@@ -55134,7 +55140,7 @@
         <v>253</v>
       </c>
       <c r="P261" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q261">
         <v>2.5</v>
@@ -55421,7 +55427,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ262">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR262">
         <v>1.38</v>
@@ -55624,7 +55630,7 @@
         <v>0.77</v>
       </c>
       <c r="AP263">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ263">
         <v>0.71</v>
@@ -55752,7 +55758,7 @@
         <v>255</v>
       </c>
       <c r="P264" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q264">
         <v>2.6</v>
@@ -56164,7 +56170,7 @@
         <v>103</v>
       </c>
       <c r="P266" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q266">
         <v>2.5</v>
@@ -56370,7 +56376,7 @@
         <v>256</v>
       </c>
       <c r="P267" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q267">
         <v>3.32</v>
@@ -56576,7 +56582,7 @@
         <v>104</v>
       </c>
       <c r="P268" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q268">
         <v>4.5</v>
@@ -56782,7 +56788,7 @@
         <v>257</v>
       </c>
       <c r="P269" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q269">
         <v>2.38</v>
@@ -57194,7 +57200,7 @@
         <v>258</v>
       </c>
       <c r="P271" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q271">
         <v>2.86</v>
@@ -58842,7 +58848,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -58999,6 +59005,212 @@
       </c>
       <c r="BP279">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7327175</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="F280">
+        <v>29</v>
+      </c>
+      <c r="G280" t="s">
+        <v>75</v>
+      </c>
+      <c r="H280" t="s">
+        <v>87</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>2</v>
+      </c>
+      <c r="N280">
+        <v>4</v>
+      </c>
+      <c r="O280" t="s">
+        <v>264</v>
+      </c>
+      <c r="P280" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q280">
+        <v>2.75</v>
+      </c>
+      <c r="R280">
+        <v>2.1</v>
+      </c>
+      <c r="S280">
+        <v>3.8</v>
+      </c>
+      <c r="T280">
+        <v>1.4</v>
+      </c>
+      <c r="U280">
+        <v>2.7</v>
+      </c>
+      <c r="V280">
+        <v>2.9</v>
+      </c>
+      <c r="W280">
+        <v>1.36</v>
+      </c>
+      <c r="X280">
+        <v>7</v>
+      </c>
+      <c r="Y280">
+        <v>1.07</v>
+      </c>
+      <c r="Z280">
+        <v>2.1</v>
+      </c>
+      <c r="AA280">
+        <v>3.4</v>
+      </c>
+      <c r="AB280">
+        <v>3.25</v>
+      </c>
+      <c r="AC280">
+        <v>1.04</v>
+      </c>
+      <c r="AD280">
+        <v>8.5</v>
+      </c>
+      <c r="AE280">
+        <v>1.33</v>
+      </c>
+      <c r="AF280">
+        <v>3</v>
+      </c>
+      <c r="AG280">
+        <v>2.05</v>
+      </c>
+      <c r="AH280">
+        <v>1.73</v>
+      </c>
+      <c r="AI280">
+        <v>1.8</v>
+      </c>
+      <c r="AJ280">
+        <v>1.91</v>
+      </c>
+      <c r="AK280">
+        <v>1.33</v>
+      </c>
+      <c r="AL280">
+        <v>1.33</v>
+      </c>
+      <c r="AM280">
+        <v>1.67</v>
+      </c>
+      <c r="AN280">
+        <v>1.64</v>
+      </c>
+      <c r="AO280">
+        <v>1.08</v>
+      </c>
+      <c r="AP280">
+        <v>1.6</v>
+      </c>
+      <c r="AQ280">
+        <v>1.07</v>
+      </c>
+      <c r="AR280">
+        <v>1.35</v>
+      </c>
+      <c r="AS280">
+        <v>1.34</v>
+      </c>
+      <c r="AT280">
+        <v>2.69</v>
+      </c>
+      <c r="AU280">
+        <v>5</v>
+      </c>
+      <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>9</v>
+      </c>
+      <c r="AX280">
+        <v>2</v>
+      </c>
+      <c r="AY280">
+        <v>14</v>
+      </c>
+      <c r="AZ280">
+        <v>5</v>
+      </c>
+      <c r="BA280">
+        <v>5</v>
+      </c>
+      <c r="BB280">
+        <v>1</v>
+      </c>
+      <c r="BC280">
+        <v>6</v>
+      </c>
+      <c r="BD280">
+        <v>1.62</v>
+      </c>
+      <c r="BE280">
+        <v>7.5</v>
+      </c>
+      <c r="BF280">
+        <v>2.9</v>
+      </c>
+      <c r="BG280">
+        <v>1.25</v>
+      </c>
+      <c r="BH280">
+        <v>3.6</v>
+      </c>
+      <c r="BI280">
+        <v>1.42</v>
+      </c>
+      <c r="BJ280">
+        <v>2.62</v>
+      </c>
+      <c r="BK280">
+        <v>1.88</v>
+      </c>
+      <c r="BL280">
+        <v>1.92</v>
+      </c>
+      <c r="BM280">
+        <v>2.14</v>
+      </c>
+      <c r="BN280">
+        <v>1.71</v>
+      </c>
+      <c r="BO280">
+        <v>2.62</v>
+      </c>
+      <c r="BP280">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -59168,22 +59168,22 @@
         <v>2.69</v>
       </c>
       <c r="AU280">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV280">
+        <v>5</v>
+      </c>
+      <c r="AW280">
+        <v>11</v>
+      </c>
+      <c r="AX280">
         <v>3</v>
       </c>
-      <c r="AW280">
-        <v>10</v>
-      </c>
-      <c r="AX280">
-        <v>2</v>
-      </c>
       <c r="AY280">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ280">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA280">
         <v>7</v>
@@ -59374,22 +59374,22 @@
         <v>3.13</v>
       </c>
       <c r="AU281">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV281">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW281">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX281">
         <v>4</v>
       </c>
       <c r="AY281">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ281">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA281">
         <v>6</v>
@@ -59580,22 +59580,22 @@
         <v>2.78</v>
       </c>
       <c r="AU282">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV282">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW282">
+        <v>8</v>
+      </c>
+      <c r="AX282">
+        <v>1</v>
+      </c>
+      <c r="AY282">
+        <v>15</v>
+      </c>
+      <c r="AZ282">
         <v>6</v>
-      </c>
-      <c r="AX282">
-        <v>1</v>
-      </c>
-      <c r="AY282">
-        <v>10</v>
-      </c>
-      <c r="AZ282">
-        <v>4</v>
       </c>
       <c r="BA282">
         <v>9</v>
@@ -59786,22 +59786,22 @@
         <v>2.87</v>
       </c>
       <c r="AU283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV283">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW283">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX283">
         <v>5</v>
       </c>
       <c r="AY283">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ283">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA283">
         <v>3</v>
@@ -59992,31 +59992,31 @@
         <v>2.88</v>
       </c>
       <c r="AU284">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV284">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX284">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY284">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ284">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB284">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC284">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD284">
         <v>2.3</v>
@@ -60198,31 +60198,31 @@
         <v>2.7</v>
       </c>
       <c r="AU285">
+        <v>5</v>
+      </c>
+      <c r="AV285">
+        <v>7</v>
+      </c>
+      <c r="AW285">
+        <v>6</v>
+      </c>
+      <c r="AX285">
+        <v>4</v>
+      </c>
+      <c r="AY285">
+        <v>11</v>
+      </c>
+      <c r="AZ285">
+        <v>11</v>
+      </c>
+      <c r="BA285">
         <v>3</v>
       </c>
-      <c r="AV285">
-        <v>6</v>
-      </c>
-      <c r="AW285">
-        <v>1</v>
-      </c>
-      <c r="AX285">
-        <v>1</v>
-      </c>
-      <c r="AY285">
+      <c r="BB285">
         <v>4</v>
       </c>
-      <c r="AZ285">
+      <c r="BC285">
         <v>7</v>
-      </c>
-      <c r="BA285">
-        <v>1</v>
-      </c>
-      <c r="BB285">
-        <v>3</v>
-      </c>
-      <c r="BC285">
-        <v>4</v>
       </c>
       <c r="BD285">
         <v>2.72</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -60198,22 +60198,22 @@
         <v>2.7</v>
       </c>
       <c r="AU285">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV285">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW285">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX285">
         <v>4</v>
       </c>
       <c r="AY285">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ285">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA285">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J1 League_2024.xlsx
@@ -652,6 +652,9 @@
     <t>['58', '60', '76']</t>
   </si>
   <si>
+    <t>['20', '70']</t>
+  </si>
+  <si>
     <t>['62']</t>
   </si>
   <si>
@@ -662,9 +665,6 @@
   </si>
   <si>
     <t>['8']</t>
-  </si>
-  <si>
-    <t>['20', '70']</t>
   </si>
   <si>
     <t>['45+5']</t>
@@ -700,10 +700,10 @@
     <t>['49']</t>
   </si>
   <si>
-    <t>['61', '74']</t>
+    <t>['4', '45+3', '70', '88']</t>
   </si>
   <si>
-    <t>['4', '45+3', '70', '88']</t>
+    <t>['61', '74']</t>
   </si>
   <si>
     <t>['14', '32', '90+4']</t>
@@ -730,16 +730,16 @@
     <t>['30', '47']</t>
   </si>
   <si>
-    <t>['76', '81', '90']</t>
+    <t>['33', '90', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+10']</t>
   </si>
   <si>
     <t>['12', '67']</t>
   </si>
   <si>
-    <t>['90+10']</t>
-  </si>
-  <si>
-    <t>['33', '90', '90+3']</t>
+    <t>['76', '81', '90']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -751,10 +751,10 @@
     <t>['14', '27']</t>
   </si>
   <si>
-    <t>['18', '53', '79']</t>
+    <t>['57', '71', '85']</t>
   </si>
   <si>
-    <t>['57', '71', '85']</t>
+    <t>['18', '53', '79']</t>
   </si>
   <si>
     <t>['4', '31', '51']</t>
@@ -1114,19 +1114,19 @@
     <t>['33', '43']</t>
   </si>
   <si>
-    <t>['37', '45+2', '51', '57']</t>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['22', '54', '90+10']</t>
   </si>
   <si>
     <t>['4', '10', '79']</t>
   </si>
   <si>
-    <t>['22', '54', '90+10']</t>
+    <t>['79', '81']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
-    <t>['79', '81']</t>
+    <t>['37', '45+2', '51', '57']</t>
   </si>
   <si>
     <t>['21', '71', '87', '90+5']</t>
@@ -16845,7 +16845,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -40699,7 +40699,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7327093</v>
+        <v>7327094</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40714,190 +40714,190 @@
         <v>20</v>
       </c>
       <c r="G191" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H191" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M191">
         <v>1</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O191" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="P191" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="Q191">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="R191">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="T191">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U191">
-        <v>3.22</v>
+        <v>2.75</v>
       </c>
       <c r="V191">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="W191">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="X191">
+        <v>6.95</v>
+      </c>
+      <c r="Y191">
+        <v>1.07</v>
+      </c>
+      <c r="Z191">
+        <v>2.7</v>
+      </c>
+      <c r="AA191">
+        <v>3.2</v>
+      </c>
+      <c r="AB191">
+        <v>2.5</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>8.4</v>
+      </c>
+      <c r="AE191">
+        <v>1.27</v>
+      </c>
+      <c r="AF191">
+        <v>3.28</v>
+      </c>
+      <c r="AG191">
+        <v>1.91</v>
+      </c>
+      <c r="AH191">
+        <v>1.8</v>
+      </c>
+      <c r="AI191">
+        <v>1.72</v>
+      </c>
+      <c r="AJ191">
+        <v>2.05</v>
+      </c>
+      <c r="AK191">
+        <v>1.47</v>
+      </c>
+      <c r="AL191">
+        <v>1.28</v>
+      </c>
+      <c r="AM191">
+        <v>1.42</v>
+      </c>
+      <c r="AN191">
+        <v>1.4</v>
+      </c>
+      <c r="AO191">
+        <v>1.4</v>
+      </c>
+      <c r="AP191">
+        <v>1.13</v>
+      </c>
+      <c r="AQ191">
+        <v>1.43</v>
+      </c>
+      <c r="AR191">
+        <v>1.37</v>
+      </c>
+      <c r="AS191">
+        <v>1.58</v>
+      </c>
+      <c r="AT191">
+        <v>2.95</v>
+      </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
         <v>6</v>
       </c>
-      <c r="Y191">
-        <v>1.11</v>
-      </c>
-      <c r="Z191">
-        <v>1.53</v>
-      </c>
-      <c r="AA191">
-        <v>4.2</v>
-      </c>
-      <c r="AB191">
-        <v>5.25</v>
-      </c>
-      <c r="AC191">
-        <v>1.04</v>
-      </c>
-      <c r="AD191">
-        <v>10.5</v>
-      </c>
-      <c r="AE191">
+      <c r="AW191">
+        <v>5</v>
+      </c>
+      <c r="AX191">
+        <v>6</v>
+      </c>
+      <c r="AY191">
+        <v>10</v>
+      </c>
+      <c r="AZ191">
+        <v>12</v>
+      </c>
+      <c r="BA191">
+        <v>5</v>
+      </c>
+      <c r="BB191">
+        <v>10</v>
+      </c>
+      <c r="BC191">
+        <v>15</v>
+      </c>
+      <c r="BD191">
+        <v>1.95</v>
+      </c>
+      <c r="BE191">
+        <v>8</v>
+      </c>
+      <c r="BF191">
+        <v>2.05</v>
+      </c>
+      <c r="BG191">
         <v>1.2</v>
       </c>
-      <c r="AF191">
-        <v>3.9</v>
-      </c>
-      <c r="AG191">
-        <v>1.73</v>
-      </c>
-      <c r="AH191">
-        <v>2</v>
-      </c>
-      <c r="AI191">
-        <v>1.91</v>
-      </c>
-      <c r="AJ191">
-        <v>1.91</v>
-      </c>
-      <c r="AK191">
-        <v>1.09</v>
-      </c>
-      <c r="AL191">
-        <v>1.17</v>
-      </c>
-      <c r="AM191">
-        <v>2.45</v>
-      </c>
-      <c r="AN191">
-        <v>1.89</v>
-      </c>
-      <c r="AO191">
-        <v>1.22</v>
-      </c>
-      <c r="AP191">
-        <v>2</v>
-      </c>
-      <c r="AQ191">
-        <v>1.5</v>
-      </c>
-      <c r="AR191">
-        <v>2.15</v>
-      </c>
-      <c r="AS191">
-        <v>1.39</v>
-      </c>
-      <c r="AT191">
-        <v>3.54</v>
-      </c>
-      <c r="AU191">
-        <v>9</v>
-      </c>
-      <c r="AV191">
-        <v>2</v>
-      </c>
-      <c r="AW191">
-        <v>11</v>
-      </c>
-      <c r="AX191">
-        <v>3</v>
-      </c>
-      <c r="AY191">
-        <v>20</v>
-      </c>
-      <c r="AZ191">
-        <v>5</v>
-      </c>
-      <c r="BA191">
-        <v>11</v>
-      </c>
-      <c r="BB191">
-        <v>1</v>
-      </c>
-      <c r="BC191">
-        <v>12</v>
-      </c>
-      <c r="BD191">
-        <v>1.2</v>
-      </c>
-      <c r="BE191">
-        <v>9.6</v>
-      </c>
-      <c r="BF191">
-        <v>6.55</v>
-      </c>
-      <c r="BG191">
-        <v>1.22</v>
-      </c>
       <c r